--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ7"/>
+  <dimension ref="A1:CE7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,6 +744,111 @@
           <t>2025年04月07日</t>
         </is>
       </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月08日</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月09日</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月10日</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月11日</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月14日</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月15日</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月16日</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月17日</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月18日</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月25日</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月28日</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月29日</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月30日</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月06日</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月07日</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月08日</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月09日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -919,6 +1024,46 @@
           <t>301156.SZ; 美农生物; 0;  09:30:00; 2天2板; 19.85;  09:30:00; -2.8%; 2; 酶解蛋白产品+饲料添加剂+宠物经济</t>
         </is>
       </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>301156.SZ; 美农生物; 1;  10:02:23; 3天3板; 19.85;  09:39:39; -2.8%; 3; 酶解蛋白产品+饲料添加剂+宠物经济</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>300892.SZ; 品渥食品; 0;  13:36:05; 2天2板; 33.13;  13:36:05; -1.4%; 2; 乳业+进口食品+零售</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>300240.SZ; 飞力达; 0;  09:42:42; 2天2板; 7.9;  09:42:42; -2.3%; 2; 现代物流服务商+冷链物流</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>300542.SZ; 新晨科技; 0;  09:30:00; 2天2板; 19.07;  09:30:00; -1.7%; 2; 拟收购天一恩华+跨境支付+华为</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t>688280.SH; 精进电动; 0;  10:12:36; 2天2板; 7.98;  10:12:36; -10.3%; 2; 一季报增长+新能源汽车电驱动系统</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>688280.SH; 精进电动; 0;  10:09:48; 3天3板; 7.98;  10:09:48; -10.3%; 3; 一季报增长+新能源汽车电驱动系统</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>300884.SZ; 狄耐克; 1;  09:48:51; 2天2板; 13.19;  09:30:00; -8.7%; 2; 华为+智能家居+脑机接口+机器人</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>300095.SZ; 华伍股份; 1;  09:42:28; 2天2板; 9.75;  09:41:28; 0.1%; 2; 航空发动机+此前为巴基斯坦提供配套+工业制动器+智能制造</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1024,6 +1169,36 @@
           <t>300871.SZ; 回盛生物; 7;  13:07:26; 5天3板; 22.07;  10:13:16; -3.2%; 1; 兽用药品+泰乐菌素涨价+中药</t>
         </is>
       </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>831087.BJ; 秋乐种业; 0;  11:05:07; 2天2板; 19.92;  11:05:07; 1.3%; 2; 种业+实控人为河南农科院</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>831087.BJ; 秋乐种业; 10;  13:45:06; 3天3板; 19.92;  09:39:17; 1.3%; 3; 种业+国企</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>872351.BJ; 华光源海; 0;  09:42:42; 2天2板; 23.1;  09:42:42; 1.1%; 2; 统一大市场+国际物流</t>
+        </is>
+      </c>
+      <c r="CB3" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 0;  14:30:45; 3天2板; 37.1;  14:30:45; -5.2%; 1; 机器人概念+园林机械+一季度业绩增长+全球化布局</t>
+        </is>
+      </c>
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t>688280.SH; 精进电动; 4;  14:27:42; 4天4板; 7.98;  09:35:53; -10.3%; 4; 一季报增长+新能源汽车电驱动系统</t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 0;  14:43:41; 2天2板; 15.05;  14:43:41; 7.6%; 2; 航空装备+军工+无人机</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1074,6 +1249,26 @@
           <t>831689.BJ; 克莱特; 0;  13:08:15; 2天2板; 41.91;  13:08:15; -3.3%; 2; 海工装备+数据中心+核电+风电</t>
         </is>
       </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>300189.SZ; 神农种业; 0;  11:21:08; 2天2板; 4.34;  11:21:08; -0.9%; 2; 农业种植+水产养殖+海南</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>301058.SZ; 中粮科工; 0;  14:17:14; 2天2板; 11.07;  14:17:14; -1.2%; 2; 粮食+仓储物流+中字头+国企</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>300995.SZ; 奇德新材; 0;  09:48:05; 2天2板; 33.89;  09:48:05; -7.9%; 2; 高性能高分子复合材料+碳纤维+婴儿车</t>
+        </is>
+      </c>
+      <c r="CC4" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 1;  14:43:12; 4天3板; 37.1;  14:41:42; -5.2%; 2; 机器人概念+园林机械+一季度业绩增长+全球化布局</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1107,6 +1302,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>301230.SZ; 泓博医药; 12;  14:48:20; 2天2板; 29.54;  09:41:50; -2.9%; 2; AI制药+创新药+外销</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>301066.SZ; 万事利; 0;  10:57:57; 2天2板; 18.7;  10:57:57; 20.0%; 2; 离境退税+丝绸+电商+AI智能体</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ532"/>
+  <dimension ref="A1:CE532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1475,6 +1675,111 @@
           <t>2025年04月07日</t>
         </is>
       </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月08日</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月09日</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月10日</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月11日</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月14日</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月15日</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月16日</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月17日</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月18日</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月25日</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月28日</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月29日</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月30日</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月06日</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月07日</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月08日</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月09日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1518,6 +1823,16 @@
       <c r="BJ2" t="inlineStr">
         <is>
           <t>301075.SZ; 多瑞医药; 1;  09:33:03; 放量跌停; 24.03; 0.9%; 1; None</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>300871.SZ; 回盛生物; 2;  10:06:57; 放量跌停; 22.07; -3.2%; 1; 此前涨幅过大</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>688788.SH; 科思科技; 13;  10:08:23; 放量跌停; 56.76; -1.6%; 1; 公司及控股子公司部分银行账户被冻结</t>
         </is>
       </c>
     </row>
@@ -6842,7 +7157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ11"/>
+  <dimension ref="A1:CE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7156,6 +7471,111 @@
           <t>2025年04月07日</t>
         </is>
       </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月08日</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月09日</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月10日</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月11日</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月14日</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月15日</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月16日</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月17日</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月18日</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月25日</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月28日</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月29日</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月30日</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月06日</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月07日</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月08日</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月09日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -7451,6 +7871,101 @@
           <t>300281.SZ; 金明精机; 1;  09:33:00; 7.93; 曾涨停; -7.8%; 1.16H;  09:33:00</t>
         </is>
       </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>301581.SZ; 黄山谷捷; 1;  10:14:20; 51.06; 曾涨停; -1.3%; 0.05H;  10:14:20</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>301156.SZ; 美农生物; 3;  09:40:17; 19.85; 曾涨停; -2.8%; 0.06H;  09:40:17|| 09:43:42|| 09:47:14</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>832662.BJ; 方盛股份; 3;  09:37:15; 25.34; 曾涨停; -1.9%; 1.23H;  09:37:15|| 09:40:53|| 09:51:20</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>301185.SZ; 鸥玛软件; 1;  09:30:00; 18.27; 曾涨停; -1.3%; 0.01H;  09:30:00</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>301317.SZ; 鑫磊股份; 1;  09:30:42; 32.7; 曾涨停; 19.8%; 0.01H;  09:30:42</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>301011.SZ; 华立科技; 1;  09:30:06; 26.14; 曾涨停; -2.7%; 0.28H;  09:30:06</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>300155.SZ; 安居宝; 1;  10:10:17; 4.58; 曾涨停; -3.0%; 0.42H;  10:10:17</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>301509.SZ; 金凯生科; 1;  09:32:30; 35.61; 曾涨停; 0.7%; 0.57H;  09:32:30</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 1;  09:55:42; 21.17; 曾涨停; -3.8%; 0.02H;  09:55:42</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>301613.SZ; 新铝时代; 1;  09:30:20; 71.08; 曾涨停; -2.9%; 1.51H;  09:30:20</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>301000.SZ; 肇民科技; 3;  13:39:49; 52.01; 曾涨停; -5.9%; 0.03H;  13:39:49|| 13:42:34|| 14:47:47</t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>301535.SZ; 浙江华远; 2;  09:47:30; 19.65; 曾涨停; -3.5%; 0.15H;  09:47:30|| 09:51:45</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>301323.SZ; 新莱福; 1;  09:30:00; 40.51; 曾涨停; -2.2%; 0.02H;  09:30:00</t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>301209.SZ; 联合化学; 3;  10:20:18; 98.13; 曾涨停; -8.4%; 0.18H;  10:20:18|| 10:53:59|| 14:34:56</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 4;  13:00:55; 37.1; 曾涨停; -5.2%; 0.02H;  13:00:55|| 13:02:25|| 14:09:51|| 14:11:36</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>300423.SZ; 昇辉科技; 1;  09:31:56; 7.2; 曾涨停; -2.6%; 0.03H;  09:31:56</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>301356.SZ; 天振股份; 1;  09:31:23; 16.52; 曾涨停; -2.2%; 0.05H;  09:31:23</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>300753.SZ; 爱朋医疗; 1;  09:32:27; 22.4; 曾涨停; -9.3%; 0.70H;  09:32:27</t>
+        </is>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>301317.SZ; 鑫磊股份; 6;  09:36:27; 32.7; 曾涨停; 19.8%; 0.71H;  09:36:27|| 10:57:39|| 10:59:15|| 11:05:27|| 14:53:30|| 14:55:12</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -7706,6 +8221,81 @@
           <t>300485.SZ; 赛升药业; 1;  09:34:15; 8.19; 曾涨停; -1.2%; 0.59H;  09:34:15</t>
         </is>
       </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>300967.SZ; 晓鸣股份; 1;  14:33:54; 19.11; 曾涨停; -1.7%; 0.01H;  14:33:54</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>300203.SZ; 聚光科技; 1;  10:03:12; 20.61; 曾涨停; -1.6%; 0.00H;  10:03:12</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>688096.SH; 京源环保; 5;  09:55:05; 18.17; 曾涨停; -1.9%; 2.50H;  09:55:05|| 10:04:21|| 10:21:14|| 10:24:28|| 11:04:29</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>836675.BJ; 秉扬科技; 1;  09:47:30; 12.05; 曾涨停; 1.9%; 0.01H;  09:47:30</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>301558.SZ; 三态股份; 1;  10:06:07; 8.78; 曾涨停; -1.3%; 1.39H;  10:06:07</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>300997.SZ; 欢乐家; 1;  10:20:09; 14.97; 曾涨停; 5.8%; 1.77H;  10:20:09</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>920106.BJ; 林泰新材; 3;  10:16:32; 145.89; 曾涨停; 0.0%; 0.02H;  10:16:32|| 10:18:17|| 14:17:03</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>301061.SZ; 匠心家居; 1;  09:34:20; 74.15; 曾涨停; 2.4%; 0.02H;  09:34:20</t>
+        </is>
+      </c>
+      <c r="BX3" t="inlineStr">
+        <is>
+          <t>688313.SH; 仕佳光子; 1;  13:47:28; 29.14; 曾涨停; 0.6%; 0.24H;  13:47:28</t>
+        </is>
+      </c>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>301591.SZ; 肯特股份; 1;  09:57:59; 39.71; 曾涨停; -2.8%; 0.07H;  09:57:59</t>
+        </is>
+      </c>
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>300652.SZ; 雷迪克; 1;  10:24:03; 74.6; 曾涨停; -6.8%; 0.02H;  10:24:03</t>
+        </is>
+      </c>
+      <c r="CB3" t="inlineStr">
+        <is>
+          <t>300398.SZ; 飞凯材料; 1;  14:04:49; 19.74; 曾涨停; -3.3%; 0.28H;  14:04:49</t>
+        </is>
+      </c>
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t>300947.SZ; 德必集团; 1;  09:33:08; 20.2; 曾涨停; -2.0%; 1.33H;  09:33:08</t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>688159.SH; 有方科技; 1;  10:19:42; 54.68; 曾涨停; -5.2%; 0.04H;  10:19:42</t>
+        </is>
+      </c>
+      <c r="CE3" t="inlineStr">
+        <is>
+          <t>300663.SZ; 科蓝软件; 2;  09:55:30; 18.83; 曾涨停; 14.0%; 0.21H;  09:55:30|| 09:57:57</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -7896,6 +8486,61 @@
           <t>300549.SZ; 优德精密; 1;  10:00:31; 19.26; 曾涨停; -2.7%; 0.05H;  10:00:31</t>
         </is>
       </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>870508.BJ; 丰安股份; 2;  14:41:10; 19.92; 曾涨停; 0.4%; 0.24H;  14:41:10|| 14:46:55</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>300046.SZ; 台基股份; 1;  10:15:06; 30.93; 曾涨停; -3.0%; 0.01H;  10:15:06</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>837748.BJ; 路桥信息; 1;  10:02:51; 26.02; 曾涨停; -1.0%; 0.01H;  10:02:51</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>688486.SH; 龙迅股份; 1;  13:00:17; 69.8; 曾涨停; -2.9%; 0.03H;  13:00:17</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>300923.SZ; 研奥股份; 1;  10:26:38; 23.53; 曾涨停; -2.0%; 0.01H;  10:26:38</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>300994.SZ; 久祺股份; 1;  10:47:00; 17.57; 曾涨停; -10.9%; 0.15H;  10:47:00</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>301318.SZ; 维海德; 1;  09:38:05; 31.56; 曾涨停; -2.3%; 0.00H;  09:38:05</t>
+        </is>
+      </c>
+      <c r="BY4" t="inlineStr">
+        <is>
+          <t>301212.SZ; 联盛化学; 1;  14:56:27; 28; 曾涨停; -8.3%; 0.01H;  14:56:27</t>
+        </is>
+      </c>
+      <c r="CC4" t="inlineStr">
+        <is>
+          <t>871642.BJ; 通易航天; 1;  11:09:13; 20.41; 曾涨停; -12.1%; 1.36H;  11:09:13</t>
+        </is>
+      </c>
+      <c r="CD4" t="inlineStr">
+        <is>
+          <t>301209.SZ; 联合化学; 2;  13:20:37; 98.13; 曾涨停; -8.4%; 0.02H;  13:20:37|| 13:22:22</t>
+        </is>
+      </c>
+      <c r="CE4" t="inlineStr">
+        <is>
+          <t>688552.SH; 航天南湖; 2;  11:17:17; 34.11; 曾涨停; 11.1%; 1.36H;  11:17:17|| 14:09:38</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -8036,6 +8681,46 @@
           <t>301077.SZ; 星华新材; 1;  10:02:45; 33.8; 曾涨停; -2.8%; 0.04H;  10:02:45</t>
         </is>
       </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>870866.BJ; 绿亨科技; 2;  14:54:15; 10.58; 曾涨停; 0.7%; 0.09H;  14:54:15|| 14:56:24</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>688600.SH; 皖仪科技; 2;  13:57:45; 19.39; 曾涨停; -2.9%; 0.95H;  13:57:45|| 14:54:08</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 1;  10:18:21; 76.19; 曾涨停; 0.1%; 0.03H;  10:18:21</t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>688141.SH; 杰华特; 1;  13:06:24; 33.52; 曾涨停; -2.5%; 0.04H;  13:06:24</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>300723.SZ; 一品红; 2;  10:39:57; 35.95; 曾涨停; -1.5%; 0.70H;  10:39:57|| 11:24:46</t>
+        </is>
+      </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>920066.BJ; 科拜尔; 5;  09:39:20; 44.28; 曾涨停; -2.4%; 0.35H;  09:39:20|| 09:40:05|| 09:42:05|| 10:00:51|| 10:02:46</t>
+        </is>
+      </c>
+      <c r="CC5" t="inlineStr">
+        <is>
+          <t>300696.SZ; 爱乐达; 2;  11:11:44; 21.49; 曾涨停; -8.2%; 0.43H;  11:11:44|| 11:30:00</t>
+        </is>
+      </c>
+      <c r="CE5" t="inlineStr">
+        <is>
+          <t>873169.BJ; 七丰精工; 1;  11:25:00; 27.39; 曾涨停; 17.5%; 1.25H;  11:25:00</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -8151,6 +8836,31 @@
           <t>300005.SZ; 探路者; 1;  11:16:00; 10.06; 曾涨停; -7.0%; 0.02H;  11:16:00</t>
         </is>
       </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>300892.SZ; 品渥食品; 2;  13:14:12; 33.13; 曾涨停; -1.4%; 0.03H;  13:14:12|| 13:44:02</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>688347.SH; 华虹公司; 3;  13:36:06; 47.15; 曾涨停; -9.3%; 0.35H;  13:36:06|| 13:43:24|| 14:24:33</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>300086.SZ; 康芝药业; 1;  11:06:27; 4.85; 曾涨停; -1.0%; 0.39H;  11:06:27</t>
+        </is>
+      </c>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>301277.SZ; 新天地; 1;  09:45:05; 12.26; 曾涨停; -2.2%; 0.07H;  09:45:05</t>
+        </is>
+      </c>
+      <c r="CC6" t="inlineStr">
+        <is>
+          <t>302132.SZ; 中航成飞; 1;  11:28:32; 79.88; 曾涨停; -4.0%; 0.33H;  11:28:32</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -8214,6 +8924,16 @@
       <c r="AW7" t="inlineStr">
         <is>
           <t>920082.BJ; 方正阀门; 1;  14:38:30; 19.92; 曾涨停; -1.9%; 0.07H;  14:38:30</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>836422.BJ; 润普食品; 3;  13:31:49; 14.73; 曾涨停; -1.4%; 0.50H;  13:31:49|| 14:00:54|| 14:51:47</t>
+        </is>
+      </c>
+      <c r="BV7" t="inlineStr">
+        <is>
+          <t>301196.SZ; 唯科科技; 1;  13:06:31; 65.39; 曾涨停; -2.6%; 0.06H;  13:06:31</t>
         </is>
       </c>
     </row>
@@ -8328,7 +9048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ24"/>
+  <dimension ref="A1:CE30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8642,6 +9362,111 @@
           <t>2025年04月07日</t>
         </is>
       </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月08日</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月09日</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月10日</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月11日</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月14日</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月15日</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月16日</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月17日</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月18日</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月25日</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月28日</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月29日</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月30日</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月06日</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月07日</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月08日</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月09日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8947,6 +9772,111 @@
           <t>839371.BJ; 欧福蛋业; 1;  14:28:16; 首板涨停; 11.79;  10:26:29; 0.0%; 1; 烘焙+内需消费</t>
         </is>
       </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>301138.SZ; 华研精机; 0;  09:33:39; 首板涨停; 31.34;  09:33:39; -1.7%; 1; 机器人+PET瓶包装设备+年报增长</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>871642.BJ; 通易航天; 0;  09:33:31; 首板涨停; 20.41;  09:33:31; -12.1%; 1; 军工+大飞机</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>873726.BJ; 卓兆点胶; 0;  09:30:06; 首板涨停; 30.81;  09:30:06; 1.7%; 1; 桌面机器人+果链</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>300671.SZ; 富满微; 0;  09:35:15; 首板涨停; 29.81;  09:35:15; -3.6%; 1; 模拟芯片+5G射频</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>300994.SZ; 久祺股份; 0;  09:34:47; 首板涨停; 17.57;  09:34:47; -10.9%; 1; 体育产业+两轮车+跨境电商+外销</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>300530.SZ; 领湃科技; 2;  09:49:38; 首板涨停; 28.93;  09:44:38; 7.1%; 1; 固态电池+充电桩+湖南国资</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>300605.SZ; 恒锋信息; 2;  10:00:07; 首板涨停; 16.34;  09:49:22; -2.6%; 1; 国产软件+智慧政务+AI Agent+华为昇腾</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>301190.SZ; 善水科技; 0;  09:33:47; 首板涨停; 21;  09:33:47; -2.1%; 1; 精细化工+农化产品+年报预增</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>301566.SZ; 达利凯普; 0;  09:44:15; 首板涨停; 16.53;  09:44:15; -0.4%; 1; 一季报增长+射频微波 MLCC+半导体+5G</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>688313.SH; 仕佳光子; 0;  09:30:00; 首板涨停; 29.14;  09:30:00; 0.6%; 1; 一季报增长+光芯片</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>300542.SZ; 新晨科技; 0;  09:30:00; 首板涨停; 19.07;  09:30:00; -1.7%; 1; 拟收购天一恩华+跨境支付+华为</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>301000.SZ; 肇民科技; 0;  11:21:08; 首板涨停; 52.01;  11:21:08; -5.9%; 1; 人形机器人+PEEK材料+汽车零部件</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>301509.SZ; 金凯生科; 3;  09:36:36; 首板涨停; 35.61;  09:30:51; 0.7%; 1; 一季报增长+CDMO+减肥药+美国生产基地</t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>300824.SZ; 北鼎股份; 0;  09:56:45; 首板涨停; 12.3;  09:56:45; 2.5%; 1; 一季报增长+跨境电商+家用电器</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>300157.SZ; 新锦动力; 0;  09:35:29; 首板涨停; 3.57;  09:35:29; -6.1%; 1; 一季报扭亏+高端装备+油气</t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>300548.SZ; 博创科技; 0;  09:34:20; 首板涨停; 49.3;  09:34:20; -1.8%; 1; 一季报增长+光模块+高速铜缆</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t>300005.SZ; 探路者; 2;  11:03:22; 首板涨停; 10.06;  09:33:15; -7.0%; 1; 外骨骼机器人+户外龙头+芯片业务增长</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>301082.SZ; 久盛电气; 0;  09:34:54; 首板涨停; 16.66;  09:34:54; -2.4%; 1; 核电+防火类特种电缆+电力电缆</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>300281.SZ; 金明精机; 0;  09:35:23; 首板涨停; 7.93;  09:35:23; -7.8%; 1; 外骨骼机器人+智能化塑机+薄膜+国企</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>300994.SZ; 久祺股份; 0;  09:36:42; 首板涨停; 17.57;  09:36:42; -10.9%; 1; 跨境电商+儿童自行车+两轮车+外销</t>
+        </is>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>301066.SZ; 万事利; 0;  09:47:33; 首板涨停; 18.7;  09:47:33; 20.0%; 1; 丝绸文创+数码印花技术+AI智能体+市场拓展</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9237,6 +10167,111 @@
           <t>300189.SZ; 神农种业; 1;  14:34:20; 首板涨停; 4.34;  10:40:32; -0.9%; 1; 农业种植+水产养殖+海南</t>
         </is>
       </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>836422.BJ; 润普食品; 1;  09:40:09; 首板涨停; 14.73;  09:38:56; -1.4%; 1; 食品添加剂+外销</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>300696.SZ; 爱乐达; 0;  09:36:46; 首板涨停; 21.49;  09:36:46; -8.2%; 1; 军工+航空零部件+商业航天+无人机</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>301389.SZ; 隆扬电子; 1;  09:30:51; 首板涨停; 20.02;  09:30:21; -3.4%; 1; 全球布局+消费电子+铜箔</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>301027.SZ; 华蓝集团; 1;  10:04:13; 首板涨停; 12.27;  09:59:58; -1.1%; 1; 一带一路+广西+工程咨询+算力</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>301287.SZ; 康力源; 1;  09:44:51; 首板涨停; 33.68;  09:38:50; -0.5%; 1; 健身器材+外销</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>301108.SZ; 洁雅股份; 0;  10:25:24; 首板涨停; 28.18;  10:25:24; 0.0%; 1; 个护用品+美国建厂+化妆品</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>301618.SZ; 长联科技; 0;  11:14:38; 首板涨停; 84.05;  11:14:38; -1.8%; 1; SHEIN（希音）合作+纺织印花材料+智能制造</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>300721.SZ; 怡达股份; 0;  09:39:47; 首板涨停; 14.55;  09:39:47; -4.0%; 1; 光刻胶+环氧丙烷+有机化工</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>300322.SZ; 硕贝德; 1;  13:04:24; 首板涨停; 15.45;  10:40:21; 6.0%; 1; 一季报预增+卫星导航+AI眼镜+消费电子</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>300464.SZ; 星徽股份; 0;  09:35:09; 首板涨停; 4.94;  09:35:09; -1.8%; 1; 跨境电商+精密金属连接件+智能家居</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>301486.SZ; 致尚科技; 0;  09:30:00; 首板涨停; 61.89;  09:30:00; 0.3%; 1; 拟收购恒扬数据+业绩增长+消费电子</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>300784.SZ; 利安科技; 3;  14:45:57; 首板涨停; 53;  10:05:49; -4.0%; 1; 机器人+注塑产品+IP+次新股</t>
+        </is>
+      </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>300267.SZ; 尔康制药; 0;  09:45:06; 首板涨停; 2.95;  09:45:06; -1.3%; 1; 一季报增长+药用辅料+碳酸锂</t>
+        </is>
+      </c>
+      <c r="BX3" t="inlineStr">
+        <is>
+          <t>300746.SZ; 汉嘉设计; 0;  10:00:45; 首板涨停; 13.38;  10:00:45; -2.5%; 1; 一季报增长+机器人概念+智慧城市+并购重组</t>
+        </is>
+      </c>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>301479.SZ; 弘景光电; 0;  11:15:15; 首板涨停; 131.03;  11:15:15; -3.4%; 1; 业绩增长+智能汽车光学镜头+影石</t>
+        </is>
+      </c>
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>301131.SZ; 聚赛龙; 0;  09:35:50; 首板涨停; 44.81;  09:35:50; -4.4%; 1; 新能源汽车+机器人+PEEK材料+一季报增长</t>
+        </is>
+      </c>
+      <c r="CA3" t="inlineStr">
+        <is>
+          <t>688667.SH; 菱电电控; 1;  11:21:55; 首板涨停; 55.09;  10:19:23; -4.4%; 1; 一季报增长+新能源汽车+并购重组</t>
+        </is>
+      </c>
+      <c r="CB3" t="inlineStr">
+        <is>
+          <t>300884.SZ; 狄耐克; 0;  09:57:27; 首板涨停; 13.19;  09:57:27; -8.7%; 1; 华为+智能家居+脑机接口+机器人</t>
+        </is>
+      </c>
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t>872925.BJ; 锦好医疗; 0;  09:38:53; 首板涨停; 16.48;  09:38:53; -6.0%; 1; 助听器+外销+芯片</t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>688448.SH; 磁谷科技; 0;  09:45:18; 首板涨停; 35.16;  09:45:18; 4.1%; 1; 磁悬浮流体机械</t>
+        </is>
+      </c>
+      <c r="CE3" t="inlineStr">
+        <is>
+          <t>301053.SZ; 远信工业; 0;  10:02:18; 首板涨停; 32.66;  10:02:18; 20.0%; 1; 纺织设备+节能环保拉幅定形机+东南亚销售</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -9502,6 +10537,106 @@
           <t>831087.BJ; 秋乐种业; 0;  15:00:00; 首板涨停; 19.92;  15:00:00; 1.3%; 1; 种业+实控人为河南农科院</t>
         </is>
       </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>300892.SZ; 品渥食品; 0;  09:41:15; 首板涨停; 33.13;  09:41:15; -1.4%; 1; 乳业+进口食品+零售</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 0;  09:36:46; 首板涨停; 37.48;  09:36:46; -0.7%; 1; 军用车辆+无人机</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>688049.SH; 炬芯科技; 0;  09:34:21; 首板涨停; 51.78;  09:34:21; -3.1%; 1; 一季报预增+端侧AI+蓝牙音箱SoC</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>688536.SH; 思瑞浦; 3;  10:41:58; 首板涨停; 149.27;  09:45:15; -1.0%; 1; 模拟芯片+关税影响有限</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>300651.SZ; 金陵体育; 0;  09:45:10; 首板涨停; 14.13;  09:45:10; -0.5%; 1; 体育产业+足球概念</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>301558.SZ; 三态股份; 1;  13:00:21; 首板涨停; 8.78;  11:22:36; -1.3%; 1; 跨境电商+AI SaaS</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>300941.SZ; 创识科技; 0;  14:01:55; 首板涨停; 23.6;  14:01:55; -2.0%; 1; 电子支付+AI医疗+数字人民币</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>300616.SZ; 尚品宅配; 0;  10:23:48; 首板涨停; 12.69;  10:23:48; -1.2%; 1; 全屋板式家具+AI设计工厂+网络直播</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>688182.SH; 灿勤科技; 0;  13:48:54; 首板涨停; 25.72;  13:48:54; -3.1%; 1; 5G+滤波器+一季报增长</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 0;  10:17:58; 首板涨停; 11.01;  10:17:58; 5.2%; 1; 创新药+血友病药物+公司称处于最好发展时期</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>300350.SZ; 华鹏飞; 0;  09:32:18; 首板涨停; 6;  09:32:18; -1.0%; 1; 物流+跨境电商+国际物流</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>301225.SZ; 恒勃股份; 5;  14:49:14; 首板涨停; 64.4;  13:00:46; 4.1%; 1; 华为汽车+进气系统+车联网+年报增长（拟10派4.2元）</t>
+        </is>
+      </c>
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>300994.SZ; 久祺股份; 0;  10:27:51; 首板涨停; 17.57;  10:27:51; -10.9%; 1; 体育产业+两轮车+跨境电商+外销</t>
+        </is>
+      </c>
+      <c r="BX4" t="inlineStr">
+        <is>
+          <t>301486.SZ; 致尚科技; 7;  14:20:37; 首板涨停; 61.89;  13:23:05; 0.3%; 1; 拟收购恒扬数据+消费电子+一季报增长</t>
+        </is>
+      </c>
+      <c r="BY4" t="inlineStr">
+        <is>
+          <t>301209.SZ; 联合化学; 0;  14:27:56; 首板涨停; 98.13;  14:27:56; -8.4%; 1; 染料+有机颜料+一季报增长</t>
+        </is>
+      </c>
+      <c r="BZ4" t="inlineStr">
+        <is>
+          <t>688280.SH; 精进电动; 0;  09:38:50; 首板涨停; 7.98;  09:38:50; -10.3%; 1; 一季报增长+新能源汽车电驱动系统</t>
+        </is>
+      </c>
+      <c r="CA4" t="inlineStr">
+        <is>
+          <t>301387.SZ; 光大同创; 0;  13:00:10; 首板涨停; 37.87;  13:00:10; -6.0%; 1; 机器人概念+一季报增长+消费电子</t>
+        </is>
+      </c>
+      <c r="CB4" t="inlineStr">
+        <is>
+          <t>300047.SZ; 天源迪科; 0;  09:59:07; 首板涨停; 15.48;  09:59:07; -4.6%; 1; 华为总经销商+拟收购金华威剩余45%股权</t>
+        </is>
+      </c>
+      <c r="CC4" t="inlineStr">
+        <is>
+          <t>300507.SZ; 苏奥传感; 1;  09:43:42; 首板涨停; 8.99;  09:30:00; 4.4%; 1; 实控人将变更为中创新航+汽车零部件</t>
+        </is>
+      </c>
+      <c r="CD4" t="inlineStr">
+        <is>
+          <t>300960.SZ; 通业科技; 0;  09:54:03; 首板涨停; 22.18;  09:54:03; -5.2%; 1; 轨交设备+维保市场+业绩增长</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -9747,6 +10882,96 @@
           <t>300967.SZ; 晓鸣股份; 1;  15:00:00; 首板涨停; 19.11;  10:50:12; -1.7%; 1; 养鸡+鸡产品销售实现量价齐升</t>
         </is>
       </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>300138.SZ; 晨光生物; 1;  09:41:35; 首板涨停; 11.53;  09:30:54; 0.3%; 1; 农业种植+一季报预增+价格上涨</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>300700.SZ; 岱勒新材; 0;  09:50:31; 首板涨停; 9.36;  09:50:31; -2.4%; 1; 光刻胶+金刚石线+光伏</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>301061.SZ; 匠心家居; 0;  09:47:05; 首板涨停; 74.15;  09:47:05; 2.4%; 1; 全球生产布局+智能家居+业绩预增</t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>688130.SH; 晶华微; 0;  11:08:51; 首板涨停; 26.1;  11:08:51; -4.7%; 1; 收购智芯微+家电、医疗SoC芯片</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 0;  09:46:26; 首板涨停; 16.72;  09:46:26; -5.1%; 1; 核电+海工装备+焊材</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>300927.SZ; 江天化学; 0;  14:29:51; 首板涨停; 25.91;  14:29:51; -5.9%; 1; 甲醇+可用于生产季戊四醇+年报预增+国企</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>301232.SZ; 飞沃科技; 1;  14:56:02; 首板涨停; 28.99;  09:33:22; 0.9%; 1; 大飞机+商业航天+紧固件+风电</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>300805.SZ; 电声股份; 0;  13:03:51; 首板涨停; 10.52;  13:03:51; -1.8%; 1; 电子商务+营销+AI+并购预期</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>688093.SH; 世华科技; 0;  13:49:24; 首板涨停; 26.35;  13:49:24; -4.8%; 1; 一季报大增+功能性材料</t>
+        </is>
+      </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>300822.SZ; 贝仕达克; 0;  10:23:31; 首板涨停; 21.06;  10:23:31; -1.5%; 1; 跨境电商+智能控制器+C端智能产品+宠物经济</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>300531.SZ; 优博讯; 0;  09:37:22; 首板涨停; 16.16;  09:37:22; 1.6%; 1; 跨境支付(CIPS)+数字货币+信创+蜜雪冰城合作</t>
+        </is>
+      </c>
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>301335.SZ; 天元宠物; 0;  10:30:36; 首板涨停; 25.08;  10:30:36; -1.3%; 1; 宠物经济+营收增长+海外工厂扩建</t>
+        </is>
+      </c>
+      <c r="BX5" t="inlineStr">
+        <is>
+          <t>300040.SZ; 九洲集团; 2;  14:25:39; 首板涨停; 7.9;  10:27:42; 5.2%; 1; 电力+华为超充+数据中心</t>
+        </is>
+      </c>
+      <c r="BZ5" t="inlineStr">
+        <is>
+          <t>301076.SZ; 新瀚新材; 0;  09:46:35; 首板涨停; 37.1;  09:46:35; -1.7%; 1; DFBP（PEEK材料核心原料）+芳香族酮类+一季报增长</t>
+        </is>
+      </c>
+      <c r="CA5" t="inlineStr">
+        <is>
+          <t>870199.BJ; 倍益康; 0;  13:00:25; 首板涨停; 29.1;  13:00:25; -8.3%; 1; 理疗机器人+IP筋膜枪+鸿蒙概念</t>
+        </is>
+      </c>
+      <c r="CB5" t="inlineStr">
+        <is>
+          <t>688609.SH; 九联科技; 0;  10:11:09; 首板涨停; 10.93;  10:11:09; -5.2%; 1; 华为鸿蒙+智能终端</t>
+        </is>
+      </c>
+      <c r="CC5" t="inlineStr">
+        <is>
+          <t>301518.SZ; 长华化学; 0;  10:17:13; 首板涨停; 22.14;  10:17:13; -6.6%; 1; 聚醚多元醇+化工</t>
+        </is>
+      </c>
+      <c r="CD5" t="inlineStr">
+        <is>
+          <t>301317.SZ; 鑫磊股份; 0;  09:59:27; 首板涨停; 32.7;  09:59:27; 19.8%; 1; 空气动力设备+压缩机+中俄贸易</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -9972,6 +11197,86 @@
           <t>300240.SZ; 飞力达; 1;  13:00:05; 首板涨停; 7.9;  11:15:50; -2.3%; 1; 现代物流服务商+冷链物流</t>
         </is>
       </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>301533.SZ; 威马农机; 0;  09:41:35; 首板涨停; 32.05;  09:41:35; -1.2%; 1; 农机+外销</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>300527.SZ; 中船应急; 0;  09:56:57; 首板涨停; 8.01;  09:56:57; -1.7%; 1; 中船系+应急交通工程装备+核应急</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>301187.SZ; 欧圣电气; 0;  09:51:20; 首板涨停; 34.38;  09:51:20; -1.1%; 1; 机器人+家电+一带一路+外销</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>300656.SZ; 民德电子; 4;  11:23:51; 首板涨停; 24.84;  09:38:00; -1.2%; 1; 半导体+条码识别设备+无人驾驶+深圳</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>873132.BJ; 泰鹏智能; 0;  09:54:52; 首板涨停; 23.8;  09:54:52; 2.0%; 1; 户外露营+帐篷+一带一路+外销</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>839273.BJ; 一致魔芋; 0;  14:41:06; 首板涨停; 45.3;  14:41:06; -1.5%; 1; 魔芋+营收可能翻倍+卫龙等合作</t>
+        </is>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>300947.SZ; 德必集团; 1;  14:34:13; 首板涨停; 20.2;  11:29:34; -2.0%; 1; 文化创意产业园区+桃花坞文化IP+人工智能</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>831961.BJ; 创远信科; 4;  14:05:39; 首板涨停; 23.66;  13:10:09; 7.3%; 1; 6G+车联网+卫星通讯</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>300892.SZ; 品渥食品; 0;  11:07:37; 首板涨停; 33.13;  11:07:37; -1.4%; 1; 乳业+进口食品+零售+年报净利增长</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>300995.SZ; 奇德新材; 0;  10:29:09; 首板涨停; 33.89;  10:29:09; -7.9%; 1; 新能源汽车+机器人+一带一路</t>
+        </is>
+      </c>
+      <c r="BW6" t="inlineStr">
+        <is>
+          <t>301076.SZ; 新瀚新材; 0;  13:36:34; 首板涨停; 37.1;  13:36:34; -1.7%; 1; DFBP（PEEK材料核心原料）+芳香族酮类</t>
+        </is>
+      </c>
+      <c r="BZ6" t="inlineStr">
+        <is>
+          <t>300571.SZ; 平治信息; 0;  11:06:46; 首板涨停; 32.35;  11:06:46; -2.2%; 1; 一季报净利增长+算力转型</t>
+        </is>
+      </c>
+      <c r="CA6" t="inlineStr">
+        <is>
+          <t>301008.SZ; 宏昌科技; 0;  13:19:25; 首板涨停; 28.47;  13:19:25; -7.7%; 1; 减速器（可用于机器人）+洗衣机+流体电磁阀</t>
+        </is>
+      </c>
+      <c r="CB6" t="inlineStr">
+        <is>
+          <t>832876.BJ; 慧为智能; 0;  10:13:00; 首板涨停; 39.48;  10:13:00; 1.5%; 1; 鸿蒙概念+智能终端+信创</t>
+        </is>
+      </c>
+      <c r="CC6" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 2;  10:36:35; 首板涨停; 15.05;  09:43:57; 7.6%; 1; 航空装备+军工+无人机</t>
+        </is>
+      </c>
+      <c r="CD6" t="inlineStr">
+        <is>
+          <t>688556.SH; 高测股份; 0;  10:05:41; 首板涨停; 10.29;  10:05:41; -4.1%; 1; 光伏切割设备+金刚线+丝杠</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -10157,6 +11462,81 @@
           <t>688238.SH; 和元生物; 13;  14:55:28; 首板涨停; 5.58;  10:14:12; -4.0%; 1; CRO+细胞免疫治疗</t>
         </is>
       </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>300961.SZ; 深水海纳; 0;  09:51:56; 首板涨停; 15.82;  09:51:56; -1.9%; 1; 海洋工程+水务环保+智能机器人+实控人拟变更为国资</t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 0;  09:58:57; 首板涨停; 15.05;  09:58:57; 7.6%; 1; 航空装备+军工+无人机</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>300386.SZ; 飞天诚信; 0;  09:51:35; 首板涨停; 17.78;  09:51:35; 3.9%; 1; 跨境支付+物联网安全芯片+信息安全+互联网金融</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>300661.SZ; 圣邦股份; 0;  11:24:51; 首板涨停; 97.23;  11:24:51; -2.2%; 1; 模拟芯片+电源管理芯片+年报预增</t>
+        </is>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>300466.SZ; 赛摩智能; 0;  09:57:07; 首板涨停; 12.18;  09:57:07; -4.5%; 1; 新型工业化+机器人+国企改革</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>300703.SZ; 创源股份; 7;  14:49:06; 首板涨停; 15.88;  09:34:23; -1.4%; 1; IP经济+文娱用品+跨境电商+外销</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>688602.SH; 康鹏科技; 4;  15:00:00; 首板涨停; 7.76;  13:05:06; -1.0%; 1; 精细化学品+锂电池+光刻胶</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>300778.SZ; 新城市; 0;  14:38:14; 首板涨停; 12.37;  14:38:14; 0.2%; 1; 新型城镇化+地下管网+股份回购</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>301259.SZ; 艾布鲁; 0;  11:20:18; 首板涨停; 38.14;  11:20:18; 8.3%; 1; 参股中昊芯英+环保概念</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>301258.SZ; 富士莱; 0;  13:36:09; 首板涨停; 27.86;  13:36:09; -2.1%; 1; 业绩增长+化学制药+产能扩张</t>
+        </is>
+      </c>
+      <c r="BZ7" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 0;  13:13:03; 首板涨停; 37.1;  13:13:03; -5.2%; 1; 一季度业绩增长+机器人概念+园林机械+全球化布局</t>
+        </is>
+      </c>
+      <c r="CA7" t="inlineStr">
+        <is>
+          <t>838810.BJ; 春光智能; 0;  13:57:05; 首板涨停; 25.24;  13:57:05; 1.6%; 1; 机器人+高柔性智能包装装备+智能物流</t>
+        </is>
+      </c>
+      <c r="CB7" t="inlineStr">
+        <is>
+          <t>300918.SZ; 南山智尚; 0;  10:55:13; 首板涨停; 22.55;  10:55:13; -4.4%; 1; 人形机器人+灵巧手</t>
+        </is>
+      </c>
+      <c r="CC7" t="inlineStr">
+        <is>
+          <t>300095.SZ; 华伍股份; 3;  10:53:47; 首板涨停; 9.75;  10:41:06; 0.1%; 1; 航空发动机+此前为巴基斯坦提供配套+工业制动器+智能制造</t>
+        </is>
+      </c>
+      <c r="CD7" t="inlineStr">
+        <is>
+          <t>300091.SZ; 金通灵; 0;  10:20:57; 首板涨停; 2.89;  10:20:57; -4.9%; 1; 压缩机+节能环保装备+预重整+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -10327,6 +11707,66 @@
           <t>301201.SZ; 诚达药业; 1;  15:00:00; 首板涨停; 21.3;  09:44:15; -3.8%; 1; CRO+细胞免疫治疗+左旋肉碱+原料药</t>
         </is>
       </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>301078.SZ; 孩子王; 0;  10:00:31; 首板涨停; 12.48;  10:00:31; -3.6%; 1; 母婴零售+电商+一季报预增</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>430139.BJ; 华岭股份; 1;  10:01:57; 首板涨停; 25.04;  09:58:57; -2.4%; 1; 半导体+先进封装</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>688678.SH; 福立旺; 0;  09:59:36; 首板涨停; 21.53;  09:59:36; -7.2%; 1; 关税影响较小+消费电子+精密金属零部件</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>688052.SH; 纳芯微; 2;  11:25:24; 首板涨停; 185.26;  11:11:53; 2.2%; 1; 半导体+模拟芯片+汽车芯片+拟7.93亿现金收购麦歌恩</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>301392.SZ; 汇成真空; 0;  10:17:12; 首板涨停; 122.99;  10:17:12; -6.8%; 1; 果链+真空镀膜设备+锂电池</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>836892.BJ; 广咨国际; 1;  14:46:16; 首板涨停; 19.4;  14:26:52; 1.1%; 1; 工程咨询+一带一路+国企</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>300605.SZ; 恒锋信息; 0;  13:16:17; 首板涨停; 16.34;  13:16:17; -2.6%; 1; MCP+AI Agent+智慧政务+国产软件</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 0;  14:55:33; 首板涨停; 21.17;  14:55:33; -3.8%; 1; 跨境支付+跨境电商</t>
+        </is>
+      </c>
+      <c r="BZ8" t="inlineStr">
+        <is>
+          <t>300695.SZ; 兆丰股份; 0;  13:16:48; 首板涨停; 74.61;  13:16:48; -7.6%; 1; 一季报增长+人形机器人+汽车轮毂轴承</t>
+        </is>
+      </c>
+      <c r="CB8" t="inlineStr">
+        <is>
+          <t>301509.SZ; 金凯生科; 0;  11:08:56; 首板涨停; 35.61;  11:08:56; 0.7%; 1; 一季报增长+CDMO+减肥药+美国生产基地</t>
+        </is>
+      </c>
+      <c r="CC8" t="inlineStr">
+        <is>
+          <t>688171.SH; 纬德信息; 1;  14:26:57; 首板涨停; 29.4;  09:37:08; 1.4%; 1; 电力信息安全+AI大模型+外延并购</t>
+        </is>
+      </c>
+      <c r="CD8" t="inlineStr">
+        <is>
+          <t>300032.SZ; 金龙机电; 0;  13:22:07; 首板涨停; 5.17;  13:22:07; -12.7%; 1; 消费电子+马达+华为概念+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -10452,6 +11892,56 @@
           <t>300643.SZ; 万通智控; 0;  14:09:40; 首板涨停; 17.92;  14:09:40; 6.1%; 1; 车联网+传感器+智慧轮胎+汽车零部件</t>
         </is>
       </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>872895.BJ; 花溪科技; 0;  10:06:53; 首板涨停; 19.06;  10:06:53; 1.8%; 1; 农业机械+次新股</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>301048.SZ; 金鹰重工; 4;  10:08:42; 首板涨停; 9.42;  09:31:01; -2.3%; 1; 高铁+轨道交通+一带一路+国企</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>838262.BJ; 太湖雪; 1;  10:13:51; 首板涨停; 27.28;  09:48:05; 11.8%; 1; 蚕丝被+电商</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>301099.SZ; 雅创电子; 0;  13:00:42; 首板涨停; 46.57;  13:00:42; -2.5%; 1; 汽车芯片+人形机器人</t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>300169.SZ; 天晟新材; 0;  14:30:32; 首板涨停; 7.14;  14:30:32; -3.5%; 1; 露营经济+高分子材料</t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>301009.SZ; 可靠股份; 0;  13:38:43; 首板涨停; 11.93;  13:38:43; -1.8%; 1; 个护用品+跨境电商+业绩增长</t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>300920.SZ; 润阳科技; 0;  14:56:33; 首板涨停; 31.85;  14:56:33; 1.0%; 1; IXPE+PVC塑料地板+三胎概念+越南、泰国产能</t>
+        </is>
+      </c>
+      <c r="CB9" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 0;  11:15:14; 首板涨停; 16.72;  11:15:14; -5.1%; 1; 核电+海工装备+焊材</t>
+        </is>
+      </c>
+      <c r="CC9" t="inlineStr">
+        <is>
+          <t>300255.SZ; 常山药业; 20;  14:36:42; 首板涨停; 25.99;  09:53:38; -2.4%; 1; 减肥药+肝素产业链+一季报扭亏</t>
+        </is>
+      </c>
+      <c r="CD9" t="inlineStr">
+        <is>
+          <t>873169.BJ; 七丰精工; 2;  13:44:50; 首板涨停; 27.39;  10:21:27; 17.5%; 1; 航空航天+轨道交通+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -10557,6 +12047,51 @@
           <t>688507.SH; 索辰科技; 2;  14:03:12; 首板涨停; 77.33;  13:00:16; -6.3%; 1; 人形机器人+索辰物理AI开发平台+CAE软件+拟收购力控科技51%股权</t>
         </is>
       </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>301032.SZ; 新柴股份; 0;  10:12:23; 首板涨停; 13.72;  10:12:23; -4.0%; 1; 柴油发动机+农机</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>300722.SZ; 新余国科; 2;  10:25:23; 首板涨停; 30.62;  10:10:57; -0.8%; 1; 军工+火工品+国企</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>300528.SZ; 幸福蓝海; 1;  11:03:56; 首板涨停; 8.9;  10:37:13; -3.6%; 1; 电影全产业链+国企</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>300920.SZ; 润阳科技; 0;  13:09:44; 首板涨停; 31.85;  13:09:44; 1.0%; 1; IXPE+PVC塑料地板+三胎概念+越南、泰国产能</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>301209.SZ; 联合化学; 0;  14:31:17; 首板涨停; 98.13;  14:31:17; -8.4%; 1; 染料+年报预增</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>300051.SZ; 琏升科技; 3;  14:11:25; 首板涨停; 6.62;  09:30:00; -2.6%; 1; 拟收购兴储世纪69.71%股份+HJT电池</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>838163.BJ; 方大新材; 2;  14:56:33; 首板涨停; 16.3;  10:33:28; -0.2%; 1; 物流包装+外销</t>
+        </is>
+      </c>
+      <c r="CB10" t="inlineStr">
+        <is>
+          <t>301123.SZ; 奕东电子; 0;  11:27:40; 首板涨停; 21.46;  11:27:40; -3.0%; 1; 铜缆高速连接+消费电子</t>
+        </is>
+      </c>
+      <c r="CD10" t="inlineStr">
+        <is>
+          <t>302132.SZ; 中航成飞; 0;  13:53:09; 首板涨停; 79.88;  13:53:09; -4.0%; 1; 航空装备+军贸+无人机+人形机器人</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -10652,6 +12187,46 @@
           <t>300819.SZ; 聚杰微纤; 0;  14:05:42; 首板涨停; 25.97;  14:05:42; -3.8%; 1; 肌动科技成立+化纤+汽车内饰</t>
         </is>
       </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>300511.SZ; 雪榕生物; 0;  10:20:22; 首板涨停; 5.33;  10:20:22; -1.5%; 1; 农业种植+食用菌+一带一路+实控人变更</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>430685.BJ; 新芝生物; 2;  11:25:43; 首板涨停; 15.2;  10:18:23; 1.9%; 1; 合成生物+生物科学仪器</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>301206.SZ; 三元生物; 1;  11:20:49; 首板涨停; 28.74;  09:45:05; 3.0%; 1; 代糖+赤藓糖醇+年报预增</t>
+        </is>
+      </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>688153.SH; 唯捷创芯; 1;  13:41:06; 首板涨停; 31.46;  13:07:37; -3.9%; 1; 射频前端芯片+消费电子</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>688658.SH; 悦康药业; 14;  14:49:51; 首板涨停; 15.23;  10:43:56; -4.3%; 1; AI医疗+创新药+高研发投入+华为合作</t>
+        </is>
+      </c>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>300139.SZ; 晓程科技; 3;  14:16:12; 首板涨停; 18.42;  10:51:52; -0.6%; 1; 黄金概念+业绩增长+芯片概念</t>
+        </is>
+      </c>
+      <c r="CB11" t="inlineStr">
+        <is>
+          <t>873305.BJ; 九菱科技; 0;  14:46:44; 首板涨停; 41;  14:46:44; -7.4%; 1; 稀土永磁+风电+汽车电机+家电</t>
+        </is>
+      </c>
+      <c r="CD11" t="inlineStr">
+        <is>
+          <t>688552.SH; 航天南湖; 0;  14:30:18; 首板涨停; 34.11;  14:30:18; 11.1%; 1; 军工+一季报增长+低空经济+央企</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -10727,6 +12302,31 @@
           <t>300191.SZ; 潜能恒信; 3;  14:43:03; 首板涨停; 16.42;  09:39:00; -2.8%; 1; 海工装备+油服工程</t>
         </is>
       </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>688156.SH; 路德环境; 2;  10:55:17; 首板涨停; 15.11;  10:15:15; -3.8%; 1; 白酒糟生物发酵饲料+合成生物</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>300995.SZ; 奇德新材; 0;  13:19:01; 首板涨停; 33.89;  13:19:01; -7.9%; 1; 高性能高分子复合材料+碳纤维+婴儿车</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>300329.SZ; 海伦钢琴; 0;  13:07:27; 首板涨停; 7.27;  13:07:27; 1.3%; 1; 钢琴+三胎概念</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>300723.SZ; 一品红; 0;  14:48:07; 首板涨停; 35.95;  14:48:07; -1.5%; 1; 儿童药+减肥药+流感</t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>688192.SH; 迪哲医药; 0;  14:23:49; 首板涨停; 56.38;  14:23:49; 4.4%; 1; 创新药+业绩增长</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -10787,6 +12387,26 @@
           <t>301126.SZ; 达嘉维康; 0;  14:46:51; 首板涨停; 10.48;  14:46:51; -1.6%; 1; 辅助生殖+医药分销</t>
         </is>
       </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>301058.SZ; 中粮科工; 0;  11:19:29; 首板涨停; 11.07;  11:19:29; -1.2%; 1; 粮食+仓储物流+中字头+国企</t>
+        </is>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>301066.SZ; 万事利; 0;  13:19:31; 首板涨停; 18.7;  13:19:31; 20.0%; 1; 丝绸+电商</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>832786.BJ; 骑士乳业; 1;  13:16:57; 首板涨停; 10.78;  13:08:57; -1.5%; 1; 乳制品+三胎概念</t>
+        </is>
+      </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>688458.SH; 美芯晟; 8;  14:50:41; 首板涨停; 40.52;  09:57:58; -1.5%; 1; 半导体+一季报预增+扫地机器人</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -10837,6 +12457,26 @@
           <t>300086.SZ; 康芝药业; 0;  14:52:52; 首板涨停; 4.85;  14:52:52; -1.0%; 1; 儿童药+海南+电商</t>
         </is>
       </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>831855.BJ; 浙江大农; 2;  11:24:04; 首板涨停; 20.76;  11:19:07; -0.4%; 1; 高压清洗机+外销</t>
+        </is>
+      </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>834415.BJ; 恒拓开源; 0;  13:33:20; 首板涨停; 17.38;  13:33:20; -1.3%; 1; 智慧航空解决方案+低空经济</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr">
+        <is>
+          <t>300106.SZ; 西部牧业; 0;  13:29:27; 首板涨停; 10.9;  13:29:27; -1.7%; 1; 乳业+三胎+国企改革+新疆</t>
+        </is>
+      </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>835179.BJ; 凯德石英; 6;  14:54:16; 首板涨停; 34.05;  09:40:45; -3.9%; 1; 石英+半导体</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -10887,6 +12527,21 @@
           <t>835892.BJ; 中科美菱; 1;  14:54:57; 首板涨停; 19.85;  14:31:05; -2.5%; 1; 超低温冷冻存储+智慧医疗+国企</t>
         </is>
       </c>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>300021.SZ; 大禹节水; 0;  13:42:50; 首板涨停; 4.87;  13:42:50; -1.0%; 1; 农业服务+水利+高标准农田建设</t>
+        </is>
+      </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>832885.BJ; 星辰科技; 0;  13:36:21; 首板涨停; 20.44;  13:36:21; 5.9%; 1; 军工+端侧芯片+商业航天+年报预增</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr">
+        <is>
+          <t>300947.SZ; 德必集团; 2;  13:37:56; 首板涨停; 20.2;  13:35:12; -2.0%; 1; 文化创意产业园区+桃花坞文化IP+人工智能</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -10927,6 +12582,21 @@
           <t>301191.SZ; 菲菱科思; 1;  14:55:31; 首板涨停; 84.51;  14:48:58; -3.5%; 1; 算力+交换机</t>
         </is>
       </c>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>300970.SZ; 华绿生物; 2;  13:45:53; 首板涨停; 13.41;  10:28:07; -1.1%; 1; 食用菌+农业种植</t>
+        </is>
+      </c>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>301208.SZ; 中亦科技; 0;  13:40:21; 首板涨停; 40.45;  13:40:21; -2.4%; 1; 跨境支付+算力+AI智能体+IT服务</t>
+        </is>
+      </c>
+      <c r="BM16" t="inlineStr">
+        <is>
+          <t>834765.BJ; 美之高; 4;  14:09:17; 首板涨停; 22.3;  13:23:31; 0.5%; 1; 外销+收纳用品+电商</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -10952,6 +12622,21 @@
           <t>838837.BJ; 华原股份; 0;  14:48:01; 首板涨停; 18.33;  14:48:01; -3.0%; 1; 汽车零部件+控股股东为广西玉柴机器集团有限公司+广西国资</t>
         </is>
       </c>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>873305.BJ; 九菱科技; 0;  14:27:03; 首板涨停; 41;  14:27:03; -7.4%; 1; 稀土永磁+风电+汽车电机+家电</t>
+        </is>
+      </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>300077.SZ; 国民技术; 1;  13:51:02; 首板涨停; 24.55;  10:13:51; -3.4%; 1; MCU芯片+汽车芯片+网络安全+锂电池</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr">
+        <is>
+          <t>301316.SZ; 慧博云通; 1;  14:52:08; 首板涨停; nan;  14:51:15; nan%; 1; IT服务+跨境支付+国际化业务</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -10977,6 +12662,16 @@
           <t>301428.SZ; 世纪恒通; 1;  14:54:34; 首板涨停; 38.6;  13:00:28; -2.8%; 1; 腾讯合作+营销+车主信息服务</t>
         </is>
       </c>
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t>830964.BJ; 润农节水; 0;  14:32:18; 首板涨停; 8.6;  14:32:18; 3.7%; 1; 农业种植+节水灌溉+湖北国资入主</t>
+        </is>
+      </c>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>300922.SZ; 天秦装备; 2;  13:59:06; 首板涨停; 22.1;  10:29:50; -6.2%; 1; 军工+防务装备</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -11002,6 +12697,16 @@
           <t>688333.SH; 铂力特; 7;  14:56:20; 首板涨停; 64.8;  13:29:18; -4.6%; 1; 折叠iPhone受益+金属3D打印+机器人</t>
         </is>
       </c>
+      <c r="BK19" t="inlineStr">
+        <is>
+          <t>301256.SZ; 华融化学; 2;  14:55:59; 首板涨停; 11.01;  14:52:37; -6.0%; 1; 化学原料+电子化学品</t>
+        </is>
+      </c>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t>688722.SH; 同益中; 0;  14:07:29; 首板涨停; 23.5;  14:07:29; 2.8%; 1; 一季报预增+机器人手部腱绳+军工+化纤</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -11017,6 +12722,16 @@
           <t>688719.SH; 爱科赛博; 7;  14:14:26; 首板涨停; 27.62;  13:26:20; -3.3%; 1; 电力电子变换+H公司等客户</t>
         </is>
       </c>
+      <c r="BK20" t="inlineStr">
+        <is>
+          <t>837403.BJ; 康农种业; 2;  15:00:00; 首板涨停; 33.21;  14:52:37; -0.1%; 1; 种子+人工智能</t>
+        </is>
+      </c>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t>833873.BJ; 中设咨询; 0;  14:12:44; 首板涨停; 5.87;  14:12:44; 1.2%; 1; 工程咨询服务+云计算+西部大开发</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -11027,6 +12742,11 @@
           <t>300214.SZ; 日科化学; 0;  14:33:02; 首板涨停; 6.39;  14:33:02; -4.2%; 1; 算力+PMMA+塑料改性剂</t>
         </is>
       </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>831856.BJ; 浩淼科技; 0;  14:22:01; 首板涨停; 27.2;  14:22:01; -2.8%; 1; 机器人+消防应急救援装备+并购重组预期</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -11037,6 +12757,11 @@
           <t>301165.SZ; 锐捷网络; 0;  14:44:37; 首板涨停; 71.66;  14:44:37; -2.6%; 1; 数据中心交换机+阿里+字节+福建国资</t>
         </is>
       </c>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>837006.BJ; 晟楠科技; 1;  14:23:53; 首板涨停; 33.01;  14:20:15; -7.9%; 1; 军工+减速器+专精特新</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -11047,6 +12772,11 @@
           <t>300660.SZ; 江苏雷利; 3;  14:47:35; 首板涨停; 59.9;  14:05:21; -2.3%; 1; 人形机器人+微特电机</t>
         </is>
       </c>
+      <c r="BL23" t="inlineStr">
+        <is>
+          <t>873706.BJ; 铁拓机械; 2;  14:29:52; 首板涨停; 19.65;  14:21:22; -4.2%; 1; 沥青混合料搅拌设备+外销</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -11055,6 +12785,71 @@
       <c r="AF24" t="inlineStr">
         <is>
           <t>688279.SH; 峰岹科技; 1;  14:54:05; 首板涨停; 234.6;  14:34:13; -0.7%; 1; 机器人+电机驱动芯片</t>
+        </is>
+      </c>
+      <c r="BL24" t="inlineStr">
+        <is>
+          <t>872351.BJ; 华光源海; 0;  14:31:47; 首板涨停; 23.1;  14:31:47; 1.1%; 1; 统一大市场+国际物流</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="BL25" t="inlineStr">
+        <is>
+          <t>301228.SZ; 实朴检测; 0;  14:49:04; 首板涨停; 24.62;  14:49:04; -3.3%; 1; 食品安全+地下水检测+土壤检测</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="BL26" t="inlineStr">
+        <is>
+          <t>833171.BJ; 国航远洋; 0;  14:49:04; 首板涨停; 6.82;  14:49:04; -1.6%; 1; 航运+干散货运输+出海</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="BL27" t="inlineStr">
+        <is>
+          <t>920002.BJ; 万达轴承; 0;  14:51:51; 首板涨停; 232.7;  14:51:51; -5.1%; 1; 人形机器人+轴承+北交所次新</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="BL28" t="inlineStr">
+        <is>
+          <t>300810.SZ; 中科海讯; 0;  14:53:37; 首板涨停; 34.34;  14:53:37; 2.7%; 1; 军工+海工装备+无人水下航行器</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="BL29" t="inlineStr">
+        <is>
+          <t>300240.SZ; 飞力达; 0;  14:54:23; 首板涨停; 7.9;  14:54:23; -2.3%; 1; 现代物流服务商+冷链物流</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="BL30" t="inlineStr">
+        <is>
+          <t>300875.SZ; 捷强装备; 0;  14:56:54; 首板涨停; 30.23;  14:56:54; 5.8%; 1; 军工+核污染防治+低空经济+机器人</t>
         </is>
       </c>
     </row>
@@ -11069,7 +12864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ32"/>
+  <dimension ref="A1:CE178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11383,6 +13178,111 @@
           <t>2025年04月07日</t>
         </is>
       </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月08日</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月09日</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月10日</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月11日</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月14日</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月15日</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月16日</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月17日</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月18日</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月25日</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月28日</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月29日</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月30日</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月06日</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月07日</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月08日</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月09日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11678,6 +13578,101 @@
           <t>838275.BJ; 驱动力; 6.0%; 13.1%; 10.05; -0.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>300318.SZ; 博晖创新; 11.9%; 18.8%; 5.83; -1.5%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>831689.BJ; 克莱特; 8.6%; 18.8%; 41.91; -3.3%; 阳线||缩量||价升量缩</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>301156.SZ; 美农生物; 15.3%; 12.8%; 19.85; -2.8%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>831167.BJ; 鑫汇科; 4.7%; 12.2%; 27.65; -1.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>834765.BJ; 美之高; 2.0%; 16.7%; 22.3; 0.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>833429.BJ; 康比特; 5.7%; 12.2%; 22.93; -4.8%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>836826.BJ; 盖世食品; 3.9%; 16.6%; 13.7; -1.9%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>688519.SH; 南亚新材; 6.8%; 12.4%; 36.32; 0.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>836892.BJ; 广咨国际; 1.9%; 32.4%; 19.4; 1.1%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>920002.BJ; 万达轴承; 4.7%; 17.2%; 232.7; -5.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>838163.BJ; 方大新材; 1.8%; 32.4%; 16.3; -0.2%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>301225.SZ; 恒勃股份; 3.6%; 24.4%; 64.4; 4.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>301209.SZ; 联合化学; 3.2%; 18.1%; 98.13; -8.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>300746.SZ; 汉嘉设计; 0.9%; 21.1%; 13.38; -2.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>301591.SZ; 肯特股份; 0.8%; 13.8%; 39.71; -2.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>832469.BJ; 富恒新材; 3.4%; 19.1%; 15; -4.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>688719.SH; 爱科赛博; 0.1%; 12.3%; 27.62; -3.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>301008.SZ; 宏昌科技; 4.1%; 14.2%; 28.47; -7.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>300696.SZ; 爱乐达; 6.1%; 16.8%; 21.49; -8.2%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -11953,6 +13948,91 @@
           <t>300468.SZ; 四方精创; 5.7%; 12.9%; 19.15; -4.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>836961.BJ; 西磁科技; 11.0%; 30.7%; 37.8; -0.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>688535.SH; 华海诚科; 6.2%; 13.4%; 68.8; -5.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>837403.BJ; 康农种业; 11.4%; 13.5%; 33.21; -0.1%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>873001.BJ; 纬达光电; 3.9%; 12.4%; 21.7; -1.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>831856.BJ; 浩淼科技; 1.2%; 15.8%; 27.2; -2.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>300997.SZ; 欢乐家; 0.8%; 14.2%; 14.97; 5.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>430047.BJ; 诺思兰德; 0.8%; 12.1%; 17.14; 0.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>837023.BJ; 芭薇股份; 3.7%; 12.6%; 24.43; 5.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>688182.SH; 灿勤科技; 1.0%; 21.2%; 25.72; -3.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 3.1%; 23.9%; 11.01; 5.2%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>688506.SH; 百利天恒; 1.0%; 12.6%; 280; 0.6%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>300784.SZ; 利安科技; 0.4%; 20.5%; 53; -4.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>688660.SH; 电气风电; 0.4%; 12.6%; 7.71; -1.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>301076.SZ; 新瀚新材; 0.2%; 12.6%; 37.1; -1.7%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>837023.BJ; 芭薇股份; 2.7%; 16.5%; 24.43; 5.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t>300965.SZ; 恒宇信通; 2.2%; 12.6%; 44.64; -6.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>871642.BJ; 通易航天; 5.8%; 25.5%; 20.41; -12.1%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -12208,6 +14288,71 @@
           <t>839371.BJ; 欧福蛋业; 4.8%; 36.6%; 11.79; 0.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>836807.BJ; 奔朗新材; 9.2%; 30.5%; 11.19; 0.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>688331.SH; 荣昌生物; 5.9%; 15.5%; 46.4; -0.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>430685.BJ; 新芝生物; 10.2%; 14.0%; 15.2; 1.9%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>430139.BJ; 华岭股份; 3.7%; 15.7%; 25.04; -2.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>301209.SZ; 联合化学; 0.2%; 20.3%; 98.13; -8.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>300452.SZ; 山河药辅; 0.4%; 15.6%; 12.19; -0.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>300605.SZ; 恒锋信息; 0.6%; 20.7%; 16.34; -2.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>839273.BJ; 一致魔芋; 3.0%; 23.6%; 45.3; -1.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>688307.SH; 中润光学; 0.6%; 13.5%; 28.9; -0.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>832419.BJ; 路斯股份; 2.7%; 12.1%; 20.96; 0.3%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>832419.BJ; 路斯股份; 0.3%; 15.1%; 20.96; 0.3%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BZ4" t="inlineStr">
+        <is>
+          <t>301261.SZ; 恒工精密; 2.0%; 13.2%; 92.6; -4.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CD4" t="inlineStr">
+        <is>
+          <t>688171.SH; 纬德信息; 3.1%; 13.6%; 29.4; 1.4%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -12438,6 +14583,61 @@
           <t>301116.SZ; 益客食品; 3.2%; 13.0%; 10.92; -1.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>839729.BJ; 永顺生物; 9.0%; 17.7%; 9.28; -0.5%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>831396.BJ; 许昌智能; 4.9%; 15.6%; 11.74; -1.0%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>870866.BJ; 绿亨科技; 10.0%; 15.6%; 10.58; 0.7%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>833346.BJ; 威贸电子; 3.6%; 21.3%; 29.99; 1.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>300941.SZ; 创识科技; 0.1%; 20.2%; 23.6; -2.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>688258.SH; 卓易信息; 2.3%; 14.9%; 46.14; -4.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>835640.BJ; 富士达; 0.6%; 16.3%; 28.83; -2.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>688136.SH; 科兴制药; 2.1%; 22.1%; 34.96; -1.5%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>301076.SZ; 新瀚新材; 0.3%; 20.3%; 37.1; -1.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BZ5" t="inlineStr">
+        <is>
+          <t>301131.SZ; 聚赛龙; 1.6%; 22.0%; 44.81; -4.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CD5" t="inlineStr">
+        <is>
+          <t>301209.SZ; 联合化学; 2.9%; 19.1%; 98.13; -8.4%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -12648,6 +14848,56 @@
           <t>300485.SZ; 赛升药业; 0.9%; 14.9%; 8.19; -1.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>300127.SZ; 银河磁体; 7.3%; 24.4%; 25.93; -2.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>920082.BJ; 方正阀门; 4.9%; 17.6%; 19.92; -1.9%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>871970.BJ; 大禹生物; 10.0%; 15.7%; 8.32; 0.6%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>300466.SZ; 赛摩智能; 2.5%; 15.0%; 12.18; -4.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>300721.SZ; 怡达股份; 2.1%; 22.6%; 14.55; -4.0%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>830879.BJ; 基康仪器; 0.5%; 12.4%; 16.63; -1.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>300953.SZ; 震裕科技; 1.9%; 15.2%; 146.5; -4.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BW6" t="inlineStr">
+        <is>
+          <t>301498.SZ; 乖宝宠物; 0.0%; 15.5%; 106.27; 0.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BZ6" t="inlineStr">
+        <is>
+          <t>301112.SZ; 信邦智能; 0.7%; 14.7%; nan; nan%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CD6" t="inlineStr">
+        <is>
+          <t>838810.BJ; 春光智能; 2.5%; 20.7%; 25.24; 1.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -12853,6 +15103,46 @@
           <t>301016.SZ; 雷尔伟; 0.8%; 21.6%; 18.38; -4.7%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>300967.SZ; 晓鸣股份; 6.5%; 22.1%; 19.11; -1.7%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>833427.BJ; 华维设计; 4.9%; 19.1%; 13.85; -0.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>836422.BJ; 润普食品; 9.7%; 33.5%; 14.73; -1.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>832149.BJ; 利尔达; 2.3%; 17.0%; 15.4; -3.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>832419.BJ; 路斯股份; 2.0%; 15.9%; 20.96; 0.3%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>300892.SZ; 品渥食品; 1.6%; 21.9%; 33.13; -1.4%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BZ7" t="inlineStr">
+        <is>
+          <t>300911.SZ; 亿田智能; 0.3%; 15.1%; 51.8; -1.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CD7" t="inlineStr">
+        <is>
+          <t>873169.BJ; 七丰精工; 2.5%; 33.3%; 27.39; 17.5%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -13033,6 +15323,46 @@
           <t>839371.BJ; 欧福蛋业; 0.8%; 12.2%; 11.79; 0.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>300240.SZ; 飞力达; 5.5%; 13.7%; 7.9; -2.3%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>831768.BJ; 拾比佰; 4.9%; 18.0%; 11.9; -1.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>836504.BJ; 博迅生物; 9.6%; 12.5%; 25.12; 0.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>688757.SH; 胜科纳米; 2.3%; 12.4%; 24.01; -5.2%; 价升量涨||阳线||长上影线</t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>873527.BJ; 夜光明; 1.9%; 12.9%; 19.91; 2.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>300652.SZ; 雷迪克; 1.4%; 13.1%; 74.6; -6.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BZ8" t="inlineStr">
+        <is>
+          <t>300695.SZ; 兆丰股份; 0.1%; 20.2%; 74.61; -7.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CD8" t="inlineStr">
+        <is>
+          <t>300897.SZ; 山科智能; 2.4%; 16.8%; 28.19; -8.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -13188,6 +15518,46 @@
           <t>872351.BJ; 华光源海; 0.8%; 31.0%; 23.1; 1.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>301141.SZ; 中科磁业; 5.4%; 13.0%; 39.33; 1.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>688048.SH; 长光华芯; 4.8%; 14.7%; 61.95; 2.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>839371.BJ; 欧福蛋业; 9.1%; 20.7%; 11.79; 0.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>300851.SZ; 交大思诺; 1.9%; 13.9%; 26.45; -3.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>301162.SZ; 国能日新; 1.4%; 13.3%; 62.95; -3.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>688229.SH; 博睿数据; 0.9%; 14.6%; 50.85; -2.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BZ9" t="inlineStr">
+        <is>
+          <t>688593.SH; 新相微; 0.1%; 12.7%; 17.46; -4.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CD9" t="inlineStr">
+        <is>
+          <t>688556.SH; 高测股份; 0.4%; 20.6%; 10.29; -4.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -13328,6 +15698,41 @@
           <t>300240.SZ; 飞力达; 0.6%; 20.8%; 7.9; -2.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>873305.BJ; 九菱科技; 4.9%; 36.7%; 41; -7.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>832149.BJ; 利尔达; 4.8%; 22.1%; 15.4; -3.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>831087.BJ; 秋乐种业; 8.8%; 14.9%; 19.92; 1.3%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>300255.SZ; 常山药业; 1.5%; 12.6%; 25.99; -2.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>832735.BJ; 德源药业; 1.1%; 15.3%; 57.3; -1.3%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>920029.BJ; 开发科技; 0.8%; 16.8%; 111.27; 4.7%; 价升量涨||阳线||大阳线</t>
+        </is>
+      </c>
+      <c r="CD10" t="inlineStr">
+        <is>
+          <t>688552.SH; 航天南湖; 0.3%; 20.3%; 34.11; 11.1%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -13448,6 +15853,41 @@
           <t>838275.BJ; 驱动力; 0.3%; 20.7%; 10.05; -0.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>838275.BJ; 驱动力; 4.8%; 16.6%; 10.05; -0.1%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>872953.BJ; 国子软件; 4.8%; 19.6%; 55.15; -0.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>300106.SZ; 西部牧业; 6.7%; 28.6%; 10.9; -1.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>831526.BJ; 凯华材料; 1.4%; 15.0%; 29.18; -2.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>300805.SZ; 电声股份; 0.6%; 20.7%; 10.52; -1.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>833030.BJ; 立方控股; 0.3%; 12.5%; 34.77; -3.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CD11" t="inlineStr">
+        <is>
+          <t>688084.SH; 晶品特装; 0.2%; 13.0%; 70.62; -7.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -13533,6 +15973,41 @@
           <t>688776.SH; 国光电气; 0.1%; 19.1%; 87.75; -3.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>870656.BJ; 海昇药业; 2.9%; 16.4%; 23.11; -0.1%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>832978.BJ; 开特股份; 4.7%; 16.1%; 25.2; -3.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>300892.SZ; 品渥食品; 6.1%; 23.4%; 33.13; -1.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>688699.SH; 明微电子; 1.0%; 12.1%; 31.67; -2.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>300905.SZ; 宝丽迪; 0.6%; 15.0%; 25.61; -2.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 0.2%; 13.5%; 21.17; -3.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CD12" t="inlineStr">
+        <is>
+          <t>301317.SZ; 鑫磊股份; 0.0%; 20.1%; 32.7; 19.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -13603,6 +16078,36 @@
           <t>300798.SZ; 锦鸡股份; 0.5%; 20.7%; 7.15; -2.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>301256.SZ; 华融化学; 2.3%; 22.8%; 11.01; -6.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>832491.BJ; 奥迪威; 4.6%; 15.2%; 31.49; -3.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>832786.BJ; 骑士乳业; 5.3%; 37.2%; 10.78; -1.5%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>300920.SZ; 润阳科技; 0.9%; 21.1%; 31.85; 1.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>688536.SH; 思瑞浦; 0.6%; 12.3%; 149.27; -1.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>300822.SZ; 贝仕达克; 0.1%; 20.1%; 21.06; -1.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -13663,6 +16168,31 @@
           <t>300907.SZ; 康平科技; 0.5%; 20.7%; 24.45; -1.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>300748.SZ; 金力永磁; 2.2%; 12.2%; 21.27; -1.3%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>920019.BJ; 铜冠矿建; 4.6%; 12.4%; 20.98; -0.1%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr">
+        <is>
+          <t>300138.SZ; 晨光生物; 4.9%; 13.7%; 11.53; 0.3%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>871981.BJ; 晶赛科技; 0.6%; 12.1%; 38.07; -3.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>834261.BJ; 一诺威; 0.5%; 24.6%; 14.89; -4.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -13708,6 +16238,31 @@
           <t>301176.SZ; 逸豪新材; 0.4%; 20.6%; 17.09; -1.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>836826.BJ; 盖世食品; 2.1%; 18.6%; 13.7; -1.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>873833.BJ; 美心翼申; 4.5%; 13.6%; 23.6; -2.5%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr">
+        <is>
+          <t>300898.SZ; 熊猫乳品; 4.9%; 14.4%; 30.15; -2.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>688200.SH; 华峰测控; 0.5%; 14.9%; 138.02; -3.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>300947.SZ; 德必集团; 0.5%; 20.6%; 20.2; -2.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -13748,6 +16303,31 @@
           <t>688680.SH; 海优新材; 0.1%; 13.4%; 42.12; 0.8%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>300087.SZ; 荃银高科; 1.9%; 14.4%; 9.54; -0.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>834475.BJ; 三友科技; 4.5%; 17.7%; 19; 1.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM16" t="inlineStr">
+        <is>
+          <t>839273.BJ; 一致魔芋; 4.4%; 14.4%; 45.3; -1.5%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>830779.BJ; 武汉蓝电; 0.5%; 19.3%; 48.28; 6.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>300155.SZ; 安居宝; 0.5%; 20.0%; 4.58; -3.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -13788,6 +16368,31 @@
           <t>688357.SH; 建龙微纳; 0.1%; 12.4%; 25.08; -2.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>833429.BJ; 康比特; 1.9%; 17.2%; 22.93; -4.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>688053.SH; 思科瑞; 4.4%; 19.5%; 28.68; -4.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr">
+        <is>
+          <t>838262.BJ; 太湖雪; 4.1%; 35.6%; 27.28; 11.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>688048.SH; 长光华芯; 0.4%; 13.8%; 61.95; 2.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>300616.SZ; 尚品宅配; 0.1%; 20.1%; 12.69; -1.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -13818,6 +16423,26 @@
           <t>831906.BJ; 舜宇精工; 1.6%; 12.7%; 25.65; -0.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t>839371.BJ; 欧福蛋业; 1.7%; 18.0%; 11.79; 0.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>873305.BJ; 九菱科技; 4.4%; 20.5%; 41; -7.4%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="BM18" t="inlineStr">
+        <is>
+          <t>301078.SZ; 孩子王; 3.9%; 13.0%; 12.48; -3.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>688049.SH; 炬芯科技; 0.2%; 13.0%; 51.78; -3.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -13848,6 +16473,26 @@
           <t>300099.SZ; 尤洛卡; 1.3%; 14.1%; 7.02; 1.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK19" t="inlineStr">
+        <is>
+          <t>837023.BJ; 芭薇股份; 1.7%; 17.9%; 24.43; 5.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t>835179.BJ; 凯德石英; 4.4%; 23.4%; 34.05; -3.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM19" t="inlineStr">
+        <is>
+          <t>836826.BJ; 盖世食品; 3.7%; 15.7%; 13.7; -1.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>301099.SZ; 雅创电子; 0.1%; 20.1%; 46.57; -2.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -13873,6 +16518,21 @@
           <t>871642.BJ; 通易航天; 1.2%; 16.4%; 20.41; -12.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK20" t="inlineStr">
+        <is>
+          <t>300898.SZ; 熊猫乳品; 1.5%; 12.1%; 30.15; -2.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t>872541.BJ; 铁大科技; 4.3%; 15.7%; 17.38; -3.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM20" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 3.2%; 14.2%; 19.15; -4.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -13898,6 +16558,21 @@
           <t>832145.BJ; 恒合股份; 1.1%; 31.5%; 22.99; 3.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK21" t="inlineStr">
+        <is>
+          <t>300761.SZ; 立华股份; 1.5%; 14.5%; 19.28; -0.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>832522.BJ; 纳科诺尔; 4.2%; 12.6%; 58.05; 3.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BM21" t="inlineStr">
+        <is>
+          <t>835179.BJ; 凯德石英; 2.8%; 18.1%; 34.05; -3.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -13923,6 +16598,16 @@
           <t>300451.SZ; 创业慧康; 1.0%; 19.0%; 5.66; -2.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t>831726.BJ; 朱老六; 0.9%; 19.6%; 23.24; -1.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>430198.BJ; 微创光电; 4.2%; 15.8%; 12.52; -0.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -13948,6 +16633,16 @@
           <t>301112.SZ; 信邦智能; 1.0%; 21.2%; nan; nan%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK23" t="inlineStr">
+        <is>
+          <t>300350.SZ; 华鹏飞; 0.4%; 15.6%; 6; -1.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BL23" t="inlineStr">
+        <is>
+          <t>300281.SZ; 金明精机; 4.2%; 13.3%; 7.93; -7.8%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -13973,6 +16668,16 @@
           <t>832876.BJ; 慧为智能; 1.0%; 16.8%; 39.48; 1.5%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="BK24" t="inlineStr">
+        <is>
+          <t>300867.SZ; 圣元环保; 0.3%; 14.2%; 17.4; -2.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BL24" t="inlineStr">
+        <is>
+          <t>836270.BJ; 天铭科技; 4.2%; 12.6%; 17.92; 0.3%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -13998,6 +16703,16 @@
           <t>688332.SH; 中科蓝讯; 1.0%; 13.3%; 97.12; -4.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK25" t="inlineStr">
+        <is>
+          <t>430300.BJ; 辰光医疗; 0.3%; 13.2%; 17.91; -3.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BL25" t="inlineStr">
+        <is>
+          <t>872190.BJ; 雷神科技; 4.2%; 13.6%; 32.92; -2.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -14023,6 +16738,16 @@
           <t>688622.SH; 禾信仪器; 0.7%; 12.9%; 84; -0.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK26" t="inlineStr">
+        <is>
+          <t>300779.SZ; 惠城环保; 0.2%; 12.2%; 135.41; -1.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BL26" t="inlineStr">
+        <is>
+          <t>871263.BJ; 莱赛激光; 4.2%; 13.6%; 23.24; 17.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -14048,6 +16773,16 @@
           <t>301357.SZ; 北方长龙; 0.6%; 20.7%; 37.48; -0.7%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BK27" t="inlineStr">
+        <is>
+          <t>688288.SH; 鸿泉物联; 0.2%; 12.2%; 32.47; -3.7%; 阳线||缩量||价升量缩</t>
+        </is>
+      </c>
+      <c r="BL27" t="inlineStr">
+        <is>
+          <t>830896.BJ; 旺成科技; 4.1%; 12.1%; 20.67; -2.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -14073,6 +16808,11 @@
           <t>688289.SH; 圣湘生物; 0.3%; 15.6%; 19.8; -2.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BL28" t="inlineStr">
+        <is>
+          <t>301162.SZ; 国能日新; 4.1%; 19.5%; 62.95; -3.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -14093,6 +16833,11 @@
           <t>832885.BJ; 星辰科技; 0.1%; 12.2%; 20.44; 5.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BL29" t="inlineStr">
+        <is>
+          <t>834415.BJ; 恒拓开源; 4.1%; 35.5%; 17.38; -1.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -14113,6 +16858,11 @@
           <t>688107.SH; 安路科技; 0.0%; 20.0%; 27.16; -3.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BL30" t="inlineStr">
+        <is>
+          <t>688502.SH; 茂莱光学; 4.1%; 14.1%; 284.86; -3.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -14123,6 +16873,11 @@
           <t>300607.SZ; 拓斯达; 0.0%; 13.0%; 30.98; 5.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="BL31" t="inlineStr">
+        <is>
+          <t>833346.BJ; 威贸电子; 4.0%; 18.6%; 29.99; 1.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -14131,6 +16886,1471 @@
       <c r="AD32" t="inlineStr">
         <is>
           <t>301525.SZ; 儒竞科技; 0.0%; 13.3%; 86.33; -3.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="BL32" t="inlineStr">
+        <is>
+          <t>833533.BJ; 骏创科技; 4.0%; 20.6%; 52.14; -4.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="BL33" t="inlineStr">
+        <is>
+          <t>834770.BJ; 艾能聚; 4.0%; 14.2%; 17.15; -2.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="BL34" t="inlineStr">
+        <is>
+          <t>832876.BJ; 慧为智能; 4.0%; 19.8%; 39.48; 1.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="BL35" t="inlineStr">
+        <is>
+          <t>836957.BJ; 汉维科技; 4.0%; 13.2%; 14.77; -4.1%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="BL36" t="inlineStr">
+        <is>
+          <t>920489.BJ; 佳先股份; 3.9%; 15.8%; 23.5; -3.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="BL37" t="inlineStr">
+        <is>
+          <t>839493.BJ; 并行科技; 3.8%; 15.1%; 167.01; -2.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="BL38" t="inlineStr">
+        <is>
+          <t>920116.BJ; 星图测控; 3.8%; 26.4%; 78.6; -0.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="BL39" t="inlineStr">
+        <is>
+          <t>688227.SH; 品高股份; 3.7%; 19.7%; 36.49; -5.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="BL40" t="inlineStr">
+        <is>
+          <t>871981.BJ; 晶赛科技; 3.7%; 15.7%; 38.07; -3.4%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="BL41" t="inlineStr">
+        <is>
+          <t>837748.BJ; 路桥信息; 3.7%; 14.8%; 26.02; -1.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="BL42" t="inlineStr">
+        <is>
+          <t>838701.BJ; 豪声电子; 3.6%; 16.0%; 29.51; -1.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="BL43" t="inlineStr">
+        <is>
+          <t>832469.BJ; 富恒新材; 3.6%; 13.4%; 15; -4.9%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="BL44" t="inlineStr">
+        <is>
+          <t>873132.BJ; 泰鹏智能; 3.5%; 13.1%; 23.8; 2.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="BL45" t="inlineStr">
+        <is>
+          <t>300700.SZ; 岱勒新材; 3.5%; 24.3%; 9.36; -2.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="BL46" t="inlineStr">
+        <is>
+          <t>835207.BJ; 众诚科技; 3.4%; 17.1%; 27.02; 0.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="BL47" t="inlineStr">
+        <is>
+          <t>833454.BJ; 同心传动; 3.4%; 13.8%; 17.07; -0.8%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="BL48" t="inlineStr">
+        <is>
+          <t>833943.BJ; 优机股份; 3.3%; 19.2%; 23.11; -4.9%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="BL49" t="inlineStr">
+        <is>
+          <t>872808.BJ; 曙光数创; 3.3%; 13.0%; 55.78; -2.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="BL50" t="inlineStr">
+        <is>
+          <t>873726.BJ; 卓兆点胶; 3.3%; 15.4%; 30.81; 1.7%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="BL51" t="inlineStr">
+        <is>
+          <t>839725.BJ; 惠丰钻石; 3.3%; 14.3%; 29.92; -2.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="BL52" t="inlineStr">
+        <is>
+          <t>833781.BJ; 瑞奇智造; 3.3%; 12.5%; 11.62; 1.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="BL53" t="inlineStr">
+        <is>
+          <t>688143.SH; 长盈通; 3.3%; 15.4%; 35.6; 3.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="BL54" t="inlineStr">
+        <is>
+          <t>920167.BJ; 同享科技; 3.3%; 13.4%; 20.07; -2.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="BL55" t="inlineStr">
+        <is>
+          <t>831175.BJ; 派诺科技; 3.2%; 12.4%; 21.39; -1.3%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="BL56" t="inlineStr">
+        <is>
+          <t>300516.SZ; 久之洋; 3.2%; 15.6%; 32.47; -0.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="BL57" t="inlineStr">
+        <is>
+          <t>834765.BJ; 美之高; 3.2%; 14.2%; 22.3; 0.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="BL58" t="inlineStr">
+        <is>
+          <t>920002.BJ; 万达轴承; 3.2%; 34.2%; 232.7; -5.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="BL59" t="inlineStr">
+        <is>
+          <t>830879.BJ; 基康仪器; 3.1%; 12.7%; 16.63; -1.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="BL60" t="inlineStr">
+        <is>
+          <t>300102.SZ; 乾照光电; 3.1%; 12.3%; 10.82; -2.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="BL61" t="inlineStr">
+        <is>
+          <t>834639.BJ; 晨光电缆; 3.1%; 16.2%; 8.86; -0.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="BL62" t="inlineStr">
+        <is>
+          <t>830839.BJ; 万通液压; 3.1%; 18.5%; 33.27; -3.6%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="BL63" t="inlineStr">
+        <is>
+          <t>871245.BJ; 威博液压; 3.0%; 17.0%; 34.53; -3.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="BL64" t="inlineStr">
+        <is>
+          <t>831856.BJ; 浩淼科技; 3.0%; 34.1%; 27.2; -2.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="BL65" t="inlineStr">
+        <is>
+          <t>834407.BJ; 驰诚股份; 3.0%; 18.9%; 25.79; 6.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="BL66" t="inlineStr">
+        <is>
+          <t>831010.BJ; 凯添燃气; 3.0%; 16.6%; 13.71; -3.7%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="BL67" t="inlineStr">
+        <is>
+          <t>836433.BJ; 大唐药业; 3.0%; 12.3%; 7.63; 0.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="BL68" t="inlineStr">
+        <is>
+          <t>836239.BJ; 长虹能源; 3.0%; 13.3%; 46.76; 0.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="BL69" t="inlineStr">
+        <is>
+          <t>871478.BJ; 巨能股份; 2.9%; 13.8%; 28.82; -1.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="BL70" t="inlineStr">
+        <is>
+          <t>300469.SZ; 信息发展; 2.9%; 12.9%; 31.57; -3.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="BL71" t="inlineStr">
+        <is>
+          <t>873001.BJ; 纬达光电; 2.9%; 14.0%; 21.7; -1.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="BL72" t="inlineStr">
+        <is>
+          <t>300810.SZ; 中科海讯; 2.9%; 23.6%; 34.34; 2.7%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="BL73" t="inlineStr">
+        <is>
+          <t>833751.BJ; 惠同新材; 2.9%; 16.0%; 18.48; -1.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="BL74" t="inlineStr">
+        <is>
+          <t>300423.SZ; 昇辉科技; 2.9%; 13.2%; 7.2; -2.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="BL75" t="inlineStr">
+        <is>
+          <t>839790.BJ; 联迪信息; 2.9%; 15.3%; 38.85; -1.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="BL76" t="inlineStr">
+        <is>
+          <t>837092.BJ; 汉鑫科技; 2.9%; 14.3%; 43.6; -1.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="BL77" t="inlineStr">
+        <is>
+          <t>300292.SZ; 吴通控股; 2.9%; 12.7%; 4.87; -1.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL78" t="inlineStr">
+        <is>
+          <t>836717.BJ; 瑞星股份; 2.9%; 12.5%; 11.65; -0.9%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="BL79" t="inlineStr">
+        <is>
+          <t>831641.BJ; 格利尔; 2.9%; 17.5%; 17.11; -6.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="BL80" t="inlineStr">
+        <is>
+          <t>873570.BJ; 坤博精工; 2.8%; 15.0%; 42.98; 4.2%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="BL81" t="inlineStr">
+        <is>
+          <t>835237.BJ; 力佳科技; 2.8%; 14.5%; 33; 2.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="BL82" t="inlineStr">
+        <is>
+          <t>430139.BJ; 华岭股份; 2.8%; 33.8%; 25.04; -2.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="BL83" t="inlineStr">
+        <is>
+          <t>688244.SH; 永信至诚; 2.8%; 13.9%; 38.72; -3.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="BL84" t="inlineStr">
+        <is>
+          <t>873223.BJ; 荣亿精密; 2.8%; 15.6%; 12.02; 3.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="BL85" t="inlineStr">
+        <is>
+          <t>300380.SZ; 安硕信息; 2.8%; 14.0%; 47.75; -3.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="BL86" t="inlineStr">
+        <is>
+          <t>837592.BJ; 华信永道; 2.8%; 12.1%; 57.67; -1.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="BL87" t="inlineStr">
+        <is>
+          <t>831526.BJ; 凯华材料; 2.8%; 18.7%; 29.18; -2.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="BL88" t="inlineStr">
+        <is>
+          <t>834062.BJ; 科润智控; 2.8%; 13.9%; 10.3; 2.0%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="BL89" t="inlineStr">
+        <is>
+          <t>300900.SZ; 广联航空; 2.8%; 13.0%; 22.3; -4.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="BL90" t="inlineStr">
+        <is>
+          <t>833284.BJ; 灵鸽科技; 2.8%; 15.6%; 26.7; 9.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="BL91" t="inlineStr">
+        <is>
+          <t>688056.SH; 莱伯泰科; 2.7%; 15.2%; 34.79; -2.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="BL92" t="inlineStr">
+        <is>
+          <t>837821.BJ; 则成电子; 2.7%; 13.3%; 36.01; -3.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="BL93" t="inlineStr">
+        <is>
+          <t>430418.BJ; 苏轴股份; 2.7%; 20.4%; 42; -4.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="BL94" t="inlineStr">
+        <is>
+          <t>300572.SZ; 安车检测; 2.7%; 12.2%; 18.99; -0.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="BL95" t="inlineStr">
+        <is>
+          <t>831627.BJ; 力王股份; 2.7%; 12.5%; 29.35; 4.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="BL96" t="inlineStr">
+        <is>
+          <t>832662.BJ; 方盛股份; 2.6%; 12.8%; 25.34; -1.9%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="BL97" t="inlineStr">
+        <is>
+          <t>430090.BJ; 同辉信息; 2.6%; 14.6%; 6.4; 0.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="BL98" t="inlineStr">
+        <is>
+          <t>300022.SZ; 吉峰科技; 2.6%; 12.3%; 8.32; 2.1%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="BL99" t="inlineStr">
+        <is>
+          <t>871553.BJ; 凯腾精工; 2.6%; 13.9%; 10.41; 1.9%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="BL100" t="inlineStr">
+        <is>
+          <t>871694.BJ; 中裕科技; 2.6%; 12.6%; 18.87; -2.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="BL101" t="inlineStr">
+        <is>
+          <t>301228.SZ; 实朴检测; 2.6%; 23.2%; 24.62; -3.3%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="BL102" t="inlineStr">
+        <is>
+          <t>920008.BJ; 成电光信; 2.6%; 26.7%; 43.27; -0.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="BL103" t="inlineStr">
+        <is>
+          <t>832110.BJ; 雷特科技; 2.6%; 13.5%; 40.08; 0.8%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="BL104" t="inlineStr">
+        <is>
+          <t>832000.BJ; 安徽凤凰; 2.6%; 12.8%; 23.29; -1.7%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="BL105" t="inlineStr">
+        <is>
+          <t>870357.BJ; 雅葆轩; 2.6%; 12.9%; 23.01; -2.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="BL106" t="inlineStr">
+        <is>
+          <t>838837.BJ; 华原股份; 2.5%; 14.7%; 18.33; -3.0%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="BL107" t="inlineStr">
+        <is>
+          <t>835640.BJ; 富士达; 2.5%; 16.1%; 28.83; -2.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="BL108" t="inlineStr">
+        <is>
+          <t>871634.BJ; 新威凌; 2.5%; 12.9%; 26.58; -1.8%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="BL109" t="inlineStr">
+        <is>
+          <t>300756.SZ; 金马游乐; 2.5%; 12.7%; 19.88; 2.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="BL110" t="inlineStr">
+        <is>
+          <t>838971.BJ; 天马新材; 2.5%; 16.9%; 29.33; -1.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="BL111" t="inlineStr">
+        <is>
+          <t>833455.BJ; 汇隆活塞; 2.5%; 12.1%; 10.85; -1.1%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="BL112" t="inlineStr">
+        <is>
+          <t>834021.BJ; 流金科技; 2.4%; 13.8%; 6.95; 2.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="BL113" t="inlineStr">
+        <is>
+          <t>836720.BJ; 吉冈精密; 2.4%; 12.4%; 20.85; -2.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="BL114" t="inlineStr">
+        <is>
+          <t>836263.BJ; 中航泰达; 2.4%; 19.0%; 14.14; 0.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="BL115" t="inlineStr">
+        <is>
+          <t>830779.BJ; 武汉蓝电; 2.4%; 13.5%; 48.28; 6.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="BL116" t="inlineStr">
+        <is>
+          <t>831278.BJ; 泰德股份; 2.4%; 13.8%; 14.41; 1.3%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="BL117" t="inlineStr">
+        <is>
+          <t>838810.BJ; 春光智能; 2.4%; 17.5%; 25.24; 1.6%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="BL118" t="inlineStr">
+        <is>
+          <t>835174.BJ; 五新隧装; 2.3%; 16.4%; 32.85; -2.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="BL119" t="inlineStr">
+        <is>
+          <t>870436.BJ; 大地电气; 2.3%; 14.2%; 20.96; 7.9%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="BL120" t="inlineStr">
+        <is>
+          <t>430425.BJ; 乐创技术; 2.3%; 13.2%; 31.33; -1.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="BL121" t="inlineStr">
+        <is>
+          <t>835579.BJ; 机科股份; 2.3%; 19.1%; 31; 2.4%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="BL122" t="inlineStr">
+        <is>
+          <t>688290.SH; 景业智能; 2.3%; 12.8%; 53.39; -1.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="BL123" t="inlineStr">
+        <is>
+          <t>832089.BJ; 禾昌聚合; 2.3%; 12.0%; 17.7; 4.5%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="BL124" t="inlineStr">
+        <is>
+          <t>300180.SZ; 华峰超纤; 2.3%; 17.8%; 7.3; -3.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="BL125" t="inlineStr">
+        <is>
+          <t>837212.BJ; 智新电子; 2.2%; 12.3%; 17.71; 0.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="BL126" t="inlineStr">
+        <is>
+          <t>688237.SH; 超卓航科; 2.2%; 12.4%; 26.41; -0.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="BL127" t="inlineStr">
+        <is>
+          <t>300008.SZ; 天海防务; 2.2%; 17.2%; 6.23; -5.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="BL128" t="inlineStr">
+        <is>
+          <t>920445.BJ; 龙竹科技; 2.1%; 25.3%; 10.15; 0.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="BL129" t="inlineStr">
+        <is>
+          <t>688386.SH; 泛亚微透; 2.1%; 12.9%; 53.63; 0.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="BL130" t="inlineStr">
+        <is>
+          <t>834058.BJ; 华洋赛车; 2.1%; 13.0%; 36.7; -6.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="BL131" t="inlineStr">
+        <is>
+          <t>838924.BJ; 广脉科技; 2.0%; 25.9%; 30.92; 1.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="BL132" t="inlineStr">
+        <is>
+          <t>300130.SZ; 新国都; 2.0%; 14.6%; 23.42; -2.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="BL133" t="inlineStr">
+        <is>
+          <t>831305.BJ; 海希通讯; 1.9%; 20.4%; 21.01; -0.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="BL134" t="inlineStr">
+        <is>
+          <t>688600.SH; 皖仪科技; 1.9%; 21.7%; 19.39; -2.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="BL135" t="inlineStr">
+        <is>
+          <t>300797.SZ; 钢研纳克; 1.8%; 13.2%; 14.74; -3.9%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="BL136" t="inlineStr">
+        <is>
+          <t>300077.SZ; 国民技术; 1.8%; 22.2%; 24.55; -3.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="BL137" t="inlineStr">
+        <is>
+          <t>838402.BJ; 硅烷科技; 1.7%; 13.2%; 9.26; -1.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="BL138" t="inlineStr">
+        <is>
+          <t>833075.BJ; 柏星龙; 1.7%; 16.2%; 29.72; -4.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="BL139" t="inlineStr">
+        <is>
+          <t>688152.SH; 麒麟信安; 1.7%; 12.0%; 58.3; -2.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="BL140" t="inlineStr">
+        <is>
+          <t>300922.SZ; 天秦装备; 1.7%; 22.0%; 22.1; -6.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="BL141" t="inlineStr">
+        <is>
+          <t>839946.BJ; 华阳变速; 1.7%; 24.4%; 9.93; -3.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="BL142" t="inlineStr">
+        <is>
+          <t>300046.SZ; 台基股份; 1.7%; 15.2%; 30.93; -3.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="BL143" t="inlineStr">
+        <is>
+          <t>838670.BJ; 恒进感应; 1.6%; 13.4%; 18.2; -2.2%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="BL144" t="inlineStr">
+        <is>
+          <t>688337.SH; 普源精电; 1.6%; 12.3%; 35.79; -2.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="BL145" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 1.5%; 21.9%; 15.05; 7.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="BL146" t="inlineStr">
+        <is>
+          <t>300589.SZ; 江龙船艇; 1.5%; 15.4%; 11.63; -2.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="BL147" t="inlineStr">
+        <is>
+          <t>430564.BJ; 天润科技; 1.5%; 20.4%; 23.75; 1.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="BL148" t="inlineStr">
+        <is>
+          <t>688070.SH; 纵横股份; 1.4%; 13.2%; 41.07; -3.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="BL149" t="inlineStr">
+        <is>
+          <t>430510.BJ; 丰光精密; 1.4%; 13.4%; 24.14; -3.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="BL150" t="inlineStr">
+        <is>
+          <t>301592.SZ; 六九一二; 1.3%; 12.5%; 142.88; 0.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="BL151" t="inlineStr">
+        <is>
+          <t>301311.SZ; 昆船智能; 1.3%; 13.0%; 17.88; 0.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="BL152" t="inlineStr">
+        <is>
+          <t>836247.BJ; 华密新材; 1.3%; 15.7%; 27.14; -4.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="BL153" t="inlineStr">
+        <is>
+          <t>873706.BJ; 铁拓机械; 1.3%; 31.6%; 19.65; -4.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="BL154" t="inlineStr">
+        <is>
+          <t>300424.SZ; 航新科技; 1.1%; 12.1%; 16.04; -3.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="BL155" t="inlineStr">
+        <is>
+          <t>831961.BJ; 创远信科; 1.1%; 23.4%; 23.66; 7.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="BL156" t="inlineStr">
+        <is>
+          <t>688297.SH; 中无人机; 1.1%; 13.2%; 44.88; -6.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="BL157" t="inlineStr">
+        <is>
+          <t>873806.BJ; 云星宇; 1.0%; 12.7%; 15.65; 0.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="BL158" t="inlineStr">
+        <is>
+          <t>920098.BJ; 科隆新材; 1.0%; 16.1%; 32.79; -0.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="BL159" t="inlineStr">
+        <is>
+          <t>300123.SZ; 亚光科技; 1.0%; 12.0%; 6.59; 1.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="BL160" t="inlineStr">
+        <is>
+          <t>301066.SZ; 万事利; 1.0%; 21.4%; 18.7; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="BL161" t="inlineStr">
+        <is>
+          <t>300875.SZ; 捷强装备; 1.0%; 21.2%; 30.23; 5.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="BL162" t="inlineStr">
+        <is>
+          <t>688500.SH; 慧辰股份; 1.0%; 16.3%; 30.65; -1.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="BL163" t="inlineStr">
+        <is>
+          <t>872351.BJ; 华光源海; 0.9%; 31.2%; 23.1; 1.1%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="BL164" t="inlineStr">
+        <is>
+          <t>831039.BJ; 国义招标; 0.9%; 12.2%; 10.8; -0.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="BL165" t="inlineStr">
+        <is>
+          <t>301208.SZ; 中亦科技; 0.9%; 21.1%; 40.45; -2.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="BL166" t="inlineStr">
+        <is>
+          <t>300440.SZ; 运达科技; 0.9%; 12.6%; 9.03; -5.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="BL167" t="inlineStr">
+        <is>
+          <t>833873.BJ; 中设咨询; 0.8%; 31.1%; 5.87; 1.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="BL168" t="inlineStr">
+        <is>
+          <t>300722.SZ; 新余国科; 0.8%; 21.0%; 30.62; -0.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="BL169" t="inlineStr">
+        <is>
+          <t>870726.BJ; 鸿智科技; 0.8%; 12.9%; 27.67; 3.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="BL170" t="inlineStr">
+        <is>
+          <t>301048.SZ; 金鹰重工; 0.8%; 20.9%; 9.42; -2.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="BL171" t="inlineStr">
+        <is>
+          <t>831152.BJ; 昆工科技; 0.8%; 13.1%; 20.82; 4.4%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="BL172" t="inlineStr">
+        <is>
+          <t>300719.SZ; 安达维尔; 0.7%; 13.9%; 18.16; 3.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="BL173" t="inlineStr">
+        <is>
+          <t>300397.SZ; 天和防务; 0.6%; 17.9%; 12.88; -1.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="BL174" t="inlineStr">
+        <is>
+          <t>836208.BJ; 青矩技术; 0.5%; 14.6%; 36.45; -1.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="BL175" t="inlineStr">
+        <is>
+          <t>301040.SZ; 中环海陆; 0.4%; 16.0%; 22.28; 1.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="BL176" t="inlineStr">
+        <is>
+          <t>300917.SZ; 特发服务; 0.4%; 12.2%; 45.13; -2.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="BL177" t="inlineStr">
+        <is>
+          <t>832885.BJ; 星辰科技; 0.2%; 30.3%; 20.44; 5.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="BL178" t="inlineStr">
+        <is>
+          <t>831167.BJ; 鑫汇科; 0.1%; 13.6%; 27.65; -1.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -14145,7 +18365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ21"/>
+  <dimension ref="A1:CE21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14459,6 +18679,111 @@
           <t>2025年04月07日</t>
         </is>
       </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月08日</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月09日</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月10日</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月11日</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月14日</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月15日</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月16日</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月17日</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月18日</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月25日</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月28日</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月29日</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年04月30日</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月06日</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月07日</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月08日</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月09日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -14769,6 +19094,111 @@
           <t>300059.SZ; 东方财富; 20.83; -1.8%; 22518962.5; 4</t>
         </is>
       </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>300871.SZ; 回盛生物; 22.07; -3.2%; 15746926.5; 8</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>300189.SZ; 神农种业; 4.34; -0.9%; 15572342.0; 11</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>300189.SZ; 神农种业; 4.34; -0.9%; 11153944.5; 22</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>300077.SZ; 国民技术; 24.55; -3.4%; 11755724.5; 16</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>300189.SZ; 神农种业; 4.34; -0.9%; 7532407.0; 36</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 76.19; 0.1%; 11662339.5; 18</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 76.19; 0.1%; 7932471.0; 38</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>300379.SZ; *ST东通; 5.43; -5.7%; 9057236.0; 25</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 19.15; -4.2%; 9021830.0; 29</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>300251.SZ; 光线传媒; 18.61; -2.8%; 16073372.5; 9</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 21.17; -3.8%; 18450757.5; 9</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 21.17; -3.8%; 21519277.5; 5</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 21.17; -3.8%; 14252560.5; 14</t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 21.17; -3.8%; 11507906.0; 21</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>300766.SZ; 每日互动; 38.11; -2.9%; 7933395.0; 36</t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>301209.SZ; 联合化学; 98.13; -8.4%; 6908709.0; 44</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 37.1; -5.2%; 7383739.5; 34</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>300339.SZ; 润和软件; 57.54; 3.2%; 9881907.0; 20</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.83; -1.8%; 15266592.0; 14</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>302132.SZ; 中航成飞; 79.88; -4.0%; 28161170.5; 3</t>
+        </is>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>302132.SZ; 中航成飞; 79.88; -4.0%; 183262.0; 8</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -15079,6 +19509,111 @@
           <t>300871.SZ; 回盛生物; 22.07; -3.2%; 15500049.5; 11</t>
         </is>
       </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>300189.SZ; 神农种业; 4.34; -0.9%; 15424738.0; 10</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.83; -1.8%; 15114535.0; 13</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.83; -1.8%; 11014732.0; 24</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>301665.SZ; 泰禾股份; 27.57; -2.4%; 9917860.0; 25</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>300260.SZ; 新莱应材; 32.45; -4.9%; 6820055.5; 45</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>300379.SZ; *ST东通; 5.43; -5.7%; 9048708.0; 26</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>301558.SZ; 三态股份; 8.78; -1.3%; 7150696.5; 43</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>301662.SZ; 宏工科技; 53.31; 1.2%; 6986168.0; 45</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>300721.SZ; 怡达股份; 14.55; -4.0%; 7058238.5; 41</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>300170.SZ; 汉得信息; 18.82; -5.0%; 8900908.0; 27</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>300251.SZ; 光线传媒; 18.61; -2.8%; 11647349.5; 24</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 76.19; 0.1%; 13225710.0; 21</t>
+        </is>
+      </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>301000.SZ; 肇民科技; 52.01; -5.9%; 9243098.5; 34</t>
+        </is>
+      </c>
+      <c r="BX3" t="inlineStr">
+        <is>
+          <t>301560.SZ; 众捷汽车; 39.83; -4.7%; 9148945.5; 31</t>
+        </is>
+      </c>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 21.17; -3.8%; 7887791.5; 37</t>
+        </is>
+      </c>
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>300170.SZ; 汉得信息; 18.82; -5.0%; 6690300.5; 46</t>
+        </is>
+      </c>
+      <c r="CA3" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 76.19; 0.1%; 6970243.5; 39</t>
+        </is>
+      </c>
+      <c r="CB3" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 37.1; -5.2%; 9641625.0; 22</t>
+        </is>
+      </c>
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 37.1; -5.2%; 15023571.5; 15</t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 109.21; 1.2%; 12561092.5; 23</t>
+        </is>
+      </c>
+      <c r="CE3" t="inlineStr">
+        <is>
+          <t>301066.SZ; 万事利; 18.7; 20.0%; 82072.0; 35</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -15389,6 +19924,111 @@
           <t>300189.SZ; 神农种业; 4.34; -0.9%; 13450305.5; 13</t>
         </is>
       </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.83; -1.8%; 12080103.5; 19</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>300871.SZ; 回盛生物; 22.07; -3.2%; 10957410.0; 27</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 19.15; -4.2%; 9587832.0; 29</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>300260.SZ; 新莱应材; 32.45; -4.9%; 9872515.5; 26</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>300077.SZ; 国民技术; 24.55; -3.4%; 6526173.0; 51</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 16.72; -5.1%; 7403868.0; 41</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>300240.SZ; 飞力达; 7.9; -2.3%; 6203539.5; 54</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 76.19; 0.1%; 6215374.0; 56</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.83; -1.8%; 6476161.0; 47</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>300139.SZ; 晓程科技; 18.42; -0.6%; 8699368.0; 31</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 19.15; -4.2%; 10825357.5; 28</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>300180.SZ; 华峰超纤; 7.3; -3.7%; 11114890.0; 27</t>
+        </is>
+      </c>
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 76.19; 0.1%; 8391196.0; 40</t>
+        </is>
+      </c>
+      <c r="BX4" t="inlineStr">
+        <is>
+          <t>300040.SZ; 九洲集团; 7.9; 5.2%; 8910870.0; 32</t>
+        </is>
+      </c>
+      <c r="BY4" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 16.72; -5.1%; 5998809.5; 51</t>
+        </is>
+      </c>
+      <c r="BZ4" t="inlineStr">
+        <is>
+          <t>300766.SZ; 每日互动; 38.11; -2.9%; 6669656.5; 47</t>
+        </is>
+      </c>
+      <c r="CA4" t="inlineStr">
+        <is>
+          <t>300766.SZ; 每日互动; 38.11; -2.9%; 6956674.0; 40</t>
+        </is>
+      </c>
+      <c r="CB4" t="inlineStr">
+        <is>
+          <t>300047.SZ; 天源迪科; 15.48; -4.6%; 8383815.5; 30</t>
+        </is>
+      </c>
+      <c r="CC4" t="inlineStr">
+        <is>
+          <t>300047.SZ; 天源迪科; 15.48; -4.6%; 11843832.5; 23</t>
+        </is>
+      </c>
+      <c r="CD4" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 15.05; 7.6%; 9542071.0; 32</t>
+        </is>
+      </c>
+      <c r="CE4" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 15.05; 7.6%; 74850.0; 38</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -15699,6 +20339,111 @@
           <t>300260.SZ; 新莱应材; 32.45; -4.9%; 9700376.5; 26</t>
         </is>
       </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>300260.SZ; 新莱应材; 32.45; -4.9%; 10746011.0; 23</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>301156.SZ; 美农生物; 19.85; -2.8%; 8943215.0; 43</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>300260.SZ; 新莱应材; 32.45; -4.9%; 9069211.0; 34</t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>300240.SZ; 飞力达; 7.9; -2.3%; 8959448.5; 29</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>300871.SZ; 回盛生物; 22.07; -3.2%; 6458629.0; 53</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>301558.SZ; 三态股份; 8.78; -1.3%; 5806142.5; 55</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>300379.SZ; *ST东通; 5.43; -5.7%; 5971810.5; 59</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>301558.SZ; 三态股份; 8.78; -1.3%; 5865885.5; 58</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>300322.SZ; 硕贝德; 15.45; 6.0%; 5673014.0; 61</t>
+        </is>
+      </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 19.15; -4.2%; 7870500.0; 39</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>300180.SZ; 华峰超纤; 7.3; -3.7%; 6962765.5; 42</t>
+        </is>
+      </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 109.21; 1.2%; 10084429.0; 33</t>
+        </is>
+      </c>
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>300180.SZ; 华峰超纤; 7.3; -3.7%; 8133781.5; 41</t>
+        </is>
+      </c>
+      <c r="BX5" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.83; -1.8%; 7189370.0; 42</t>
+        </is>
+      </c>
+      <c r="BY5" t="inlineStr">
+        <is>
+          <t>300274.SZ; 阳光电源; 62.52; -2.2%; 5980940.0; 52</t>
+        </is>
+      </c>
+      <c r="BZ5" t="inlineStr">
+        <is>
+          <t>300548.SZ; 博创科技; 49.3; -1.8%; 6454335.0; 48</t>
+        </is>
+      </c>
+      <c r="CA5" t="inlineStr">
+        <is>
+          <t>300170.SZ; 汉得信息; 18.82; -5.0%; 6332942.0; 46</t>
+        </is>
+      </c>
+      <c r="CB5" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.83; -1.8%; 7467001.0; 33</t>
+        </is>
+      </c>
+      <c r="CC5" t="inlineStr">
+        <is>
+          <t>302132.SZ; 中航成飞; 79.88; -4.0%; 10966753.5; 25</t>
+        </is>
+      </c>
+      <c r="CD5" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 94.8; -1.8%; 9240145.0; 34</t>
+        </is>
+      </c>
+      <c r="CE5" t="inlineStr">
+        <is>
+          <t>300663.SZ; 科蓝软件; 18.83; 14.0%; 71375.5; 41</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -16009,6 +20754,111 @@
           <t>301658.SZ; 首航新能; 28.38; -3.0%; 9368321.5; 28</t>
         </is>
       </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>300967.SZ; 晓鸣股份; 19.11; -1.7%; 9051052.0; 34</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 19.15; -4.2%; 8580031.0; 46</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>300240.SZ; 飞力达; 7.9; -2.3%; 8926675.5; 35</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>300189.SZ; 神农种业; 4.34; -0.9%; 7888479.0; 41</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>300561.SZ; *ST汇科; 12.7; -3.3%; 6404157.5; 54</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>301256.SZ; 华融化学; 11.01; -6.0%; 5805914.5; 56</t>
+        </is>
+      </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>300641.SZ; 正丹股份; 25.36; -2.6%; 5912580.5; 61</t>
+        </is>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>300757.SZ; 罗博特科; 131; -3.4%; 5641114.5; 59</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 77.26; -3.2%; 5339764.0; 67</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>688256.SH; 寒武纪; 700; -0.5%; 6616493.5; 50</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>300139.SZ; 晓程科技; 18.42; -0.6%; 6221372.5; 51</t>
+        </is>
+      </c>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>300718.SZ; 长盛轴承; 77.9; -2.9%; 8543872.5; 43</t>
+        </is>
+      </c>
+      <c r="BW6" t="inlineStr">
+        <is>
+          <t>300542.SZ; 新晨科技; 19.07; -1.7%; 6733733.0; 50</t>
+        </is>
+      </c>
+      <c r="BX6" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 109.21; 1.2%; 6411507.0; 51</t>
+        </is>
+      </c>
+      <c r="BY6" t="inlineStr">
+        <is>
+          <t>301209.SZ; 联合化学; 98.13; -8.4%; 5305305.0; 59</t>
+        </is>
+      </c>
+      <c r="BZ6" t="inlineStr">
+        <is>
+          <t>301076.SZ; 新瀚新材; 37.1; -1.7%; 6273028.5; 49</t>
+        </is>
+      </c>
+      <c r="CA6" t="inlineStr">
+        <is>
+          <t>300005.SZ; 探路者; 10.06; -7.0%; 5313610.5; 61</t>
+        </is>
+      </c>
+      <c r="CB6" t="inlineStr">
+        <is>
+          <t>300766.SZ; 每日互动; 38.11; -2.9%; 6571607.0; 42</t>
+        </is>
+      </c>
+      <c r="CC6" t="inlineStr">
+        <is>
+          <t>300065.SZ; 海兰信; 16.17; -3.6%; 7302484.0; 43</t>
+        </is>
+      </c>
+      <c r="CD6" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 37.1; -5.2%; 8944194.5; 37</t>
+        </is>
+      </c>
+      <c r="CE6" t="inlineStr">
+        <is>
+          <t>300339.SZ; 润和软件; 57.54; 3.2%; 62222.5; 51</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -16319,6 +21169,111 @@
           <t>300967.SZ; 晓鸣股份; 19.11; -1.7%; 9120102.5; 29</t>
         </is>
       </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>301256.SZ; 华融化学; 11.01; -6.0%; 8914148.5; 36</t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>300077.SZ; 国民技术; 24.55; -3.4%; 8576626.5; 47</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 76.19; 0.1%; 8790254.0; 36</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.83; -1.8%; 7684739.0; 43</t>
+        </is>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 19.15; -4.2%; 6250349.0; 56</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>300871.SZ; 回盛生物; 22.07; -3.2%; 5389575.0; 63</t>
+        </is>
+      </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.83; -1.8%; 5445112.0; 71</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>300661.SZ; 圣邦股份; 97.23; -2.2%; 5635730.5; 60</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>300379.SZ; *ST东通; 5.43; -5.7%; 4724866.5; 78</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 21.17; -3.8%; 6585052.0; 52</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>300170.SZ; 汉得信息; 18.82; -5.0%; 6104024.5; 55</t>
+        </is>
+      </c>
+      <c r="BV7" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 19.15; -4.2%; 7531424.5; 47</t>
+        </is>
+      </c>
+      <c r="BW7" t="inlineStr">
+        <is>
+          <t>300561.SZ; *ST汇科; 12.7; -3.3%; 5375260.0; 71</t>
+        </is>
+      </c>
+      <c r="BX7" t="inlineStr">
+        <is>
+          <t>300766.SZ; 每日互动; 38.11; -2.9%; 6353486.0; 52</t>
+        </is>
+      </c>
+      <c r="BY7" t="inlineStr">
+        <is>
+          <t>301076.SZ; 新瀚新材; 37.1; -1.7%; 4904923.5; 68</t>
+        </is>
+      </c>
+      <c r="BZ7" t="inlineStr">
+        <is>
+          <t>301000.SZ; 肇民科技; 52.01; -5.9%; 5176013.0; 61</t>
+        </is>
+      </c>
+      <c r="CA7" t="inlineStr">
+        <is>
+          <t>300458.SZ; 全志科技; 40.2; -2.7%; 5072661.0; 67</t>
+        </is>
+      </c>
+      <c r="CB7" t="inlineStr">
+        <is>
+          <t>300005.SZ; 探路者; 10.06; -7.0%; 6356976.0; 47</t>
+        </is>
+      </c>
+      <c r="CC7" t="inlineStr">
+        <is>
+          <t>300353.SZ; 东土科技; 21.34; -8.0%; 7051816.5; 46</t>
+        </is>
+      </c>
+      <c r="CD7" t="inlineStr">
+        <is>
+          <t>300047.SZ; 天源迪科; 15.48; -4.6%; 7300985.0; 47</t>
+        </is>
+      </c>
+      <c r="CE7" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 37.1; -5.2%; 54904.5; 60</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -16629,6 +21584,111 @@
           <t>300468.SZ; 四方精创; 19.15; -4.2%; 6760082.0; 48</t>
         </is>
       </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 19.15; -4.2%; 7500314.0; 51</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>300260.SZ; 新莱应材; 32.45; -4.9%; 7907777.5; 56</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>300561.SZ; *ST汇科; 12.7; -3.3%; 7655094.5; 47</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>300458.SZ; 全志科技; 40.2; -2.7%; 6590065.5; 55</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.83; -1.8%; 6166028.5; 58</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>300260.SZ; 新莱应材; 32.45; -4.9%; 5231408.5; 67</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>300927.SZ; 江天化学; 25.91; -5.9%; 5273526.5; 75</t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>300077.SZ; 国民技术; 24.55; -3.4%; 5038075.0; 71</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>300251.SZ; 光线传媒; 18.61; -2.8%; 3985817.0; 94</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>300296.SZ; 利亚德; 6.19; -2.5%; 6110777.5; 61</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 77.26; -3.2%; 5080357.5; 75</t>
+        </is>
+      </c>
+      <c r="BV8" t="inlineStr">
+        <is>
+          <t>300353.SZ; 东土科技; 21.34; -8.0%; 6612981.5; 55</t>
+        </is>
+      </c>
+      <c r="BW8" t="inlineStr">
+        <is>
+          <t>300442.SZ; 润泽科技; 46.73; -3.2%; 5332000.5; 74</t>
+        </is>
+      </c>
+      <c r="BX8" t="inlineStr">
+        <is>
+          <t>300180.SZ; 华峰超纤; 7.3; -3.7%; 6018287.0; 59</t>
+        </is>
+      </c>
+      <c r="BY8" t="inlineStr">
+        <is>
+          <t>300040.SZ; 九洲集团; 7.9; 5.2%; 4856828.0; 70</t>
+        </is>
+      </c>
+      <c r="BZ8" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 21.17; -3.8%; 5070611.0; 63</t>
+        </is>
+      </c>
+      <c r="CA8" t="inlineStr">
+        <is>
+          <t>300548.SZ; 博创科技; 49.3; -1.8%; 4839687.0; 71</t>
+        </is>
+      </c>
+      <c r="CB8" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 16.72; -5.1%; 6195810.5; 51</t>
+        </is>
+      </c>
+      <c r="CC8" t="inlineStr">
+        <is>
+          <t>300005.SZ; 探路者; 10.06; -7.0%; 6606486.0; 51</t>
+        </is>
+      </c>
+      <c r="CD8" t="inlineStr">
+        <is>
+          <t>300095.SZ; 华伍股份; 9.75; 0.1%; 6706876.5; 52</t>
+        </is>
+      </c>
+      <c r="CE8" t="inlineStr">
+        <is>
+          <t>301317.SZ; 鑫磊股份; 32.7; 19.8%; 53295.0; 63</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -16939,6 +21999,111 @@
           <t>301156.SZ; 美农生物; 19.85; -2.8%; 6710516.5; 49</t>
         </is>
       </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>300087.SZ; 荃银高科; 9.54; -0.1%; 7174147.5; 56</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>831087.BJ; 秋乐种业; 19.92; 1.3%; 6671537.5; 69</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>300871.SZ; 回盛生物; 22.07; -3.2%; 7526406.0; 49</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>300661.SZ; 圣邦股份; 97.23; -2.2%; 6502815.5; 56</t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>300240.SZ; 飞力达; 7.9; -2.3%; 6070689.0; 60</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>300189.SZ; 神农种业; 4.34; -0.9%; 5161901.5; 68</t>
+        </is>
+      </c>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 19.15; -4.2%; 5240972.5; 76</t>
+        </is>
+      </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>301073.SZ; 君亭酒店; 21.16; -3.1%; 4866180.0; 80</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 76.19; 0.1%; 3706345.5; 101</t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.83; -1.8%; 5640782.0; 70</t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.83; -1.8%; 4988579.0; 76</t>
+        </is>
+      </c>
+      <c r="BV9" t="inlineStr">
+        <is>
+          <t>300065.SZ; 海兰信; 16.17; -3.6%; 5994089.5; 61</t>
+        </is>
+      </c>
+      <c r="BW9" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 19.15; -4.2%; 5306404.0; 75</t>
+        </is>
+      </c>
+      <c r="BX9" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 16.72; -5.1%; 5770919.0; 65</t>
+        </is>
+      </c>
+      <c r="BY9" t="inlineStr">
+        <is>
+          <t>301560.SZ; 众捷汽车; 39.83; -4.7%; 4488317.0; 77</t>
+        </is>
+      </c>
+      <c r="BZ9" t="inlineStr">
+        <is>
+          <t>300379.SZ; *ST东通; 5.43; -5.7%; 4818632.0; 69</t>
+        </is>
+      </c>
+      <c r="CA9" t="inlineStr">
+        <is>
+          <t>301076.SZ; 新瀚新材; 37.1; -1.7%; 4611299.5; 78</t>
+        </is>
+      </c>
+      <c r="CB9" t="inlineStr">
+        <is>
+          <t>300548.SZ; 博创科技; 49.3; -1.8%; 5447408.5; 65</t>
+        </is>
+      </c>
+      <c r="CC9" t="inlineStr">
+        <is>
+          <t>300008.SZ; 天海防务; 6.23; -5.2%; 6024508.0; 61</t>
+        </is>
+      </c>
+      <c r="CD9" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.83; -1.8%; 6299819.0; 56</t>
+        </is>
+      </c>
+      <c r="CE9" t="inlineStr">
+        <is>
+          <t>300095.SZ; 华伍股份; 9.75; 0.1%; 52616.0; 64</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -17249,6 +22414,111 @@
           <t>300748.SZ; 金力永磁; 21.27; -1.3%; 6637402.5; 51</t>
         </is>
       </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>300748.SZ; 金力永磁; 21.27; -1.3%; 6886630.0; 61</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>300087.SZ; 荃银高科; 9.54; -0.1%; 5968546.5; 79</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>301078.SZ; 孩子王; 12.48; -3.6%; 6662288.0; 61</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>300871.SZ; 回盛生物; 22.07; -3.2%; 6324909.5; 59</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>300723.SZ; 一品红; 35.95; -1.5%; 6031243.0; 62</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 77.26; -3.2%; 5129176.5; 71</t>
+        </is>
+      </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>300189.SZ; 神农种业; 4.34; -0.9%; 4490070.0; 85</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>839273.BJ; 一致魔芋; 45.3; -1.5%; 4825618.0; 81</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>301558.SZ; 三态股份; 8.78; -1.3%; 3530616.0; 107</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 77.26; -3.2%; 5436672.5; 75</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>300260.SZ; 新莱应材; 32.45; -4.9%; 4926531.5; 78</t>
+        </is>
+      </c>
+      <c r="BV10" t="inlineStr">
+        <is>
+          <t>300542.SZ; 新晨科技; 19.07; -1.7%; 5711857.0; 66</t>
+        </is>
+      </c>
+      <c r="BW10" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 16.72; -5.1%; 5113965.0; 78</t>
+        </is>
+      </c>
+      <c r="BX10" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 94.8; -1.8%; 4473253.5; 93</t>
+        </is>
+      </c>
+      <c r="BY10" t="inlineStr">
+        <is>
+          <t>300180.SZ; 华峰超纤; 7.3; -3.7%; 4344369.0; 82</t>
+        </is>
+      </c>
+      <c r="BZ10" t="inlineStr">
+        <is>
+          <t>301396.SZ; 宏景科技; 82.39; -0.8%; 4742159.0; 72</t>
+        </is>
+      </c>
+      <c r="CA10" t="inlineStr">
+        <is>
+          <t>300339.SZ; 润和软件; 57.54; 3.2%; 4323547.5; 84</t>
+        </is>
+      </c>
+      <c r="CB10" t="inlineStr">
+        <is>
+          <t>300398.SZ; 飞凯材料; 19.74; -3.3%; 5326674.0; 69</t>
+        </is>
+      </c>
+      <c r="CC10" t="inlineStr">
+        <is>
+          <t>300255.SZ; 常山药业; 25.99; -2.4%; 6014042.0; 62</t>
+        </is>
+      </c>
+      <c r="CD10" t="inlineStr">
+        <is>
+          <t>300379.SZ; *ST东通; 5.43; -5.7%; 5380632.5; 74</t>
+        </is>
+      </c>
+      <c r="CE10" t="inlineStr">
+        <is>
+          <t>688981.SH; 中芯国际; 85.83; -4.6%; 49602.5; 71</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -17559,6 +22829,111 @@
           <t>300750.SZ; 宁德时代; 248.27; 1.5%; 6483878.0; 53</t>
         </is>
       </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>301658.SZ; 首航新能; 28.38; -3.0%; 6813841.0; 62</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>300240.SZ; 飞力达; 7.9; -2.3%; 5844341.0; 82</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>301156.SZ; 美农生物; 19.85; -2.8%; 6292779.5; 64</t>
+        </is>
+      </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 19.15; -4.2%; 5998622.0; 65</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>301665.SZ; 泰禾股份; 27.57; -2.4%; 5793129.5; 67</t>
+        </is>
+      </c>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>300200.SZ; 高盟新材; 9.67; -3.1%; 5078159.0; 72</t>
+        </is>
+      </c>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>300661.SZ; 圣邦股份; 97.23; -2.2%; 4384322.5; 87</t>
+        </is>
+      </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>300721.SZ; 怡达股份; 14.55; -4.0%; 4781274.0; 83</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>301662.SZ; 宏工科技; 53.31; 1.2%; 3518538.0; 109</t>
+        </is>
+      </c>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 76.19; 0.1%; 5399367.5; 78</t>
+        </is>
+      </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>300542.SZ; 新晨科技; 19.07; -1.7%; 4823484.5; 81</t>
+        </is>
+      </c>
+      <c r="BV11" t="inlineStr">
+        <is>
+          <t>300251.SZ; 光线传媒; 18.61; -2.8%; 5702117.5; 67</t>
+        </is>
+      </c>
+      <c r="BW11" t="inlineStr">
+        <is>
+          <t>300386.SZ; 飞天诚信; 17.78; 3.9%; 4865730.5; 84</t>
+        </is>
+      </c>
+      <c r="BX11" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 76.19; 0.1%; 4189609.0; 99</t>
+        </is>
+      </c>
+      <c r="BY11" t="inlineStr">
+        <is>
+          <t>300738.SZ; 奥飞数据; 23.24; -3.7%; 4164742.0; 87</t>
+        </is>
+      </c>
+      <c r="BZ11" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 76.19; 0.1%; 4681098.5; 73</t>
+        </is>
+      </c>
+      <c r="CA11" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.83; -1.8%; 4279769.5; 86</t>
+        </is>
+      </c>
+      <c r="CB11" t="inlineStr">
+        <is>
+          <t>300065.SZ; 海兰信; 16.17; -3.6%; 5141712.0; 72</t>
+        </is>
+      </c>
+      <c r="CC11" t="inlineStr">
+        <is>
+          <t>688280.SH; 精进电动; 7.98; -10.3%; 5350628.5; 75</t>
+        </is>
+      </c>
+      <c r="CD11" t="inlineStr">
+        <is>
+          <t>300884.SZ; 狄耐克; 13.19; -8.7%; 5368436.5; 75</t>
+        </is>
+      </c>
+      <c r="CE11" t="inlineStr">
+        <is>
+          <t>300607.SZ; 拓斯达; 30.98; 5.9%; 44860.0; 85</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -17869,6 +23244,111 @@
           <t>301256.SZ; 华融化学; 11.01; -6.0%; 6169811.0; 59</t>
         </is>
       </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>301156.SZ; 美农生物; 19.85; -2.8%; 6625844.0; 66</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>300967.SZ; 晓鸣股份; 19.11; -1.7%; 5807535.5; 84</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>300251.SZ; 光线传媒; 18.61; -2.8%; 5848161.0; 68</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>688981.SH; 中芯国际; 85.83; -4.6%; 5576815.0; 70</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>300005.SZ; 探路者; 10.06; -7.0%; 5064016.5; 81</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>300240.SZ; 飞力达; 7.9; -2.3%; 5048245.0; 73</t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>301256.SZ; 华融化学; 11.01; -6.0%; 4098400.0; 102</t>
+        </is>
+      </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.83; -1.8%; 4732724.5; 84</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 16.72; -5.1%; 3507062.5; 110</t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>300892.SZ; 品渥食品; 33.13; -1.4%; 4844292.5; 93</t>
+        </is>
+      </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>300350.SZ; 华鹏飞; 6; -1.0%; 4695483.0; 87</t>
+        </is>
+      </c>
+      <c r="BV12" t="inlineStr">
+        <is>
+          <t>301000.SZ; 肇民科技; 52.01; -5.9%; 5544683.5; 70</t>
+        </is>
+      </c>
+      <c r="BW12" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.83; -1.8%; 4579564.0; 90</t>
+        </is>
+      </c>
+      <c r="BX12" t="inlineStr">
+        <is>
+          <t>300542.SZ; 新晨科技; 19.07; -1.7%; 3883844.0; 105</t>
+        </is>
+      </c>
+      <c r="BY12" t="inlineStr">
+        <is>
+          <t>300170.SZ; 汉得信息; 18.82; -5.0%; 4133536.5; 90</t>
+        </is>
+      </c>
+      <c r="BZ12" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 37.1; -5.2%; 4287446.5; 80</t>
+        </is>
+      </c>
+      <c r="CA12" t="inlineStr">
+        <is>
+          <t>300225.SZ; 金力泰; nan; nan%; 4269487.0; 87</t>
+        </is>
+      </c>
+      <c r="CB12" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 76.19; 0.1%; 5074260.0; 73</t>
+        </is>
+      </c>
+      <c r="CC12" t="inlineStr">
+        <is>
+          <t>300766.SZ; 每日互动; 38.11; -2.9%; 5094651.0; 78</t>
+        </is>
+      </c>
+      <c r="CD12" t="inlineStr">
+        <is>
+          <t>300696.SZ; 爱乐达; 21.49; -8.2%; 5193595.0; 80</t>
+        </is>
+      </c>
+      <c r="CE12" t="inlineStr">
+        <is>
+          <t>301053.SZ; 远信工业; 32.66; 20.0%; 41196.5; 96</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -18179,6 +23659,111 @@
           <t>300033.SZ; 同花顺; 259.88; -2.5%; 5980168.0; 63</t>
         </is>
       </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>831087.BJ; 秋乐种业; 19.92; 1.3%; 5884067.0; 82</t>
+        </is>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>688981.SH; 中芯国际; 85.83; -4.6%; 5731357.0; 88</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>300892.SZ; 品渥食品; 33.13; -1.4%; 5538390.5; 75</t>
+        </is>
+      </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>300251.SZ; 光线传媒; 18.61; -2.8%; 5381971.0; 78</t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 16.72; -5.1%; 4780157.5; 89</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>300927.SZ; 江天化学; 25.91; -5.9%; 5015133.5; 74</t>
+        </is>
+      </c>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>300005.SZ; 探路者; 10.06; -7.0%; 3992003.0; 106</t>
+        </is>
+      </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>300139.SZ; 晓程科技; 18.42; -0.6%; 4701296.0; 85</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>300005.SZ; 探路者; 10.06; -7.0%; 3323653.5; 113</t>
+        </is>
+      </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>300322.SZ; 硕贝德; 15.45; 6.0%; 4474471.5; 101</t>
+        </is>
+      </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 76.19; 0.1%; 4272996.5; 98</t>
+        </is>
+      </c>
+      <c r="BV13" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.83; -1.8%; 5443348.0; 74</t>
+        </is>
+      </c>
+      <c r="BW13" t="inlineStr">
+        <is>
+          <t>300251.SZ; 光线传媒; 18.61; -2.8%; 4325733.0; 96</t>
+        </is>
+      </c>
+      <c r="BX13" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 19.15; -4.2%; 3811435.5; 107</t>
+        </is>
+      </c>
+      <c r="BY13" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.83; -1.8%; 4099471.0; 91</t>
+        </is>
+      </c>
+      <c r="BZ13" t="inlineStr">
+        <is>
+          <t>300225.SZ; 金力泰; nan; nan%; 4149988.0; 84</t>
+        </is>
+      </c>
+      <c r="CA13" t="inlineStr">
+        <is>
+          <t>300065.SZ; 海兰信; 16.17; -3.6%; 4111964.5; 91</t>
+        </is>
+      </c>
+      <c r="CB13" t="inlineStr">
+        <is>
+          <t>300738.SZ; 奥飞数据; 23.24; -3.7%; 4684866.5; 80</t>
+        </is>
+      </c>
+      <c r="CC13" t="inlineStr">
+        <is>
+          <t>300339.SZ; 润和软件; 57.54; 3.2%; 5073057.5; 79</t>
+        </is>
+      </c>
+      <c r="CD13" t="inlineStr">
+        <is>
+          <t>300032.SZ; 金龙机电; 5.17; -12.7%; 4911086.0; 85</t>
+        </is>
+      </c>
+      <c r="CE13" t="inlineStr">
+        <is>
+          <t>300493.SZ; 润欣科技; 20.34; -3.3%; 40281.0; 99</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -18489,6 +24074,111 @@
           <t>300561.SZ; *ST汇科; 12.7; -3.3%; 5848836.0; 67</t>
         </is>
       </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>300127.SZ; 银河磁体; 25.93; -2.0%; 5725757.5; 85</t>
+        </is>
+      </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>301256.SZ; 华融化学; 11.01; -6.0%; 5501409.0; 95</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr">
+        <is>
+          <t>300106.SZ; 西部牧业; 10.9; -1.7%; 5004159.0; 88</t>
+        </is>
+      </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 76.19; 0.1%; 5186334.0; 85</t>
+        </is>
+      </c>
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>300398.SZ; 飞凯材料; 19.74; -3.3%; 4524030.5; 98</t>
+        </is>
+      </c>
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>301078.SZ; 孩子王; 12.48; -3.6%; 4957653.0; 76</t>
+        </is>
+      </c>
+      <c r="BQ14" t="inlineStr">
+        <is>
+          <t>300941.SZ; 创识科技; 23.6; -2.0%; 3933458.0; 109</t>
+        </is>
+      </c>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>300200.SZ; 高盟新材; 9.67; -3.1%; 4604286.0; 87</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>300661.SZ; 圣邦股份; 97.23; -2.2%; 3264615.5; 117</t>
+        </is>
+      </c>
+      <c r="BT14" t="inlineStr">
+        <is>
+          <t>300605.SZ; 恒锋信息; 16.34; -2.6%; 4342526.5; 106</t>
+        </is>
+      </c>
+      <c r="BU14" t="inlineStr">
+        <is>
+          <t>300465.SZ; 高伟达; 14.48; -3.3%; 4212019.5; 101</t>
+        </is>
+      </c>
+      <c r="BV14" t="inlineStr">
+        <is>
+          <t>300748.SZ; 金力永磁; 21.27; -1.3%; 4917476.5; 82</t>
+        </is>
+      </c>
+      <c r="BW14" t="inlineStr">
+        <is>
+          <t>300007.SZ; 汉威科技; 41.46; -3.3%; 4023434.5; 105</t>
+        </is>
+      </c>
+      <c r="BX14" t="inlineStr">
+        <is>
+          <t>300170.SZ; 汉得信息; 18.82; -5.0%; 3714087.5; 111</t>
+        </is>
+      </c>
+      <c r="BY14" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 76.19; 0.1%; 4095979.5; 92</t>
+        </is>
+      </c>
+      <c r="BZ14" t="inlineStr">
+        <is>
+          <t>300738.SZ; 奥飞数据; 23.24; -3.7%; 4096482.5; 85</t>
+        </is>
+      </c>
+      <c r="CA14" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 21.17; -3.8%; 4040215.5; 94</t>
+        </is>
+      </c>
+      <c r="CB14" t="inlineStr">
+        <is>
+          <t>300918.SZ; 南山智尚; 22.55; -4.4%; 4655561.0; 81</t>
+        </is>
+      </c>
+      <c r="CC14" t="inlineStr">
+        <is>
+          <t>301076.SZ; 新瀚新材; 37.1; -1.7%; 4958039.5; 82</t>
+        </is>
+      </c>
+      <c r="CD14" t="inlineStr">
+        <is>
+          <t>300005.SZ; 探路者; 10.06; -7.0%; 4711578.5; 88</t>
+        </is>
+      </c>
+      <c r="CE14" t="inlineStr">
+        <is>
+          <t>300032.SZ; 金龙机电; 5.17; -12.7%; 36071.0; 106</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -18799,6 +24489,111 @@
           <t>300274.SZ; 阳光电源; 62.52; -2.2%; 5745251.0; 70</t>
         </is>
       </c>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>301078.SZ; 孩子王; 12.48; -3.6%; 5140703.5; 100</t>
+        </is>
+      </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>300750.SZ; 宁德时代; 248.27; 1.5%; 5411916.0; 100</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 94.8; -1.8%; 4921449.0; 92</t>
+        </is>
+      </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>300782.SZ; 卓胜微; 74.15; -2.6%; 4844635.5; 93</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 94.8; -1.8%; 4350818.0; 101</t>
+        </is>
+      </c>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.83; -1.8%; 4819419.5; 79</t>
+        </is>
+      </c>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>300892.SZ; 品渥食品; 33.13; -1.4%; 3764711.0; 115</t>
+        </is>
+      </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>300240.SZ; 飞力达; 7.9; -2.3%; 4521921.0; 90</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>300240.SZ; 飞力达; 7.9; -2.3%; 3220560.0; 119</t>
+        </is>
+      </c>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>300180.SZ; 华峰超纤; 7.3; -3.7%; 4063428.0; 113</t>
+        </is>
+      </c>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>300065.SZ; 海兰信; 16.17; -3.6%; 3965594.5; 119</t>
+        </is>
+      </c>
+      <c r="BV15" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 94.8; -1.8%; 4791231.0; 86</t>
+        </is>
+      </c>
+      <c r="BW15" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 109.21; 1.2%; 3893468.0; 108</t>
+        </is>
+      </c>
+      <c r="BX15" t="inlineStr">
+        <is>
+          <t>301486.SZ; 致尚科技; 61.89; 0.3%; 3683950.5; 112</t>
+        </is>
+      </c>
+      <c r="BY15" t="inlineStr">
+        <is>
+          <t>301212.SZ; 联盛化学; 28; -8.3%; 3894197.0; 100</t>
+        </is>
+      </c>
+      <c r="BZ15" t="inlineStr">
+        <is>
+          <t>300065.SZ; 海兰信; 16.17; -3.6%; 4079667.5; 86</t>
+        </is>
+      </c>
+      <c r="CA15" t="inlineStr">
+        <is>
+          <t>301000.SZ; 肇民科技; 52.01; -5.9%; 3772816.5; 99</t>
+        </is>
+      </c>
+      <c r="CB15" t="inlineStr">
+        <is>
+          <t>300170.SZ; 汉得信息; 18.82; -5.0%; 4520228.5; 84</t>
+        </is>
+      </c>
+      <c r="CC15" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 76.19; 0.1%; 4843509.5; 85</t>
+        </is>
+      </c>
+      <c r="CD15" t="inlineStr">
+        <is>
+          <t>300548.SZ; 博创科技; 49.3; -1.8%; 4634158.5; 90</t>
+        </is>
+      </c>
+      <c r="CE15" t="inlineStr">
+        <is>
+          <t>300040.SZ; 九洲集团; 7.9; 5.2%; 34775.5; 108</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -19109,6 +24904,111 @@
           <t>300308.SZ; 中际旭创; 94.8; -1.8%; 5375057.5; 77</t>
         </is>
       </c>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>300251.SZ; 光线传媒; 18.61; -2.8%; 4642359.0; 109</t>
+        </is>
+      </c>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>300380.SZ; 安硕信息; 47.75; -3.1%; 5228114.0; 107</t>
+        </is>
+      </c>
+      <c r="BM16" t="inlineStr">
+        <is>
+          <t>300433.SZ; 蓝思科技; 20.97; -2.6%; 4698212.0; 104</t>
+        </is>
+      </c>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>300139.SZ; 晓程科技; 18.42; -0.6%; 4650776.5; 98</t>
+        </is>
+      </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>300200.SZ; 高盟新材; 9.67; -3.1%; 4211308.0; 105</t>
+        </is>
+      </c>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 19.15; -4.2%; 4487522.0; 89</t>
+        </is>
+      </c>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>300260.SZ; 新莱应材; 32.45; -4.9%; 3733713.5; 116</t>
+        </is>
+      </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>300398.SZ; 飞凯材料; 19.74; -3.3%; 4398355.5; 91</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>300260.SZ; 新莱应材; 32.45; -4.9%; 3189808.0; 120</t>
+        </is>
+      </c>
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>300750.SZ; 宁德时代; 248.27; 1.5%; 4041739.0; 114</t>
+        </is>
+      </c>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>301558.SZ; 三态股份; 8.78; -1.3%; 3901186.5; 123</t>
+        </is>
+      </c>
+      <c r="BV16" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 77.26; -3.2%; 4494173.0; 93</t>
+        </is>
+      </c>
+      <c r="BW16" t="inlineStr">
+        <is>
+          <t>301076.SZ; 新瀚新材; 37.1; -1.7%; 3705598.0; 111</t>
+        </is>
+      </c>
+      <c r="BX16" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 77.26; -3.2%; 3681371.5; 113</t>
+        </is>
+      </c>
+      <c r="BY16" t="inlineStr">
+        <is>
+          <t>300379.SZ; *ST东通; 5.43; -5.7%; 3525976.5; 115</t>
+        </is>
+      </c>
+      <c r="BZ16" t="inlineStr">
+        <is>
+          <t>300007.SZ; 汉威科技; 41.46; -3.3%; 4068854.0; 87</t>
+        </is>
+      </c>
+      <c r="CA16" t="inlineStr">
+        <is>
+          <t>300366.SZ; 创意信息; 7.47; -3.6%; 3638123.0; 104</t>
+        </is>
+      </c>
+      <c r="CB16" t="inlineStr">
+        <is>
+          <t>300366.SZ; 创意信息; 7.47; -3.6%; 4087237.0; 100</t>
+        </is>
+      </c>
+      <c r="CC16" t="inlineStr">
+        <is>
+          <t>300033.SZ; 同花顺; 259.88; -2.5%; 4697807.5; 90</t>
+        </is>
+      </c>
+      <c r="CD16" t="inlineStr">
+        <is>
+          <t>301209.SZ; 联合化学; 98.13; -8.4%; 4632530.0; 91</t>
+        </is>
+      </c>
+      <c r="CE16" t="inlineStr">
+        <is>
+          <t>300322.SZ; 硕贝德; 15.45; 6.0%; 34633.5; 109</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -19419,6 +25319,111 @@
           <t>300641.SZ; 正丹股份; 25.36; -2.6%; 5223299.5; 80</t>
         </is>
       </c>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>300750.SZ; 宁德时代; 248.27; 1.5%; 4518520.0; 112</t>
+        </is>
+      </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>300008.SZ; 天海防务; 6.23; -5.2%; 5184877.5; 108</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr">
+        <is>
+          <t>300077.SZ; 国民技术; 24.55; -3.4%; 4652684.5; 105</t>
+        </is>
+      </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>300203.SZ; 聚光科技; 20.61; -1.6%; 4625774.0; 99</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>300433.SZ; 蓝思科技; 20.97; -2.6%; 4099000.0; 109</t>
+        </is>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>300561.SZ; *ST汇科; 12.7; -3.3%; 4425650.0; 93</t>
+        </is>
+      </c>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>301078.SZ; 孩子王; 12.48; -3.6%; 3695737.5; 118</t>
+        </is>
+      </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>300758.SZ; 七彩化学; 15.81; -5.2%; 3997157.0; 103</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>300641.SZ; 正丹股份; 25.36; -2.6%; 3041316.0; 135</t>
+        </is>
+      </c>
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 11.01; 5.2%; 3812614.0; 120</t>
+        </is>
+      </c>
+      <c r="BU17" t="inlineStr">
+        <is>
+          <t>300189.SZ; 神农种业; 4.34; -0.9%; 3886033.0; 125</t>
+        </is>
+      </c>
+      <c r="BV17" t="inlineStr">
+        <is>
+          <t>300007.SZ; 汉威科技; 41.46; -3.3%; 4362919.0; 100</t>
+        </is>
+      </c>
+      <c r="BW17" t="inlineStr">
+        <is>
+          <t>300994.SZ; 久祺股份; 17.57; -10.9%; 3449455.5; 120</t>
+        </is>
+      </c>
+      <c r="BX17" t="inlineStr">
+        <is>
+          <t>300561.SZ; *ST汇科; 12.7; -3.3%; 3604578.5; 115</t>
+        </is>
+      </c>
+      <c r="BY17" t="inlineStr">
+        <is>
+          <t>301479.SZ; 弘景光电; 131.03; -3.4%; 3494235.5; 117</t>
+        </is>
+      </c>
+      <c r="BZ17" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 16.72; -5.1%; 3865838.5; 96</t>
+        </is>
+      </c>
+      <c r="CA17" t="inlineStr">
+        <is>
+          <t>301396.SZ; 宏景科技; 82.39; -0.8%; 3634637.0; 106</t>
+        </is>
+      </c>
+      <c r="CB17" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 77.26; -3.2%; 3751601.5; 116</t>
+        </is>
+      </c>
+      <c r="CC17" t="inlineStr">
+        <is>
+          <t>300918.SZ; 南山智尚; 22.55; -4.4%; 4636628.0; 93</t>
+        </is>
+      </c>
+      <c r="CD17" t="inlineStr">
+        <is>
+          <t>300065.SZ; 海兰信; 16.17; -3.6%; 4431179.5; 94</t>
+        </is>
+      </c>
+      <c r="CE17" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 109.21; 1.2%; 33697.5; 112</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -19729,6 +25734,111 @@
           <t>300087.SZ; 荃银高科; 9.54; -0.1%; 5081147.5; 88</t>
         </is>
       </c>
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t>300561.SZ; *ST汇科; 12.7; -3.3%; 4256201.0; 125</t>
+        </is>
+      </c>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>300065.SZ; 海兰信; 16.17; -3.6%; 5100189.5; 110</t>
+        </is>
+      </c>
+      <c r="BM18" t="inlineStr">
+        <is>
+          <t>831087.BJ; 秋乐种业; 19.92; 1.3%; 4521732.0; 112</t>
+        </is>
+      </c>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>300561.SZ; *ST汇科; 12.7; -3.3%; 4375793.0; 109</t>
+        </is>
+      </c>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t>300466.SZ; 赛摩智能; 12.18; -4.5%; 3882792.5; 118</t>
+        </is>
+      </c>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>300967.SZ; 晓鸣股份; 19.11; -1.7%; 4326227.5; 98</t>
+        </is>
+      </c>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t>300729.SZ; 乐歌股份; 13.99; -2.8%; 3617878.0; 123</t>
+        </is>
+      </c>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>300947.SZ; 德必集团; 20.2; -2.0%; 3897709.5; 107</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>300530.SZ; 领湃科技; 28.93; 7.1%; 2798964.0; 153</t>
+        </is>
+      </c>
+      <c r="BT18" t="inlineStr">
+        <is>
+          <t>300738.SZ; 奥飞数据; 23.24; -3.7%; 3311485.5; 145</t>
+        </is>
+      </c>
+      <c r="BU18" t="inlineStr">
+        <is>
+          <t>300122.SZ; 智飞生物; 19.26; -1.5%; 3761175.5; 132</t>
+        </is>
+      </c>
+      <c r="BV18" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 16.72; -5.1%; 4322333.0; 101</t>
+        </is>
+      </c>
+      <c r="BW18" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 77.26; -3.2%; 3362375.5; 122</t>
+        </is>
+      </c>
+      <c r="BX18" t="inlineStr">
+        <is>
+          <t>300274.SZ; 阳光电源; 62.52; -2.2%; 3602735.0; 116</t>
+        </is>
+      </c>
+      <c r="BY18" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 109.21; 1.2%; 3476258.5; 118</t>
+        </is>
+      </c>
+      <c r="BZ18" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.83; -1.8%; 3746427.5; 102</t>
+        </is>
+      </c>
+      <c r="CA18" t="inlineStr">
+        <is>
+          <t>300738.SZ; 奥飞数据; 23.24; -3.7%; 3268877.0; 123</t>
+        </is>
+      </c>
+      <c r="CB18" t="inlineStr">
+        <is>
+          <t>300353.SZ; 东土科技; 21.34; -8.0%; 3580542.0; 124</t>
+        </is>
+      </c>
+      <c r="CC18" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 15.05; 7.6%; 4468674.0; 97</t>
+        </is>
+      </c>
+      <c r="CD18" t="inlineStr">
+        <is>
+          <t>300750.SZ; 宁德时代; 248.27; 1.5%; 4187997.5; 102</t>
+        </is>
+      </c>
+      <c r="CE18" t="inlineStr">
+        <is>
+          <t>873169.BJ; 七丰精工; 27.39; 17.5%; 31136.0; 116</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -20039,6 +26149,111 @@
           <t>300251.SZ; 光线传媒; 18.61; -2.8%; 5044201.5; 90</t>
         </is>
       </c>
+      <c r="BK19" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 76.19; 0.1%; 4178042.5; 127</t>
+        </is>
+      </c>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t>300033.SZ; 同花顺; 259.88; -2.5%; 4860649.5; 113</t>
+        </is>
+      </c>
+      <c r="BM19" t="inlineStr">
+        <is>
+          <t>300967.SZ; 晓鸣股份; 19.11; -1.7%; 4454202.5; 115</t>
+        </is>
+      </c>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>301256.SZ; 华融化学; 11.01; -6.0%; 4349864.5; 110</t>
+        </is>
+      </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t>301078.SZ; 孩子王; 12.48; -3.6%; 3820590.0; 121</t>
+        </is>
+      </c>
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>300750.SZ; 宁德时代; 248.27; 1.5%; 3976781.0; 114</t>
+        </is>
+      </c>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>300871.SZ; 回盛生物; 22.07; -3.2%; 3574403.5; 124</t>
+        </is>
+      </c>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 19.15; -4.2%; 3798578.0; 112</t>
+        </is>
+      </c>
+      <c r="BS19" t="inlineStr">
+        <is>
+          <t>300757.SZ; 罗博特科; 131; -3.4%; 2766007.5; 155</t>
+        </is>
+      </c>
+      <c r="BT19" t="inlineStr">
+        <is>
+          <t>300721.SZ; 怡达股份; 14.55; -4.0%; 3285001.5; 148</t>
+        </is>
+      </c>
+      <c r="BU19" t="inlineStr">
+        <is>
+          <t>300240.SZ; 飞力达; 7.9; -2.3%; 3673773.5; 138</t>
+        </is>
+      </c>
+      <c r="BV19" t="inlineStr">
+        <is>
+          <t>300130.SZ; 新国都; 23.42; -2.7%; 4190412.0; 106</t>
+        </is>
+      </c>
+      <c r="BW19" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 11.01; 5.2%; 3305023.0; 123</t>
+        </is>
+      </c>
+      <c r="BX19" t="inlineStr">
+        <is>
+          <t>688313.SH; 仕佳光子; 29.14; 0.6%; 3237885.5; 130</t>
+        </is>
+      </c>
+      <c r="BY19" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 19.15; -4.2%; 3316173.5; 130</t>
+        </is>
+      </c>
+      <c r="BZ19" t="inlineStr">
+        <is>
+          <t>301560.SZ; 众捷汽车; 39.83; -4.7%; 3741402.0; 103</t>
+        </is>
+      </c>
+      <c r="CA19" t="inlineStr">
+        <is>
+          <t>300047.SZ; 天源迪科; 15.48; -4.6%; 3249487.0; 125</t>
+        </is>
+      </c>
+      <c r="CB19" t="inlineStr">
+        <is>
+          <t>300638.SZ; 广和通; 27.98; -6.3%; 3529241.0; 126</t>
+        </is>
+      </c>
+      <c r="CC19" t="inlineStr">
+        <is>
+          <t>300548.SZ; 博创科技; 49.3; -1.8%; 4398754.0; 99</t>
+        </is>
+      </c>
+      <c r="CD19" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 21.17; -3.8%; 4104728.0; 106</t>
+        </is>
+      </c>
+      <c r="CE19" t="inlineStr">
+        <is>
+          <t>300047.SZ; 天源迪科; 15.48; -4.6%; 31094.5; 117</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -20349,6 +26564,111 @@
           <t>300963.SZ; 中洲特材; 16.72; -5.1%; 4927916.0; 92</t>
         </is>
       </c>
+      <c r="BK20" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 94.8; -1.8%; 4033063.5; 129</t>
+        </is>
+      </c>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t>300127.SZ; 银河磁体; 25.93; -2.0%; 4857013.0; 114</t>
+        </is>
+      </c>
+      <c r="BM20" t="inlineStr">
+        <is>
+          <t>301058.SZ; 中粮科工; 11.07; -1.2%; 4386886.0; 121</t>
+        </is>
+      </c>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>300046.SZ; 台基股份; 30.93; -3.0%; 4279091.5; 112</t>
+        </is>
+      </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t>300671.SZ; 富满微; 29.81; -3.6%; 3773843.0; 122</t>
+        </is>
+      </c>
+      <c r="BP20" t="inlineStr">
+        <is>
+          <t>300783.SZ; 三只松鼠; 27.14; -1.1%; 3965098.5; 116</t>
+        </is>
+      </c>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 16.72; -5.1%; 3525408.5; 125</t>
+        </is>
+      </c>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>301078.SZ; 孩子王; 12.48; -3.6%; 3779627.0; 114</t>
+        </is>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>300008.SZ; 天海防务; 6.23; -5.2%; 2741312.0; 159</t>
+        </is>
+      </c>
+      <c r="BT20" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 94.8; -1.8%; 3271563.5; 149</t>
+        </is>
+      </c>
+      <c r="BU20" t="inlineStr">
+        <is>
+          <t>300077.SZ; 国民技术; 24.55; -3.4%; 3557015.5; 142</t>
+        </is>
+      </c>
+      <c r="BV20" t="inlineStr">
+        <is>
+          <t>300766.SZ; 每日互动; 38.11; -2.9%; 3882198.5; 113</t>
+        </is>
+      </c>
+      <c r="BW20" t="inlineStr">
+        <is>
+          <t>300718.SZ; 长盛轴承; 77.9; -2.9%; 3256477.5; 129</t>
+        </is>
+      </c>
+      <c r="BX20" t="inlineStr">
+        <is>
+          <t>301000.SZ; 肇民科技; 52.01; -5.9%; 3073163.5; 141</t>
+        </is>
+      </c>
+      <c r="BY20" t="inlineStr">
+        <is>
+          <t>300541.SZ; 先进数通; 13.78; -0.6%; 3301011.0; 131</t>
+        </is>
+      </c>
+      <c r="BZ20" t="inlineStr">
+        <is>
+          <t>300571.SZ; 平治信息; 32.35; -2.2%; 3637978.0; 107</t>
+        </is>
+      </c>
+      <c r="CA20" t="inlineStr">
+        <is>
+          <t>300353.SZ; 东土科技; 21.34; -8.0%; 3246278.0; 127</t>
+        </is>
+      </c>
+      <c r="CB20" t="inlineStr">
+        <is>
+          <t>300184.SZ; 力源信息; 10.46; -2.2%; 3449379.0; 129</t>
+        </is>
+      </c>
+      <c r="CC20" t="inlineStr">
+        <is>
+          <t>300377.SZ; 赢时胜; 22.09; -2.5%; 4202272.0; 105</t>
+        </is>
+      </c>
+      <c r="CD20" t="inlineStr">
+        <is>
+          <t>300339.SZ; 润和软件; 57.54; 3.2%; 4086529.5; 107</t>
+        </is>
+      </c>
+      <c r="CE20" t="inlineStr">
+        <is>
+          <t>688552.SH; 航天南湖; 34.11; 11.1%; 30645.0; 120</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -20657,6 +26977,111 @@
       <c r="BJ21" t="inlineStr">
         <is>
           <t>831087.BJ; 秋乐种业; 19.92; 1.3%; 4754102.5; 98</t>
+        </is>
+      </c>
+      <c r="BK21" t="inlineStr">
+        <is>
+          <t>301396.SZ; 宏景科技; 82.39; -0.8%; 4011614.0; 130</t>
+        </is>
+      </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>300527.SZ; 中船应急; 8.01; -1.7%; 4670373.0; 121</t>
+        </is>
+      </c>
+      <c r="BM21" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 109.21; 1.2%; 4379554.0; 122</t>
+        </is>
+      </c>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>301156.SZ; 美农生物; 19.85; -2.8%; 4253748.5; 113</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>300661.SZ; 圣邦股份; 97.23; -2.2%; 3552670.0; 131</t>
+        </is>
+      </c>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>300994.SZ; 久祺股份; 17.57; -10.9%; 3701538.0; 122</t>
+        </is>
+      </c>
+      <c r="BQ21" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 77.26; -3.2%; 3508296.0; 126</t>
+        </is>
+      </c>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>300892.SZ; 品渥食品; 33.13; -1.4%; 3685531.5; 122</t>
+        </is>
+      </c>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t>300941.SZ; 创识科技; 23.6; -2.0%; 2718356.0; 161</t>
+        </is>
+      </c>
+      <c r="BT21" t="inlineStr">
+        <is>
+          <t>300766.SZ; 每日互动; 38.11; -2.9%; 3188157.0; 157</t>
+        </is>
+      </c>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>300130.SZ; 新国都; 23.42; -2.7%; 3552573.5; 143</t>
+        </is>
+      </c>
+      <c r="BV21" t="inlineStr">
+        <is>
+          <t>300276.SZ; 三丰智能; 12.21; -2.9%; 3856709.5; 115</t>
+        </is>
+      </c>
+      <c r="BW21" t="inlineStr">
+        <is>
+          <t>300065.SZ; 海兰信; 16.17; -3.6%; 3255226.0; 130</t>
+        </is>
+      </c>
+      <c r="BX21" t="inlineStr">
+        <is>
+          <t>300917.SZ; 特发服务; 45.13; -2.6%; 3062205.0; 144</t>
+        </is>
+      </c>
+      <c r="BY21" t="inlineStr">
+        <is>
+          <t>300687.SZ; 赛意信息; 30.08; -2.5%; 3055787.0; 139</t>
+        </is>
+      </c>
+      <c r="BZ21" t="inlineStr">
+        <is>
+          <t>300157.SZ; 新锦动力; 3.57; -6.1%; 3374614.5; 121</t>
+        </is>
+      </c>
+      <c r="CA21" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 16.72; -5.1%; 3066745.5; 132</t>
+        </is>
+      </c>
+      <c r="CB21" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 21.17; -3.8%; 3443105.5; 131</t>
+        </is>
+      </c>
+      <c r="CC21" t="inlineStr">
+        <is>
+          <t>300884.SZ; 狄耐克; 13.19; -8.7%; 4170350.5; 109</t>
+        </is>
+      </c>
+      <c r="CD21" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 76.19; 0.1%; 3989310.0; 114</t>
+        </is>
+      </c>
+      <c r="CE21" t="inlineStr">
+        <is>
+          <t>300747.SZ; 锐科激光; 20.93; 9.6%; 29059.5; 127</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE7"/>
+  <dimension ref="A1:CG7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,6 +849,16 @@
           <t>2025年05月09日</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月12日</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月13日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1064,6 +1074,16 @@
           <t>300095.SZ; 华伍股份; 1;  09:42:28; 2天2板; 9.75;  09:41:28; 0.1%; 2; 航空发动机+此前为巴基斯坦提供配套+工业制动器+智能制造</t>
         </is>
       </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>688552.SH; 航天南湖; 1;  09:43:35; 3天2板; 40.93;  09:42:23; 20.0%; 1; 军工+一季报增长+低空经济+央企</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>300946.SZ; 恒而达; 0;  09:25:00; 2天2板; 58.8;  09:25:00; 20.0%; 2; 拟6935.66万元收购德国SMS公司+智能数控装备</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1199,6 +1219,11 @@
           <t>300581.SZ; 晨曦航空; 0;  14:43:41; 2天2板; 15.05;  14:43:41; 7.6%; 2; 航空装备+军工+无人机</t>
         </is>
       </c>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>873169.BJ; 七丰精工; 4;  10:38:35; 3天2板; 35.6;  09:54:20; 30.0%; 1; 航空航天+轨道交通+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1269,6 +1294,11 @@
           <t>300879.SZ; 大叶股份; 1;  14:43:12; 4天3板; 37.1;  14:41:42; -5.2%; 2; 机器人概念+园林机械+一季度业绩增长+全球化布局</t>
         </is>
       </c>
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>302132.SZ; 中航成飞; 1;  14:00:00; 3天2板; 95.86;  10:08:36; 20.0%; 1; 航空装备+军贸+无人机+人形机器人</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1307,6 +1337,11 @@
       <c r="BM5" t="inlineStr">
         <is>
           <t>301066.SZ; 万事利; 0;  10:57:57; 2天2板; 18.7;  10:57:57; 20.0%; 2; 离境退税+丝绸+电商+AI智能体</t>
+        </is>
+      </c>
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 0;  14:41:15; 4天3板; 18.06;  14:41:15; 20.0%; 1; 航空装备+军工+无人机</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE532"/>
+  <dimension ref="A1:CG532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1778,6 +1813,16 @@
       <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>2025年05月09日</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月12日</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月13日</t>
         </is>
       </c>
     </row>
@@ -7157,7 +7202,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE11"/>
+  <dimension ref="A1:CG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7576,6 +7621,16 @@
           <t>2025年05月09日</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月12日</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月13日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -7966,6 +8021,16 @@
           <t>301317.SZ; 鑫磊股份; 6;  09:36:27; 32.7; 曾涨停; 19.8%; 0.71H;  09:36:27|| 10:57:39|| 10:59:15|| 11:05:27|| 14:53:30|| 14:55:12</t>
         </is>
       </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>300643.SZ; 万通智控; 1;  09:34:36; 20.89; 曾涨停; 16.6%; 0.04H;  09:34:36</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>834765.BJ; 美之高; 1;  09:35:37; 26.69; 曾涨停; 15.6%; 0.01H;  09:35:37</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -8296,6 +8361,16 @@
           <t>300663.SZ; 科蓝软件; 2;  09:55:30; 18.83; 曾涨停; 14.0%; 0.21H;  09:55:30|| 09:57:57</t>
         </is>
       </c>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>301048.SZ; 金鹰重工; 1;  09:47:42; 10.54; 曾涨停; 11.9%; 0.01H;  09:47:42</t>
+        </is>
+      </c>
+      <c r="CG3" t="inlineStr">
+        <is>
+          <t>300118.SZ; 东方日升; 1;  09:46:51; 11.17; 曾涨停; 17.0%; 0.34H;  09:46:51</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -8539,6 +8614,11 @@
       <c r="CE4" t="inlineStr">
         <is>
           <t>688552.SH; 航天南湖; 2;  11:17:17; 34.11; 曾涨停; 11.1%; 1.36H;  11:17:17|| 14:09:38</t>
+        </is>
+      </c>
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>301662.SZ; 宏工科技; 2;  13:23:36; 63.2; 曾涨停; 18.6%; 0.02H;  13:23:36|| 13:26:03</t>
         </is>
       </c>
     </row>
@@ -9048,7 +9128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE30"/>
+  <dimension ref="A1:CG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9467,6 +9547,16 @@
           <t>2025年05月09日</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月12日</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月13日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9877,6 +9967,16 @@
           <t>301066.SZ; 万事利; 0;  09:47:33; 首板涨停; 18.7;  09:47:33; 20.0%; 1; 丝绸文创+数码印花技术+AI智能体+市场拓展</t>
         </is>
       </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>300946.SZ; 恒而达; 0;  09:25:00; 首板涨停; 49;  09:25:00; 20.0%; 1; 拟6935.66万元收购德国SMS公司+智能数控装备</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>300840.SZ; 酷特智能; 0;  09:34:09; 首板涨停; 24.41;  09:34:09; 20.0%; 1; AI智能体+服装定制+外贸</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10272,6 +10372,16 @@
           <t>301053.SZ; 远信工业; 0;  10:02:18; 首板涨停; 32.66;  10:02:18; 20.0%; 1; 纺织设备+节能环保拉幅定形机+东南亚销售</t>
         </is>
       </c>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>301302.SZ; 华如科技; 0;  09:39:45; 首板涨停; 27.92;  09:39:45; 20.0%; 1; 军事仿真+XSimVerse 军事大模型+军工信息化+成飞概念</t>
+        </is>
+      </c>
+      <c r="CG3" t="inlineStr">
+        <is>
+          <t>301518.SZ; 长华化学; 0;  10:35:30; 首板涨停; 26.46;  10:35:30; 20.0%; 1; 聚醚多元醇+化工</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -10637,6 +10747,16 @@
           <t>300960.SZ; 通业科技; 0;  09:54:03; 首板涨停; 22.18;  09:54:03; -5.2%; 1; 轨交设备+维保市场+业绩增长</t>
         </is>
       </c>
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>301311.SZ; 昆船智能; 0;  10:02:36; 首板涨停; 21.46;  10:02:36; 20.0%; 1; 中船系+智能物流+机器人+一带一路</t>
+        </is>
+      </c>
+      <c r="CG4" t="inlineStr">
+        <is>
+          <t>301317.SZ; 鑫磊股份; 0;  14:22:57; 首板涨停; 38.16;  14:22:57; 20.0%; 1; 压缩机+空气动力设备+中俄贸易</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -10972,6 +11092,11 @@
           <t>301317.SZ; 鑫磊股份; 0;  09:59:27; 首板涨停; 32.7;  09:59:27; 19.8%; 1; 空气动力设备+压缩机+中俄贸易</t>
         </is>
       </c>
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>300607.SZ; 拓斯达; 2;  13:04:27; 首板涨停; 37.18;  10:17:03; 20.0%; 1; 机器人+华为+工业母机+大飞机</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -11275,6 +11400,11 @@
       <c r="CD6" t="inlineStr">
         <is>
           <t>688556.SH; 高测股份; 0;  10:05:41; 首板涨停; 10.29;  10:05:41; -4.1%; 1; 光伏切割设备+金刚线+丝杠</t>
+        </is>
+      </c>
+      <c r="CF6" t="inlineStr">
+        <is>
+          <t>688648.SH; 中邮科技; 0;  14:01:48; 首板涨停; 32.47;  14:01:48; 20.0%; 1; 智能物流系统+机器视觉+央企</t>
         </is>
       </c>
     </row>
@@ -12864,7 +12994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE178"/>
+  <dimension ref="A1:CG178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13283,6 +13413,16 @@
           <t>2025年05月09日</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月12日</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月13日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13673,6 +13813,16 @@
           <t>300696.SZ; 爱乐达; 6.1%; 16.8%; 21.49; -8.2%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>873169.BJ; 七丰精工; 8.3%; 41.8%; 35.6; 30.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>301317.SZ; 鑫磊股份; 1.9%; 22.4%; 38.16; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14033,6 +14183,11 @@
           <t>871642.BJ; 通易航天; 5.8%; 25.5%; 20.41; -12.1%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>300095.SZ; 华伍股份; 6.6%; 17.3%; 10.69; 9.6%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -14353,6 +14508,11 @@
           <t>688171.SH; 纬德信息; 3.1%; 13.6%; 29.4; 1.4%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>871263.BJ; 莱赛激光; 5.3%; 24.7%; 27.45; 18.1%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -14638,6 +14798,11 @@
           <t>301209.SZ; 联合化学; 2.9%; 19.1%; 98.13; -8.4%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>688552.SH; 航天南湖; 5.0%; 26.3%; 40.93; 20.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -14898,6 +15063,11 @@
           <t>838810.BJ; 春光智能; 2.5%; 20.7%; 25.24; 1.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CF6" t="inlineStr">
+        <is>
+          <t>920008.BJ; 成电光信; 4.1%; 13.6%; 47.13; 8.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -15143,6 +15313,11 @@
           <t>873169.BJ; 七丰精工; 2.5%; 33.3%; 27.39; 17.5%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CF7" t="inlineStr">
+        <is>
+          <t>837006.BJ; 晟楠科技; 3.8%; 13.3%; 36.01; 9.1%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -15363,6 +15538,11 @@
           <t>300897.SZ; 山科智能; 2.4%; 16.8%; 28.19; -8.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CF8" t="inlineStr">
+        <is>
+          <t>833943.BJ; 优机股份; 2.5%; 20.7%; 27.2; 17.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -15558,6 +15738,11 @@
           <t>688556.SH; 高测股份; 0.4%; 20.6%; 10.29; -4.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CF9" t="inlineStr">
+        <is>
+          <t>302132.SZ; 中航成飞; 2.4%; 22.9%; 95.86; 20.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -15733,6 +15918,11 @@
           <t>688552.SH; 航天南湖; 0.3%; 20.3%; 34.11; 11.1%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CF10" t="inlineStr">
+        <is>
+          <t>688297.SH; 中无人机; 2.0%; 13.6%; 50; 11.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -15886,6 +16076,11 @@
       <c r="CD11" t="inlineStr">
         <is>
           <t>688084.SH; 晶品特装; 0.2%; 13.0%; 70.62; -7.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CF11" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 0.1%; 20.2%; 18.06; 20.0%; 阳线||放量||价升量缩</t>
         </is>
       </c>
     </row>
@@ -18365,7 +18560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE21"/>
+  <dimension ref="A1:CG21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18784,6 +18979,16 @@
           <t>2025年05月09日</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月12日</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月13日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -19199,6 +19404,16 @@
           <t>302132.SZ; 中航成飞; 79.88; -4.0%; 183262.0; 8</t>
         </is>
       </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>302132.SZ; 中航成飞; 95.86; 20.0%; 661690.5; 1</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>302132.SZ; 中航成飞; 88.74; -7.4%; 251460.5; 7</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -19614,6 +19829,16 @@
           <t>301066.SZ; 万事利; 18.7; 20.0%; 82072.0; 35</t>
         </is>
       </c>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 18.06; 20.0%; 280891.0; 8</t>
+        </is>
+      </c>
+      <c r="CG3" t="inlineStr">
+        <is>
+          <t>301317.SZ; 鑫磊股份; 38.16; 20.0%; 123874.5; 36</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -20029,6 +20254,16 @@
           <t>300581.SZ; 晨曦航空; 15.05; 7.6%; 74850.0; 38</t>
         </is>
       </c>
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>300607.SZ; 拓斯达; 37.18; 20.0%; 257886.5; 11</t>
+        </is>
+      </c>
+      <c r="CG4" t="inlineStr">
+        <is>
+          <t>300840.SZ; 酷特智能; 24.41; 20.0%; 121967.5; 37</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -20444,6 +20679,16 @@
           <t>300663.SZ; 科蓝软件; 18.83; 14.0%; 71375.5; 41</t>
         </is>
       </c>
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 21.72; 4.3%; 167017.5; 23</t>
+        </is>
+      </c>
+      <c r="CG5" t="inlineStr">
+        <is>
+          <t>300607.SZ; 拓斯达; 38.02; 2.3%; 107379.5; 46</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -20859,6 +21104,16 @@
           <t>300339.SZ; 润和软件; 57.54; 3.2%; 62222.5; 51</t>
         </is>
       </c>
+      <c r="CF6" t="inlineStr">
+        <is>
+          <t>873169.BJ; 七丰精工; 35.6; 30.0%; 123535.0; 38</t>
+        </is>
+      </c>
+      <c r="CG6" t="inlineStr">
+        <is>
+          <t>300946.SZ; 恒而达; 58.8; 20.0%; 102940.5; 47</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -21274,6 +21529,16 @@
           <t>300879.SZ; 大叶股份; 37.1; -5.2%; 54904.5; 60</t>
         </is>
       </c>
+      <c r="CF7" t="inlineStr">
+        <is>
+          <t>301311.SZ; 昆船智能; 21.46; 20.0%; 110009.5; 50</t>
+        </is>
+      </c>
+      <c r="CG7" t="inlineStr">
+        <is>
+          <t>301518.SZ; 长华化学; 26.46; 20.0%; 92932.5; 53</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -21689,6 +21954,16 @@
           <t>301317.SZ; 鑫磊股份; 32.7; 19.8%; 53295.0; 63</t>
         </is>
       </c>
+      <c r="CF8" t="inlineStr">
+        <is>
+          <t>300377.SZ; 赢时胜; 24.67; 11.7%; 104282.5; 54</t>
+        </is>
+      </c>
+      <c r="CG8" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 16.47; -8.8%; 85822.5; 59</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -22104,6 +22379,16 @@
           <t>300095.SZ; 华伍股份; 9.75; 0.1%; 52616.0; 64</t>
         </is>
       </c>
+      <c r="CF9" t="inlineStr">
+        <is>
+          <t>300433.SZ; 蓝思科技; 22.99; 9.6%; 99113.0; 56</t>
+        </is>
+      </c>
+      <c r="CG9" t="inlineStr">
+        <is>
+          <t>300118.SZ; 东方日升; 11.17; 17.0%; 81992.5; 69</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -22519,6 +22804,16 @@
           <t>688981.SH; 中芯国际; 85.83; -4.6%; 49602.5; 71</t>
         </is>
       </c>
+      <c r="CF10" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 39.86; 7.4%; 94371.0; 60</t>
+        </is>
+      </c>
+      <c r="CG10" t="inlineStr">
+        <is>
+          <t>833171.BJ; 国航远洋; 9.5; 23.5%; 73731.0; 76</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -22934,6 +23229,16 @@
           <t>300607.SZ; 拓斯达; 30.98; 5.9%; 44860.0; 85</t>
         </is>
       </c>
+      <c r="CF11" t="inlineStr">
+        <is>
+          <t>301302.SZ; 华如科技; 27.92; 20.0%; 92703.0; 63</t>
+        </is>
+      </c>
+      <c r="CG11" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 22.2; 4.8%; 73142.5; 77</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -23349,6 +23654,16 @@
           <t>301053.SZ; 远信工业; 32.66; 20.0%; 41196.5; 96</t>
         </is>
       </c>
+      <c r="CF12" t="inlineStr">
+        <is>
+          <t>300095.SZ; 华伍股份; 10.69; 9.6%; 90526.0; 69</t>
+        </is>
+      </c>
+      <c r="CG12" t="inlineStr">
+        <is>
+          <t>300758.SZ; 七彩化学; 17.91; 13.9%; 72078.0; 79</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -23764,6 +24079,16 @@
           <t>300493.SZ; 润欣科技; 20.34; -3.3%; 40281.0; 99</t>
         </is>
       </c>
+      <c r="CF13" t="inlineStr">
+        <is>
+          <t>688552.SH; 航天南湖; 40.93; 20.0%; 86375.5; 73</t>
+        </is>
+      </c>
+      <c r="CG13" t="inlineStr">
+        <is>
+          <t>300040.SZ; 九洲集团; 8; 5.3%; 65374.0; 88</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -24179,6 +24504,16 @@
           <t>300032.SZ; 金龙机电; 5.17; -12.7%; 36071.0; 106</t>
         </is>
       </c>
+      <c r="CF14" t="inlineStr">
+        <is>
+          <t>300946.SZ; 恒而达; 49; 20.0%; 77890.5; 87</t>
+        </is>
+      </c>
+      <c r="CG14" t="inlineStr">
+        <is>
+          <t>920068.BJ; 天工股份; 20.17; 411.9%; 60602.5; 95</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -24594,6 +24929,16 @@
           <t>300040.SZ; 九洲集团; 7.9; 5.2%; 34775.5; 108</t>
         </is>
       </c>
+      <c r="CF15" t="inlineStr">
+        <is>
+          <t>300840.SZ; 酷特智能; 20.34; 2.5%; 69537.0; 100</t>
+        </is>
+      </c>
+      <c r="CG15" t="inlineStr">
+        <is>
+          <t>300095.SZ; 华伍股份; 9.42; -11.9%; 59428.0; 96</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -25009,6 +25354,16 @@
           <t>300322.SZ; 硕贝德; 15.45; 6.0%; 34633.5; 109</t>
         </is>
       </c>
+      <c r="CF16" t="inlineStr">
+        <is>
+          <t>300115.SZ; 长盈精密; 22.82; 7.0%; 69217.0; 101</t>
+        </is>
+      </c>
+      <c r="CG16" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 115.88; 2.7%; 54626.0; 107</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -25424,6 +25779,16 @@
           <t>300502.SZ; 新易盛; 109.21; 1.2%; 33697.5; 112</t>
         </is>
       </c>
+      <c r="CF17" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 112.84; 3.3%; 66804.0; 102</t>
+        </is>
+      </c>
+      <c r="CG17" t="inlineStr">
+        <is>
+          <t>301396.SZ; 宏景科技; 96; 12.7%; 52757.0; 110</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -25839,6 +26204,16 @@
           <t>873169.BJ; 七丰精工; 27.39; 17.5%; 31136.0; 116</t>
         </is>
       </c>
+      <c r="CF18" t="inlineStr">
+        <is>
+          <t>300276.SZ; 三丰智能; 13.25; 8.5%; 64025.0; 104</t>
+        </is>
+      </c>
+      <c r="CG18" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 38.6; -3.2%; 48896.0; 124</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -26254,6 +26629,16 @@
           <t>300047.SZ; 天源迪科; 15.48; -4.6%; 31094.5; 117</t>
         </is>
       </c>
+      <c r="CF19" t="inlineStr">
+        <is>
+          <t>300274.SZ; 阳光电源; 67.15; 7.4%; 63908.0; 105</t>
+        </is>
+      </c>
+      <c r="CG19" t="inlineStr">
+        <is>
+          <t>300676.SZ; 华大基因; 57.86; 14.6%; 48574.0; 125</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -26669,6 +27054,16 @@
           <t>688552.SH; 航天南湖; 34.11; 11.1%; 30645.0; 120</t>
         </is>
       </c>
+      <c r="CF20" t="inlineStr">
+        <is>
+          <t>300065.SZ; 海兰信; 16.91; 4.6%; 58238.0; 119</t>
+        </is>
+      </c>
+      <c r="CG20" t="inlineStr">
+        <is>
+          <t>300344.SZ; ST立方; 4.29; -11.9%; 47111.0; 131</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -27082,6 +27477,16 @@
       <c r="CE21" t="inlineStr">
         <is>
           <t>300747.SZ; 锐科激光; 20.93; 9.6%; 29059.5; 127</t>
+        </is>
+      </c>
+      <c r="CF21" t="inlineStr">
+        <is>
+          <t>300339.SZ; 润和软件; 57.8; 0.5%; 57951.5; 120</t>
+        </is>
+      </c>
+      <c r="CG21" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 21.45; -1.2%; 45269.0; 138</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CG7"/>
+  <dimension ref="A1:CH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -859,6 +859,11 @@
           <t>2025年05月13日</t>
         </is>
       </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月14日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1082,6 +1087,11 @@
       <c r="CG2" t="inlineStr">
         <is>
           <t>300946.SZ; 恒而达; 0;  09:25:00; 2天2板; 58.8;  09:25:00; 20.0%; 2; 拟6935.66万元收购德国SMS公司+智能数控装备</t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>300946.SZ; 恒而达; 4;  10:14:21; 3天3板; 70.56;  09:30:39; 20.0%; 3; 拟6935.66万元收购德国SMS公司+智能数控装备</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CG532"/>
+  <dimension ref="A1:CH532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1823,6 +1833,11 @@
       <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>2025年05月13日</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月14日</t>
         </is>
       </c>
     </row>
@@ -7202,7 +7217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CG11"/>
+  <dimension ref="A1:CH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7631,6 +7646,11 @@
           <t>2025年05月13日</t>
         </is>
       </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月14日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8031,6 +8051,11 @@
           <t>834765.BJ; 美之高; 1;  09:35:37; 26.69; 曾涨停; 15.6%; 0.01H;  09:35:37</t>
         </is>
       </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>301057.SZ; 汇隆新材; 1;  09:36:33; 18.3; 曾涨停; 15.1%; 0.01H;  09:36:33</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -8371,6 +8396,11 @@
           <t>300118.SZ; 东方日升; 1;  09:46:51; 11.17; 曾涨停; 17.0%; 0.34H;  09:46:51</t>
         </is>
       </c>
+      <c r="CH3" t="inlineStr">
+        <is>
+          <t>300603.SZ; 立昂技术; 1;  09:39:12; 12.59; 曾涨停; 15.2%; 0.13H;  09:39:12</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -8619,6 +8649,11 @@
       <c r="CF4" t="inlineStr">
         <is>
           <t>301662.SZ; 宏工科技; 2;  13:23:36; 63.2; 曾涨停; 18.6%; 0.02H;  13:23:36|| 13:26:03</t>
+        </is>
+      </c>
+      <c r="CH4" t="inlineStr">
+        <is>
+          <t>832171.BJ; 志晟信息; 2;  13:41:31; 34.68; 曾涨停; 25.0%; 0.07H;  13:41:31|| 13:43:49</t>
         </is>
       </c>
     </row>
@@ -9128,7 +9163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CG30"/>
+  <dimension ref="A1:CH30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9557,6 +9592,11 @@
           <t>2025年05月13日</t>
         </is>
       </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月14日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9977,6 +10017,11 @@
           <t>300840.SZ; 酷特智能; 0;  09:34:09; 首板涨停; 24.41;  09:34:09; 20.0%; 1; AI智能体+服装定制+外贸</t>
         </is>
       </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>300845.SZ; 捷安高科; 1;  11:01:21; 首板涨停; 17.7;  09:47:42; 20.0%; 1; 军工仿真+AI职教平台+轨道交通+虚拟仿真</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10382,6 +10427,11 @@
           <t>301518.SZ; 长华化学; 0;  10:35:30; 首板涨停; 26.46;  10:35:30; 20.0%; 1; 聚醚多元醇+化工</t>
         </is>
       </c>
+      <c r="CH3" t="inlineStr">
+        <is>
+          <t>301559.SZ; 中集环科; 0;  13:00:06; 首板涨停; 18.62;  13:00:06; 20.0%; 1; 罐式集装箱+医疗设备+外销</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -10757,6 +10807,11 @@
           <t>301317.SZ; 鑫磊股份; 0;  14:22:57; 首板涨停; 38.16;  14:22:57; 20.0%; 1; 压缩机+空气动力设备+中俄贸易</t>
         </is>
       </c>
+      <c r="CH4" t="inlineStr">
+        <is>
+          <t>300240.SZ; 飞力达; 0;  13:57:00; 首板涨停; 9.82;  13:57:00; 20.0%; 1; 现代物流服务商+跨境运输</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11097,6 +11152,11 @@
           <t>300607.SZ; 拓斯达; 2;  13:04:27; 首板涨停; 37.18;  10:17:03; 20.0%; 1; 机器人+华为+工业母机+大飞机</t>
         </is>
       </c>
+      <c r="CH5" t="inlineStr">
+        <is>
+          <t>833171.BJ; 国航远洋; 0;  14:07:22; 首板涨停; 12.35;  14:07:22; 30.0%; 1; 航运+干散货运输+出海</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -11407,6 +11467,11 @@
           <t>688648.SH; 中邮科技; 0;  14:01:48; 首板涨停; 32.47;  14:01:48; 20.0%; 1; 智能物流系统+机器视觉+央企</t>
         </is>
       </c>
+      <c r="CH6" t="inlineStr">
+        <is>
+          <t>872351.BJ; 华光源海; 1;  14:27:52; 首板涨停; 38.83;  14:27:01; 30.0%; 1; 国际物流+统一大市场</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -11665,6 +11730,11 @@
       <c r="CD7" t="inlineStr">
         <is>
           <t>300091.SZ; 金通灵; 0;  10:20:57; 首板涨停; 2.89;  10:20:57; -4.9%; 1; 压缩机+节能环保装备+预重整+国企改革</t>
+        </is>
+      </c>
+      <c r="CH7" t="inlineStr">
+        <is>
+          <t>300399.SZ; 天利科技; 8;  14:28:18; 首板涨停; 25.44;  13:14:30; 20.0%; 1; 互联网保险+保险科技+国企</t>
         </is>
       </c>
     </row>
@@ -12994,7 +13064,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CG178"/>
+  <dimension ref="A1:CH178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13423,6 +13493,11 @@
           <t>2025年05月13日</t>
         </is>
       </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月14日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13823,6 +13898,11 @@
           <t>301317.SZ; 鑫磊股份; 1.9%; 22.4%; 38.16; 20.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>300209.SZ; 有棵树; 5.8%; 16.8%; 6.6; 10.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14188,6 +14268,11 @@
           <t>300095.SZ; 华伍股份; 6.6%; 17.3%; 10.69; 9.6%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="CH3" t="inlineStr">
+        <is>
+          <t>301317.SZ; 鑫磊股份; 4.7%; 14.0%; 41.45; 8.6%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -14513,6 +14598,11 @@
           <t>871263.BJ; 莱赛激光; 5.3%; 24.7%; 27.45; 18.1%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CH4" t="inlineStr">
+        <is>
+          <t>872351.BJ; 华光源海; 3.7%; 35.0%; 38.83; 30.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -14803,6 +14893,11 @@
           <t>688552.SH; 航天南湖; 5.0%; 26.3%; 40.93; 20.0%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="CH5" t="inlineStr">
+        <is>
+          <t>300240.SZ; 飞力达; 1.8%; 22.3%; 9.82; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -15068,6 +15163,11 @@
           <t>920008.BJ; 成电光信; 4.1%; 13.6%; 47.13; 8.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CH6" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 1.7%; 14.9%; 43.61; 13.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -15318,6 +15418,11 @@
           <t>837006.BJ; 晟楠科技; 3.8%; 13.3%; 36.01; 9.1%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CH7" t="inlineStr">
+        <is>
+          <t>873132.BJ; 泰鹏智能; 1.2%; 13.7%; 25.87; 12.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -15543,6 +15648,11 @@
           <t>833943.BJ; 优机股份; 2.5%; 20.7%; 27.2; 17.7%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CH8" t="inlineStr">
+        <is>
+          <t>836957.BJ; 汉维科技; 1.1%; 13.4%; 16.9; 12.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -15743,6 +15853,11 @@
           <t>302132.SZ; 中航成飞; 2.4%; 22.9%; 95.86; 20.0%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="CH9" t="inlineStr">
+        <is>
+          <t>301559.SZ; 中集环科; 0.3%; 20.4%; 18.62; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -15921,6 +16036,11 @@
       <c r="CF10" t="inlineStr">
         <is>
           <t>688297.SH; 中无人机; 2.0%; 13.6%; 50; 11.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CH10" t="inlineStr">
+        <is>
+          <t>300399.SZ; 天利科技; 0.2%; 20.3%; 25.44; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -18560,7 +18680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CG21"/>
+  <dimension ref="A1:CH21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18989,6 +19109,11 @@
           <t>2025年05月13日</t>
         </is>
       </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月14日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -19414,6 +19539,11 @@
           <t>302132.SZ; 中航成飞; 88.74; -7.4%; 251460.5; 7</t>
         </is>
       </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 22.53; 5.0%; 231867.5; 17</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -19839,6 +19969,11 @@
           <t>301317.SZ; 鑫磊股份; 38.16; 20.0%; 123874.5; 36</t>
         </is>
       </c>
+      <c r="CH3" t="inlineStr">
+        <is>
+          <t>302132.SZ; 中航成飞; 90.35; 1.8%; 173837.0; 24</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -20264,6 +20399,11 @@
           <t>300840.SZ; 酷特智能; 24.41; 20.0%; 121967.5; 37</t>
         </is>
       </c>
+      <c r="CH4" t="inlineStr">
+        <is>
+          <t>300240.SZ; 飞力达; 9.82; 20.0%; 167254.5; 27</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -20689,6 +20829,11 @@
           <t>300607.SZ; 拓斯达; 38.02; 2.3%; 107379.5; 46</t>
         </is>
       </c>
+      <c r="CH5" t="inlineStr">
+        <is>
+          <t>301396.SZ; 宏景科技; 108.45; 13.0%; 165674.0; 30</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -21114,6 +21259,11 @@
           <t>300946.SZ; 恒而达; 58.8; 20.0%; 102940.5; 47</t>
         </is>
       </c>
+      <c r="CH6" t="inlineStr">
+        <is>
+          <t>300085.SZ; 银之杰; 36.46; 12.7%; 140769.5; 40</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -21539,6 +21689,11 @@
           <t>301518.SZ; 长华化学; 26.46; 20.0%; 92932.5; 53</t>
         </is>
       </c>
+      <c r="CH7" t="inlineStr">
+        <is>
+          <t>300946.SZ; 恒而达; 70.56; 20.0%; 140075.0; 41</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -21964,6 +22119,11 @@
           <t>300581.SZ; 晨曦航空; 16.47; -8.8%; 85822.5; 59</t>
         </is>
       </c>
+      <c r="CH8" t="inlineStr">
+        <is>
+          <t>833171.BJ; 国航远洋; 12.35; 30.0%; 138801.0; 42</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -22389,6 +22549,11 @@
           <t>300118.SZ; 东方日升; 11.17; 17.0%; 81992.5; 69</t>
         </is>
       </c>
+      <c r="CH9" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 43.61; 13.0%; 107626.0; 54</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -22814,6 +22979,11 @@
           <t>833171.BJ; 国航远洋; 9.5; 23.5%; 73731.0; 76</t>
         </is>
       </c>
+      <c r="CH10" t="inlineStr">
+        <is>
+          <t>300399.SZ; 天利科技; 25.44; 20.0%; 105781.0; 57</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -23239,6 +23409,11 @@
           <t>300773.SZ; 拉卡拉; 22.2; 4.8%; 73142.5; 77</t>
         </is>
       </c>
+      <c r="CH11" t="inlineStr">
+        <is>
+          <t>300047.SZ; 天源迪科; 16.52; 7.5%; 94620.5; 69</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -23664,6 +23839,11 @@
           <t>300758.SZ; 七彩化学; 17.91; 13.9%; 72078.0; 79</t>
         </is>
       </c>
+      <c r="CH12" t="inlineStr">
+        <is>
+          <t>300377.SZ; 赢时胜; 25.86; 8.9%; 92741.0; 74</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -24089,6 +24269,11 @@
           <t>300040.SZ; 九洲集团; 8; 5.3%; 65374.0; 88</t>
         </is>
       </c>
+      <c r="CH13" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 23.14; 4.2%; 86745.5; 82</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -24514,6 +24699,11 @@
           <t>920068.BJ; 天工股份; 20.17; 411.9%; 60602.5; 95</t>
         </is>
       </c>
+      <c r="CH14" t="inlineStr">
+        <is>
+          <t>300845.SZ; 捷安高科; 17.7; 20.0%; 80123.0; 88</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -24939,6 +25129,11 @@
           <t>300095.SZ; 华伍股份; 9.42; -11.9%; 59428.0; 96</t>
         </is>
       </c>
+      <c r="CH15" t="inlineStr">
+        <is>
+          <t>300603.SZ; 立昂技术; 12.59; 15.2%; 72377.5; 93</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -25364,6 +25559,11 @@
           <t>300502.SZ; 新易盛; 115.88; 2.7%; 54626.0; 107</t>
         </is>
       </c>
+      <c r="CH16" t="inlineStr">
+        <is>
+          <t>301317.SZ; 鑫磊股份; 41.45; 8.6%; 72377.0; 94</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -25789,6 +25989,11 @@
           <t>301396.SZ; 宏景科技; 96; 12.7%; 52757.0; 110</t>
         </is>
       </c>
+      <c r="CH17" t="inlineStr">
+        <is>
+          <t>872351.BJ; 华光源海; 38.83; 30.0%; 71307.0; 97</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -26214,6 +26419,11 @@
           <t>300879.SZ; 大叶股份; 38.6; -3.2%; 48896.0; 124</t>
         </is>
       </c>
+      <c r="CH18" t="inlineStr">
+        <is>
+          <t>300607.SZ; 拓斯达; 37.14; -2.3%; 67658.5; 108</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -26639,6 +26849,11 @@
           <t>300676.SZ; 华大基因; 57.86; 14.6%; 48574.0; 125</t>
         </is>
       </c>
+      <c r="CH19" t="inlineStr">
+        <is>
+          <t>301559.SZ; 中集环科; 18.62; 20.0%; 64563.5; 113</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -27064,6 +27279,11 @@
           <t>300344.SZ; ST立方; 4.29; -11.9%; 47111.0; 131</t>
         </is>
       </c>
+      <c r="CH20" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 118.85; 2.6%; 63738.0; 115</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -27487,6 +27707,11 @@
       <c r="CG21" t="inlineStr">
         <is>
           <t>300059.SZ; 东方财富; 21.45; -1.2%; 45269.0; 138</t>
+        </is>
+      </c>
+      <c r="CH21" t="inlineStr">
+        <is>
+          <t>300840.SZ; 酷特智能; 25.16; 3.1%; 62232.5; 117</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CH7"/>
+  <dimension ref="A1:CI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,6 +862,11 @@
       <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>2025年05月14日</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月15日</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CH532"/>
+  <dimension ref="A1:CI532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1838,6 +1843,11 @@
       <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>2025年05月14日</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月15日</t>
         </is>
       </c>
     </row>
@@ -7217,7 +7227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CH11"/>
+  <dimension ref="A1:CI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7651,6 +7661,11 @@
           <t>2025年05月14日</t>
         </is>
       </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月15日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8056,6 +8071,11 @@
           <t>301057.SZ; 汇隆新材; 1;  09:36:33; 18.3; 曾涨停; 15.1%; 0.01H;  09:36:33</t>
         </is>
       </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>300719.SZ; 安达维尔; 1;  09:38:36; 19.25; 曾涨停; 8.0%; 0.02H;  09:38:36</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -8401,6 +8421,11 @@
           <t>300603.SZ; 立昂技术; 1;  09:39:12; 12.59; 曾涨停; 15.2%; 0.13H;  09:39:12</t>
         </is>
       </c>
+      <c r="CI3" t="inlineStr">
+        <is>
+          <t>836419.BJ; 万德股份; 1;  09:39:12; 19; 曾涨停; 28.1%; 0.06H;  09:39:12</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -8654,6 +8679,11 @@
       <c r="CH4" t="inlineStr">
         <is>
           <t>832171.BJ; 志晟信息; 2;  13:41:31; 34.68; 曾涨停; 25.0%; 0.07H;  13:41:31|| 13:43:49</t>
+        </is>
+      </c>
+      <c r="CI4" t="inlineStr">
+        <is>
+          <t>920068.BJ; 天工股份; 1;  13:52:30; 24.54; 曾涨停; 20.3%; 0.15H;  13:52:30</t>
         </is>
       </c>
     </row>
@@ -9163,7 +9193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CH30"/>
+  <dimension ref="A1:CI30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9597,6 +9627,11 @@
           <t>2025年05月14日</t>
         </is>
       </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月15日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10022,6 +10057,11 @@
           <t>300845.SZ; 捷安高科; 1;  11:01:21; 首板涨停; 17.7;  09:47:42; 20.0%; 1; 军工仿真+AI职教平台+轨道交通+虚拟仿真</t>
         </is>
       </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>301301.SZ; 川宁生物; 1;  10:03:27; 首板涨停; 14.02;  09:53:18; 20.0%; 1; 麦角硫因+合成生物+医药中间体+AI应用</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10432,6 +10472,11 @@
           <t>301559.SZ; 中集环科; 0;  13:00:06; 首板涨停; 18.62;  13:00:06; 20.0%; 1; 罐式集装箱+医疗设备+外销</t>
         </is>
       </c>
+      <c r="CI3" t="inlineStr">
+        <is>
+          <t>301108.SZ; 洁雅股份; 0;  10:05:24; 首板涨停; 33.91;  10:05:24; 20.0%; 1; 个护用品+化妆品+美国建厂</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -10812,6 +10857,11 @@
           <t>300240.SZ; 飞力达; 0;  13:57:00; 首板涨停; 9.82;  13:57:00; 20.0%; 1; 现代物流服务商+跨境运输</t>
         </is>
       </c>
+      <c r="CI4" t="inlineStr">
+        <is>
+          <t>301156.SZ; 美农生物; 0;  11:24:48; 首板涨停; 23.8;  11:24:48; 20.0%; 1; 酶解蛋白产品+饲料添加剂+宠物经济</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11157,6 +11207,11 @@
           <t>833171.BJ; 国航远洋; 0;  14:07:22; 首板涨停; 12.35;  14:07:22; 30.0%; 1; 航运+干散货运输+出海</t>
         </is>
       </c>
+      <c r="CI5" t="inlineStr">
+        <is>
+          <t>837023.BJ; 芭薇股份; 2;  13:00:00; 首板涨停; 35.39;  10:15:09; 30.0%; 1; 化妆品+合成生物+海外拓展</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -11472,6 +11527,11 @@
           <t>872351.BJ; 华光源海; 1;  14:27:52; 首板涨停; 38.83;  14:27:01; 30.0%; 1; 国际物流+统一大市场</t>
         </is>
       </c>
+      <c r="CI6" t="inlineStr">
+        <is>
+          <t>301089.SZ; 拓新药业; 0;  13:22:21; 首板涨停; 31.48;  13:22:21; 20.0%; 1; 麦角硫因+合成生物+原料药</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -11737,6 +11797,11 @@
           <t>300399.SZ; 天利科技; 8;  14:28:18; 首板涨停; 25.44;  13:14:30; 20.0%; 1; 互联网保险+保险科技+国企</t>
         </is>
       </c>
+      <c r="CI7" t="inlineStr">
+        <is>
+          <t>300886.SZ; 华业香料; 0;  13:23:39; 首板涨停; 27.16;  13:23:39; 20.0%; 1; 香料+外销+一季报增长+产能释放</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -11965,6 +12030,11 @@
       <c r="CD8" t="inlineStr">
         <is>
           <t>300032.SZ; 金龙机电; 0;  13:22:07; 首板涨停; 5.17;  13:22:07; -12.7%; 1; 消费电子+马达+华为概念+一季报增长</t>
+        </is>
+      </c>
+      <c r="CI8" t="inlineStr">
+        <is>
+          <t>300132.SZ; 青松股份; 3;  14:40:30; 首板涨停; 6.4;  14:23:54; 20.1%; 1; 化妆品+美容护理+合成生物</t>
         </is>
       </c>
     </row>
@@ -13064,7 +13134,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CH178"/>
+  <dimension ref="A1:CI178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13498,6 +13568,11 @@
           <t>2025年05月14日</t>
         </is>
       </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月15日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13903,6 +13978,11 @@
           <t>300209.SZ; 有棵树; 5.8%; 16.8%; 6.6; 10.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>920068.BJ; 天工股份; 2.9%; 23.9%; 24.54; 20.3%; 价升量涨||阳线||长上影线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14273,6 +14353,11 @@
           <t>301317.SZ; 鑫磊股份; 4.7%; 14.0%; 41.45; 8.6%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CI3" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 1.4%; 16.3%; 49.99; 14.6%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -14603,6 +14688,11 @@
           <t>872351.BJ; 华光源海; 3.7%; 35.0%; 38.83; 30.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CI4" t="inlineStr">
+        <is>
+          <t>836547.BJ; 无锡晶海; 0.9%; 18.5%; 29.5; 17.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -14898,6 +14988,11 @@
           <t>300240.SZ; 飞力达; 1.8%; 22.3%; 9.82; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CI5" t="inlineStr">
+        <is>
+          <t>837023.BJ; 芭薇股份; 0.8%; 31.1%; 35.39; 30.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -15168,6 +15263,11 @@
           <t>300879.SZ; 大叶股份; 1.7%; 14.9%; 43.61; 13.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CI6" t="inlineStr">
+        <is>
+          <t>300886.SZ; 华业香料; 0.5%; 20.6%; 27.16; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -15423,6 +15523,11 @@
           <t>873132.BJ; 泰鹏智能; 1.2%; 13.7%; 25.87; 12.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CI7" t="inlineStr">
+        <is>
+          <t>920016.BJ; 中草香料; 0.4%; 12.9%; 28; 12.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -15651,6 +15756,11 @@
       <c r="CH8" t="inlineStr">
         <is>
           <t>836957.BJ; 汉维科技; 1.1%; 13.4%; 16.9; 12.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CI8" t="inlineStr">
+        <is>
+          <t>300132.SZ; 青松股份; 0.2%; 20.3%; 6.4; 20.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -18680,7 +18790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CH21"/>
+  <dimension ref="A1:CI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19114,6 +19224,11 @@
           <t>2025年05月14日</t>
         </is>
       </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月15日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -19544,6 +19659,11 @@
           <t>300059.SZ; 东方财富; 22.53; 5.0%; 231867.5; 17</t>
         </is>
       </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 49.99; 14.6%; 243149.5; 10</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -19974,6 +20094,11 @@
           <t>302132.SZ; 中航成飞; 90.35; 1.8%; 173837.0; 24</t>
         </is>
       </c>
+      <c r="CI3" t="inlineStr">
+        <is>
+          <t>301301.SZ; 川宁生物; 14.02; 20.0%; 167545.5; 25</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -20404,6 +20529,11 @@
           <t>300240.SZ; 飞力达; 9.82; 20.0%; 167254.5; 27</t>
         </is>
       </c>
+      <c r="CI4" t="inlineStr">
+        <is>
+          <t>300607.SZ; 拓斯达; 38.87; 4.7%; 138851.0; 34</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -20834,6 +20964,11 @@
           <t>301396.SZ; 宏景科技; 108.45; 13.0%; 165674.0; 30</t>
         </is>
       </c>
+      <c r="CI5" t="inlineStr">
+        <is>
+          <t>302132.SZ; 中航成飞; 87.05; -3.7%; 120335.5; 44</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -21264,6 +21399,11 @@
           <t>300085.SZ; 银之杰; 36.46; 12.7%; 140769.5; 40</t>
         </is>
       </c>
+      <c r="CI6" t="inlineStr">
+        <is>
+          <t>300132.SZ; 青松股份; 6.4; 20.1%; 116705.5; 46</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -21694,6 +21834,11 @@
           <t>300946.SZ; 恒而达; 70.56; 20.0%; 140075.0; 41</t>
         </is>
       </c>
+      <c r="CI7" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 17; 7.6%; 99538.0; 55</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -22124,6 +22269,11 @@
           <t>833171.BJ; 国航远洋; 12.35; 30.0%; 138801.0; 42</t>
         </is>
       </c>
+      <c r="CI8" t="inlineStr">
+        <is>
+          <t>301089.SZ; 拓新药业; 31.48; 20.0%; 92432.5; 62</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -22554,6 +22704,11 @@
           <t>300879.SZ; 大叶股份; 43.61; 13.0%; 107626.0; 54</t>
         </is>
       </c>
+      <c r="CI9" t="inlineStr">
+        <is>
+          <t>301156.SZ; 美农生物; 23.8; 20.0%; 73726.0; 83</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -22984,6 +23139,11 @@
           <t>300399.SZ; 天利科技; 25.44; 20.0%; 105781.0; 57</t>
         </is>
       </c>
+      <c r="CI10" t="inlineStr">
+        <is>
+          <t>300240.SZ; 飞力达; 10.19; 3.8%; 66653.5; 89</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -23414,6 +23574,11 @@
           <t>300047.SZ; 天源迪科; 16.52; 7.5%; 94620.5; 69</t>
         </is>
       </c>
+      <c r="CI11" t="inlineStr">
+        <is>
+          <t>837023.BJ; 芭薇股份; 35.39; 30.0%; 66426.0; 90</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -23844,6 +24009,11 @@
           <t>300377.SZ; 赢时胜; 25.86; 8.9%; 92741.0; 74</t>
         </is>
       </c>
+      <c r="CI12" t="inlineStr">
+        <is>
+          <t>300886.SZ; 华业香料; 27.16; 20.0%; 64838.0; 93</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -24274,6 +24444,11 @@
           <t>300773.SZ; 拉卡拉; 23.14; 4.2%; 86745.5; 82</t>
         </is>
       </c>
+      <c r="CI13" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 21.82; -3.2%; 63111.5; 98</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -24704,6 +24879,11 @@
           <t>300845.SZ; 捷安高科; 17.7; 20.0%; 80123.0; 88</t>
         </is>
       </c>
+      <c r="CI14" t="inlineStr">
+        <is>
+          <t>300946.SZ; 恒而达; 71.98; 2.0%; 62376.5; 101</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -25134,6 +25314,11 @@
           <t>300603.SZ; 立昂技术; 12.59; 15.2%; 72377.5; 93</t>
         </is>
       </c>
+      <c r="CI15" t="inlineStr">
+        <is>
+          <t>300871.SZ; 回盛生物; 25.16; 10.5%; 61128.0; 105</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -25564,6 +25749,11 @@
           <t>301317.SZ; 鑫磊股份; 41.45; 8.6%; 72377.0; 94</t>
         </is>
       </c>
+      <c r="CI16" t="inlineStr">
+        <is>
+          <t>301108.SZ; 洁雅股份; 33.91; 20.0%; 57834.0; 108</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -25994,6 +26184,11 @@
           <t>872351.BJ; 华光源海; 38.83; 30.0%; 71307.0; 97</t>
         </is>
       </c>
+      <c r="CI17" t="inlineStr">
+        <is>
+          <t>301501.SZ; 恒鑫生活; 84; 15.3%; 51740.0; 118</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -26424,6 +26619,11 @@
           <t>300607.SZ; 拓斯达; 37.14; -2.3%; 67658.5; 108</t>
         </is>
       </c>
+      <c r="CI18" t="inlineStr">
+        <is>
+          <t>833171.BJ; 国航远洋; 13.43; 8.7%; 50370.5; 121</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -26854,6 +27054,11 @@
           <t>301559.SZ; 中集环科; 18.62; 20.0%; 64563.5; 113</t>
         </is>
       </c>
+      <c r="CI19" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 20.55; 3.8%; 50320.5; 122</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -27284,6 +27489,11 @@
           <t>300502.SZ; 新易盛; 118.85; 2.6%; 63738.0; 115</t>
         </is>
       </c>
+      <c r="CI20" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 21.82; -5.7%; 45506.5; 141</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -27712,6 +27922,11 @@
       <c r="CH21" t="inlineStr">
         <is>
           <t>300840.SZ; 酷特智能; 25.16; 3.1%; 62232.5; 117</t>
+        </is>
+      </c>
+      <c r="CI21" t="inlineStr">
+        <is>
+          <t>301396.SZ; 宏景科技; 98.5; -9.2%; 41051.5; 157</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI7"/>
+  <dimension ref="A1:CJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -869,6 +869,11 @@
           <t>2025年05月15日</t>
         </is>
       </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月16日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1097,6 +1102,11 @@
       <c r="CH2" t="inlineStr">
         <is>
           <t>300946.SZ; 恒而达; 4;  10:14:21; 3天3板; 70.56;  09:30:39; 20.0%; 3; 拟6935.66万元收购德国SMS公司+智能数控装备</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>301089.SZ; 拓新药业; 0;  14:19:54; 2天2板; 37.78;  14:19:54; 20.0%; 2; 麦角硫因+合成生物+原料药</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI532"/>
+  <dimension ref="A1:CJ532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1848,6 +1858,11 @@
       <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>2025年05月15日</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月16日</t>
         </is>
       </c>
     </row>
@@ -7227,7 +7242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI11"/>
+  <dimension ref="A1:CJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7666,6 +7681,11 @@
           <t>2025年05月15日</t>
         </is>
       </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月16日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8076,6 +8096,11 @@
           <t>300719.SZ; 安达维尔; 1;  09:38:36; 19.25; 曾涨停; 8.0%; 0.02H;  09:38:36</t>
         </is>
       </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>300258.SZ; 精锻科技; 1;  09:57:00; 16.82; 曾涨停; 12.3%; 0.19H;  09:57:00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -8426,6 +8451,11 @@
           <t>836419.BJ; 万德股份; 1;  09:39:12; 19; 曾涨停; 28.1%; 0.06H;  09:39:12</t>
         </is>
       </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>300328.SZ; 宜安科技; 1;  10:15:39; 12.79; 曾涨停; 14.4%; 0.14H;  10:15:39</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -8684,6 +8714,11 @@
       <c r="CI4" t="inlineStr">
         <is>
           <t>920068.BJ; 天工股份; 1;  13:52:30; 24.54; 曾涨停; 20.3%; 0.15H;  13:52:30</t>
+        </is>
+      </c>
+      <c r="CJ4" t="inlineStr">
+        <is>
+          <t>301076.SZ; 新瀚新材; 2;  10:21:21; 42.5; 曾涨停; 16.6%; 0.33H;  10:21:21|| 13:13:24</t>
         </is>
       </c>
     </row>
@@ -9193,7 +9228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI30"/>
+  <dimension ref="A1:CJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9632,6 +9667,11 @@
           <t>2025年05月15日</t>
         </is>
       </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月16日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10062,6 +10102,11 @@
           <t>301301.SZ; 川宁生物; 1;  10:03:27; 首板涨停; 14.02;  09:53:18; 20.0%; 1; 麦角硫因+合成生物+医药中间体+AI应用</t>
         </is>
       </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>301488.SZ; 豪恩汽电; 0;  10:36:09; 首板涨停; 73.8;  10:36:09; 20.0%; 1; 自动紧急制动AEB+人形机器人+智能驾驶</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10477,6 +10522,11 @@
           <t>301108.SZ; 洁雅股份; 0;  10:05:24; 首板涨停; 33.91;  10:05:24; 20.0%; 1; 个护用品+化妆品+美国建厂</t>
         </is>
       </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>301260.SZ; 格力博; 0;  11:24:24; 首板涨停; 20.5;  11:24:24; 20.0%; 1; 机器人+新能源园林机械+中越美制造基地+外销</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -10860,6 +10910,11 @@
       <c r="CI4" t="inlineStr">
         <is>
           <t>301156.SZ; 美农生物; 0;  11:24:48; 首板涨停; 23.8;  11:24:48; 20.0%; 1; 酶解蛋白产品+饲料添加剂+宠物经济</t>
+        </is>
+      </c>
+      <c r="CJ4" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 13;  14:35:18; 首板涨停; 24.66;  09:41:57; 20.0%; 1; 核电+海工装备+焊材</t>
         </is>
       </c>
     </row>
@@ -13134,7 +13189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI178"/>
+  <dimension ref="A1:CJ178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13573,6 +13628,11 @@
           <t>2025年05月15日</t>
         </is>
       </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月16日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13983,6 +14043,11 @@
           <t>920068.BJ; 天工股份; 2.9%; 23.9%; 24.54; 20.3%; 价升量涨||阳线||长上影线</t>
         </is>
       </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>300258.SZ; 精锻科技; 2.4%; 15.0%; 16.82; 12.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14358,6 +14423,11 @@
           <t>300879.SZ; 大叶股份; 1.4%; 16.3%; 49.99; 14.6%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>300328.SZ; 宜安科技; 1.8%; 16.5%; 12.79; 14.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -14693,6 +14763,11 @@
           <t>836547.BJ; 无锡晶海; 0.9%; 18.5%; 29.5; 17.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CJ4" t="inlineStr">
+        <is>
+          <t>301260.SZ; 格力博; 1.6%; 22.0%; 20.5; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -14993,6 +15068,11 @@
           <t>837023.BJ; 芭薇股份; 0.8%; 31.1%; 35.39; 30.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CJ5" t="inlineStr">
+        <is>
+          <t>301283.SZ; 聚胶股份; 1.0%; 12.9%; 35.16; 11.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -15268,6 +15348,11 @@
           <t>300886.SZ; 华业香料; 0.5%; 20.6%; 27.16; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CJ6" t="inlineStr">
+        <is>
+          <t>300819.SZ; 聚杰微纤; 1.0%; 13.4%; 29.07; 12.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -15528,6 +15613,11 @@
           <t>920016.BJ; 中草香料; 0.4%; 12.9%; 28; 12.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CJ7" t="inlineStr">
+        <is>
+          <t>300695.SZ; 兆丰股份; 0.6%; 13.9%; 100.56; 13.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -15763,6 +15853,11 @@
           <t>300132.SZ; 青松股份; 0.2%; 20.3%; 6.4; 20.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CJ8" t="inlineStr">
+        <is>
+          <t>301335.SZ; 天元宠物; 0.4%; 15.8%; 30.9; 15.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -15966,6 +16061,11 @@
       <c r="CH9" t="inlineStr">
         <is>
           <t>301559.SZ; 中集环科; 0.3%; 20.4%; 18.62; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CJ9" t="inlineStr">
+        <is>
+          <t>688068.SH; 热景生物; 0.2%; 12.3%; 110.95; 12.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -18790,7 +18890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI21"/>
+  <dimension ref="A1:CJ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19229,6 +19329,11 @@
           <t>2025年05月15日</t>
         </is>
       </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月16日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -19664,6 +19769,11 @@
           <t>300879.SZ; 大叶股份; 49.99; 14.6%; 243149.5; 10</t>
         </is>
       </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 24.66; 20.0%; 126793.0; 26</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -20099,6 +20209,11 @@
           <t>301301.SZ; 川宁生物; 14.02; 20.0%; 167545.5; 25</t>
         </is>
       </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>301089.SZ; 拓新药业; 37.78; 20.0%; 117171.5; 31</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -20534,6 +20649,11 @@
           <t>300607.SZ; 拓斯达; 38.87; 4.7%; 138851.0; 34</t>
         </is>
       </c>
+      <c r="CJ4" t="inlineStr">
+        <is>
+          <t>300607.SZ; 拓斯达; 37.8; -2.8%; 92736.0; 43</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -20969,6 +21089,11 @@
           <t>302132.SZ; 中航成飞; 87.05; -3.7%; 120335.5; 44</t>
         </is>
       </c>
+      <c r="CJ5" t="inlineStr">
+        <is>
+          <t>302132.SZ; 中航成飞; 86.08; -1.1%; 80580.5; 49</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -21404,6 +21529,11 @@
           <t>300132.SZ; 青松股份; 6.4; 20.1%; 116705.5; 46</t>
         </is>
       </c>
+      <c r="CJ6" t="inlineStr">
+        <is>
+          <t>301488.SZ; 豪恩汽电; 73.8; 20.0%; 77782.0; 52</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -21839,6 +21969,11 @@
           <t>300581.SZ; 晨曦航空; 17; 7.6%; 99538.0; 55</t>
         </is>
       </c>
+      <c r="CJ7" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 47.5; -5.0%; 71136.5; 56</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -22274,6 +22409,11 @@
           <t>301089.SZ; 拓新药业; 31.48; 20.0%; 92432.5; 62</t>
         </is>
       </c>
+      <c r="CJ8" t="inlineStr">
+        <is>
+          <t>301260.SZ; 格力博; 20.5; 20.0%; 70583.5; 58</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -22709,6 +22849,11 @@
           <t>301156.SZ; 美农生物; 23.8; 20.0%; 73726.0; 83</t>
         </is>
       </c>
+      <c r="CJ9" t="inlineStr">
+        <is>
+          <t>300946.SZ; 恒而达; 80; 11.1%; 60554.5; 70</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -23144,6 +23289,11 @@
           <t>300240.SZ; 飞力达; 10.19; 3.8%; 66653.5; 89</t>
         </is>
       </c>
+      <c r="CJ10" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 52.7; -4.0%; 55460.5; 77</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -23579,6 +23729,11 @@
           <t>837023.BJ; 芭薇股份; 35.39; 30.0%; 66426.0; 90</t>
         </is>
       </c>
+      <c r="CJ11" t="inlineStr">
+        <is>
+          <t>301636.SZ; 泽润新能; 65.96; 99.5%; 54936.0; 78</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -24014,6 +24169,11 @@
           <t>300886.SZ; 华业香料; 27.16; 20.0%; 64838.0; 93</t>
         </is>
       </c>
+      <c r="CJ12" t="inlineStr">
+        <is>
+          <t>300258.SZ; 精锻科技; 16.82; 12.3%; 44740.0; 105</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -24449,6 +24609,11 @@
           <t>300059.SZ; 东方财富; 21.82; -3.2%; 63111.5; 98</t>
         </is>
       </c>
+      <c r="CJ13" t="inlineStr">
+        <is>
+          <t>300328.SZ; 宜安科技; 12.79; 14.4%; 44430.0; 106</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -24884,6 +25049,11 @@
           <t>300946.SZ; 恒而达; 71.98; 2.0%; 62376.5; 101</t>
         </is>
       </c>
+      <c r="CJ14" t="inlineStr">
+        <is>
+          <t>301076.SZ; 新瀚新材; 42.5; 16.6%; 44017.5; 108</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -25319,6 +25489,11 @@
           <t>300871.SZ; 回盛生物; 25.16; 10.5%; 61128.0; 105</t>
         </is>
       </c>
+      <c r="CJ15" t="inlineStr">
+        <is>
+          <t>300766.SZ; 每日互动; 40.93; 4.2%; 43875.5; 109</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -25754,6 +25929,11 @@
           <t>301108.SZ; 洁雅股份; 33.91; 20.0%; 57834.0; 108</t>
         </is>
       </c>
+      <c r="CJ16" t="inlineStr">
+        <is>
+          <t>301301.SZ; 川宁生物; 13.69; -2.4%; 36995.0; 130</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -26189,6 +26369,11 @@
           <t>301501.SZ; 恒鑫生活; 84; 15.3%; 51740.0; 118</t>
         </is>
       </c>
+      <c r="CJ17" t="inlineStr">
+        <is>
+          <t>688755.SH; 汉邦科技; 46.1; 102.5%; 36599.0; 131</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -26624,6 +26809,11 @@
           <t>833171.BJ; 国航远洋; 13.43; 8.7%; 50370.5; 121</t>
         </is>
       </c>
+      <c r="CJ18" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 21.53; -1.3%; 35133.0; 136</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -27059,6 +27249,11 @@
           <t>300963.SZ; 中洲特材; 20.55; 3.8%; 50320.5; 122</t>
         </is>
       </c>
+      <c r="CJ19" t="inlineStr">
+        <is>
+          <t>300927.SZ; 江天化学; 30.69; 10.2%; 32864.0; 146</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -27494,6 +27689,11 @@
           <t>300773.SZ; 拉卡拉; 21.82; -5.7%; 45506.5; 141</t>
         </is>
       </c>
+      <c r="CJ20" t="inlineStr">
+        <is>
+          <t>300695.SZ; 兆丰股份; 100.56; 13.2%; 32545.5; 150</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -27927,6 +28127,11 @@
       <c r="CI21" t="inlineStr">
         <is>
           <t>301396.SZ; 宏景科技; 98.5; -9.2%; 41051.5; 157</t>
+        </is>
+      </c>
+      <c r="CJ21" t="inlineStr">
+        <is>
+          <t>300750.SZ; 宁德时代; 259.36; -0.3%; 32524.5; 151</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CJ7"/>
+  <dimension ref="A1:CK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -874,6 +874,11 @@
           <t>2025年05月16日</t>
         </is>
       </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月19日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1107,6 +1112,11 @@
       <c r="CJ2" t="inlineStr">
         <is>
           <t>301089.SZ; 拓新药业; 0;  14:19:54; 2天2板; 37.78;  14:19:54; 20.0%; 2; 麦角硫因+合成生物+原料药</t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 0;  11:20:21; 2天2板; 29.59;  11:20:21; 20.0%; 2; 核电+海工装备+焊材</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CJ532"/>
+  <dimension ref="A1:CK532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1863,6 +1873,11 @@
       <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>2025年05月16日</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月19日</t>
         </is>
       </c>
     </row>
@@ -7242,7 +7257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CJ11"/>
+  <dimension ref="A1:CK11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7686,6 +7701,11 @@
           <t>2025年05月16日</t>
         </is>
       </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月19日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8101,6 +8121,11 @@
           <t>300258.SZ; 精锻科技; 1;  09:57:00; 16.82; 曾涨停; 12.3%; 0.19H;  09:57:00</t>
         </is>
       </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>300609.SZ; 汇纳科技; 1;  09:39:33; 33.79; 曾涨停; 15.0%; 0.06H;  09:39:33</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -8454,6 +8479,11 @@
       <c r="CJ3" t="inlineStr">
         <is>
           <t>300328.SZ; 宜安科技; 1;  10:15:39; 12.79; 曾涨停; 14.4%; 0.14H;  10:15:39</t>
+        </is>
+      </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>300210.SZ; 森远股份; 1;  10:58:18; 11.19; 曾涨停; 15.4%; 1.20H;  10:58:18</t>
         </is>
       </c>
     </row>
@@ -9228,7 +9258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CJ30"/>
+  <dimension ref="A1:CK30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9672,6 +9702,11 @@
           <t>2025年05月16日</t>
         </is>
       </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月19日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10107,6 +10142,11 @@
           <t>301488.SZ; 豪恩汽电; 0;  10:36:09; 首板涨停; 73.8;  10:36:09; 20.0%; 1; 自动紧急制动AEB+人形机器人+智能驾驶</t>
         </is>
       </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>300489.SZ; 光智科技; 1;  09:37:39; 首板涨停; 53.42;  09:25:00; 20.0%; 1; 拟并购先导电科+红外光学</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10527,6 +10567,11 @@
           <t>301260.SZ; 格力博; 0;  11:24:24; 首板涨停; 20.5;  11:24:24; 20.0%; 1; 机器人+新能源园林机械+中越美制造基地+外销</t>
         </is>
       </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>300069.SZ; 金利华电; 0;  09:57:51; 首板涨停; 19.5;  09:57:51; 20.0%; 1; 拟购买海德利森100%股权+电网设备</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -10917,6 +10962,11 @@
           <t>300963.SZ; 中洲特材; 13;  14:35:18; 首板涨停; 24.66;  09:41:57; 20.0%; 1; 核电+海工装备+焊材</t>
         </is>
       </c>
+      <c r="CK4" t="inlineStr">
+        <is>
+          <t>300631.SZ; 久吾高科; 1;  11:15:03; 首板涨停; 24.58;  10:09:27; 20.0%; 1; 一季报增长+盐湖提锂+膜技术</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11267,6 +11317,11 @@
           <t>837023.BJ; 芭薇股份; 2;  13:00:00; 首板涨停; 35.39;  10:15:09; 30.0%; 1; 化妆品+合成生物+海外拓展</t>
         </is>
       </c>
+      <c r="CK5" t="inlineStr">
+        <is>
+          <t>835174.BJ; 五新隧装; 2;  11:29:42; 首板涨停; 42.84;  10:56:42; 30.0%; 1; 重大资产重组+基建+一带一路</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -11587,6 +11642,11 @@
           <t>301089.SZ; 拓新药业; 0;  13:22:21; 首板涨停; 31.48;  13:22:21; 20.0%; 1; 麦角硫因+合成生物+原料药</t>
         </is>
       </c>
+      <c r="CK6" t="inlineStr">
+        <is>
+          <t>301335.SZ; 天元宠物; 1;  14:04:21; 首板涨停; 37.08;  13:28:51; 20.0%; 1; 资产重组+宠物经济+跨境电商</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -11857,6 +11917,11 @@
           <t>300886.SZ; 华业香料; 0;  13:23:39; 首板涨停; 27.16;  13:23:39; 20.0%; 1; 香料+外销+一季报增长+产能释放</t>
         </is>
       </c>
+      <c r="CK7" t="inlineStr">
+        <is>
+          <t>688336.SH; 三生国健; 0;  14:20:17; 首板涨停; 32.81;  14:20:17; 20.0%; 1; 创新药+自免+重组蛋白</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -12092,6 +12157,11 @@
           <t>300132.SZ; 青松股份; 3;  14:40:30; 首板涨停; 6.4;  14:23:54; 20.1%; 1; 化妆品+美容护理+合成生物</t>
         </is>
       </c>
+      <c r="CK8" t="inlineStr">
+        <is>
+          <t>301459.SZ; 丰茂股份; 1;  14:22:54; 首板涨停; 65.75;  13:00:00; 20.0%; 1; 汽车零部件+人形机器人+橡胶</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -12265,6 +12335,11 @@
       <c r="CD9" t="inlineStr">
         <is>
           <t>873169.BJ; 七丰精工; 2;  13:44:50; 首板涨停; 27.39;  10:21:27; 17.5%; 1; 航空航天+轨道交通+一季报增长</t>
+        </is>
+      </c>
+      <c r="CK9" t="inlineStr">
+        <is>
+          <t>300927.SZ; 江天化学; 0;  14:53:21; 首板涨停; 36.83;  14:53:21; 20.0%; 1; 甲醛+可用于生产季戊四醇+国企</t>
         </is>
       </c>
     </row>
@@ -13189,7 +13264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CJ178"/>
+  <dimension ref="A1:CK178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13633,6 +13708,11 @@
           <t>2025年05月16日</t>
         </is>
       </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月19日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -14048,6 +14128,11 @@
           <t>300258.SZ; 精锻科技; 2.4%; 15.0%; 16.82; 12.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>871396.BJ; 常辅股份; 5.3%; 28.8%; 49.6; 22.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14428,6 +14513,11 @@
           <t>300328.SZ; 宜安科技; 1.8%; 16.5%; 12.79; 14.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 4.9%; 26.2%; 29.59; 20.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -14768,6 +14858,11 @@
           <t>301260.SZ; 格力博; 1.6%; 22.0%; 20.5; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CK4" t="inlineStr">
+        <is>
+          <t>836077.BJ; 吉林碳谷; 3.6%; 19.6%; 16.69; 15.3%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -15071,6 +15166,11 @@
       <c r="CJ5" t="inlineStr">
         <is>
           <t>301283.SZ; 聚胶股份; 1.0%; 12.9%; 35.16; 11.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CK5" t="inlineStr">
+        <is>
+          <t>300004.SZ; 南风股份; 0.1%; 12.0%; 9.96; 11.9%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
     </row>
@@ -18890,7 +18990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CJ21"/>
+  <dimension ref="A1:CK21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19334,6 +19434,11 @@
           <t>2025年05月16日</t>
         </is>
       </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月19日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -19774,6 +19879,11 @@
           <t>300963.SZ; 中洲特材; 24.66; 20.0%; 126793.0; 26</t>
         </is>
       </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>301316.SZ; 慧博云通; nan; nan%; 274162.0; 12</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -20214,6 +20324,11 @@
           <t>301089.SZ; 拓新药业; 37.78; 20.0%; 117171.5; 31</t>
         </is>
       </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 29.59; 20.0%; 253667.5; 15</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -20654,6 +20769,11 @@
           <t>300607.SZ; 拓斯达; 37.8; -2.8%; 92736.0; 43</t>
         </is>
       </c>
+      <c r="CK4" t="inlineStr">
+        <is>
+          <t>300927.SZ; 江天化学; 36.83; 20.0%; 191644.0; 25</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -21094,6 +21214,11 @@
           <t>302132.SZ; 中航成飞; 86.08; -1.1%; 80580.5; 49</t>
         </is>
       </c>
+      <c r="CK5" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 53.9; 13.5%; 171894.0; 31</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -21534,6 +21659,11 @@
           <t>301488.SZ; 豪恩汽电; 73.8; 20.0%; 77782.0; 52</t>
         </is>
       </c>
+      <c r="CK6" t="inlineStr">
+        <is>
+          <t>301595.SZ; 太力科技; 54.3; 218.5%; 146135.5; 50</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -21974,6 +22104,11 @@
           <t>300879.SZ; 大叶股份; 47.5; -5.0%; 71136.5; 56</t>
         </is>
       </c>
+      <c r="CK7" t="inlineStr">
+        <is>
+          <t>300489.SZ; 光智科技; 53.42; 20.0%; 122262.0; 65</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -22414,6 +22549,11 @@
           <t>301260.SZ; 格力博; 20.5; 20.0%; 70583.5; 58</t>
         </is>
       </c>
+      <c r="CK8" t="inlineStr">
+        <is>
+          <t>301335.SZ; 天元宠物; 37.08; 20.0%; 122058.0; 67</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -22854,6 +22994,11 @@
           <t>300946.SZ; 恒而达; 80; 11.1%; 60554.5; 70</t>
         </is>
       </c>
+      <c r="CK9" t="inlineStr">
+        <is>
+          <t>302132.SZ; 中航成飞; 87.2; 1.3%; 107994.0; 74</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -23294,6 +23439,11 @@
           <t>300100.SZ; 双林股份; 52.7; -4.0%; 55460.5; 77</t>
         </is>
       </c>
+      <c r="CK10" t="inlineStr">
+        <is>
+          <t>300047.SZ; 天源迪科; 16.92; 5.2%; 97197.5; 86</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -23734,6 +23884,11 @@
           <t>301636.SZ; 泽润新能; 65.96; 99.5%; 54936.0; 78</t>
         </is>
       </c>
+      <c r="CK11" t="inlineStr">
+        <is>
+          <t>300069.SZ; 金利华电; 19.5; 20.0%; 87011.5; 94</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -24174,6 +24329,11 @@
           <t>300258.SZ; 精锻科技; 16.82; 12.3%; 44740.0; 105</t>
         </is>
       </c>
+      <c r="CK12" t="inlineStr">
+        <is>
+          <t>300631.SZ; 久吾高科; 24.58; 20.0%; 84133.0; 96</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -24614,6 +24774,11 @@
           <t>300328.SZ; 宜安科技; 12.79; 14.4%; 44430.0; 106</t>
         </is>
       </c>
+      <c r="CK13" t="inlineStr">
+        <is>
+          <t>300607.SZ; 拓斯达; 38.6; 2.1%; 79412.0; 103</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -25054,6 +25219,11 @@
           <t>301076.SZ; 新瀚新材; 42.5; 16.6%; 44017.5; 108</t>
         </is>
       </c>
+      <c r="CK14" t="inlineStr">
+        <is>
+          <t>300251.SZ; 光线传媒; 18.39; 0.5%; 76512.5; 106</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -25494,6 +25664,11 @@
           <t>300766.SZ; 每日互动; 40.93; 4.2%; 43875.5; 109</t>
         </is>
       </c>
+      <c r="CK15" t="inlineStr">
+        <is>
+          <t>300946.SZ; 恒而达; 84.44; 5.5%; 70476.0; 108</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -25934,6 +26109,11 @@
           <t>301301.SZ; 川宁生物; 13.69; -2.4%; 36995.0; 130</t>
         </is>
       </c>
+      <c r="CK16" t="inlineStr">
+        <is>
+          <t>300307.SZ; 慈星股份; 8.99; 3.5%; 64861.5; 116</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -26374,6 +26554,11 @@
           <t>688755.SH; 汉邦科技; 46.1; 102.5%; 36599.0; 131</t>
         </is>
       </c>
+      <c r="CK17" t="inlineStr">
+        <is>
+          <t>300004.SZ; 南风股份; 9.96; 11.9%; 63971.5; 118</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -26814,6 +26999,11 @@
           <t>300059.SZ; 东方财富; 21.53; -1.3%; 35133.0; 136</t>
         </is>
       </c>
+      <c r="CK18" t="inlineStr">
+        <is>
+          <t>300750.SZ; 宁德时代; 260; 0.2%; 62976.5; 119</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -27254,6 +27444,11 @@
           <t>300927.SZ; 江天化学; 30.69; 10.2%; 32864.0; 146</t>
         </is>
       </c>
+      <c r="CK19" t="inlineStr">
+        <is>
+          <t>301459.SZ; 丰茂股份; 65.75; 20.0%; 61666.5; 120</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -27694,6 +27889,11 @@
           <t>300695.SZ; 兆丰股份; 100.56; 13.2%; 32545.5; 150</t>
         </is>
       </c>
+      <c r="CK20" t="inlineStr">
+        <is>
+          <t>300132.SZ; 青松股份; 6.66; 12.3%; 61247.5; 121</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -28132,6 +28332,11 @@
       <c r="CJ21" t="inlineStr">
         <is>
           <t>300750.SZ; 宁德时代; 259.36; -0.3%; 32524.5; 151</t>
+        </is>
+      </c>
+      <c r="CK21" t="inlineStr">
+        <is>
+          <t>301089.SZ; 拓新药业; 38.3; 1.4%; 58151.5; 130</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CK7"/>
+  <dimension ref="A1:CL7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,6 +879,11 @@
           <t>2025年05月19日</t>
         </is>
       </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月20日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1119,6 +1124,11 @@
           <t>300963.SZ; 中洲特材; 0;  11:20:21; 2天2板; 29.59;  11:20:21; 20.0%; 2; 核电+海工装备+焊材</t>
         </is>
       </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>688336.SH; 三生国健; 0;  09:30:00; 2天2板; 39.37;  09:30:00; 20.0%; 2; 与辉瑞订立许可协议+创新药+自免+重组蛋白</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1259,6 +1269,11 @@
           <t>873169.BJ; 七丰精工; 4;  10:38:35; 3天2板; 35.6;  09:54:20; 30.0%; 1; 航空航天+轨道交通+一季报增长</t>
         </is>
       </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>300069.SZ; 金利华电; 0;  09:30:15; 2天2板; 23.4;  09:30:15; 20.0%; 2; 拟购买海德利森100%股权+电网设备</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1334,6 +1349,11 @@
           <t>302132.SZ; 中航成飞; 1;  14:00:00; 3天2板; 95.86;  10:08:36; 20.0%; 1; 航空装备+军贸+无人机+人形机器人</t>
         </is>
       </c>
+      <c r="CL4" t="inlineStr">
+        <is>
+          <t>835174.BJ; 五新隧装; 0;  13:18:24; 2天2板; 55.69;  13:18:24; 30.0%; 2; 重大资产重组+基建+一带一路</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1377,6 +1397,11 @@
       <c r="CF5" t="inlineStr">
         <is>
           <t>300581.SZ; 晨曦航空; 0;  14:41:15; 4天3板; 18.06;  14:41:15; 20.0%; 1; 航空装备+军工+无人机</t>
+        </is>
+      </c>
+      <c r="CL5" t="inlineStr">
+        <is>
+          <t>301335.SZ; 天元宠物; 1;  14:55:06; 2天2板; 44.5;  10:00:51; 20.0%; 2; 资产重组+宠物经济+跨境电商</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CK532"/>
+  <dimension ref="A1:CL532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1878,6 +1903,11 @@
       <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>2025年05月19日</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月20日</t>
         </is>
       </c>
     </row>
@@ -7257,7 +7287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CK11"/>
+  <dimension ref="A1:CL11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7706,6 +7736,11 @@
           <t>2025年05月19日</t>
         </is>
       </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月20日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8126,6 +8161,11 @@
           <t>300609.SZ; 汇纳科技; 1;  09:39:33; 33.79; 曾涨停; 15.0%; 0.06H;  09:39:33</t>
         </is>
       </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>300466.SZ; 赛摩智能; 1;  09:44:36; 12.54; 曾涨停; 13.1%; 0.11H;  09:44:36</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -8486,6 +8526,11 @@
           <t>300210.SZ; 森远股份; 1;  10:58:18; 11.19; 曾涨停; 15.4%; 1.20H;  10:58:18</t>
         </is>
       </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>301011.SZ; 华立科技; 2;  09:44:39; 30.29; 曾涨停; 15.0%; 0.03H;  09:44:39|| 11:14:15</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -8751,6 +8796,11 @@
           <t>301076.SZ; 新瀚新材; 2;  10:21:21; 42.5; 曾涨停; 16.6%; 0.33H;  10:21:21|| 13:13:24</t>
         </is>
       </c>
+      <c r="CL4" t="inlineStr">
+        <is>
+          <t>688135.SH; 利扬芯片; 6;  10:30:04; 24.9; 曾涨停; 15.5%; 1.27H;  10:30:04|| 11:11:31|| 11:12:37|| 13:20:04|| 13:21:22|| 13:22:34</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -8931,6 +8981,11 @@
           <t>873169.BJ; 七丰精工; 1;  11:25:00; 27.39; 曾涨停; 17.5%; 1.25H;  11:25:00</t>
         </is>
       </c>
+      <c r="CL5" t="inlineStr">
+        <is>
+          <t>301009.SZ; 可靠股份; 1;  10:39:42; 15.06; 曾涨停; 12.1%; 2.56H;  10:39:42</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -9069,6 +9124,11 @@
       <c r="CC6" t="inlineStr">
         <is>
           <t>302132.SZ; 中航成飞; 1;  11:28:32; 79.88; 曾涨停; -4.0%; 0.33H;  11:28:32</t>
+        </is>
+      </c>
+      <c r="CL6" t="inlineStr">
+        <is>
+          <t>832419.BJ; 路斯股份; 1;  10:53:27; 31.78; 曾涨停; 18.1%; 1.19H;  10:53:27</t>
         </is>
       </c>
     </row>
@@ -9258,7 +9318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CK30"/>
+  <dimension ref="A1:CL30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9707,6 +9767,11 @@
           <t>2025年05月19日</t>
         </is>
       </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月20日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10147,6 +10212,11 @@
           <t>300489.SZ; 光智科技; 1;  09:37:39; 首板涨停; 53.42;  09:25:00; 20.0%; 1; 拟并购先导电科+红外光学</t>
         </is>
       </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>301316.SZ; 慧博云通; 0;  09:25:00; 首板涨停; 34.8;  09:25:00; 20.0%; 1; 拟购买宝德计算67.91%股份</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10572,6 +10642,11 @@
           <t>300069.SZ; 金利华电; 0;  09:57:51; 首板涨停; 19.5;  09:57:51; 20.0%; 1; 拟购买海德利森100%股权+电网设备</t>
         </is>
       </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>301112.SZ; 信邦智能; 0;  09:25:00; 首板涨停; 37.82;  09:25:00; 20.0%; 1; 拟收购英迪芯微控股权+复牌+工业机器人</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -10967,6 +11042,11 @@
           <t>300631.SZ; 久吾高科; 1;  11:15:03; 首板涨停; 24.58;  10:09:27; 20.0%; 1; 一季报增长+盐湖提锂+膜技术</t>
         </is>
       </c>
+      <c r="CL4" t="inlineStr">
+        <is>
+          <t>872392.BJ; 佳合科技; 1;  09:39:30; 首板涨停; 35.58;  09:34:48; 30.0%; 1; 此前进行重大资产购买+纸质包装</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11322,6 +11402,11 @@
           <t>835174.BJ; 五新隧装; 2;  11:29:42; 首板涨停; 42.84;  10:56:42; 30.0%; 1; 重大资产重组+基建+一带一路</t>
         </is>
       </c>
+      <c r="CL5" t="inlineStr">
+        <is>
+          <t>300723.SZ; 一品红; 4;  10:01:03; 首板涨停; 47.53;  09:38:06; 20.0%; 1; 受让控股子公司少数股东部分股权+创新药+减肥药+儿童药</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -11647,6 +11732,11 @@
           <t>301335.SZ; 天元宠物; 1;  14:04:21; 首板涨停; 37.08;  13:28:51; 20.0%; 1; 资产重组+宠物经济+跨境电商</t>
         </is>
       </c>
+      <c r="CL6" t="inlineStr">
+        <is>
+          <t>300511.SZ; 雪榕生物; 0;  10:06:15; 首板涨停; 6.88;  10:06:15; 20.1%; 1; 农业种植+食用菌+一带一路+实控人变更</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -11922,6 +12012,11 @@
           <t>688336.SH; 三生国健; 0;  14:20:17; 首板涨停; 32.81;  14:20:17; 20.0%; 1; 创新药+自免+重组蛋白</t>
         </is>
       </c>
+      <c r="CL7" t="inlineStr">
+        <is>
+          <t>300945.SZ; 曼卡龙; 0;  10:29:24; 首板涨停; 20.16;  10:29:24; 20.0%; 1; 黄金+珠宝+IP经济</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -12160,6 +12255,11 @@
       <c r="CK8" t="inlineStr">
         <is>
           <t>301459.SZ; 丰茂股份; 1;  14:22:54; 首板涨停; 65.75;  13:00:00; 20.0%; 1; 汽车零部件+人形机器人+橡胶</t>
+        </is>
+      </c>
+      <c r="CL8" t="inlineStr">
+        <is>
+          <t>300703.SZ; 创源股份; 0;  10:44:21; 首板涨停; 19.02;  10:44:21; 20.0%; 1; IP经济+宠物经济+文创消费品+外销</t>
         </is>
       </c>
     </row>
@@ -13264,7 +13364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CK178"/>
+  <dimension ref="A1:CL178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13713,6 +13813,11 @@
           <t>2025年05月19日</t>
         </is>
       </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月20日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -14133,6 +14238,11 @@
           <t>871396.BJ; 常辅股份; 5.3%; 28.8%; 49.6; 22.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>301260.SZ; 格力博; 4.5%; 12.9%; 23.25; 7.8%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14518,6 +14628,11 @@
           <t>300963.SZ; 中洲特材; 4.9%; 26.2%; 29.59; 20.0%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>688395.SH; 正弦电气; 2.4%; 14.3%; 27.58; 11.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -14863,6 +14978,11 @@
           <t>836077.BJ; 吉林碳谷; 3.6%; 19.6%; 16.69; 15.3%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CL4" t="inlineStr">
+        <is>
+          <t>832419.BJ; 路斯股份; 2.3%; 20.8%; 31.78; 18.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -15173,6 +15293,11 @@
           <t>300004.SZ; 南风股份; 0.1%; 12.0%; 9.96; 11.9%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CL5" t="inlineStr">
+        <is>
+          <t>833427.BJ; 华维设计; 2.0%; 12.2%; 17.06; 9.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -15453,6 +15578,11 @@
           <t>300819.SZ; 聚杰微纤; 1.0%; 13.4%; 29.07; 12.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CL6" t="inlineStr">
+        <is>
+          <t>301009.SZ; 可靠股份; 1.6%; 13.9%; 15.06; 12.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -15718,6 +15848,11 @@
           <t>300695.SZ; 兆丰股份; 0.6%; 13.9%; 100.56; 13.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CL7" t="inlineStr">
+        <is>
+          <t>838275.BJ; 驱动力; 1.3%; 15.6%; 13.51; 14.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -15958,6 +16093,11 @@
           <t>301335.SZ; 天元宠物; 0.4%; 15.8%; 30.9; 15.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CL8" t="inlineStr">
+        <is>
+          <t>920128.BJ; 胜业电气; 1.2%; 12.1%; 41.23; 10.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -16168,6 +16308,11 @@
           <t>688068.SH; 热景生物; 0.2%; 12.3%; 110.95; 12.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CL9" t="inlineStr">
+        <is>
+          <t>300945.SZ; 曼卡龙; 0.8%; 20.9%; 20.16; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -16353,6 +16498,11 @@
           <t>300399.SZ; 天利科技; 0.2%; 20.3%; 25.44; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CL10" t="inlineStr">
+        <is>
+          <t>870299.BJ; 灿能电力; 0.6%; 15.2%; 25.2; 14.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -16511,6 +16661,11 @@
       <c r="CF11" t="inlineStr">
         <is>
           <t>300581.SZ; 晨曦航空; 0.1%; 20.2%; 18.06; 20.0%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
+      <c r="CL11" t="inlineStr">
+        <is>
+          <t>833075.BJ; 柏星龙; 0.1%; 12.7%; 36.07; 12.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -18990,7 +19145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CK21"/>
+  <dimension ref="A1:CL21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19439,6 +19594,11 @@
           <t>2025年05月19日</t>
         </is>
       </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月20日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -19884,6 +20044,11 @@
           <t>301316.SZ; 慧博云通; nan; nan%; 274162.0; 12</t>
         </is>
       </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>301335.SZ; 天元宠物; 44.5; 20.0%; 294506.0; 13</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -20329,6 +20494,11 @@
           <t>300963.SZ; 中洲特材; 29.59; 20.0%; 253667.5; 15</t>
         </is>
       </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>301316.SZ; 慧博云通; 34.8; 20.0%; 216727.0; 28</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -20774,6 +20944,11 @@
           <t>300927.SZ; 江天化学; 36.83; 20.0%; 191644.0; 25</t>
         </is>
       </c>
+      <c r="CL4" t="inlineStr">
+        <is>
+          <t>300069.SZ; 金利华电; 23.4; 20.0%; 167075.0; 43</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -21219,6 +21394,11 @@
           <t>300879.SZ; 大叶股份; 53.9; 13.5%; 171894.0; 31</t>
         </is>
       </c>
+      <c r="CL5" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 31.5; 6.5%; 166991.5; 44</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -21664,6 +21844,11 @@
           <t>301595.SZ; 太力科技; 54.3; 218.5%; 146135.5; 50</t>
         </is>
       </c>
+      <c r="CL6" t="inlineStr">
+        <is>
+          <t>300945.SZ; 曼卡龙; 20.16; 20.0%; 141112.0; 53</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -22109,6 +22294,11 @@
           <t>300489.SZ; 光智科技; 53.42; 20.0%; 122262.0; 65</t>
         </is>
       </c>
+      <c r="CL7" t="inlineStr">
+        <is>
+          <t>300511.SZ; 雪榕生物; 6.88; 20.1%; 136056.0; 57</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -22554,6 +22744,11 @@
           <t>301335.SZ; 天元宠物; 37.08; 20.0%; 122058.0; 67</t>
         </is>
       </c>
+      <c r="CL8" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 56.88; 5.5%; 135221.5; 58</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -22999,6 +23194,11 @@
           <t>302132.SZ; 中航成飞; 87.2; 1.3%; 107994.0; 74</t>
         </is>
       </c>
+      <c r="CL9" t="inlineStr">
+        <is>
+          <t>300703.SZ; 创源股份; 19.02; 20.0%; 126145.5; 66</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -23444,6 +23644,11 @@
           <t>300047.SZ; 天源迪科; 16.92; 5.2%; 97197.5; 86</t>
         </is>
       </c>
+      <c r="CL10" t="inlineStr">
+        <is>
+          <t>688336.SH; 三生国健; 39.37; 20.0%; 112175.0; 78</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -23889,6 +24094,11 @@
           <t>300069.SZ; 金利华电; 19.5; 20.0%; 87011.5; 94</t>
         </is>
       </c>
+      <c r="CL11" t="inlineStr">
+        <is>
+          <t>302132.SZ; 中航成飞; 80.29; -7.9%; 109112.0; 84</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -24334,6 +24544,11 @@
           <t>300631.SZ; 久吾高科; 24.58; 20.0%; 84133.0; 96</t>
         </is>
       </c>
+      <c r="CL12" t="inlineStr">
+        <is>
+          <t>300723.SZ; 一品红; 47.53; 20.0%; 104085.0; 94</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -24779,6 +24994,11 @@
           <t>300607.SZ; 拓斯达; 38.6; 2.1%; 79412.0; 103</t>
         </is>
       </c>
+      <c r="CL13" t="inlineStr">
+        <is>
+          <t>300065.SZ; 海兰信; 17.15; 7.6%; 97336.0; 99</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -25224,6 +25444,11 @@
           <t>300251.SZ; 光线传媒; 18.39; 0.5%; 76512.5; 106</t>
         </is>
       </c>
+      <c r="CL14" t="inlineStr">
+        <is>
+          <t>300750.SZ; 宁德时代; 263; 1.2%; 95979.5; 100</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -25669,6 +25894,11 @@
           <t>300946.SZ; 恒而达; 84.44; 5.5%; 70476.0; 108</t>
         </is>
       </c>
+      <c r="CL15" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 20.67; -0.5%; 89457.5; 107</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -26114,6 +26344,11 @@
           <t>300307.SZ; 慈星股份; 8.99; 3.5%; 64861.5; 116</t>
         </is>
       </c>
+      <c r="CL16" t="inlineStr">
+        <is>
+          <t>835174.BJ; 五新隧装; 55.69; 30.0%; 88547.0; 108</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -26559,6 +26794,11 @@
           <t>300004.SZ; 南风股份; 9.96; 11.9%; 63971.5; 118</t>
         </is>
       </c>
+      <c r="CL17" t="inlineStr">
+        <is>
+          <t>300927.SZ; 江天化学; 39.2; 6.4%; 83573.0; 117</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -27004,6 +27244,11 @@
           <t>300750.SZ; 宁德时代; 260; 0.2%; 62976.5; 119</t>
         </is>
       </c>
+      <c r="CL18" t="inlineStr">
+        <is>
+          <t>300459.SZ; 汤姆猫; 5.42; 6.3%; 78545.0; 128</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -27449,6 +27694,11 @@
           <t>301459.SZ; 丰茂股份; 65.75; 20.0%; 61666.5; 120</t>
         </is>
       </c>
+      <c r="CL19" t="inlineStr">
+        <is>
+          <t>301112.SZ; 信邦智能; 37.82; 20.0%; 75570.0; 131</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -27894,6 +28144,11 @@
           <t>300132.SZ; 青松股份; 6.66; 12.3%; 61247.5; 121</t>
         </is>
       </c>
+      <c r="CL20" t="inlineStr">
+        <is>
+          <t>301009.SZ; 可靠股份; 15.06; 12.1%; 71608.5; 139</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -28337,6 +28592,11 @@
       <c r="CK21" t="inlineStr">
         <is>
           <t>301089.SZ; 拓新药业; 38.3; 1.4%; 58151.5; 130</t>
+        </is>
+      </c>
+      <c r="CL21" t="inlineStr">
+        <is>
+          <t>300607.SZ; 拓斯达; 35.82; -7.2%; 71495.0; 141</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CL7"/>
+  <dimension ref="A1:CM7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -884,6 +884,11 @@
           <t>2025年05月20日</t>
         </is>
       </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1129,6 +1134,11 @@
           <t>688336.SH; 三生国健; 0;  09:30:00; 2天2板; 39.37;  09:30:00; 20.0%; 2; 与辉瑞订立许可协议+创新药+自免+重组蛋白</t>
         </is>
       </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>301316.SZ; 慧博云通; 0;  09:25:00; 2天2板; 41.76;  09:25:00; 20.0%; 2; 拟购买宝德计算67.91%股份</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1274,6 +1284,11 @@
           <t>300069.SZ; 金利华电; 0;  09:30:15; 2天2板; 23.4;  09:30:15; 20.0%; 2; 拟购买海德利森100%股权+电网设备</t>
         </is>
       </c>
+      <c r="CM3" t="inlineStr">
+        <is>
+          <t>301112.SZ; 信邦智能; 1;  09:30:18; 2天2板; 45.38;  09:25:00; 20.0%; 2; 拟收购英迪芯微控股权+复牌+工业机器人</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1352,6 +1367,11 @@
       <c r="CL4" t="inlineStr">
         <is>
           <t>835174.BJ; 五新隧装; 0;  13:18:24; 2天2板; 55.69;  13:18:24; 30.0%; 2; 重大资产重组+基建+一带一路</t>
+        </is>
+      </c>
+      <c r="CM4" t="inlineStr">
+        <is>
+          <t>688336.SH; 三生国健; 1;  09:32:11; 3天3板; 47.24;  09:25:02; 20.0%; 3; 与辉瑞订立许可协议+创新药+自免+重组蛋白</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CL532"/>
+  <dimension ref="A1:CM532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1908,6 +1928,11 @@
       <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>2025年05月20日</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月21日</t>
         </is>
       </c>
     </row>
@@ -7287,7 +7312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CL11"/>
+  <dimension ref="A1:CM11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7741,6 +7766,11 @@
           <t>2025年05月20日</t>
         </is>
       </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8164,6 +8194,11 @@
       <c r="CL2" t="inlineStr">
         <is>
           <t>300466.SZ; 赛摩智能; 1;  09:44:36; 12.54; 曾涨停; 13.1%; 0.11H;  09:44:36</t>
+        </is>
+      </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>688648.SH; 中邮科技; 1;  13:48:00; 50; 曾涨停; 18.2%; 0.34H;  13:48:00</t>
         </is>
       </c>
     </row>
@@ -9318,7 +9353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CL30"/>
+  <dimension ref="A1:CM30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9772,6 +9807,11 @@
           <t>2025年05月20日</t>
         </is>
       </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10217,6 +10257,11 @@
           <t>301316.SZ; 慧博云通; 0;  09:25:00; 首板涨停; 34.8;  09:25:00; 20.0%; 1; 拟购买宝德计算67.91%股份</t>
         </is>
       </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 0;  09:42:00; 首板涨停; 14.15;  09:42:00; 20.0%; 1; 创新药+血友病药物</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10647,6 +10692,11 @@
           <t>301112.SZ; 信邦智能; 0;  09:25:00; 首板涨停; 37.82;  09:25:00; 20.0%; 1; 拟收购英迪芯微控股权+复牌+工业机器人</t>
         </is>
       </c>
+      <c r="CM3" t="inlineStr">
+        <is>
+          <t>839719.BJ; 宁新新材; 2;  10:27:38; 首板涨停; 17.29;  09:39:23; 30.0%; 1; 固态电池+特种石墨+钠电池</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11047,6 +11097,11 @@
           <t>872392.BJ; 佳合科技; 1;  09:39:30; 首板涨停; 35.58;  09:34:48; 30.0%; 1; 此前进行重大资产购买+纸质包装</t>
         </is>
       </c>
+      <c r="CM4" t="inlineStr">
+        <is>
+          <t>300530.SZ; 领湃科技; 0;  10:29:21; 首板涨停; 35.04;  10:29:21; 20.0%; 1; 固态电池+充电桩+湖南国资</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11407,6 +11462,11 @@
           <t>300723.SZ; 一品红; 4;  10:01:03; 首板涨停; 47.53;  09:38:06; 20.0%; 1; 受让控股子公司少数股东部分股权+创新药+减肥药+儿童药</t>
         </is>
       </c>
+      <c r="CM5" t="inlineStr">
+        <is>
+          <t>300584.SZ; 海辰药业; 0;  10:53:03; 首板涨停; 27.48;  10:53:03; 20.0%; 1; 创新药+固态电池+原料药</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -11735,6 +11795,11 @@
       <c r="CL6" t="inlineStr">
         <is>
           <t>300511.SZ; 雪榕生物; 0;  10:06:15; 首板涨停; 6.88;  10:06:15; 20.1%; 1; 农业种植+食用菌+一带一路+实控人变更</t>
+        </is>
+      </c>
+      <c r="CM6" t="inlineStr">
+        <is>
+          <t>301662.SZ; 宏工科技; 7;  14:48:33; 首板涨停; 83.3;  10:51:03; 20.0%; 1; 固态电池+次新股</t>
         </is>
       </c>
     </row>
@@ -13364,7 +13429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CL178"/>
+  <dimension ref="A1:CM178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13818,6 +13883,11 @@
           <t>2025年05月20日</t>
         </is>
       </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -14243,6 +14313,11 @@
           <t>301260.SZ; 格力博; 4.5%; 12.9%; 23.25; 7.8%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>301009.SZ; 可靠股份; 4.4%; 13.1%; 16.29; 8.2%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14633,6 +14708,11 @@
           <t>688395.SH; 正弦电气; 2.4%; 14.3%; 27.58; 11.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CM3" t="inlineStr">
+        <is>
+          <t>870436.BJ; 大地电气; 3.3%; 15.7%; 27.2; 11.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -14983,6 +15063,11 @@
           <t>832419.BJ; 路斯股份; 2.3%; 20.8%; 31.78; 18.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CM4" t="inlineStr">
+        <is>
+          <t>301108.SZ; 洁雅股份; 2.9%; 12.6%; 37; 9.3%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -15298,6 +15383,11 @@
           <t>833427.BJ; 华维设计; 2.0%; 12.2%; 17.06; 9.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CM5" t="inlineStr">
+        <is>
+          <t>833284.BJ; 灵鸽科技; 2.3%; 19.3%; 31.8; 16.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -15583,6 +15673,11 @@
           <t>301009.SZ; 可靠股份; 1.6%; 13.9%; 15.06; 12.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CM6" t="inlineStr">
+        <is>
+          <t>301662.SZ; 宏工科技; 2.3%; 22.9%; 83.3; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -15853,6 +15948,11 @@
           <t>838275.BJ; 驱动力; 1.3%; 15.6%; 13.51; 14.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CM7" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 2.0%; 22.5%; 14.15; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -16098,6 +16198,11 @@
           <t>920128.BJ; 胜业电气; 1.2%; 12.1%; 41.23; 10.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CM8" t="inlineStr">
+        <is>
+          <t>300530.SZ; 领湃科技; 1.4%; 21.7%; 35.04; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -16313,6 +16418,11 @@
           <t>300945.SZ; 曼卡龙; 0.8%; 20.9%; 20.16; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CM9" t="inlineStr">
+        <is>
+          <t>300485.SZ; 赛升药业; 1.4%; 18.0%; 11.09; 16.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -16503,6 +16613,11 @@
           <t>870299.BJ; 灿能电力; 0.6%; 15.2%; 25.2; 14.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CM10" t="inlineStr">
+        <is>
+          <t>300584.SZ; 海辰药业; 1.0%; 21.2%; 27.48; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -16666,6 +16781,11 @@
       <c r="CL11" t="inlineStr">
         <is>
           <t>833075.BJ; 柏星龙; 0.1%; 12.7%; 36.07; 12.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CM11" t="inlineStr">
+        <is>
+          <t>301055.SZ; 张小泉; 0.2%; 12.3%; 20.85; 12.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -19145,7 +19265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CL21"/>
+  <dimension ref="A1:CM21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19599,6 +19719,11 @@
           <t>2025年05月20日</t>
         </is>
       </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -20049,6 +20174,11 @@
           <t>301335.SZ; 天元宠物; 44.5; 20.0%; 294506.0; 13</t>
         </is>
       </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>301316.SZ; 慧博云通; 41.76; 20.0%; 142305.0; 29</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -20499,6 +20629,11 @@
           <t>301316.SZ; 慧博云通; 34.8; 20.0%; 216727.0; 28</t>
         </is>
       </c>
+      <c r="CM3" t="inlineStr">
+        <is>
+          <t>688648.SH; 中邮科技; 50; 18.2%; 120992.5; 40</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -20949,6 +21084,11 @@
           <t>300069.SZ; 金利华电; 23.4; 20.0%; 167075.0; 43</t>
         </is>
       </c>
+      <c r="CM4" t="inlineStr">
+        <is>
+          <t>300750.SZ; 宁德时代; 274.08; 4.2%; 116049.0; 41</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -21399,6 +21539,11 @@
           <t>300963.SZ; 中洲特材; 31.5; 6.5%; 166991.5; 44</t>
         </is>
       </c>
+      <c r="CM5" t="inlineStr">
+        <is>
+          <t>300530.SZ; 领湃科技; 35.04; 20.0%; 103997.5; 53</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -21849,6 +21994,11 @@
           <t>300945.SZ; 曼卡龙; 20.16; 20.0%; 141112.0; 53</t>
         </is>
       </c>
+      <c r="CM6" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 14.15; 20.0%; 89324.0; 68</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -22299,6 +22449,11 @@
           <t>300511.SZ; 雪榕生物; 6.88; 20.1%; 136056.0; 57</t>
         </is>
       </c>
+      <c r="CM7" t="inlineStr">
+        <is>
+          <t>688336.SH; 三生国健; 47.24; 20.0%; 88027.0; 70</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -22749,6 +22904,11 @@
           <t>300879.SZ; 大叶股份; 56.88; 5.5%; 135221.5; 58</t>
         </is>
       </c>
+      <c r="CM8" t="inlineStr">
+        <is>
+          <t>301112.SZ; 信邦智能; 45.38; 20.0%; 85684.5; 71</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -23199,6 +23359,11 @@
           <t>300703.SZ; 创源股份; 19.02; 20.0%; 126145.5; 66</t>
         </is>
       </c>
+      <c r="CM9" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 28.71; -8.9%; 84480.5; 74</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -23649,6 +23814,11 @@
           <t>688336.SH; 三生国健; 39.37; 20.0%; 112175.0; 78</t>
         </is>
       </c>
+      <c r="CM10" t="inlineStr">
+        <is>
+          <t>300584.SZ; 海辰药业; 27.48; 20.0%; 84363.0; 75</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -24099,6 +24269,11 @@
           <t>302132.SZ; 中航成飞; 80.29; -7.9%; 109112.0; 84</t>
         </is>
       </c>
+      <c r="CM11" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 52.3; -8.1%; 80546.5; 80</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -24549,6 +24724,11 @@
           <t>300723.SZ; 一品红; 47.53; 20.0%; 104085.0; 94</t>
         </is>
       </c>
+      <c r="CM12" t="inlineStr">
+        <is>
+          <t>301662.SZ; 宏工科技; 83.3; 20.0%; 78340.0; 83</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -24999,6 +25179,11 @@
           <t>300065.SZ; 海兰信; 17.15; 7.6%; 97336.0; 99</t>
         </is>
       </c>
+      <c r="CM13" t="inlineStr">
+        <is>
+          <t>301335.SZ; 天元宠物; 40.82; -8.3%; 74240.5; 89</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -25449,6 +25634,11 @@
           <t>300750.SZ; 宁德时代; 263; 1.2%; 95979.5; 100</t>
         </is>
       </c>
+      <c r="CM14" t="inlineStr">
+        <is>
+          <t>302132.SZ; 中航成飞; 81.96; 2.1%; 72546.0; 91</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -25899,6 +26089,11 @@
           <t>300773.SZ; 拉卡拉; 20.67; -0.5%; 89457.5; 107</t>
         </is>
       </c>
+      <c r="CM15" t="inlineStr">
+        <is>
+          <t>839719.BJ; 宁新新材; 17.29; 30.0%; 65407.5; 105</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -26349,6 +26544,11 @@
           <t>835174.BJ; 五新隧装; 55.69; 30.0%; 88547.0; 108</t>
         </is>
       </c>
+      <c r="CM16" t="inlineStr">
+        <is>
+          <t>300139.SZ; 晓程科技; 19.5; 11.7%; 60379.0; 110</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -26799,6 +26999,11 @@
           <t>300927.SZ; 江天化学; 39.2; 6.4%; 83573.0; 117</t>
         </is>
       </c>
+      <c r="CM17" t="inlineStr">
+        <is>
+          <t>300945.SZ; 曼卡龙; 22.08; 9.5%; 52931.5; 125</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -27249,6 +27454,11 @@
           <t>300459.SZ; 汤姆猫; 5.42; 6.3%; 78545.0; 128</t>
         </is>
       </c>
+      <c r="CM18" t="inlineStr">
+        <is>
+          <t>300040.SZ; 九洲集团; 8.1; -4.5%; 47383.0; 138</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -27699,6 +27909,11 @@
           <t>301112.SZ; 信邦智能; 37.82; 20.0%; 75570.0; 131</t>
         </is>
       </c>
+      <c r="CM19" t="inlineStr">
+        <is>
+          <t>300485.SZ; 赛升药业; 11.09; 16.4%; 47028.5; 140</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -28149,6 +28364,11 @@
           <t>301009.SZ; 可靠股份; 15.06; 12.1%; 71608.5; 139</t>
         </is>
       </c>
+      <c r="CM20" t="inlineStr">
+        <is>
+          <t>300339.SZ; 润和软件; 54.42; 1.9%; 47013.5; 141</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -28597,6 +28817,11 @@
       <c r="CL21" t="inlineStr">
         <is>
           <t>300607.SZ; 拓斯达; 35.82; -7.2%; 71495.0; 141</t>
+        </is>
+      </c>
+      <c r="CM21" t="inlineStr">
+        <is>
+          <t>300069.SZ; 金利华电; 22.28; -4.8%; 46273.0; 144</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM7"/>
+  <dimension ref="A1:CO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -889,6 +889,16 @@
           <t>2025年05月21日</t>
         </is>
       </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月22日</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月23日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1139,6 +1149,16 @@
           <t>301316.SZ; 慧博云通; 0;  09:25:00; 2天2板; 41.76;  09:25:00; 20.0%; 2; 拟购买宝德计算67.91%股份</t>
         </is>
       </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t>301316.SZ; 慧博云通; 0;  09:30:00; 3天3板; 49.01;  09:30:00; -2.2%; 3; 拟购买宝德计算67.91%股份</t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t>300584.SZ; 海辰药业; 28;  14:27:45; 3天2板; 35.16;  09:33:21; 20.0%; 1; 创新药+固态电池+原料药</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1287,6 +1307,11 @@
       <c r="CM3" t="inlineStr">
         <is>
           <t>301112.SZ; 信邦智能; 1;  09:30:18; 2天2板; 45.38;  09:25:00; 20.0%; 2; 拟收购英迪芯微控股权+复牌+工业机器人</t>
+        </is>
+      </c>
+      <c r="CN3" t="inlineStr">
+        <is>
+          <t>688336.SH; 三生国健; 13;  14:22:27; 4天4板; 54.67;  10:06:15; -3.6%; 4; 辉瑞合作+创新药研发+双特异性抗体+年报增长</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM532"/>
+  <dimension ref="A1:CO532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1933,6 +1958,16 @@
       <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>2025年05月21日</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月22日</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月23日</t>
         </is>
       </c>
     </row>
@@ -7312,7 +7347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM11"/>
+  <dimension ref="A1:CO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7771,6 +7806,16 @@
           <t>2025年05月21日</t>
         </is>
       </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月22日</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月23日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8201,6 +8246,16 @@
           <t>688648.SH; 中邮科技; 1;  13:48:00; 50; 曾涨停; 18.2%; 0.34H;  13:48:00</t>
         </is>
       </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t>688173.SH; 希荻微; 1;  09:42:00; 13.56; 曾涨停; -11.0%; 0.27H;  09:42:00</t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t>300639.SZ; 凯普生物; 1;  10:47:48; 5.81; 曾涨停; 8.8%; 0.00H;  10:47:48</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -8564,6 +8619,11 @@
       <c r="CL3" t="inlineStr">
         <is>
           <t>301011.SZ; 华立科技; 2;  09:44:39; 30.29; 曾涨停; 15.0%; 0.03H;  09:44:39|| 11:14:15</t>
+        </is>
+      </c>
+      <c r="CO3" t="inlineStr">
+        <is>
+          <t>688621.SH; 阳光诺和; 1;  13:35:39; 50.59; 曾涨停; 12.5%; 0.01H;  13:35:39</t>
         </is>
       </c>
     </row>
@@ -9353,7 +9413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM30"/>
+  <dimension ref="A1:CO30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9812,6 +9872,16 @@
           <t>2025年05月21日</t>
         </is>
       </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月22日</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月23日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10262,6 +10332,16 @@
           <t>300204.SZ; 舒泰神; 0;  09:42:00; 首板涨停; 14.15;  09:42:00; 20.0%; 1; 创新药+血友病药物</t>
         </is>
       </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t>301105.SZ; 鸿铭股份; 0;  09:39:45; 首板涨停; 38;  09:39:45; -4.3%; 1; 重大资产重组+智能包装设备+机器视觉</t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t>301137.SZ; 哈焊华通; 0;  09:33:36; 首板涨停; 27.49;  09:33:36; 20.0%; 1; 可控核聚变+焊接材料+此前收购中达金属60%股权+央企</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10697,6 +10777,16 @@
           <t>839719.BJ; 宁新新材; 2;  10:27:38; 首板涨停; 17.29;  09:39:23; 30.0%; 1; 固态电池+特种石墨+钠电池</t>
         </is>
       </c>
+      <c r="CN3" t="inlineStr">
+        <is>
+          <t>301571.SZ; 国科天成; 0;  10:25:16; 首板涨停; 50.03;  10:25:16; -6.8%; 1; 军工电子+红外光电+业绩增长</t>
+        </is>
+      </c>
+      <c r="CO3" t="inlineStr">
+        <is>
+          <t>301007.SZ; 德迈仕; 1;  09:33:51; 首板涨停; 27.3;  09:25:00; 20.0%; 1; 实控人拟变更+复牌+人形机器人（丝杠）+汽车零部件</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11102,6 +11192,16 @@
           <t>300530.SZ; 领湃科技; 0;  10:29:21; 首板涨停; 35.04;  10:29:21; 20.0%; 1; 固态电池+充电桩+湖南国资</t>
         </is>
       </c>
+      <c r="CN4" t="inlineStr">
+        <is>
+          <t>301138.SZ; 华研精机; 0;  13:49:42; 首板涨停; 43.41;  13:49:42; 11.5%; 1; 瓶坯智能成型系统+机器人概念+年报增长</t>
+        </is>
+      </c>
+      <c r="CO4" t="inlineStr">
+        <is>
+          <t>301075.SZ; 多瑞医药; 0;  09:38:51; 首板涨停; 28.92;  09:38:51; 20.0%; 1; 化学药+多肽原料药+流感用药</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11467,6 +11567,16 @@
           <t>300584.SZ; 海辰药业; 0;  10:53:03; 首板涨停; 27.48;  10:53:03; 20.0%; 1; 创新药+固态电池+原料药</t>
         </is>
       </c>
+      <c r="CN5" t="inlineStr">
+        <is>
+          <t>300418.SZ; 昆仑万维; 1;  14:13:27; 首板涨停; 36.57;  13:00:56; -2.3%; 1; 发布天工超级智能体+AI应用</t>
+        </is>
+      </c>
+      <c r="CO5" t="inlineStr">
+        <is>
+          <t>301501.SZ; 恒鑫生活; 0;  11:24:57; 首板涨停; 94.32;  11:24:57; 20.0%; 1; 次新+可降解塑料+泰国工厂投产</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -11802,6 +11912,11 @@
           <t>301662.SZ; 宏工科技; 7;  14:48:33; 首板涨停; 83.3;  10:51:03; 20.0%; 1; 固态电池+次新股</t>
         </is>
       </c>
+      <c r="CO6" t="inlineStr">
+        <is>
+          <t>300121.SZ; 阳谷华泰; 0;  13:20:57; 首板涨停; 15.08;  13:20:57; 20.0%; 1; 光刻胶+并购重组+回购</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -12082,6 +12197,11 @@
           <t>300945.SZ; 曼卡龙; 0;  10:29:24; 首板涨停; 20.16;  10:29:24; 20.0%; 1; 黄金+珠宝+IP经济</t>
         </is>
       </c>
+      <c r="CO7" t="inlineStr">
+        <is>
+          <t>301277.SZ; 新天地; 0;  14:31:24; 首板涨停; 15.29;  14:31:24; 20.0%; 1; 原料药+左旋对羟基苯甘氨酸系列+研发投入增长</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -12325,6 +12445,11 @@
       <c r="CL8" t="inlineStr">
         <is>
           <t>300703.SZ; 创源股份; 0;  10:44:21; 首板涨停; 19.02;  10:44:21; 20.0%; 1; IP经济+宠物经济+文创消费品+外销</t>
+        </is>
+      </c>
+      <c r="CO8" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 3;  14:55:39; 首板涨停; 33.82;  14:47:00; 20.0%; 1; 核电+海工装备+焊材</t>
         </is>
       </c>
     </row>
@@ -13429,7 +13554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM178"/>
+  <dimension ref="A1:CO178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13888,6 +14013,16 @@
           <t>2025年05月21日</t>
         </is>
       </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月22日</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月23日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -14318,6 +14453,16 @@
           <t>301009.SZ; 可靠股份; 4.4%; 13.1%; 16.29; 8.2%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t>301613.SZ; 新铝时代; 2.0%; 13.8%; 54.73; -3.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t>300149.SZ; 睿智医药; 4.0%; 12.5%; 7.92; 8.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14713,6 +14858,16 @@
           <t>870436.BJ; 大地电气; 3.3%; 15.7%; 27.2; 11.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CN3" t="inlineStr">
+        <is>
+          <t>301138.SZ; 华研精机; 0.5%; 20.6%; 43.41; 11.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CO3" t="inlineStr">
+        <is>
+          <t>301297.SZ; 富乐德; 1.8%; 12.7%; 47.7; 10.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -15068,6 +15223,16 @@
           <t>301108.SZ; 洁雅股份; 2.9%; 12.6%; 37; 9.3%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="CN4" t="inlineStr">
+        <is>
+          <t>301571.SZ; 国科天成; 0.4%; 20.4%; 50.03; -6.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CO4" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 1.3%; 13.2%; 16.52; 11.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -15388,6 +15553,16 @@
           <t>833284.BJ; 灵鸽科技; 2.3%; 19.3%; 31.8; 16.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CN5" t="inlineStr">
+        <is>
+          <t>301606.SZ; 绿联科技; 0.3%; 14.5%; 49.43; -3.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CO5" t="inlineStr">
+        <is>
+          <t>301138.SZ; 华研精机; 0.7%; 12.2%; 43.41; 11.5%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -15678,6 +15853,16 @@
           <t>301662.SZ; 宏工科技; 2.3%; 22.9%; 83.3; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CN6" t="inlineStr">
+        <is>
+          <t>688176.SH; 亚虹医药; 0.1%; 12.4%; 8.36; -5.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CO6" t="inlineStr">
+        <is>
+          <t>300353.SZ; 东土科技; 0.1%; 13.3%; 25.18; 13.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -15951,6 +16136,11 @@
       <c r="CM7" t="inlineStr">
         <is>
           <t>300204.SZ; 舒泰神; 2.0%; 22.5%; 14.15; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CO7" t="inlineStr">
+        <is>
+          <t>688621.SH; 阳光诺和; 0.1%; 12.6%; 50.59; 12.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -19265,7 +19455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM21"/>
+  <dimension ref="A1:CO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19724,6 +19914,16 @@
           <t>2025年05月21日</t>
         </is>
       </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月22日</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月23日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -20179,6 +20379,16 @@
           <t>301316.SZ; 慧博云通; 41.76; 20.0%; 142305.0; 29</t>
         </is>
       </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t>300418.SZ; 昆仑万维; 36.57; -2.3%; 19453993.0; 9</t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t>301316.SZ; 慧博云通; 49.01; -2.2%; 315179.0; 2</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -20634,6 +20844,16 @@
           <t>688648.SH; 中邮科技; 50; 18.2%; 120992.5; 40</t>
         </is>
       </c>
+      <c r="CN3" t="inlineStr">
+        <is>
+          <t>301316.SZ; 慧博云通; 49.01; -2.2%; 7641568.0; 48</t>
+        </is>
+      </c>
+      <c r="CO3" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 33.82; 20.0%; 262524.0; 4</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -21089,6 +21309,16 @@
           <t>300750.SZ; 宁德时代; 274.08; 4.2%; 116049.0; 41</t>
         </is>
       </c>
+      <c r="CN4" t="inlineStr">
+        <is>
+          <t>302132.SZ; 中航成飞; 80.2; -0.8%; 7293995.0; 52</t>
+        </is>
+      </c>
+      <c r="CO4" t="inlineStr">
+        <is>
+          <t>300584.SZ; 海辰药业; 35.16; 20.0%; 99828.5; 27</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -21544,6 +21774,16 @@
           <t>300530.SZ; 领湃科技; 35.04; 20.0%; 103997.5; 53</t>
         </is>
       </c>
+      <c r="CN5" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 33.82; 20.0%; 6779628.5; 58</t>
+        </is>
+      </c>
+      <c r="CO5" t="inlineStr">
+        <is>
+          <t>301277.SZ; 新天地; 15.29; 20.0%; 99472.5; 28</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -21999,6 +22239,16 @@
           <t>300204.SZ; 舒泰神; 14.15; 20.0%; 89324.0; 68</t>
         </is>
       </c>
+      <c r="CN6" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 50.3; -1.5%; 5533166.0; 77</t>
+        </is>
+      </c>
+      <c r="CO6" t="inlineStr">
+        <is>
+          <t>301137.SZ; 哈焊华通; 27.49; 20.0%; 77618.5; 42</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -22454,6 +22704,16 @@
           <t>688336.SH; 三生国健; 47.24; 20.0%; 88027.0; 70</t>
         </is>
       </c>
+      <c r="CN7" t="inlineStr">
+        <is>
+          <t>300459.SZ; 汤姆猫; 5.32; -4.5%; 5515928.5; 78</t>
+        </is>
+      </c>
+      <c r="CO7" t="inlineStr">
+        <is>
+          <t>300121.SZ; 阳谷华泰; 15.08; 20.0%; 72975.0; 48</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -22909,6 +23169,16 @@
           <t>301112.SZ; 信邦智能; 45.38; 20.0%; 85684.5; 71</t>
         </is>
       </c>
+      <c r="CN8" t="inlineStr">
+        <is>
+          <t>688336.SH; 三生国健; 54.67; -3.6%; 4941921.5; 92</t>
+        </is>
+      </c>
+      <c r="CO8" t="inlineStr">
+        <is>
+          <t>300353.SZ; 东土科技; 25.18; 13.2%; 71103.0; 50</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -23364,6 +23634,16 @@
           <t>300963.SZ; 中洲特材; 28.71; -8.9%; 84480.5; 74</t>
         </is>
       </c>
+      <c r="CN9" t="inlineStr">
+        <is>
+          <t>300584.SZ; 海辰药业; 35.16; 20.0%; 4601261.0; 99</t>
+        </is>
+      </c>
+      <c r="CO9" t="inlineStr">
+        <is>
+          <t>301209.SZ; 联合化学; 124.15; 15.2%; 53456.5; 70</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -23819,6 +24099,16 @@
           <t>300584.SZ; 海辰药业; 27.48; 20.0%; 84363.0; 75</t>
         </is>
       </c>
+      <c r="CN10" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.78; -2.1%; 4487680.5; 102</t>
+        </is>
+      </c>
+      <c r="CO10" t="inlineStr">
+        <is>
+          <t>300418.SZ; 昆仑万维; 36.57; -2.3%; 52449.0; 73</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -24274,6 +24564,16 @@
           <t>300879.SZ; 大叶股份; 52.3; -8.1%; 80546.5; 80</t>
         </is>
       </c>
+      <c r="CN11" t="inlineStr">
+        <is>
+          <t>301335.SZ; 天元宠物; 38.01; -3.1%; 4208224.5; 112</t>
+        </is>
+      </c>
+      <c r="CO11" t="inlineStr">
+        <is>
+          <t>301007.SZ; 德迈仕; 27.3; 20.0%; 48584.5; 80</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -24729,6 +25029,16 @@
           <t>301662.SZ; 宏工科技; 83.3; 20.0%; 78340.0; 83</t>
         </is>
       </c>
+      <c r="CN12" t="inlineStr">
+        <is>
+          <t>300750.SZ; 宁德时代; 266.99; -1.3%; 4188038.5; 113</t>
+        </is>
+      </c>
+      <c r="CO12" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 16.52; 11.8%; 48320.5; 82</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -25184,6 +25494,16 @@
           <t>301335.SZ; 天元宠物; 40.82; -8.3%; 74240.5; 89</t>
         </is>
       </c>
+      <c r="CN13" t="inlineStr">
+        <is>
+          <t>300240.SZ; 飞力达; 8.46; -9.5%; 3985886.5; 120</t>
+        </is>
+      </c>
+      <c r="CO13" t="inlineStr">
+        <is>
+          <t>301297.SZ; 富乐德; 47.7; 10.7%; 45775.0; 91</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -25639,6 +25959,16 @@
           <t>302132.SZ; 中航成飞; 81.96; 2.1%; 72546.0; 91</t>
         </is>
       </c>
+      <c r="CN14" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 16.52; 11.8%; 3863148.0; 122</t>
+        </is>
+      </c>
+      <c r="CO14" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.78; -2.1%; 45315.5; 93</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -26094,6 +26424,16 @@
           <t>839719.BJ; 宁新新材; 17.29; 30.0%; 65407.5; 105</t>
         </is>
       </c>
+      <c r="CN15" t="inlineStr">
+        <is>
+          <t>301112.SZ; 信邦智能; 34.66; -7.1%; 3725223.0; 125</t>
+        </is>
+      </c>
+      <c r="CO15" t="inlineStr">
+        <is>
+          <t>301501.SZ; 恒鑫生活; 94.32; 20.0%; 41795.0; 106</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -26549,6 +26889,16 @@
           <t>300139.SZ; 晓程科技; 19.5; 11.7%; 60379.0; 110</t>
         </is>
       </c>
+      <c r="CN16" t="inlineStr">
+        <is>
+          <t>301571.SZ; 国科天成; 50.03; -6.8%; 3513953.5; 132</t>
+        </is>
+      </c>
+      <c r="CO16" t="inlineStr">
+        <is>
+          <t>301138.SZ; 华研精机; 43.41; 11.5%; 41782.0; 107</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -27004,6 +27354,16 @@
           <t>300945.SZ; 曼卡龙; 22.08; 9.5%; 52931.5; 125</t>
         </is>
       </c>
+      <c r="CN17" t="inlineStr">
+        <is>
+          <t>300607.SZ; 拓斯达; 34.1; -2.9%; 3513276.0; 133</t>
+        </is>
+      </c>
+      <c r="CO17" t="inlineStr">
+        <is>
+          <t>301075.SZ; 多瑞医药; 28.92; 20.0%; 35514.5; 130</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -27459,6 +27819,16 @@
           <t>300040.SZ; 九洲集团; 8.1; -4.5%; 47383.0; 138</t>
         </is>
       </c>
+      <c r="CN18" t="inlineStr">
+        <is>
+          <t>301138.SZ; 华研精机; 43.41; 11.5%; 3322618.5; 142</t>
+        </is>
+      </c>
+      <c r="CO18" t="inlineStr">
+        <is>
+          <t>300139.SZ; 晓程科技; 19.79; 4.6%; 34661.0; 132</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -27914,6 +28284,16 @@
           <t>300485.SZ; 赛升药业; 11.09; 16.4%; 47028.5; 140</t>
         </is>
       </c>
+      <c r="CN19" t="inlineStr">
+        <is>
+          <t>300927.SZ; 江天化学; 34.77; -1.5%; 3265493.5; 148</t>
+        </is>
+      </c>
+      <c r="CO19" t="inlineStr">
+        <is>
+          <t>300149.SZ; 睿智医药; 7.92; 8.0%; 32556.5; 148</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -28369,6 +28749,16 @@
           <t>300339.SZ; 润和软件; 54.42; 1.9%; 47013.5; 141</t>
         </is>
       </c>
+      <c r="CN20" t="inlineStr">
+        <is>
+          <t>300718.SZ; 长盛轴承; 74.5; -3.2%; 3227641.0; 150</t>
+        </is>
+      </c>
+      <c r="CO20" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 50.3; -1.5%; 32481.5; 149</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -28822,6 +29212,16 @@
       <c r="CM21" t="inlineStr">
         <is>
           <t>300069.SZ; 金利华电; 22.28; -4.8%; 46273.0; 144</t>
+        </is>
+      </c>
+      <c r="CN21" t="inlineStr">
+        <is>
+          <t>300399.SZ; 天利科技; 24.73; -5.0%; 3077155.0; 154</t>
+        </is>
+      </c>
+      <c r="CO21" t="inlineStr">
+        <is>
+          <t>300750.SZ; 宁德时代; 266.99; -1.3%; 31325.0; 154</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CO7"/>
+  <dimension ref="A1:CP7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -899,6 +899,11 @@
           <t>2025年05月23日</t>
         </is>
       </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月26日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1157,6 +1162,11 @@
       <c r="CO2" t="inlineStr">
         <is>
           <t>300584.SZ; 海辰药业; 28;  14:27:45; 3天2板; 35.16;  09:33:21; 20.0%; 1; 创新药+固态电池+原料药</t>
+        </is>
+      </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t>301137.SZ; 哈焊华通; 0;  09:35:45; 2天2板; 32.99;  09:35:45; 20.0%; 2; 可控核聚变+焊接材料+此前收购中达金属60%股权+央企</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CO532"/>
+  <dimension ref="A1:CP532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1968,6 +1978,11 @@
       <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>2025年05月23日</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月26日</t>
         </is>
       </c>
     </row>
@@ -7347,7 +7362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CO11"/>
+  <dimension ref="A1:CP11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7816,6 +7831,11 @@
           <t>2025年05月23日</t>
         </is>
       </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月26日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8256,6 +8276,11 @@
           <t>300639.SZ; 凯普生物; 1;  10:47:48; 5.81; 曾涨停; 8.8%; 0.00H;  10:47:48</t>
         </is>
       </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t>300210.SZ; 森远股份; 1;  09:30:24; 11.05; 曾涨停; 8.2%; 0.00H;  09:30:24</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -8626,6 +8651,11 @@
           <t>688621.SH; 阳光诺和; 1;  13:35:39; 50.59; 曾涨停; 12.5%; 0.01H;  13:35:39</t>
         </is>
       </c>
+      <c r="CP3" t="inlineStr">
+        <is>
+          <t>301070.SZ; 开勒股份; 1;  10:03:15; 73.06; 曾涨停; 13.4%; 1.49H;  10:03:15</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -8894,6 +8924,11 @@
       <c r="CL4" t="inlineStr">
         <is>
           <t>688135.SH; 利扬芯片; 6;  10:30:04; 24.9; 曾涨停; 15.5%; 1.27H;  10:30:04|| 11:11:31|| 11:12:37|| 13:20:04|| 13:21:22|| 13:22:34</t>
+        </is>
+      </c>
+      <c r="CP4" t="inlineStr">
+        <is>
+          <t>301082.SZ; 久盛电气; 1;  13:53:51; 20.86; 曾涨停; 13.2%; 0.09H;  13:53:51</t>
         </is>
       </c>
     </row>
@@ -9413,7 +9448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CO30"/>
+  <dimension ref="A1:CP30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9882,6 +9917,11 @@
           <t>2025年05月23日</t>
         </is>
       </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月26日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10342,6 +10382,11 @@
           <t>301137.SZ; 哈焊华通; 0;  09:33:36; 首板涨停; 27.49;  09:33:36; 20.0%; 1; 可控核聚变+焊接材料+此前收购中达金属60%股权+央企</t>
         </is>
       </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t>300678.SZ; 中科信息; 0;  09:55:48; 首板涨停; 35.12;  09:55:48; 20.0%; 1; 中科系+机器视觉+数字会议</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10787,6 +10832,11 @@
           <t>301007.SZ; 德迈仕; 1;  09:33:51; 首板涨停; 27.3;  09:25:00; 20.0%; 1; 实控人拟变更+复牌+人形机器人（丝杠）+汽车零部件</t>
         </is>
       </c>
+      <c r="CP3" t="inlineStr">
+        <is>
+          <t>688455.SH; 科捷智能; 1;  10:11:27; 首板涨停; 14.4;  09:46:48; 20.0%; 1; 智能物流+机器人+海外订单增长</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11202,6 +11252,11 @@
           <t>301075.SZ; 多瑞医药; 0;  09:38:51; 首板涨停; 28.92;  09:38:51; 20.0%; 1; 化学药+多肽原料药+流感用药</t>
         </is>
       </c>
+      <c r="CP4" t="inlineStr">
+        <is>
+          <t>301003.SZ; 江苏博云; 0;  10:17:24; 首板涨停; 35.1;  10:17:24; 20.0%; 1; 改性塑料+下游应用广泛</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11577,6 +11632,11 @@
           <t>301501.SZ; 恒鑫生活; 0;  11:24:57; 首板涨停; 94.32;  11:24:57; 20.0%; 1; 次新+可降解塑料+泰国工厂投产</t>
         </is>
       </c>
+      <c r="CP5" t="inlineStr">
+        <is>
+          <t>300771.SZ; 智莱科技; 0;  10:25:57; 首板涨停; 12.9;  10:25:57; 20.0%; 1; 无人送货车+智能保管+医疗+外销</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -11917,6 +11977,11 @@
           <t>300121.SZ; 阳谷华泰; 0;  13:20:57; 首板涨停; 15.08;  13:20:57; 20.0%; 1; 光刻胶+并购重组+回购</t>
         </is>
       </c>
+      <c r="CP6" t="inlineStr">
+        <is>
+          <t>300578.SZ; 会畅通讯; 0;  11:18:06; 首板涨停; 21.13;  11:18:06; 20.0%; 1; 云视频+Sora概念+华为客户+业绩增长</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -12202,6 +12267,11 @@
           <t>301277.SZ; 新天地; 0;  14:31:24; 首板涨停; 15.29;  14:31:24; 20.0%; 1; 原料药+左旋对羟基苯甘氨酸系列+研发投入增长</t>
         </is>
       </c>
+      <c r="CP7" t="inlineStr">
+        <is>
+          <t>301536.SZ; 星宸科技; 0;  13:36:30; 首板涨停; 63.97;  13:36:30; 20.0%; 1; AI眼镜+SoC芯片+机器人概念+智能车载</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -12452,6 +12522,11 @@
           <t>300963.SZ; 中洲特材; 3;  14:55:39; 首板涨停; 33.82;  14:47:00; 20.0%; 1; 核电+海工装备+焊材</t>
         </is>
       </c>
+      <c r="CP8" t="inlineStr">
+        <is>
+          <t>300069.SZ; 金利华电; 0;  13:46:36; 首板涨停; 22.91;  13:46:36; 20.0%; 1; 核电+电网设备+拟购买海德利森100%股权</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -12632,6 +12707,11 @@
           <t>300927.SZ; 江天化学; 0;  14:53:21; 首板涨停; 36.83;  14:53:21; 20.0%; 1; 甲醛+可用于生产季戊四醇+国企</t>
         </is>
       </c>
+      <c r="CP9" t="inlineStr">
+        <is>
+          <t>688648.SH; 中邮科技; 15;  14:13:33; 首板涨停; 55.2;  10:05:09; 20.0%; 1; 智能无人车+智能物流系统+机器视觉+央企</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -12780,6 +12860,11 @@
       <c r="CD10" t="inlineStr">
         <is>
           <t>302132.SZ; 中航成飞; 0;  13:53:09; 首板涨停; 79.88;  13:53:09; -4.0%; 1; 航空装备+军贸+无人机+人形机器人</t>
+        </is>
+      </c>
+      <c r="CP10" t="inlineStr">
+        <is>
+          <t>833781.BJ; 瑞奇智造; 2;  14:26:27; 首板涨停; 14.04;  13:48:33; 30.0%; 1; 核能装备+产能释放+客户优势</t>
         </is>
       </c>
     </row>
@@ -13554,7 +13639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CO178"/>
+  <dimension ref="A1:CP178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14023,6 +14108,11 @@
           <t>2025年05月23日</t>
         </is>
       </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月26日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -14463,6 +14553,11 @@
           <t>300149.SZ; 睿智医药; 4.0%; 12.5%; 7.92; 8.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t>300771.SZ; 智莱科技; 0.7%; 20.8%; 12.9; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14868,6 +14963,11 @@
           <t>301297.SZ; 富乐德; 1.8%; 12.7%; 47.7; 10.7%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CP3" t="inlineStr">
+        <is>
+          <t>300578.SZ; 会畅通讯; 0.1%; 20.1%; 21.13; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -15231,6 +15331,11 @@
       <c r="CO4" t="inlineStr">
         <is>
           <t>300204.SZ; 舒泰神; 1.3%; 13.2%; 16.52; 11.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CP4" t="inlineStr">
+        <is>
+          <t>301536.SZ; 星宸科技; 0.0%; 20.0%; 63.97; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -19455,7 +19560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CO21"/>
+  <dimension ref="A1:CP21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19924,6 +20029,11 @@
           <t>2025年05月23日</t>
         </is>
       </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月26日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -20389,6 +20499,11 @@
           <t>301316.SZ; 慧博云通; 49.01; -2.2%; 315179.0; 2</t>
         </is>
       </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 34.42; 1.8%; 218980.0; 12</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -20854,6 +20969,11 @@
           <t>300963.SZ; 中洲特材; 33.82; 20.0%; 262524.0; 4</t>
         </is>
       </c>
+      <c r="CP3" t="inlineStr">
+        <is>
+          <t>301137.SZ; 哈焊华通; 32.99; 20.0%; 172338.0; 24</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -21319,6 +21439,11 @@
           <t>300584.SZ; 海辰药业; 35.16; 20.0%; 99828.5; 27</t>
         </is>
       </c>
+      <c r="CP4" t="inlineStr">
+        <is>
+          <t>301316.SZ; 慧博云通; 50.61; 3.3%; 135977.5; 41</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -21784,6 +21909,11 @@
           <t>301277.SZ; 新天地; 15.29; 20.0%; 99472.5; 28</t>
         </is>
       </c>
+      <c r="CP5" t="inlineStr">
+        <is>
+          <t>300069.SZ; 金利华电; 22.91; 20.0%; 123784.5; 44</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -22249,6 +22379,11 @@
           <t>301137.SZ; 哈焊华通; 27.49; 20.0%; 77618.5; 42</t>
         </is>
       </c>
+      <c r="CP6" t="inlineStr">
+        <is>
+          <t>300678.SZ; 中科信息; 35.12; 20.0%; 116843.5; 51</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -22714,6 +22849,11 @@
           <t>300121.SZ; 阳谷华泰; 15.08; 20.0%; 72975.0; 48</t>
         </is>
       </c>
+      <c r="CP7" t="inlineStr">
+        <is>
+          <t>301536.SZ; 星宸科技; 63.97; 20.0%; 89166.5; 67</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -23179,6 +23319,11 @@
           <t>300353.SZ; 东土科技; 25.18; 13.2%; 71103.0; 50</t>
         </is>
       </c>
+      <c r="CP8" t="inlineStr">
+        <is>
+          <t>300085.SZ; 银之杰; 34.6; 4.8%; 88351.5; 68</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -23644,6 +23789,11 @@
           <t>301209.SZ; 联合化学; 124.15; 15.2%; 53456.5; 70</t>
         </is>
       </c>
+      <c r="CP9" t="inlineStr">
+        <is>
+          <t>300418.SZ; 昆仑万维; 37.45; 2.4%; 78837.0; 76</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -24109,6 +24259,11 @@
           <t>300418.SZ; 昆仑万维; 36.57; -2.3%; 52449.0; 73</t>
         </is>
       </c>
+      <c r="CP10" t="inlineStr">
+        <is>
+          <t>300353.SZ; 东土科技; 25.5; 1.3%; 77365.0; 78</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -24574,6 +24729,11 @@
           <t>301007.SZ; 德迈仕; 27.3; 20.0%; 48584.5; 80</t>
         </is>
       </c>
+      <c r="CP11" t="inlineStr">
+        <is>
+          <t>300771.SZ; 智莱科技; 12.9; 20.0%; 77227.0; 79</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -25039,6 +25199,11 @@
           <t>300204.SZ; 舒泰神; 16.52; 11.8%; 48320.5; 82</t>
         </is>
       </c>
+      <c r="CP12" t="inlineStr">
+        <is>
+          <t>301082.SZ; 久盛电气; 20.86; 13.2%; 76306.0; 80</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -25504,6 +25669,11 @@
           <t>301297.SZ; 富乐德; 47.7; 10.7%; 45775.0; 91</t>
         </is>
       </c>
+      <c r="CP13" t="inlineStr">
+        <is>
+          <t>300121.SZ; 阳谷华泰; 16.04; 6.4%; 64787.0; 93</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -25969,6 +26139,11 @@
           <t>300059.SZ; 东方财富; 20.78; -2.1%; 45315.5; 93</t>
         </is>
       </c>
+      <c r="CP14" t="inlineStr">
+        <is>
+          <t>833781.BJ; 瑞奇智造; 14.04; 30.0%; 62721.5; 96</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -26434,6 +26609,11 @@
           <t>301501.SZ; 恒鑫生活; 94.32; 20.0%; 41795.0; 106</t>
         </is>
       </c>
+      <c r="CP15" t="inlineStr">
+        <is>
+          <t>688648.SH; 中邮科技; 55.2; 20.0%; 62626.0; 97</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -26899,6 +27079,11 @@
           <t>301138.SZ; 华研精机; 43.41; 11.5%; 41782.0; 107</t>
         </is>
       </c>
+      <c r="CP16" t="inlineStr">
+        <is>
+          <t>300584.SZ; 海辰药业; 31.8; -9.6%; 62225.5; 98</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -27364,6 +27549,11 @@
           <t>301075.SZ; 多瑞医药; 28.92; 20.0%; 35514.5; 130</t>
         </is>
       </c>
+      <c r="CP17" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 17.3; 4.7%; 61571.0; 101</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -27829,6 +28019,11 @@
           <t>300139.SZ; 晓程科技; 19.79; 4.6%; 34661.0; 132</t>
         </is>
       </c>
+      <c r="CP18" t="inlineStr">
+        <is>
+          <t>300578.SZ; 会畅通讯; 21.13; 20.0%; 61430.0; 103</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -28294,6 +28489,11 @@
           <t>300149.SZ; 睿智医药; 7.92; 8.0%; 32556.5; 148</t>
         </is>
       </c>
+      <c r="CP19" t="inlineStr">
+        <is>
+          <t>688041.SH; 海光信息; 136.13; 0.0%; 55121.0; 117</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -28759,6 +28959,11 @@
           <t>300879.SZ; 大叶股份; 50.3; -1.5%; 32481.5; 149</t>
         </is>
       </c>
+      <c r="CP20" t="inlineStr">
+        <is>
+          <t>300493.SZ; 润欣科技; 20.73; 13.2%; 51977.5; 127</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -29222,6 +29427,11 @@
       <c r="CO21" t="inlineStr">
         <is>
           <t>300750.SZ; 宁德时代; 266.99; -1.3%; 31325.0; 154</t>
+        </is>
+      </c>
+      <c r="CP21" t="inlineStr">
+        <is>
+          <t>300750.SZ; 宁德时代; 255.9; -4.2%; 51274.0; 129</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CP7"/>
+  <dimension ref="A1:CQ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -904,6 +904,11 @@
           <t>2025年05月26日</t>
         </is>
       </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月27日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1169,6 +1174,11 @@
           <t>301137.SZ; 哈焊华通; 0;  09:35:45; 2天2板; 32.99;  09:35:45; 20.0%; 2; 可控核聚变+焊接材料+此前收购中达金属60%股权+央企</t>
         </is>
       </c>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t>688455.SH; 科捷智能; 2;  09:49:39; 2天2板; 17.28;  09:30:51; 20.0%; 2; 智能物流+机器人+海外订单增长</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1322,6 +1332,11 @@
       <c r="CN3" t="inlineStr">
         <is>
           <t>688336.SH; 三生国健; 13;  14:22:27; 4天4板; 54.67;  10:06:15; -3.6%; 4; 辉瑞合作+创新药研发+双特异性抗体+年报增长</t>
+        </is>
+      </c>
+      <c r="CQ3" t="inlineStr">
+        <is>
+          <t>301137.SZ; 哈焊华通; 2;  14:53:36; 3天3板; 39.59;  13:31:48; 20.0%; 3; 可控核聚变+焊接材料+此前收购中达金属60%股权+央企</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CP532"/>
+  <dimension ref="A1:CQ532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1983,6 +1998,11 @@
       <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>2025年05月26日</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月27日</t>
         </is>
       </c>
     </row>
@@ -7362,7 +7382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CP11"/>
+  <dimension ref="A1:CQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7836,6 +7856,11 @@
           <t>2025年05月26日</t>
         </is>
       </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月27日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8281,6 +8306,11 @@
           <t>300210.SZ; 森远股份; 1;  09:30:24; 11.05; 曾涨停; 8.2%; 0.00H;  09:30:24</t>
         </is>
       </c>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t>300509.SZ; 新美星; 1;  09:34:36; 8.8; 曾涨停; 12.4%; 0.01H;  09:34:36</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -8656,6 +8686,11 @@
           <t>301070.SZ; 开勒股份; 1;  10:03:15; 73.06; 曾涨停; 13.4%; 1.49H;  10:03:15</t>
         </is>
       </c>
+      <c r="CQ3" t="inlineStr">
+        <is>
+          <t>300534.SZ; 陇神戎发; 1;  09:51:51; 10.65; 曾涨停; 11.3%; 0.11H;  09:51:51</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -8931,6 +8966,11 @@
           <t>301082.SZ; 久盛电气; 1;  13:53:51; 20.86; 曾涨停; 13.2%; 0.09H;  13:53:51</t>
         </is>
       </c>
+      <c r="CQ4" t="inlineStr">
+        <is>
+          <t>300703.SZ; 创源股份; 1;  10:25:18; 20; 曾涨停; 14.4%; 3.03H;  10:25:18</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -9116,6 +9156,11 @@
           <t>301009.SZ; 可靠股份; 1;  10:39:42; 15.06; 曾涨停; 12.1%; 2.56H;  10:39:42</t>
         </is>
       </c>
+      <c r="CQ5" t="inlineStr">
+        <is>
+          <t>688336.SH; 三生国健; 2;  10:36:30; 58.9; 曾涨停; 15.3%; 0.00H;  10:36:30|| 10:37:18</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -9261,6 +9306,11 @@
           <t>832419.BJ; 路斯股份; 1;  10:53:27; 31.78; 曾涨停; 18.1%; 1.19H;  10:53:27</t>
         </is>
       </c>
+      <c r="CQ6" t="inlineStr">
+        <is>
+          <t>301190.SZ; 善水科技; 1;  13:32:21; 26.7; 曾涨停; 16.7%; 0.09H;  13:32:21</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -9334,6 +9384,11 @@
       <c r="BV7" t="inlineStr">
         <is>
           <t>301196.SZ; 唯科科技; 1;  13:06:31; 65.39; 曾涨停; -2.6%; 0.06H;  13:06:31</t>
+        </is>
+      </c>
+      <c r="CQ7" t="inlineStr">
+        <is>
+          <t>301277.SZ; 新天地; 1;  13:51:36; 16.41; 曾涨停; 14.1%; 0.02H;  13:51:36</t>
         </is>
       </c>
     </row>
@@ -9448,7 +9503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CP30"/>
+  <dimension ref="A1:CQ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9922,6 +9977,11 @@
           <t>2025年05月26日</t>
         </is>
       </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月27日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10387,6 +10447,11 @@
           <t>300678.SZ; 中科信息; 0;  09:55:48; 首板涨停; 35.12;  09:55:48; 20.0%; 1; 中科系+机器视觉+数字会议</t>
         </is>
       </c>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t>300858.SZ; 科拓生物; 0;  09:48:30; 首板涨停; 17.59;  09:48:30; 20.0%; 1; 益生菌+乳业、养殖业客户+业绩增长</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10837,6 +10902,11 @@
           <t>688455.SH; 科捷智能; 1;  10:11:27; 首板涨停; 14.4;  09:46:48; 20.0%; 1; 智能物流+机器人+海外订单增长</t>
         </is>
       </c>
+      <c r="CQ3" t="inlineStr">
+        <is>
+          <t>301260.SZ; 格力博; 0;  10:21:51; 首板涨停; 24.88;  10:21:51; 20.0%; 1; 机器人+新能源园林机械+中越美制造基地+外销</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11257,6 +11327,11 @@
           <t>301003.SZ; 江苏博云; 0;  10:17:24; 首板涨停; 35.1;  10:17:24; 20.0%; 1; 改性塑料+下游应用广泛</t>
         </is>
       </c>
+      <c r="CQ4" t="inlineStr">
+        <is>
+          <t>300464.SZ; 星徽股份; 0;  10:54:48; 首板涨停; 6.13;  10:54:48; 20.0%; 1; 精密五金+跨境电商+外销</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11635,6 +11710,11 @@
       <c r="CP5" t="inlineStr">
         <is>
           <t>300771.SZ; 智莱科技; 0;  10:25:57; 首板涨停; 12.9;  10:25:57; 20.0%; 1; 无人送货车+智能保管+医疗+外销</t>
+        </is>
+      </c>
+      <c r="CQ5" t="inlineStr">
+        <is>
+          <t>300575.SZ; 中旗股份; 0;  14:01:24; 首板涨停; 7.12;  14:01:24; 20.1%; 1; 农药+外销</t>
         </is>
       </c>
     </row>
@@ -13639,7 +13719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CP178"/>
+  <dimension ref="A1:CQ178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14113,6 +14193,11 @@
           <t>2025年05月26日</t>
         </is>
       </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月27日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -14558,6 +14643,11 @@
           <t>300771.SZ; 智莱科技; 0.7%; 20.8%; 12.9; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t>833781.BJ; 瑞奇智造; 5.9%; 15.7%; 15.29; 8.9%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14968,6 +15058,11 @@
           <t>300578.SZ; 会畅通讯; 0.1%; 20.1%; 21.13; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CQ3" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 2.9%; 14.3%; 19.2; 11.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -15338,6 +15433,11 @@
           <t>301536.SZ; 星宸科技; 0.0%; 20.0%; 63.97; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CQ4" t="inlineStr">
+        <is>
+          <t>688336.SH; 三生国健; 2.5%; 18.2%; 58.9; 15.3%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -15668,6 +15768,11 @@
           <t>301138.SZ; 华研精机; 0.7%; 12.2%; 43.41; 11.5%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CQ5" t="inlineStr">
+        <is>
+          <t>872895.BJ; 花溪科技; 1.2%; 12.2%; 30.88; 10.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -15968,6 +16073,11 @@
           <t>300353.SZ; 东土科技; 0.1%; 13.3%; 25.18; 13.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CQ6" t="inlineStr">
+        <is>
+          <t>301190.SZ; 善水科技; 0.7%; 17.5%; 26.7; 16.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -16246,6 +16356,11 @@
       <c r="CO7" t="inlineStr">
         <is>
           <t>688621.SH; 阳光诺和; 0.1%; 12.6%; 50.59; 12.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CQ7" t="inlineStr">
+        <is>
+          <t>300255.SZ; 常山药业; 0.1%; 15.0%; 31.7; 14.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -19560,7 +19675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CP21"/>
+  <dimension ref="A1:CQ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20034,6 +20149,11 @@
           <t>2025年05月26日</t>
         </is>
       </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月27日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -20504,6 +20624,11 @@
           <t>300963.SZ; 中洲特材; 34.42; 1.8%; 218980.0; 12</t>
         </is>
       </c>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t>301137.SZ; 哈焊华通; 39.59; 20.0%; 191419.0; 22</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -20974,6 +21099,11 @@
           <t>301137.SZ; 哈焊华通; 32.99; 20.0%; 172338.0; 24</t>
         </is>
       </c>
+      <c r="CQ3" t="inlineStr">
+        <is>
+          <t>300575.SZ; 中旗股份; 7.12; 20.1%; 184886.5; 24</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -21444,6 +21574,11 @@
           <t>301316.SZ; 慧博云通; 50.61; 3.3%; 135977.5; 41</t>
         </is>
       </c>
+      <c r="CQ4" t="inlineStr">
+        <is>
+          <t>300353.SZ; 东土科技; 26.68; 4.6%; 112835.5; 49</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -21914,6 +22049,11 @@
           <t>300069.SZ; 金利华电; 22.91; 20.0%; 123784.5; 44</t>
         </is>
       </c>
+      <c r="CQ5" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 34.87; 1.3%; 100361.5; 61</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -22384,6 +22524,11 @@
           <t>300678.SZ; 中科信息; 35.12; 20.0%; 116843.5; 51</t>
         </is>
       </c>
+      <c r="CQ6" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 19.2; 11.0%; 99266.0; 62</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -22854,6 +22999,11 @@
           <t>301536.SZ; 星宸科技; 63.97; 20.0%; 89166.5; 67</t>
         </is>
       </c>
+      <c r="CQ7" t="inlineStr">
+        <is>
+          <t>301260.SZ; 格力博; 24.88; 20.0%; 88356.0; 73</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -23324,6 +23474,11 @@
           <t>300085.SZ; 银之杰; 34.6; 4.8%; 88351.5; 68</t>
         </is>
       </c>
+      <c r="CQ8" t="inlineStr">
+        <is>
+          <t>301316.SZ; 慧博云通; 49.81; -1.6%; 80859.0; 81</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -23794,6 +23949,11 @@
           <t>300418.SZ; 昆仑万维; 37.45; 2.4%; 78837.0; 76</t>
         </is>
       </c>
+      <c r="CQ9" t="inlineStr">
+        <is>
+          <t>300255.SZ; 常山药业; 31.7; 14.9%; 75320.0; 88</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -24264,6 +24424,11 @@
           <t>300353.SZ; 东土科技; 25.5; 1.3%; 77365.0; 78</t>
         </is>
       </c>
+      <c r="CQ10" t="inlineStr">
+        <is>
+          <t>301277.SZ; 新天地; 16.41; 14.1%; 70973.0; 93</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -24734,6 +24899,11 @@
           <t>300771.SZ; 智莱科技; 12.9; 20.0%; 77227.0; 79</t>
         </is>
       </c>
+      <c r="CQ11" t="inlineStr">
+        <is>
+          <t>300703.SZ; 创源股份; 20; 14.4%; 70037.5; 94</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -25204,6 +25374,11 @@
           <t>301082.SZ; 久盛电气; 20.86; 13.2%; 76306.0; 80</t>
         </is>
       </c>
+      <c r="CQ12" t="inlineStr">
+        <is>
+          <t>300464.SZ; 星徽股份; 6.13; 20.0%; 69910.5; 95</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -25674,6 +25849,11 @@
           <t>300121.SZ; 阳谷华泰; 16.04; 6.4%; 64787.0; 93</t>
         </is>
       </c>
+      <c r="CQ13" t="inlineStr">
+        <is>
+          <t>300261.SZ; 雅本化学; 7.7; 12.4%; 68607.0; 96</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -26144,6 +26324,11 @@
           <t>833781.BJ; 瑞奇智造; 14.04; 30.0%; 62721.5; 96</t>
         </is>
       </c>
+      <c r="CQ14" t="inlineStr">
+        <is>
+          <t>300858.SZ; 科拓生物; 17.59; 20.0%; 64175.0; 102</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -26614,6 +26799,11 @@
           <t>688648.SH; 中邮科技; 55.2; 20.0%; 62626.0; 97</t>
         </is>
       </c>
+      <c r="CQ15" t="inlineStr">
+        <is>
+          <t>300927.SZ; 江天化学; 37.18; 8.3%; 52552.0; 118</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -27084,6 +27274,11 @@
           <t>300584.SZ; 海辰药业; 31.8; -9.6%; 62225.5; 98</t>
         </is>
       </c>
+      <c r="CQ16" t="inlineStr">
+        <is>
+          <t>301590.SZ; 优优绿能; nan; nan%; 49057.5; 129</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -27554,6 +27749,11 @@
           <t>300204.SZ; 舒泰神; 17.3; 4.7%; 61571.0; 101</t>
         </is>
       </c>
+      <c r="CQ17" t="inlineStr">
+        <is>
+          <t>300438.SZ; 鹏辉能源; 25.94; 9.6%; 48937.0; 130</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -28024,6 +28224,11 @@
           <t>300578.SZ; 会畅通讯; 21.13; 20.0%; 61430.0; 103</t>
         </is>
       </c>
+      <c r="CQ18" t="inlineStr">
+        <is>
+          <t>688455.SH; 科捷智能; 17.28; 20.0%; 47764.5; 133</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -28494,6 +28699,11 @@
           <t>688041.SH; 海光信息; 136.13; 0.0%; 55121.0; 117</t>
         </is>
       </c>
+      <c r="CQ19" t="inlineStr">
+        <is>
+          <t>688336.SH; 三生国健; 58.9; 15.3%; 44871.0; 143</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -28964,6 +29174,11 @@
           <t>300493.SZ; 润欣科技; 20.73; 13.2%; 51977.5; 127</t>
         </is>
       </c>
+      <c r="CQ20" t="inlineStr">
+        <is>
+          <t>300607.SZ; 拓斯达; 35.7; 3.7%; 44309.5; 147</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -29432,6 +29647,11 @@
       <c r="CP21" t="inlineStr">
         <is>
           <t>300750.SZ; 宁德时代; 255.9; -4.2%; 51274.0; 129</t>
+        </is>
+      </c>
+      <c r="CQ21" t="inlineStr">
+        <is>
+          <t>301190.SZ; 善水科技; 26.7; 16.7%; 43964.5; 150</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CQ7"/>
+  <dimension ref="A1:CS7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,6 +909,16 @@
           <t>2025年05月27日</t>
         </is>
       </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月28日</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月29日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1179,6 +1189,11 @@
           <t>688455.SH; 科捷智能; 2;  09:49:39; 2天2板; 17.28;  09:30:51; 20.0%; 2; 智能物流+机器人+海外订单增长</t>
         </is>
       </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>300815.SZ; 玉禾田; 4;  10:00:27; 2天2板; 26.78;  09:48:30; 20.0%; 2; 无人驾驶扫路机器人+城市服务运营商+AI大模型</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1337,6 +1352,11 @@
       <c r="CQ3" t="inlineStr">
         <is>
           <t>301137.SZ; 哈焊华通; 2;  14:53:36; 3天3板; 39.59;  13:31:48; 20.0%; 3; 可控核聚变+焊接材料+此前收购中达金属60%股权+央企</t>
+        </is>
+      </c>
+      <c r="CS3" t="inlineStr">
+        <is>
+          <t>300804.SZ; 广康生化; 0;  10:24:15; 2天2板; 41.26;  10:24:15; 20.0%; 2; 农药+杀虫剂+氯氰菊酯+外销</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CQ532"/>
+  <dimension ref="A1:CS532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2003,6 +2023,16 @@
       <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>2025年05月27日</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月28日</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月29日</t>
         </is>
       </c>
     </row>
@@ -7382,7 +7412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CQ11"/>
+  <dimension ref="A1:CS11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7861,6 +7891,16 @@
           <t>2025年05月27日</t>
         </is>
       </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月28日</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月29日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8311,6 +8351,16 @@
           <t>300509.SZ; 新美星; 1;  09:34:36; 8.8; 曾涨停; 12.4%; 0.01H;  09:34:36</t>
         </is>
       </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t>688455.SH; 科捷智能; 1;  09:30:34; 19.3; 曾涨停; 11.7%; 0.00H;  09:30:34</t>
+        </is>
+      </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>688280.SH; 精进电动; 2;  10:51:19; 8.27; 曾涨停; 14.5%; 0.03H;  10:51:19|| 10:53:07</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -8691,6 +8741,16 @@
           <t>300534.SZ; 陇神戎发; 1;  09:51:51; 10.65; 曾涨停; 11.3%; 0.11H;  09:51:51</t>
         </is>
       </c>
+      <c r="CR3" t="inlineStr">
+        <is>
+          <t>301082.SZ; 久盛电气; 1;  09:56:51; 22.66; 曾涨停; 13.1%; 0.01H;  09:56:51</t>
+        </is>
+      </c>
+      <c r="CS3" t="inlineStr">
+        <is>
+          <t>301112.SZ; 信邦智能; 1;  13:19:33; 42.94; 曾涨停; 15.6%; 1.60H;  13:19:33</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -8969,6 +9029,11 @@
       <c r="CQ4" t="inlineStr">
         <is>
           <t>300703.SZ; 创源股份; 1;  10:25:18; 20; 曾涨停; 14.4%; 3.03H;  10:25:18</t>
+        </is>
+      </c>
+      <c r="CS4" t="inlineStr">
+        <is>
+          <t>301290.SZ; 东星医疗; 3;  14:48:42; 28.88; 曾涨停; 15.9%; 0.04H;  14:48:42|| 14:49:15|| 14:51:00</t>
         </is>
       </c>
     </row>
@@ -9503,7 +9568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CQ30"/>
+  <dimension ref="A1:CS30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9982,6 +10047,16 @@
           <t>2025年05月27日</t>
         </is>
       </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月28日</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月29日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10452,6 +10527,16 @@
           <t>300858.SZ; 科拓生物; 0;  09:48:30; 首板涨停; 17.59;  09:48:30; 20.0%; 1; 益生菌+乳业、养殖业客户+业绩增长</t>
         </is>
       </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t>300997.SZ; 欢乐家; 0;  10:20:27; 首板涨停; 20.87;  10:20:27; 20.0%; 1; 植物蛋白饮料+水果罐头龙头+零食渠道拓展</t>
+        </is>
+      </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>688206.SH; 概伦电子; 0;  09:43:01; 首板涨停; 27.77;  09:43:01; 20.0%; 1; EDA行业+并购重组+一季报扭亏</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10907,6 +10992,16 @@
           <t>301260.SZ; 格力博; 0;  10:21:51; 首板涨停; 24.88;  10:21:51; 20.0%; 1; 机器人+新能源园林机械+中越美制造基地+外销</t>
         </is>
       </c>
+      <c r="CR3" t="inlineStr">
+        <is>
+          <t>300804.SZ; 广康生化; 2;  13:01:42; 首板涨停; 34.38;  09:34:45; 20.0%; 1; 农药+杀虫剂+氯氰菊酯+外销</t>
+        </is>
+      </c>
+      <c r="CS3" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 4;  09:48:03; 首板涨停; 23.04;  09:43:21; 20.0%; 1; 注射液获临床试验批准+创新药+血友病治疗药物</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11332,6 +11427,16 @@
           <t>300464.SZ; 星徽股份; 0;  10:54:48; 首板涨停; 6.13;  10:54:48; 20.0%; 1; 精密五金+跨境电商+外销</t>
         </is>
       </c>
+      <c r="CR4" t="inlineStr">
+        <is>
+          <t>300740.SZ; 水羊股份; 0;  13:11:57; 首板涨停; 16.91;  13:11:57; 20.0%; 1; 高端护肤+SPA合作</t>
+        </is>
+      </c>
+      <c r="CS4" t="inlineStr">
+        <is>
+          <t>300149.SZ; 睿智医药; 0;  09:55:24; 首板涨停; 8.56;  09:55:24; 20.1%; 1; CRO+创新药+细胞免疫治疗</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11717,6 +11822,16 @@
           <t>300575.SZ; 中旗股份; 0;  14:01:24; 首板涨停; 7.12;  14:01:24; 20.1%; 1; 农药+外销</t>
         </is>
       </c>
+      <c r="CR5" t="inlineStr">
+        <is>
+          <t>300422.SZ; 博世科; 1;  14:37:12; 首板涨停; 5.76;  09:31:42; 20.0%; 1; 重金属污染防治+智慧环卫+国企改革</t>
+        </is>
+      </c>
+      <c r="CS5" t="inlineStr">
+        <is>
+          <t>834475.BJ; 三友科技; 0;  09:57:12; 首板涨停; 24.67;  09:57:12; 30.0%; 1; 智能物流设备+有色金属电解设备+智能化转型</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -12062,6 +12177,16 @@
           <t>300578.SZ; 会畅通讯; 0;  11:18:06; 首板涨停; 21.13;  11:18:06; 20.0%; 1; 云视频+Sora概念+华为客户+业绩增长</t>
         </is>
       </c>
+      <c r="CR6" t="inlineStr">
+        <is>
+          <t>300815.SZ; 玉禾田; 3;  14:43:57; 首板涨停; 22.32;  09:43:12; 20.0%; 1; 无人驾驶扫路机器人+城市服务运营商+AI大模型</t>
+        </is>
+      </c>
+      <c r="CS6" t="inlineStr">
+        <is>
+          <t>301005.SZ; 超捷股份; 0;  10:09:39; 首板涨停; 36.61;  10:09:39; 20.0%; 1; 智元机器人订单+商业航天+汽车零部件+智能物流</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -12352,6 +12477,11 @@
           <t>301536.SZ; 星宸科技; 0;  13:36:30; 首板涨停; 63.97;  13:36:30; 20.0%; 1; AI眼镜+SoC芯片+机器人概念+智能车载</t>
         </is>
       </c>
+      <c r="CS7" t="inlineStr">
+        <is>
+          <t>300698.SZ; 万马科技; 1;  10:38:48; 首板涨停; 41.59;  10:00:27; 20.0%; 1; 车联网+无人驾驶+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -12607,6 +12737,11 @@
           <t>300069.SZ; 金利华电; 0;  13:46:36; 首板涨停; 22.91;  13:46:36; 20.0%; 1; 核电+电网设备+拟购买海德利森100%股权</t>
         </is>
       </c>
+      <c r="CS8" t="inlineStr">
+        <is>
+          <t>300682.SZ; 朗新集团; 0;  10:45:06; 首板涨停; 16.94;  10:45:06; 20.0%; 1; 区块链+能源数字化+AI技术应用+聚合充电平台</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -12792,6 +12927,11 @@
           <t>688648.SH; 中邮科技; 15;  14:13:33; 首板涨停; 55.2;  10:05:09; 20.0%; 1; 智能无人车+智能物流系统+机器视觉+央企</t>
         </is>
       </c>
+      <c r="CS9" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 0;  10:45:24; 首板涨停; 7.34;  10:45:24; 19.9%; 1; 金融科技+此前摘帽+战略投资+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -12947,6 +13087,11 @@
           <t>833781.BJ; 瑞奇智造; 2;  14:26:27; 首板涨停; 14.04;  13:48:33; 30.0%; 1; 核能装备+产能释放+客户优势</t>
         </is>
       </c>
+      <c r="CS10" t="inlineStr">
+        <is>
+          <t>300546.SZ; 雄帝科技; 1;  11:10:03; 首板涨停; 22.08;  10:57:24; 20.0%; 1; 数字货币+可信身份技术+智慧交通</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -13082,6 +13227,11 @@
           <t>688552.SH; 航天南湖; 0;  14:30:18; 首板涨停; 34.11;  14:30:18; 11.1%; 1; 军工+一季报增长+低空经济+央企</t>
         </is>
       </c>
+      <c r="CS11" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 0;  11:22:18; 首板涨停; 23.11;  11:22:18; 20.0%; 1; 数字货币+跨境支付+金融科技+AI智能体</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -13182,6 +13332,11 @@
           <t>688192.SH; 迪哲医药; 0;  14:23:49; 首板涨停; 56.38;  14:23:49; 4.4%; 1; 创新药+业绩增长</t>
         </is>
       </c>
+      <c r="CS12" t="inlineStr">
+        <is>
+          <t>300872.SZ; 天阳科技; 0;  11:29:21; 首板涨停; 18.62;  11:29:21; 20.0%; 1; 金融科技+银行IT解决方案</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -13262,6 +13417,11 @@
           <t>688458.SH; 美芯晟; 8;  14:50:41; 首板涨停; 40.52;  09:57:58; -1.5%; 1; 半导体+一季报预增+扫地机器人</t>
         </is>
       </c>
+      <c r="CS13" t="inlineStr">
+        <is>
+          <t>837748.BJ; 路桥信息; 0;  13:00:00; 首板涨停; 38.38;  13:00:00; 30.0%; 1; 交通数字化服务+机器人+股权变更+国企</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -13332,6 +13492,11 @@
           <t>835179.BJ; 凯德石英; 6;  14:54:16; 首板涨停; 34.05;  09:40:45; -3.9%; 1; 石英+半导体</t>
         </is>
       </c>
+      <c r="CS14" t="inlineStr">
+        <is>
+          <t>301024.SZ; 霍普股份; 0;  13:00:03; 首板涨停; 37.97;  13:00:03; 20.0%; 1; RWA（区块链）+蚂蚁合作+建筑绿能</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -13397,6 +13562,11 @@
           <t>300947.SZ; 德必集团; 2;  13:37:56; 首板涨停; 20.2;  13:35:12; -2.0%; 1; 文化创意产业园区+桃花坞文化IP+人工智能</t>
         </is>
       </c>
+      <c r="CS15" t="inlineStr">
+        <is>
+          <t>688382.SH; 益方生物; 2;  13:10:18; 首板涨停; 29.1;  11:04:51; 20.0%; 1; 创新药+肿瘤+自身免疫性疾病</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -13452,6 +13622,11 @@
           <t>834765.BJ; 美之高; 4;  14:09:17; 首板涨停; 22.3;  13:23:31; 0.5%; 1; 外销+收纳用品+电商</t>
         </is>
       </c>
+      <c r="CS16" t="inlineStr">
+        <is>
+          <t>301095.SZ; 广立微; 0;  13:42:21; 首板涨停; 56.74;  13:42:21; 20.0%; 1; EDA+晶圆级测试设备+国家大基金持股</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -13492,6 +13667,11 @@
           <t>301316.SZ; 慧博云通; 1;  14:52:08; 首板涨停; nan;  14:51:15; nan%; 1; IT服务+跨境支付+国际化业务</t>
         </is>
       </c>
+      <c r="CS17" t="inlineStr">
+        <is>
+          <t>300169.SZ; 天晟新材; 5;  13:42:54; 首板涨停; 8.26;  13:00:33; 20.1%; 1; 参股券商（拟转让）+高分子发泡材料+军工</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -13527,6 +13707,11 @@
           <t>300922.SZ; 天秦装备; 2;  13:59:06; 首板涨停; 22.1;  10:29:50; -6.2%; 1; 军工+防务装备</t>
         </is>
       </c>
+      <c r="CS18" t="inlineStr">
+        <is>
+          <t>300796.SZ; 贝斯美; 3;  14:33:00; 首板涨停; 11.51;  14:17:57; 20.0%; 1; 农药+外销</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -13562,6 +13747,11 @@
           <t>688722.SH; 同益中; 0;  14:07:29; 首板涨停; 23.5;  14:07:29; 2.8%; 1; 一季报预增+机器人手部腱绳+军工+化纤</t>
         </is>
       </c>
+      <c r="CS19" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 0;  14:50:54; 首板涨停; 23.75;  14:50:54; 20.0%; 1; 金融科技+跨境支付+AI应用</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -13585,6 +13775,11 @@
       <c r="BL20" t="inlineStr">
         <is>
           <t>833873.BJ; 中设咨询; 0;  14:12:44; 首板涨停; 5.87;  14:12:44; 1.2%; 1; 工程咨询服务+云计算+西部大开发</t>
+        </is>
+      </c>
+      <c r="CS20" t="inlineStr">
+        <is>
+          <t>301082.SZ; 久盛电气; 5;  14:55:21; 首板涨停; 27.19;  10:15:24; 20.0%; 1; 核电概念+防火电缆+矿物绝缘加热</t>
         </is>
       </c>
     </row>
@@ -13719,7 +13914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CQ178"/>
+  <dimension ref="A1:CS178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14198,6 +14393,16 @@
           <t>2025年05月27日</t>
         </is>
       </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月28日</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月29日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -14648,6 +14853,16 @@
           <t>833781.BJ; 瑞奇智造; 5.9%; 15.7%; 15.29; 8.9%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t>873576.BJ; 天力复合; 1.2%; 18.2%; 42.31; 16.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>300804.SZ; 广康生化; 6.9%; 28.9%; 41.26; 20.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -15063,6 +15278,16 @@
           <t>300204.SZ; 舒泰神; 2.9%; 14.3%; 19.2; 11.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CR3" t="inlineStr">
+        <is>
+          <t>300997.SZ; 欢乐家; 0.4%; 20.5%; 20.87; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CS3" t="inlineStr">
+        <is>
+          <t>301082.SZ; 久盛电气; 4.6%; 25.8%; 27.19; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -15438,6 +15663,11 @@
           <t>688336.SH; 三生国健; 2.5%; 18.2%; 58.9; 15.3%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CS4" t="inlineStr">
+        <is>
+          <t>301070.SZ; 开勒股份; 4.1%; 20.2%; 89.01; 15.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -15773,6 +16003,11 @@
           <t>872895.BJ; 花溪科技; 1.2%; 12.2%; 30.88; 10.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CS5" t="inlineStr">
+        <is>
+          <t>688648.SH; 中邮科技; 2.8%; 18.0%; 68.48; 14.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -16078,6 +16313,11 @@
           <t>301190.SZ; 善水科技; 0.7%; 17.5%; 26.7; 16.7%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CS6" t="inlineStr">
+        <is>
+          <t>838810.BJ; 春光智能; 2.2%; 16.2%; 24.4; 13.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -16363,6 +16603,11 @@
           <t>300255.SZ; 常山药业; 0.1%; 15.0%; 31.7; 14.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CS7" t="inlineStr">
+        <is>
+          <t>300796.SZ; 贝斯美; 2.0%; 22.4%; 11.51; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -16613,6 +16858,11 @@
           <t>300530.SZ; 领湃科技; 1.4%; 21.7%; 35.04; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CS8" t="inlineStr">
+        <is>
+          <t>688336.SH; 三生国健; 1.8%; 14.4%; 60.7; 12.4%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -16833,6 +17083,11 @@
           <t>300485.SZ; 赛升药业; 1.4%; 18.0%; 11.09; 16.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CS9" t="inlineStr">
+        <is>
+          <t>300746.SZ; 汉嘉设计; 1.3%; 14.9%; 15.7; 13.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -17028,6 +17283,11 @@
           <t>300584.SZ; 海辰药业; 1.0%; 21.2%; 27.48; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CS10" t="inlineStr">
+        <is>
+          <t>835579.BJ; 机科股份; 1.2%; 15.4%; 35.05; 14.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -17198,6 +17458,11 @@
           <t>301055.SZ; 张小泉; 0.2%; 12.3%; 20.85; 12.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CS11" t="inlineStr">
+        <is>
+          <t>300537.SZ; 广信材料; 1.2%; 15.9%; 20.56; 14.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -17318,6 +17583,11 @@
           <t>301317.SZ; 鑫磊股份; 0.0%; 20.1%; 32.7; 19.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CS12" t="inlineStr">
+        <is>
+          <t>300546.SZ; 雄帝科技; 1.1%; 21.3%; 22.08; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -17418,6 +17688,11 @@
           <t>300822.SZ; 贝仕达克; 0.1%; 20.1%; 21.06; -1.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CS13" t="inlineStr">
+        <is>
+          <t>300386.SZ; 飞天诚信; 1.0%; 14.0%; 19.25; 12.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -17503,6 +17778,11 @@
           <t>834261.BJ; 一诺威; 0.5%; 24.6%; 14.89; -4.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CS14" t="inlineStr">
+        <is>
+          <t>300531.SZ; 优博讯; 0.8%; 15.1%; 17.85; 14.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -17573,6 +17853,11 @@
           <t>300947.SZ; 德必集团; 0.5%; 20.6%; 20.2; -2.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CS15" t="inlineStr">
+        <is>
+          <t>837748.BJ; 路桥信息; 0.8%; 31.0%; 38.38; 30.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -17638,6 +17923,11 @@
           <t>300155.SZ; 安居宝; 0.5%; 20.0%; 4.58; -3.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CS16" t="inlineStr">
+        <is>
+          <t>300478.SZ; 杭州高新; 0.8%; 12.7%; 14.84; 11.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -17703,6 +17993,11 @@
           <t>300616.SZ; 尚品宅配; 0.1%; 20.1%; 12.69; -1.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CS17" t="inlineStr">
+        <is>
+          <t>300950.SZ; 德固特; 0.7%; 12.0%; 19.38; 11.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -17753,6 +18048,11 @@
           <t>688049.SH; 炬芯科技; 0.2%; 13.0%; 51.78; -3.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CS18" t="inlineStr">
+        <is>
+          <t>300900.SZ; 广联航空; 0.7%; 12.2%; 23.57; 11.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -17803,6 +18103,11 @@
           <t>301099.SZ; 雅创电子; 0.1%; 20.1%; 46.57; -2.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CS19" t="inlineStr">
+        <is>
+          <t>688382.SH; 益方生物; 0.5%; 20.6%; 29.1; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -17843,6 +18148,11 @@
           <t>300468.SZ; 四方精创; 3.2%; 14.2%; 19.15; -4.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CS20" t="inlineStr">
+        <is>
+          <t>301248.SZ; 杰创智能; 0.5%; 13.7%; 24.1; 13.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -17883,6 +18193,11 @@
           <t>835179.BJ; 凯德石英; 2.8%; 18.1%; 34.05; -3.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CS21" t="inlineStr">
+        <is>
+          <t>688799.SH; 华纳药厂; 0.5%; 12.6%; 41.05; 12.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -17918,6 +18233,11 @@
           <t>430198.BJ; 微创光电; 4.2%; 15.8%; 12.52; -0.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CS22" t="inlineStr">
+        <is>
+          <t>300872.SZ; 天阳科技; 0.5%; 20.5%; 18.62; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -17953,6 +18273,11 @@
           <t>300281.SZ; 金明精机; 4.2%; 13.3%; 7.93; -7.8%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CS23" t="inlineStr">
+        <is>
+          <t>300643.SZ; 万通智控; 0.3%; 12.2%; 23.49; 11.9%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -17988,6 +18313,11 @@
           <t>836270.BJ; 天铭科技; 4.2%; 12.6%; 17.92; 0.3%; 价升量涨||阳线||缩量</t>
         </is>
       </c>
+      <c r="CS24" t="inlineStr">
+        <is>
+          <t>300130.SZ; 新国都; 0.2%; 14.3%; 28.07; 14.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -18023,6 +18353,11 @@
           <t>872190.BJ; 雷神科技; 4.2%; 13.6%; 32.92; -2.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CS25" t="inlineStr">
+        <is>
+          <t>300682.SZ; 朗新集团; 0.2%; 20.2%; 16.94; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -18056,6 +18391,11 @@
       <c r="BL26" t="inlineStr">
         <is>
           <t>871263.BJ; 莱赛激光; 4.2%; 13.6%; 23.24; 17.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CS26" t="inlineStr">
+        <is>
+          <t>300149.SZ; 睿智医药; 0.1%; 20.2%; 8.56; 20.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -19675,7 +20015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CQ21"/>
+  <dimension ref="A1:CS21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20154,6 +20494,16 @@
           <t>2025年05月27日</t>
         </is>
       </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月28日</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月29日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -20629,6 +20979,16 @@
           <t>301137.SZ; 哈焊华通; 39.59; 20.0%; 191419.0; 22</t>
         </is>
       </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t>300740.SZ; 水羊股份; 16.91; 20.0%; 155977.5; 46</t>
+        </is>
+      </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 23.75; 20.0%; 288968.0; 8</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -21104,6 +21464,16 @@
           <t>300575.SZ; 中旗股份; 7.12; 20.1%; 184886.5; 24</t>
         </is>
       </c>
+      <c r="CR3" t="inlineStr">
+        <is>
+          <t>300815.SZ; 玉禾田; 22.32; 20.0%; 138269.0; 58</t>
+        </is>
+      </c>
+      <c r="CS3" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 23.11; 20.0%; 249688.5; 14</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -21579,6 +21949,16 @@
           <t>300353.SZ; 东土科技; 26.68; 4.6%; 112835.5; 49</t>
         </is>
       </c>
+      <c r="CR4" t="inlineStr">
+        <is>
+          <t>300997.SZ; 欢乐家; 20.87; 20.0%; 135679.5; 60</t>
+        </is>
+      </c>
+      <c r="CS4" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 23.04; 20.0%; 183307.0; 19</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -22054,6 +22434,16 @@
           <t>300963.SZ; 中洲特材; 34.87; 1.3%; 100361.5; 61</t>
         </is>
       </c>
+      <c r="CR5" t="inlineStr">
+        <is>
+          <t>300575.SZ; 中旗股份; 7.74; 8.7%; 131589.5; 62</t>
+        </is>
+      </c>
+      <c r="CS5" t="inlineStr">
+        <is>
+          <t>300546.SZ; 雄帝科技; 22.08; 20.0%; 178488.0; 20</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -22529,6 +22919,16 @@
           <t>300204.SZ; 舒泰神; 19.2; 11.0%; 99266.0; 62</t>
         </is>
       </c>
+      <c r="CR6" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 35.71; 2.4%; 130028.0; 65</t>
+        </is>
+      </c>
+      <c r="CS6" t="inlineStr">
+        <is>
+          <t>300815.SZ; 玉禾田; 26.78; 20.0%; 158165.0; 27</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -23004,6 +23404,16 @@
           <t>301260.SZ; 格力博; 24.88; 20.0%; 88356.0; 73</t>
         </is>
       </c>
+      <c r="CR7" t="inlineStr">
+        <is>
+          <t>300422.SZ; 博世科; 5.76; 20.0%; 124548.0; 71</t>
+        </is>
+      </c>
+      <c r="CS7" t="inlineStr">
+        <is>
+          <t>301082.SZ; 久盛电气; 27.19; 20.0%; 130690.0; 38</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -23479,6 +23889,16 @@
           <t>301316.SZ; 慧博云通; 49.81; -1.6%; 80859.0; 81</t>
         </is>
       </c>
+      <c r="CR8" t="inlineStr">
+        <is>
+          <t>300353.SZ; 东土科技; 25.19; -5.6%; 106753.5; 75</t>
+        </is>
+      </c>
+      <c r="CS8" t="inlineStr">
+        <is>
+          <t>300872.SZ; 天阳科技; 18.62; 20.0%; 102296.5; 55</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -23954,6 +24374,16 @@
           <t>300255.SZ; 常山药业; 31.7; 14.9%; 75320.0; 88</t>
         </is>
       </c>
+      <c r="CR9" t="inlineStr">
+        <is>
+          <t>301082.SZ; 久盛电气; 22.66; 13.1%; 101786.0; 85</t>
+        </is>
+      </c>
+      <c r="CS9" t="inlineStr">
+        <is>
+          <t>300130.SZ; 新国都; 28.07; 14.0%; 90767.5; 73</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -24429,6 +24859,16 @@
           <t>301277.SZ; 新天地; 16.41; 14.1%; 70973.0; 93</t>
         </is>
       </c>
+      <c r="CR10" t="inlineStr">
+        <is>
+          <t>300703.SZ; 创源股份; 22.2; 11.0%; 94703.5; 88</t>
+        </is>
+      </c>
+      <c r="CS10" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 34.13; -4.4%; 87325.5; 77</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -24904,6 +25344,16 @@
           <t>300703.SZ; 创源股份; 20; 14.4%; 70037.5; 94</t>
         </is>
       </c>
+      <c r="CR11" t="inlineStr">
+        <is>
+          <t>301137.SZ; 哈焊华通; 39.96; 0.9%; 94568.5; 89</t>
+        </is>
+      </c>
+      <c r="CS11" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 43.95; -2.4%; 86814.5; 79</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -25379,6 +25829,16 @@
           <t>300464.SZ; 星徽股份; 6.13; 20.0%; 69910.5; 95</t>
         </is>
       </c>
+      <c r="CR12" t="inlineStr">
+        <is>
+          <t>301316.SZ; 慧博云通; 45.07; -9.5%; 93913.5; 90</t>
+        </is>
+      </c>
+      <c r="CS12" t="inlineStr">
+        <is>
+          <t>300698.SZ; 万马科技; 41.59; 20.0%; 85249.0; 83</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -25854,6 +26314,16 @@
           <t>300261.SZ; 雅本化学; 7.7; 12.4%; 68607.0; 96</t>
         </is>
       </c>
+      <c r="CR13" t="inlineStr">
+        <is>
+          <t>301335.SZ; 天元宠物; 35.16; -9.3%; 80944.0; 102</t>
+        </is>
+      </c>
+      <c r="CS13" t="inlineStr">
+        <is>
+          <t>300149.SZ; 睿智医药; 8.56; 20.1%; 80974.0; 89</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -26329,6 +26799,16 @@
           <t>300858.SZ; 科拓生物; 17.59; 20.0%; 64175.0; 102</t>
         </is>
       </c>
+      <c r="CR14" t="inlineStr">
+        <is>
+          <t>300130.SZ; 新国都; 24.62; 16.3%; 80052.5; 106</t>
+        </is>
+      </c>
+      <c r="CS14" t="inlineStr">
+        <is>
+          <t>300255.SZ; 常山药业; 36.9; 15.6%; 78997.0; 93</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -26804,6 +27284,16 @@
           <t>300927.SZ; 江天化学; 37.18; 8.3%; 52552.0; 118</t>
         </is>
       </c>
+      <c r="CR15" t="inlineStr">
+        <is>
+          <t>300804.SZ; 广康生化; 34.38; 20.0%; 68931.5; 118</t>
+        </is>
+      </c>
+      <c r="CS15" t="inlineStr">
+        <is>
+          <t>300169.SZ; 天晟新材; 8.26; 20.1%; 70480.0; 102</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -27279,6 +27769,16 @@
           <t>301590.SZ; 优优绿能; nan; nan%; 49057.5; 129</t>
         </is>
       </c>
+      <c r="CR16" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 84.62; 6.1%; 65873.0; 131</t>
+        </is>
+      </c>
+      <c r="CS16" t="inlineStr">
+        <is>
+          <t>300180.SZ; 华峰超纤; 7.9; 11.7%; 68165.5; 104</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -27754,6 +28254,16 @@
           <t>300438.SZ; 鹏辉能源; 25.94; 9.6%; 48937.0; 130</t>
         </is>
       </c>
+      <c r="CR17" t="inlineStr">
+        <is>
+          <t>300771.SZ; 智莱科技; 13.57; 6.9%; 58958.5; 149</t>
+        </is>
+      </c>
+      <c r="CS17" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 7.34; 19.9%; 67540.5; 105</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -28229,6 +28739,16 @@
           <t>688455.SH; 科捷智能; 17.28; 20.0%; 47764.5; 133</t>
         </is>
       </c>
+      <c r="CR18" t="inlineStr">
+        <is>
+          <t>300945.SZ; 曼卡龙; 23.22; 4.9%; 54746.5; 159</t>
+        </is>
+      </c>
+      <c r="CS18" t="inlineStr">
+        <is>
+          <t>301095.SZ; 广立微; 56.74; 20.0%; 66438.5; 107</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -28704,6 +29224,16 @@
           <t>688336.SH; 三生国健; 58.9; 15.3%; 44871.0; 143</t>
         </is>
       </c>
+      <c r="CR19" t="inlineStr">
+        <is>
+          <t>300067.SZ; 安诺其; 5.76; 9.7%; 54436.0; 160</t>
+        </is>
+      </c>
+      <c r="CS19" t="inlineStr">
+        <is>
+          <t>300804.SZ; 广康生化; 41.26; 20.0%; 63379.5; 113</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -29179,6 +29709,16 @@
           <t>300607.SZ; 拓斯达; 35.7; 3.7%; 44309.5; 147</t>
         </is>
       </c>
+      <c r="CR20" t="inlineStr">
+        <is>
+          <t>300065.SZ; 海兰信; 17.18; 4.0%; 52028.5; 162</t>
+        </is>
+      </c>
+      <c r="CS20" t="inlineStr">
+        <is>
+          <t>301269.SZ; 华大九天; 133.36; 14.7%; 63313.0; 115</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -29652,6 +30192,16 @@
       <c r="CQ21" t="inlineStr">
         <is>
           <t>301190.SZ; 善水科技; 26.7; 16.7%; 43964.5; 150</t>
+        </is>
+      </c>
+      <c r="CR21" t="inlineStr">
+        <is>
+          <t>688648.SH; 中邮科技; 59.71; 5.4%; 50609.5; 165</t>
+        </is>
+      </c>
+      <c r="CS21" t="inlineStr">
+        <is>
+          <t>300353.SZ; 东土科技; 23.95; -4.9%; 59341.5; 129</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CS7"/>
+  <dimension ref="A1:CT7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,6 +919,11 @@
           <t>2025年05月29日</t>
         </is>
       </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月30日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1194,6 +1199,11 @@
           <t>300815.SZ; 玉禾田; 4;  10:00:27; 2天2板; 26.78;  09:48:30; 20.0%; 2; 无人驾驶扫路机器人+城市服务运营商+AI大模型</t>
         </is>
       </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>301024.SZ; 霍普股份; 0;  09:25:00; 2天2板; 45.56;  09:25:00; 20.0%; 2; RWA+蚂蚁合作+建筑绿能</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1359,6 +1369,11 @@
           <t>300804.SZ; 广康生化; 0;  10:24:15; 2天2板; 41.26;  10:24:15; 20.0%; 2; 农药+杀虫剂+氯氰菊酯+外销</t>
         </is>
       </c>
+      <c r="CT3" t="inlineStr">
+        <is>
+          <t>300149.SZ; 睿智医药; 14;  14:47:06; 2天2板; 10.27;  10:03:12; 20.0%; 2; CRO+创新药+细胞免疫治疗</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1442,6 +1457,11 @@
       <c r="CM4" t="inlineStr">
         <is>
           <t>688336.SH; 三生国健; 1;  09:32:11; 3天3板; 47.24;  09:25:02; 20.0%; 3; 与辉瑞订立许可协议+创新药+自免+重组蛋白</t>
+        </is>
+      </c>
+      <c r="CT4" t="inlineStr">
+        <is>
+          <t>837748.BJ; 路桥信息; 1;  14:48:46; 2天2板; 49.89;  14:46:34; 30.0%; 2; 交通数字化服务+机器人+股权变更+国企</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CS532"/>
+  <dimension ref="A1:CT532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2033,6 +2053,11 @@
       <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>2025年05月29日</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月30日</t>
         </is>
       </c>
     </row>
@@ -7412,7 +7437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CS11"/>
+  <dimension ref="A1:CT11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7901,6 +7926,11 @@
           <t>2025年05月29日</t>
         </is>
       </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月30日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8361,6 +8391,11 @@
           <t>688280.SH; 精进电动; 2;  10:51:19; 8.27; 曾涨停; 14.5%; 0.03H;  10:51:19|| 10:53:07</t>
         </is>
       </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>300546.SZ; 雄帝科技; 7;  09:30:36; 25; 曾涨停; 13.2%; 0.16H;  09:30:36|| 09:37:39|| 09:37:57|| 09:38:27|| 09:47:00|| 10:42:54|| 14:46:03</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -8751,6 +8786,11 @@
           <t>301112.SZ; 信邦智能; 1;  13:19:33; 42.94; 曾涨停; 15.6%; 1.60H;  13:19:33</t>
         </is>
       </c>
+      <c r="CT3" t="inlineStr">
+        <is>
+          <t>688799.SH; 华纳药厂; 5;  10:51:49; 46.36; 曾涨停; 12.9%; 0.35H;  10:51:49|| 10:54:19|| 11:02:25|| 11:07:43|| 11:27:22</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -9034,6 +9074,11 @@
       <c r="CS4" t="inlineStr">
         <is>
           <t>301290.SZ; 东星医疗; 3;  14:48:42; 28.88; 曾涨停; 15.9%; 0.04H;  14:48:42|| 14:49:15|| 14:51:00</t>
+        </is>
+      </c>
+      <c r="CT4" t="inlineStr">
+        <is>
+          <t>301633.SZ; 港迪技术; 1;  10:58:15; 79.96; 曾涨停; 14.6%; 0.03H;  10:58:15</t>
         </is>
       </c>
     </row>
@@ -9568,7 +9613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CS30"/>
+  <dimension ref="A1:CT30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10057,6 +10102,11 @@
           <t>2025年05月29日</t>
         </is>
       </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月30日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10535,6 +10585,11 @@
       <c r="CS2" t="inlineStr">
         <is>
           <t>688206.SH; 概伦电子; 0;  09:43:01; 首板涨停; 27.77;  09:43:01; 20.0%; 1; EDA行业+并购重组+一季报扭亏</t>
+        </is>
+      </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>688070.SH; 纵横股份; 3;  14:28:08; 首板涨停; 47.11;  13:10:44; 20.0%; 1; 低空经济+无人机+中标项目</t>
         </is>
       </c>
     </row>
@@ -13914,7 +13969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CS178"/>
+  <dimension ref="A1:CT178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14403,6 +14458,11 @@
           <t>2025年05月29日</t>
         </is>
       </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月30日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -14863,6 +14923,11 @@
           <t>300804.SZ; 广康生化; 6.9%; 28.9%; 41.26; 20.0%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>688488.SH; 艾迪药业; 1.0%; 13.1%; 13.85; 12.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -15288,6 +15353,11 @@
           <t>301082.SZ; 久盛电气; 4.6%; 25.8%; 27.19; 20.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CT3" t="inlineStr">
+        <is>
+          <t>688799.SH; 华纳药厂; 0.7%; 13.7%; 46.36; 12.9%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -15668,6 +15738,11 @@
           <t>301070.SZ; 开勒股份; 4.1%; 20.2%; 89.01; 15.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CT4" t="inlineStr">
+        <is>
+          <t>300975.SZ; 商络电子; 0.4%; 13.2%; 12.3; 12.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -16008,6 +16083,11 @@
           <t>688648.SH; 中邮科技; 2.8%; 18.0%; 68.48; 14.7%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CT5" t="inlineStr">
+        <is>
+          <t>301633.SZ; 港迪技术; 0.3%; 14.9%; 79.96; 14.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -16318,6 +16398,11 @@
           <t>838810.BJ; 春光智能; 2.2%; 16.2%; 24.4; 13.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CT6" t="inlineStr">
+        <is>
+          <t>430047.BJ; 诺思兰德; 0.2%; 15.1%; 20.94; 14.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -16606,6 +16691,11 @@
       <c r="CS7" t="inlineStr">
         <is>
           <t>300796.SZ; 贝斯美; 2.0%; 22.4%; 11.51; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="CT7" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 0.2%; 15.2%; 26.5; 15.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
     </row>
@@ -20015,7 +20105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CS21"/>
+  <dimension ref="A1:CT21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20504,6 +20594,11 @@
           <t>2025年05月29日</t>
         </is>
       </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2025年05月30日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -20989,6 +21084,11 @@
           <t>300773.SZ; 拉卡拉; 23.75; 20.0%; 288968.0; 8</t>
         </is>
       </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 26.5; 15.0%; 129979.5; 14</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -21474,6 +21574,11 @@
           <t>300468.SZ; 四方精创; 23.11; 20.0%; 249688.5; 14</t>
         </is>
       </c>
+      <c r="CT3" t="inlineStr">
+        <is>
+          <t>300149.SZ; 睿智医药; 10.27; 20.0%; 95120.5; 27</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -21959,6 +22064,11 @@
           <t>300204.SZ; 舒泰神; 23.04; 20.0%; 183307.0; 19</t>
         </is>
       </c>
+      <c r="CT4" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 24.79; 7.3%; 85209.5; 30</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -22444,6 +22554,11 @@
           <t>300546.SZ; 雄帝科技; 22.08; 20.0%; 178488.0; 20</t>
         </is>
       </c>
+      <c r="CT5" t="inlineStr">
+        <is>
+          <t>300546.SZ; 雄帝科技; 25; 13.2%; 80252.0; 36</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -22929,6 +23044,11 @@
           <t>300815.SZ; 玉禾田; 26.78; 20.0%; 158165.0; 27</t>
         </is>
       </c>
+      <c r="CT6" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 24.56; 3.4%; 65288.5; 47</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -23414,6 +23534,11 @@
           <t>301082.SZ; 久盛电气; 27.19; 20.0%; 130690.0; 38</t>
         </is>
       </c>
+      <c r="CT7" t="inlineStr">
+        <is>
+          <t>837748.BJ; 路桥信息; 49.89; 30.0%; 59044.5; 51</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -23899,6 +24024,11 @@
           <t>300872.SZ; 天阳科技; 18.62; 20.0%; 102296.5; 55</t>
         </is>
       </c>
+      <c r="CT8" t="inlineStr">
+        <is>
+          <t>300065.SZ; 海兰信; 18.34; 6.2%; 56280.5; 57</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -24384,6 +24514,11 @@
           <t>300130.SZ; 新国都; 28.07; 14.0%; 90767.5; 73</t>
         </is>
       </c>
+      <c r="CT9" t="inlineStr">
+        <is>
+          <t>301024.SZ; 霍普股份; 45.56; 20.0%; 50323.0; 65</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -24869,6 +25004,11 @@
           <t>300963.SZ; 中洲特材; 34.13; -4.4%; 87325.5; 77</t>
         </is>
       </c>
+      <c r="CT10" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 29.2; -14.4%; 47639.5; 70</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -25354,6 +25494,11 @@
           <t>300100.SZ; 双林股份; 43.95; -2.4%; 86814.5; 79</t>
         </is>
       </c>
+      <c r="CT11" t="inlineStr">
+        <is>
+          <t>300872.SZ; 天阳科技; 19.5; 4.7%; 45765.0; 74</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -25839,6 +25984,11 @@
           <t>300698.SZ; 万马科技; 41.59; 20.0%; 85249.0; 83</t>
         </is>
       </c>
+      <c r="CT12" t="inlineStr">
+        <is>
+          <t>301082.SZ; 久盛电气; 22.62; -16.8%; 41043.5; 92</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -26324,6 +26474,11 @@
           <t>300149.SZ; 睿智医药; 8.56; 20.1%; 80974.0; 89</t>
         </is>
       </c>
+      <c r="CT13" t="inlineStr">
+        <is>
+          <t>301316.SZ; 慧博云通; 41.61; -7.6%; 34056.5; 118</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -26809,6 +26964,11 @@
           <t>300255.SZ; 常山药业; 36.9; 15.6%; 78997.0; 93</t>
         </is>
       </c>
+      <c r="CT14" t="inlineStr">
+        <is>
+          <t>300255.SZ; 常山药业; 37.39; 1.3%; 32394.0; 127</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -27294,6 +27454,11 @@
           <t>300169.SZ; 天晟新材; 8.26; 20.1%; 70480.0; 102</t>
         </is>
       </c>
+      <c r="CT15" t="inlineStr">
+        <is>
+          <t>302132.SZ; 中航成飞; 76.74; -1.1%; 32055.5; 129</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -27779,6 +27944,11 @@
           <t>300180.SZ; 华峰超纤; 7.9; 11.7%; 68165.5; 104</t>
         </is>
       </c>
+      <c r="CT16" t="inlineStr">
+        <is>
+          <t>300815.SZ; 玉禾田; 24.7; -7.8%; 31526.0; 133</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -28264,6 +28434,11 @@
           <t>300368.SZ; 汇金股份; 7.34; 19.9%; 67540.5; 105</t>
         </is>
       </c>
+      <c r="CT17" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 86.48; 2.6%; 30876.0; 137</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -28749,6 +28924,11 @@
           <t>301095.SZ; 广立微; 56.74; 20.0%; 66438.5; 107</t>
         </is>
       </c>
+      <c r="CT18" t="inlineStr">
+        <is>
+          <t>688070.SH; 纵横股份; 47.11; 20.0%; 30795.5; 138</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -29234,6 +29414,11 @@
           <t>300804.SZ; 广康生化; 41.26; 20.0%; 63379.5; 113</t>
         </is>
       </c>
+      <c r="CT19" t="inlineStr">
+        <is>
+          <t>300975.SZ; 商络电子; 12.3; 12.7%; 30273.5; 142</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -29719,6 +29904,11 @@
           <t>301269.SZ; 华大九天; 133.36; 14.7%; 63313.0; 115</t>
         </is>
       </c>
+      <c r="CT20" t="inlineStr">
+        <is>
+          <t>300678.SZ; 中科信息; 35.48; 6.0%; 28993.0; 144</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -30202,6 +30392,11 @@
       <c r="CS21" t="inlineStr">
         <is>
           <t>300353.SZ; 东土科技; 23.95; -4.9%; 59341.5; 129</t>
+        </is>
+      </c>
+      <c r="CT21" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 88.27; 1.3%; 26697.5; 155</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CT7"/>
+  <dimension ref="A1:CU7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -922,6 +922,11 @@
       <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>2025年05月30日</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月03日</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CT532"/>
+  <dimension ref="A1:CU532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2058,6 +2063,11 @@
       <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>2025年05月30日</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月03日</t>
         </is>
       </c>
     </row>
@@ -7437,7 +7447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CT11"/>
+  <dimension ref="A1:CU11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7931,6 +7941,11 @@
           <t>2025年05月30日</t>
         </is>
       </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月03日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8396,6 +8411,11 @@
           <t>300546.SZ; 雄帝科技; 7;  09:30:36; 25; 曾涨停; 13.2%; 0.16H;  09:30:36|| 09:37:39|| 09:37:57|| 09:38:27|| 09:47:00|| 10:42:54|| 14:46:03</t>
         </is>
       </c>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t>301024.SZ; 霍普股份; 2;  09:32:57; 51.8; 曾涨停; 13.7%; 2.47H;  09:32:57|| 09:33:42</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -8791,6 +8811,11 @@
           <t>688799.SH; 华纳药厂; 5;  10:51:49; 46.36; 曾涨停; 12.9%; 0.35H;  10:51:49|| 10:54:19|| 11:02:25|| 11:07:43|| 11:27:22</t>
         </is>
       </c>
+      <c r="CU3" t="inlineStr">
+        <is>
+          <t>300315.SZ; 掌趣科技; 1;  09:49:09; 5.75; 曾涨停; 14.5%; 0.35H;  09:49:09</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -9081,6 +9106,11 @@
           <t>301633.SZ; 港迪技术; 1;  10:58:15; 79.96; 曾涨停; 14.6%; 0.03H;  10:58:15</t>
         </is>
       </c>
+      <c r="CU4" t="inlineStr">
+        <is>
+          <t>300702.SZ; 天宇股份; 1;  11:10:09; 27.14; 曾涨停; 19.7%; 0.08H;  11:10:09</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -9271,6 +9301,11 @@
           <t>688336.SH; 三生国健; 2;  10:36:30; 58.9; 曾涨停; 15.3%; 0.00H;  10:36:30|| 10:37:18</t>
         </is>
       </c>
+      <c r="CU5" t="inlineStr">
+        <is>
+          <t>301225.SZ; 恒勃股份; 1;  11:22:18; 82.85; 曾涨停; 17.1%; 0.28H;  11:22:18</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -9419,6 +9454,11 @@
       <c r="CQ6" t="inlineStr">
         <is>
           <t>301190.SZ; 善水科技; 1;  13:32:21; 26.7; 曾涨停; 16.7%; 0.09H;  13:32:21</t>
+        </is>
+      </c>
+      <c r="CU6" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 1;  13:58:18; 31.8; 曾涨停; 20.0%; 0.98H;  13:58:18</t>
         </is>
       </c>
     </row>
@@ -9613,7 +9653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CT30"/>
+  <dimension ref="A1:CU30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10107,6 +10147,11 @@
           <t>2025年05月30日</t>
         </is>
       </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月03日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10592,6 +10637,11 @@
           <t>688070.SH; 纵横股份; 3;  14:28:08; 首板涨停; 47.11;  13:10:44; 20.0%; 1; 低空经济+无人机+中标项目</t>
         </is>
       </c>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t>300651.SZ; 金陵体育; 0;  09:39:42; 首板涨停; 20.4;  09:39:42; 20.0%; 1; 足球器材+消费服务转型</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -11057,6 +11107,11 @@
           <t>300204.SZ; 舒泰神; 4;  09:48:03; 首板涨停; 23.04;  09:43:21; 20.0%; 1; 注射液获临床试验批准+创新药+血友病治疗药物</t>
         </is>
       </c>
+      <c r="CU3" t="inlineStr">
+        <is>
+          <t>300865.SZ; 大宏立; 0;  09:56:18; 首板涨停; 27.74;  09:56:18; 20.0%; 1; 无人机+业绩增长+海外拓展</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11492,6 +11547,11 @@
           <t>300149.SZ; 睿智医药; 0;  09:55:24; 首板涨停; 8.56;  09:55:24; 20.1%; 1; CRO+创新药+细胞免疫治疗</t>
         </is>
       </c>
+      <c r="CU4" t="inlineStr">
+        <is>
+          <t>300703.SZ; 创源股份; 0;  11:14:12; 首板涨停; 24.43;  11:14:12; 20.0%; 1; IP经济+宠物经济+文创消费品+外销</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11887,6 +11947,11 @@
           <t>834475.BJ; 三友科技; 0;  09:57:12; 首板涨停; 24.67;  09:57:12; 30.0%; 1; 智能物流设备+有色金属电解设备+智能化转型</t>
         </is>
       </c>
+      <c r="CU5" t="inlineStr">
+        <is>
+          <t>300945.SZ; 曼卡龙; 0;  11:27:12; 首板涨停; 25.1;  11:27:12; 20.0%; 1; 黄金+珠宝+IP经济</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -12242,6 +12307,11 @@
           <t>301005.SZ; 超捷股份; 0;  10:09:39; 首板涨停; 36.61;  10:09:39; 20.0%; 1; 智元机器人订单+商业航天+汽车零部件+智能物流</t>
         </is>
       </c>
+      <c r="CU6" t="inlineStr">
+        <is>
+          <t>871263.BJ; 莱赛激光; 2;  13:29:59; 首板涨停; 23.79;  10:00:26; 30.0%; 1; 无人机照明+激光测量+激光雷达应用</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -12537,6 +12607,11 @@
           <t>300698.SZ; 万马科技; 1;  10:38:48; 首板涨停; 41.59;  10:00:27; 20.0%; 1; 车联网+无人驾驶+一季报增长</t>
         </is>
       </c>
+      <c r="CU7" t="inlineStr">
+        <is>
+          <t>300238.SZ; 冠昊生物; 6;  14:08:15; 首板涨停; 18.38;  09:54:45; 20.0%; 1; 再生医学材料+细胞免疫治疗</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -12797,6 +12872,11 @@
           <t>300682.SZ; 朗新集团; 0;  10:45:06; 首板涨停; 16.94;  10:45:06; 20.0%; 1; 区块链+能源数字化+AI技术应用+聚合充电平台</t>
         </is>
       </c>
+      <c r="CU8" t="inlineStr">
+        <is>
+          <t>688799.SH; 华纳药厂; 3;  14:21:59; 首板涨停; 55.63;  14:10:05; 20.0%; 1; 创新药+原料制剂一体化</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -12985,6 +13065,11 @@
       <c r="CS9" t="inlineStr">
         <is>
           <t>300368.SZ; 汇金股份; 0;  10:45:24; 首板涨停; 7.34;  10:45:24; 19.9%; 1; 金融科技+此前摘帽+战略投资+国企改革</t>
+        </is>
+      </c>
+      <c r="CU9" t="inlineStr">
+        <is>
+          <t>300016.SZ; 北陆药业; 0;  14:40:15; 首板涨停; 8.36;  14:40:15; 19.9%; 1; 中药+创新药+业绩增长</t>
         </is>
       </c>
     </row>
@@ -13969,7 +14054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CT178"/>
+  <dimension ref="A1:CU178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14463,6 +14548,11 @@
           <t>2025年05月30日</t>
         </is>
       </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月03日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -14928,6 +15018,11 @@
           <t>688488.SH; 艾迪药业; 1.0%; 13.1%; 13.85; 12.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t>300149.SZ; 睿智医药; 7.9%; 22.8%; 11.62; 13.1%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -15358,6 +15453,11 @@
           <t>688799.SH; 华纳药厂; 0.7%; 13.7%; 46.36; 12.9%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CU3" t="inlineStr">
+        <is>
+          <t>300804.SZ; 广康生化; 6.1%; 12.6%; 44.68; 5.8%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -15743,6 +15843,11 @@
           <t>300975.SZ; 商络电子; 0.4%; 13.2%; 12.3; 12.7%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CU4" t="inlineStr">
+        <is>
+          <t>430047.BJ; 诺思兰德; 4.9%; 25.0%; 24.88; 18.8%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -16088,6 +16193,11 @@
           <t>301633.SZ; 港迪技术; 0.3%; 14.9%; 79.96; 14.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CU5" t="inlineStr">
+        <is>
+          <t>872351.BJ; 华光源海; 4.6%; 13.1%; 34.5; 7.9%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -16403,6 +16513,11 @@
           <t>430047.BJ; 诺思兰德; 0.2%; 15.1%; 20.94; 14.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CU6" t="inlineStr">
+        <is>
+          <t>688799.SH; 华纳药厂; 4.5%; 25.6%; 55.63; 20.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -16698,6 +16813,11 @@
           <t>300204.SZ; 舒泰神; 0.2%; 15.2%; 26.5; 15.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CU7" t="inlineStr">
+        <is>
+          <t>301277.SZ; 新天地; 2.7%; 14.0%; 17.55; 11.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -16953,6 +17073,11 @@
           <t>688336.SH; 三生国健; 1.8%; 14.4%; 60.7; 12.4%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CU8" t="inlineStr">
+        <is>
+          <t>688206.SH; 概伦电子; 2.6%; 12.8%; 31.79; 9.8%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -17178,6 +17303,11 @@
           <t>300746.SZ; 汉嘉设计; 1.3%; 14.9%; 15.7; 13.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CU9" t="inlineStr">
+        <is>
+          <t>300238.SZ; 冠昊生物; 2.5%; 23.0%; 18.38; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -17378,6 +17508,11 @@
           <t>835579.BJ; 机科股份; 1.2%; 15.4%; 35.05; 14.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CU10" t="inlineStr">
+        <is>
+          <t>300082.SZ; 奥克股份; 2.4%; 14.5%; 8.36; 11.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -17553,6 +17688,11 @@
           <t>300537.SZ; 广信材料; 1.2%; 15.9%; 20.56; 14.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CU11" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 2.2%; 14.3%; 35.14; 11.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -17678,6 +17818,11 @@
           <t>300546.SZ; 雄帝科技; 1.1%; 21.3%; 22.08; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CU12" t="inlineStr">
+        <is>
+          <t>688136.SH; 科兴制药; 1.8%; 17.1%; 61.73; 15.0%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -17783,6 +17928,11 @@
           <t>300386.SZ; 飞天诚信; 1.0%; 14.0%; 19.25; 12.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CU13" t="inlineStr">
+        <is>
+          <t>300740.SZ; 水羊股份; 1.3%; 14.2%; 17.79; 12.7%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -17873,6 +18023,11 @@
           <t>300531.SZ; 优博讯; 0.8%; 15.1%; 17.85; 14.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CU14" t="inlineStr">
+        <is>
+          <t>300683.SZ; 海特生物; 0.6%; 13.9%; 28.59; 13.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -17946,6 +18101,11 @@
       <c r="CS15" t="inlineStr">
         <is>
           <t>837748.BJ; 路桥信息; 0.8%; 31.0%; 38.38; 30.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CU15" t="inlineStr">
+        <is>
+          <t>833429.BJ; 康比特; 0.5%; 14.7%; 30.46; 14.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -20105,7 +20265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CT21"/>
+  <dimension ref="A1:CU21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20599,6 +20759,11 @@
           <t>2025年05月30日</t>
         </is>
       </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月03日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -21089,6 +21254,11 @@
           <t>300204.SZ; 舒泰神; 26.5; 15.0%; 129979.5; 14</t>
         </is>
       </c>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 31.8; 20.0%; 425091.0; 3</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -21579,6 +21749,11 @@
           <t>300149.SZ; 睿智医药; 10.27; 20.0%; 95120.5; 27</t>
         </is>
       </c>
+      <c r="CU3" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 27.41; 10.6%; 162074.0; 25</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -22069,6 +22244,11 @@
           <t>300468.SZ; 四方精创; 24.79; 7.3%; 85209.5; 30</t>
         </is>
       </c>
+      <c r="CU4" t="inlineStr">
+        <is>
+          <t>300651.SZ; 金陵体育; 20.4; 20.0%; 136771.0; 38</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -22559,6 +22739,11 @@
           <t>300546.SZ; 雄帝科技; 25; 13.2%; 80252.0; 36</t>
         </is>
       </c>
+      <c r="CU5" t="inlineStr">
+        <is>
+          <t>300238.SZ; 冠昊生物; 18.38; 20.0%; 131825.5; 42</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -23049,6 +23234,11 @@
           <t>300773.SZ; 拉卡拉; 24.56; 3.4%; 65288.5; 47</t>
         </is>
       </c>
+      <c r="CU6" t="inlineStr">
+        <is>
+          <t>300315.SZ; 掌趣科技; 5.75; 14.5%; 122077.5; 48</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -23539,6 +23729,11 @@
           <t>837748.BJ; 路桥信息; 49.89; 30.0%; 59044.5; 51</t>
         </is>
       </c>
+      <c r="CU7" t="inlineStr">
+        <is>
+          <t>300945.SZ; 曼卡龙; 25.1; 20.0%; 119257.5; 50</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -24029,6 +24224,11 @@
           <t>300065.SZ; 海兰信; 18.34; 6.2%; 56280.5; 57</t>
         </is>
       </c>
+      <c r="CU8" t="inlineStr">
+        <is>
+          <t>300016.SZ; 北陆药业; 8.36; 19.9%; 118896.5; 51</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -24519,6 +24719,11 @@
           <t>301024.SZ; 霍普股份; 45.56; 20.0%; 50323.0; 65</t>
         </is>
       </c>
+      <c r="CU9" t="inlineStr">
+        <is>
+          <t>300703.SZ; 创源股份; 24.43; 20.0%; 112371.0; 57</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -25009,6 +25214,11 @@
           <t>300963.SZ; 中洲特材; 29.2; -14.4%; 47639.5; 70</t>
         </is>
       </c>
+      <c r="CU10" t="inlineStr">
+        <is>
+          <t>300149.SZ; 睿智医药; 11.62; 13.1%; 105539.5; 60</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -25499,6 +25709,11 @@
           <t>300872.SZ; 天阳科技; 19.5; 4.7%; 45765.0; 74</t>
         </is>
       </c>
+      <c r="CU11" t="inlineStr">
+        <is>
+          <t>300546.SZ; 雄帝科技; 25.18; 0.7%; 101335.0; 64</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -25989,6 +26204,11 @@
           <t>301082.SZ; 久盛电气; 22.62; -16.8%; 41043.5; 92</t>
         </is>
       </c>
+      <c r="CU12" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 24.37; -0.8%; 82330.5; 83</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -26479,6 +26699,11 @@
           <t>301316.SZ; 慧博云通; 41.61; -7.6%; 34056.5; 118</t>
         </is>
       </c>
+      <c r="CU13" t="inlineStr">
+        <is>
+          <t>300307.SZ; 慈星股份; nan; nan%; 79665.0; 87</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -26969,6 +27194,11 @@
           <t>300255.SZ; 常山药业; 37.39; 1.3%; 32394.0; 127</t>
         </is>
       </c>
+      <c r="CU14" t="inlineStr">
+        <is>
+          <t>300865.SZ; 大宏立; 27.74; 20.0%; 68153.5; 104</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -27459,6 +27689,11 @@
           <t>302132.SZ; 中航成飞; 76.74; -1.1%; 32055.5; 129</t>
         </is>
       </c>
+      <c r="CU15" t="inlineStr">
+        <is>
+          <t>688799.SH; 华纳药厂; 55.63; 20.0%; 67473.0; 105</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -27949,6 +28184,11 @@
           <t>300815.SZ; 玉禾田; 24.7; -7.8%; 31526.0; 133</t>
         </is>
       </c>
+      <c r="CU16" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 30.15; 3.3%; 58472.5; 118</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -28439,6 +28679,11 @@
           <t>300476.SZ; 胜宏科技; 86.48; 2.6%; 30876.0; 137</t>
         </is>
       </c>
+      <c r="CU17" t="inlineStr">
+        <is>
+          <t>871263.BJ; 莱赛激光; 23.79; 30.0%; 54966.5; 124</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -28929,6 +29174,11 @@
           <t>688070.SH; 纵横股份; 47.11; 20.0%; 30795.5; 138</t>
         </is>
       </c>
+      <c r="CU18" t="inlineStr">
+        <is>
+          <t>300740.SZ; 水羊股份; 17.79; 12.7%; 54516.0; 126</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -29419,6 +29669,11 @@
           <t>300975.SZ; 商络电子; 12.3; 12.7%; 30273.5; 142</t>
         </is>
       </c>
+      <c r="CU19" t="inlineStr">
+        <is>
+          <t>301024.SZ; 霍普股份; 51.8; 13.7%; 53097.0; 130</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -29909,6 +30164,11 @@
           <t>300678.SZ; 中科信息; 35.48; 6.0%; 28993.0; 144</t>
         </is>
       </c>
+      <c r="CU20" t="inlineStr">
+        <is>
+          <t>300255.SZ; 常山药业; 38.98; 4.3%; 52101.0; 135</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -30397,6 +30657,11 @@
       <c r="CT21" t="inlineStr">
         <is>
           <t>300502.SZ; 新易盛; 88.27; 1.3%; 26697.5; 155</t>
+        </is>
+      </c>
+      <c r="CU21" t="inlineStr">
+        <is>
+          <t>301277.SZ; 新天地; 17.55; 11.0%; 51036.5; 138</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CU7"/>
+  <dimension ref="A1:CV7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,6 +929,11 @@
           <t>2025年06月03日</t>
         </is>
       </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月04日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1207,6 +1212,11 @@
       <c r="CT2" t="inlineStr">
         <is>
           <t>301024.SZ; 霍普股份; 0;  09:25:00; 2天2板; 45.56;  09:25:00; 20.0%; 2; RWA+蚂蚁合作+建筑绿能</t>
+        </is>
+      </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>300651.SZ; 金陵体育; 1;  14:19:54; 2天2板; 24.48;  09:55:39; 20.0%; 2; 足球器材+消费服务转型</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CU532"/>
+  <dimension ref="A1:CV532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2068,6 +2078,11 @@
       <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>2025年06月03日</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月04日</t>
         </is>
       </c>
     </row>
@@ -7447,7 +7462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CU11"/>
+  <dimension ref="A1:CV11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7946,6 +7961,11 @@
           <t>2025年06月03日</t>
         </is>
       </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月04日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8416,6 +8436,11 @@
           <t>301024.SZ; 霍普股份; 2;  09:32:57; 51.8; 曾涨停; 13.7%; 2.47H;  09:32:57|| 09:33:42</t>
         </is>
       </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>300163.SZ; 先锋新材; 1;  09:48:54; 4.21; 曾涨停; 15.3%; 1.05H;  09:48:54</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -8816,6 +8841,11 @@
           <t>300315.SZ; 掌趣科技; 1;  09:49:09; 5.75; 曾涨停; 14.5%; 0.35H;  09:49:09</t>
         </is>
       </c>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>300530.SZ; 领湃科技; 1;  10:27:51; 39.71; 曾涨停; 6.7%; 0.00H;  10:27:51</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -9109,6 +9139,11 @@
       <c r="CU4" t="inlineStr">
         <is>
           <t>300702.SZ; 天宇股份; 1;  11:10:09; 27.14; 曾涨停; 19.7%; 0.08H;  11:10:09</t>
+        </is>
+      </c>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>300945.SZ; 曼卡龙; 1;  13:43:36; 29.37; 曾涨停; 17.0%; 0.03H;  13:43:36</t>
         </is>
       </c>
     </row>
@@ -9653,7 +9688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CU30"/>
+  <dimension ref="A1:CV30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10152,6 +10187,11 @@
           <t>2025年06月03日</t>
         </is>
       </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月04日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10642,6 +10682,11 @@
           <t>300651.SZ; 金陵体育; 0;  09:39:42; 首板涨停; 20.4;  09:39:42; 20.0%; 1; 足球器材+消费服务转型</t>
         </is>
       </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>300949.SZ; 奥雅股份; 0;  09:43:18; 首板涨停; 46.68;  09:43:18; 20.0%; 1; 城市更新+IP经济+AI赋能+业绩扭亏</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -11112,6 +11157,11 @@
           <t>300865.SZ; 大宏立; 0;  09:56:18; 首板涨停; 27.74;  09:56:18; 20.0%; 1; 无人机+业绩增长+海外拓展</t>
         </is>
       </c>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>300340.SZ; 科恒股份; 0;  09:52:09; 首板涨停; 11.75;  09:52:09; 20.0%; 1; 固态电池+稀土+氢能源+珠海国资</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11552,6 +11602,11 @@
           <t>300703.SZ; 创源股份; 0;  11:14:12; 首板涨停; 24.43;  11:14:12; 20.0%; 1; IP经济+宠物经济+文创消费品+外销</t>
         </is>
       </c>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 0;  10:00:18; 首板涨停; 8.63;  10:00:18; 20.0%; 1; 摘帽+金融科技+智能制造+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11952,6 +12007,11 @@
           <t>300945.SZ; 曼卡龙; 0;  11:27:12; 首板涨停; 25.1;  11:27:12; 20.0%; 1; 黄金+珠宝+IP经济</t>
         </is>
       </c>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>300003.SZ; 乐普医疗; 1;  14:23:45; 首板涨停; 14.11;  10:23:06; 20.0%; 1; 医疗器械+创新药+脑机接口</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -12310,6 +12370,11 @@
       <c r="CU6" t="inlineStr">
         <is>
           <t>871263.BJ; 莱赛激光; 2;  13:29:59; 首板涨停; 23.79;  10:00:26; 30.0%; 1; 无人机照明+激光测量+激光雷达应用</t>
+        </is>
+      </c>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>300741.SZ; 华宝股份; 2;  15:00:00; 首板涨停; 20.56;  14:29:57; 20.0%; 1; 新型烟草+香精+沪上阿姨合作</t>
         </is>
       </c>
     </row>
@@ -14054,7 +14119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CU178"/>
+  <dimension ref="A1:CV178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14553,6 +14618,11 @@
           <t>2025年06月03日</t>
         </is>
       </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月04日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -15023,6 +15093,11 @@
           <t>300149.SZ; 睿智医药; 7.9%; 22.8%; 11.62; 13.1%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>300872.SZ; 天阳科技; 3.6%; 16.7%; 21.08; 12.5%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -15458,6 +15533,11 @@
           <t>300804.SZ; 广康生化; 6.1%; 12.6%; 44.68; 5.8%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 1.3%; 21.5%; 8.63; 20.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -15848,6 +15928,11 @@
           <t>430047.BJ; 诺思兰德; 4.9%; 25.0%; 24.88; 18.8%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>300892.SZ; 品渥食品; 1.0%; 13.9%; 38.4; 12.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -16198,6 +16283,11 @@
           <t>872351.BJ; 华光源海; 4.6%; 13.1%; 34.5; 7.9%; 价升量涨||阳线||缩量</t>
         </is>
       </c>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>301177.SZ; 迪阿股份; 0.6%; 13.6%; 34.15; 13.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -16518,6 +16608,11 @@
           <t>688799.SH; 华纳药厂; 4.5%; 25.6%; 55.63; 20.0%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>688656.SH; 浩欧博; 0.5%; 13.7%; 105.5; 13.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -16818,6 +16913,11 @@
           <t>301277.SZ; 新天地; 2.7%; 14.0%; 17.55; 11.0%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="CV7" t="inlineStr">
+        <is>
+          <t>300340.SZ; 科恒股份; 0.1%; 20.1%; 11.75; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -17076,6 +17176,11 @@
       <c r="CU8" t="inlineStr">
         <is>
           <t>688206.SH; 概伦电子; 2.6%; 12.8%; 31.79; 9.8%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
+      <c r="CV8" t="inlineStr">
+        <is>
+          <t>300741.SZ; 华宝股份; 0.1%; 20.1%; 20.56; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -20265,7 +20370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CU21"/>
+  <dimension ref="A1:CV21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20764,6 +20869,11 @@
           <t>2025年06月03日</t>
         </is>
       </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月04日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -21259,6 +21369,11 @@
           <t>300204.SZ; 舒泰神; 31.8; 20.0%; 425091.0; 3</t>
         </is>
       </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 8.63; 20.0%; 229897.0; 15</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -21754,6 +21869,11 @@
           <t>300468.SZ; 四方精创; 27.41; 10.6%; 162074.0; 25</t>
         </is>
       </c>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>300003.SZ; 乐普医疗; 14.11; 20.0%; 213041.5; 21</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -22249,6 +22369,11 @@
           <t>300651.SZ; 金陵体育; 20.4; 20.0%; 136771.0; 38</t>
         </is>
       </c>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>300651.SZ; 金陵体育; 24.48; 20.0%; 178012.5; 32</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -22744,6 +22869,11 @@
           <t>300238.SZ; 冠昊生物; 18.38; 20.0%; 131825.5; 42</t>
         </is>
       </c>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>300872.SZ; 天阳科技; 21.08; 12.5%; 152029.0; 43</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -23239,6 +23369,11 @@
           <t>300315.SZ; 掌趣科技; 5.75; 14.5%; 122077.5; 48</t>
         </is>
       </c>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>300945.SZ; 曼卡龙; 29.37; 17.0%; 150601.0; 46</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -23734,6 +23869,11 @@
           <t>300945.SZ; 曼卡龙; 25.1; 20.0%; 119257.5; 50</t>
         </is>
       </c>
+      <c r="CV7" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 30.79; -3.2%; 143762.0; 50</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -24229,6 +24369,11 @@
           <t>300016.SZ; 北陆药业; 8.36; 19.9%; 118896.5; 51</t>
         </is>
       </c>
+      <c r="CV8" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 26.91; -1.5%; 128480.5; 59</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -24724,6 +24869,11 @@
           <t>300703.SZ; 创源股份; 24.43; 20.0%; 112371.0; 57</t>
         </is>
       </c>
+      <c r="CV9" t="inlineStr">
+        <is>
+          <t>300741.SZ; 华宝股份; 20.56; 20.0%; 126362.0; 60</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -25219,6 +25369,11 @@
           <t>300149.SZ; 睿智医药; 11.62; 13.1%; 105539.5; 60</t>
         </is>
       </c>
+      <c r="CV10" t="inlineStr">
+        <is>
+          <t>300340.SZ; 科恒股份; 11.75; 20.0%; 119935.0; 66</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -25714,6 +25869,11 @@
           <t>300546.SZ; 雄帝科技; 25.18; 0.7%; 101335.0; 64</t>
         </is>
       </c>
+      <c r="CV11" t="inlineStr">
+        <is>
+          <t>301335.SZ; 天元宠物; 41.9; 16.8%; 106043.0; 77</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -26209,6 +26369,11 @@
           <t>300773.SZ; 拉卡拉; 24.37; -0.8%; 82330.5; 83</t>
         </is>
       </c>
+      <c r="CV12" t="inlineStr">
+        <is>
+          <t>300740.SZ; 水羊股份; 19.92; 12.0%; 97197.0; 84</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -26704,6 +26869,11 @@
           <t>300307.SZ; 慈星股份; nan; nan%; 79665.0; 87</t>
         </is>
       </c>
+      <c r="CV13" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 92.55; 7.2%; 77532.5; 107</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -27199,6 +27369,11 @@
           <t>300865.SZ; 大宏立; 27.74; 20.0%; 68153.5; 104</t>
         </is>
       </c>
+      <c r="CV14" t="inlineStr">
+        <is>
+          <t>300975.SZ; 商络电子; 12.88; 3.5%; 71376.5; 113</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -27694,6 +27869,11 @@
           <t>688799.SH; 华纳药厂; 55.63; 20.0%; 67473.0; 105</t>
         </is>
       </c>
+      <c r="CV15" t="inlineStr">
+        <is>
+          <t>300546.SZ; 雄帝科技; 24.92; -1.0%; 68428.0; 123</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -28189,6 +28369,11 @@
           <t>300963.SZ; 中洲特材; 30.15; 3.3%; 58472.5; 118</t>
         </is>
       </c>
+      <c r="CV16" t="inlineStr">
+        <is>
+          <t>300949.SZ; 奥雅股份; 46.68; 20.0%; 67104.0; 127</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -28684,6 +28869,11 @@
           <t>871263.BJ; 莱赛激光; 23.79; 30.0%; 54966.5; 124</t>
         </is>
       </c>
+      <c r="CV17" t="inlineStr">
+        <is>
+          <t>300570.SZ; 太辰光; 78.23; 14.9%; 62519.0; 139</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -29179,6 +29369,11 @@
           <t>300740.SZ; 水羊股份; 17.79; 12.7%; 54516.0; 126</t>
         </is>
       </c>
+      <c r="CV18" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 23.72; -2.7%; 62477.5; 140</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -29674,6 +29869,11 @@
           <t>301024.SZ; 霍普股份; 51.8; 13.7%; 53097.0; 130</t>
         </is>
       </c>
+      <c r="CV19" t="inlineStr">
+        <is>
+          <t>300530.SZ; 领湃科技; 39.71; 6.7%; 61789.5; 141</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -30169,6 +30369,11 @@
           <t>300255.SZ; 常山药业; 38.98; 4.3%; 52101.0; 135</t>
         </is>
       </c>
+      <c r="CV20" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 97.3; 6.0%; 61222.0; 142</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -30662,6 +30867,11 @@
       <c r="CU21" t="inlineStr">
         <is>
           <t>301277.SZ; 新天地; 17.55; 11.0%; 51036.5; 138</t>
+        </is>
+      </c>
+      <c r="CV21" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 20.94; 1.4%; 60579.5; 146</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV7"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,6 +934,11 @@
           <t>2025年06月04日</t>
         </is>
       </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月05日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1219,6 +1224,11 @@
           <t>300651.SZ; 金陵体育; 1;  14:19:54; 2天2板; 24.48;  09:55:39; 20.0%; 2; 足球器材+消费服务转型</t>
         </is>
       </c>
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t>300651.SZ; 金陵体育; 6;  10:08:15; 3天3板; 29.38;  09:39:36; 20.0%; 3; 足球器材+消费服务转型</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1389,6 +1399,11 @@
           <t>300149.SZ; 睿智医药; 14;  14:47:06; 2天2板; 10.27;  10:03:12; 20.0%; 2; CRO+创新药+细胞免疫治疗</t>
         </is>
       </c>
+      <c r="CW3" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 0;  14:00:06; 2天2板; 10.36;  14:00:06; 20.0%; 2; 摘帽+金融科技+智能制造+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1477,6 +1492,11 @@
       <c r="CT4" t="inlineStr">
         <is>
           <t>837748.BJ; 路桥信息; 1;  14:48:46; 2天2板; 49.89;  14:46:34; 30.0%; 2; 交通数字化服务+机器人+股权变更+国企</t>
+        </is>
+      </c>
+      <c r="CW4" t="inlineStr">
+        <is>
+          <t>837748.BJ; 路桥信息; 0;  14:20:00; 5天3板; 57.74;  14:20:00; 30.0%; 1; 交通数字化服务+机器人+股权变更+国企</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV532"/>
+  <dimension ref="A1:CW532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2083,6 +2103,11 @@
       <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>2025年06月04日</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月05日</t>
         </is>
       </c>
     </row>
@@ -7462,7 +7487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7966,6 +7991,11 @@
           <t>2025年06月04日</t>
         </is>
       </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月05日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8441,6 +8471,11 @@
           <t>300163.SZ; 先锋新材; 1;  09:48:54; 4.21; 曾涨停; 15.3%; 1.05H;  09:48:54</t>
         </is>
       </c>
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t>301005.SZ; 超捷股份; 1;  10:08:42; 44.44; 曾涨停; 15.9%; 0.01H;  10:08:42</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -8844,6 +8879,11 @@
       <c r="CV3" t="inlineStr">
         <is>
           <t>300530.SZ; 领湃科技; 1;  10:27:51; 39.71; 曾涨停; 6.7%; 0.00H;  10:27:51</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr">
+        <is>
+          <t>300546.SZ; 雄帝科技; 4;  14:22:21; 29.08; 曾涨停; 16.9%; 0.52H;  14:22:21|| 14:52:48|| 14:53:30|| 14:54:12</t>
         </is>
       </c>
     </row>
@@ -9688,7 +9728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV30"/>
+  <dimension ref="A1:CW30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10192,6 +10232,11 @@
           <t>2025年06月04日</t>
         </is>
       </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月05日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10687,6 +10732,11 @@
           <t>300949.SZ; 奥雅股份; 0;  09:43:18; 首板涨停; 46.68;  09:43:18; 20.0%; 1; 城市更新+IP经济+AI赋能+业绩扭亏</t>
         </is>
       </c>
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t>300513.SZ; 恒实科技; 1;  09:39:57; 首板涨停; 9.4;  09:31:36; 20.1%; 1; 虚拟电厂+智能物联+绿色电力</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -11162,6 +11212,11 @@
           <t>300340.SZ; 科恒股份; 0;  09:52:09; 首板涨停; 11.75;  09:52:09; 20.0%; 1; 固态电池+稀土+氢能源+珠海国资</t>
         </is>
       </c>
+      <c r="CW3" t="inlineStr">
+        <is>
+          <t>300082.SZ; 奥克股份; 1;  10:22:48; 首板涨停; 9.53;  09:44:51; 20.0%; 1; 固态电池+聚乙二醇</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11607,6 +11662,11 @@
           <t>300368.SZ; 汇金股份; 0;  10:00:18; 首板涨停; 8.63;  10:00:18; 20.0%; 1; 摘帽+金融科技+智能制造+国企改革</t>
         </is>
       </c>
+      <c r="CW4" t="inlineStr">
+        <is>
+          <t>301306.SZ; 西测测试; 0;  13:16:42; 首板涨停; 44.92;  13:16:42; 20.0%; 1; 商业航天+军用检测+季报亏损收窄</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -12012,6 +12072,11 @@
           <t>300003.SZ; 乐普医疗; 1;  14:23:45; 首板涨停; 14.11;  10:23:06; 20.0%; 1; 医疗器械+创新药+脑机接口</t>
         </is>
       </c>
+      <c r="CW5" t="inlineStr">
+        <is>
+          <t>688316.SH; 青云科技; 0;  13:24:02; 首板涨停; 59.03;  13:24:02; 20.0%; 1; AI算力+云计算+模型服务+与海光信息达成战略合作</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -12377,6 +12442,11 @@
           <t>300741.SZ; 华宝股份; 2;  15:00:00; 首板涨停; 20.56;  14:29:57; 20.0%; 1; 新型烟草+香精+沪上阿姨合作</t>
         </is>
       </c>
+      <c r="CW6" t="inlineStr">
+        <is>
+          <t>688183.SH; 生益电子; 2;  14:08:10; 首板涨停; 38.27;  14:03:13; 20.0%; 1; 印制电路板+AI服务器+毫米波雷达</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -12675,6 +12745,11 @@
       <c r="CU7" t="inlineStr">
         <is>
           <t>300238.SZ; 冠昊生物; 6;  14:08:15; 首板涨停; 18.38;  09:54:45; 20.0%; 1; 再生医学材料+细胞免疫治疗</t>
+        </is>
+      </c>
+      <c r="CW7" t="inlineStr">
+        <is>
+          <t>301197.SZ; 工大科雅; 0;  14:10:39; 首板涨停; 19.63;  14:10:39; 20.0%; 1; 智慧供热+一季报增长+碳中和概念</t>
         </is>
       </c>
     </row>
@@ -14119,7 +14194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV178"/>
+  <dimension ref="A1:CW178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14623,6 +14698,11 @@
           <t>2025年06月04日</t>
         </is>
       </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月05日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -15098,6 +15178,11 @@
           <t>300872.SZ; 天阳科技; 3.6%; 16.7%; 21.08; 12.5%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t>300546.SZ; 雄帝科技; 3.5%; 21.2%; 29.08; 16.9%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -15538,6 +15623,11 @@
           <t>300368.SZ; 汇金股份; 1.3%; 21.5%; 8.63; 20.0%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="CW3" t="inlineStr">
+        <is>
+          <t>837748.BJ; 路桥信息; 3.2%; 34.3%; 57.74; 30.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -15933,6 +16023,11 @@
           <t>300892.SZ; 品渥食品; 1.0%; 13.9%; 38.4; 12.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CW4" t="inlineStr">
+        <is>
+          <t>301287.SZ; 康力源; 2.8%; 14.3%; 44.05; 11.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -16288,6 +16383,11 @@
           <t>301177.SZ; 迪阿股份; 0.6%; 13.6%; 34.15; 13.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CW5" t="inlineStr">
+        <is>
+          <t>300804.SZ; 广康生化; 2.1%; 17.9%; 44.82; 15.5%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -16613,6 +16713,11 @@
           <t>688656.SH; 浩欧博; 0.5%; 13.7%; 105.5; 13.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CW6" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 0.8%; 17.3%; 101.01; 16.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -16918,6 +17023,11 @@
           <t>300340.SZ; 科恒股份; 0.1%; 20.1%; 11.75; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CW7" t="inlineStr">
+        <is>
+          <t>301306.SZ; 西测测试; 0.5%; 20.7%; 44.92; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -17183,6 +17293,11 @@
           <t>300741.SZ; 华宝股份; 0.1%; 20.1%; 20.56; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CW8" t="inlineStr">
+        <is>
+          <t>688313.SH; 仕佳光子; 0.4%; 12.9%; 32.91; 12.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -17413,6 +17528,11 @@
           <t>300238.SZ; 冠昊生物; 2.5%; 23.0%; 18.38; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CW9" t="inlineStr">
+        <is>
+          <t>688183.SH; 生益电子; 0.4%; 20.5%; 38.27; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -17618,6 +17738,11 @@
           <t>300082.SZ; 奥克股份; 2.4%; 14.5%; 8.36; 11.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CW10" t="inlineStr">
+        <is>
+          <t>301225.SZ; 恒勃股份; 0.2%; 12.0%; 85.13; 11.8%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -17796,6 +17921,11 @@
       <c r="CU11" t="inlineStr">
         <is>
           <t>300436.SZ; 广生堂; 2.2%; 14.3%; 35.14; 11.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CW11" t="inlineStr">
+        <is>
+          <t>688800.SH; 瑞可达; 0.1%; 16.6%; 47.69; 16.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -20370,7 +20500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV21"/>
+  <dimension ref="A1:CW21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20874,6 +21004,11 @@
           <t>2025年06月04日</t>
         </is>
       </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月05日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -21374,6 +21509,11 @@
           <t>300368.SZ; 汇金股份; 8.63; 20.0%; 229897.0; 15</t>
         </is>
       </c>
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t>300651.SZ; 金陵体育; 29.38; 20.0%; 347998.0; 7</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -21874,6 +22014,11 @@
           <t>300003.SZ; 乐普医疗; 14.11; 20.0%; 213041.5; 21</t>
         </is>
       </c>
+      <c r="CW3" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 10.36; 20.0%; 332825.5; 9</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -22374,6 +22519,11 @@
           <t>300651.SZ; 金陵体育; 24.48; 20.0%; 178012.5; 32</t>
         </is>
       </c>
+      <c r="CW4" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 29.8; 10.7%; 234202.5; 18</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -22874,6 +23024,11 @@
           <t>300872.SZ; 天阳科技; 21.08; 12.5%; 152029.0; 43</t>
         </is>
       </c>
+      <c r="CW5" t="inlineStr">
+        <is>
+          <t>300546.SZ; 雄帝科技; 29.08; 16.9%; 219203.0; 22</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -23374,6 +23529,11 @@
           <t>300945.SZ; 曼卡龙; 29.37; 17.0%; 150601.0; 46</t>
         </is>
       </c>
+      <c r="CW6" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 101.01; 16.3%; 194712.0; 24</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -23874,6 +24034,11 @@
           <t>300204.SZ; 舒泰神; 30.79; -3.2%; 143762.0; 50</t>
         </is>
       </c>
+      <c r="CW7" t="inlineStr">
+        <is>
+          <t>300513.SZ; 恒实科技; 9.4; 20.1%; 164625.0; 36</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -24374,6 +24539,11 @@
           <t>300468.SZ; 四方精创; 26.91; -1.5%; 128480.5; 59</t>
         </is>
       </c>
+      <c r="CW8" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 30.5; -0.9%; 154222.5; 40</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -24874,6 +25044,11 @@
           <t>300741.SZ; 华宝股份; 20.56; 20.0%; 126362.0; 60</t>
         </is>
       </c>
+      <c r="CW9" t="inlineStr">
+        <is>
+          <t>300082.SZ; 奥克股份; 9.53; 20.0%; 127147.0; 59</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -25374,6 +25549,11 @@
           <t>300340.SZ; 科恒股份; 11.75; 20.0%; 119935.0; 66</t>
         </is>
       </c>
+      <c r="CW10" t="inlineStr">
+        <is>
+          <t>300674.SZ; 宇信科技; 26.72; 14.7%; 125929.0; 61</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -25874,6 +26054,11 @@
           <t>301335.SZ; 天元宠物; 41.9; 16.8%; 106043.0; 77</t>
         </is>
       </c>
+      <c r="CW11" t="inlineStr">
+        <is>
+          <t>301590.SZ; 优优绿能; 151.1; 68.6%; 112877.0; 75</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -26374,6 +26559,11 @@
           <t>300740.SZ; 水羊股份; 19.92; 12.0%; 97197.0; 84</t>
         </is>
       </c>
+      <c r="CW12" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 24.66; 4.0%; 97735.5; 87</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -26874,6 +27064,11 @@
           <t>300502.SZ; 新易盛; 92.55; 7.2%; 77532.5; 107</t>
         </is>
       </c>
+      <c r="CW13" t="inlineStr">
+        <is>
+          <t>688183.SH; 生益电子; 38.27; 20.0%; 95283.0; 89</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -27374,6 +27569,11 @@
           <t>300975.SZ; 商络电子; 12.88; 3.5%; 71376.5; 113</t>
         </is>
       </c>
+      <c r="CW14" t="inlineStr">
+        <is>
+          <t>837748.BJ; 路桥信息; 57.74; 30.0%; 95000.0; 90</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -27874,6 +28074,11 @@
           <t>300546.SZ; 雄帝科技; 24.92; -1.0%; 68428.0; 123</t>
         </is>
       </c>
+      <c r="CW15" t="inlineStr">
+        <is>
+          <t>301005.SZ; 超捷股份; 44.44; 15.9%; 94220.0; 92</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -28374,6 +28579,11 @@
           <t>300949.SZ; 奥雅股份; 46.68; 20.0%; 67104.0; 127</t>
         </is>
       </c>
+      <c r="CW16" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 102.88; 5.7%; 93784.5; 93</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -28874,6 +29084,11 @@
           <t>300570.SZ; 太辰光; 78.23; 14.9%; 62519.0; 139</t>
         </is>
       </c>
+      <c r="CW17" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 96.9; 4.7%; 89547.5; 100</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -29374,6 +29589,11 @@
           <t>300773.SZ; 拉卡拉; 23.72; -2.7%; 62477.5; 140</t>
         </is>
       </c>
+      <c r="CW18" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 21.13; 0.9%; 78078.0; 113</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -29874,6 +30094,11 @@
           <t>300530.SZ; 领湃科技; 39.71; 6.7%; 61789.5; 141</t>
         </is>
       </c>
+      <c r="CW19" t="inlineStr">
+        <is>
+          <t>301306.SZ; 西测测试; 44.92; 20.0%; 76705.5; 119</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -30374,6 +30599,11 @@
           <t>300308.SZ; 中际旭创; 97.3; 6.0%; 61222.0; 142</t>
         </is>
       </c>
+      <c r="CW20" t="inlineStr">
+        <is>
+          <t>300872.SZ; 天阳科技; 21.01; -0.3%; 75981.0; 122</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -30872,6 +31102,11 @@
       <c r="CV21" t="inlineStr">
         <is>
           <t>300059.SZ; 东方财富; 20.94; 1.4%; 60579.5; 146</t>
+        </is>
+      </c>
+      <c r="CW21" t="inlineStr">
+        <is>
+          <t>300945.SZ; 曼卡龙; 25.05; -14.7%; 72824.5; 125</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CW7"/>
+  <dimension ref="A1:CX7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,6 +937,11 @@
       <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>2025年06月05日</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月06日</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CW532"/>
+  <dimension ref="A1:CX532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2108,6 +2113,11 @@
       <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>2025年06月05日</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月06日</t>
         </is>
       </c>
     </row>
@@ -7487,7 +7497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CW11"/>
+  <dimension ref="A1:CX11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7996,6 +8006,11 @@
           <t>2025年06月05日</t>
         </is>
       </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月06日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8476,6 +8491,11 @@
           <t>301005.SZ; 超捷股份; 1;  10:08:42; 44.44; 曾涨停; 15.9%; 0.01H;  10:08:42</t>
         </is>
       </c>
+      <c r="CX2" t="inlineStr">
+        <is>
+          <t>688316.SH; 青云科技; 1;  11:21:34; 68.07; 曾涨停; 15.3%; 0.15H;  11:21:34</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -8884,6 +8904,11 @@
       <c r="CW3" t="inlineStr">
         <is>
           <t>300546.SZ; 雄帝科技; 4;  14:22:21; 29.08; 曾涨停; 16.9%; 0.52H;  14:22:21|| 14:52:48|| 14:53:30|| 14:54:12</t>
+        </is>
+      </c>
+      <c r="CX3" t="inlineStr">
+        <is>
+          <t>835207.BJ; 众诚科技; 1;  11:28:55; 32; 曾涨停; 22.9%; 0.01H;  11:28:55</t>
         </is>
       </c>
     </row>
@@ -9728,7 +9753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CW30"/>
+  <dimension ref="A1:CX30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10237,6 +10262,11 @@
           <t>2025年06月05日</t>
         </is>
       </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月06日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10737,6 +10767,11 @@
           <t>300513.SZ; 恒实科技; 1;  09:39:57; 首板涨停; 9.4;  09:31:36; 20.1%; 1; 虚拟电厂+智能物联+绿色电力</t>
         </is>
       </c>
+      <c r="CX2" t="inlineStr">
+        <is>
+          <t>300584.SZ; 海辰药业; 0;  10:11:45; 首板涨停; 34.32;  10:11:45; 20.0%; 1; 创新药+固态电池+原料药</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -11217,6 +11252,11 @@
           <t>300082.SZ; 奥克股份; 1;  10:22:48; 首板涨停; 9.53;  09:44:51; 20.0%; 1; 固态电池+聚乙二醇</t>
         </is>
       </c>
+      <c r="CX3" t="inlineStr">
+        <is>
+          <t>300921.SZ; 南凌科技; 0;  11:14:42; 首板涨停; 31.99;  11:14:42; 20.0%; 1; 云网安融合+全球组网服务+AI大模型</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11665,6 +11705,11 @@
       <c r="CW4" t="inlineStr">
         <is>
           <t>301306.SZ; 西测测试; 0;  13:16:42; 首板涨停; 44.92;  13:16:42; 20.0%; 1; 商业航天+军用检测+季报亏损收窄</t>
+        </is>
+      </c>
+      <c r="CX4" t="inlineStr">
+        <is>
+          <t>300765.SZ; 新诺威; 0;  14:27:45; 首板涨停; 63;  14:27:45; 20.0%; 1; 创新药+功能食品+此前曾拟购买石药百克100%股权</t>
         </is>
       </c>
     </row>
@@ -14194,7 +14239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CW178"/>
+  <dimension ref="A1:CX178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14703,6 +14748,11 @@
           <t>2025年06月05日</t>
         </is>
       </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月06日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -15183,6 +15233,11 @@
           <t>300546.SZ; 雄帝科技; 3.5%; 21.2%; 29.08; 16.9%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CX2" t="inlineStr">
+        <is>
+          <t>300921.SZ; 南凌科技; 0.4%; 20.4%; 31.99; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -15628,6 +15683,11 @@
           <t>837748.BJ; 路桥信息; 3.2%; 34.3%; 57.74; 30.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CX3" t="inlineStr">
+        <is>
+          <t>300920.SZ; 润阳科技; 0.3%; 17.1%; 46.99; 16.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -16026,6 +16086,11 @@
       <c r="CW4" t="inlineStr">
         <is>
           <t>301287.SZ; 康力源; 2.8%; 14.3%; 44.05; 11.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CX4" t="inlineStr">
+        <is>
+          <t>300765.SZ; 新诺威; 0.2%; 20.2%; 63; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -20500,7 +20565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CW21"/>
+  <dimension ref="A1:CX21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21009,6 +21074,11 @@
           <t>2025年06月05日</t>
         </is>
       </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月06日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -21514,6 +21584,11 @@
           <t>300651.SZ; 金陵体育; 29.38; 20.0%; 347998.0; 7</t>
         </is>
       </c>
+      <c r="CX2" t="inlineStr">
+        <is>
+          <t>300651.SZ; 金陵体育; 32; 8.9%; 191045.0; 8</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -22019,6 +22094,11 @@
           <t>300368.SZ; 汇金股份; 10.36; 20.0%; 332825.5; 9</t>
         </is>
       </c>
+      <c r="CX3" t="inlineStr">
+        <is>
+          <t>300255.SZ; 常山药业; 43.41; 15.1%; 111980.0; 23</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -22524,6 +22604,11 @@
           <t>300468.SZ; 四方精创; 29.8; 10.7%; 234202.5; 18</t>
         </is>
       </c>
+      <c r="CX4" t="inlineStr">
+        <is>
+          <t>300584.SZ; 海辰药业; 34.32; 20.0%; 92478.0; 32</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -23029,6 +23114,11 @@
           <t>300546.SZ; 雄帝科技; 29.08; 16.9%; 219203.0; 22</t>
         </is>
       </c>
+      <c r="CX5" t="inlineStr">
+        <is>
+          <t>300765.SZ; 新诺威; 63; 20.0%; 91550.5; 34</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -23534,6 +23624,11 @@
           <t>300476.SZ; 胜宏科技; 101.01; 16.3%; 194712.0; 24</t>
         </is>
       </c>
+      <c r="CX6" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 11.08; 6.9%; 86695.5; 37</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -24039,6 +24134,11 @@
           <t>300513.SZ; 恒实科技; 9.4; 20.1%; 164625.0; 36</t>
         </is>
       </c>
+      <c r="CX7" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 27.55; -7.6%; 68273.0; 55</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -24544,6 +24644,11 @@
           <t>300204.SZ; 舒泰神; 30.5; -0.9%; 154222.5; 40</t>
         </is>
       </c>
+      <c r="CX8" t="inlineStr">
+        <is>
+          <t>300921.SZ; 南凌科技; 31.99; 20.0%; 66614.0; 58</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -25049,6 +25154,11 @@
           <t>300082.SZ; 奥克股份; 9.53; 20.0%; 127147.0; 59</t>
         </is>
       </c>
+      <c r="CX9" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 30.88; 6.3%; 61317.5; 67</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -25554,6 +25664,11 @@
           <t>300674.SZ; 宇信科技; 26.72; 14.7%; 125929.0; 61</t>
         </is>
       </c>
+      <c r="CX10" t="inlineStr">
+        <is>
+          <t>300546.SZ; 雄帝科技; 26.01; -10.6%; 61125.5; 68</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -26059,6 +26174,11 @@
           <t>301590.SZ; 优优绿能; 151.1; 68.6%; 112877.0; 75</t>
         </is>
       </c>
+      <c r="CX11" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 29.12; -4.5%; 56307.0; 82</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -26564,6 +26684,11 @@
           <t>300773.SZ; 拉卡拉; 24.66; 4.0%; 97735.5; 87</t>
         </is>
       </c>
+      <c r="CX12" t="inlineStr">
+        <is>
+          <t>300530.SZ; 领湃科技; 45.96; 9.1%; 54765.0; 85</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -27069,6 +27194,11 @@
           <t>688183.SH; 生益电子; 38.27; 20.0%; 95283.0; 89</t>
         </is>
       </c>
+      <c r="CX13" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 99.73; 2.9%; 46382.0; 99</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -27574,6 +27704,11 @@
           <t>837748.BJ; 路桥信息; 57.74; 30.0%; 95000.0; 90</t>
         </is>
       </c>
+      <c r="CX14" t="inlineStr">
+        <is>
+          <t>300672.SZ; 国科微; 85.5; 5.5%; 42755.5; 107</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -28079,6 +28214,11 @@
           <t>301005.SZ; 超捷股份; 44.44; 15.9%; 94220.0; 92</t>
         </is>
       </c>
+      <c r="CX15" t="inlineStr">
+        <is>
+          <t>301316.SZ; 慧博云通; 44.14; 4.8%; 41393.5; 111</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -28584,6 +28724,11 @@
           <t>300308.SZ; 中际旭创; 102.88; 5.7%; 93784.5; 93</t>
         </is>
       </c>
+      <c r="CX16" t="inlineStr">
+        <is>
+          <t>302132.SZ; 中航成飞; 81.67; 3.9%; 41360.5; 112</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -29089,6 +29234,11 @@
           <t>300502.SZ; 新易盛; 96.9; 4.7%; 89547.5; 100</t>
         </is>
       </c>
+      <c r="CX17" t="inlineStr">
+        <is>
+          <t>300570.SZ; 太辰光; 88.9; 7.4%; 40609.5; 114</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -29594,6 +29744,11 @@
           <t>300059.SZ; 东方财富; 21.13; 0.9%; 78078.0; 113</t>
         </is>
       </c>
+      <c r="CX18" t="inlineStr">
+        <is>
+          <t>300065.SZ; 海兰信; 18.63; 2.8%; 40257.0; 117</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -30099,6 +30254,11 @@
           <t>301306.SZ; 西测测试; 44.92; 20.0%; 76705.5; 119</t>
         </is>
       </c>
+      <c r="CX19" t="inlineStr">
+        <is>
+          <t>688316.SH; 青云科技; 68.07; 15.3%; 39705.5; 119</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -30604,6 +30764,11 @@
           <t>300872.SZ; 天阳科技; 21.01; -0.3%; 75981.0; 122</t>
         </is>
       </c>
+      <c r="CX20" t="inlineStr">
+        <is>
+          <t>301306.SZ; 西测测试; 49.89; 11.1%; 35425.0; 138</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -31107,6 +31272,11 @@
       <c r="CW21" t="inlineStr">
         <is>
           <t>300945.SZ; 曼卡龙; 25.05; -14.7%; 72824.5; 125</t>
+        </is>
+      </c>
+      <c r="CX21" t="inlineStr">
+        <is>
+          <t>300082.SZ; 奥克股份; 8.59; -9.9%; 34550.0; 144</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX7"/>
+  <dimension ref="A1:CY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -944,6 +944,11 @@
           <t>2025年06月06日</t>
         </is>
       </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月09日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1234,6 +1239,11 @@
           <t>300651.SZ; 金陵体育; 6;  10:08:15; 3天3板; 29.38;  09:39:36; 20.0%; 3; 足球器材+消费服务转型</t>
         </is>
       </c>
+      <c r="CY2" t="inlineStr">
+        <is>
+          <t>300584.SZ; 海辰药业; 0;  09:54:30; 2天2板; 41.06;  09:54:30; 20.0%; 2; 创新药+固态电池+原料药</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1407,6 +1417,11 @@
       <c r="CW3" t="inlineStr">
         <is>
           <t>300368.SZ; 汇金股份; 0;  14:00:06; 2天2板; 10.36;  14:00:06; 20.0%; 2; 摘帽+金融科技+智能制造+国企改革</t>
+        </is>
+      </c>
+      <c r="CY3" t="inlineStr">
+        <is>
+          <t>837748.BJ; 路桥信息; 2;  14:50:30; 7天4板; 77.98;  14:32:39; 30.0%; 1; 移动支付+交通数字化服务+机器人+国企</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX532"/>
+  <dimension ref="A1:CY532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,6 +2133,11 @@
       <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>2025年06月06日</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月09日</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX11"/>
+  <dimension ref="A1:CY12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8011,6 +8031,11 @@
           <t>2025年06月06日</t>
         </is>
       </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月09日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8496,6 +8521,11 @@
           <t>688316.SH; 青云科技; 1;  11:21:34; 68.07; 曾涨停; 15.3%; 0.15H;  11:21:34</t>
         </is>
       </c>
+      <c r="CY2" t="inlineStr">
+        <is>
+          <t>688573.SH; 信宇人; 1;  09:35:07; 23.38; 曾涨停; 12.4%; 0.75H;  09:35:07</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -8911,6 +8941,11 @@
           <t>835207.BJ; 众诚科技; 1;  11:28:55; 32; 曾涨停; 22.9%; 0.01H;  11:28:55</t>
         </is>
       </c>
+      <c r="CY3" t="inlineStr">
+        <is>
+          <t>301141.SZ; 中科磁业; 2;  09:56:30; 45.85; 曾涨停; 13.5%; 0.20H;  09:56:30|| 13:40:48</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -9211,6 +9246,11 @@
           <t>300945.SZ; 曼卡龙; 1;  13:43:36; 29.37; 曾涨停; 17.0%; 0.03H;  13:43:36</t>
         </is>
       </c>
+      <c r="CY4" t="inlineStr">
+        <is>
+          <t>430017.BJ; 星昊医药; 4;  10:19:54; 25.19; 曾涨停; 27.3%; 0.12H;  10:19:54|| 10:31:30|| 10:33:03|| 10:35:30</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -9406,6 +9446,11 @@
           <t>301225.SZ; 恒勃股份; 1;  11:22:18; 82.85; 曾涨停; 17.1%; 0.28H;  11:22:18</t>
         </is>
       </c>
+      <c r="CY5" t="inlineStr">
+        <is>
+          <t>300191.SZ; 潜能恒信; 1;  10:26:57; 19.84; 曾涨停; 11.6%; 0.03H;  10:26:57</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -9561,6 +9606,11 @@
           <t>300204.SZ; 舒泰神; 1;  13:58:18; 31.8; 曾涨停; 20.0%; 0.98H;  13:58:18</t>
         </is>
       </c>
+      <c r="CY6" t="inlineStr">
+        <is>
+          <t>300061.SZ; 旗天科技; 1;  10:35:48; 14; 曾涨停; 16.9%; 1.85H;  10:35:48</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -9641,6 +9691,11 @@
           <t>301277.SZ; 新天地; 1;  13:51:36; 16.41; 曾涨停; 14.1%; 0.02H;  13:51:36</t>
         </is>
       </c>
+      <c r="CY7" t="inlineStr">
+        <is>
+          <t>300493.SZ; 润欣科技; 1;  10:47:06; 23.32; 曾涨停; 15.7%; 1.46H;  10:47:06</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -9686,6 +9741,11 @@
           <t>301261.SZ; 恒工精密; 1;  14:16:21; 92.6; 曾涨停; -4.1%; 0.01H;  14:16:21</t>
         </is>
       </c>
+      <c r="CY8" t="inlineStr">
+        <is>
+          <t>300834.SZ; 星辉环材; 1;  11:11:18; 24.38; 曾涨停; 14.0%; 0.02H;  11:11:18</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -9721,6 +9781,11 @@
           <t>300611.SZ; 美力科技; 1;  14:45:51; 27.15; 曾涨停; -3.9%; 0.05H;  14:45:51</t>
         </is>
       </c>
+      <c r="CY9" t="inlineStr">
+        <is>
+          <t>300340.SZ; 科恒股份; 1;  13:11:27; 15.72; 曾涨停; 20.0%; 0.24H;  13:11:27</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -9731,6 +9796,11 @@
           <t>300328.SZ; 宜安科技; 1;  13:31:21; 10.68; 曾涨停; -7.0%; 0.66H;  13:31:21</t>
         </is>
       </c>
+      <c r="CY10" t="inlineStr">
+        <is>
+          <t>300230.SZ; 永利股份; 1;  13:19:24; 5.24; 曾涨停; 12.7%; 0.09H;  13:19:24</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -9739,6 +9809,21 @@
       <c r="AH11" t="inlineStr">
         <is>
           <t>688655.SH; 迅捷兴; 1;  13:43:57; 16.94; 曾涨停; 1.0%; 0.02H;  13:43:57</t>
+        </is>
+      </c>
+      <c r="CY11" t="inlineStr">
+        <is>
+          <t>688068.SH; 热景生物; 3;  13:59:42; 161.15; 曾涨停; 18.1%; 0.05H;  13:59:42|| 14:02:00|| 14:04:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY12" t="inlineStr">
+        <is>
+          <t>300798.SZ; 锦鸡股份; 4;  14:07:24; 8.81; 曾涨停; 20.0%; 0.81H;  14:07:24|| 14:52:21|| 14:52:51|| 14:56:27</t>
         </is>
       </c>
     </row>
@@ -9753,7 +9838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX30"/>
+  <dimension ref="A1:CY30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10267,6 +10352,11 @@
           <t>2025年06月06日</t>
         </is>
       </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月09日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10772,6 +10862,11 @@
           <t>300584.SZ; 海辰药业; 0;  10:11:45; 首板涨停; 34.32;  10:11:45; 20.0%; 1; 创新药+固态电池+原料药</t>
         </is>
       </c>
+      <c r="CY2" t="inlineStr">
+        <is>
+          <t>300804.SZ; 广康生化; 0;  09:37:24; 首板涨停; 56.7;  09:37:24; 20.0%; 1; K胺环评批复+农药原药+杀虫剂</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -11257,6 +11352,11 @@
           <t>300921.SZ; 南凌科技; 0;  11:14:42; 首板涨停; 31.99;  11:14:42; 20.0%; 1; 云网安融合+全球组网服务+AI大模型</t>
         </is>
       </c>
+      <c r="CY3" t="inlineStr">
+        <is>
+          <t>300149.SZ; 睿智医药; 0;  09:41:54; 首板涨停; 11.65;  09:41:54; 20.0%; 1; CRO+创新药+细胞免疫治疗</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11712,6 +11812,11 @@
           <t>300765.SZ; 新诺威; 0;  14:27:45; 首板涨停; 63;  14:27:45; 20.0%; 1; 创新药+功能食品+此前曾拟购买石药百克100%股权</t>
         </is>
       </c>
+      <c r="CY4" t="inlineStr">
+        <is>
+          <t>300995.SZ; 奇德新材; 0;  09:53:33; 首板涨停; 42.28;  09:53:33; 20.0%; 1; 碳纤维+新能源汽车+机器人概念+业绩增长</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -12122,6 +12227,11 @@
           <t>688316.SH; 青云科技; 0;  13:24:02; 首板涨停; 59.03;  13:24:02; 20.0%; 1; AI算力+云计算+模型服务+与海光信息达成战略合作</t>
         </is>
       </c>
+      <c r="CY5" t="inlineStr">
+        <is>
+          <t>300255.SZ; 常山药业; 48;  13:50:09; 首板涨停; 52.09;  10:12:18; 20.0%; 1; 减肥药+创新药</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -12492,6 +12602,11 @@
           <t>688183.SH; 生益电子; 2;  14:08:10; 首板涨停; 38.27;  14:03:13; 20.0%; 1; 印制电路板+AI服务器+毫米波雷达</t>
         </is>
       </c>
+      <c r="CY6" t="inlineStr">
+        <is>
+          <t>301287.SZ; 康力源; 0;  14:04:42; 首板涨停; 48.6;  14:04:42; 20.0%; 1; 健身器材+足球概念+马来西亚量产</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -12797,6 +12912,11 @@
           <t>301197.SZ; 工大科雅; 0;  14:10:39; 首板涨停; 19.63;  14:10:39; 20.0%; 1; 智慧供热+一季报增长+碳中和概念</t>
         </is>
       </c>
+      <c r="CY7" t="inlineStr">
+        <is>
+          <t>301137.SZ; 哈焊华通; 0;  14:22:45; 首板涨停; 38.9;  14:22:45; 20.0%; 1; 可控核聚变+焊接材料+此前收购中达金属60%股权+央企</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -13060,6 +13180,11 @@
       <c r="CU8" t="inlineStr">
         <is>
           <t>688799.SH; 华纳药厂; 3;  14:21:59; 首板涨停; 55.63;  14:10:05; 20.0%; 1; 创新药+原料制剂一体化</t>
+        </is>
+      </c>
+      <c r="CY8" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 1;  14:55:30; 首板涨停; 34.94;  14:55:24; 20.0%; 1; 创新药+STSP-0601+优先审评</t>
         </is>
       </c>
     </row>
@@ -14239,7 +14364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX178"/>
+  <dimension ref="A1:CY178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14753,6 +14878,11 @@
           <t>2025年06月06日</t>
         </is>
       </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月09日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -15238,6 +15368,11 @@
           <t>300921.SZ; 南凌科技; 0.4%; 20.4%; 31.99; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CY2" t="inlineStr">
+        <is>
+          <t>871263.BJ; 莱赛激光; 5.2%; 12.4%; 24.18; 6.6%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -15688,6 +15823,11 @@
           <t>300920.SZ; 润阳科技; 0.3%; 17.1%; 46.99; 16.7%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CY3" t="inlineStr">
+        <is>
+          <t>300651.SZ; 金陵体育; 4.7%; 21.0%; 36.9; 15.3%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -16093,6 +16233,11 @@
           <t>300765.SZ; 新诺威; 0.2%; 20.2%; 63; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CY4" t="inlineStr">
+        <is>
+          <t>301287.SZ; 康力源; 3.0%; 23.7%; 48.6; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -16453,6 +16598,11 @@
           <t>300804.SZ; 广康生化; 2.1%; 17.9%; 44.82; 15.5%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CY5" t="inlineStr">
+        <is>
+          <t>688068.SH; 热景生物; 1.7%; 20.2%; 161.15; 18.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -16783,6 +16933,11 @@
           <t>300476.SZ; 胜宏科技; 0.8%; 17.3%; 101.01; 16.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CY6" t="inlineStr">
+        <is>
+          <t>873527.BJ; 夜光明; 0.7%; 13.5%; 23.34; 12.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -17093,6 +17248,11 @@
           <t>301306.SZ; 西测测试; 0.5%; 20.7%; 44.92; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CY7" t="inlineStr">
+        <is>
+          <t>300804.SZ; 广康生化; 0.5%; 20.6%; 56.7; 20.0%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -17363,6 +17523,11 @@
           <t>688313.SH; 仕佳光子; 0.4%; 12.9%; 32.91; 12.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CY8" t="inlineStr">
+        <is>
+          <t>300796.SZ; 贝斯美; 0.5%; 12.0%; 12.2; 11.5%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -17598,6 +17763,11 @@
           <t>688183.SH; 生益电子; 0.4%; 20.5%; 38.27; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CY9" t="inlineStr">
+        <is>
+          <t>430017.BJ; 星昊医药; 0.4%; 27.8%; 25.19; 27.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -17806,6 +17976,11 @@
       <c r="CW10" t="inlineStr">
         <is>
           <t>301225.SZ; 恒勃股份; 0.2%; 12.0%; 85.13; 11.8%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CY10" t="inlineStr">
+        <is>
+          <t>834021.BJ; 流金科技; 0.3%; 12.1%; 8.16; 11.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -20565,7 +20740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX21"/>
+  <dimension ref="A1:CY21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21079,6 +21254,11 @@
           <t>2025年06月06日</t>
         </is>
       </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月09日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -21589,6 +21769,11 @@
           <t>300651.SZ; 金陵体育; 32; 8.9%; 191045.0; 8</t>
         </is>
       </c>
+      <c r="CY2" t="inlineStr">
+        <is>
+          <t>688041.SH; 海光信息; 136.13; 0.0%; 500203.0; 6</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -22099,6 +22284,11 @@
           <t>300255.SZ; 常山药业; 43.41; 15.1%; 111980.0; 23</t>
         </is>
       </c>
+      <c r="CY3" t="inlineStr">
+        <is>
+          <t>300255.SZ; 常山药业; 52.09; 20.0%; 317935.0; 8</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -22609,6 +22799,11 @@
           <t>300584.SZ; 海辰药业; 34.32; 20.0%; 92478.0; 32</t>
         </is>
       </c>
+      <c r="CY4" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 34.94; 20.0%; 276611.0; 11</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -23119,6 +23314,11 @@
           <t>300765.SZ; 新诺威; 63; 20.0%; 91550.5; 34</t>
         </is>
       </c>
+      <c r="CY5" t="inlineStr">
+        <is>
+          <t>300651.SZ; 金陵体育; 36.9; 15.3%; 246694.0; 18</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -23629,6 +23829,11 @@
           <t>300368.SZ; 汇金股份; 11.08; 6.9%; 86695.5; 37</t>
         </is>
       </c>
+      <c r="CY6" t="inlineStr">
+        <is>
+          <t>300584.SZ; 海辰药业; 41.06; 20.0%; 187310.0; 26</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -24139,6 +24344,11 @@
           <t>300468.SZ; 四方精创; 27.55; -7.6%; 68273.0; 55</t>
         </is>
       </c>
+      <c r="CY7" t="inlineStr">
+        <is>
+          <t>300340.SZ; 科恒股份; 15.72; 20.0%; 170909.5; 29</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -24649,6 +24859,11 @@
           <t>300921.SZ; 南凌科技; 31.99; 20.0%; 66614.0; 58</t>
         </is>
       </c>
+      <c r="CY8" t="inlineStr">
+        <is>
+          <t>301137.SZ; 哈焊华通; 38.9; 20.0%; 151385.0; 39</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -25159,6 +25374,11 @@
           <t>300963.SZ; 中洲特材; 30.88; 6.3%; 61317.5; 67</t>
         </is>
       </c>
+      <c r="CY9" t="inlineStr">
+        <is>
+          <t>300149.SZ; 睿智医药; 11.65; 20.0%; 141301.5; 45</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -25669,6 +25889,11 @@
           <t>300546.SZ; 雄帝科技; 26.01; -10.6%; 61125.5; 68</t>
         </is>
       </c>
+      <c r="CY10" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 11.75; 6.0%; 130184.0; 51</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -26179,6 +26404,11 @@
           <t>300204.SZ; 舒泰神; 29.12; -4.5%; 56307.0; 82</t>
         </is>
       </c>
+      <c r="CY11" t="inlineStr">
+        <is>
+          <t>837748.BJ; 路桥信息; 77.98; 30.0%; 124394.5; 53</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -26689,6 +26919,11 @@
           <t>300530.SZ; 领湃科技; 45.96; 9.1%; 54765.0; 85</t>
         </is>
       </c>
+      <c r="CY12" t="inlineStr">
+        <is>
+          <t>300798.SZ; 锦鸡股份; 8.81; 20.0%; 123781.0; 54</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -27199,6 +27434,11 @@
           <t>300502.SZ; 新易盛; 99.73; 2.9%; 46382.0; 99</t>
         </is>
       </c>
+      <c r="CY13" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 24.88; 12.8%; 119703.5; 58</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -27709,6 +27949,11 @@
           <t>300672.SZ; 国科微; 85.5; 5.5%; 42755.5; 107</t>
         </is>
       </c>
+      <c r="CY14" t="inlineStr">
+        <is>
+          <t>300804.SZ; 广康生化; 56.7; 20.0%; 112303.5; 62</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -28219,6 +28464,11 @@
           <t>301316.SZ; 慧博云通; 44.14; 4.8%; 41393.5; 111</t>
         </is>
       </c>
+      <c r="CY15" t="inlineStr">
+        <is>
+          <t>301287.SZ; 康力源; 48.6; 20.0%; 111064.0; 65</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -28729,6 +28979,11 @@
           <t>302132.SZ; 中航成飞; 81.67; 3.9%; 41360.5; 112</t>
         </is>
       </c>
+      <c r="CY16" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 27.8; 0.9%; 107144.0; 69</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -29239,6 +29494,11 @@
           <t>300570.SZ; 太辰光; 88.9; 7.4%; 40609.5; 114</t>
         </is>
       </c>
+      <c r="CY17" t="inlineStr">
+        <is>
+          <t>300530.SZ; 领湃科技; 50.97; 10.9%; 105057.5; 73</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -29749,6 +30009,11 @@
           <t>300065.SZ; 海兰信; 18.63; 2.8%; 40257.0; 117</t>
         </is>
       </c>
+      <c r="CY18" t="inlineStr">
+        <is>
+          <t>300546.SZ; 雄帝科技; 27.7; 6.5%; 92096.5; 88</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -30259,6 +30524,11 @@
           <t>688316.SH; 青云科技; 68.07; 15.3%; 39705.5; 119</t>
         </is>
       </c>
+      <c r="CY19" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 21.46; 2.7%; 89945.5; 90</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -30769,6 +31039,11 @@
           <t>301306.SZ; 西测测试; 49.89; 11.1%; 35425.0; 138</t>
         </is>
       </c>
+      <c r="CY20" t="inlineStr">
+        <is>
+          <t>300061.SZ; 旗天科技; 14; 16.9%; 89081.0; 92</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -31277,6 +31552,11 @@
       <c r="CX21" t="inlineStr">
         <is>
           <t>300082.SZ; 奥克股份; 8.59; -9.9%; 34550.0; 144</t>
+        </is>
+      </c>
+      <c r="CY21" t="inlineStr">
+        <is>
+          <t>300493.SZ; 润欣科技; 23.32; 15.7%; 87473.0; 94</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CY7"/>
+  <dimension ref="A1:CZ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,6 +947,11 @@
       <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>2025年06月09日</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月10日</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CY532"/>
+  <dimension ref="A1:CZ532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2138,6 +2143,11 @@
       <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>2025年06月09日</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月10日</t>
         </is>
       </c>
     </row>
@@ -7517,7 +7527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CY12"/>
+  <dimension ref="A1:CZ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8036,6 +8046,11 @@
           <t>2025年06月09日</t>
         </is>
       </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月10日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8526,6 +8541,11 @@
           <t>688573.SH; 信宇人; 1;  09:35:07; 23.38; 曾涨停; 12.4%; 0.75H;  09:35:07</t>
         </is>
       </c>
+      <c r="CZ2" t="inlineStr">
+        <is>
+          <t>872808.BJ; 曙光数创; 1;  09:25:02; 62.75; 曾涨停; 24.0%; 0.04H;  09:25:02</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -8946,6 +8966,11 @@
           <t>301141.SZ; 中科磁业; 2;  09:56:30; 45.85; 曾涨停; 13.5%; 0.20H;  09:56:30|| 13:40:48</t>
         </is>
       </c>
+      <c r="CZ3" t="inlineStr">
+        <is>
+          <t>301287.SZ; 康力源; 9;  09:31:18; 55; 曾涨停; 13.2%; 1.83H;  09:31:18|| 09:31:51|| 09:32:42|| 09:33:45|| 09:34:57|| 09:38:36|| 09:47:39|| 13:06:57|| 13:38:48</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -9251,6 +9276,11 @@
           <t>430017.BJ; 星昊医药; 4;  10:19:54; 25.19; 曾涨停; 27.3%; 0.12H;  10:19:54|| 10:31:30|| 10:33:03|| 10:35:30</t>
         </is>
       </c>
+      <c r="CZ4" t="inlineStr">
+        <is>
+          <t>300905.SZ; 宝丽迪; 2;  09:53:54; 38.9; 曾涨停; 15.5%; 1.39H;  09:53:54|| 10:31:45</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -9449,6 +9479,11 @@
       <c r="CY5" t="inlineStr">
         <is>
           <t>300191.SZ; 潜能恒信; 1;  10:26:57; 19.84; 曾涨停; 11.6%; 0.03H;  10:26:57</t>
+        </is>
+      </c>
+      <c r="CZ5" t="inlineStr">
+        <is>
+          <t>300796.SZ; 贝斯美; 2;  10:52:27; 13.63; 曾涨停; 11.7%; 0.55H;  10:52:27|| 10:58:36</t>
         </is>
       </c>
     </row>
@@ -9838,7 +9873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CY30"/>
+  <dimension ref="A1:CZ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10357,6 +10392,11 @@
           <t>2025年06月09日</t>
         </is>
       </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月10日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10867,6 +10907,11 @@
           <t>300804.SZ; 广康生化; 0;  09:37:24; 首板涨停; 56.7;  09:37:24; 20.0%; 1; K胺环评批复+农药原药+杀虫剂</t>
         </is>
       </c>
+      <c r="CZ2" t="inlineStr">
+        <is>
+          <t>300485.SZ; 赛升药业; 0;  09:49:21; 首板涨停; 12.78;  09:49:21; 20.0%; 1; 心脑血管注射剂+创新药研发+一季报扭亏</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -11357,6 +11402,11 @@
           <t>300149.SZ; 睿智医药; 0;  09:41:54; 首板涨停; 11.65;  09:41:54; 20.0%; 1; CRO+创新药+细胞免疫治疗</t>
         </is>
       </c>
+      <c r="CZ3" t="inlineStr">
+        <is>
+          <t>300619.SZ; 金银河; 0;  09:56:18; 首板涨停; 24.8;  09:56:18; 20.0%; 1; 固态电池+战略合作+锂电装备</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11817,6 +11867,11 @@
           <t>300995.SZ; 奇德新材; 0;  09:53:33; 首板涨停; 42.28;  09:53:33; 20.0%; 1; 碳纤维+新能源汽车+机器人概念+业绩增长</t>
         </is>
       </c>
+      <c r="CZ4" t="inlineStr">
+        <is>
+          <t>872895.BJ; 花溪科技; 0;  10:36:50; 首板涨停; 43.47;  10:36:50; 30.0%; 1; 农机+打捆机+焊接机器人</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -12232,6 +12287,11 @@
           <t>300255.SZ; 常山药业; 48;  13:50:09; 首板涨停; 52.09;  10:12:18; 20.0%; 1; 减肥药+创新药</t>
         </is>
       </c>
+      <c r="CZ5" t="inlineStr">
+        <is>
+          <t>300886.SZ; 华业香料; 0;  11:07:42; 首板涨停; 35.4;  11:07:42; 20.0%; 1; 内酯系列香料+外销+产能释放</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -12607,6 +12667,11 @@
           <t>301287.SZ; 康力源; 0;  14:04:42; 首板涨停; 48.6;  14:04:42; 20.0%; 1; 健身器材+足球概念+马来西亚量产</t>
         </is>
       </c>
+      <c r="CZ6" t="inlineStr">
+        <is>
+          <t>301141.SZ; 中科磁业; 1;  13:57:54; 首板涨停; 55.02;  13:22:57; 20.0%; 1; 稀土永磁+一季报增长+机器人概念</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -12917,6 +12982,11 @@
           <t>301137.SZ; 哈焊华通; 0;  14:22:45; 首板涨停; 38.9;  14:22:45; 20.0%; 1; 可控核聚变+焊接材料+此前收购中达金属60%股权+央企</t>
         </is>
       </c>
+      <c r="CZ7" t="inlineStr">
+        <is>
+          <t>688656.SH; 浩欧博; 1;  14:02:22; 首板涨停; 118.78;  13:59:40; 20.0%; 1; 控股股东变更+体外诊断+脱敏要</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -13187,6 +13257,11 @@
           <t>300204.SZ; 舒泰神; 1;  14:55:30; 首板涨停; 34.94;  14:55:24; 20.0%; 1; 创新药+STSP-0601+优先审评</t>
         </is>
       </c>
+      <c r="CZ8" t="inlineStr">
+        <is>
+          <t>300299.SZ; 富春股份; 1;  14:40:54; 首板涨停; 7.99;  13:47:30; 20.0%; 1; 参股《长安的荔枝》出品方+游戏+AI宠物</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -13382,6 +13457,11 @@
           <t>300016.SZ; 北陆药业; 0;  14:40:15; 首板涨停; 8.36;  14:40:15; 19.9%; 1; 中药+创新药+业绩增长</t>
         </is>
       </c>
+      <c r="CZ9" t="inlineStr">
+        <is>
+          <t>833171.BJ; 国航远洋; 0;  14:48:08; 首板涨停; 13.02;  14:48:08; 29.9%; 1; 航运+战略合作+出海</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -13540,6 +13620,11 @@
       <c r="CS10" t="inlineStr">
         <is>
           <t>300546.SZ; 雄帝科技; 1;  11:10:03; 首板涨停; 22.08;  10:57:24; 20.0%; 1; 数字货币+可信身份技术+智慧交通</t>
+        </is>
+      </c>
+      <c r="CZ10" t="inlineStr">
+        <is>
+          <t>300340.SZ; 科恒股份; 2;  14:52:54; 首板涨停; 18.86;  14:49:12; 20.0%; 2; 固态电池+稀土+氢能源+珠海国资</t>
         </is>
       </c>
     </row>
@@ -14364,7 +14449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CY178"/>
+  <dimension ref="A1:CZ178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14883,6 +14968,11 @@
           <t>2025年06月09日</t>
         </is>
       </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月10日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -15373,6 +15463,11 @@
           <t>871263.BJ; 莱赛激光; 5.2%; 12.4%; 24.18; 6.6%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="CZ2" t="inlineStr">
+        <is>
+          <t>300834.SZ; 星辉环材; 3.5%; 14.4%; 26.92; 10.4%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -15828,6 +15923,11 @@
           <t>300651.SZ; 金陵体育; 4.7%; 21.0%; 36.9; 15.3%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="CZ3" t="inlineStr">
+        <is>
+          <t>300945.SZ; 曼卡龙; 2.5%; 12.1%; 26.38; 9.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -16238,6 +16338,11 @@
           <t>301287.SZ; 康力源; 3.0%; 23.7%; 48.6; 20.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CZ4" t="inlineStr">
+        <is>
+          <t>300043.SZ; 星辉娱乐; 1.8%; 12.0%; 4.84; 10.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -16603,6 +16708,11 @@
           <t>688068.SH; 热景生物; 1.7%; 20.2%; 161.15; 18.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CZ5" t="inlineStr">
+        <is>
+          <t>300340.SZ; 科恒股份; 1.3%; 21.5%; 18.86; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -16938,6 +17048,11 @@
           <t>873527.BJ; 夜光明; 0.7%; 13.5%; 23.34; 12.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="CZ6" t="inlineStr">
+        <is>
+          <t>300886.SZ; 华业香料; 1.0%; 21.2%; 35.4; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -17253,6 +17368,11 @@
           <t>300804.SZ; 广康生化; 0.5%; 20.6%; 56.7; 20.0%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="CZ7" t="inlineStr">
+        <is>
+          <t>300796.SZ; 贝斯美; 0.3%; 12.1%; 13.63; 11.7%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -17528,6 +17648,11 @@
           <t>300796.SZ; 贝斯美; 0.5%; 12.0%; 12.2; 11.5%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="CZ8" t="inlineStr">
+        <is>
+          <t>833171.BJ; 国航远洋; 0.3%; 30.3%; 13.02; 29.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -17766,6 +17891,11 @@
       <c r="CY9" t="inlineStr">
         <is>
           <t>430017.BJ; 星昊医药; 0.4%; 27.8%; 25.19; 27.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="CZ9" t="inlineStr">
+        <is>
+          <t>301331.SZ; 恩威医药; 0.3%; 12.3%; 31.42; 12.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -20740,7 +20870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CY21"/>
+  <dimension ref="A1:CZ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21259,6 +21389,11 @@
           <t>2025年06月09日</t>
         </is>
       </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月10日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -21774,6 +21909,11 @@
           <t>688041.SH; 海光信息; 136.13; 0.0%; 500203.0; 6</t>
         </is>
       </c>
+      <c r="CZ2" t="inlineStr">
+        <is>
+          <t>300340.SZ; 科恒股份; 18.86; 20.0%; 215472.0; 12</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -22289,6 +22429,11 @@
           <t>300255.SZ; 常山药业; 52.09; 20.0%; 317935.0; 8</t>
         </is>
       </c>
+      <c r="CZ3" t="inlineStr">
+        <is>
+          <t>301141.SZ; 中科磁业; 55.02; 20.0%; 172253.0; 17</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -22804,6 +22949,11 @@
           <t>300204.SZ; 舒泰神; 34.94; 20.0%; 276611.0; 11</t>
         </is>
       </c>
+      <c r="CZ4" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 12.8; 8.9%; 164606.5; 19</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -23319,6 +23469,11 @@
           <t>300651.SZ; 金陵体育; 36.9; 15.3%; 246694.0; 18</t>
         </is>
       </c>
+      <c r="CZ5" t="inlineStr">
+        <is>
+          <t>300364.SZ; 中文在线; 25.66; 13.2%; 149627.0; 23</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -23834,6 +23989,11 @@
           <t>300584.SZ; 海辰药业; 41.06; 20.0%; 187310.0; 26</t>
         </is>
       </c>
+      <c r="CZ6" t="inlineStr">
+        <is>
+          <t>300299.SZ; 富春股份; 7.99; 20.0%; 134733.0; 32</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -24349,6 +24509,11 @@
           <t>300340.SZ; 科恒股份; 15.72; 20.0%; 170909.5; 29</t>
         </is>
       </c>
+      <c r="CZ7" t="inlineStr">
+        <is>
+          <t>688041.SH; 海光信息; 141.98; 4.3%; 121462.0; 41</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -24864,6 +25029,11 @@
           <t>301137.SZ; 哈焊华通; 38.9; 20.0%; 151385.0; 39</t>
         </is>
       </c>
+      <c r="CZ8" t="inlineStr">
+        <is>
+          <t>300651.SZ; 金陵体育; 34.05; -7.7%; 114690.5; 43</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -25379,6 +25549,11 @@
           <t>300149.SZ; 睿智医药; 11.65; 20.0%; 141301.5; 45</t>
         </is>
       </c>
+      <c r="CZ9" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 31.9; -8.7%; 96952.5; 55</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -25894,6 +26069,11 @@
           <t>300368.SZ; 汇金股份; 11.75; 6.0%; 130184.0; 51</t>
         </is>
       </c>
+      <c r="CZ10" t="inlineStr">
+        <is>
+          <t>300485.SZ; 赛升药业; 12.78; 20.0%; 90356.5; 60</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -26409,6 +26589,11 @@
           <t>837748.BJ; 路桥信息; 77.98; 30.0%; 124394.5; 53</t>
         </is>
       </c>
+      <c r="CZ11" t="inlineStr">
+        <is>
+          <t>300043.SZ; 星辉娱乐; 4.84; 10.0%; 87901.0; 62</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -26924,6 +27109,11 @@
           <t>300798.SZ; 锦鸡股份; 8.81; 20.0%; 123781.0; 54</t>
         </is>
       </c>
+      <c r="CZ12" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 28.3; 1.8%; 85814.5; 63</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -27439,6 +27629,11 @@
           <t>300963.SZ; 中洲特材; 24.88; 12.8%; 119703.5; 58</t>
         </is>
       </c>
+      <c r="CZ13" t="inlineStr">
+        <is>
+          <t>300619.SZ; 金银河; 24.8; 20.0%; 85295.0; 64</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -27954,6 +28149,11 @@
           <t>300804.SZ; 广康生化; 56.7; 20.0%; 112303.5; 62</t>
         </is>
       </c>
+      <c r="CZ14" t="inlineStr">
+        <is>
+          <t>300199.SZ; 翰宇药业; 17.81; 13.6%; 83058.5; 67</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -28469,6 +28669,11 @@
           <t>301287.SZ; 康力源; 48.6; 20.0%; 111064.0; 65</t>
         </is>
       </c>
+      <c r="CZ15" t="inlineStr">
+        <is>
+          <t>300798.SZ; 锦鸡股份; 10.16; 15.3%; 81978.5; 69</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -28984,6 +29189,11 @@
           <t>300468.SZ; 四方精创; 27.8; 0.9%; 107144.0; 69</t>
         </is>
       </c>
+      <c r="CZ16" t="inlineStr">
+        <is>
+          <t>300255.SZ; 常山药业; 50.45; -3.1%; 76292.5; 75</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -29499,6 +29709,11 @@
           <t>300530.SZ; 领湃科技; 50.97; 10.9%; 105057.5; 73</t>
         </is>
       </c>
+      <c r="CZ17" t="inlineStr">
+        <is>
+          <t>300886.SZ; 华业香料; 35.4; 20.0%; 75125.5; 76</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -30014,6 +30229,11 @@
           <t>300546.SZ; 雄帝科技; 27.7; 6.5%; 92096.5; 88</t>
         </is>
       </c>
+      <c r="CZ18" t="inlineStr">
+        <is>
+          <t>833171.BJ; 国航远洋; 13.02; 29.9%; 74508.0; 77</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -30529,6 +30749,11 @@
           <t>300059.SZ; 东方财富; 21.46; 2.7%; 89945.5; 90</t>
         </is>
       </c>
+      <c r="CZ19" t="inlineStr">
+        <is>
+          <t>300584.SZ; 海辰药业; 42.27; 2.9%; 71032.0; 86</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -31044,6 +31269,11 @@
           <t>300061.SZ; 旗天科技; 14; 16.9%; 89081.0; 92</t>
         </is>
       </c>
+      <c r="CZ20" t="inlineStr">
+        <is>
+          <t>300945.SZ; 曼卡龙; 26.38; 9.3%; 68020.0; 90</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -31557,6 +31787,11 @@
       <c r="CY21" t="inlineStr">
         <is>
           <t>300493.SZ; 润欣科技; 23.32; 15.7%; 87473.0; 94</t>
+        </is>
+      </c>
+      <c r="CZ21" t="inlineStr">
+        <is>
+          <t>300804.SZ; 广康生化; 50.85; -10.3%; 66949.0; 93</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CZ7"/>
+  <dimension ref="A1:DA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,6 +954,11 @@
           <t>2025年06月10日</t>
         </is>
       </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月11日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1247,6 +1252,11 @@
       <c r="CY2" t="inlineStr">
         <is>
           <t>300584.SZ; 海辰药业; 0;  09:54:30; 2天2板; 41.06;  09:54:30; 20.0%; 2; 创新药+固态电池+原料药</t>
+        </is>
+      </c>
+      <c r="DA2" t="inlineStr">
+        <is>
+          <t>301141.SZ; 中科磁业; 0;  10:48:21; 2天2板; 66.02;  10:48:21; 20.0%; 2; 稀土永磁+一季报增长+机器人概念</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CZ532"/>
+  <dimension ref="A1:DA532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2148,6 +2158,11 @@
       <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>2025年06月10日</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月11日</t>
         </is>
       </c>
     </row>
@@ -7527,7 +7542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CZ12"/>
+  <dimension ref="A1:DA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8051,6 +8066,11 @@
           <t>2025年06月10日</t>
         </is>
       </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月11日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8546,6 +8566,11 @@
           <t>872808.BJ; 曙光数创; 1;  09:25:02; 62.75; 曾涨停; 24.0%; 0.04H;  09:25:02</t>
         </is>
       </c>
+      <c r="DA2" t="inlineStr">
+        <is>
+          <t>300834.SZ; 星辉环材; 1;  09:31:51; 28.64; 曾涨停; 6.4%; 0.00H;  09:31:51</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -8971,6 +8996,11 @@
           <t>301287.SZ; 康力源; 9;  09:31:18; 55; 曾涨停; 13.2%; 1.83H;  09:31:18|| 09:31:51|| 09:32:42|| 09:33:45|| 09:34:57|| 09:38:36|| 09:47:39|| 13:06:57|| 13:38:48</t>
         </is>
       </c>
+      <c r="DA3" t="inlineStr">
+        <is>
+          <t>300220.SZ; 金运激光; 1;  09:45:36; 19.08; 曾涨停; 11.3%; 0.02H;  09:45:36</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -9281,6 +9311,11 @@
           <t>300905.SZ; 宝丽迪; 2;  09:53:54; 38.9; 曾涨停; 15.5%; 1.39H;  09:53:54|| 10:31:45</t>
         </is>
       </c>
+      <c r="DA4" t="inlineStr">
+        <is>
+          <t>300333.SZ; 兆日科技; 2;  09:53:24; 13.74; 曾涨停; 12.8%; 0.14H;  09:53:24|| 09:56:45</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -9486,6 +9521,11 @@
           <t>300796.SZ; 贝斯美; 2;  10:52:27; 13.63; 曾涨停; 11.7%; 0.55H;  10:52:27|| 10:58:36</t>
         </is>
       </c>
+      <c r="DA5" t="inlineStr">
+        <is>
+          <t>873305.BJ; 九菱科技; 4;  11:21:48; 79.49; 曾涨停; 29.9%; 0.11H;  11:21:48|| 11:27:51|| 11:28:57|| 13:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -9646,6 +9686,11 @@
           <t>300061.SZ; 旗天科技; 1;  10:35:48; 14; 曾涨停; 16.9%; 1.85H;  10:35:48</t>
         </is>
       </c>
+      <c r="DA6" t="inlineStr">
+        <is>
+          <t>300703.SZ; 创源股份; 1;  13:20:36; 27.82; 曾涨停; 13.6%; 0.02H;  13:20:36</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -9729,6 +9774,11 @@
       <c r="CY7" t="inlineStr">
         <is>
           <t>300493.SZ; 润欣科技; 1;  10:47:06; 23.32; 曾涨停; 15.7%; 1.46H;  10:47:06</t>
+        </is>
+      </c>
+      <c r="DA7" t="inlineStr">
+        <is>
+          <t>300546.SZ; 雄帝科技; 1;  14:18:30; 32.1; 曾涨停; 14.8%; 0.01H;  14:18:30</t>
         </is>
       </c>
     </row>
@@ -9873,7 +9923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CZ30"/>
+  <dimension ref="A1:DA30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10397,6 +10447,11 @@
           <t>2025年06月10日</t>
         </is>
       </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月11日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10912,6 +10967,11 @@
           <t>300485.SZ; 赛升药业; 0;  09:49:21; 首板涨停; 12.78;  09:49:21; 20.0%; 1; 心脑血管注射剂+创新药研发+一季报扭亏</t>
         </is>
       </c>
+      <c r="DA2" t="inlineStr">
+        <is>
+          <t>300745.SZ; 欣锐科技; 0;  09:36:45; 首板涨停; 20.46;  09:36:45; 20.0%; 1; 车载电源+超充+比亚迪概念+机器人概念</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -11407,6 +11467,11 @@
           <t>300619.SZ; 金银河; 0;  09:56:18; 首板涨停; 24.8;  09:56:18; 20.0%; 1; 固态电池+战略合作+锂电装备</t>
         </is>
       </c>
+      <c r="DA3" t="inlineStr">
+        <is>
+          <t>301110.SZ; 青木科技; 3;  14:09:18; 首板涨停; 60.35;  09:45:30; 20.0%; 1; 泡泡玛特概念+电商+AI智能体</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11870,6 +11935,11 @@
       <c r="CZ4" t="inlineStr">
         <is>
           <t>872895.BJ; 花溪科技; 0;  10:36:50; 首板涨停; 43.47;  10:36:50; 30.0%; 1; 农机+打捆机+焊接机器人</t>
+        </is>
+      </c>
+      <c r="DA4" t="inlineStr">
+        <is>
+          <t>833454.BJ; 同心传动; 6;  14:14:39; 首板涨停; 21.52;  09:51:33; 30.0%; 1; 汽车传动轴+俄罗斯市场+一季报增长</t>
         </is>
       </c>
     </row>
@@ -14449,7 +14519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CZ178"/>
+  <dimension ref="A1:DA178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14973,6 +15043,11 @@
           <t>2025年06月10日</t>
         </is>
       </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月11日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -15468,6 +15543,11 @@
           <t>300834.SZ; 星辉环材; 3.5%; 14.4%; 26.92; 10.4%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DA2" t="inlineStr">
+        <is>
+          <t>873305.BJ; 九菱科技; 5.4%; 37.3%; 79.49; 29.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -15928,6 +16008,11 @@
           <t>300945.SZ; 曼卡龙; 2.5%; 12.1%; 26.38; 9.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DA3" t="inlineStr">
+        <is>
+          <t>836961.BJ; 西磁科技; 4.3%; 18.3%; 47.15; 13.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -16343,6 +16428,11 @@
           <t>300043.SZ; 星辉娱乐; 1.8%; 12.0%; 4.84; 10.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DA4" t="inlineStr">
+        <is>
+          <t>300127.SZ; 银河磁体; 3.3%; 12.2%; 31.36; 8.6%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -16713,6 +16803,11 @@
           <t>300340.SZ; 科恒股份; 1.3%; 21.5%; 18.86; 20.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DA5" t="inlineStr">
+        <is>
+          <t>300546.SZ; 雄帝科技; 2.7%; 17.9%; 32.1; 14.8%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -17053,6 +17148,11 @@
           <t>300886.SZ; 华业香料; 1.0%; 21.2%; 35.4; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DA6" t="inlineStr">
+        <is>
+          <t>688077.SH; 大地熊; 2.1%; 14.2%; 31.16; 11.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -17373,6 +17473,11 @@
           <t>300796.SZ; 贝斯美; 0.3%; 12.1%; 13.63; 11.7%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DA7" t="inlineStr">
+        <is>
+          <t>836807.BJ; 奔朗新材; 2.0%; 14.1%; 13.8; 11.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -17653,6 +17758,11 @@
           <t>833171.BJ; 国航远洋; 0.3%; 30.3%; 13.02; 29.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DA8" t="inlineStr">
+        <is>
+          <t>301622.SZ; 英思特; 1.6%; 15.2%; 81.1; 13.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -17898,6 +18008,11 @@
           <t>301331.SZ; 恩威医药; 0.3%; 12.3%; 31.42; 12.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DA9" t="inlineStr">
+        <is>
+          <t>301141.SZ; 中科磁业; 0.9%; 21.1%; 66.02; 20.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -18113,6 +18228,11 @@
           <t>834021.BJ; 流金科技; 0.3%; 12.1%; 8.16; 11.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DA10" t="inlineStr">
+        <is>
+          <t>688359.SH; 三孚新科; 0.6%; 12.5%; 53.45; 11.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -18296,6 +18416,11 @@
       <c r="CW11" t="inlineStr">
         <is>
           <t>688800.SH; 瑞可达; 0.1%; 16.6%; 47.69; 16.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="DA11" t="inlineStr">
+        <is>
+          <t>300043.SZ; 星辉娱乐; 0.2%; 13.7%; 5.49; 13.4%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
     </row>
@@ -20870,7 +20995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CZ21"/>
+  <dimension ref="A1:DA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21394,6 +21519,11 @@
           <t>2025年06月10日</t>
         </is>
       </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月11日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -21914,6 +22044,11 @@
           <t>300340.SZ; 科恒股份; 18.86; 20.0%; 215472.0; 12</t>
         </is>
       </c>
+      <c r="DA2" t="inlineStr">
+        <is>
+          <t>301141.SZ; 中科磁业; 66.02; 20.0%; 235271.5; 10</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -22434,6 +22569,11 @@
           <t>301141.SZ; 中科磁业; 55.02; 20.0%; 172253.0; 17</t>
         </is>
       </c>
+      <c r="DA3" t="inlineStr">
+        <is>
+          <t>688775.SH; 影石创新; 177; 274.4%; 231858.0; 11</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -22954,6 +23094,11 @@
           <t>300368.SZ; 汇金股份; 12.8; 8.9%; 164606.5; 19</t>
         </is>
       </c>
+      <c r="DA4" t="inlineStr">
+        <is>
+          <t>300043.SZ; 星辉娱乐; 5.49; 13.4%; 178007.5; 19</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -23474,6 +23619,11 @@
           <t>300364.SZ; 中文在线; 25.66; 13.2%; 149627.0; 23</t>
         </is>
       </c>
+      <c r="DA5" t="inlineStr">
+        <is>
+          <t>300546.SZ; 雄帝科技; 32.1; 14.8%; 175802.0; 20</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -23994,6 +24144,11 @@
           <t>300299.SZ; 富春股份; 7.99; 20.0%; 134733.0; 32</t>
         </is>
       </c>
+      <c r="DA6" t="inlineStr">
+        <is>
+          <t>300299.SZ; 富春股份; 8.78; 9.9%; 172827.0; 22</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -24514,6 +24669,11 @@
           <t>688041.SH; 海光信息; 141.98; 4.3%; 121462.0; 41</t>
         </is>
       </c>
+      <c r="DA7" t="inlineStr">
+        <is>
+          <t>300237.SZ; 美晨科技; 2.08; 20.2%; 141920.5; 33</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -25034,6 +25194,11 @@
           <t>300651.SZ; 金陵体育; 34.05; -7.7%; 114690.5; 43</t>
         </is>
       </c>
+      <c r="DA8" t="inlineStr">
+        <is>
+          <t>300804.SZ; 广康生化; 60.45; 18.9%; 133480.0; 39</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -25554,6 +25719,11 @@
           <t>300204.SZ; 舒泰神; 31.9; -8.7%; 96952.5; 55</t>
         </is>
       </c>
+      <c r="DA9" t="inlineStr">
+        <is>
+          <t>301110.SZ; 青木科技; 60.35; 20.0%; 127536.0; 41</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -26074,6 +26244,11 @@
           <t>300485.SZ; 赛升药业; 12.78; 20.0%; 90356.5; 60</t>
         </is>
       </c>
+      <c r="DA10" t="inlineStr">
+        <is>
+          <t>300748.SZ; 金力永磁; 24.07; 7.9%; 121235.5; 46</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -26594,6 +26769,11 @@
           <t>300043.SZ; 星辉娱乐; 4.84; 10.0%; 87901.0; 62</t>
         </is>
       </c>
+      <c r="DA11" t="inlineStr">
+        <is>
+          <t>300703.SZ; 创源股份; 27.82; 13.6%; 112820.0; 52</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -27114,6 +27294,11 @@
           <t>300468.SZ; 四方精创; 28.3; 1.8%; 85814.5; 63</t>
         </is>
       </c>
+      <c r="DA12" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 29.59; 4.6%; 108692.0; 54</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -27634,6 +27819,11 @@
           <t>300619.SZ; 金银河; 24.8; 20.0%; 85295.0; 64</t>
         </is>
       </c>
+      <c r="DA13" t="inlineStr">
+        <is>
+          <t>300745.SZ; 欣锐科技; 20.46; 20.0%; 104092.5; 59</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -28154,6 +28344,11 @@
           <t>300199.SZ; 翰宇药业; 17.81; 13.6%; 83058.5; 67</t>
         </is>
       </c>
+      <c r="DA14" t="inlineStr">
+        <is>
+          <t>300340.SZ; 科恒股份; 18.5; -1.9%; 97172.5; 69</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -28674,6 +28869,11 @@
           <t>300798.SZ; 锦鸡股份; 10.16; 15.3%; 81978.5; 69</t>
         </is>
       </c>
+      <c r="DA15" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 11.56; -9.7%; 89832.0; 75</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -29194,6 +29394,11 @@
           <t>300255.SZ; 常山药业; 50.45; -3.1%; 76292.5; 75</t>
         </is>
       </c>
+      <c r="DA16" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 21.49; 2.5%; 87621.0; 82</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -29714,6 +29919,11 @@
           <t>300886.SZ; 华业香料; 35.4; 20.0%; 75125.5; 76</t>
         </is>
       </c>
+      <c r="DA17" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 31.26; -2.0%; 74050.5; 97</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -30234,6 +30444,11 @@
           <t>833171.BJ; 国航远洋; 13.02; 29.9%; 74508.0; 77</t>
         </is>
       </c>
+      <c r="DA18" t="inlineStr">
+        <is>
+          <t>300651.SZ; 金陵体育; 33.16; -2.6%; 69546.0; 104</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -30754,6 +30969,11 @@
           <t>300584.SZ; 海辰药业; 42.27; 2.9%; 71032.0; 86</t>
         </is>
       </c>
+      <c r="DA19" t="inlineStr">
+        <is>
+          <t>688041.SH; 海光信息; 135.5; -4.6%; 68601.0; 106</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -31274,6 +31494,11 @@
           <t>300945.SZ; 曼卡龙; 26.38; 9.3%; 68020.0; 90</t>
         </is>
       </c>
+      <c r="DA20" t="inlineStr">
+        <is>
+          <t>300127.SZ; 银河磁体; 31.36; 8.6%; 63275.0; 117</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -31792,6 +32017,11 @@
       <c r="CZ21" t="inlineStr">
         <is>
           <t>300804.SZ; 广康生化; 50.85; -10.3%; 66949.0; 93</t>
+        </is>
+      </c>
+      <c r="DA21" t="inlineStr">
+        <is>
+          <t>300255.SZ; 常山药业; 50.55; 0.2%; 62370.5; 122</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DA7"/>
+  <dimension ref="A1:DB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -959,6 +959,11 @@
           <t>2025年06月11日</t>
         </is>
       </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月12日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1259,6 +1264,11 @@
           <t>301141.SZ; 中科磁业; 0;  10:48:21; 2天2板; 66.02;  10:48:21; 20.0%; 2; 稀土永磁+一季报增长+机器人概念</t>
         </is>
       </c>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t>300886.SZ; 华业香料; 0;  14:23:30; 3天2板; 41.36;  14:23:30; 20.0%; 1; 烟草概念+香料+一季报增长+外销</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1437,6 +1447,11 @@
       <c r="CY3" t="inlineStr">
         <is>
           <t>837748.BJ; 路桥信息; 2;  14:50:30; 7天4板; 77.98;  14:32:39; 30.0%; 1; 移动支付+交通数字化服务+机器人+国企</t>
+        </is>
+      </c>
+      <c r="DB3" t="inlineStr">
+        <is>
+          <t>301110.SZ; 青木科技; 2;  14:35:36; 2天2板; 72.42;  14:31:21; 20.0%; 2; 泡泡玛特代运营服务商+电商+AI智能体</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DA532"/>
+  <dimension ref="A1:DB532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2163,6 +2178,11 @@
       <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>2025年06月11日</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月12日</t>
         </is>
       </c>
     </row>
@@ -7542,7 +7562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DA12"/>
+  <dimension ref="A1:DB12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8071,6 +8091,11 @@
           <t>2025年06月11日</t>
         </is>
       </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月12日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8569,6 +8594,11 @@
       <c r="DA2" t="inlineStr">
         <is>
           <t>300834.SZ; 星辉环材; 1;  09:31:51; 28.64; 曾涨停; 6.4%; 0.00H;  09:31:51</t>
+        </is>
+      </c>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t>833454.BJ; 同心传动; 1;  11:23:43; 25.97; 曾涨停; 20.7%; 0.38H;  11:23:43</t>
         </is>
       </c>
     </row>
@@ -9923,7 +9953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DA30"/>
+  <dimension ref="A1:DB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10452,6 +10482,11 @@
           <t>2025年06月11日</t>
         </is>
       </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月12日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10972,6 +11007,11 @@
           <t>300745.SZ; 欣锐科技; 0;  09:36:45; 首板涨停; 20.46;  09:36:45; 20.0%; 1; 车载电源+超充+比亚迪概念+机器人概念</t>
         </is>
       </c>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t>300949.SZ; 奥雅股份; 0;  09:33:12; 首板涨停; 52.8;  09:33:12; 20.0%; 1; IP经济+城市更新+AI赋能</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -11472,6 +11512,11 @@
           <t>301110.SZ; 青木科技; 3;  14:09:18; 首板涨停; 60.35;  09:45:30; 20.0%; 1; 泡泡玛特概念+电商+AI智能体</t>
         </is>
       </c>
+      <c r="DB3" t="inlineStr">
+        <is>
+          <t>300640.SZ; 德艺文创; 0;  09:46:42; 首板涨停; 8.52;  09:46:42; 20.0%; 1; IP经济+文创家居用品+跨境电商</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11942,6 +11987,11 @@
           <t>833454.BJ; 同心传动; 6;  14:14:39; 首板涨停; 21.52;  09:51:33; 30.0%; 1; 汽车传动轴+俄罗斯市场+一季报增长</t>
         </is>
       </c>
+      <c r="DB4" t="inlineStr">
+        <is>
+          <t>688619.SH; 罗普特; 1;  10:10:51; 首板涨停; 12.01;  10:06:27; 20.0%; 1; 股权激励+量子科技+算力+AI应用</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -12362,6 +12412,11 @@
           <t>300886.SZ; 华业香料; 0;  11:07:42; 首板涨停; 35.4;  11:07:42; 20.0%; 1; 内酯系列香料+外销+产能释放</t>
         </is>
       </c>
+      <c r="DB5" t="inlineStr">
+        <is>
+          <t>300333.SZ; 兆日科技; 0;  10:43:18; 首板涨停; 16.49;  10:43:18; 20.0%; 1; 银行数字货币+纸纹防伪应用</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -12742,6 +12797,11 @@
           <t>301141.SZ; 中科磁业; 1;  13:57:54; 首板涨停; 55.02;  13:22:57; 20.0%; 1; 稀土永磁+一季报增长+机器人概念</t>
         </is>
       </c>
+      <c r="DB6" t="inlineStr">
+        <is>
+          <t>301662.SZ; 宏工科技; 0;  13:24:33; 首板涨停; 93.05;  13:24:33; 20.0%; 1; 固态电池+次新股</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -13057,6 +13117,11 @@
           <t>688656.SH; 浩欧博; 1;  14:02:22; 首板涨停; 118.78;  13:59:40; 20.0%; 1; 控股股东变更+体外诊断+脱敏要</t>
         </is>
       </c>
+      <c r="DB7" t="inlineStr">
+        <is>
+          <t>300987.SZ; 川网传媒; 0;  13:35:12; 首板涨停; 20.64;  13:35:12; 20.0%; 1; 一季报增长+人工智能+广告资源+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -13332,6 +13397,11 @@
           <t>300299.SZ; 富春股份; 1;  14:40:54; 首板涨停; 7.99;  13:47:30; 20.0%; 1; 参股《长安的荔枝》出品方+游戏+AI宠物</t>
         </is>
       </c>
+      <c r="DB8" t="inlineStr">
+        <is>
+          <t>833075.BJ; 柏星龙; 3;  14:07:52; 首板涨停; 46.99;  11:28:52; 30.0%; 1; 文创IP+智慧工厂+创意设计</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -13532,6 +13602,11 @@
           <t>833171.BJ; 国航远洋; 0;  14:48:08; 首板涨停; 13.02;  14:48:08; 29.9%; 1; 航运+战略合作+出海</t>
         </is>
       </c>
+      <c r="DB9" t="inlineStr">
+        <is>
+          <t>300521.SZ; 爱司凯; 2;  14:37:12; 首板涨停; 25.44;  13:42:15; 20.0%; 1; 3D打印+工业化打印</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -13695,6 +13770,11 @@
       <c r="CZ10" t="inlineStr">
         <is>
           <t>300340.SZ; 科恒股份; 2;  14:52:54; 首板涨停; 18.86;  14:49:12; 20.0%; 2; 固态电池+稀土+氢能源+珠海国资</t>
+        </is>
+      </c>
+      <c r="DB10" t="inlineStr">
+        <is>
+          <t>301622.SZ; 英思特; 3;  14:50:33; 首板涨停; 97.32;  11:12:06; 20.0%; 1; 稀土永磁+人形机器人+业绩增长</t>
         </is>
       </c>
     </row>
@@ -14519,7 +14599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DA178"/>
+  <dimension ref="A1:DB178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15048,6 +15128,11 @@
           <t>2025年06月11日</t>
         </is>
       </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月12日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -15548,6 +15633,11 @@
           <t>873305.BJ; 九菱科技; 5.4%; 37.3%; 79.49; 29.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t>300333.SZ; 兆日科技; 3.9%; 24.8%; 16.49; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -16013,6 +16103,11 @@
           <t>836961.BJ; 西磁科技; 4.3%; 18.3%; 47.15; 13.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DB3" t="inlineStr">
+        <is>
+          <t>837748.BJ; 路桥信息; 3.6%; 15.3%; 84.47; 11.1%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -16433,6 +16528,11 @@
           <t>300127.SZ; 银河磁体; 3.3%; 12.2%; 31.36; 8.6%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DB4" t="inlineStr">
+        <is>
+          <t>833454.BJ; 同心传动; 3.0%; 24.4%; 25.97; 20.7%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -16808,6 +16908,11 @@
           <t>300546.SZ; 雄帝科技; 2.7%; 17.9%; 32.1; 14.8%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DB5" t="inlineStr">
+        <is>
+          <t>833075.BJ; 柏星龙; 2.9%; 33.9%; 46.99; 30.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -17153,6 +17258,11 @@
           <t>688077.SH; 大地熊; 2.1%; 14.2%; 31.16; 11.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DB6" t="inlineStr">
+        <is>
+          <t>688077.SH; 大地熊; 2.1%; 17.7%; 35.9; 15.2%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -17478,6 +17588,11 @@
           <t>836807.BJ; 奔朗新材; 2.0%; 14.1%; 13.8; 11.7%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DB7" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 1.9%; 12.5%; 34.5; 10.4%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -17763,6 +17878,11 @@
           <t>301622.SZ; 英思特; 1.6%; 15.2%; 81.1; 13.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DB8" t="inlineStr">
+        <is>
+          <t>300886.SZ; 华业香料; 1.3%; 21.6%; 41.36; 20.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -18013,6 +18133,11 @@
           <t>301141.SZ; 中科磁业; 0.9%; 21.1%; 66.02; 20.0%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="DB9" t="inlineStr">
+        <is>
+          <t>832522.BJ; 纳科诺尔; 1.3%; 13.6%; 48.21; 12.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -18233,6 +18358,11 @@
           <t>688359.SH; 三孚新科; 0.6%; 12.5%; 53.45; 11.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DB10" t="inlineStr">
+        <is>
+          <t>300528.SZ; 幸福蓝海; 1.0%; 14.7%; 11.62; 13.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -18423,6 +18553,11 @@
           <t>300043.SZ; 星辉娱乐; 0.2%; 13.7%; 5.49; 13.4%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DB11" t="inlineStr">
+        <is>
+          <t>301662.SZ; 宏工科技; 0.7%; 20.8%; 93.05; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -18553,6 +18688,11 @@
           <t>688136.SH; 科兴制药; 1.8%; 17.1%; 61.73; 15.0%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="DB12" t="inlineStr">
+        <is>
+          <t>688489.SH; 三未信安; 0.2%; 13.3%; 38.56; 13.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -18661,6 +18801,11 @@
       <c r="CU13" t="inlineStr">
         <is>
           <t>300740.SZ; 水羊股份; 1.3%; 14.2%; 17.79; 12.7%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="DB13" t="inlineStr">
+        <is>
+          <t>301622.SZ; 英思特; 0.2%; 20.2%; 97.32; 20.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
     </row>
@@ -20995,7 +21140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DA21"/>
+  <dimension ref="A1:DB21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21524,6 +21669,11 @@
           <t>2025年06月11日</t>
         </is>
       </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月12日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -22049,6 +22199,11 @@
           <t>301141.SZ; 中科磁业; 66.02; 20.0%; 235271.5; 10</t>
         </is>
       </c>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t>301110.SZ; 青木科技; 72.42; 20.0%; 184712.0; 18</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -22574,6 +22729,11 @@
           <t>688775.SH; 影石创新; 177; 274.4%; 231858.0; 11</t>
         </is>
       </c>
+      <c r="DB3" t="inlineStr">
+        <is>
+          <t>300237.SZ; 美晨科技; 2.5; 20.2%; 176201.0; 21</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -23099,6 +23259,11 @@
           <t>300043.SZ; 星辉娱乐; 5.49; 13.4%; 178007.5; 19</t>
         </is>
       </c>
+      <c r="DB4" t="inlineStr">
+        <is>
+          <t>300333.SZ; 兆日科技; 16.49; 20.0%; 172886.5; 22</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -23624,6 +23789,11 @@
           <t>300546.SZ; 雄帝科技; 32.1; 14.8%; 175802.0; 20</t>
         </is>
       </c>
+      <c r="DB5" t="inlineStr">
+        <is>
+          <t>300546.SZ; 雄帝科技; 34.41; 7.2%; 167682.5; 25</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -24149,6 +24319,11 @@
           <t>300299.SZ; 富春股份; 8.78; 9.9%; 172827.0; 22</t>
         </is>
       </c>
+      <c r="DB6" t="inlineStr">
+        <is>
+          <t>301622.SZ; 英思特; 97.32; 20.0%; 163681.5; 27</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -24674,6 +24849,11 @@
           <t>300237.SZ; 美晨科技; 2.08; 20.2%; 141920.5; 33</t>
         </is>
       </c>
+      <c r="DB7" t="inlineStr">
+        <is>
+          <t>301141.SZ; 中科磁业; 68.13; 3.2%; 141427.0; 30</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -25199,6 +25379,11 @@
           <t>300804.SZ; 广康生化; 60.45; 18.9%; 133480.0; 39</t>
         </is>
       </c>
+      <c r="DB8" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 34.5; 10.4%; 135540.0; 34</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -25724,6 +25909,11 @@
           <t>301110.SZ; 青木科技; 60.35; 20.0%; 127536.0; 41</t>
         </is>
       </c>
+      <c r="DB9" t="inlineStr">
+        <is>
+          <t>300085.SZ; 银之杰; 39.95; 6.9%; 116833.5; 42</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -26249,6 +26439,11 @@
           <t>300748.SZ; 金力永磁; 24.07; 7.9%; 121235.5; 46</t>
         </is>
       </c>
+      <c r="DB10" t="inlineStr">
+        <is>
+          <t>300651.SZ; 金陵体育; 35.33; 6.5%; 110347.5; 50</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -26774,6 +26969,11 @@
           <t>300703.SZ; 创源股份; 27.82; 13.6%; 112820.0; 52</t>
         </is>
       </c>
+      <c r="DB11" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 29.09; -1.7%; 108107.0; 53</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -27299,6 +27499,11 @@
           <t>300468.SZ; 四方精创; 29.59; 4.6%; 108692.0; 54</t>
         </is>
       </c>
+      <c r="DB12" t="inlineStr">
+        <is>
+          <t>300886.SZ; 华业香料; 41.36; 20.0%; 100592.0; 60</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -27824,6 +28029,11 @@
           <t>300745.SZ; 欣锐科技; 20.46; 20.0%; 104092.5; 59</t>
         </is>
       </c>
+      <c r="DB13" t="inlineStr">
+        <is>
+          <t>300640.SZ; 德艺文创; 8.52; 20.0%; 91963.0; 67</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -28349,6 +28559,11 @@
           <t>300340.SZ; 科恒股份; 18.5; -1.9%; 97172.5; 69</t>
         </is>
       </c>
+      <c r="DB14" t="inlineStr">
+        <is>
+          <t>300987.SZ; 川网传媒; 20.64; 20.0%; 91395.0; 68</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -28874,6 +29089,11 @@
           <t>300368.SZ; 汇金股份; 11.56; -9.7%; 89832.0; 75</t>
         </is>
       </c>
+      <c r="DB15" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 116; 7.4%; 90819.5; 71</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -29399,6 +29619,11 @@
           <t>300059.SZ; 东方财富; 21.49; 2.5%; 87621.0; 82</t>
         </is>
       </c>
+      <c r="DB16" t="inlineStr">
+        <is>
+          <t>300251.SZ; 光线传媒; 18.95; 5.8%; 88268.0; 73</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -29924,6 +30149,11 @@
           <t>300204.SZ; 舒泰神; 31.26; -2.0%; 74050.5; 97</t>
         </is>
       </c>
+      <c r="DB17" t="inlineStr">
+        <is>
+          <t>300340.SZ; 科恒股份; 17.63; -4.7%; 83787.5; 77</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -30449,6 +30679,11 @@
           <t>300651.SZ; 金陵体育; 33.16; -2.6%; 69546.0; 104</t>
         </is>
       </c>
+      <c r="DB18" t="inlineStr">
+        <is>
+          <t>300149.SZ; 睿智医药; 12.89; 11.3%; 82342.5; 79</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -30974,6 +31209,11 @@
           <t>688041.SH; 海光信息; 135.5; -4.6%; 68601.0; 106</t>
         </is>
       </c>
+      <c r="DB19" t="inlineStr">
+        <is>
+          <t>300364.SZ; 中文在线; 26.8; 3.1%; 81446.0; 80</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -31499,6 +31739,11 @@
           <t>300127.SZ; 银河磁体; 31.36; 8.6%; 63275.0; 117</t>
         </is>
       </c>
+      <c r="DB20" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 10.69; -7.5%; 76601.0; 91</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -32022,6 +32267,11 @@
       <c r="DA21" t="inlineStr">
         <is>
           <t>300255.SZ; 常山药业; 50.55; 0.2%; 62370.5; 122</t>
+        </is>
+      </c>
+      <c r="DB21" t="inlineStr">
+        <is>
+          <t>300299.SZ; 富春股份; 8.21; -6.5%; 76275.0; 92</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DB7"/>
+  <dimension ref="A1:DC7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -962,6 +962,11 @@
       <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>2025年06月12日</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月13日</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DB532"/>
+  <dimension ref="A1:DC532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2183,6 +2188,11 @@
       <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>2025年06月12日</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月13日</t>
         </is>
       </c>
     </row>
@@ -7562,7 +7572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DB12"/>
+  <dimension ref="A1:DC12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8096,6 +8106,11 @@
           <t>2025年06月12日</t>
         </is>
       </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月13日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8599,6 +8614,11 @@
       <c r="DB2" t="inlineStr">
         <is>
           <t>833454.BJ; 同心传动; 1;  11:23:43; 25.97; 曾涨停; 20.7%; 0.38H;  11:23:43</t>
+        </is>
+      </c>
+      <c r="DC2" t="inlineStr">
+        <is>
+          <t>300798.SZ; 锦鸡股份; 2;  14:05:18; 11.25; 曾涨停; 12.5%; 0.05H;  14:05:18|| 14:08:48</t>
         </is>
       </c>
     </row>
@@ -9953,7 +9973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DB30"/>
+  <dimension ref="A1:DC30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10487,6 +10507,11 @@
           <t>2025年06月12日</t>
         </is>
       </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月13日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11012,6 +11037,11 @@
           <t>300949.SZ; 奥雅股份; 0;  09:33:12; 首板涨停; 52.8;  09:33:12; 20.0%; 1; IP经济+城市更新+AI赋能</t>
         </is>
       </c>
+      <c r="DC2" t="inlineStr">
+        <is>
+          <t>688291.SH; 金橙子; 1;  09:31:50; 首板涨停; 27.11;  09:30:20; 20.0%; 1; 激光加工+3D打印+Q1业绩增长</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -11517,6 +11547,11 @@
           <t>300640.SZ; 德艺文创; 0;  09:46:42; 首板涨停; 8.52;  09:46:42; 20.0%; 1; IP经济+文创家居用品+跨境电商</t>
         </is>
       </c>
+      <c r="DC3" t="inlineStr">
+        <is>
+          <t>300164.SZ; 通源石油; 6;  09:48:12; 首板涨停; 5.06;  09:25:00; 19.9%; 1; 油气开发+射孔技术+CCUS业务</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11992,6 +12027,11 @@
           <t>688619.SH; 罗普特; 1;  10:10:51; 首板涨停; 12.01;  10:06:27; 20.0%; 1; 股权激励+量子科技+算力+AI应用</t>
         </is>
       </c>
+      <c r="DC4" t="inlineStr">
+        <is>
+          <t>300157.SZ; 新锦动力; 0;  10:13:12; 首板涨停; 4.72;  10:13:12; 20.1%; 1; 油气装备+能源装备+海外市场拓展</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -12417,6 +12457,11 @@
           <t>300333.SZ; 兆日科技; 0;  10:43:18; 首板涨停; 16.49;  10:43:18; 20.0%; 1; 银行数字货币+纸纹防伪应用</t>
         </is>
       </c>
+      <c r="DC5" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 1;  10:33:18; 首板涨停; 43.26;  10:17:57; 20.0%; 1; 并购重组+军工+无人机</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -12802,6 +12847,11 @@
           <t>301662.SZ; 宏工科技; 0;  13:24:33; 首板涨停; 93.05;  13:24:33; 20.0%; 1; 固态电池+次新股</t>
         </is>
       </c>
+      <c r="DC6" t="inlineStr">
+        <is>
+          <t>920088.BJ; 科力股份; 0;  10:33:34; 首板涨停; 41.14;  10:33:34; 30.0%; 1; 油田技术服务+一季报增长+国际拓展+现金分红</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -13122,6 +13172,11 @@
           <t>300987.SZ; 川网传媒; 0;  13:35:12; 首板涨停; 20.64;  13:35:12; 20.0%; 1; 一季报增长+人工智能+广告资源+国企改革</t>
         </is>
       </c>
+      <c r="DC7" t="inlineStr">
+        <is>
+          <t>301158.SZ; 德石股份; 1;  10:55:06; 首板涨停; 20.34;  10:03:33; 20.0%; 1; 油气设备+页岩气概念+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -13402,6 +13457,11 @@
           <t>833075.BJ; 柏星龙; 3;  14:07:52; 首板涨停; 46.99;  11:28:52; 30.0%; 1; 文创IP+智慧工厂+创意设计</t>
         </is>
       </c>
+      <c r="DC8" t="inlineStr">
+        <is>
+          <t>301118.SZ; 恒光股份; 0;  11:16:51; 首板涨停; 26.32;  11:16:51; 20.0%; 1; 净水+磷化工+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -13607,6 +13667,11 @@
           <t>300521.SZ; 爱司凯; 2;  14:37:12; 首板涨停; 25.44;  13:42:15; 20.0%; 1; 3D打印+工业化打印</t>
         </is>
       </c>
+      <c r="DC9" t="inlineStr">
+        <is>
+          <t>300962.SZ; 中金辐照; 1;  13:00:00; 首板涨停; 18.54;  11:12:06; 20.0%; 1; 核污染防治+辐照灭菌+央企</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -13777,6 +13842,11 @@
           <t>301622.SZ; 英思特; 3;  14:50:33; 首板涨停; 97.32;  11:12:06; 20.0%; 1; 稀土永磁+人形机器人+业绩增长</t>
         </is>
       </c>
+      <c r="DC10" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 0;  13:09:51; 首板涨停; 15.82;  13:09:51; 20.0%; 1; 航空装备+军工+无人机</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -13917,6 +13987,11 @@
           <t>300468.SZ; 四方精创; 0;  11:22:18; 首板涨停; 23.11;  11:22:18; 20.0%; 1; 数字货币+跨境支付+金融科技+AI智能体</t>
         </is>
       </c>
+      <c r="DC11" t="inlineStr">
+        <is>
+          <t>300645.SZ; 正元智慧; 0;  13:51:00; 首板涨停; 18.46;  13:51:00; 20.0%; 1; 蚂蚁金服概念+智慧校园+华为昇腾</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -14020,6 +14095,11 @@
       <c r="CS12" t="inlineStr">
         <is>
           <t>300872.SZ; 天阳科技; 0;  11:29:21; 首板涨停; 18.62;  11:29:21; 20.0%; 1; 金融科技+银行IT解决方案</t>
+        </is>
+      </c>
+      <c r="DC12" t="inlineStr">
+        <is>
+          <t>300689.SZ; 澄天伟业; 1;  14:34:24; 首板涨停; 57.29;  13:51:03; 20.0%; 1; 液冷量产+一季报增长+引线框架</t>
         </is>
       </c>
     </row>
@@ -14599,7 +14679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DB178"/>
+  <dimension ref="A1:DC178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15133,6 +15213,11 @@
           <t>2025年06月12日</t>
         </is>
       </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月13日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -15638,6 +15723,11 @@
           <t>300333.SZ; 兆日科技; 3.9%; 24.8%; 16.49; 20.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DC2" t="inlineStr">
+        <is>
+          <t>300867.SZ; 圣元环保; 1.1%; 13.0%; 20.41; 11.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -16108,6 +16198,11 @@
           <t>837748.BJ; 路桥信息; 3.6%; 15.3%; 84.47; 11.1%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="DC3" t="inlineStr">
+        <is>
+          <t>688203.SH; 海正生材; 1.0%; 14.3%; 12.95; 13.2%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -16531,6 +16626,11 @@
       <c r="DB4" t="inlineStr">
         <is>
           <t>833454.BJ; 同心传动; 3.0%; 24.4%; 25.97; 20.7%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="DC4" t="inlineStr">
+        <is>
+          <t>301118.SZ; 恒光股份; 0.7%; 20.9%; 26.32; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -21140,7 +21240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DB21"/>
+  <dimension ref="A1:DC21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21674,6 +21774,11 @@
           <t>2025年06月12日</t>
         </is>
       </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月13日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -22204,6 +22309,11 @@
           <t>301110.SZ; 青木科技; 72.42; 20.0%; 184712.0; 18</t>
         </is>
       </c>
+      <c r="DC2" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 15.82; 20.0%; 99662.5; 25</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -22734,6 +22844,11 @@
           <t>300237.SZ; 美晨科技; 2.5; 20.2%; 176201.0; 21</t>
         </is>
       </c>
+      <c r="DC3" t="inlineStr">
+        <is>
+          <t>302132.SZ; 中航成飞; 88; 11.3%; 96306.0; 27</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -23264,6 +23379,11 @@
           <t>300333.SZ; 兆日科技; 16.49; 20.0%; 172886.5; 22</t>
         </is>
       </c>
+      <c r="DC4" t="inlineStr">
+        <is>
+          <t>300157.SZ; 新锦动力; 4.72; 20.1%; 89466.0; 30</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -23794,6 +23914,11 @@
           <t>300546.SZ; 雄帝科技; 34.41; 7.2%; 167682.5; 25</t>
         </is>
       </c>
+      <c r="DC5" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 36.93; 7.0%; 88773.0; 31</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -24324,6 +24449,11 @@
           <t>301622.SZ; 英思特; 97.32; 20.0%; 163681.5; 27</t>
         </is>
       </c>
+      <c r="DC6" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 30.57; 5.1%; 81254.5; 36</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -24854,6 +24984,11 @@
           <t>301141.SZ; 中科磁业; 68.13; 3.2%; 141427.0; 30</t>
         </is>
       </c>
+      <c r="DC7" t="inlineStr">
+        <is>
+          <t>300164.SZ; 通源石油; 5.06; 19.9%; 75097.5; 41</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -25384,6 +25519,11 @@
           <t>300204.SZ; 舒泰神; 34.5; 10.4%; 135540.0; 34</t>
         </is>
       </c>
+      <c r="DC8" t="inlineStr">
+        <is>
+          <t>300085.SZ; 银之杰; 41.33; 3.5%; 70263.0; 46</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -25914,6 +26054,11 @@
           <t>300085.SZ; 银之杰; 39.95; 6.9%; 116833.5; 42</t>
         </is>
       </c>
+      <c r="DC9" t="inlineStr">
+        <is>
+          <t>300875.SZ; 捷强装备; 31.43; 20.0%; 70234.5; 47</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -26444,6 +26589,11 @@
           <t>300651.SZ; 金陵体育; 35.33; 6.5%; 110347.5; 50</t>
         </is>
       </c>
+      <c r="DC10" t="inlineStr">
+        <is>
+          <t>300645.SZ; 正元智慧; 18.46; 20.0%; 61033.0; 57</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -26974,6 +27124,11 @@
           <t>300468.SZ; 四方精创; 29.09; -1.7%; 108107.0; 53</t>
         </is>
       </c>
+      <c r="DC11" t="inlineStr">
+        <is>
+          <t>300139.SZ; 晓程科技; 23; 12.0%; 55060.5; 62</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -27504,6 +27659,11 @@
           <t>300886.SZ; 华业香料; 41.36; 20.0%; 100592.0; 60</t>
         </is>
       </c>
+      <c r="DC12" t="inlineStr">
+        <is>
+          <t>300689.SZ; 澄天伟业; 57.29; 20.0%; 54039.0; 67</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -28034,6 +28194,11 @@
           <t>300640.SZ; 德艺文创; 8.52; 20.0%; 91963.0; 67</t>
         </is>
       </c>
+      <c r="DC13" t="inlineStr">
+        <is>
+          <t>300798.SZ; 锦鸡股份; 11.25; 12.5%; 51744.5; 72</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -28564,6 +28729,11 @@
           <t>300987.SZ; 川网传媒; 20.64; 20.0%; 91395.0; 68</t>
         </is>
       </c>
+      <c r="DC14" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 43.26; 20.0%; 50455.5; 74</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -29094,6 +29264,11 @@
           <t>300308.SZ; 中际旭创; 116; 7.4%; 90819.5; 71</t>
         </is>
       </c>
+      <c r="DC15" t="inlineStr">
+        <is>
+          <t>300651.SZ; 金陵体育; 35.74; 1.2%; 47750.0; 81</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -29624,6 +29799,11 @@
           <t>300251.SZ; 光线传媒; 18.95; 5.8%; 88268.0; 73</t>
         </is>
       </c>
+      <c r="DC16" t="inlineStr">
+        <is>
+          <t>300546.SZ; 雄帝科技; 32.44; -5.7%; 45511.5; 88</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -30154,6 +30334,11 @@
           <t>300340.SZ; 科恒股份; 17.63; -4.7%; 83787.5; 77</t>
         </is>
       </c>
+      <c r="DC17" t="inlineStr">
+        <is>
+          <t>301118.SZ; 恒光股份; 26.32; 20.0%; 44539.5; 91</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -30684,6 +30869,11 @@
           <t>300149.SZ; 睿智医药; 12.89; 11.3%; 82342.5; 79</t>
         </is>
       </c>
+      <c r="DC18" t="inlineStr">
+        <is>
+          <t>301110.SZ; 青木科技; 63.81; -11.9%; 43573.0; 95</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -31214,6 +31404,11 @@
           <t>300364.SZ; 中文在线; 26.8; 3.1%; 81446.0; 80</t>
         </is>
       </c>
+      <c r="DC19" t="inlineStr">
+        <is>
+          <t>301141.SZ; 中科磁业; 66.1; -3.0%; 43499.0; 96</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -31744,6 +31939,11 @@
           <t>300368.SZ; 汇金股份; 10.69; -7.5%; 76601.0; 91</t>
         </is>
       </c>
+      <c r="DC20" t="inlineStr">
+        <is>
+          <t>300237.SZ; 美晨科技; 2.34; -6.4%; 41712.0; 102</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -32272,6 +32472,11 @@
       <c r="DB21" t="inlineStr">
         <is>
           <t>300299.SZ; 富春股份; 8.21; -6.5%; 76275.0; 92</t>
+        </is>
+      </c>
+      <c r="DC21" t="inlineStr">
+        <is>
+          <t>300962.SZ; 中金辐照; 18.54; 20.0%; 38570.0; 108</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DC7"/>
+  <dimension ref="A1:DD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,6 +969,11 @@
           <t>2025年06月13日</t>
         </is>
       </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月16日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1274,6 +1279,11 @@
           <t>300886.SZ; 华业香料; 0;  14:23:30; 3天2板; 41.36;  14:23:30; 20.0%; 1; 烟草概念+香料+一季报增长+外销</t>
         </is>
       </c>
+      <c r="DD2" t="inlineStr">
+        <is>
+          <t>688291.SH; 金橙子; 1;  09:33:23; 2天2板; 32.53;  09:32:47; 20.0%; 2; 3D打印+激光加工+Q1业绩增长</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1457,6 +1467,11 @@
       <c r="DB3" t="inlineStr">
         <is>
           <t>301110.SZ; 青木科技; 2;  14:35:36; 2天2板; 72.42;  14:31:21; 20.0%; 2; 泡泡玛特代运营服务商+电商+AI智能体</t>
+        </is>
+      </c>
+      <c r="DD3" t="inlineStr">
+        <is>
+          <t>300164.SZ; 通源石油; 0;  15:00:00; 2天2板; 6.07;  15:00:00; 20.0%; 2; 油气开发+CCUS业务+射孔技术</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DC532"/>
+  <dimension ref="A1:DD532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2193,6 +2208,11 @@
       <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>2025年06月13日</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月16日</t>
         </is>
       </c>
     </row>
@@ -7572,7 +7592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DC12"/>
+  <dimension ref="A1:DD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8111,6 +8131,11 @@
           <t>2025年06月13日</t>
         </is>
       </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月16日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8621,6 +8646,11 @@
           <t>300798.SZ; 锦鸡股份; 2;  14:05:18; 11.25; 曾涨停; 12.5%; 0.05H;  14:05:18|| 14:08:48</t>
         </is>
       </c>
+      <c r="DD2" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 1;  09:48:36; 38.53; 曾涨停; 13.1%; 2.52H;  09:48:36</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9051,6 +9081,11 @@
           <t>300220.SZ; 金运激光; 1;  09:45:36; 19.08; 曾涨停; 11.3%; 0.02H;  09:45:36</t>
         </is>
       </c>
+      <c r="DD3" t="inlineStr">
+        <is>
+          <t>920088.BJ; 科力股份; 1;  10:08:37; 49.1; 曾涨停; 19.3%; 0.04H;  10:08:37</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -9364,6 +9399,11 @@
       <c r="DA4" t="inlineStr">
         <is>
           <t>300333.SZ; 兆日科技; 2;  09:53:24; 13.74; 曾涨停; 12.8%; 0.14H;  09:53:24|| 09:56:45</t>
+        </is>
+      </c>
+      <c r="DD4" t="inlineStr">
+        <is>
+          <t>301601.SZ; 惠通科技; 1;  10:43:24; 36.97; 曾涨停; 15.9%; 0.02H;  10:43:24</t>
         </is>
       </c>
     </row>
@@ -9973,7 +10013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DC30"/>
+  <dimension ref="A1:DD30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10512,6 +10552,11 @@
           <t>2025年06月13日</t>
         </is>
       </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月16日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11042,6 +11087,11 @@
           <t>688291.SH; 金橙子; 1;  09:31:50; 首板涨停; 27.11;  09:30:20; 20.0%; 1; 激光加工+3D打印+Q1业绩增长</t>
         </is>
       </c>
+      <c r="DD2" t="inlineStr">
+        <is>
+          <t>301197.SZ; 工大科雅; 0;  09:41:48; 首板涨停; 22.19;  09:41:48; 20.0%; 1; 蚂蚁数科合作+智慧供热+碳中和概念</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -11552,6 +11602,11 @@
           <t>300164.SZ; 通源石油; 6;  09:48:12; 首板涨停; 5.06;  09:25:00; 19.9%; 1; 油气开发+射孔技术+CCUS业务</t>
         </is>
       </c>
+      <c r="DD3" t="inlineStr">
+        <is>
+          <t>300251.SZ; 光线传媒; 0;  10:56:57; 首板涨停; 22.1;  10:56:57; 20.0%; 1; 动画电影+IP运营+业绩增长</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -12032,6 +12087,11 @@
           <t>300157.SZ; 新锦动力; 0;  10:13:12; 首板涨停; 4.72;  10:13:12; 20.1%; 1; 油气装备+能源装备+海外市场拓展</t>
         </is>
       </c>
+      <c r="DD4" t="inlineStr">
+        <is>
+          <t>688203.SH; 海正生材; 0;  13:00:45; 首板涨停; 15.54;  13:00:45; 20.0%; 1; 3D打印+聚乳酸+国企</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -12462,6 +12522,11 @@
           <t>301357.SZ; 北方长龙; 1;  10:33:18; 首板涨停; 43.26;  10:17:57; 20.0%; 1; 并购重组+军工+无人机</t>
         </is>
       </c>
+      <c r="DD5" t="inlineStr">
+        <is>
+          <t>688272.SH; 富吉瑞; 1;  13:29:47; 首板涨停; 26.81;  13:24:44; 20.0%; 1; 红外热成像+探测器量产+巡检机器人</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -12852,6 +12917,11 @@
           <t>920088.BJ; 科力股份; 0;  10:33:34; 首板涨停; 41.14;  10:33:34; 30.0%; 1; 油田技术服务+一季报增长+国际拓展+现金分红</t>
         </is>
       </c>
+      <c r="DD6" t="inlineStr">
+        <is>
+          <t>300682.SZ; 朗新集团; 0;  13:38:36; 首板涨停; 20.47;  13:38:36; 20.0%; 1; RWA融资+蚂蚁数科合作+能源数字化</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -13177,6 +13247,11 @@
           <t>301158.SZ; 德石股份; 1;  10:55:06; 首板涨停; 20.34;  10:03:33; 20.0%; 1; 油气设备+页岩气概念+一季报增长</t>
         </is>
       </c>
+      <c r="DD7" t="inlineStr">
+        <is>
+          <t>300872.SZ; 天阳科技; 4;  13:41:51; 首板涨停; 22.68;  09:34:15; 20.0%; 1; 稳定币+跨境支付+金融科技</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -13462,6 +13537,11 @@
           <t>301118.SZ; 恒光股份; 0;  11:16:51; 首板涨停; 26.32;  11:16:51; 20.0%; 1; 净水+磷化工+一季报增长</t>
         </is>
       </c>
+      <c r="DD8" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 0;  14:47:15; 首板涨停; 36.68;  14:47:15; 20.0%; 1; 数字货币+金融科技+出海</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -13670,6 +13750,11 @@
       <c r="DC9" t="inlineStr">
         <is>
           <t>300962.SZ; 中金辐照; 1;  13:00:00; 首板涨停; 18.54;  11:12:06; 20.0%; 1; 核污染防治+辐照灭菌+央企</t>
+        </is>
+      </c>
+      <c r="DD9" t="inlineStr">
+        <is>
+          <t>300772.SZ; 运达股份; 10;  14:53:54; 首板涨停; 12.72;  10:03:36; 20.0%; 1; 风电+绿色甲醇+国企</t>
         </is>
       </c>
     </row>
@@ -14679,7 +14764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DC178"/>
+  <dimension ref="A1:DD178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15218,6 +15303,11 @@
           <t>2025年06月13日</t>
         </is>
       </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月16日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -15728,6 +15818,11 @@
           <t>300867.SZ; 圣元环保; 1.1%; 13.0%; 20.41; 11.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DD2" t="inlineStr">
+        <is>
+          <t>300220.SZ; 金运激光; 3.6%; 12.1%; 20.42; 8.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -16203,6 +16298,11 @@
           <t>688203.SH; 海正生材; 1.0%; 14.3%; 12.95; 13.2%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DD3" t="inlineStr">
+        <is>
+          <t>838227.BJ; 美登科技; 3.5%; 26.2%; 77; 21.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -16633,6 +16733,11 @@
           <t>301118.SZ; 恒光股份; 0.7%; 20.9%; 26.32; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DD4" t="inlineStr">
+        <is>
+          <t>836807.BJ; 奔朗新材; 2.6%; 14.3%; 17.15; 11.4%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -17013,6 +17118,11 @@
           <t>833075.BJ; 柏星龙; 2.9%; 33.9%; 46.99; 30.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DD5" t="inlineStr">
+        <is>
+          <t>301197.SZ; 工大科雅; 1.9%; 22.4%; 22.19; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -17363,6 +17473,11 @@
           <t>688077.SH; 大地熊; 2.1%; 17.7%; 35.9; 15.2%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DD6" t="inlineStr">
+        <is>
+          <t>688392.SH; 骄成超声; 1.3%; 12.8%; 56.6; 11.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -17693,6 +17808,11 @@
           <t>300204.SZ; 舒泰神; 1.9%; 12.5%; 34.5; 10.4%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DD7" t="inlineStr">
+        <is>
+          <t>300440.SZ; 运达科技; 0.4%; 14.4%; 10.65; 13.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -17981,6 +18101,11 @@
       <c r="DB8" t="inlineStr">
         <is>
           <t>300886.SZ; 华业香料; 1.3%; 21.6%; 41.36; 20.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
+      <c r="DD8" t="inlineStr">
+        <is>
+          <t>301601.SZ; 惠通科技; 0.1%; 16.0%; 36.97; 15.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -21240,7 +21365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DC21"/>
+  <dimension ref="A1:DD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21779,6 +21904,11 @@
           <t>2025年06月13日</t>
         </is>
       </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月16日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -22314,6 +22444,11 @@
           <t>300581.SZ; 晨曦航空; 15.82; 20.0%; 99662.5; 25</t>
         </is>
       </c>
+      <c r="DD2" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 36.68; 20.0%; 402491.5; 2</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -22849,6 +22984,11 @@
           <t>302132.SZ; 中航成飞; 88; 11.3%; 96306.0; 27</t>
         </is>
       </c>
+      <c r="DD3" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 27.29; 15.3%; 393312.0; 4</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -23384,6 +23524,11 @@
           <t>300157.SZ; 新锦动力; 4.72; 20.1%; 89466.0; 30</t>
         </is>
       </c>
+      <c r="DD4" t="inlineStr">
+        <is>
+          <t>300251.SZ; 光线传媒; 22.1; 20.0%; 303708.0; 5</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -23919,6 +24064,11 @@
           <t>300204.SZ; 舒泰神; 36.93; 7.0%; 88773.0; 31</t>
         </is>
       </c>
+      <c r="DD5" t="inlineStr">
+        <is>
+          <t>300872.SZ; 天阳科技; 22.68; 20.0%; 196744.0; 16</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -24454,6 +24604,11 @@
           <t>300468.SZ; 四方精创; 30.57; 5.1%; 81254.5; 36</t>
         </is>
       </c>
+      <c r="DD6" t="inlineStr">
+        <is>
+          <t>300164.SZ; 通源石油; 6.07; 20.0%; 182465.0; 19</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -24989,6 +25144,11 @@
           <t>300164.SZ; 通源石油; 5.06; 19.9%; 75097.5; 41</t>
         </is>
       </c>
+      <c r="DD7" t="inlineStr">
+        <is>
+          <t>300546.SZ; 雄帝科技; 36.92; 13.8%; 161571.5; 22</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -25524,6 +25684,11 @@
           <t>300085.SZ; 银之杰; 41.33; 3.5%; 70263.0; 46</t>
         </is>
       </c>
+      <c r="DD8" t="inlineStr">
+        <is>
+          <t>300875.SZ; 捷强装备; 37.72; 20.0%; 146803.5; 27</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -26059,6 +26224,11 @@
           <t>300875.SZ; 捷强装备; 31.43; 20.0%; 70234.5; 47</t>
         </is>
       </c>
+      <c r="DD9" t="inlineStr">
+        <is>
+          <t>300682.SZ; 朗新集团; 20.47; 20.0%; 143784.5; 29</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -26594,6 +26764,11 @@
           <t>300645.SZ; 正元智慧; 18.46; 20.0%; 61033.0; 57</t>
         </is>
       </c>
+      <c r="DD10" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 39; 5.6%; 127146.5; 40</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -27129,6 +27304,11 @@
           <t>300139.SZ; 晓程科技; 23; 12.0%; 55060.5; 62</t>
         </is>
       </c>
+      <c r="DD11" t="inlineStr">
+        <is>
+          <t>300043.SZ; 星辉娱乐; 5.19; 14.1%; 97953.0; 58</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -27664,6 +27844,11 @@
           <t>300689.SZ; 澄天伟业; 57.29; 20.0%; 54039.0; 67</t>
         </is>
       </c>
+      <c r="DD12" t="inlineStr">
+        <is>
+          <t>301197.SZ; 工大科雅; 22.19; 20.0%; 80602.5; 74</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -28199,6 +28384,11 @@
           <t>300798.SZ; 锦鸡股份; 11.25; 12.5%; 51744.5; 72</t>
         </is>
       </c>
+      <c r="DD13" t="inlineStr">
+        <is>
+          <t>300772.SZ; 运达股份; 12.72; 20.0%; 79531.0; 77</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -28734,6 +28924,11 @@
           <t>301357.SZ; 北方长龙; 43.26; 20.0%; 50455.5; 74</t>
         </is>
       </c>
+      <c r="DD14" t="inlineStr">
+        <is>
+          <t>300645.SZ; 正元智慧; 20.64; 11.8%; 74843.0; 84</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -29269,6 +29464,11 @@
           <t>300651.SZ; 金陵体育; 35.74; 1.2%; 47750.0; 81</t>
         </is>
       </c>
+      <c r="DD15" t="inlineStr">
+        <is>
+          <t>300085.SZ; 银之杰; 41.99; 1.6%; 70504.5; 90</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -29804,6 +30004,11 @@
           <t>300546.SZ; 雄帝科技; 32.44; -5.7%; 45511.5; 88</t>
         </is>
       </c>
+      <c r="DD16" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 16.98; 7.3%; 66388.5; 94</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -30339,6 +30544,11 @@
           <t>301118.SZ; 恒光股份; 26.32; 20.0%; 44539.5; 91</t>
         </is>
       </c>
+      <c r="DD17" t="inlineStr">
+        <is>
+          <t>300651.SZ; 金陵体育; 32.93; -7.9%; 63961.0; 99</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -30874,6 +31084,11 @@
           <t>301110.SZ; 青木科技; 63.81; -11.9%; 43573.0; 95</t>
         </is>
       </c>
+      <c r="DD18" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 21.73; 1.9%; 63864.5; 100</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -31409,6 +31624,11 @@
           <t>301141.SZ; 中科磁业; 66.1; -3.0%; 43499.0; 96</t>
         </is>
       </c>
+      <c r="DD19" t="inlineStr">
+        <is>
+          <t>300386.SZ; 飞天诚信; 20.85; 11.7%; 63408.0; 101</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -31944,6 +32164,11 @@
           <t>300237.SZ; 美晨科技; 2.34; -6.4%; 41712.0; 102</t>
         </is>
       </c>
+      <c r="DD20" t="inlineStr">
+        <is>
+          <t>300157.SZ; 新锦动力; 5.07; 7.4%; 61249.5; 103</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -32477,6 +32702,11 @@
       <c r="DC21" t="inlineStr">
         <is>
           <t>300962.SZ; 中金辐照; 18.54; 20.0%; 38570.0; 108</t>
+        </is>
+      </c>
+      <c r="DD21" t="inlineStr">
+        <is>
+          <t>300364.SZ; 中文在线; 28.01; 4.4%; 60503.0; 104</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DD7"/>
+  <dimension ref="A1:DE7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +972,11 @@
       <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>2025年06月16日</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月17日</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DD532"/>
+  <dimension ref="A1:DE532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2213,6 +2218,11 @@
       <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>2025年06月16日</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月17日</t>
         </is>
       </c>
     </row>
@@ -7592,7 +7602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DD12"/>
+  <dimension ref="A1:DE12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8136,6 +8146,11 @@
           <t>2025年06月16日</t>
         </is>
       </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月17日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8651,6 +8666,11 @@
           <t>300436.SZ; 广生堂; 1;  09:48:36; 38.53; 曾涨停; 13.1%; 2.52H;  09:48:36</t>
         </is>
       </c>
+      <c r="DE2" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 3;  09:50:27; 43.01; 曾涨停; 11.6%; 0.02H;  09:50:27|| 09:51:06|| 09:52:24</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9086,6 +9106,11 @@
           <t>920088.BJ; 科力股份; 1;  10:08:37; 49.1; 曾涨停; 19.3%; 0.04H;  10:08:37</t>
         </is>
       </c>
+      <c r="DE3" t="inlineStr">
+        <is>
+          <t>300619.SZ; 金银河; 2;  13:46:54; 27.09; 曾涨停; 14.8%; 0.80H;  13:46:54|| 14:35:12</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -9406,6 +9431,11 @@
           <t>301601.SZ; 惠通科技; 1;  10:43:24; 36.97; 曾涨停; 15.9%; 0.02H;  10:43:24</t>
         </is>
       </c>
+      <c r="DE4" t="inlineStr">
+        <is>
+          <t>300164.SZ; 通源石油; 8;  14:15:03; 7.04; 曾涨停; 16.0%; 0.60H;  14:15:03|| 14:17:27|| 14:18:21|| 14:18:51|| 14:29:54|| 14:31:42|| 14:32:09|| 14:32:42</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -9614,6 +9644,11 @@
       <c r="DA5" t="inlineStr">
         <is>
           <t>873305.BJ; 九菱科技; 4;  11:21:48; 79.49; 曾涨停; 29.9%; 0.11H;  11:21:48|| 11:27:51|| 11:28:57|| 13:00:00</t>
+        </is>
+      </c>
+      <c r="DE5" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 1;  14:38:33; 31.7; 曾涨停; 16.2%; 0.15H;  14:38:33</t>
         </is>
       </c>
     </row>
@@ -10013,7 +10048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DD30"/>
+  <dimension ref="A1:DE30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10557,6 +10592,11 @@
           <t>2025年06月16日</t>
         </is>
       </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月17日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11092,6 +11132,11 @@
           <t>301197.SZ; 工大科雅; 0;  09:41:48; 首板涨停; 22.19;  09:41:48; 20.0%; 1; 蚂蚁数科合作+智慧供热+碳中和概念</t>
         </is>
       </c>
+      <c r="DE2" t="inlineStr">
+        <is>
+          <t>300753.SZ; 爱朋医疗; 0;  09:25:00; 首板涨停; 33.08;  09:25:00; 20.0%; 1; 脑机接口+ADHD诊疗系统+麻醉机器人+医疗器械</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -11607,6 +11652,11 @@
           <t>300251.SZ; 光线传媒; 0;  10:56:57; 首板涨停; 22.1;  10:56:57; 20.0%; 1; 动画电影+IP运营+业绩增长</t>
         </is>
       </c>
+      <c r="DE3" t="inlineStr">
+        <is>
+          <t>300016.SZ; 北陆药业; 0;  09:42:42; 首板涨停; 10.43;  09:42:42; 20.0%; 1; 脑科学+对比剂+中药</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -12092,6 +12142,11 @@
           <t>688203.SH; 海正生材; 0;  13:00:45; 首板涨停; 15.54;  13:00:45; 20.0%; 1; 3D打印+聚乳酸+国企</t>
         </is>
       </c>
+      <c r="DE4" t="inlineStr">
+        <is>
+          <t>870199.BJ; 倍益康; 2;  09:44:19; 首板涨停; 41.86;  09:34:49; 30.0%; 1; 脑机接口+康复器械+银发经济+海外市场拓展</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -12527,6 +12582,11 @@
           <t>688272.SH; 富吉瑞; 1;  13:29:47; 首板涨停; 26.81;  13:24:44; 20.0%; 1; 红外热成像+探测器量产+巡检机器人</t>
         </is>
       </c>
+      <c r="DE5" t="inlineStr">
+        <is>
+          <t>300941.SZ; 创识科技; 0;  09:55:48; 首板涨停; 31.12;  09:55:48; 20.0%; 1; 数字货币+蚂蚁金服概念+数字营销+医疗AI</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -12920,6 +12980,11 @@
       <c r="DD6" t="inlineStr">
         <is>
           <t>300682.SZ; 朗新集团; 0;  13:38:36; 首板涨停; 20.47;  13:38:36; 20.0%; 1; RWA融资+蚂蚁数科合作+能源数字化</t>
+        </is>
+      </c>
+      <c r="DE6" t="inlineStr">
+        <is>
+          <t>300457.SZ; 赢合科技; 2;  10:56:12; 首板涨停; 20.45;  10:34:21; 20.0%; 1; 固态电池+锂电池装备+电子烟+国企改革</t>
         </is>
       </c>
     </row>
@@ -14764,7 +14829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DD178"/>
+  <dimension ref="A1:DE178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15308,6 +15373,11 @@
           <t>2025年06月16日</t>
         </is>
       </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月17日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -15823,6 +15893,11 @@
           <t>300220.SZ; 金运激光; 3.6%; 12.1%; 20.42; 8.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DE2" t="inlineStr">
+        <is>
+          <t>920088.BJ; 科力股份; 6.9%; 31.2%; 59.95; 22.1%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -16303,6 +16378,11 @@
           <t>838227.BJ; 美登科技; 3.5%; 26.2%; 77; 21.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DE3" t="inlineStr">
+        <is>
+          <t>300164.SZ; 通源石油; 6.1%; 23.5%; 7.04; 16.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -16738,6 +16818,11 @@
           <t>836807.BJ; 奔朗新材; 2.6%; 14.3%; 17.15; 11.4%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="DE4" t="inlineStr">
+        <is>
+          <t>300084.SZ; 海默科技; 3.6%; 18.2%; 9.87; 14.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -17123,6 +17208,11 @@
           <t>301197.SZ; 工大科雅; 1.9%; 22.4%; 22.19; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DE5" t="inlineStr">
+        <is>
+          <t>300157.SZ; 新锦动力; 1.8%; 18.9%; 5.92; 16.8%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -17478,6 +17568,11 @@
           <t>688392.SH; 骄成超声; 1.3%; 12.8%; 56.6; 11.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DE6" t="inlineStr">
+        <is>
+          <t>300619.SZ; 金银河; 1.3%; 16.3%; 27.09; 14.8%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -17811,6 +17906,11 @@
       <c r="DD7" t="inlineStr">
         <is>
           <t>300440.SZ; 运达科技; 0.4%; 14.4%; 10.65; 13.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="DE7" t="inlineStr">
+        <is>
+          <t>300941.SZ; 创识科技; 0.9%; 21.1%; 31.12; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -21365,7 +21465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DD21"/>
+  <dimension ref="A1:DE21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21909,6 +22009,11 @@
           <t>2025年06月16日</t>
         </is>
       </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月17日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -22449,6 +22554,11 @@
           <t>300468.SZ; 四方精创; 36.68; 20.0%; 402491.5; 2</t>
         </is>
       </c>
+      <c r="DE2" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 31.7; 16.2%; 348100.0; 3</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -22989,6 +23099,11 @@
           <t>300773.SZ; 拉卡拉; 27.29; 15.3%; 393312.0; 4</t>
         </is>
       </c>
+      <c r="DE3" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 38.62; 5.3%; 206874.5; 11</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -23529,6 +23644,11 @@
           <t>300251.SZ; 光线传媒; 22.1; 20.0%; 303708.0; 5</t>
         </is>
       </c>
+      <c r="DE4" t="inlineStr">
+        <is>
+          <t>300164.SZ; 通源石油; 7.04; 16.0%; 164351.5; 21</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -24069,6 +24189,11 @@
           <t>300872.SZ; 天阳科技; 22.68; 20.0%; 196744.0; 16</t>
         </is>
       </c>
+      <c r="DE5" t="inlineStr">
+        <is>
+          <t>300016.SZ; 北陆药业; 10.43; 20.0%; 147769.0; 24</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -24609,6 +24734,11 @@
           <t>300164.SZ; 通源石油; 6.07; 20.0%; 182465.0; 19</t>
         </is>
       </c>
+      <c r="DE6" t="inlineStr">
+        <is>
+          <t>300753.SZ; 爱朋医疗; 33.08; 20.0%; 133456.0; 28</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -25149,6 +25279,11 @@
           <t>300546.SZ; 雄帝科技; 36.92; 13.8%; 161571.5; 22</t>
         </is>
       </c>
+      <c r="DE7" t="inlineStr">
+        <is>
+          <t>300875.SZ; 捷强装备; 43.94; 16.5%; 122293.0; 36</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -25689,6 +25824,11 @@
           <t>300875.SZ; 捷强装备; 37.72; 20.0%; 146803.5; 27</t>
         </is>
       </c>
+      <c r="DE8" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 35.75; -8.3%; 122211.0; 37</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -26229,6 +26369,11 @@
           <t>300682.SZ; 朗新集团; 20.47; 20.0%; 143784.5; 29</t>
         </is>
       </c>
+      <c r="DE9" t="inlineStr">
+        <is>
+          <t>300941.SZ; 创识科技; 31.12; 20.0%; 114011.5; 41</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -26769,6 +26914,11 @@
           <t>300204.SZ; 舒泰神; 39; 5.6%; 127146.5; 40</t>
         </is>
       </c>
+      <c r="DE10" t="inlineStr">
+        <is>
+          <t>300457.SZ; 赢合科技; 20.45; 20.0%; 112007.0; 43</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -27309,6 +27459,11 @@
           <t>300043.SZ; 星辉娱乐; 5.19; 14.1%; 97953.0; 58</t>
         </is>
       </c>
+      <c r="DE11" t="inlineStr">
+        <is>
+          <t>300157.SZ; 新锦动力; 5.92; 16.8%; 111256.0; 44</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -27849,6 +28004,11 @@
           <t>301197.SZ; 工大科雅; 22.19; 20.0%; 80602.5; 74</t>
         </is>
       </c>
+      <c r="DE12" t="inlineStr">
+        <is>
+          <t>300251.SZ; 光线传媒; 21.2; -4.1%; 96087.5; 53</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -28389,6 +28549,11 @@
           <t>300772.SZ; 运达股份; 12.72; 20.0%; 79531.0; 77</t>
         </is>
       </c>
+      <c r="DE13" t="inlineStr">
+        <is>
+          <t>300546.SZ; 雄帝科技; 35.8; -3.0%; 88476.5; 59</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -28929,6 +29094,11 @@
           <t>300645.SZ; 正元智慧; 20.64; 11.8%; 74843.0; 84</t>
         </is>
       </c>
+      <c r="DE14" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 17.66; 4.0%; 85592.0; 62</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -29469,6 +29639,11 @@
           <t>300085.SZ; 银之杰; 41.99; 1.6%; 70504.5; 90</t>
         </is>
       </c>
+      <c r="DE15" t="inlineStr">
+        <is>
+          <t>300340.SZ; 科恒股份; 17.5; 8.2%; 84307.5; 64</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -30009,6 +30184,11 @@
           <t>300581.SZ; 晨曦航空; 16.98; 7.3%; 66388.5; 94</t>
         </is>
       </c>
+      <c r="DE16" t="inlineStr">
+        <is>
+          <t>300085.SZ; 银之杰; 38.9; -7.4%; 71814.0; 81</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -30549,6 +30729,11 @@
           <t>300651.SZ; 金陵体育; 32.93; -7.9%; 63961.0; 99</t>
         </is>
       </c>
+      <c r="DE17" t="inlineStr">
+        <is>
+          <t>300619.SZ; 金银河; 27.09; 14.8%; 71462.0; 82</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -31089,6 +31274,11 @@
           <t>300059.SZ; 东方财富; 21.73; 1.9%; 63864.5; 100</t>
         </is>
       </c>
+      <c r="DE18" t="inlineStr">
+        <is>
+          <t>300963.SZ; 中洲特材; 24.71; 7.6%; 64765.0; 92</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -31629,6 +31819,11 @@
           <t>300386.SZ; 飞天诚信; 20.85; 11.7%; 63408.0; 101</t>
         </is>
       </c>
+      <c r="DE19" t="inlineStr">
+        <is>
+          <t>300872.SZ; 天阳科技; 23.12; 1.9%; 62917.0; 97</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -32169,6 +32364,11 @@
           <t>300157.SZ; 新锦动力; 5.07; 7.4%; 61249.5; 103</t>
         </is>
       </c>
+      <c r="DE20" t="inlineStr">
+        <is>
+          <t>870199.BJ; 倍益康; 41.86; 30.0%; 62823.5; 98</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -32707,6 +32907,11 @@
       <c r="DD21" t="inlineStr">
         <is>
           <t>300364.SZ; 中文在线; 28.01; 4.4%; 60503.0; 104</t>
+        </is>
+      </c>
+      <c r="DE21" t="inlineStr">
+        <is>
+          <t>300884.SZ; 狄耐克; 14.26; 16.0%; 60195.5; 102</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DE7"/>
+  <dimension ref="A1:DF7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -977,6 +977,11 @@
       <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>2025年06月17日</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月18日</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DE532"/>
+  <dimension ref="A1:DF532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2223,6 +2228,11 @@
       <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>2025年06月17日</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月18日</t>
         </is>
       </c>
     </row>
@@ -7602,7 +7612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DE12"/>
+  <dimension ref="A1:DF12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8151,6 +8161,11 @@
           <t>2025年06月17日</t>
         </is>
       </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月18日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8671,6 +8686,11 @@
           <t>300436.SZ; 广生堂; 3;  09:50:27; 43.01; 曾涨停; 11.6%; 0.02H;  09:50:27|| 09:51:06|| 09:52:24</t>
         </is>
       </c>
+      <c r="DF2" t="inlineStr">
+        <is>
+          <t>300180.SZ; 华峰超纤; 1;  09:50:48; 9.35; 曾涨停; 11.6%; 0.01H;  09:50:48</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9111,6 +9131,11 @@
           <t>300619.SZ; 金银河; 2;  13:46:54; 27.09; 曾涨停; 14.8%; 0.80H;  13:46:54|| 14:35:12</t>
         </is>
       </c>
+      <c r="DF3" t="inlineStr">
+        <is>
+          <t>300092.SZ; 科新机电; 1;  10:33:54; 14.9; 曾涨停; 14.8%; 0.10H;  10:33:54</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -9434,6 +9459,11 @@
       <c r="DE4" t="inlineStr">
         <is>
           <t>300164.SZ; 通源石油; 8;  14:15:03; 7.04; 曾涨停; 16.0%; 0.60H;  14:15:03|| 14:17:27|| 14:18:21|| 14:18:51|| 14:29:54|| 14:31:42|| 14:32:09|| 14:32:42</t>
+        </is>
+      </c>
+      <c r="DF4" t="inlineStr">
+        <is>
+          <t>301205.SZ; 联特科技; 1;  13:26:57; 90.19; 曾涨停; 16.9%; 0.15H;  13:26:57</t>
         </is>
       </c>
     </row>
@@ -10048,7 +10078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DE30"/>
+  <dimension ref="A1:DF30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10597,6 +10627,11 @@
           <t>2025年06月17日</t>
         </is>
       </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月18日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11137,6 +11172,11 @@
           <t>300753.SZ; 爱朋医疗; 0;  09:25:00; 首板涨停; 33.08;  09:25:00; 20.0%; 1; 脑机接口+ADHD诊疗系统+麻醉机器人+医疗器械</t>
         </is>
       </c>
+      <c r="DF2" t="inlineStr">
+        <is>
+          <t>300767.SZ; 震安科技; 0;  09:38:33; 首板涨停; 12.78;  09:38:33; 20.0%; 1; 控制权变更+核电概念+建筑减隔震</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -11657,6 +11697,11 @@
           <t>300016.SZ; 北陆药业; 0;  09:42:42; 首板涨停; 10.43;  09:42:42; 20.0%; 1; 脑科学+对比剂+中药</t>
         </is>
       </c>
+      <c r="DF3" t="inlineStr">
+        <is>
+          <t>301176.SZ; 逸豪新材; 1;  10:24:48; 首板涨停; 21.23;  10:13:06; 20.0%; 1; PCB产业链+产能扩张+亏损缩小</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -12147,6 +12192,11 @@
           <t>870199.BJ; 倍益康; 2;  09:44:19; 首板涨停; 41.86;  09:34:49; 30.0%; 1; 脑机接口+康复器械+银发经济+海外市场拓展</t>
         </is>
       </c>
+      <c r="DF4" t="inlineStr">
+        <is>
+          <t>688011.SH; 新光光电; 0;  11:02:13; 首板涨停; 26.27;  11:02:13; 20.0%; 1; 军工光电+激光防御系统+民品转化</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -12587,6 +12637,11 @@
           <t>300941.SZ; 创识科技; 0;  09:55:48; 首板涨停; 31.12;  09:55:48; 20.0%; 1; 数字货币+蚂蚁金服概念+数字营销+医疗AI</t>
         </is>
       </c>
+      <c r="DF5" t="inlineStr">
+        <is>
+          <t>300269.SZ; 联建光电; 3;  11:07:09; 首板涨停; 5;  09:37:30; 19.9%; 1; LED显示+虚拟现实+军工</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -12987,6 +13042,11 @@
           <t>300457.SZ; 赢合科技; 2;  10:56:12; 首板涨停; 20.45;  10:34:21; 20.0%; 1; 固态电池+锂电池装备+电子烟+国企改革</t>
         </is>
       </c>
+      <c r="DF6" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 1;  13:48:51; 首板涨停; 55.03;  10:16:54; 20.0%; 1; 并购重组+军工+无人机</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -13317,6 +13377,11 @@
           <t>300872.SZ; 天阳科技; 4;  13:41:51; 首板涨停; 22.68;  09:34:15; 20.0%; 1; 稳定币+跨境支付+金融科技</t>
         </is>
       </c>
+      <c r="DF7" t="inlineStr">
+        <is>
+          <t>300903.SZ; 科翔股份; 0;  14:03:33; 首板涨停; 10.63;  14:03:33; 20.0%; 1; PCB+光模块+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -13607,6 +13672,11 @@
           <t>300468.SZ; 四方精创; 0;  14:47:15; 首板涨停; 36.68;  14:47:15; 20.0%; 1; 数字货币+金融科技+出海</t>
         </is>
       </c>
+      <c r="DF8" t="inlineStr">
+        <is>
+          <t>688496.SH; 清越科技; 5;  14:19:17; 首板涨停; 9.58;  11:14:53; 20.1%; 1; AI眼镜+硅基OLED+XR客户</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -13820,6 +13890,11 @@
       <c r="DD9" t="inlineStr">
         <is>
           <t>300772.SZ; 运达股份; 10;  14:53:54; 首板涨停; 12.72;  10:03:36; 20.0%; 1; 风电+绿色甲醇+国企</t>
+        </is>
+      </c>
+      <c r="DF9" t="inlineStr">
+        <is>
+          <t>688775.SH; 影石创新; 5;  14:56:40; 首板涨停; 204.22;  10:40:28; 20.0%; 1; 全景相机+运动相机+外销</t>
         </is>
       </c>
     </row>
@@ -14829,7 +14904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DE178"/>
+  <dimension ref="A1:DF178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15378,6 +15453,11 @@
           <t>2025年06月17日</t>
         </is>
       </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月18日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -15898,6 +15978,11 @@
           <t>920088.BJ; 科力股份; 6.9%; 31.2%; 59.95; 22.1%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="DF2" t="inlineStr">
+        <is>
+          <t>688775.SH; 影石创新; 2.2%; 22.7%; 204.22; 20.0%; 价升量涨||阳线||大阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -16383,6 +16468,11 @@
           <t>300164.SZ; 通源石油; 6.1%; 23.5%; 7.04; 16.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DF3" t="inlineStr">
+        <is>
+          <t>837821.BJ; 则成电子; 1.7%; 21.2%; 36.35; 19.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -16823,6 +16913,11 @@
           <t>300084.SZ; 海默科技; 3.6%; 18.2%; 9.87; 14.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DF4" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 1.2%; 21.5%; 55.03; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -17213,6 +17308,11 @@
           <t>300157.SZ; 新锦动力; 1.8%; 18.9%; 5.92; 16.8%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="DF5" t="inlineStr">
+        <is>
+          <t>300814.SZ; 中富电路; 0.8%; 12.7%; 34.15; 11.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -17573,6 +17673,11 @@
           <t>300619.SZ; 金银河; 1.3%; 16.3%; 27.09; 14.8%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DF6" t="inlineStr">
+        <is>
+          <t>688011.SH; 新光光电; 0.6%; 20.8%; 26.27; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -17913,6 +18018,11 @@
           <t>300941.SZ; 创识科技; 0.9%; 21.1%; 31.12; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DF7" t="inlineStr">
+        <is>
+          <t>301176.SZ; 逸豪新材; 0.6%; 20.8%; 21.23; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -18208,6 +18318,11 @@
           <t>301601.SZ; 惠通科技; 0.1%; 16.0%; 36.97; 15.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DF8" t="inlineStr">
+        <is>
+          <t>300903.SZ; 科翔股份; 0.5%; 20.5%; 10.63; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -18463,6 +18578,11 @@
           <t>832522.BJ; 纳科诺尔; 1.3%; 13.6%; 48.21; 12.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DF9" t="inlineStr">
+        <is>
+          <t>300255.SZ; 常山药业; 0.4%; 15.0%; 60.5; 14.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -18688,6 +18808,11 @@
           <t>300528.SZ; 幸福蓝海; 1.0%; 14.7%; 11.62; 13.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DF10" t="inlineStr">
+        <is>
+          <t>688496.SH; 清越科技; 0.4%; 20.5%; 9.58; 20.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -18883,6 +19008,11 @@
           <t>301662.SZ; 宏工科技; 0.7%; 20.8%; 93.05; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DF11" t="inlineStr">
+        <is>
+          <t>301200.SZ; 大族数控; 0.3%; 14.4%; 41.11; 14.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -19018,6 +19148,11 @@
           <t>688489.SH; 三未信安; 0.2%; 13.3%; 38.56; 13.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DF12" t="inlineStr">
+        <is>
+          <t>301132.SZ; 满坤科技; 0.3%; 13.1%; 31.68; 12.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -19131,6 +19266,11 @@
       <c r="DB13" t="inlineStr">
         <is>
           <t>301622.SZ; 英思特; 0.2%; 20.2%; 97.32; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="DF13" t="inlineStr">
+        <is>
+          <t>301063.SZ; 海锅股份; 0.1%; 12.2%; 31.42; 12.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -21465,7 +21605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DE21"/>
+  <dimension ref="A1:DF21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22014,6 +22154,11 @@
           <t>2025年06月17日</t>
         </is>
       </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月18日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -22559,6 +22704,11 @@
           <t>300773.SZ; 拉卡拉; 31.7; 16.2%; 348100.0; 3</t>
         </is>
       </c>
+      <c r="DF2" t="inlineStr">
+        <is>
+          <t>300180.SZ; 华峰超纤; 9.35; 11.6%; 184563.0; 16</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -23104,6 +23254,11 @@
           <t>300468.SZ; 四方精创; 38.62; 5.3%; 206874.5; 11</t>
         </is>
       </c>
+      <c r="DF3" t="inlineStr">
+        <is>
+          <t>300875.SZ; 捷强装备; 51.08; 16.2%; 154886.5; 24</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -23649,6 +23804,11 @@
           <t>300164.SZ; 通源石油; 7.04; 16.0%; 164351.5; 21</t>
         </is>
       </c>
+      <c r="DF4" t="inlineStr">
+        <is>
+          <t>300164.SZ; 通源石油; 7.4; 5.1%; 152708.5; 26</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -24194,6 +24354,11 @@
           <t>300016.SZ; 北陆药业; 10.43; 20.0%; 147769.0; 24</t>
         </is>
       </c>
+      <c r="DF5" t="inlineStr">
+        <is>
+          <t>300903.SZ; 科翔股份; 10.63; 20.0%; 146219.5; 29</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -24739,6 +24904,11 @@
           <t>300753.SZ; 爱朋医疗; 33.08; 20.0%; 133456.0; 28</t>
         </is>
       </c>
+      <c r="DF6" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 38.8; 0.5%; 133358.5; 31</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -25284,6 +25454,11 @@
           <t>300875.SZ; 捷强装备; 43.94; 16.5%; 122293.0; 36</t>
         </is>
       </c>
+      <c r="DF7" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 29.77; -6.1%; 132612.5; 32</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -25829,6 +26004,11 @@
           <t>300204.SZ; 舒泰神; 35.75; -8.3%; 122211.0; 37</t>
         </is>
       </c>
+      <c r="DF8" t="inlineStr">
+        <is>
+          <t>300255.SZ; 常山药业; 60.5; 14.6%; 131092.0; 33</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -26374,6 +26554,11 @@
           <t>300941.SZ; 创识科技; 31.12; 20.0%; 114011.5; 41</t>
         </is>
       </c>
+      <c r="DF9" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 55.03; 20.0%; 126113.5; 35</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -26919,6 +27104,11 @@
           <t>300457.SZ; 赢合科技; 20.45; 20.0%; 112007.0; 43</t>
         </is>
       </c>
+      <c r="DF10" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 19.98; 13.1%; 115108.0; 38</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -27464,6 +27654,11 @@
           <t>300157.SZ; 新锦动力; 5.92; 16.8%; 111256.0; 44</t>
         </is>
       </c>
+      <c r="DF11" t="inlineStr">
+        <is>
+          <t>301176.SZ; 逸豪新材; 21.23; 20.0%; 114764.0; 39</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -28009,6 +28204,11 @@
           <t>300251.SZ; 光线传媒; 21.2; -4.1%; 96087.5; 53</t>
         </is>
       </c>
+      <c r="DF12" t="inlineStr">
+        <is>
+          <t>688775.SH; 影石创新; 204.22; 20.0%; 101923.5; 48</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -28554,6 +28754,11 @@
           <t>300546.SZ; 雄帝科技; 35.8; -3.0%; 88476.5; 59</t>
         </is>
       </c>
+      <c r="DF13" t="inlineStr">
+        <is>
+          <t>300269.SZ; 联建光电; 5; 19.9%; 89588.0; 56</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -29099,6 +29304,11 @@
           <t>300581.SZ; 晨曦航空; 17.66; 4.0%; 85592.0; 62</t>
         </is>
       </c>
+      <c r="DF14" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 117; 5.3%; 84183.5; 65</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -29644,6 +29854,11 @@
           <t>300340.SZ; 科恒股份; 17.5; 8.2%; 84307.5; 64</t>
         </is>
       </c>
+      <c r="DF15" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 125.06; 4.8%; 77325.0; 71</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -30189,6 +30404,11 @@
           <t>300085.SZ; 银之杰; 38.9; -7.4%; 71814.0; 81</t>
         </is>
       </c>
+      <c r="DF16" t="inlineStr">
+        <is>
+          <t>300767.SZ; 震安科技; 12.78; 20.0%; 77153.0; 72</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -30734,6 +30954,11 @@
           <t>300619.SZ; 金银河; 27.09; 14.8%; 71462.0; 82</t>
         </is>
       </c>
+      <c r="DF17" t="inlineStr">
+        <is>
+          <t>300619.SZ; 金银河; 29.96; 10.6%; 75198.0; 73</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -31279,6 +31504,11 @@
           <t>300963.SZ; 中洲特材; 24.71; 7.6%; 64765.0; 92</t>
         </is>
       </c>
+      <c r="DF18" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 112.22; 4.8%; 73824.0; 75</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -31824,6 +32054,11 @@
           <t>300872.SZ; 天阳科技; 23.12; 1.9%; 62917.0; 97</t>
         </is>
       </c>
+      <c r="DF19" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 34.79; -2.7%; 60746.0; 99</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -32369,6 +32604,11 @@
           <t>870199.BJ; 倍益康; 41.86; 30.0%; 62823.5; 98</t>
         </is>
       </c>
+      <c r="DF20" t="inlineStr">
+        <is>
+          <t>300753.SZ; 爱朋医疗; 31.5; -4.8%; 57714.0; 105</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -32912,6 +33152,11 @@
       <c r="DE21" t="inlineStr">
         <is>
           <t>300884.SZ; 狄耐克; 14.26; 16.0%; 60195.5; 102</t>
+        </is>
+      </c>
+      <c r="DF21" t="inlineStr">
+        <is>
+          <t>302132.SZ; 中航成飞; 88.93; 4.1%; 57558.5; 107</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DF7"/>
+  <dimension ref="A1:DG7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -984,6 +984,11 @@
           <t>2025年06月18日</t>
         </is>
       </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月19日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1294,6 +1299,11 @@
           <t>688291.SH; 金橙子; 1;  09:33:23; 2天2板; 32.53;  09:32:47; 20.0%; 2; 3D打印+激光加工+Q1业绩增长</t>
         </is>
       </c>
+      <c r="DG2" t="inlineStr">
+        <is>
+          <t>301176.SZ; 逸豪新材; 3;  13:22:51; 2天2板; 25.48;  09:33:30; 20.0%; 2; PCB产业链+产能扩张+亏损缩小</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1482,6 +1492,11 @@
       <c r="DD3" t="inlineStr">
         <is>
           <t>300164.SZ; 通源石油; 0;  15:00:00; 2天2板; 6.07;  15:00:00; 20.0%; 2; 油气开发+CCUS业务+射孔技术</t>
+        </is>
+      </c>
+      <c r="DG3" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 5;  14:11:06; 2天2板; 66.04;  13:46:42; 20.0%; 2; 并购重组+军工+无人机</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DF532"/>
+  <dimension ref="A1:DG532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,6 +2250,11 @@
           <t>2025年06月18日</t>
         </is>
       </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月19日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2288,6 +2308,11 @@
       <c r="BY2" t="inlineStr">
         <is>
           <t>688788.SH; 科思科技; 13;  10:08:23; 放量跌停; 56.76; -1.6%; 1; 公司及控股子公司部分银行账户被冻结</t>
+        </is>
+      </c>
+      <c r="DG2" t="inlineStr">
+        <is>
+          <t>300255.SZ; 常山药业; 12;  10:10:33; 放量跌停; 48.4; -20.0%; 1; 近期累计涨幅较大</t>
         </is>
       </c>
     </row>
@@ -7612,7 +7637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DF12"/>
+  <dimension ref="A1:DG12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8164,6 +8189,11 @@
       <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>2025年06月18日</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月19日</t>
         </is>
       </c>
     </row>
@@ -10078,7 +10108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DF30"/>
+  <dimension ref="A1:DG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10632,6 +10662,11 @@
           <t>2025年06月18日</t>
         </is>
       </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月19日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11177,6 +11212,11 @@
           <t>300767.SZ; 震安科技; 0;  09:38:33; 首板涨停; 12.78;  09:38:33; 20.0%; 1; 控制权变更+核电概念+建筑减隔震</t>
         </is>
       </c>
+      <c r="DG2" t="inlineStr">
+        <is>
+          <t>301182.SZ; 凯旺科技; 0;  10:30:09; 首板涨停; 37.18;  10:30:09; 20.0%; 1; 消费电子+铜缆高速连接+宇树科技合作</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -11702,6 +11742,11 @@
           <t>301176.SZ; 逸豪新材; 1;  10:24:48; 首板涨停; 21.23;  10:13:06; 20.0%; 1; PCB产业链+产能扩张+亏损缩小</t>
         </is>
       </c>
+      <c r="DG3" t="inlineStr">
+        <is>
+          <t>300483.SZ; 首华燃气; 0;  13:16:57; 首板涨停; 13.38;  13:16:57; 20.0%; 1; 天然气开发+业绩扭亏+增产计划</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -12197,6 +12242,11 @@
           <t>688011.SH; 新光光电; 0;  11:02:13; 首板涨停; 26.27;  11:02:13; 20.0%; 1; 军工光电+激光防御系统+民品转化</t>
         </is>
       </c>
+      <c r="DG4" t="inlineStr">
+        <is>
+          <t>301292.SZ; 海科新源; 2;  14:31:15; 首板涨停; 19.6;  09:36:39; 20.0%; 1; 固态电池+锂电池材料</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -12640,6 +12690,11 @@
       <c r="DF5" t="inlineStr">
         <is>
           <t>300269.SZ; 联建光电; 3;  11:07:09; 首板涨停; 5;  09:37:30; 19.9%; 1; LED显示+虚拟现实+军工</t>
+        </is>
+      </c>
+      <c r="DG5" t="inlineStr">
+        <is>
+          <t>300291.SZ; 百纳千成; 2;  14:47:21; 首板涨停; 6.14;  13:53:51; 19.9%; 1; 短剧游戏+重大合同签署+腾讯概念+IP运营商</t>
         </is>
       </c>
     </row>
@@ -14904,7 +14959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DF178"/>
+  <dimension ref="A1:DG178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15458,6 +15513,11 @@
           <t>2025年06月18日</t>
         </is>
       </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月19日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -15983,6 +16043,11 @@
           <t>688775.SH; 影石创新; 2.2%; 22.7%; 204.22; 20.0%; 价升量涨||阳线||大阳线</t>
         </is>
       </c>
+      <c r="DG2" t="inlineStr">
+        <is>
+          <t>920088.BJ; 科力股份; 7.9%; 16.9%; 59.24; 7.7%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -16473,6 +16538,11 @@
           <t>837821.BJ; 则成电子; 1.7%; 21.2%; 36.35; 19.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DG3" t="inlineStr">
+        <is>
+          <t>300164.SZ; 通源石油; 7.3%; 20.1%; 8.24; 11.4%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -16918,6 +16988,11 @@
           <t>301357.SZ; 北方长龙; 1.2%; 21.5%; 55.03; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DG4" t="inlineStr">
+        <is>
+          <t>831010.BJ; 凯添燃气; 3.4%; 15.7%; 16.83; 11.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -17313,6 +17388,11 @@
           <t>300814.SZ; 中富电路; 0.8%; 12.7%; 34.15; 11.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DG5" t="inlineStr">
+        <is>
+          <t>300483.SZ; 首华燃气; 3.0%; 23.7%; 13.38; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -17678,6 +17758,11 @@
           <t>688011.SH; 新光光电; 0.6%; 20.8%; 26.27; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DG6" t="inlineStr">
+        <is>
+          <t>688203.SH; 海正生材; 1.4%; 12.4%; 14.62; 10.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -18023,6 +18108,11 @@
           <t>301176.SZ; 逸豪新材; 0.6%; 20.8%; 21.23; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DG7" t="inlineStr">
+        <is>
+          <t>301292.SZ; 海科新源; 0.7%; 20.8%; 19.6; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -18323,6 +18413,11 @@
           <t>300903.SZ; 科翔股份; 0.5%; 20.5%; 10.63; 20.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DG8" t="inlineStr">
+        <is>
+          <t>301182.SZ; 凯旺科技; 0.6%; 20.8%; 37.18; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -18583,6 +18678,11 @@
           <t>300255.SZ; 常山药业; 0.4%; 15.0%; 60.5; 14.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DG9" t="inlineStr">
+        <is>
+          <t>301051.SZ; 信濠光电; 0.5%; 15.1%; 22.44; 14.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -18813,6 +18913,11 @@
           <t>688496.SH; 清越科技; 0.4%; 20.5%; 9.58; 20.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DG10" t="inlineStr">
+        <is>
+          <t>300291.SZ; 百纳千成; 0.4%; 20.4%; 6.14; 19.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -19011,6 +19116,11 @@
       <c r="DF11" t="inlineStr">
         <is>
           <t>301200.SZ; 大族数控; 0.3%; 14.4%; 41.11; 14.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="DG11" t="inlineStr">
+        <is>
+          <t>301152.SZ; 天力锂能; 0.2%; 12.2%; 27.55; 12.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -21605,7 +21715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DF21"/>
+  <dimension ref="A1:DG21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22159,6 +22269,11 @@
           <t>2025年06月18日</t>
         </is>
       </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月19日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -22709,6 +22824,11 @@
           <t>300180.SZ; 华峰超纤; 9.35; 11.6%; 184563.0; 16</t>
         </is>
       </c>
+      <c r="DG2" t="inlineStr">
+        <is>
+          <t>300164.SZ; 通源石油; 8.24; 11.4%; 222130.5; 9</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -23259,6 +23379,11 @@
           <t>300875.SZ; 捷强装备; 51.08; 16.2%; 154886.5; 24</t>
         </is>
       </c>
+      <c r="DG3" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 66.04; 20.0%; 201128.5; 13</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -23809,6 +23934,11 @@
           <t>300164.SZ; 通源石油; 7.4; 5.1%; 152708.5; 26</t>
         </is>
       </c>
+      <c r="DG4" t="inlineStr">
+        <is>
+          <t>300046.SZ; 台基股份; nan; nan%; 143607.0; 19</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -24359,6 +24489,11 @@
           <t>300903.SZ; 科翔股份; 10.63; 20.0%; 146219.5; 29</t>
         </is>
       </c>
+      <c r="DG5" t="inlineStr">
+        <is>
+          <t>300483.SZ; 首华燃气; 13.38; 20.0%; 133503.0; 25</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -24909,6 +25044,11 @@
           <t>300468.SZ; 四方精创; 38.8; 0.5%; 133358.5; 31</t>
         </is>
       </c>
+      <c r="DG6" t="inlineStr">
+        <is>
+          <t>301176.SZ; 逸豪新材; 25.48; 20.0%; 127365.0; 28</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -25459,6 +25599,11 @@
           <t>300773.SZ; 拉卡拉; 29.77; -6.1%; 132612.5; 32</t>
         </is>
       </c>
+      <c r="DG7" t="inlineStr">
+        <is>
+          <t>300255.SZ; 常山药业; 48.4; -20.0%; 122742.0; 30</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -26009,6 +26154,11 @@
           <t>300255.SZ; 常山药业; 60.5; 14.6%; 131092.0; 33</t>
         </is>
       </c>
+      <c r="DG8" t="inlineStr">
+        <is>
+          <t>300291.SZ; 百纳千成; 6.14; 19.9%; 119903.0; 31</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -26559,6 +26709,11 @@
           <t>301357.SZ; 北方长龙; 55.03; 20.0%; 126113.5; 35</t>
         </is>
       </c>
+      <c r="DG9" t="inlineStr">
+        <is>
+          <t>301292.SZ; 海科新源; 19.6; 20.0%; 118887.0; 32</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -27109,6 +27264,11 @@
           <t>300581.SZ; 晨曦航空; 19.98; 13.1%; 115108.0; 38</t>
         </is>
       </c>
+      <c r="DG10" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 38; -2.1%; 107077.0; 39</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -27659,6 +27819,11 @@
           <t>301176.SZ; 逸豪新材; 21.23; 20.0%; 114764.0; 39</t>
         </is>
       </c>
+      <c r="DG11" t="inlineStr">
+        <is>
+          <t>300691.SZ; 联合光电; 18.15; -2.9%; 87699.0; 45</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -28209,6 +28374,11 @@
           <t>688775.SH; 影石创新; 204.22; 20.0%; 101923.5; 48</t>
         </is>
       </c>
+      <c r="DG12" t="inlineStr">
+        <is>
+          <t>300875.SZ; 捷强装备; 49.77; -2.6%; 81357.0; 51</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -28759,6 +28929,11 @@
           <t>300269.SZ; 联建光电; 5; 19.9%; 89588.0; 56</t>
         </is>
       </c>
+      <c r="DG13" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 19.08; -4.5%; 79728.0; 53</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -29309,6 +29484,11 @@
           <t>300476.SZ; 胜宏科技; 117; 5.3%; 84183.5; 65</t>
         </is>
       </c>
+      <c r="DG14" t="inlineStr">
+        <is>
+          <t>300340.SZ; 科恒股份; 17.2; 8.0%; 78165.5; 56</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -29859,6 +30039,11 @@
           <t>300308.SZ; 中际旭创; 125.06; 4.8%; 77325.0; 71</t>
         </is>
       </c>
+      <c r="DG15" t="inlineStr">
+        <is>
+          <t>300100.SZ; 双林股份; 46.35; 7.4%; 77610.0; 57</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -30409,6 +30594,11 @@
           <t>300767.SZ; 震安科技; 12.78; 20.0%; 77153.0; 72</t>
         </is>
       </c>
+      <c r="DG16" t="inlineStr">
+        <is>
+          <t>300157.SZ; 新锦动力; 6.09; 8.8%; 73490.0; 63</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -30959,6 +31149,11 @@
           <t>300619.SZ; 金银河; 29.96; 10.6%; 75198.0; 73</t>
         </is>
       </c>
+      <c r="DG17" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 27.9; -6.3%; 73379.5; 64</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -31509,6 +31704,11 @@
           <t>300502.SZ; 新易盛; 112.22; 4.8%; 73824.0; 75</t>
         </is>
       </c>
+      <c r="DG18" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 128.3; 3.0%; 69258.0; 72</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -32059,6 +32259,11 @@
           <t>300204.SZ; 舒泰神; 34.79; -2.7%; 60746.0; 99</t>
         </is>
       </c>
+      <c r="DG19" t="inlineStr">
+        <is>
+          <t>300180.SZ; 华峰超纤; 8.48; -9.3%; 65494.5; 76</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -32609,6 +32814,11 @@
           <t>300753.SZ; 爱朋医疗; 31.5; -4.8%; 57714.0; 105</t>
         </is>
       </c>
+      <c r="DG20" t="inlineStr">
+        <is>
+          <t>300269.SZ; 联建光电; 5.45; 9.0%; 65422.5; 77</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -33157,6 +33367,11 @@
       <c r="DF21" t="inlineStr">
         <is>
           <t>302132.SZ; 中航成飞; 88.93; 4.1%; 57558.5; 107</t>
+        </is>
+      </c>
+      <c r="DG21" t="inlineStr">
+        <is>
+          <t>301182.SZ; 凯旺科技; 37.18; 20.0%; 64105.0; 82</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DG7"/>
+  <dimension ref="A1:DH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -989,6 +989,11 @@
           <t>2025年06月19日</t>
         </is>
       </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月20日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1302,6 +1307,11 @@
       <c r="DG2" t="inlineStr">
         <is>
           <t>301176.SZ; 逸豪新材; 3;  13:22:51; 2天2板; 25.48;  09:33:30; 20.0%; 2; PCB产业链+产能扩张+亏损缩小</t>
+        </is>
+      </c>
+      <c r="DH2" t="inlineStr">
+        <is>
+          <t>301292.SZ; 海科新源; 2;  09:32:36; 2天2板; 23.52;  09:31:24; 20.0%; 2; 固态电池+锂电池材料</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DG532"/>
+  <dimension ref="A1:DH532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2253,6 +2263,11 @@
       <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>2025年06月19日</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月20日</t>
         </is>
       </c>
     </row>
@@ -7637,7 +7652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DG12"/>
+  <dimension ref="A1:DH12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8196,6 +8211,11 @@
           <t>2025年06月19日</t>
         </is>
       </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月20日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8719,6 +8739,11 @@
       <c r="DF2" t="inlineStr">
         <is>
           <t>300180.SZ; 华峰超纤; 1;  09:50:48; 9.35; 曾涨停; 11.6%; 0.01H;  09:50:48</t>
+        </is>
+      </c>
+      <c r="DH2" t="inlineStr">
+        <is>
+          <t>300462.SZ; 华铭智能; 1;  10:51:24; 11.56; 曾涨停; 13.2%; 0.09H;  10:51:24</t>
         </is>
       </c>
     </row>
@@ -10108,7 +10133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DG30"/>
+  <dimension ref="A1:DH30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10667,6 +10692,11 @@
           <t>2025年06月19日</t>
         </is>
       </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月20日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11217,6 +11247,11 @@
           <t>301182.SZ; 凯旺科技; 0;  10:30:09; 首板涨停; 37.18;  10:30:09; 20.0%; 1; 消费电子+铜缆高速连接+宇树科技合作</t>
         </is>
       </c>
+      <c r="DH2" t="inlineStr">
+        <is>
+          <t>300410.SZ; 正业科技; 0;  09:35:51; 首板涨停; 7.45;  09:35:51; 20.0%; 1; PCB概念+此前剥离光伏业务+锂电池检测+国企</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -11747,6 +11782,11 @@
           <t>300483.SZ; 首华燃气; 0;  13:16:57; 首板涨停; 13.38;  13:16:57; 20.0%; 1; 天然气开发+业绩扭亏+增产计划</t>
         </is>
       </c>
+      <c r="DH3" t="inlineStr">
+        <is>
+          <t>300485.SZ; 赛升药业; 0;  09:50:03; 首板涨停; 13.94;  09:50:03; 20.0%; 1; 新药技术转让+创新药研发+一季报扭亏</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -12247,6 +12287,11 @@
           <t>301292.SZ; 海科新源; 2;  14:31:15; 首板涨停; 19.6;  09:36:39; 20.0%; 1; 固态电池+锂电池材料</t>
         </is>
       </c>
+      <c r="DH4" t="inlineStr">
+        <is>
+          <t>300429.SZ; 强力新材; 3;  10:06:57; 首板涨停; 14.27;  09:37:18; 20.0%; 1; 半导体封装+光刻胶+PCB概念+客户认证</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -12697,6 +12742,11 @@
           <t>300291.SZ; 百纳千成; 2;  14:47:21; 首板涨停; 6.14;  13:53:51; 19.9%; 1; 短剧游戏+重大合同签署+腾讯概念+IP运营商</t>
         </is>
       </c>
+      <c r="DH5" t="inlineStr">
+        <is>
+          <t>300480.SZ; 光力科技; 0;  10:56:36; 首板涨停; 15.59;  10:56:36; 20.0%; 1; 半导体封测+行星滚柱丝杠+机器人概念+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -13102,6 +13152,11 @@
           <t>301357.SZ; 北方长龙; 1;  13:48:51; 首板涨停; 55.03;  10:16:54; 20.0%; 1; 并购重组+军工+无人机</t>
         </is>
       </c>
+      <c r="DH6" t="inlineStr">
+        <is>
+          <t>301038.SZ; 深水规院; 0;  13:08:09; 首板涨停; 17.26;  13:08:09; 20.0%; 1; 水务建设工程+水资源+深圳国资</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -13437,6 +13492,11 @@
           <t>300903.SZ; 科翔股份; 0;  14:03:33; 首板涨停; 10.63;  14:03:33; 20.0%; 1; PCB+光模块+一季报增长</t>
         </is>
       </c>
+      <c r="DH7" t="inlineStr">
+        <is>
+          <t>300589.SZ; 江龙船艇; 0;  13:09:27; 首板涨停; 15.12;  13:09:27; 20.0%; 1; 军工+消防船合同+订单增长+养殖工船</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -13732,6 +13792,11 @@
           <t>688496.SH; 清越科技; 5;  14:19:17; 首板涨停; 9.58;  11:14:53; 20.1%; 1; AI眼镜+硅基OLED+XR客户</t>
         </is>
       </c>
+      <c r="DH8" t="inlineStr">
+        <is>
+          <t>872895.BJ; 花溪科技; 5;  13:23:48; 首板涨停; 52.52;  13:22:06; 30.0%; 1; 农机+焊接机器人+海外拓展</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -13950,6 +14015,11 @@
       <c r="DF9" t="inlineStr">
         <is>
           <t>688775.SH; 影石创新; 5;  14:56:40; 首板涨停; 204.22;  10:40:28; 20.0%; 1; 全景相机+运动相机+外销</t>
+        </is>
+      </c>
+      <c r="DH9" t="inlineStr">
+        <is>
+          <t>300340.SZ; 科恒股份; 2;  14:47:00; 首板涨停; 20.64;  10:25:33; 20.0%; 1; 固态电池+钴酸锂+珠海国资</t>
         </is>
       </c>
     </row>
@@ -14959,7 +15029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DG178"/>
+  <dimension ref="A1:DH178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15518,6 +15588,11 @@
           <t>2025年06月19日</t>
         </is>
       </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月20日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -16048,6 +16123,11 @@
           <t>920088.BJ; 科力股份; 7.9%; 16.9%; 59.24; 7.7%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DH2" t="inlineStr">
+        <is>
+          <t>300340.SZ; 科恒股份; 4.1%; 25.1%; 20.64; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -16543,6 +16623,11 @@
           <t>300164.SZ; 通源石油; 7.3%; 20.1%; 8.24; 11.4%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="DH3" t="inlineStr">
+        <is>
+          <t>301150.SZ; 中一科技; 1.7%; 20.5%; 21.9; 18.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -16993,6 +17078,11 @@
           <t>831010.BJ; 凯添燃气; 3.4%; 15.7%; 16.83; 11.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DH4" t="inlineStr">
+        <is>
+          <t>300589.SZ; 江龙船艇; 0.6%; 20.8%; 15.12; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -17393,6 +17483,11 @@
           <t>300483.SZ; 首华燃气; 3.0%; 23.7%; 13.38; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DH5" t="inlineStr">
+        <is>
+          <t>300410.SZ; 正业科技; 0.3%; 20.4%; 7.45; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -17763,6 +17858,11 @@
           <t>688203.SH; 海正生材; 1.4%; 12.4%; 14.62; 10.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DH6" t="inlineStr">
+        <is>
+          <t>872895.BJ; 花溪科技; 0.3%; 30.4%; 52.52; 30.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -18111,6 +18211,11 @@
       <c r="DG7" t="inlineStr">
         <is>
           <t>301292.SZ; 海科新源; 0.7%; 20.8%; 19.6; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="DH7" t="inlineStr">
+        <is>
+          <t>300269.SZ; 联建光电; 0.2%; 13.4%; 6.17; 13.2%; 阳线||放量||价升量缩</t>
         </is>
       </c>
     </row>
@@ -21715,7 +21820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DG21"/>
+  <dimension ref="A1:DH21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22274,6 +22379,11 @@
           <t>2025年06月19日</t>
         </is>
       </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月20日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -22829,6 +22939,11 @@
           <t>300164.SZ; 通源石油; 8.24; 11.4%; 222130.5; 9</t>
         </is>
       </c>
+      <c r="DH2" t="inlineStr">
+        <is>
+          <t>300340.SZ; 科恒股份; 20.64; 20.0%; 150593.5; 9</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -23384,6 +23499,11 @@
           <t>301357.SZ; 北方长龙; 66.04; 20.0%; 201128.5; 13</t>
         </is>
       </c>
+      <c r="DH3" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 39.5; 3.9%; 119145.5; 13</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -23939,6 +24059,11 @@
           <t>300046.SZ; 台基股份; nan; nan%; 143607.0; 19</t>
         </is>
       </c>
+      <c r="DH4" t="inlineStr">
+        <is>
+          <t>301292.SZ; 海科新源; 23.52; 20.0%; 93914.0; 21</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -24494,6 +24619,11 @@
           <t>300483.SZ; 首华燃气; 13.38; 20.0%; 133503.0; 25</t>
         </is>
       </c>
+      <c r="DH5" t="inlineStr">
+        <is>
+          <t>300164.SZ; 通源石油; 7.19; -12.7%; 93634.0; 23</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -25049,6 +25179,11 @@
           <t>301176.SZ; 逸豪新材; 25.48; 20.0%; 127365.0; 28</t>
         </is>
       </c>
+      <c r="DH6" t="inlineStr">
+        <is>
+          <t>300429.SZ; 强力新材; 14.27; 20.0%; 89114.5; 25</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -25604,6 +25739,11 @@
           <t>300255.SZ; 常山药业; 48.4; -20.0%; 122742.0; 30</t>
         </is>
       </c>
+      <c r="DH7" t="inlineStr">
+        <is>
+          <t>301678.SZ; 新恒汇; 42.12; 229.1%; 87225.5; 27</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -26159,6 +26299,11 @@
           <t>300291.SZ; 百纳千成; 6.14; 19.9%; 119903.0; 31</t>
         </is>
       </c>
+      <c r="DH8" t="inlineStr">
+        <is>
+          <t>300589.SZ; 江龙船艇; 15.12; 20.0%; 83368.0; 34</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -26714,6 +26859,11 @@
           <t>301292.SZ; 海科新源; 19.6; 20.0%; 118887.0; 32</t>
         </is>
       </c>
+      <c r="DH9" t="inlineStr">
+        <is>
+          <t>300269.SZ; 联建光电; 6.17; 13.2%; 58590.5; 50</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -27269,6 +27419,11 @@
           <t>300468.SZ; 四方精创; 38; -2.1%; 107077.0; 39</t>
         </is>
       </c>
+      <c r="DH10" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 28.22; 1.1%; 53929.5; 53</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -27824,6 +27979,11 @@
           <t>300691.SZ; 联合光电; 18.15; -2.9%; 87699.0; 45</t>
         </is>
       </c>
+      <c r="DH11" t="inlineStr">
+        <is>
+          <t>300485.SZ; 赛升药业; 13.94; 20.0%; 51692.0; 55</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -28379,6 +28539,11 @@
           <t>300875.SZ; 捷强装备; 49.77; -2.6%; 81357.0; 51</t>
         </is>
       </c>
+      <c r="DH12" t="inlineStr">
+        <is>
+          <t>301038.SZ; 深水规院; 17.26; 20.0%; 51234.0; 58</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -28934,6 +29099,11 @@
           <t>300581.SZ; 晨曦航空; 19.08; -4.5%; 79728.0; 53</t>
         </is>
       </c>
+      <c r="DH13" t="inlineStr">
+        <is>
+          <t>300483.SZ; 首华燃气; 14.85; 11.0%; 50463.5; 60</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -29489,6 +29659,11 @@
           <t>300340.SZ; 科恒股份; 17.2; 8.0%; 78165.5; 56</t>
         </is>
       </c>
+      <c r="DH14" t="inlineStr">
+        <is>
+          <t>301150.SZ; 中一科技; 21.9; 18.4%; 49580.5; 61</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -30044,6 +30219,11 @@
           <t>300100.SZ; 双林股份; 46.35; 7.4%; 77610.0; 57</t>
         </is>
       </c>
+      <c r="DH15" t="inlineStr">
+        <is>
+          <t>300046.SZ; 台基股份; 33.6; 5.7%; 48283.0; 65</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -30599,6 +30779,11 @@
           <t>300157.SZ; 新锦动力; 6.09; 8.8%; 73490.0; 63</t>
         </is>
       </c>
+      <c r="DH16" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 60; -9.1%; 46479.0; 69</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -31154,6 +31339,11 @@
           <t>300773.SZ; 拉卡拉; 27.9; -6.3%; 73379.5; 64</t>
         </is>
       </c>
+      <c r="DH17" t="inlineStr">
+        <is>
+          <t>300410.SZ; 正业科技; 7.45; 20.0%; 45260.5; 71</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -31709,6 +31899,11 @@
           <t>300308.SZ; 中际旭创; 128.3; 3.0%; 69258.0; 72</t>
         </is>
       </c>
+      <c r="DH18" t="inlineStr">
+        <is>
+          <t>300480.SZ; 光力科技; 15.59; 20.0%; 44905.0; 72</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -32264,6 +32459,11 @@
           <t>300180.SZ; 华峰超纤; 8.48; -9.3%; 65494.5; 76</t>
         </is>
       </c>
+      <c r="DH19" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 34.99; 5.5%; 40173.0; 84</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -32819,6 +33019,11 @@
           <t>300269.SZ; 联建光电; 5.45; 9.0%; 65422.5; 77</t>
         </is>
       </c>
+      <c r="DH20" t="inlineStr">
+        <is>
+          <t>300255.SZ; 常山药业; 49.25; 1.8%; 39075.5; 86</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -33372,6 +33577,11 @@
       <c r="DG21" t="inlineStr">
         <is>
           <t>301182.SZ; 凯旺科技; 37.18; 20.0%; 64105.0; 82</t>
+        </is>
+      </c>
+      <c r="DH21" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 129.5; 0.9%; 38832.0; 88</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DH7"/>
+  <dimension ref="A1:DI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,6 +994,11 @@
           <t>2025年06月20日</t>
         </is>
       </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月23日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1312,6 +1317,11 @@
       <c r="DH2" t="inlineStr">
         <is>
           <t>301292.SZ; 海科新源; 2;  09:32:36; 2天2板; 23.52;  09:31:24; 20.0%; 2; 固态电池+锂电池材料</t>
+        </is>
+      </c>
+      <c r="DI2" t="inlineStr">
+        <is>
+          <t>301176.SZ; 逸豪新材; 3;  14:56:30; 4天3板; 29.28;  10:05:51; 20.0%; 1; PCB产业链+HVLP铜箔+产能扩张</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DH532"/>
+  <dimension ref="A1:DI532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2268,6 +2278,11 @@
       <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>2025年06月20日</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月23日</t>
         </is>
       </c>
     </row>
@@ -7652,7 +7667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DH12"/>
+  <dimension ref="A1:DI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8216,6 +8231,11 @@
           <t>2025年06月20日</t>
         </is>
       </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月23日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8746,6 +8766,11 @@
           <t>300462.SZ; 华铭智能; 1;  10:51:24; 11.56; 曾涨停; 13.2%; 0.09H;  10:51:24</t>
         </is>
       </c>
+      <c r="DI2" t="inlineStr">
+        <is>
+          <t>301219.SZ; 腾远钴业; 1;  09:51:45; 55.01; 曾涨停; 15.4%; 0.24H;  09:51:45</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9191,6 +9216,11 @@
           <t>300092.SZ; 科新机电; 1;  10:33:54; 14.9; 曾涨停; 14.8%; 0.10H;  10:33:54</t>
         </is>
       </c>
+      <c r="DI3" t="inlineStr">
+        <is>
+          <t>300047.SZ; 天源迪科; 1;  13:46:12; 16.13; 曾涨停; 14.6%; 0.03H;  13:46:12</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -9519,6 +9549,11 @@
       <c r="DF4" t="inlineStr">
         <is>
           <t>301205.SZ; 联特科技; 1;  13:26:57; 90.19; 曾涨停; 16.9%; 0.15H;  13:26:57</t>
+        </is>
+      </c>
+      <c r="DI4" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 4;  14:15:54; 47.39; 曾涨停; 20.0%; 0.05H;  14:15:54|| 14:16:57|| 14:48:48|| 14:52:15</t>
         </is>
       </c>
     </row>
@@ -10133,7 +10168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DH30"/>
+  <dimension ref="A1:DI30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10697,6 +10732,11 @@
           <t>2025年06月20日</t>
         </is>
       </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月23日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11252,6 +11292,11 @@
           <t>300410.SZ; 正业科技; 0;  09:35:51; 首板涨停; 7.45;  09:35:51; 20.0%; 1; PCB概念+此前剥离光伏业务+锂电池检测+国企</t>
         </is>
       </c>
+      <c r="DI2" t="inlineStr">
+        <is>
+          <t>300515.SZ; 三德科技; 0;  10:02:21; 首板涨停; 20.96;  10:02:21; 20.0%; 1; 煤炭检测设备+无人化智能装备+电力物联网</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -11787,6 +11832,11 @@
           <t>300485.SZ; 赛升药业; 0;  09:50:03; 首板涨停; 13.94;  09:50:03; 20.0%; 1; 新药技术转让+创新药研发+一季报扭亏</t>
         </is>
       </c>
+      <c r="DI3" t="inlineStr">
+        <is>
+          <t>300072.SZ; 海新能科; 0;  11:04:21; 首板涨停; 3.71;  11:04:21; 20.1%; 1; 生物柴油+生物航煤+新增产能投产+北京国资</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -12292,6 +12342,11 @@
           <t>300429.SZ; 强力新材; 3;  10:06:57; 首板涨停; 14.27;  09:37:18; 20.0%; 1; 半导体封装+光刻胶+PCB概念+客户认证</t>
         </is>
       </c>
+      <c r="DI4" t="inlineStr">
+        <is>
+          <t>300801.SZ; 泰和科技; 1;  11:27:33; 首板涨停; 21.64;  09:57:30; 20.0%; 1; 光刻胶+固态电池+水处理</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -12747,6 +12802,11 @@
           <t>300480.SZ; 光力科技; 0;  10:56:36; 首板涨停; 15.59;  10:56:36; 20.0%; 1; 半导体封测+行星滚柱丝杠+机器人概念+一季报增长</t>
         </is>
       </c>
+      <c r="DI5" t="inlineStr">
+        <is>
+          <t>300591.SZ; 万里马; 0;  13:06:03; 首板涨停; 7.02;  13:06:03; 20.0%; 1; 军工防护+单兵装备+中东冲突</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -13157,6 +13217,11 @@
           <t>301038.SZ; 深水规院; 0;  13:08:09; 首板涨停; 17.26;  13:08:09; 20.0%; 1; 水务建设工程+水资源+深圳国资</t>
         </is>
       </c>
+      <c r="DI6" t="inlineStr">
+        <is>
+          <t>300531.SZ; 优博讯; 1;  13:10:00; 首板涨停; 21.14;  09:38:09; 20.0%; 1; 数字货币+一季报增长+海外市场拓展</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -13497,6 +13562,11 @@
           <t>300589.SZ; 江龙船艇; 0;  13:09:27; 首板涨停; 15.12;  13:09:27; 20.0%; 1; 军工+消防船合同+订单增长+养殖工船</t>
         </is>
       </c>
+      <c r="DI7" t="inlineStr">
+        <is>
+          <t>301421.SZ; 波长光电; 19;  13:49:57; 首板涨停; 74.83;  09:44:06; 20.0%; 1; 光刻机+半导体+光学元件</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -13797,6 +13867,11 @@
           <t>872895.BJ; 花溪科技; 5;  13:23:48; 首板涨停; 52.52;  13:22:06; 30.0%; 1; 农机+焊接机器人+海外拓展</t>
         </is>
       </c>
+      <c r="DI8" t="inlineStr">
+        <is>
+          <t>688656.SH; 浩欧博; 1;  14:14:27; 首板涨停; 122.4;  14:03:30; 20.0%; 1; 脱敏治疗创新药+体外诊断+控股股东变更</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -14020,6 +14095,11 @@
       <c r="DH9" t="inlineStr">
         <is>
           <t>300340.SZ; 科恒股份; 2;  14:47:00; 首板涨停; 20.64;  10:25:33; 20.0%; 1; 固态电池+钴酸锂+珠海国资</t>
+        </is>
+      </c>
+      <c r="DI9" t="inlineStr">
+        <is>
+          <t>301213.SZ; 观想科技; 0;  14:36:36; 首板涨停; 50.89;  14:36:36; 20.0%; 1; 军工+大额合同+东数西算+AI军事应用</t>
         </is>
       </c>
     </row>
@@ -15029,7 +15109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DH178"/>
+  <dimension ref="A1:DI178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15593,6 +15673,11 @@
           <t>2025年06月20日</t>
         </is>
       </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月23日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -16128,6 +16213,11 @@
           <t>300340.SZ; 科恒股份; 4.1%; 25.1%; 20.64; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DI2" t="inlineStr">
+        <is>
+          <t>301678.SZ; 新恒汇; 5.0%; 12.5%; 45; 6.8%; 阳线||价升量缩||长上影线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -16628,6 +16718,11 @@
           <t>301150.SZ; 中一科技; 1.7%; 20.5%; 21.9; 18.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DI3" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 3.7%; 12.7%; 37.97; 8.5%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -17083,6 +17178,11 @@
           <t>300589.SZ; 江龙船艇; 0.6%; 20.8%; 15.12; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DI4" t="inlineStr">
+        <is>
+          <t>837748.BJ; 路桥信息; 3.3%; 18.5%; 78.56; 14.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -17488,6 +17588,11 @@
           <t>300410.SZ; 正业科技; 0.3%; 20.4%; 7.45; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DI5" t="inlineStr">
+        <is>
+          <t>688573.SH; 信宇人; 3.2%; 18.1%; 31.39; 14.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -17863,6 +17968,11 @@
           <t>872895.BJ; 花溪科技; 0.3%; 30.4%; 52.52; 30.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DI6" t="inlineStr">
+        <is>
+          <t>832175.BJ; 东方碳素; 2.8%; 15.5%; 15.31; 12.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -18218,6 +18328,11 @@
           <t>300269.SZ; 联建光电; 0.2%; 13.4%; 6.17; 13.2%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="DI7" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 2.5%; 23.0%; 47.39; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -18523,6 +18638,11 @@
           <t>301182.SZ; 凯旺科技; 0.6%; 20.8%; 37.18; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DI8" t="inlineStr">
+        <is>
+          <t>688656.SH; 浩欧博; 1.9%; 22.4%; 122.4; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -18788,6 +18908,11 @@
           <t>301051.SZ; 信濠光电; 0.5%; 15.1%; 22.44; 14.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DI9" t="inlineStr">
+        <is>
+          <t>301421.SZ; 波长光电; 1.4%; 21.7%; 74.83; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -19023,6 +19148,11 @@
           <t>300291.SZ; 百纳千成; 0.4%; 20.4%; 6.14; 19.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DI10" t="inlineStr">
+        <is>
+          <t>300541.SZ; 先进数通; 1.3%; 14.3%; 15.79; 12.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -19228,6 +19358,11 @@
           <t>301152.SZ; 天力锂能; 0.2%; 12.2%; 27.55; 12.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DI11" t="inlineStr">
+        <is>
+          <t>301176.SZ; 逸豪新材; 1.1%; 21.3%; 29.28; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -19368,6 +19503,11 @@
           <t>301132.SZ; 满坤科技; 0.3%; 13.1%; 31.68; 12.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DI12" t="inlineStr">
+        <is>
+          <t>300047.SZ; 天源迪科; 1.0%; 15.7%; 16.13; 14.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -19488,6 +19628,11 @@
           <t>301063.SZ; 海锅股份; 0.1%; 12.2%; 31.42; 12.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DI13" t="inlineStr">
+        <is>
+          <t>300637.SZ; 扬帆新材; 1.0%; 12.6%; 11.7; 11.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -19583,6 +19728,11 @@
           <t>300683.SZ; 海特生物; 0.6%; 13.9%; 28.59; 13.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DI14" t="inlineStr">
+        <is>
+          <t>688152.SH; 麒麟信安; 0.7%; 14.3%; 45.9; 13.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -19663,6 +19813,11 @@
           <t>833429.BJ; 康比特; 0.5%; 14.7%; 30.46; 14.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DI15" t="inlineStr">
+        <is>
+          <t>301292.SZ; 海科新源; 0.4%; 13.9%; 26.68; 13.4%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -19733,6 +19888,11 @@
           <t>300478.SZ; 杭州高新; 0.8%; 12.7%; 14.84; 11.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DI16" t="inlineStr">
+        <is>
+          <t>301003.SZ; 江苏博云; 0.1%; 13.0%; 31.08; 12.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -19801,6 +19961,11 @@
       <c r="CS17" t="inlineStr">
         <is>
           <t>300950.SZ; 德固特; 0.7%; 12.0%; 19.38; 11.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="DI17" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 0.0%; 13.1%; 31.9; 13.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
     </row>
@@ -21820,7 +21985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DH21"/>
+  <dimension ref="A1:DI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22384,6 +22549,11 @@
           <t>2025年06月20日</t>
         </is>
       </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月23日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -22944,6 +23114,11 @@
           <t>300340.SZ; 科恒股份; 20.64; 20.0%; 150593.5; 9</t>
         </is>
       </c>
+      <c r="DI2" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 47.39; 20.0%; 433981.5; 2</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -23504,6 +23679,11 @@
           <t>300468.SZ; 四方精创; 39.5; 3.9%; 119145.5; 13</t>
         </is>
       </c>
+      <c r="DI3" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 31.9; 13.0%; 162264.0; 19</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -24064,6 +24244,11 @@
           <t>301292.SZ; 海科新源; 23.52; 20.0%; 93914.0; 21</t>
         </is>
       </c>
+      <c r="DI4" t="inlineStr">
+        <is>
+          <t>301176.SZ; 逸豪新材; 29.28; 20.0%; 118083.0; 31</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -24624,6 +24809,11 @@
           <t>300164.SZ; 通源石油; 7.19; -12.7%; 93634.0; 23</t>
         </is>
       </c>
+      <c r="DI5" t="inlineStr">
+        <is>
+          <t>300531.SZ; 优博讯; 21.14; 20.0%; 114285.5; 33</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -25184,6 +25374,11 @@
           <t>300429.SZ; 强力新材; 14.27; 20.0%; 89114.5; 25</t>
         </is>
       </c>
+      <c r="DI6" t="inlineStr">
+        <is>
+          <t>300801.SZ; 泰和科技; 21.64; 20.0%; 113733.0; 34</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -25744,6 +25939,11 @@
           <t>301678.SZ; 新恒汇; 42.12; 229.1%; 87225.5; 27</t>
         </is>
       </c>
+      <c r="DI7" t="inlineStr">
+        <is>
+          <t>301292.SZ; 海科新源; 26.68; 13.4%; 105380.0; 40</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -26304,6 +26504,11 @@
           <t>300589.SZ; 江龙船艇; 15.12; 20.0%; 83368.0; 34</t>
         </is>
       </c>
+      <c r="DI8" t="inlineStr">
+        <is>
+          <t>300072.SZ; 海新能科; 3.71; 20.1%; 99252.0; 44</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -26864,6 +27069,11 @@
           <t>300269.SZ; 联建光电; 6.17; 13.2%; 58590.5; 50</t>
         </is>
       </c>
+      <c r="DI9" t="inlineStr">
+        <is>
+          <t>300047.SZ; 天源迪科; 16.13; 14.6%; 98076.5; 46</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -27424,6 +27634,11 @@
           <t>300773.SZ; 拉卡拉; 28.22; 1.1%; 53929.5; 53</t>
         </is>
       </c>
+      <c r="DI10" t="inlineStr">
+        <is>
+          <t>300164.SZ; 通源石油; 7.74; 7.6%; 96239.5; 47</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -27984,6 +28199,11 @@
           <t>300485.SZ; 赛升药业; 13.94; 20.0%; 51692.0; 55</t>
         </is>
       </c>
+      <c r="DI11" t="inlineStr">
+        <is>
+          <t>300875.SZ; 捷强装备; 51.51; 8.6%; 96097.5; 48</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -28544,6 +28764,11 @@
           <t>301038.SZ; 深水规院; 17.26; 20.0%; 51234.0; 58</t>
         </is>
       </c>
+      <c r="DI12" t="inlineStr">
+        <is>
+          <t>300340.SZ; 科恒股份; 19.77; -4.2%; 88617.0; 56</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -29104,6 +29329,11 @@
           <t>300483.SZ; 首华燃气; 14.85; 11.0%; 50463.5; 60</t>
         </is>
       </c>
+      <c r="DI13" t="inlineStr">
+        <is>
+          <t>300591.SZ; 万里马; 7.02; 20.0%; 85190.5; 63</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -29664,6 +29894,11 @@
           <t>301150.SZ; 中一科技; 21.9; 18.4%; 49580.5; 61</t>
         </is>
       </c>
+      <c r="DI14" t="inlineStr">
+        <is>
+          <t>301282.SZ; 金禄电子; 23.06; -0.4%; 80882.0; 66</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -30224,6 +30459,11 @@
           <t>300046.SZ; 台基股份; 33.6; 5.7%; 48283.0; 65</t>
         </is>
       </c>
+      <c r="DI15" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 37.97; 8.5%; 73410.5; 72</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -30784,6 +31024,11 @@
           <t>301357.SZ; 北方长龙; 60; -9.1%; 46479.0; 69</t>
         </is>
       </c>
+      <c r="DI16" t="inlineStr">
+        <is>
+          <t>300180.SZ; 华峰超纤; 8.77; 9.1%; 69145.5; 77</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -31344,6 +31589,11 @@
           <t>300410.SZ; 正业科技; 7.45; 20.0%; 45260.5; 71</t>
         </is>
       </c>
+      <c r="DI17" t="inlineStr">
+        <is>
+          <t>300429.SZ; 强力新材; 14.96; 4.8%; 68644.0; 79</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -31904,6 +32154,11 @@
           <t>300480.SZ; 光力科技; 15.59; 20.0%; 44905.0; 72</t>
         </is>
       </c>
+      <c r="DI18" t="inlineStr">
+        <is>
+          <t>301421.SZ; 波长光电; 74.83; 20.0%; 68342.0; 80</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -32464,6 +32719,11 @@
           <t>300204.SZ; 舒泰神; 34.99; 5.5%; 40173.0; 84</t>
         </is>
       </c>
+      <c r="DI19" t="inlineStr">
+        <is>
+          <t>301678.SZ; 新恒汇; 45; 6.8%; 68331.5; 81</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -33024,6 +33284,11 @@
           <t>300255.SZ; 常山药业; 49.25; 1.8%; 39075.5; 86</t>
         </is>
       </c>
+      <c r="DI20" t="inlineStr">
+        <is>
+          <t>301219.SZ; 腾远钴业; 55.01; 15.4%; 68161.0; 82</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -33582,6 +33847,11 @@
       <c r="DH21" t="inlineStr">
         <is>
           <t>300308.SZ; 中际旭创; 129.5; 0.9%; 38832.0; 88</t>
+        </is>
+      </c>
+      <c r="DI21" t="inlineStr">
+        <is>
+          <t>300457.SZ; 赢合科技; 22.75; 5.8%; 66783.5; 86</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DI7"/>
+  <dimension ref="A1:DJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -999,6 +999,11 @@
           <t>2025年06月23日</t>
         </is>
       </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月24日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1322,6 +1327,11 @@
       <c r="DI2" t="inlineStr">
         <is>
           <t>301176.SZ; 逸豪新材; 3;  14:56:30; 4天3板; 29.28;  10:05:51; 20.0%; 1; PCB产业链+HVLP铜箔+产能扩张</t>
+        </is>
+      </c>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t>300801.SZ; 泰和科技; 0;  10:22:33; 2天2板; 25.97;  10:22:33; 20.0%; 2; 光刻胶+固态电池+水处理</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DI532"/>
+  <dimension ref="A1:DJ532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2285,6 +2295,11 @@
           <t>2025年06月23日</t>
         </is>
       </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月24日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2343,6 +2358,11 @@
       <c r="DG2" t="inlineStr">
         <is>
           <t>300255.SZ; 常山药业; 12;  10:10:33; 放量跌停; 48.4; -20.0%; 1; 近期累计涨幅较大</t>
+        </is>
+      </c>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t>300164.SZ; 通源石油; 21;  09:25:00; 放量跌停; 6.19; -20.0%; 1; 特朗普宣布以色列和伊朗已完全同意全面停火</t>
         </is>
       </c>
     </row>
@@ -7667,7 +7687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DI12"/>
+  <dimension ref="A1:DJ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8236,6 +8256,11 @@
           <t>2025年06月23日</t>
         </is>
       </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月24日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8771,6 +8796,11 @@
           <t>301219.SZ; 腾远钴业; 1;  09:51:45; 55.01; 曾涨停; 15.4%; 0.24H;  09:51:45</t>
         </is>
       </c>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t>839790.BJ; 联迪信息; 1;  10:14:14; 49.88; 曾涨停; 12.8%; 0.01H;  10:14:14</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9219,6 +9249,11 @@
       <c r="DI3" t="inlineStr">
         <is>
           <t>300047.SZ; 天源迪科; 1;  13:46:12; 16.13; 曾涨停; 14.6%; 0.03H;  13:46:12</t>
+        </is>
+      </c>
+      <c r="DJ3" t="inlineStr">
+        <is>
+          <t>300660.SZ; 江苏雷利; 1;  13:05:45; 45.52; 曾涨停; 17.2%; 0.06H;  13:05:45</t>
         </is>
       </c>
     </row>
@@ -10168,7 +10203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DI30"/>
+  <dimension ref="A1:DJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10737,6 +10772,11 @@
           <t>2025年06月23日</t>
         </is>
       </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月24日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11297,6 +11337,11 @@
           <t>300515.SZ; 三德科技; 0;  10:02:21; 首板涨停; 20.96;  10:02:21; 20.0%; 1; 煤炭检测设备+无人化智能装备+电力物联网</t>
         </is>
       </c>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t>300698.SZ; 万马科技; 0;  09:25:00; 首板涨停; 52.54;  09:25:00; 20.0%; 1; 无人驾驶+车联网+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -11837,6 +11882,11 @@
           <t>300072.SZ; 海新能科; 0;  11:04:21; 首板涨停; 3.71;  11:04:21; 20.1%; 1; 生物柴油+生物航煤+新增产能投产+北京国资</t>
         </is>
       </c>
+      <c r="DJ3" t="inlineStr">
+        <is>
+          <t>300462.SZ; 华铭智能; 1;  09:35:18; 首板涨停; 14.17;  09:35:00; 20.0%; 1; 数字货币+AFC系统+亏损收窄</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -12347,6 +12397,11 @@
           <t>300801.SZ; 泰和科技; 1;  11:27:33; 首板涨停; 21.64;  09:57:30; 20.0%; 1; 光刻胶+固态电池+水处理</t>
         </is>
       </c>
+      <c r="DJ4" t="inlineStr">
+        <is>
+          <t>834475.BJ; 三友科技; 0;  09:38:02; 首板涨停; 25.22;  09:38:02; 30.0%; 1; 无人驾驶+战略转型+智能装备创新</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -12807,6 +12862,11 @@
           <t>300591.SZ; 万里马; 0;  13:06:03; 首板涨停; 7.02;  13:06:03; 20.0%; 1; 军工防护+单兵装备+中东冲突</t>
         </is>
       </c>
+      <c r="DJ5" t="inlineStr">
+        <is>
+          <t>300969.SZ; 恒帅股份; 3;  09:46:12; 首板涨停; 67.19;  09:32:06; 20.0%; 1; 无人驾驶+机器人+汽车零部件</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -13222,6 +13282,11 @@
           <t>300531.SZ; 优博讯; 1;  13:10:00; 首板涨停; 21.14;  09:38:09; 20.0%; 1; 数字货币+一季报增长+海外市场拓展</t>
         </is>
       </c>
+      <c r="DJ6" t="inlineStr">
+        <is>
+          <t>300399.SZ; 天利科技; 2;  10:09:51; 首板涨停; 29.68;  10:02:03; 20.0%; 1; 互联网保险+一季报扭亏+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -13567,6 +13632,11 @@
           <t>301421.SZ; 波长光电; 19;  13:49:57; 首板涨停; 74.83;  09:44:06; 20.0%; 1; 光刻机+半导体+光学元件</t>
         </is>
       </c>
+      <c r="DJ7" t="inlineStr">
+        <is>
+          <t>300533.SZ; 冰川网络; 0;  10:23:12; 首板涨停; 32.51;  10:23:12; 20.0%; 1; 网络游戏+一季报扭亏+新产品推进</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -13872,6 +13942,11 @@
           <t>688656.SH; 浩欧博; 1;  14:14:27; 首板涨停; 122.4;  14:03:30; 20.0%; 1; 脱敏治疗创新药+体外诊断+控股股东变更</t>
         </is>
       </c>
+      <c r="DJ8" t="inlineStr">
+        <is>
+          <t>301349.SZ; 信德新材; 0;  13:39:51; 首板涨停; 39.52;  13:39:51; 20.0%; 1; 固态电池+锂离子电池负极包覆材料+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -14102,6 +14177,11 @@
           <t>301213.SZ; 观想科技; 0;  14:36:36; 首板涨停; 50.89;  14:36:36; 20.0%; 1; 军工+大额合同+东数西算+AI军事应用</t>
         </is>
       </c>
+      <c r="DJ9" t="inlineStr">
+        <is>
+          <t>301398.SZ; 星源卓镁; 1;  13:51:15; 首板涨停; 39.49;  10:29:18; 20.0%; 1; 镁/铝合金压铸产品+特斯拉</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -14277,6 +14357,11 @@
           <t>300581.SZ; 晨曦航空; 0;  13:09:51; 首板涨停; 15.82;  13:09:51; 20.0%; 1; 航空装备+军工+无人机</t>
         </is>
       </c>
+      <c r="DJ10" t="inlineStr">
+        <is>
+          <t>688499.SH; 利元亨; 5;  14:24:06; 首板涨停; 40.06;  13:49:51; 20.0%; 1; 固态电池+锂电池+人形机器人</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -14422,6 +14507,11 @@
           <t>300645.SZ; 正元智慧; 0;  13:51:00; 首板涨停; 18.46;  13:51:00; 20.0%; 1; 蚂蚁金服概念+智慧校园+华为昇腾</t>
         </is>
       </c>
+      <c r="DJ11" t="inlineStr">
+        <is>
+          <t>688353.SH; 华盛锂电; 0;  14:31:29; 首板涨停; 31.02;  14:31:29; 20.0%; 1; 固态电池+VC扩产+电解液添加剂</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -14530,6 +14620,11 @@
       <c r="DC12" t="inlineStr">
         <is>
           <t>300689.SZ; 澄天伟业; 1;  14:34:24; 首板涨停; 57.29;  13:51:03; 20.0%; 1; 液冷量产+一季报增长+引线框架</t>
+        </is>
+      </c>
+      <c r="DJ12" t="inlineStr">
+        <is>
+          <t>300695.SZ; 兆丰股份; 3;  14:45:27; 首板涨停; 76.56;  14:41:57; 20.0%; 1; 汽车轮毂轴承+机器人布局+一季报增长</t>
         </is>
       </c>
     </row>
@@ -15109,7 +15204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DI178"/>
+  <dimension ref="A1:DJ178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15678,6 +15773,11 @@
           <t>2025年06月23日</t>
         </is>
       </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月24日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -16218,6 +16318,11 @@
           <t>301678.SZ; 新恒汇; 5.0%; 12.5%; 45; 6.8%; 阳线||价升量缩||长上影线</t>
         </is>
       </c>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t>300410.SZ; 正业科技; 3.1%; 13.9%; 8.12; 10.3%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -16723,6 +16828,11 @@
           <t>300204.SZ; 舒泰神; 3.7%; 12.7%; 37.97; 8.5%; 价升量涨||阳线||缩量</t>
         </is>
       </c>
+      <c r="DJ3" t="inlineStr">
+        <is>
+          <t>839790.BJ; 联迪信息; 2.8%; 16.0%; 49.88; 12.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -17183,6 +17293,11 @@
           <t>837748.BJ; 路桥信息; 3.3%; 18.5%; 78.56; 14.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DJ4" t="inlineStr">
+        <is>
+          <t>300462.SZ; 华铭智能; 0.8%; 21.0%; 14.17; 20.0%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -17593,6 +17708,11 @@
           <t>688573.SH; 信宇人; 3.2%; 18.1%; 31.39; 14.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DJ5" t="inlineStr">
+        <is>
+          <t>836221.BJ; 易实精密; 0.8%; 19.1%; 25.85; 18.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -17973,6 +18093,11 @@
           <t>832175.BJ; 东方碳素; 2.8%; 15.5%; 15.31; 12.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DJ6" t="inlineStr">
+        <is>
+          <t>301132.SZ; 满坤科技; 0.7%; 17.9%; 38.72; 17.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -18333,6 +18458,11 @@
           <t>300468.SZ; 四方精创; 2.5%; 23.0%; 47.39; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DJ7" t="inlineStr">
+        <is>
+          <t>300399.SZ; 天利科技; 0.5%; 20.6%; 29.68; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -18643,6 +18773,11 @@
           <t>688656.SH; 浩欧博; 1.9%; 22.4%; 122.4; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DJ8" t="inlineStr">
+        <is>
+          <t>688631.SH; 莱斯信息; 0.2%; 13.8%; 85.81; 13.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -18913,6 +19048,11 @@
           <t>301421.SZ; 波长光电; 1.4%; 21.7%; 74.83; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DJ9" t="inlineStr">
+        <is>
+          <t>301349.SZ; 信德新材; 0.2%; 20.2%; 39.52; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -19151,6 +19291,11 @@
       <c r="DI10" t="inlineStr">
         <is>
           <t>300541.SZ; 先进数通; 1.3%; 14.3%; 15.79; 12.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="DJ10" t="inlineStr">
+        <is>
+          <t>688499.SH; 利元亨; 0.1%; 20.2%; 40.06; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -21985,7 +22130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DI21"/>
+  <dimension ref="A1:DJ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22554,6 +22699,11 @@
           <t>2025年06月23日</t>
         </is>
       </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月24日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -23119,6 +23269,11 @@
           <t>300468.SZ; 四方精创; 47.39; 20.0%; 433981.5; 2</t>
         </is>
       </c>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t>300801.SZ; 泰和科技; 25.97; 20.0%; 226461.0; 17</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -23684,6 +23839,11 @@
           <t>300773.SZ; 拉卡拉; 31.9; 13.0%; 162264.0; 19</t>
         </is>
       </c>
+      <c r="DJ3" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 45.1; -4.8%; 195772.5; 23</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -24249,6 +24409,11 @@
           <t>301176.SZ; 逸豪新材; 29.28; 20.0%; 118083.0; 31</t>
         </is>
       </c>
+      <c r="DJ4" t="inlineStr">
+        <is>
+          <t>300698.SZ; 万马科技; 52.54; 20.0%; 188240.5; 24</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -24814,6 +24979,11 @@
           <t>300531.SZ; 优博讯; 21.14; 20.0%; 114285.5; 33</t>
         </is>
       </c>
+      <c r="DJ5" t="inlineStr">
+        <is>
+          <t>300164.SZ; 通源石油; 6.19; -20.0%; 159279.0; 30</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -25379,6 +25549,11 @@
           <t>300801.SZ; 泰和科技; 21.64; 20.0%; 113733.0; 34</t>
         </is>
       </c>
+      <c r="DJ6" t="inlineStr">
+        <is>
+          <t>300340.SZ; 科恒股份; 20.98; 6.1%; 132584.0; 44</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -25944,6 +26119,11 @@
           <t>301292.SZ; 海科新源; 26.68; 13.4%; 105380.0; 40</t>
         </is>
       </c>
+      <c r="DJ7" t="inlineStr">
+        <is>
+          <t>300399.SZ; 天利科技; 29.68; 20.0%; 125111.0; 49</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -26509,6 +26689,11 @@
           <t>300072.SZ; 海新能科; 3.71; 20.1%; 99252.0; 44</t>
         </is>
       </c>
+      <c r="DJ8" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 21.81; 4.2%; 124350.0; 50</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -27074,6 +27259,11 @@
           <t>300047.SZ; 天源迪科; 16.13; 14.6%; 98076.5; 46</t>
         </is>
       </c>
+      <c r="DJ9" t="inlineStr">
+        <is>
+          <t>301349.SZ; 信德新材; 39.52; 20.0%; 124019.5; 51</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -27639,6 +27829,11 @@
           <t>300164.SZ; 通源石油; 7.74; 7.6%; 96239.5; 47</t>
         </is>
       </c>
+      <c r="DJ10" t="inlineStr">
+        <is>
+          <t>300462.SZ; 华铭智能; 14.17; 20.0%; 114194.0; 57</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -28204,6 +28399,11 @@
           <t>300875.SZ; 捷强装备; 51.51; 8.6%; 96097.5; 48</t>
         </is>
       </c>
+      <c r="DJ11" t="inlineStr">
+        <is>
+          <t>688499.SH; 利元亨; 40.06; 20.0%; 110484.5; 60</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -28769,6 +28969,11 @@
           <t>300340.SZ; 科恒股份; 19.77; -4.2%; 88617.0; 56</t>
         </is>
       </c>
+      <c r="DJ12" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 30.3; -5.0%; 107555.5; 61</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -29334,6 +29539,11 @@
           <t>300591.SZ; 万里马; 7.02; 20.0%; 85190.5; 63</t>
         </is>
       </c>
+      <c r="DJ13" t="inlineStr">
+        <is>
+          <t>300533.SZ; 冰川网络; 32.51; 20.0%; 106619.0; 64</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -29899,6 +30109,11 @@
           <t>301282.SZ; 金禄电子; 23.06; -0.4%; 80882.0; 66</t>
         </is>
       </c>
+      <c r="DJ14" t="inlineStr">
+        <is>
+          <t>300660.SZ; 江苏雷利; 45.52; 17.2%; 100068.5; 69</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -30464,6 +30679,11 @@
           <t>300204.SZ; 舒泰神; 37.97; 8.5%; 73410.5; 72</t>
         </is>
       </c>
+      <c r="DJ15" t="inlineStr">
+        <is>
+          <t>300695.SZ; 兆丰股份; 76.56; 20.0%; 97992.5; 71</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -31029,6 +31249,11 @@
           <t>300180.SZ; 华峰超纤; 8.77; 9.1%; 69145.5; 77</t>
         </is>
       </c>
+      <c r="DJ16" t="inlineStr">
+        <is>
+          <t>300531.SZ; 优博讯; 23.3; 10.2%; 91684.5; 78</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -31594,6 +31819,11 @@
           <t>300429.SZ; 强力新材; 14.96; 4.8%; 68644.0; 79</t>
         </is>
       </c>
+      <c r="DJ17" t="inlineStr">
+        <is>
+          <t>300969.SZ; 恒帅股份; 67.19; 20.0%; 88804.5; 79</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -32159,6 +32389,11 @@
           <t>301421.SZ; 波长光电; 74.83; 20.0%; 68342.0; 80</t>
         </is>
       </c>
+      <c r="DJ18" t="inlineStr">
+        <is>
+          <t>301678.SZ; 新恒汇; 48.51; 7.8%; 84989.5; 83</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -32724,6 +32959,11 @@
           <t>301678.SZ; 新恒汇; 45; 6.8%; 68331.5; 81</t>
         </is>
       </c>
+      <c r="DJ19" t="inlineStr">
+        <is>
+          <t>300130.SZ; 新国都; 33.21; 8.6%; 84435.5; 84</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -33289,6 +33529,11 @@
           <t>301219.SZ; 腾远钴业; 55.01; 15.4%; 68161.0; 82</t>
         </is>
       </c>
+      <c r="DJ20" t="inlineStr">
+        <is>
+          <t>301132.SZ; 满坤科技; 38.72; 17.0%; 81270.5; 89</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -33852,6 +34097,11 @@
       <c r="DI21" t="inlineStr">
         <is>
           <t>300457.SZ; 赢合科技; 22.75; 5.8%; 66783.5; 86</t>
+        </is>
+      </c>
+      <c r="DJ21" t="inlineStr">
+        <is>
+          <t>300311.SZ; ST任子行; 5.13; -20.0%; 79324.5; 90</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DJ7"/>
+  <dimension ref="A1:DK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,6 +1004,11 @@
           <t>2025年06月24日</t>
         </is>
       </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月25日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1334,6 +1339,11 @@
           <t>300801.SZ; 泰和科技; 0;  10:22:33; 2天2板; 25.97;  10:22:33; 20.0%; 2; 光刻胶+固态电池+水处理</t>
         </is>
       </c>
+      <c r="DK2" t="inlineStr">
+        <is>
+          <t>300591.SZ; 万里马; 0;  10:18:39; 3天2板; 8.33;  10:18:39; 20.0%; 1; 军工防护+单兵装备</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1529,6 +1539,11 @@
           <t>301357.SZ; 北方长龙; 5;  14:11:06; 2天2板; 66.04;  13:46:42; 20.0%; 2; 并购重组+军工+无人机</t>
         </is>
       </c>
+      <c r="DK3" t="inlineStr">
+        <is>
+          <t>300399.SZ; 天利科技; 9;  10:33:42; 2天2板; 35.62;  09:36:21; 20.0%; 2; 互联网保险+一季报扭亏+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1622,6 +1637,11 @@
       <c r="CW4" t="inlineStr">
         <is>
           <t>837748.BJ; 路桥信息; 0;  14:20:00; 5天3板; 57.74;  14:20:00; 30.0%; 1; 交通数字化服务+机器人+股权变更+国企</t>
+        </is>
+      </c>
+      <c r="DK4" t="inlineStr">
+        <is>
+          <t>300801.SZ; 泰和科技; 1;  14:47:03; 3天3板; 31.16;  14:23:24; 20.0%; 3; 固态电池+光刻胶+水处理</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DJ532"/>
+  <dimension ref="A1:DK532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2298,6 +2318,11 @@
       <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>2025年06月24日</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月25日</t>
         </is>
       </c>
     </row>
@@ -7687,7 +7712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DJ12"/>
+  <dimension ref="A1:DK12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8261,6 +8286,11 @@
           <t>2025年06月24日</t>
         </is>
       </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月25日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8801,6 +8831,11 @@
           <t>839790.BJ; 联迪信息; 1;  10:14:14; 49.88; 曾涨停; 12.8%; 0.01H;  10:14:14</t>
         </is>
       </c>
+      <c r="DK2" t="inlineStr">
+        <is>
+          <t>832885.BJ; 星辰科技; 1;  10:50:58; 24.22; 曾涨停; 25.6%; 0.01H;  10:50:58</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9254,6 +9289,11 @@
       <c r="DJ3" t="inlineStr">
         <is>
           <t>300660.SZ; 江苏雷利; 1;  13:05:45; 45.52; 曾涨停; 17.2%; 0.06H;  13:05:45</t>
+        </is>
+      </c>
+      <c r="DK3" t="inlineStr">
+        <is>
+          <t>300130.SZ; 新国都; 1;  13:25:33; 38; 曾涨停; 14.4%; 0.00H;  13:25:33</t>
         </is>
       </c>
     </row>
@@ -10203,7 +10243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DJ30"/>
+  <dimension ref="A1:DK30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10777,6 +10817,11 @@
           <t>2025年06月24日</t>
         </is>
       </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月25日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11342,6 +11387,11 @@
           <t>300698.SZ; 万马科技; 0;  09:25:00; 首板涨停; 52.54;  09:25:00; 20.0%; 1; 无人驾驶+车联网+一季报增长</t>
         </is>
       </c>
+      <c r="DK2" t="inlineStr">
+        <is>
+          <t>300960.SZ; 通业科技; 0;  09:42:39; 首板涨停; 24.5;  09:42:39; 20.0%; 1; 高铁+储能+一季报增长+股权激励</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -11887,6 +11937,11 @@
           <t>300462.SZ; 华铭智能; 1;  09:35:18; 首板涨停; 14.17;  09:35:00; 20.0%; 1; 数字货币+AFC系统+亏损收窄</t>
         </is>
       </c>
+      <c r="DK3" t="inlineStr">
+        <is>
+          <t>300169.SZ; 天晟新材; 2;  09:46:18; 首板涨停; 9.91;  09:33:36; 20.0%; 1; 参股券商（拟转让）+高分子发泡材料+军工</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -12402,6 +12457,11 @@
           <t>834475.BJ; 三友科技; 0;  09:38:02; 首板涨停; 25.22;  09:38:02; 30.0%; 1; 无人驾驶+战略转型+智能装备创新</t>
         </is>
       </c>
+      <c r="DK4" t="inlineStr">
+        <is>
+          <t>300600.SZ; 国瑞科技; 9;  09:57:00; 首板涨停; 11.27;  09:46:54; 20.0%; 1; 摘帽+军工+海工装备+核电+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -12867,6 +12927,11 @@
           <t>300969.SZ; 恒帅股份; 3;  09:46:12; 首板涨停; 67.19;  09:32:06; 20.0%; 1; 无人驾驶+机器人+汽车零部件</t>
         </is>
       </c>
+      <c r="DK5" t="inlineStr">
+        <is>
+          <t>688591.SH; 泰凌微; 4;  10:32:49; 首板涨停; 48.16;  09:39:07; 20.0%; 1; 半年度预增+端侧AI芯片</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -13287,6 +13352,11 @@
           <t>300399.SZ; 天利科技; 2;  10:09:51; 首板涨停; 29.68;  10:02:03; 20.0%; 1; 互联网保险+一季报扭亏+国企改革</t>
         </is>
       </c>
+      <c r="DK6" t="inlineStr">
+        <is>
+          <t>430090.BJ; 同辉信息; 2;  11:04:40; 首板涨停; 10.73;  09:52:55; 29.9%; 1; 数智化解决方案+AI技术融合+互联网金融</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -13637,6 +13707,11 @@
           <t>300533.SZ; 冰川网络; 0;  10:23:12; 首板涨停; 32.51;  10:23:12; 20.0%; 1; 网络游戏+一季报扭亏+新产品推进</t>
         </is>
       </c>
+      <c r="DK7" t="inlineStr">
+        <is>
+          <t>300046.SZ; 台基股份; 0;  13:16:48; 首板涨停; 41.88;  13:16:48; 20.0%; 1; 控制权变更+功率半导体+湖北国资</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -13947,6 +14022,11 @@
           <t>301349.SZ; 信德新材; 0;  13:39:51; 首板涨停; 39.52;  13:39:51; 20.0%; 1; 固态电池+锂离子电池负极包覆材料+一季报增长</t>
         </is>
       </c>
+      <c r="DK8" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 6;  13:20:51; 首板涨停; 13.55;  09:52:30; 20.0%; 1; 互联网金融+此前摘帽+智能制造+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -14182,6 +14262,11 @@
           <t>301398.SZ; 星源卓镁; 1;  13:51:15; 首板涨停; 39.49;  10:29:18; 20.0%; 1; 镁/铝合金压铸产品+特斯拉</t>
         </is>
       </c>
+      <c r="DK9" t="inlineStr">
+        <is>
+          <t>300649.SZ; 杭州园林; 0;  13:26:33; 首板涨停; 15.07;  13:26:33; 20.0%; 1; 区块链参股上市+文旅第二主业</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -14362,6 +14447,11 @@
           <t>688499.SH; 利元亨; 5;  14:24:06; 首板涨停; 40.06;  13:49:51; 20.0%; 1; 固态电池+锂电池+人形机器人</t>
         </is>
       </c>
+      <c r="DK10" t="inlineStr">
+        <is>
+          <t>301312.SZ; 智立方; 0;  13:39:42; 首板涨停; 40.36;  13:39:42; 20.0%; 1; 消费电子+半导体设备+机器人概念</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -14512,6 +14602,11 @@
           <t>688353.SH; 华盛锂电; 0;  14:31:29; 首板涨停; 31.02;  14:31:29; 20.0%; 1; 固态电池+VC扩产+电解液添加剂</t>
         </is>
       </c>
+      <c r="DK11" t="inlineStr">
+        <is>
+          <t>300803.SZ; 指南针; 2;  13:52:48; 首板涨停; 78.72;  11:29:12; 20.0%; 1; 互联网金融+金融科技+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -14627,6 +14722,11 @@
           <t>300695.SZ; 兆丰股份; 3;  14:45:27; 首板涨停; 76.56;  14:41:57; 20.0%; 1; 汽车轮毂轴承+机器人布局+一季报增长</t>
         </is>
       </c>
+      <c r="DK12" t="inlineStr">
+        <is>
+          <t>839790.BJ; 联迪信息; 2;  14:23:16; 首板涨停; 64.84;  14:17:55; 30.0%; 1; 金融科技+区块链+AI应用+车联网</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -14710,6 +14810,11 @@
       <c r="CS13" t="inlineStr">
         <is>
           <t>837748.BJ; 路桥信息; 0;  13:00:00; 首板涨停; 38.38;  13:00:00; 30.0%; 1; 交通数字化服务+机器人+股权变更+国企</t>
+        </is>
+      </c>
+      <c r="DK13" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 1;  14:43:36; 首板涨停; 64.62;  10:45:48; 20.0%; 1; 军工+无人机+并购重组</t>
         </is>
       </c>
     </row>
@@ -15204,7 +15309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DJ178"/>
+  <dimension ref="A1:DK178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15778,6 +15883,11 @@
           <t>2025年06月24日</t>
         </is>
       </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月25日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -16323,6 +16433,11 @@
           <t>300410.SZ; 正业科技; 3.1%; 13.9%; 8.12; 10.3%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="DK2" t="inlineStr">
+        <is>
+          <t>301678.SZ; 新恒汇; 5.2%; 22.5%; 56.36; 16.2%; 价升量涨||阳线||长上影线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -16833,6 +16948,11 @@
           <t>839790.BJ; 联迪信息; 2.8%; 16.0%; 49.88; 12.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DK3" t="inlineStr">
+        <is>
+          <t>300130.SZ; 新国都; 4.5%; 19.8%; 38; 14.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -17298,6 +17418,11 @@
           <t>300462.SZ; 华铭智能; 0.8%; 21.0%; 14.17; 20.0%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="DK4" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 2.0%; 22.5%; 64.62; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -17713,6 +17838,11 @@
           <t>836221.BJ; 易实精密; 0.8%; 19.1%; 25.85; 18.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DK5" t="inlineStr">
+        <is>
+          <t>837592.BJ; 华信永道; 1.8%; 16.1%; 80.09; 13.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -18098,6 +18228,11 @@
           <t>301132.SZ; 满坤科技; 0.7%; 17.9%; 38.72; 17.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DK6" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 1.7%; 22.1%; 13.55; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -18463,6 +18598,11 @@
           <t>300399.SZ; 天利科技; 0.5%; 20.6%; 29.68; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DK7" t="inlineStr">
+        <is>
+          <t>832885.BJ; 星辰科技; 1.5%; 27.5%; 24.22; 25.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -18778,6 +18918,11 @@
           <t>688631.SH; 莱斯信息; 0.2%; 13.8%; 85.81; 13.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DK8" t="inlineStr">
+        <is>
+          <t>300333.SZ; 兆日科技; 1.3%; 12.7%; 16.68; 11.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -19053,6 +19198,11 @@
           <t>301349.SZ; 信德新材; 0.2%; 20.2%; 39.52; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DK9" t="inlineStr">
+        <is>
+          <t>430090.BJ; 同辉信息; 1.2%; 31.5%; 10.73; 29.9%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -19298,6 +19448,11 @@
           <t>688499.SH; 利元亨; 0.1%; 20.2%; 40.06; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DK10" t="inlineStr">
+        <is>
+          <t>839790.BJ; 联迪信息; 1.0%; 31.4%; 64.84; 30.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -19508,6 +19663,11 @@
           <t>301176.SZ; 逸豪新材; 1.1%; 21.3%; 29.28; 20.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DK11" t="inlineStr">
+        <is>
+          <t>920098.BJ; 科隆新材; 0.4%; 13.2%; 38.5; 12.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -19653,6 +19813,11 @@
           <t>300047.SZ; 天源迪科; 1.0%; 15.7%; 16.13; 14.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DK12" t="inlineStr">
+        <is>
+          <t>688318.SH; 财富趋势; 0.4%; 18.3%; 124.01; 17.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -19778,6 +19943,11 @@
           <t>300637.SZ; 扬帆新材; 1.0%; 12.6%; 11.7; 11.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DK13" t="inlineStr">
+        <is>
+          <t>300600.SZ; 国瑞科技; 0.2%; 20.3%; 11.27; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -19876,6 +20046,11 @@
       <c r="DI14" t="inlineStr">
         <is>
           <t>688152.SH; 麒麟信安; 0.7%; 14.3%; 45.9; 13.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="DK14" t="inlineStr">
+        <is>
+          <t>688282.SH; 理工导航; 0.1%; 13.1%; 47.3; 13.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -22130,7 +22305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DJ21"/>
+  <dimension ref="A1:DK21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22704,6 +22879,11 @@
           <t>2025年06月24日</t>
         </is>
       </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月25日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -23274,6 +23454,11 @@
           <t>300801.SZ; 泰和科技; 25.97; 20.0%; 226461.0; 17</t>
         </is>
       </c>
+      <c r="DK2" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 24; 10.0%; 589945.0; 2</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -23844,6 +24029,11 @@
           <t>300468.SZ; 四方精创; 45.1; -4.8%; 195772.5; 23</t>
         </is>
       </c>
+      <c r="DK3" t="inlineStr">
+        <is>
+          <t>300803.SZ; 指南针; 78.72; 20.0%; 369247.0; 7</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -24414,6 +24604,11 @@
           <t>300698.SZ; 万马科技; 52.54; 20.0%; 188240.5; 24</t>
         </is>
       </c>
+      <c r="DK4" t="inlineStr">
+        <is>
+          <t>300085.SZ; 银之杰; 46.89; 15.9%; 243891.0; 15</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -24984,6 +25179,11 @@
           <t>300164.SZ; 通源石油; 6.19; -20.0%; 159279.0; 30</t>
         </is>
       </c>
+      <c r="DK5" t="inlineStr">
+        <is>
+          <t>300033.SZ; 同花顺; 289.77; 14.5%; 242370.5; 17</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -25554,6 +25754,11 @@
           <t>300340.SZ; 科恒股份; 20.98; 6.1%; 132584.0; 44</t>
         </is>
       </c>
+      <c r="DK6" t="inlineStr">
+        <is>
+          <t>300801.SZ; 泰和科技; 31.16; 20.0%; 220494.5; 20</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -26124,6 +26329,11 @@
           <t>300399.SZ; 天利科技; 29.68; 20.0%; 125111.0; 49</t>
         </is>
       </c>
+      <c r="DK7" t="inlineStr">
+        <is>
+          <t>300046.SZ; 台基股份; 41.88; 20.0%; 210386.0; 22</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -26694,6 +26904,11 @@
           <t>300059.SZ; 东方财富; 21.81; 4.2%; 124350.0; 50</t>
         </is>
       </c>
+      <c r="DK8" t="inlineStr">
+        <is>
+          <t>300399.SZ; 天利科技; 35.62; 20.0%; 205592.0; 24</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -27264,6 +27479,11 @@
           <t>301349.SZ; 信德新材; 39.52; 20.0%; 124019.5; 51</t>
         </is>
       </c>
+      <c r="DK9" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 13.55; 20.0%; 198801.5; 26</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -27834,6 +28054,11 @@
           <t>300462.SZ; 华铭智能; 14.17; 20.0%; 114194.0; 57</t>
         </is>
       </c>
+      <c r="DK10" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 45.6; 1.1%; 175548.0; 31</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -28404,6 +28629,11 @@
           <t>688499.SH; 利元亨; 40.06; 20.0%; 110484.5; 60</t>
         </is>
       </c>
+      <c r="DK11" t="inlineStr">
+        <is>
+          <t>300591.SZ; 万里马; 8.33; 20.0%; 169124.0; 35</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -28974,6 +29204,11 @@
           <t>300773.SZ; 拉卡拉; 30.3; -5.0%; 107555.5; 61</t>
         </is>
       </c>
+      <c r="DK12" t="inlineStr">
+        <is>
+          <t>301678.SZ; 新恒汇; 56.36; 16.2%; 145586.0; 40</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -29544,6 +29779,11 @@
           <t>300533.SZ; 冰川网络; 32.51; 20.0%; 106619.0; 64</t>
         </is>
       </c>
+      <c r="DK13" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 31.82; 5.0%; 138657.0; 44</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -30114,6 +30354,11 @@
           <t>300660.SZ; 江苏雷利; 45.52; 17.2%; 100068.5; 69</t>
         </is>
       </c>
+      <c r="DK14" t="inlineStr">
+        <is>
+          <t>300130.SZ; 新国都; 38; 14.4%; 136500.5; 45</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -30684,6 +30929,11 @@
           <t>300695.SZ; 兆丰股份; 76.56; 20.0%; 97992.5; 71</t>
         </is>
       </c>
+      <c r="DK15" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 64.62; 20.0%; 121518.5; 54</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -31254,6 +31504,11 @@
           <t>300531.SZ; 优博讯; 23.3; 10.2%; 91684.5; 78</t>
         </is>
       </c>
+      <c r="DK16" t="inlineStr">
+        <is>
+          <t>300377.SZ; 赢时胜; 27.14; 10.2%; 104767.5; 65</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -31824,6 +32079,11 @@
           <t>300969.SZ; 恒帅股份; 67.19; 20.0%; 88804.5; 79</t>
         </is>
       </c>
+      <c r="DK17" t="inlineStr">
+        <is>
+          <t>301099.SZ; 雅创电子; 45.65; 1.2%; 97360.0; 67</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -32394,6 +32654,11 @@
           <t>301678.SZ; 新恒汇; 48.51; 7.8%; 84989.5; 83</t>
         </is>
       </c>
+      <c r="DK18" t="inlineStr">
+        <is>
+          <t>300169.SZ; 天晟新材; 9.91; 20.0%; 96884.5; 68</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -32964,6 +33229,11 @@
           <t>300130.SZ; 新国都; 33.21; 8.6%; 84435.5; 84</t>
         </is>
       </c>
+      <c r="DK19" t="inlineStr">
+        <is>
+          <t>300600.SZ; 国瑞科技; 11.27; 20.0%; 92908.0; 72</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -33534,6 +33804,11 @@
           <t>301132.SZ; 满坤科技; 38.72; 17.0%; 81270.5; 89</t>
         </is>
       </c>
+      <c r="DK20" t="inlineStr">
+        <is>
+          <t>839790.BJ; 联迪信息; 64.84; 30.0%; 70407.0; 90</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -34102,6 +34377,11 @@
       <c r="DJ21" t="inlineStr">
         <is>
           <t>300311.SZ; ST任子行; 5.13; -20.0%; 79324.5; 90</t>
+        </is>
+      </c>
+      <c r="DK21" t="inlineStr">
+        <is>
+          <t>301312.SZ; 智立方; 40.36; 20.0%; 69198.5; 93</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DK7"/>
+  <dimension ref="A1:DL7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,6 +1009,11 @@
           <t>2025年06月25日</t>
         </is>
       </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月26日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1344,6 +1349,11 @@
           <t>300591.SZ; 万里马; 0;  10:18:39; 3天2板; 8.33;  10:18:39; 20.0%; 1; 军工防护+单兵装备</t>
         </is>
       </c>
+      <c r="DL2" t="inlineStr">
+        <is>
+          <t>300600.SZ; 国瑞科技; 0;  09:31:39; 2天2板; 13.52;  09:31:39; 20.0%; 2; 摘帽+军工+海工装备+核电+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1542,6 +1552,11 @@
       <c r="DK3" t="inlineStr">
         <is>
           <t>300399.SZ; 天利科技; 9;  10:33:42; 2天2板; 35.62;  09:36:21; 20.0%; 2; 互联网保险+一季报扭亏+国企改革</t>
+        </is>
+      </c>
+      <c r="DL3" t="inlineStr">
+        <is>
+          <t>300591.SZ; 万里马; 0;  09:43:00; 4天3板; 10;  09:43:00; 20.0%; 2; 军工防护+单兵装备+外销拓展</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DK532"/>
+  <dimension ref="A1:DL532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2323,6 +2338,11 @@
       <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>2025年06月25日</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月26日</t>
         </is>
       </c>
     </row>
@@ -7712,7 +7732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DK12"/>
+  <dimension ref="A1:DL12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8291,6 +8311,11 @@
           <t>2025年06月25日</t>
         </is>
       </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月26日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8836,6 +8861,11 @@
           <t>832885.BJ; 星辰科技; 1;  10:50:58; 24.22; 曾涨停; 25.6%; 0.01H;  10:50:58</t>
         </is>
       </c>
+      <c r="DL2" t="inlineStr">
+        <is>
+          <t>300399.SZ; 天利科技; 6;  09:54:30; 40.97; 曾涨停; 15.0%; 2.04H;  09:54:30|| 09:58:00|| 10:23:57|| 10:35:09|| 10:36:27|| 10:41:27</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9296,6 +9326,11 @@
           <t>300130.SZ; 新国都; 1;  13:25:33; 38; 曾涨停; 14.4%; 0.00H;  13:25:33</t>
         </is>
       </c>
+      <c r="DL3" t="inlineStr">
+        <is>
+          <t>833943.BJ; 优机股份; 5;  11:05:40; 31.93; 曾涨停; 29.0%; 0.56H;  11:05:40|| 11:09:19|| 11:19:07|| 11:26:46|| 13:20:01</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -9629,6 +9664,11 @@
       <c r="DI4" t="inlineStr">
         <is>
           <t>300468.SZ; 四方精创; 4;  14:15:54; 47.39; 曾涨停; 20.0%; 0.05H;  14:15:54|| 14:16:57|| 14:48:48|| 14:52:15</t>
+        </is>
+      </c>
+      <c r="DL4" t="inlineStr">
+        <is>
+          <t>688151.SH; 华强科技; 2;  13:00:13; 26.17; 曾涨停; 20.0%; 0.06H;  13:00:13|| 14:55:01</t>
         </is>
       </c>
     </row>
@@ -10243,7 +10283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DK30"/>
+  <dimension ref="A1:DL30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10822,6 +10862,11 @@
           <t>2025年06月25日</t>
         </is>
       </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月26日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11392,6 +11437,11 @@
           <t>300960.SZ; 通业科技; 0;  09:42:39; 首板涨停; 24.5;  09:42:39; 20.0%; 1; 高铁+储能+一季报增长+股权激励</t>
         </is>
       </c>
+      <c r="DL2" t="inlineStr">
+        <is>
+          <t>301565.SZ; 中仑新材; 0;  09:32:51; 首板涨停; 25.85;  09:32:51; 20.0%; 1; 固态电池+新产线投产+膜材龙头</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -11942,6 +11992,11 @@
           <t>300169.SZ; 天晟新材; 2;  09:46:18; 首板涨停; 9.91;  09:33:36; 20.0%; 1; 参股券商（拟转让）+高分子发泡材料+军工</t>
         </is>
       </c>
+      <c r="DL3" t="inlineStr">
+        <is>
+          <t>836871.BJ; 派特尔; 1;  09:36:31; 首板涨停; 19.76;  09:31:43; 30.0%; 1; 投资固态电池领域+超导新材料+改性塑料</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -12462,6 +12517,11 @@
           <t>300600.SZ; 国瑞科技; 9;  09:57:00; 首板涨停; 11.27;  09:46:54; 20.0%; 1; 摘帽+军工+海工装备+核电+国企改革</t>
         </is>
       </c>
+      <c r="DL4" t="inlineStr">
+        <is>
+          <t>300414.SZ; 中光防雷; 2;  10:09:48; 首板涨停; 10.75;  09:44:36; 20.0%; 1; 低空经济+军工+5G/6G+防雷通信</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -12932,6 +12992,11 @@
           <t>688591.SH; 泰凌微; 4;  10:32:49; 首板涨停; 48.16;  09:39:07; 20.0%; 1; 半年度预增+端侧AI芯片</t>
         </is>
       </c>
+      <c r="DL5" t="inlineStr">
+        <is>
+          <t>300810.SZ; 中科海讯; 0;  10:50:24; 首板涨停; 44.32;  10:50:24; 20.0%; 1; 深海科技+军工装备+合同签订</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -13357,6 +13422,11 @@
           <t>430090.BJ; 同辉信息; 2;  11:04:40; 首板涨停; 10.73;  09:52:55; 29.9%; 1; 数智化解决方案+AI技术融合+互联网金融</t>
         </is>
       </c>
+      <c r="DL6" t="inlineStr">
+        <is>
+          <t>300730.SZ; 科创信息; 0;  11:20:03; 首板涨停; 17.15;  11:20:03; 20.0%; 1; 数据要素+数字政府+数字货币+智能计算</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -13712,6 +13782,11 @@
           <t>300046.SZ; 台基股份; 0;  13:16:48; 首板涨停; 41.88;  13:16:48; 20.0%; 1; 控制权变更+功率半导体+湖北国资</t>
         </is>
       </c>
+      <c r="DL7" t="inlineStr">
+        <is>
+          <t>301319.SZ; 唯特偶; 2;  13:26:30; 首板涨停; 30.16;  10:02:06; 20.0%; 1; 固态电池+3D堆叠技术+新能源汽车+对外投资</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -14027,6 +14102,11 @@
           <t>300368.SZ; 汇金股份; 6;  13:20:51; 首板涨停; 13.55;  09:52:30; 20.0%; 1; 互联网金融+此前摘帽+智能制造+国企改革</t>
         </is>
       </c>
+      <c r="DL8" t="inlineStr">
+        <is>
+          <t>688201.SH; 信安世纪; 2;  14:06:56; 首板涨停; 13.19;  13:10:14; 20.0%; 1; 数字货币+量子科技+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -14267,6 +14347,11 @@
           <t>300649.SZ; 杭州园林; 0;  13:26:33; 首板涨停; 15.07;  13:26:33; 20.0%; 1; 区块链参股上市+文旅第二主业</t>
         </is>
       </c>
+      <c r="DL9" t="inlineStr">
+        <is>
+          <t>300635.SZ; 中达安; 3;  14:46:21; 首板涨停; 13.24;  14:01:24; 20.0%; 1; 控制权变更+工程咨询+AI大模型</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -14450,6 +14535,11 @@
       <c r="DK10" t="inlineStr">
         <is>
           <t>301312.SZ; 智立方; 0;  13:39:42; 首板涨停; 40.36;  13:39:42; 20.0%; 1; 消费电子+半导体设备+机器人概念</t>
+        </is>
+      </c>
+      <c r="DL10" t="inlineStr">
+        <is>
+          <t>301022.SZ; 海泰科; 1;  14:51:48; 首板涨停; 40.66;  14:33:30; 20.0%; 1; 小米汽车+汽车模具+一季报增长+产能扩张</t>
         </is>
       </c>
     </row>
@@ -15309,7 +15399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DK178"/>
+  <dimension ref="A1:DL178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15888,6 +15978,11 @@
           <t>2025年06月25日</t>
         </is>
       </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月26日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -16438,6 +16533,11 @@
           <t>301678.SZ; 新恒汇; 5.2%; 22.5%; 56.36; 16.2%; 价升量涨||阳线||长上影线</t>
         </is>
       </c>
+      <c r="DL2" t="inlineStr">
+        <is>
+          <t>688656.SH; 浩欧博; 3.6%; 13.4%; 128.17; 9.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -16953,6 +17053,11 @@
           <t>300130.SZ; 新国都; 4.5%; 19.8%; 38; 14.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DL3" t="inlineStr">
+        <is>
+          <t>920082.BJ; 方正阀门; 1.0%; 13.6%; 23.32; 12.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -17423,6 +17528,11 @@
           <t>301357.SZ; 北方长龙; 2.0%; 22.5%; 64.62; 20.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DL4" t="inlineStr">
+        <is>
+          <t>873570.BJ; 坤博精工; 0.5%; 12.1%; 43.47; 11.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -17841,6 +17951,11 @@
       <c r="DK5" t="inlineStr">
         <is>
           <t>837592.BJ; 华信永道; 1.8%; 16.1%; 80.09; 13.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="DL5" t="inlineStr">
+        <is>
+          <t>688201.SH; 信安世纪; 0.2%; 20.2%; 13.19; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -22305,7 +22420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DK21"/>
+  <dimension ref="A1:DL21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22884,6 +22999,11 @@
           <t>2025年06月25日</t>
         </is>
       </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月26日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -23459,6 +23579,11 @@
           <t>300059.SZ; 东方财富; 24; 10.0%; 589945.0; 2</t>
         </is>
       </c>
+      <c r="DL2" t="inlineStr">
+        <is>
+          <t>300591.SZ; 万里马; 10; 20.0%; 228128.0; 19</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -24034,6 +24159,11 @@
           <t>300803.SZ; 指南针; 78.72; 20.0%; 369247.0; 7</t>
         </is>
       </c>
+      <c r="DL3" t="inlineStr">
+        <is>
+          <t>688047.SH; 龙芯中科; 122.41; -1.4%; 215672.5; 22</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -24609,6 +24739,11 @@
           <t>300085.SZ; 银之杰; 46.89; 15.9%; 243891.0; 15</t>
         </is>
       </c>
+      <c r="DL4" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 23.13; -3.6%; 148316.5; 41</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -25184,6 +25319,11 @@
           <t>300033.SZ; 同花顺; 289.77; 14.5%; 242370.5; 17</t>
         </is>
       </c>
+      <c r="DL5" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 33.2; 4.3%; 145254.5; 42</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -25759,6 +25899,11 @@
           <t>300801.SZ; 泰和科技; 31.16; 20.0%; 220494.5; 20</t>
         </is>
       </c>
+      <c r="DL6" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 45.49; -0.2%; 138865.0; 47</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -26334,6 +26479,11 @@
           <t>300046.SZ; 台基股份; 41.88; 20.0%; 210386.0; 22</t>
         </is>
       </c>
+      <c r="DL7" t="inlineStr">
+        <is>
+          <t>300730.SZ; 科创信息; 17.15; 20.0%; 133785.0; 51</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -26909,6 +27059,11 @@
           <t>300399.SZ; 天利科技; 35.62; 20.0%; 205592.0; 24</t>
         </is>
       </c>
+      <c r="DL8" t="inlineStr">
+        <is>
+          <t>300046.SZ; 台基股份; 42.9; 2.4%; 129181.5; 55</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -27484,6 +27639,11 @@
           <t>300368.SZ; 汇金股份; 13.55; 20.0%; 198801.5; 26</t>
         </is>
       </c>
+      <c r="DL9" t="inlineStr">
+        <is>
+          <t>300399.SZ; 天利科技; 40.97; 15.0%; 128701.5; 56</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -28059,6 +28219,11 @@
           <t>300468.SZ; 四方精创; 45.6; 1.1%; 175548.0; 31</t>
         </is>
       </c>
+      <c r="DL10" t="inlineStr">
+        <is>
+          <t>300348.SZ; 长亮科技; 17.97; 12.3%; 128437.0; 57</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -28634,6 +28799,11 @@
           <t>300591.SZ; 万里马; 8.33; 20.0%; 169124.0; 35</t>
         </is>
       </c>
+      <c r="DL11" t="inlineStr">
+        <is>
+          <t>300600.SZ; 国瑞科技; 13.52; 20.0%; 117125.5; 61</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -29209,6 +29379,11 @@
           <t>301678.SZ; 新恒汇; 56.36; 16.2%; 145586.0; 40</t>
         </is>
       </c>
+      <c r="DL12" t="inlineStr">
+        <is>
+          <t>920037.BJ; 广信科技; 60; 500.0%; 105310.5; 68</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -29784,6 +29959,11 @@
           <t>300773.SZ; 拉卡拉; 31.82; 5.0%; 138657.0; 44</t>
         </is>
       </c>
+      <c r="DL13" t="inlineStr">
+        <is>
+          <t>300568.SZ; 星源材质; 12.37; 10.5%; 104507.5; 69</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -30359,6 +30539,11 @@
           <t>300130.SZ; 新国都; 38; 14.4%; 136500.5; 45</t>
         </is>
       </c>
+      <c r="DL14" t="inlineStr">
+        <is>
+          <t>300801.SZ; 泰和科技; 26.65; -14.5%; 104072.0; 70</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -30934,6 +31119,11 @@
           <t>301357.SZ; 北方长龙; 64.62; 20.0%; 121518.5; 54</t>
         </is>
       </c>
+      <c r="DL15" t="inlineStr">
+        <is>
+          <t>300803.SZ; 指南针; 82; 4.2%; 102812.5; 71</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -31509,6 +31699,11 @@
           <t>300377.SZ; 赢时胜; 27.14; 10.2%; 104767.5; 65</t>
         </is>
       </c>
+      <c r="DL16" t="inlineStr">
+        <is>
+          <t>839680.BJ; *ST广道; 4.52; 29.9%; 102623.5; 72</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -32084,6 +32279,11 @@
           <t>301099.SZ; 雅创电子; 45.65; 1.2%; 97360.0; 67</t>
         </is>
       </c>
+      <c r="DL17" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 12.34; -8.9%; 96809.5; 78</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -32659,6 +32859,11 @@
           <t>300169.SZ; 天晟新材; 9.91; 20.0%; 96884.5; 68</t>
         </is>
       </c>
+      <c r="DL18" t="inlineStr">
+        <is>
+          <t>300810.SZ; 中科海讯; 44.32; 20.0%; 91753.5; 84</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -33234,6 +33439,11 @@
           <t>300600.SZ; 国瑞科技; 11.27; 20.0%; 92908.0; 72</t>
         </is>
       </c>
+      <c r="DL19" t="inlineStr">
+        <is>
+          <t>301022.SZ; 海泰科; 40.66; 20.0%; 91567.0; 85</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -33809,6 +34019,11 @@
           <t>839790.BJ; 联迪信息; 64.84; 30.0%; 70407.0; 90</t>
         </is>
       </c>
+      <c r="DL20" t="inlineStr">
+        <is>
+          <t>300085.SZ; 银之杰; 44.44; -5.2%; 84138.5; 92</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -34382,6 +34597,11 @@
       <c r="DK21" t="inlineStr">
         <is>
           <t>301312.SZ; 智立方; 40.36; 20.0%; 69198.5; 93</t>
+        </is>
+      </c>
+      <c r="DL21" t="inlineStr">
+        <is>
+          <t>300164.SZ; 通源石油; 6.22; 7.4%; 83880.5; 93</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL7"/>
+  <dimension ref="A1:DM7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1014,6 +1014,11 @@
           <t>2025年06月26日</t>
         </is>
       </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月27日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1352,6 +1357,11 @@
       <c r="DL2" t="inlineStr">
         <is>
           <t>300600.SZ; 国瑞科技; 0;  09:31:39; 2天2板; 13.52;  09:31:39; 20.0%; 2; 摘帽+军工+海工装备+核电+国企改革</t>
+        </is>
+      </c>
+      <c r="DM2" t="inlineStr">
+        <is>
+          <t>300414.SZ; 中光防雷; 0;  13:40:51; 2天2板; 12.9;  13:40:51; 20.0%; 2; 低空经济+军工+5G/6G+防雷通信</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL532"/>
+  <dimension ref="A1:DM532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2343,6 +2353,11 @@
       <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>2025年06月26日</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月27日</t>
         </is>
       </c>
     </row>
@@ -7732,7 +7747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL12"/>
+  <dimension ref="A1:DM12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8316,6 +8331,11 @@
           <t>2025年06月26日</t>
         </is>
       </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月27日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8866,6 +8886,11 @@
           <t>300399.SZ; 天利科技; 6;  09:54:30; 40.97; 曾涨停; 15.0%; 2.04H;  09:54:30|| 09:58:00|| 10:23:57|| 10:35:09|| 10:36:27|| 10:41:27</t>
         </is>
       </c>
+      <c r="DM2" t="inlineStr">
+        <is>
+          <t>301315.SZ; 威士顿; 2;  09:53:36; 58.5; 曾涨停; 12.0%; 0.29H;  09:53:36|| 10:05:54</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9331,6 +9356,11 @@
           <t>833943.BJ; 优机股份; 5;  11:05:40; 31.93; 曾涨停; 29.0%; 0.56H;  11:05:40|| 11:09:19|| 11:19:07|| 11:26:46|| 13:20:01</t>
         </is>
       </c>
+      <c r="DM3" t="inlineStr">
+        <is>
+          <t>835184.BJ; 国源科技; 1;  10:06:24; 19.7; 曾涨停; 16.5%; 0.01H;  10:06:24</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -9669,6 +9699,11 @@
       <c r="DL4" t="inlineStr">
         <is>
           <t>688151.SH; 华强科技; 2;  13:00:13; 26.17; 曾涨停; 20.0%; 0.06H;  13:00:13|| 14:55:01</t>
+        </is>
+      </c>
+      <c r="DM4" t="inlineStr">
+        <is>
+          <t>301205.SZ; 联特科技; 2;  13:31:00; 101; 曾涨停; 17.4%; 0.97H;  13:31:00|| 13:58:33</t>
         </is>
       </c>
     </row>
@@ -10283,7 +10318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL30"/>
+  <dimension ref="A1:DM30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10867,6 +10902,11 @@
           <t>2025年06月26日</t>
         </is>
       </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月27日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11442,6 +11482,11 @@
           <t>301565.SZ; 中仑新材; 0;  09:32:51; 首板涨停; 25.85;  09:32:51; 20.0%; 1; 固态电池+新产线投产+膜材龙头</t>
         </is>
       </c>
+      <c r="DM2" t="inlineStr">
+        <is>
+          <t>301024.SZ; 霍普股份; 1;  09:35:15; 首板涨停; 47.88;  09:34:57; 20.0%; 1; RWA+蚂蚁合作+建筑绿能</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -11997,6 +12042,11 @@
           <t>836871.BJ; 派特尔; 1;  09:36:31; 首板涨停; 19.76;  09:31:43; 30.0%; 1; 投资固态电池领域+超导新材料+改性塑料</t>
         </is>
       </c>
+      <c r="DM3" t="inlineStr">
+        <is>
+          <t>300536.SZ; 农尚环境; 0;  09:42:42; 首板涨停; 9.96;  09:42:42; 20.0%; 1; 算力租赁+芯片概念+园林绿化+摘帽</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -12522,6 +12572,11 @@
           <t>300414.SZ; 中光防雷; 2;  10:09:48; 首板涨停; 10.75;  09:44:36; 20.0%; 1; 低空经济+军工+5G/6G+防雷通信</t>
         </is>
       </c>
+      <c r="DM4" t="inlineStr">
+        <is>
+          <t>688062.SH; 迈威生物; 5;  10:21:04; 首板涨停; 28.62;  09:39:43; 20.0%; 1; BD合作+股份回购+创新药进展</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -12997,6 +13052,11 @@
           <t>300810.SZ; 中科海讯; 0;  10:50:24; 首板涨停; 44.32;  10:50:24; 20.0%; 1; 深海科技+军工装备+合同签订</t>
         </is>
       </c>
+      <c r="DM5" t="inlineStr">
+        <is>
+          <t>300965.SZ; 恒宇信通; 0;  10:39:06; 首板涨停; 54.83;  10:39:06; 20.0%; 1; 军用直升机+固定翼飞机</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -13427,6 +13487,11 @@
           <t>300730.SZ; 科创信息; 0;  11:20:03; 首板涨停; 17.15;  11:20:03; 20.0%; 1; 数据要素+数字政府+数字货币+智能计算</t>
         </is>
       </c>
+      <c r="DM6" t="inlineStr">
+        <is>
+          <t>300991.SZ; 创益通; 1;  11:13:09; 首板涨停; 28.97;  10:55:42; 20.0%; 1; 铜缆高速连接+一季报增长+互连产品+海外扩张</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -13787,6 +13852,11 @@
           <t>301319.SZ; 唯特偶; 2;  13:26:30; 首板涨停; 30.16;  10:02:06; 20.0%; 1; 固态电池+3D堆叠技术+新能源汽车+对外投资</t>
         </is>
       </c>
+      <c r="DM7" t="inlineStr">
+        <is>
+          <t>300697.SZ; 电工合金; 5;  13:18:06; 首板涨停; 13.87;  09:33:48; 20.0%; 1; 铜合金+铜母线+数据中心+国企</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -14107,6 +14177,11 @@
           <t>688201.SH; 信安世纪; 2;  14:06:56; 首板涨停; 13.19;  13:10:14; 20.0%; 1; 数字货币+量子科技+一季报增长</t>
         </is>
       </c>
+      <c r="DM8" t="inlineStr">
+        <is>
+          <t>301408.SZ; 华人健康; 1;  13:36:36; 首板涨停; 14.54;  10:19:33; 20.0%; 1; 股东阿里健康+医药商业+收购三家医药连锁公司</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -14352,6 +14427,11 @@
           <t>300635.SZ; 中达安; 3;  14:46:21; 首板涨停; 13.24;  14:01:24; 20.0%; 1; 控制权变更+工程咨询+AI大模型</t>
         </is>
       </c>
+      <c r="DM9" t="inlineStr">
+        <is>
+          <t>300650.SZ; 太龙股份; 0;  13:59:06; 首板涨停; 17.03;  13:59:06; 20.0%; 1; 半导体分销+存储芯片+小米概念</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -14542,6 +14622,11 @@
           <t>301022.SZ; 海泰科; 1;  14:51:48; 首板涨停; 40.66;  14:33:30; 20.0%; 1; 小米汽车+汽车模具+一季报增长+产能扩张</t>
         </is>
       </c>
+      <c r="DM10" t="inlineStr">
+        <is>
+          <t>300993.SZ; 玉马科技; 0;  14:35:57; 首板涨停; 14.68;  14:35:57; 20.0%; 1; “马”字个股+功能性遮阳材料+膜材料</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -14695,6 +14780,11 @@
       <c r="DK11" t="inlineStr">
         <is>
           <t>300803.SZ; 指南针; 2;  13:52:48; 首板涨停; 78.72;  11:29:12; 20.0%; 1; 互联网金融+金融科技+一季报增长</t>
+        </is>
+      </c>
+      <c r="DM11" t="inlineStr">
+        <is>
+          <t>688757.SH; 胜科纳米; 18;  14:56:31; 首板涨停; 29.71;  11:14:31; 20.0%; 1; 半导体第三方检测分析+次新股</t>
         </is>
       </c>
     </row>
@@ -15399,7 +15489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL178"/>
+  <dimension ref="A1:DM178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15983,6 +16073,11 @@
           <t>2025年06月26日</t>
         </is>
       </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月27日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -16538,6 +16633,11 @@
           <t>688656.SH; 浩欧博; 3.6%; 13.4%; 128.17; 9.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DM2" t="inlineStr">
+        <is>
+          <t>300591.SZ; 万里马; 6.2%; 19.7%; 11.23; 12.3%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -17058,6 +17158,11 @@
           <t>920082.BJ; 方正阀门; 1.0%; 13.6%; 23.32; 12.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DM3" t="inlineStr">
+        <is>
+          <t>301024.SZ; 霍普股份; 2.3%; 22.8%; 47.88; 20.0%; 阳线||缩量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -17533,6 +17638,11 @@
           <t>873570.BJ; 坤博精工; 0.5%; 12.1%; 43.47; 11.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DM4" t="inlineStr">
+        <is>
+          <t>301205.SZ; 联特科技; 1.8%; 19.5%; 101; 17.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -17958,6 +18068,11 @@
           <t>688201.SH; 信安世纪; 0.2%; 20.2%; 13.19; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DM5" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 1.4%; 16.7%; 80.5; 15.0%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -18348,6 +18463,11 @@
           <t>300368.SZ; 汇金股份; 1.7%; 22.1%; 13.55; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DM6" t="inlineStr">
+        <is>
+          <t>688757.SH; 胜科纳米; 0.6%; 20.8%; 29.71; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -18718,6 +18838,11 @@
           <t>832885.BJ; 星辰科技; 1.5%; 27.5%; 24.22; 25.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DM7" t="inlineStr">
+        <is>
+          <t>301125.SZ; 腾亚精工; 0.3%; 13.3%; 14.69; 12.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -19036,6 +19161,11 @@
       <c r="DK8" t="inlineStr">
         <is>
           <t>300333.SZ; 兆日科技; 1.3%; 12.7%; 16.68; 11.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="DM8" t="inlineStr">
+        <is>
+          <t>300993.SZ; 玉马科技; 0.2%; 20.3%; 14.68; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -22420,7 +22550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL21"/>
+  <dimension ref="A1:DM21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23004,6 +23134,11 @@
           <t>2025年06月26日</t>
         </is>
       </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月27日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -23584,6 +23719,11 @@
           <t>300591.SZ; 万里马; 10; 20.0%; 228128.0; 19</t>
         </is>
       </c>
+      <c r="DM2" t="inlineStr">
+        <is>
+          <t>300591.SZ; 万里马; 11.23; 12.3%; 158300.0; 14</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -24164,6 +24304,11 @@
           <t>688047.SH; 龙芯中科; 122.41; -1.4%; 215672.5; 22</t>
         </is>
       </c>
+      <c r="DM3" t="inlineStr">
+        <is>
+          <t>300993.SZ; 玉马科技; 14.68; 20.0%; 120517.0; 24</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -24744,6 +24889,11 @@
           <t>300059.SZ; 东方财富; 23.13; -3.6%; 148316.5; 41</t>
         </is>
       </c>
+      <c r="DM4" t="inlineStr">
+        <is>
+          <t>300414.SZ; 中光防雷; 12.9; 20.0%; 111895.5; 28</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -25324,6 +25474,11 @@
           <t>300773.SZ; 拉卡拉; 33.2; 4.3%; 145254.5; 42</t>
         </is>
       </c>
+      <c r="DM5" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 46.45; 2.1%; 106297.0; 34</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -25904,6 +26059,11 @@
           <t>300468.SZ; 四方精创; 45.49; -0.2%; 138865.0; 47</t>
         </is>
       </c>
+      <c r="DM6" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 23.04; -0.4%; 81321.0; 52</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -26484,6 +26644,11 @@
           <t>300730.SZ; 科创信息; 17.15; 20.0%; 133785.0; 51</t>
         </is>
       </c>
+      <c r="DM7" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 80.5; 15.0%; 81083.0; 54</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -27064,6 +27229,11 @@
           <t>300046.SZ; 台基股份; 42.9; 2.4%; 129181.5; 55</t>
         </is>
       </c>
+      <c r="DM8" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 138.4; 6.7%; 79671.0; 57</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -27644,6 +27814,11 @@
           <t>300399.SZ; 天利科技; 40.97; 15.0%; 128701.5; 56</t>
         </is>
       </c>
+      <c r="DM9" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 32.39; -2.4%; 78816.0; 58</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -28224,6 +28399,11 @@
           <t>300348.SZ; 长亮科技; 17.97; 12.3%; 128437.0; 57</t>
         </is>
       </c>
+      <c r="DM10" t="inlineStr">
+        <is>
+          <t>301121.SZ; 紫建电子; 45.76; 2.4%; 68918.5; 68</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -28804,6 +28984,11 @@
           <t>300600.SZ; 国瑞科技; 13.52; 20.0%; 117125.5; 61</t>
         </is>
       </c>
+      <c r="DM11" t="inlineStr">
+        <is>
+          <t>301678.SZ; 新恒汇; 53.57; 14.0%; 64806.0; 76</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -29384,6 +29569,11 @@
           <t>920037.BJ; 广信科技; 60; 500.0%; 105310.5; 68</t>
         </is>
       </c>
+      <c r="DM12" t="inlineStr">
+        <is>
+          <t>300650.SZ; 太龙股份; 17.03; 20.0%; 64309.5; 78</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -29964,6 +30154,11 @@
           <t>300568.SZ; 星源材质; 12.37; 10.5%; 104507.5; 69</t>
         </is>
       </c>
+      <c r="DM13" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 123.18; 5.5%; 61239.5; 83</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -30544,6 +30739,11 @@
           <t>300801.SZ; 泰和科技; 26.65; -14.5%; 104072.0; 70</t>
         </is>
       </c>
+      <c r="DM14" t="inlineStr">
+        <is>
+          <t>300991.SZ; 创益通; 28.97; 20.0%; 61193.0; 84</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -31124,6 +31324,11 @@
           <t>300803.SZ; 指南针; 82; 4.2%; 102812.5; 71</t>
         </is>
       </c>
+      <c r="DM15" t="inlineStr">
+        <is>
+          <t>301022.SZ; 海泰科; 38.23; -6.0%; 55974.5; 89</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -31704,6 +31909,11 @@
           <t>839680.BJ; *ST广道; 4.52; 29.9%; 102623.5; 72</t>
         </is>
       </c>
+      <c r="DM16" t="inlineStr">
+        <is>
+          <t>300046.SZ; 台基股份; 43.33; 1.0%; 53031.5; 97</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -32284,6 +32494,11 @@
           <t>300368.SZ; 汇金股份; 12.34; -8.9%; 96809.5; 78</t>
         </is>
       </c>
+      <c r="DM17" t="inlineStr">
+        <is>
+          <t>300568.SZ; 星源材质; 13.01; 5.2%; 51733.0; 101</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -32864,6 +33079,11 @@
           <t>300810.SZ; 中科海讯; 44.32; 20.0%; 91753.5; 84</t>
         </is>
       </c>
+      <c r="DM18" t="inlineStr">
+        <is>
+          <t>300697.SZ; 电工合金; 13.87; 20.0%; 49808.5; 107</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -33444,6 +33664,11 @@
           <t>301022.SZ; 海泰科; 40.66; 20.0%; 91567.0; 85</t>
         </is>
       </c>
+      <c r="DM19" t="inlineStr">
+        <is>
+          <t>301205.SZ; 联特科技; 101; 17.4%; 49643.0; 108</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -34024,6 +34249,11 @@
           <t>300085.SZ; 银之杰; 44.44; -5.2%; 84138.5; 92</t>
         </is>
       </c>
+      <c r="DM20" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 132.5; 3.1%; 46479.0; 118</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -34602,6 +34832,11 @@
       <c r="DL21" t="inlineStr">
         <is>
           <t>300164.SZ; 通源石油; 6.22; 7.4%; 83880.5; 93</t>
+        </is>
+      </c>
+      <c r="DM21" t="inlineStr">
+        <is>
+          <t>300399.SZ; 天利科技; 37.73; -7.9%; 44145.0; 125</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM7"/>
+  <dimension ref="A1:DN7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1019,6 +1019,11 @@
           <t>2025年06月27日</t>
         </is>
       </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月30日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1364,6 +1369,11 @@
           <t>300414.SZ; 中光防雷; 0;  13:40:51; 2天2板; 12.9;  13:40:51; 20.0%; 2; 低空经济+军工+5G/6G+防雷通信</t>
         </is>
       </c>
+      <c r="DN2" t="inlineStr">
+        <is>
+          <t>300965.SZ; 恒宇信通; 4;  09:41:39; 2天2板; 65.8;  09:34:51; 20.0%; 2; 军用直升机+固定翼飞机+军工资质</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1569,6 +1579,11 @@
           <t>300591.SZ; 万里马; 0;  09:43:00; 4天3板; 10;  09:43:00; 20.0%; 2; 军工防护+单兵装备+外销拓展</t>
         </is>
       </c>
+      <c r="DN3" t="inlineStr">
+        <is>
+          <t>301024.SZ; 霍普股份; 0;  10:12:42; 2天2板; 57.46;  10:12:42; 20.0%; 2; RWA+蚂蚁合作+建筑绿能</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1669,6 +1684,11 @@
           <t>300801.SZ; 泰和科技; 1;  14:47:03; 3天3板; 31.16;  14:23:24; 20.0%; 3; 固态电池+光刻胶+水处理</t>
         </is>
       </c>
+      <c r="DN4" t="inlineStr">
+        <is>
+          <t>300414.SZ; 中光防雷; 6;  14:26:57; 3天3板; 15.48;  10:23:00; 20.0%; 3; 军工+防雷通信+低空经济+5G/6G</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1717,6 +1737,11 @@
       <c r="CL5" t="inlineStr">
         <is>
           <t>301335.SZ; 天元宠物; 1;  14:55:06; 2天2板; 44.5;  10:00:51; 20.0%; 2; 资产重组+宠物经济+跨境电商</t>
+        </is>
+      </c>
+      <c r="DN5" t="inlineStr">
+        <is>
+          <t>300600.SZ; 国瑞科技; 0;  14:38:57; 4天3板; 15.55;  14:38:57; 20.0%; 1; 摘帽+军工+新能源船舶+核电+国企</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM532"/>
+  <dimension ref="A1:DN532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2360,6 +2385,11 @@
           <t>2025年06月27日</t>
         </is>
       </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月30日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2423,6 +2453,11 @@
       <c r="DJ2" t="inlineStr">
         <is>
           <t>300164.SZ; 通源石油; 21;  09:25:00; 放量跌停; 6.19; -20.0%; 1; 特朗普宣布以色列和伊朗已完全同意全面停火</t>
+        </is>
+      </c>
+      <c r="DN2" t="inlineStr">
+        <is>
+          <t>300849.SZ; 锦盛新材; 29;  09:35:39; 放量跌停; 13.18; -20.0%; 1; 因涉嫌信披违法违规被证监会立案</t>
         </is>
       </c>
     </row>
@@ -7747,7 +7782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM12"/>
+  <dimension ref="A1:DN12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8336,6 +8371,11 @@
           <t>2025年06月27日</t>
         </is>
       </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月30日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8891,6 +8931,11 @@
           <t>301315.SZ; 威士顿; 2;  09:53:36; 58.5; 曾涨停; 12.0%; 0.29H;  09:53:36|| 10:05:54</t>
         </is>
       </c>
+      <c r="DN2" t="inlineStr">
+        <is>
+          <t>300840.SZ; 酷特智能; 1;  11:11:00; 22.3; 曾涨停; 10.6%; 0.04H;  11:11:00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9359,6 +9404,11 @@
       <c r="DM3" t="inlineStr">
         <is>
           <t>835184.BJ; 国源科技; 1;  10:06:24; 19.7; 曾涨停; 16.5%; 0.01H;  10:06:24</t>
+        </is>
+      </c>
+      <c r="DN3" t="inlineStr">
+        <is>
+          <t>300537.SZ; 广信材料; 1;  14:19:51; 25.63; 曾涨停; 15.3%; 0.57H;  14:19:51</t>
         </is>
       </c>
     </row>
@@ -10318,7 +10368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM30"/>
+  <dimension ref="A1:DN30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10907,6 +10957,11 @@
           <t>2025年06月27日</t>
         </is>
       </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月30日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11487,6 +11542,11 @@
           <t>301024.SZ; 霍普股份; 1;  09:35:15; 首板涨停; 47.88;  09:34:57; 20.0%; 1; RWA+蚂蚁合作+建筑绿能</t>
         </is>
       </c>
+      <c r="DN2" t="inlineStr">
+        <is>
+          <t>301129.SZ; 瑞纳智能; 0;  09:30:51; 首板涨停; 27.16;  09:30:51; 20.0%; 1; 半导体+AI+智慧供热+磁悬浮离心式压缩机</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -12047,6 +12107,11 @@
           <t>300536.SZ; 农尚环境; 0;  09:42:42; 首板涨停; 9.96;  09:42:42; 20.0%; 1; 算力租赁+芯片概念+园林绿化+摘帽</t>
         </is>
       </c>
+      <c r="DN3" t="inlineStr">
+        <is>
+          <t>300293.SZ; 蓝英装备; 0;  09:36:24; 首板涨停; 25.14;  09:36:24; 20.0%; 1; 光刻机清洗+工业清洗+全球布局</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -12577,6 +12642,11 @@
           <t>688062.SH; 迈威生物; 5;  10:21:04; 首板涨停; 28.62;  09:39:43; 20.0%; 1; BD合作+股份回购+创新药进展</t>
         </is>
       </c>
+      <c r="DN4" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 0;  09:41:15; 首板涨停; 20.47;  09:41:15; 20.0%; 1; 军工+航空装备+无人机+一季度营收增长</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -13057,6 +13127,11 @@
           <t>300965.SZ; 恒宇信通; 0;  10:39:06; 首板涨停; 54.83;  10:39:06; 20.0%; 1; 军用直升机+固定翼飞机</t>
         </is>
       </c>
+      <c r="DN5" t="inlineStr">
+        <is>
+          <t>300971.SZ; 博亚精工; 0;  09:46:03; 首板涨停; 21.52;  09:46:03; 20.0%; 1; 军工+订单充足+新业务拓展</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -13492,6 +13567,11 @@
           <t>300991.SZ; 创益通; 1;  11:13:09; 首板涨停; 28.97;  10:55:42; 20.0%; 1; 铜缆高速连接+一季报增长+互连产品+海外扩张</t>
         </is>
       </c>
+      <c r="DN6" t="inlineStr">
+        <is>
+          <t>300649.SZ; 杭州园林; 0;  10:15:00; 首板涨停; 19.1;  10:15:00; 20.0%; 1; 区块链参股上市+文旅转型+应收账款改善</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -13857,6 +13937,11 @@
           <t>300697.SZ; 电工合金; 5;  13:18:06; 首板涨停; 13.87;  09:33:48; 20.0%; 1; 铜合金+铜母线+数据中心+国企</t>
         </is>
       </c>
+      <c r="DN7" t="inlineStr">
+        <is>
+          <t>300882.SZ; 万胜智能; 0;  10:43:54; 首板涨停; 17.94;  10:43:54; 20.0%; 1; 智慧物联+智能电表+国网中标</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -14182,6 +14267,11 @@
           <t>301408.SZ; 华人健康; 1;  13:36:36; 首板涨停; 14.54;  10:19:33; 20.0%; 1; 股东阿里健康+医药商业+收购三家医药连锁公司</t>
         </is>
       </c>
+      <c r="DN8" t="inlineStr">
+        <is>
+          <t>301125.SZ; 腾亚精工; 0;  13:04:33; 首板涨停; 17.63;  13:04:33; 20.0%; 1; 动力工具+建筑五金制品+一带一路+业绩扭亏</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -14432,6 +14522,11 @@
           <t>300650.SZ; 太龙股份; 0;  13:59:06; 首板涨停; 17.03;  13:59:06; 20.0%; 1; 半导体分销+存储芯片+小米概念</t>
         </is>
       </c>
+      <c r="DN9" t="inlineStr">
+        <is>
+          <t>688626.SH; 翔宇医疗; 0;  13:20:23; 首板涨停; 44.02;  13:20:23; 20.0%; 1; 脑机接口+康复机器人+一季度营收增长</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -14625,6 +14720,11 @@
       <c r="DM10" t="inlineStr">
         <is>
           <t>300993.SZ; 玉马科技; 0;  14:35:57; 首板涨停; 14.68;  14:35:57; 20.0%; 1; “马”字个股+功能性遮阳材料+膜材料</t>
+        </is>
+      </c>
+      <c r="DN10" t="inlineStr">
+        <is>
+          <t>300269.SZ; 联建光电; 0;  13:23:00; 首板涨停; 5.9;  13:23:00; 19.9%; 1; LED显示+虚拟现实+军工</t>
         </is>
       </c>
     </row>
@@ -15489,7 +15589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM178"/>
+  <dimension ref="A1:DN178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16078,6 +16178,11 @@
           <t>2025年06月27日</t>
         </is>
       </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月30日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -16638,6 +16743,11 @@
           <t>300591.SZ; 万里马; 6.2%; 19.7%; 11.23; 12.3%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DN2" t="inlineStr">
+        <is>
+          <t>300489.SZ; 光智科技; 20.0%; 16.8%; 44.16; -6.6%; 阳线||放量||长上影线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -17163,6 +17273,11 @@
           <t>301024.SZ; 霍普股份; 2.3%; 22.8%; 47.88; 20.0%; 阳线||缩量||价升量缩</t>
         </is>
       </c>
+      <c r="DN3" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 3.3%; 22.6%; 95.46; 18.6%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -17643,6 +17758,11 @@
           <t>301205.SZ; 联特科技; 1.8%; 19.5%; 101; 17.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DN4" t="inlineStr">
+        <is>
+          <t>301319.SZ; 唯特偶; 2.7%; 17.8%; 36; 14.6%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -18073,6 +18193,11 @@
           <t>301357.SZ; 北方长龙; 1.4%; 16.7%; 80.5; 15.0%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="DN5" t="inlineStr">
+        <is>
+          <t>301125.SZ; 腾亚精工; 2.0%; 22.5%; 17.63; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -18468,6 +18593,11 @@
           <t>688757.SH; 胜科纳米; 0.6%; 20.8%; 29.71; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DN6" t="inlineStr">
+        <is>
+          <t>300649.SZ; 杭州园林; 1.3%; 21.6%; 19.1; 20.0%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -18843,6 +18973,11 @@
           <t>301125.SZ; 腾亚精工; 0.3%; 13.3%; 14.69; 12.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DN7" t="inlineStr">
+        <is>
+          <t>300600.SZ; 国瑞科技; 0.9%; 21.1%; 15.55; 20.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -19168,6 +19303,11 @@
           <t>300993.SZ; 玉马科技; 0.2%; 20.3%; 14.68; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DN8" t="inlineStr">
+        <is>
+          <t>688084.SH; 晶品特装; 0.3%; 17.2%; 88; 16.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -19448,6 +19588,11 @@
           <t>430090.BJ; 同辉信息; 1.2%; 31.5%; 10.73; 29.9%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DN9" t="inlineStr">
+        <is>
+          <t>301007.SZ; 德迈仕; 0.1%; 15.6%; 30.99; 15.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -19696,6 +19841,11 @@
       <c r="DK10" t="inlineStr">
         <is>
           <t>839790.BJ; 联迪信息; 1.0%; 31.4%; 64.84; 30.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="DN10" t="inlineStr">
+        <is>
+          <t>688073.SH; 毕得医药; 0.0%; 13.0%; 58.02; 13.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -22550,7 +22700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM21"/>
+  <dimension ref="A1:DN21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23139,6 +23289,11 @@
           <t>2025年06月27日</t>
         </is>
       </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年06月30日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -23724,6 +23879,11 @@
           <t>300591.SZ; 万里马; 11.23; 12.3%; 158300.0; 14</t>
         </is>
       </c>
+      <c r="DN2" t="inlineStr">
+        <is>
+          <t>300414.SZ; 中光防雷; 15.48; 20.0%; 244711.0; 11</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -24309,6 +24469,11 @@
           <t>300993.SZ; 玉马科技; 14.68; 20.0%; 120517.0; 24</t>
         </is>
       </c>
+      <c r="DN3" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 50.49; 8.7%; 208150.0; 17</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -24894,6 +25059,11 @@
           <t>300414.SZ; 中光防雷; 12.9; 20.0%; 111895.5; 28</t>
         </is>
       </c>
+      <c r="DN4" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 20.47; 20.0%; 166944.5; 28</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -25479,6 +25649,11 @@
           <t>300468.SZ; 四方精创; 46.45; 2.1%; 106297.0; 34</t>
         </is>
       </c>
+      <c r="DN5" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 95.46; 18.6%; 165617.0; 29</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -26064,6 +26239,11 @@
           <t>300059.SZ; 东方财富; 23.04; -0.4%; 81321.0; 52</t>
         </is>
       </c>
+      <c r="DN6" t="inlineStr">
+        <is>
+          <t>300971.SZ; 博亚精工; 21.52; 20.0%; 134986.5; 40</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -26649,6 +26829,11 @@
           <t>301357.SZ; 北方长龙; 80.5; 15.0%; 81083.0; 54</t>
         </is>
       </c>
+      <c r="DN7" t="inlineStr">
+        <is>
+          <t>300293.SZ; 蓝英装备; 25.14; 20.0%; 123266.0; 43</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -27234,6 +27419,11 @@
           <t>300308.SZ; 中际旭创; 138.4; 6.7%; 79671.0; 57</t>
         </is>
       </c>
+      <c r="DN8" t="inlineStr">
+        <is>
+          <t>300600.SZ; 国瑞科技; 15.55; 20.0%; 116292.0; 44</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -27819,6 +28009,11 @@
           <t>300773.SZ; 拉卡拉; 32.39; -2.4%; 78816.0; 58</t>
         </is>
       </c>
+      <c r="DN9" t="inlineStr">
+        <is>
+          <t>300269.SZ; 联建光电; 5.9; 19.9%; 115118.0; 45</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -28404,6 +28599,11 @@
           <t>301121.SZ; 紫建电子; 45.76; 2.4%; 68918.5; 68</t>
         </is>
       </c>
+      <c r="DN10" t="inlineStr">
+        <is>
+          <t>300340.SZ; 科恒股份; 21.8; 14.6%; 111415.0; 49</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -28989,6 +29189,11 @@
           <t>301678.SZ; 新恒汇; 53.57; 14.0%; 64806.0; 76</t>
         </is>
       </c>
+      <c r="DN11" t="inlineStr">
+        <is>
+          <t>300965.SZ; 恒宇信通; 65.8; 20.0%; 110828.5; 50</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -29574,6 +29779,11 @@
           <t>300650.SZ; 太龙股份; 17.03; 20.0%; 64309.5; 78</t>
         </is>
       </c>
+      <c r="DN12" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 145.86; 5.4%; 110406.0; 51</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -30159,6 +30369,11 @@
           <t>300502.SZ; 新易盛; 123.18; 5.5%; 61239.5; 83</t>
         </is>
       </c>
+      <c r="DN13" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 33.45; 3.3%; 103270.5; 57</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -30744,6 +30959,11 @@
           <t>300991.SZ; 创益通; 28.97; 20.0%; 61193.0; 84</t>
         </is>
       </c>
+      <c r="DN14" t="inlineStr">
+        <is>
+          <t>300591.SZ; 万里马; 11.25; 0.2%; 95012.5; 62</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -31329,6 +31549,11 @@
           <t>301022.SZ; 海泰科; 38.23; -6.0%; 55974.5; 89</t>
         </is>
       </c>
+      <c r="DN15" t="inlineStr">
+        <is>
+          <t>301024.SZ; 霍普股份; 57.46; 20.0%; 86753.5; 74</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -31914,6 +32139,11 @@
           <t>300046.SZ; 台基股份; 43.33; 1.0%; 53031.5; 97</t>
         </is>
       </c>
+      <c r="DN16" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 23.13; 0.4%; 83155.0; 77</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -32499,6 +32729,11 @@
           <t>300568.SZ; 星源材质; 13.01; 5.2%; 51733.0; 101</t>
         </is>
       </c>
+      <c r="DN17" t="inlineStr">
+        <is>
+          <t>300546.SZ; 雄帝科技; 35.86; 10.2%; 78093.5; 82</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -33084,6 +33319,11 @@
           <t>300697.SZ; 电工合金; 13.87; 20.0%; 49808.5; 107</t>
         </is>
       </c>
+      <c r="DN18" t="inlineStr">
+        <is>
+          <t>300674.SZ; 宇信科技; 30.29; 9.0%; 77587.5; 84</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -33669,6 +33909,11 @@
           <t>301205.SZ; 联特科技; 101; 17.4%; 49643.0; 108</t>
         </is>
       </c>
+      <c r="DN19" t="inlineStr">
+        <is>
+          <t>300537.SZ; 广信材料; 25.63; 15.3%; 76558.5; 86</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -34254,6 +34499,11 @@
           <t>300476.SZ; 胜宏科技; 132.5; 3.1%; 46479.0; 118</t>
         </is>
       </c>
+      <c r="DN20" t="inlineStr">
+        <is>
+          <t>300046.SZ; 台基股份; 44.25; 2.1%; 71908.5; 92</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -34837,6 +35087,11 @@
       <c r="DM21" t="inlineStr">
         <is>
           <t>300399.SZ; 天利科技; 37.73; -7.9%; 44145.0; 125</t>
+        </is>
+      </c>
+      <c r="DN21" t="inlineStr">
+        <is>
+          <t>301678.SZ; 新恒汇; 59.2; 10.5%; 69713.0; 97</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DN7"/>
+  <dimension ref="A1:DO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,6 +1022,11 @@
       <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>2025年06月30日</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月01日</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DN532"/>
+  <dimension ref="A1:DO532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2388,6 +2393,11 @@
       <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>2025年06月30日</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月01日</t>
         </is>
       </c>
     </row>
@@ -7782,7 +7792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DN12"/>
+  <dimension ref="A1:DO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8376,6 +8386,11 @@
           <t>2025年06月30日</t>
         </is>
       </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月01日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8936,6 +8951,11 @@
           <t>300840.SZ; 酷特智能; 1;  11:11:00; 22.3; 曾涨停; 10.6%; 0.04H;  11:11:00</t>
         </is>
       </c>
+      <c r="DO2" t="inlineStr">
+        <is>
+          <t>688626.SH; 翔宇医疗; 1;  09:42:43; 47.59; 曾涨停; 8.1%; 0.41H;  09:42:43</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9411,6 +9431,11 @@
           <t>300537.SZ; 广信材料; 1;  14:19:51; 25.63; 曾涨停; 15.3%; 0.57H;  14:19:51</t>
         </is>
       </c>
+      <c r="DO3" t="inlineStr">
+        <is>
+          <t>301345.SZ; 涛涛车业; 1;  09:52:33; 124; 曾涨停; 14.7%; 0.18H;  09:52:33</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -9756,6 +9781,11 @@
           <t>301205.SZ; 联特科技; 2;  13:31:00; 101; 曾涨停; 17.4%; 0.97H;  13:31:00|| 13:58:33</t>
         </is>
       </c>
+      <c r="DO4" t="inlineStr">
+        <is>
+          <t>300405.SZ; 科隆股份; 2;  09:52:39; 6.55; 曾涨停; 15.9%; 0.03H;  09:52:39|| 09:55:15</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -9971,6 +10001,11 @@
           <t>300773.SZ; 拉卡拉; 1;  14:38:33; 31.7; 曾涨停; 16.2%; 0.15H;  14:38:33</t>
         </is>
       </c>
+      <c r="DO5" t="inlineStr">
+        <is>
+          <t>300293.SZ; 蓝英装备; 1;  09:58:57; 28.81; 曾涨停; 14.6%; 0.77H;  09:58:57</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -10134,6 +10169,11 @@
       <c r="DA6" t="inlineStr">
         <is>
           <t>300703.SZ; 创源股份; 1;  13:20:36; 27.82; 曾涨停; 13.6%; 0.02H;  13:20:36</t>
+        </is>
+      </c>
+      <c r="DO6" t="inlineStr">
+        <is>
+          <t>301348.SZ; 蓝箭电子; 1;  10:12:00; 27.11; 曾涨停; 15.2%; 0.17H;  10:12:00</t>
         </is>
       </c>
     </row>
@@ -10368,7 +10408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DN30"/>
+  <dimension ref="A1:DO30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10962,6 +11002,11 @@
           <t>2025年06月30日</t>
         </is>
       </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月01日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11547,6 +11592,11 @@
           <t>301129.SZ; 瑞纳智能; 0;  09:30:51; 首板涨停; 27.16;  09:30:51; 20.0%; 1; 半导体+AI+智慧供热+磁悬浮离心式压缩机</t>
         </is>
       </c>
+      <c r="DO2" t="inlineStr">
+        <is>
+          <t>300554.SZ; 三超新材; 1;  09:36:42; 首板涨停; 27.66;  09:35:21; 20.0%; 1; 半导体精密金刚石工具+芯片概念+光伏概念</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -12112,6 +12162,11 @@
           <t>300293.SZ; 蓝英装备; 0;  09:36:24; 首板涨停; 25.14;  09:36:24; 20.0%; 1; 光刻机清洗+工业清洗+全球布局</t>
         </is>
       </c>
+      <c r="DO3" t="inlineStr">
+        <is>
+          <t>300030.SZ; 阳普医疗; 0;  09:38:57; 首板涨停; 8.24;  09:38:57; 19.9%; 1; 医疗器械+肿瘤诊断+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -12647,6 +12702,11 @@
           <t>300581.SZ; 晨曦航空; 0;  09:41:15; 首板涨停; 20.47;  09:41:15; 20.0%; 1; 军工+航空装备+无人机+一季度营收增长</t>
         </is>
       </c>
+      <c r="DO4" t="inlineStr">
+        <is>
+          <t>300665.SZ; 飞鹿股份; 1;  09:49:57; 首板涨停; 10.03;  09:31:03; 20.0%; 1; 光伏概念+核电+集装箱+新能源材料</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -13132,6 +13192,11 @@
           <t>300971.SZ; 博亚精工; 0;  09:46:03; 首板涨停; 21.52;  09:46:03; 20.0%; 1; 军工+订单充足+新业务拓展</t>
         </is>
       </c>
+      <c r="DO5" t="inlineStr">
+        <is>
+          <t>300324.SZ; 旋极信息; 1;  09:51:21; 首板涨停; 5.22;  09:25:00; 20.0%; 1; AI大模型推理芯片+国防军工</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -13572,6 +13637,11 @@
           <t>300649.SZ; 杭州园林; 0;  10:15:00; 首板涨停; 19.1;  10:15:00; 20.0%; 1; 区块链参股上市+文旅转型+应收账款改善</t>
         </is>
       </c>
+      <c r="DO6" t="inlineStr">
+        <is>
+          <t>688693.SH; 锴威特; 0;  10:01:27; 首板涨停; 39.61;  10:01:27; 20.0%; 1; 芯片概念+SiC功率器件+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -13942,6 +14012,11 @@
           <t>300882.SZ; 万胜智能; 0;  10:43:54; 首板涨停; 17.94;  10:43:54; 20.0%; 1; 智慧物联+智能电表+国网中标</t>
         </is>
       </c>
+      <c r="DO7" t="inlineStr">
+        <is>
+          <t>300527.SZ; 中船应急; 1;  10:43:39; 首板涨停; 10.96;  10:23:12; 20.0%; 1; 中船系+军工装备+应急交通</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -14272,6 +14347,11 @@
           <t>301125.SZ; 腾亚精工; 0;  13:04:33; 首板涨停; 17.63;  13:04:33; 20.0%; 1; 动力工具+建筑五金制品+一带一路+业绩扭亏</t>
         </is>
       </c>
+      <c r="DO8" t="inlineStr">
+        <is>
+          <t>300452.SZ; 山河药辅; 7;  11:07:36; 首板涨停; 14.72;  09:44:21; 20.0%; 1; 微晶纤维素+药用辅料+植物胶囊+新产能释放</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -14527,6 +14607,11 @@
           <t>688626.SH; 翔宇医疗; 0;  13:20:23; 首板涨停; 44.02;  13:20:23; 20.0%; 1; 脑机接口+康复机器人+一季度营收增长</t>
         </is>
       </c>
+      <c r="DO9" t="inlineStr">
+        <is>
+          <t>301373.SZ; 凌玮科技; 4;  11:29:09; 首板涨停; 35.12;  09:37:54; 20.0%; 1; 军工+纳米二氧化硅+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -14727,6 +14812,11 @@
           <t>300269.SZ; 联建光电; 0;  13:23:00; 首板涨停; 5.9;  13:23:00; 19.9%; 1; LED显示+虚拟现实+军工</t>
         </is>
       </c>
+      <c r="DO10" t="inlineStr">
+        <is>
+          <t>688221.SH; 前沿生物; 2;  13:28:58; 首板涨停; 12.05;  13:24:07; 20.0%; 1; 小核酸研发+抗HIV病毒产品+创新药+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -14887,6 +14977,11 @@
           <t>688757.SH; 胜科纳米; 18;  14:56:31; 首板涨停; 29.71;  11:14:31; 20.0%; 1; 半导体第三方检测分析+次新股</t>
         </is>
       </c>
+      <c r="DO11" t="inlineStr">
+        <is>
+          <t>833427.BJ; 华维设计; 9;  14:23:22; 首板涨停; 21.06;  09:59:22; 30.0%; 1; 芯片封装+工程设计+订单充足</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -15005,6 +15100,11 @@
       <c r="DK12" t="inlineStr">
         <is>
           <t>839790.BJ; 联迪信息; 2;  14:23:16; 首板涨停; 64.84;  14:17:55; 30.0%; 1; 金融科技+区块链+AI应用+车联网</t>
+        </is>
+      </c>
+      <c r="DO12" t="inlineStr">
+        <is>
+          <t>300196.SZ; 长海股份; 0;  14:42:36; 首板涨停; 14.64;  14:42:36; 20.0%; 1; 玻璃玻纤+新能源汽车+一季报增长</t>
         </is>
       </c>
     </row>
@@ -15589,7 +15689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DN178"/>
+  <dimension ref="A1:DO178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16183,6 +16283,11 @@
           <t>2025年06月30日</t>
         </is>
       </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月01日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -16748,6 +16853,11 @@
           <t>300489.SZ; 光智科技; 20.0%; 16.8%; 44.16; -6.6%; 阳线||放量||长上影线</t>
         </is>
       </c>
+      <c r="DO2" t="inlineStr">
+        <is>
+          <t>870199.BJ; 倍益康; 2.2%; 12.7%; 40.59; 10.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -17278,6 +17388,11 @@
           <t>301357.SZ; 北方长龙; 3.3%; 22.6%; 95.46; 18.6%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="DO3" t="inlineStr">
+        <is>
+          <t>688693.SH; 锴威特; 0.6%; 20.8%; 39.61; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -17763,6 +17878,11 @@
           <t>301319.SZ; 唯特偶; 2.7%; 17.8%; 36; 14.6%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="DO4" t="inlineStr">
+        <is>
+          <t>688221.SH; 前沿生物; 0.4%; 20.5%; 12.05; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -18196,6 +18316,11 @@
       <c r="DN5" t="inlineStr">
         <is>
           <t>301125.SZ; 腾亚精工; 2.0%; 22.5%; 17.63; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="DO5" t="inlineStr">
+        <is>
+          <t>300527.SZ; 中船应急; 0.3%; 20.4%; 10.96; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -22700,7 +22825,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DN21"/>
+  <dimension ref="A1:DO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23294,6 +23419,11 @@
           <t>2025年06月30日</t>
         </is>
       </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月01日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -23884,6 +24014,11 @@
           <t>300414.SZ; 中光防雷; 15.48; 20.0%; 244711.0; 11</t>
         </is>
       </c>
+      <c r="DO2" t="inlineStr">
+        <is>
+          <t>300527.SZ; 中船应急; 10.96; 20.0%; 194805.5; 16</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -24474,6 +24609,11 @@
           <t>300468.SZ; 四方精创; 50.49; 8.7%; 208150.0; 17</t>
         </is>
       </c>
+      <c r="DO3" t="inlineStr">
+        <is>
+          <t>300324.SZ; 旋极信息; 5.22; 20.0%; 152848.5; 27</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -25064,6 +25204,11 @@
           <t>300581.SZ; 晨曦航空; 20.47; 20.0%; 166944.5; 28</t>
         </is>
       </c>
+      <c r="DO4" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 45.67; -9.5%; 130402.5; 36</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -25654,6 +25799,11 @@
           <t>301357.SZ; 北方长龙; 95.46; 18.6%; 165617.0; 29</t>
         </is>
       </c>
+      <c r="DO5" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 43; 15.3%; 120872.0; 45</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -26244,6 +26394,11 @@
           <t>300971.SZ; 博亚精工; 21.52; 20.0%; 134986.5; 40</t>
         </is>
       </c>
+      <c r="DO6" t="inlineStr">
+        <is>
+          <t>300046.SZ; 台基股份; 45.9; 3.7%; 112750.5; 51</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -26834,6 +26989,11 @@
           <t>300293.SZ; 蓝英装备; 25.14; 20.0%; 123266.0; 43</t>
         </is>
       </c>
+      <c r="DO7" t="inlineStr">
+        <is>
+          <t>300293.SZ; 蓝英装备; 28.81; 14.6%; 110396.0; 52</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -27424,6 +27584,11 @@
           <t>300600.SZ; 国瑞科技; 15.55; 20.0%; 116292.0; 44</t>
         </is>
       </c>
+      <c r="DO8" t="inlineStr">
+        <is>
+          <t>300554.SZ; 三超新材; 27.66; 20.0%; 87028.0; 73</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -28014,6 +28179,11 @@
           <t>300269.SZ; 联建光电; 5.9; 19.9%; 115118.0; 45</t>
         </is>
       </c>
+      <c r="DO9" t="inlineStr">
+        <is>
+          <t>300697.SZ; 电工合金; 15.69; 8.7%; 77456.0; 86</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -28604,6 +28774,11 @@
           <t>300340.SZ; 科恒股份; 21.8; 14.6%; 111415.0; 49</t>
         </is>
       </c>
+      <c r="DO10" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 88.06; -7.8%; 75401.0; 91</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -29194,6 +29369,11 @@
           <t>300965.SZ; 恒宇信通; 65.8; 20.0%; 110828.5; 50</t>
         </is>
       </c>
+      <c r="DO11" t="inlineStr">
+        <is>
+          <t>300196.SZ; 长海股份; 14.64; 20.0%; 72388.5; 96</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -29784,6 +29964,11 @@
           <t>300308.SZ; 中际旭创; 145.86; 5.4%; 110406.0; 51</t>
         </is>
       </c>
+      <c r="DO12" t="inlineStr">
+        <is>
+          <t>300452.SZ; 山河药辅; 14.72; 20.0%; 64421.5; 108</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -30374,6 +30559,11 @@
           <t>300773.SZ; 拉卡拉; 33.45; 3.3%; 103270.5; 57</t>
         </is>
       </c>
+      <c r="DO13" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 30.74; -8.1%; 64251.0; 110</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -30964,6 +31154,11 @@
           <t>300591.SZ; 万里马; 11.25; 0.2%; 95012.5; 62</t>
         </is>
       </c>
+      <c r="DO14" t="inlineStr">
+        <is>
+          <t>300665.SZ; 飞鹿股份; 10.03; 20.0%; 61364.0; 116</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -31554,6 +31749,11 @@
           <t>301024.SZ; 霍普股份; 57.46; 20.0%; 86753.5; 74</t>
         </is>
       </c>
+      <c r="DO15" t="inlineStr">
+        <is>
+          <t>300810.SZ; 中科海讯; 49.93; 9.0%; 60729.0; 117</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -32144,6 +32344,11 @@
           <t>300059.SZ; 东方财富; 23.13; 0.4%; 83155.0; 77</t>
         </is>
       </c>
+      <c r="DO16" t="inlineStr">
+        <is>
+          <t>300537.SZ; 广信材料; 27.61; 7.7%; 60453.0; 118</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -32734,6 +32939,11 @@
           <t>300546.SZ; 雄帝科技; 35.86; 10.2%; 78093.5; 82</t>
         </is>
       </c>
+      <c r="DO17" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 22.88; -1.1%; 59150.0; 121</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -33324,6 +33534,11 @@
           <t>300674.SZ; 宇信科技; 30.29; 9.0%; 77587.5; 84</t>
         </is>
       </c>
+      <c r="DO18" t="inlineStr">
+        <is>
+          <t>300414.SZ; 中光防雷; 14.26; -7.9%; 57475.5; 123</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -33914,6 +34129,11 @@
           <t>300537.SZ; 广信材料; 25.63; 15.3%; 76558.5; 86</t>
         </is>
       </c>
+      <c r="DO19" t="inlineStr">
+        <is>
+          <t>300340.SZ; 科恒股份; 19.57; -10.2%; 57108.5; 124</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -34504,6 +34724,11 @@
           <t>300046.SZ; 台基股份; 44.25; 2.1%; 71908.5; 92</t>
         </is>
       </c>
+      <c r="DO20" t="inlineStr">
+        <is>
+          <t>300008.SZ; 天海防务; 7.34; -0.7%; 56718.5; 125</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -35092,6 +35317,11 @@
       <c r="DN21" t="inlineStr">
         <is>
           <t>301678.SZ; 新恒汇; 59.2; 10.5%; 69713.0; 97</t>
+        </is>
+      </c>
+      <c r="DO21" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 20.95; 2.3%; 54925.5; 126</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DO7"/>
+  <dimension ref="A1:DP7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,6 +1027,11 @@
       <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>2025年07月01日</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月02日</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DO532"/>
+  <dimension ref="A1:DP532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2398,6 +2403,11 @@
       <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>2025年07月01日</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月02日</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DO12"/>
+  <dimension ref="A1:DP12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8391,6 +8401,11 @@
           <t>2025年07月01日</t>
         </is>
       </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月02日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8956,6 +8971,11 @@
           <t>688626.SH; 翔宇医疗; 1;  09:42:43; 47.59; 曾涨停; 8.1%; 0.41H;  09:42:43</t>
         </is>
       </c>
+      <c r="DP2" t="inlineStr">
+        <is>
+          <t>300897.SZ; 山科智能; 1;  09:37:00; 23.08; 曾涨停; 8.8%; 0.44H;  09:37:00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9436,6 +9456,11 @@
           <t>301345.SZ; 涛涛车业; 1;  09:52:33; 124; 曾涨停; 14.7%; 0.18H;  09:52:33</t>
         </is>
       </c>
+      <c r="DP3" t="inlineStr">
+        <is>
+          <t>300527.SZ; 中船应急; 1;  10:16:36; 12.4; 曾涨停; 13.1%; 0.00H;  10:16:36</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -9784,6 +9809,11 @@
       <c r="DO4" t="inlineStr">
         <is>
           <t>300405.SZ; 科隆股份; 2;  09:52:39; 6.55; 曾涨停; 15.9%; 0.03H;  09:52:39|| 09:55:15</t>
+        </is>
+      </c>
+      <c r="DP4" t="inlineStr">
+        <is>
+          <t>300881.SZ; 盛德鑫泰; 6;  13:15:42; 35.85; 曾涨停; 17.0%; 0.19H;  13:15:42|| 13:18:12|| 13:18:51|| 13:23:24|| 14:49:30|| 14:50:15</t>
         </is>
       </c>
     </row>
@@ -10408,7 +10438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DO30"/>
+  <dimension ref="A1:DP30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11007,6 +11037,11 @@
           <t>2025年07月01日</t>
         </is>
       </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月02日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11597,6 +11632,11 @@
           <t>300554.SZ; 三超新材; 1;  09:36:42; 首板涨停; 27.66;  09:35:21; 20.0%; 1; 半导体精密金刚石工具+芯片概念+光伏概念</t>
         </is>
       </c>
+      <c r="DP2" t="inlineStr">
+        <is>
+          <t>300961.SZ; 深水海纳; 0;  09:30:18; 首板涨停; 21.66;  09:30:18; 20.0%; 1; 海工装备+工业污水+一季报增长+控制权变更</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -12167,6 +12207,11 @@
           <t>300030.SZ; 阳普医疗; 0;  09:38:57; 首板涨停; 8.24;  09:38:57; 19.9%; 1; 医疗器械+肿瘤诊断+国企改革</t>
         </is>
       </c>
+      <c r="DP3" t="inlineStr">
+        <is>
+          <t>301388.SZ; 欣灵电气; 0;  09:50:39; 首板涨停; 29.6;  09:50:39; 20.0%; 1; 光伏概念+电网设备+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -12707,6 +12752,11 @@
           <t>300665.SZ; 飞鹿股份; 1;  09:49:57; 首板涨停; 10.03;  09:31:03; 20.0%; 1; 光伏概念+核电+集装箱+新能源材料</t>
         </is>
       </c>
+      <c r="DP4" t="inlineStr">
+        <is>
+          <t>300670.SZ; 大烨智能; 2;  10:33:18; 首板涨停; 7.86;  09:33:21; 20.0%; 1; 海工装备+风电+智能配电</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -13197,6 +13247,11 @@
           <t>300324.SZ; 旋极信息; 1;  09:51:21; 首板涨停; 5.22;  09:25:00; 20.0%; 1; AI大模型推理芯片+国防军工</t>
         </is>
       </c>
+      <c r="DP5" t="inlineStr">
+        <is>
+          <t>300160.SZ; 秀强股份; 0;  10:51:18; 首板涨停; 6.64;  10:51:18; 20.1%; 1; BIPV+以旧换新+国企改革+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -13642,6 +13697,11 @@
           <t>688693.SH; 锴威特; 0;  10:01:27; 首板涨停; 39.61;  10:01:27; 20.0%; 1; 芯片概念+SiC功率器件+一季报增长</t>
         </is>
       </c>
+      <c r="DP6" t="inlineStr">
+        <is>
+          <t>300094.SZ; 国联水产; 15;  13:59:03; 首板涨停; 4.36;  10:09:57; 20.1%; 1; 水产预制菜+国际化+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -14017,6 +14077,11 @@
           <t>300527.SZ; 中船应急; 1;  10:43:39; 首板涨停; 10.96;  10:23:12; 20.0%; 1; 中船系+军工装备+应急交通</t>
         </is>
       </c>
+      <c r="DP7" t="inlineStr">
+        <is>
+          <t>300821.SZ; 东岳硅材; 0;  14:12:48; 首板涨停; 9.3;  14:12:48; 20.0%; 1; 硅能源+有机硅+业绩扭亏</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -14350,6 +14415,11 @@
       <c r="DO8" t="inlineStr">
         <is>
           <t>300452.SZ; 山河药辅; 7;  11:07:36; 首板涨停; 14.72;  09:44:21; 20.0%; 1; 微晶纤维素+药用辅料+植物胶囊+新产能释放</t>
+        </is>
+      </c>
+      <c r="DP8" t="inlineStr">
+        <is>
+          <t>831689.BJ; 克莱特; 1;  14:34:12; 首板涨停; 56.49;  10:11:36; 30.0%; 1; 海洋工程+核电+产能提升</t>
         </is>
       </c>
     </row>
@@ -15689,7 +15759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DO178"/>
+  <dimension ref="A1:DP178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16288,6 +16358,11 @@
           <t>2025年07月01日</t>
         </is>
       </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月02日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -16858,6 +16933,11 @@
           <t>870199.BJ; 倍益康; 2.2%; 12.7%; 40.59; 10.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DP2" t="inlineStr">
+        <is>
+          <t>300515.SZ; 三德科技; 1.4%; 16.5%; 27; 14.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -17393,6 +17473,11 @@
           <t>688693.SH; 锴威特; 0.6%; 20.8%; 39.61; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DP3" t="inlineStr">
+        <is>
+          <t>300881.SZ; 盛德鑫泰; 0.8%; 17.9%; 35.85; 17.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -17883,6 +17968,11 @@
           <t>688221.SH; 前沿生物; 0.4%; 20.5%; 12.05; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DP4" t="inlineStr">
+        <is>
+          <t>300437.SZ; 清水源; 0.3%; 12.7%; 10.03; 12.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -18323,6 +18413,11 @@
           <t>300527.SZ; 中船应急; 0.3%; 20.4%; 10.96; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DP5" t="inlineStr">
+        <is>
+          <t>300821.SZ; 东岳硅材; 0.3%; 20.3%; 9.3; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -18721,6 +18816,11 @@
       <c r="DN6" t="inlineStr">
         <is>
           <t>300649.SZ; 杭州园林; 1.3%; 21.6%; 19.1; 20.0%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
+      <c r="DP6" t="inlineStr">
+        <is>
+          <t>300160.SZ; 秀强股份; 0.2%; 20.3%; 6.64; 20.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -22825,7 +22925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DO21"/>
+  <dimension ref="A1:DP21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23424,6 +23524,11 @@
           <t>2025年07月01日</t>
         </is>
       </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月02日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -24019,6 +24124,11 @@
           <t>300527.SZ; 中船应急; 10.96; 20.0%; 194805.5; 16</t>
         </is>
       </c>
+      <c r="DP2" t="inlineStr">
+        <is>
+          <t>300094.SZ; 国联水产; 4.36; 20.1%; 151814.5; 30</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -24614,6 +24724,11 @@
           <t>300324.SZ; 旋极信息; 5.22; 20.0%; 152848.5; 27</t>
         </is>
       </c>
+      <c r="DP3" t="inlineStr">
+        <is>
+          <t>300961.SZ; 深水海纳; 21.66; 20.0%; 138864.5; 38</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -25209,6 +25324,11 @@
           <t>300468.SZ; 四方精创; 45.67; -9.5%; 130402.5; 36</t>
         </is>
       </c>
+      <c r="DP4" t="inlineStr">
+        <is>
+          <t>300821.SZ; 东岳硅材; 9.3; 20.0%; 127200.5; 43</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -25804,6 +25924,11 @@
           <t>300204.SZ; 舒泰神; 43; 15.3%; 120872.0; 45</t>
         </is>
       </c>
+      <c r="DP5" t="inlineStr">
+        <is>
+          <t>300527.SZ; 中船应急; 12.4; 13.1%; 118992.0; 48</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -26399,6 +26524,11 @@
           <t>300046.SZ; 台基股份; 45.9; 3.7%; 112750.5; 51</t>
         </is>
       </c>
+      <c r="DP6" t="inlineStr">
+        <is>
+          <t>300065.SZ; 海兰信; 19.39; 5.6%; 103374.5; 56</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -26994,6 +27124,11 @@
           <t>300293.SZ; 蓝英装备; 28.81; 14.6%; 110396.0; 52</t>
         </is>
       </c>
+      <c r="DP7" t="inlineStr">
+        <is>
+          <t>300160.SZ; 秀强股份; 6.64; 20.1%; 87574.5; 66</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -27589,6 +27724,11 @@
           <t>300554.SZ; 三超新材; 27.66; 20.0%; 87028.0; 73</t>
         </is>
       </c>
+      <c r="DP8" t="inlineStr">
+        <is>
+          <t>300670.SZ; 大烨智能; 7.86; 20.0%; 86509.0; 68</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -28184,6 +28324,11 @@
           <t>300697.SZ; 电工合金; 15.69; 8.7%; 77456.0; 86</t>
         </is>
       </c>
+      <c r="DP9" t="inlineStr">
+        <is>
+          <t>301630.SZ; 同宇新材; nan; nan%; 84973.0; 70</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -28779,6 +28924,11 @@
           <t>301357.SZ; 北方长龙; 88.06; -7.8%; 75401.0; 91</t>
         </is>
       </c>
+      <c r="DP10" t="inlineStr">
+        <is>
+          <t>300810.SZ; 中科海讯; 55; 10.2%; 81399.0; 75</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -29374,6 +29524,11 @@
           <t>300196.SZ; 长海股份; 14.64; 20.0%; 72388.5; 96</t>
         </is>
       </c>
+      <c r="DP11" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 44.1; -3.4%; 74549.5; 82</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -29969,6 +30124,11 @@
           <t>300452.SZ; 山河药辅; 14.72; 20.0%; 64421.5; 108</t>
         </is>
       </c>
+      <c r="DP12" t="inlineStr">
+        <is>
+          <t>300118.SZ; 东方日升; 10.44; 10.6%; 68768.0; 91</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -30564,6 +30724,11 @@
           <t>300773.SZ; 拉卡拉; 30.74; -8.1%; 64251.0; 110</t>
         </is>
       </c>
+      <c r="DP13" t="inlineStr">
+        <is>
+          <t>831689.BJ; 克莱特; 56.49; 30.0%; 63511.5; 98</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -31159,6 +31324,11 @@
           <t>300665.SZ; 飞鹿股份; 10.03; 20.0%; 61364.0; 116</t>
         </is>
       </c>
+      <c r="DP14" t="inlineStr">
+        <is>
+          <t>300046.SZ; 台基股份; 42.4; -7.6%; 63371.5; 99</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -31754,6 +31924,11 @@
           <t>300810.SZ; 中科海讯; 49.93; 9.0%; 60729.0; 117</t>
         </is>
       </c>
+      <c r="DP15" t="inlineStr">
+        <is>
+          <t>300008.SZ; 天海防务; 7.46; 1.6%; 56799.5; 111</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -32349,6 +32524,11 @@
           <t>300537.SZ; 广信材料; 27.61; 7.7%; 60453.0; 118</t>
         </is>
       </c>
+      <c r="DP16" t="inlineStr">
+        <is>
+          <t>300019.SZ; 硅宝科技; 20.84; 8.1%; 56535.0; 112</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -32944,6 +33124,11 @@
           <t>300059.SZ; 东方财富; 22.88; -1.1%; 59150.0; 121</t>
         </is>
       </c>
+      <c r="DP17" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 77.99; -11.4%; 56036.5; 114</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -33539,6 +33724,11 @@
           <t>300414.SZ; 中光防雷; 14.26; -7.9%; 57475.5; 123</t>
         </is>
       </c>
+      <c r="DP18" t="inlineStr">
+        <is>
+          <t>301388.SZ; 欣灵电气; 29.6; 20.0%; 55790.0; 116</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -34134,6 +34324,11 @@
           <t>300340.SZ; 科恒股份; 19.57; -10.2%; 57108.5; 124</t>
         </is>
       </c>
+      <c r="DP19" t="inlineStr">
+        <is>
+          <t>300472.SZ; *ST新元; 4.4; 19.9%; 54564.5; 120</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -34729,6 +34924,11 @@
           <t>300008.SZ; 天海防务; 7.34; -0.7%; 56718.5; 125</t>
         </is>
       </c>
+      <c r="DP20" t="inlineStr">
+        <is>
+          <t>300591.SZ; 万里马; 10.66; 2.5%; 53504.5; 123</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -35322,6 +35522,11 @@
       <c r="DO21" t="inlineStr">
         <is>
           <t>300581.SZ; 晨曦航空; 20.95; 2.3%; 54925.5; 126</t>
+        </is>
+      </c>
+      <c r="DP21" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 22.71; -0.7%; 52363.0; 124</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DP7"/>
+  <dimension ref="A1:DQ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,6 +1032,11 @@
       <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>2025年07月02日</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月03日</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DP532"/>
+  <dimension ref="A1:DQ532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2408,6 +2413,11 @@
       <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>2025年07月02日</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月03日</t>
         </is>
       </c>
     </row>
@@ -7802,7 +7812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DP12"/>
+  <dimension ref="A1:DQ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8406,6 +8416,11 @@
           <t>2025年07月02日</t>
         </is>
       </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月03日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8976,6 +8991,11 @@
           <t>300897.SZ; 山科智能; 1;  09:37:00; 23.08; 曾涨停; 8.8%; 0.44H;  09:37:00</t>
         </is>
       </c>
+      <c r="DQ2" t="inlineStr">
+        <is>
+          <t>300516.SZ; 久之洋; 10;  09:36:21; 42.95; 曾涨停; 15.0%; 1.68H;  09:36:21|| 09:37:30|| 09:38:57|| 09:42:51|| 09:43:57|| 09:50:27|| 09:52:48|| 09:54:48|| 09:58:21|| 13:12:21</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9459,6 +9479,11 @@
       <c r="DP3" t="inlineStr">
         <is>
           <t>300527.SZ; 中船应急; 1;  10:16:36; 12.4; 曾涨停; 13.1%; 0.00H;  10:16:36</t>
+        </is>
+      </c>
+      <c r="DQ3" t="inlineStr">
+        <is>
+          <t>301662.SZ; 宏工科技; 1;  13:04:42; 118.6; 曾涨停; 16.0%; 0.23H;  13:04:42</t>
         </is>
       </c>
     </row>
@@ -10438,7 +10463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DP30"/>
+  <dimension ref="A1:DQ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11042,6 +11067,11 @@
           <t>2025年07月02日</t>
         </is>
       </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月03日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11637,6 +11667,11 @@
           <t>300961.SZ; 深水海纳; 0;  09:30:18; 首板涨停; 21.66;  09:30:18; 20.0%; 1; 海工装备+工业污水+一季报增长+控制权变更</t>
         </is>
       </c>
+      <c r="DQ2" t="inlineStr">
+        <is>
+          <t>301306.SZ; 西测测试; 0;  09:30:42; 首板涨停; 56.7;  09:30:42; 20.0%; 1; 商业航天+存储芯片+军用检测</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -12212,6 +12247,11 @@
           <t>301388.SZ; 欣灵电气; 0;  09:50:39; 首板涨停; 29.6;  09:50:39; 20.0%; 1; 光伏概念+电网设备+一季报增长</t>
         </is>
       </c>
+      <c r="DQ3" t="inlineStr">
+        <is>
+          <t>301533.SZ; 威马农机; 0;  11:04:36; 首板涨停; 45.38;  11:04:36; 20.0%; 1; 中东订单+农机出口+智能农机+山地丘陵农机</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -12757,6 +12797,11 @@
           <t>300670.SZ; 大烨智能; 2;  10:33:18; 首板涨停; 7.86;  09:33:21; 20.0%; 1; 海工装备+风电+智能配电</t>
         </is>
       </c>
+      <c r="DQ4" t="inlineStr">
+        <is>
+          <t>688520.SH; 神州细胞; 2;  11:19:13; 首板涨停; 73.34;  10:52:04; 20.0%; 1; PD-L1/VEGF双抗+HPV疫苗+创新药</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -13252,6 +13297,11 @@
           <t>300160.SZ; 秀强股份; 0;  10:51:18; 首板涨停; 6.64;  10:51:18; 20.1%; 1; BIPV+以旧换新+国企改革+一季报增长</t>
         </is>
       </c>
+      <c r="DQ5" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 0;  13:19:51; 首板涨停; 42.78;  13:19:51; 20.0%; 1; 乙肝创新药+III期进展+突破性治疗</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -13702,6 +13752,11 @@
           <t>300094.SZ; 国联水产; 15;  13:59:03; 首板涨停; 4.36;  10:09:57; 20.1%; 1; 水产预制菜+国际化+一季报增长</t>
         </is>
       </c>
+      <c r="DQ6" t="inlineStr">
+        <is>
+          <t>301150.SZ; 中一科技; 0;  13:32:12; 首板涨停; 23.89;  13:32:12; 20.0%; 1; 固态电池+PCB+AI服务器+业绩改善</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -14080,6 +14135,11 @@
       <c r="DP7" t="inlineStr">
         <is>
           <t>300821.SZ; 东岳硅材; 0;  14:12:48; 首板涨停; 9.3;  14:12:48; 20.0%; 1; 硅能源+有机硅+业绩扭亏</t>
+        </is>
+      </c>
+      <c r="DQ7" t="inlineStr">
+        <is>
+          <t>301176.SZ; 逸豪新材; 0;  14:44:27; 首板涨停; 32.64;  14:44:27; 20.0%; 1; PCB产业链+锂电铜箔+订单充足</t>
         </is>
       </c>
     </row>
@@ -15759,7 +15819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DP178"/>
+  <dimension ref="A1:DQ178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16363,6 +16423,11 @@
           <t>2025年07月02日</t>
         </is>
       </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月03日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -16938,6 +17003,11 @@
           <t>300515.SZ; 三德科技; 1.4%; 16.5%; 27; 14.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DQ2" t="inlineStr">
+        <is>
+          <t>301176.SZ; 逸豪新材; 1.3%; 21.6%; 32.64; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -17478,6 +17548,11 @@
           <t>300881.SZ; 盛德鑫泰; 0.8%; 17.9%; 35.85; 17.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DQ3" t="inlineStr">
+        <is>
+          <t>301662.SZ; 宏工科技; 1.1%; 17.2%; 118.6; 16.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -17973,6 +18048,11 @@
           <t>300437.SZ; 清水源; 0.3%; 12.7%; 10.03; 12.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DQ4" t="inlineStr">
+        <is>
+          <t>688333.SH; 铂力特; 0.4%; 17.5%; 66.1; 17.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -18418,6 +18498,11 @@
           <t>300821.SZ; 东岳硅材; 0.3%; 20.3%; 9.3; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DQ5" t="inlineStr">
+        <is>
+          <t>688353.SH; 华盛锂电; 0.3%; 15.8%; 39.8; 15.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -18823,6 +18908,11 @@
           <t>300160.SZ; 秀强股份; 0.2%; 20.3%; 6.64; 20.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DQ6" t="inlineStr">
+        <is>
+          <t>301061.SZ; 匠心家居; 0.3%; 15.1%; 87.61; 14.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -19203,6 +19293,11 @@
           <t>300600.SZ; 国瑞科技; 0.9%; 21.1%; 15.55; 20.0%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="DQ7" t="inlineStr">
+        <is>
+          <t>300516.SZ; 久之洋; 0.2%; 15.2%; 42.95; 15.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -19533,6 +19628,11 @@
           <t>688084.SH; 晶品特装; 0.3%; 17.2%; 88; 16.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DQ8" t="inlineStr">
+        <is>
+          <t>301217.SZ; 铜冠铜箔; 0.1%; 13.8%; 13.8; 13.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -19816,6 +19916,11 @@
       <c r="DN9" t="inlineStr">
         <is>
           <t>301007.SZ; 德迈仕; 0.1%; 15.6%; 30.99; 15.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="DQ9" t="inlineStr">
+        <is>
+          <t>301533.SZ; 威马农机; 0.1%; 20.1%; 45.38; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -22925,7 +23030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DP21"/>
+  <dimension ref="A1:DQ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23529,6 +23634,11 @@
           <t>2025年07月02日</t>
         </is>
       </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月03日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -24129,6 +24239,11 @@
           <t>300094.SZ; 国联水产; 4.36; 20.1%; 151814.5; 30</t>
         </is>
       </c>
+      <c r="DQ2" t="inlineStr">
+        <is>
+          <t>301176.SZ; 逸豪新材; 32.64; 20.0%; 175155.5; 21</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -24729,6 +24844,11 @@
           <t>300961.SZ; 深水海纳; 21.66; 20.0%; 138864.5; 38</t>
         </is>
       </c>
+      <c r="DQ3" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 142.68; 6.0%; 130937.0; 37</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -25329,6 +25449,11 @@
           <t>300821.SZ; 东岳硅材; 9.3; 20.0%; 127200.5; 43</t>
         </is>
       </c>
+      <c r="DQ4" t="inlineStr">
+        <is>
+          <t>301306.SZ; 西测测试; 56.7; 20.0%; 128235.5; 38</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -25929,6 +26054,11 @@
           <t>300527.SZ; 中船应急; 12.4; 13.1%; 118992.0; 48</t>
         </is>
       </c>
+      <c r="DQ5" t="inlineStr">
+        <is>
+          <t>301150.SZ; 中一科技; 23.89; 20.0%; 122556.0; 41</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -26529,6 +26659,11 @@
           <t>300065.SZ; 海兰信; 19.39; 5.6%; 103374.5; 56</t>
         </is>
       </c>
+      <c r="DQ6" t="inlineStr">
+        <is>
+          <t>300591.SZ; 万里马; 11.57; 8.5%; 105929.0; 56</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -27129,6 +27264,11 @@
           <t>300160.SZ; 秀强股份; 6.64; 20.1%; 87574.5; 66</t>
         </is>
       </c>
+      <c r="DQ7" t="inlineStr">
+        <is>
+          <t>300324.SZ; 旋极信息; 5.39; 11.8%; 103969.0; 60</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -27729,6 +27869,11 @@
           <t>300670.SZ; 大烨智能; 7.86; 20.0%; 86509.0; 68</t>
         </is>
       </c>
+      <c r="DQ8" t="inlineStr">
+        <is>
+          <t>300433.SZ; 蓝思科技; 24.23; 11.4%; 103253.0; 62</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -28329,6 +28474,11 @@
           <t>301630.SZ; 同宇新材; nan; nan%; 84973.0; 70</t>
         </is>
       </c>
+      <c r="DQ9" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 42.78; 20.0%; 96097.0; 66</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -28929,6 +29079,11 @@
           <t>300810.SZ; 中科海讯; 55; 10.2%; 81399.0; 75</t>
         </is>
       </c>
+      <c r="DQ10" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 44.64; 9.3%; 92038.0; 70</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -29529,6 +29684,11 @@
           <t>300468.SZ; 四方精创; 44.1; -3.4%; 74549.5; 82</t>
         </is>
       </c>
+      <c r="DQ11" t="inlineStr">
+        <is>
+          <t>300750.SZ; 宁德时代; 262.59; 4.8%; 81974.0; 78</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -30129,6 +30289,11 @@
           <t>300118.SZ; 东方日升; 10.44; 10.6%; 68768.0; 91</t>
         </is>
       </c>
+      <c r="DQ12" t="inlineStr">
+        <is>
+          <t>300527.SZ; 中船应急; 11.1; -10.5%; 75111.5; 83</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -30729,6 +30894,11 @@
           <t>831689.BJ; 克莱特; 56.49; 30.0%; 63511.5; 98</t>
         </is>
       </c>
+      <c r="DQ13" t="inlineStr">
+        <is>
+          <t>300961.SZ; 深水海纳; 23.08; 6.6%; 70201.0; 89</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -31329,6 +31499,11 @@
           <t>300046.SZ; 台基股份; 42.4; -7.6%; 63371.5; 99</t>
         </is>
       </c>
+      <c r="DQ14" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 44.37; 0.6%; 64635.5; 100</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -31929,6 +32104,11 @@
           <t>300008.SZ; 天海防务; 7.46; 1.6%; 56799.5; 111</t>
         </is>
       </c>
+      <c r="DQ15" t="inlineStr">
+        <is>
+          <t>300199.SZ; 翰宇药业; 18.18; 3.9%; 61709.0; 107</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -32529,6 +32709,11 @@
           <t>300019.SZ; 硅宝科技; 20.84; 8.1%; 56535.0; 112</t>
         </is>
       </c>
+      <c r="DQ16" t="inlineStr">
+        <is>
+          <t>301217.SZ; 铜冠铜箔; 13.8; 13.7%; 60291.0; 112</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -33129,6 +33314,11 @@
           <t>301357.SZ; 北方长龙; 77.99; -11.4%; 56036.5; 114</t>
         </is>
       </c>
+      <c r="DQ17" t="inlineStr">
+        <is>
+          <t>301533.SZ; 威马农机; 45.38; 20.0%; 60042.5; 113</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -33729,6 +33919,11 @@
           <t>301388.SZ; 欣灵电气; 29.6; 20.0%; 55790.0; 116</t>
         </is>
       </c>
+      <c r="DQ18" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 22.88; 0.7%; 59088.0; 116</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -34329,6 +34524,11 @@
           <t>300472.SZ; *ST新元; 4.4; 19.9%; 54564.5; 120</t>
         </is>
       </c>
+      <c r="DQ19" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 129.66; 3.7%; 57766.5; 118</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -34929,6 +35129,11 @@
           <t>300591.SZ; 万里马; 10.66; 2.5%; 53504.5; 123</t>
         </is>
       </c>
+      <c r="DQ20" t="inlineStr">
+        <is>
+          <t>301662.SZ; 宏工科技; 118.6; 16.0%; 52973.0; 125</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -35527,6 +35732,11 @@
       <c r="DP21" t="inlineStr">
         <is>
           <t>300059.SZ; 东方财富; 22.71; -0.7%; 52363.0; 124</t>
+        </is>
+      </c>
+      <c r="DQ21" t="inlineStr">
+        <is>
+          <t>300516.SZ; 久之洋; 42.95; 15.0%; 52326.5; 127</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ7"/>
+  <dimension ref="A1:DR7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1039,6 +1039,11 @@
           <t>2025年07月03日</t>
         </is>
       </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月04日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1387,6 +1392,11 @@
       <c r="DN2" t="inlineStr">
         <is>
           <t>300965.SZ; 恒宇信通; 4;  09:41:39; 2天2板; 65.8;  09:34:51; 20.0%; 2; 军用直升机+固定翼飞机+军工资质</t>
+        </is>
+      </c>
+      <c r="DR2" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 3;  14:39:12; 2天2板; 51.34;  13:02:15; 20.0%; 2; 乙肝创新药+III期进展+突破性治疗</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ532"/>
+  <dimension ref="A1:DR532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,6 +2428,11 @@
       <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>2025年07月03日</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月04日</t>
         </is>
       </c>
     </row>
@@ -7812,7 +7827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ12"/>
+  <dimension ref="A1:DR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8421,6 +8436,11 @@
           <t>2025年07月03日</t>
         </is>
       </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月04日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8994,6 +9014,11 @@
       <c r="DQ2" t="inlineStr">
         <is>
           <t>300516.SZ; 久之洋; 10;  09:36:21; 42.95; 曾涨停; 15.0%; 1.68H;  09:36:21|| 09:37:30|| 09:38:57|| 09:42:51|| 09:43:57|| 09:50:27|| 09:52:48|| 09:54:48|| 09:58:21|| 13:12:21</t>
+        </is>
+      </c>
+      <c r="DR2" t="inlineStr">
+        <is>
+          <t>688553.SH; 汇宇制药; 2;  14:33:37; 20.93; 曾涨停; 18.8%; 0.16H;  14:33:37|| 14:42:40</t>
         </is>
       </c>
     </row>
@@ -10463,7 +10488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ30"/>
+  <dimension ref="A1:DR30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11072,6 +11097,11 @@
           <t>2025年07月03日</t>
         </is>
       </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月04日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11672,6 +11702,11 @@
           <t>301306.SZ; 西测测试; 0;  09:30:42; 首板涨停; 56.7;  09:30:42; 20.0%; 1; 商业航天+存储芯片+军用检测</t>
         </is>
       </c>
+      <c r="DR2" t="inlineStr">
+        <is>
+          <t>300649.SZ; 杭州园林; 1;  10:36:42; 首板涨停; 20.88;  09:32:03; 20.0%; 1; 区块链+文旅转型+应收账款改善</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -12252,6 +12287,11 @@
           <t>301533.SZ; 威马农机; 0;  11:04:36; 首板涨停; 45.38;  11:04:36; 20.0%; 1; 中东订单+农机出口+智能农机+山地丘陵农机</t>
         </is>
       </c>
+      <c r="DR3" t="inlineStr">
+        <is>
+          <t>300921.SZ; 南凌科技; 0;  10:49:03; 首板涨停; 26.12;  10:49:03; 20.0%; 1; 云网安一体化服务+骨干网+边缘计算+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -12802,6 +12842,11 @@
           <t>688520.SH; 神州细胞; 2;  11:19:13; 首板涨停; 73.34;  10:52:04; 20.0%; 1; PD-L1/VEGF双抗+HPV疫苗+创新药</t>
         </is>
       </c>
+      <c r="DR4" t="inlineStr">
+        <is>
+          <t>301024.SZ; 霍普股份; 0;  11:00:54; 首板涨停; 58.1;  11:00:54; 20.0%; 1; RWA+蚂蚁合作+建筑绿能</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -13302,6 +13347,11 @@
           <t>300436.SZ; 广生堂; 0;  13:19:51; 首板涨停; 42.78;  13:19:51; 20.0%; 1; 乙肝创新药+III期进展+突破性治疗</t>
         </is>
       </c>
+      <c r="DR5" t="inlineStr">
+        <is>
+          <t>301389.SZ; 隆扬电子; 0;  11:29:24; 首板涨停; 31.92;  11:29:24; 20.0%; 1; 电磁屏蔽材料+复合铜箔+并购重组+消费电子</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -13755,6 +13805,11 @@
       <c r="DQ6" t="inlineStr">
         <is>
           <t>301150.SZ; 中一科技; 0;  13:32:12; 首板涨停; 23.89;  13:32:12; 20.0%; 1; 固态电池+PCB+AI服务器+业绩改善</t>
+        </is>
+      </c>
+      <c r="DR6" t="inlineStr">
+        <is>
+          <t>688068.SH; 热景生物; 1;  14:27:54; 首板涨停; 194.81;  13:08:57; 20.0%; 1; 创新药+体外诊断</t>
         </is>
       </c>
     </row>
@@ -15819,7 +15874,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ178"/>
+  <dimension ref="A1:DR178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16426,6 +16481,11 @@
       <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>2025年07月03日</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月04日</t>
         </is>
       </c>
     </row>
@@ -23030,7 +23090,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ21"/>
+  <dimension ref="A1:DR21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23639,6 +23699,11 @@
           <t>2025年07月03日</t>
         </is>
       </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月04日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -24244,6 +24309,11 @@
           <t>301176.SZ; 逸豪新材; 32.64; 20.0%; 175155.5; 21</t>
         </is>
       </c>
+      <c r="DR2" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 51.34; 20.0%; 157010.0; 11</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -24849,6 +24919,11 @@
           <t>300476.SZ; 胜宏科技; 142.68; 6.0%; 130937.0; 37</t>
         </is>
       </c>
+      <c r="DR3" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 47.21; 6.4%; 123395.5; 22</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -25454,6 +25529,11 @@
           <t>301306.SZ; 西测测试; 56.7; 20.0%; 128235.5; 38</t>
         </is>
       </c>
+      <c r="DR4" t="inlineStr">
+        <is>
+          <t>300348.SZ; 长亮科技; 18.13; 13.3%; 101676.5; 31</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -26059,6 +26139,11 @@
           <t>301150.SZ; 中一科技; 23.89; 20.0%; 122556.0; 41</t>
         </is>
       </c>
+      <c r="DR5" t="inlineStr">
+        <is>
+          <t>300649.SZ; 杭州园林; 20.88; 20.0%; 91391.0; 38</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -26664,6 +26749,11 @@
           <t>300591.SZ; 万里马; 11.57; 8.5%; 105929.0; 56</t>
         </is>
       </c>
+      <c r="DR6" t="inlineStr">
+        <is>
+          <t>301024.SZ; 霍普股份; 58.1; 20.0%; 76109.0; 45</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -27269,6 +27359,11 @@
           <t>300324.SZ; 旋极信息; 5.39; 11.8%; 103969.0; 60</t>
         </is>
       </c>
+      <c r="DR7" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 146.31; 2.5%; 68147.5; 57</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -27874,6 +27969,11 @@
           <t>300433.SZ; 蓝思科技; 24.23; 11.4%; 103253.0; 62</t>
         </is>
       </c>
+      <c r="DR8" t="inlineStr">
+        <is>
+          <t>300921.SZ; 南凌科技; 26.12; 20.0%; 67688.0; 59</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -28479,6 +28579,11 @@
           <t>300436.SZ; 广生堂; 42.78; 20.0%; 96097.0; 66</t>
         </is>
       </c>
+      <c r="DR9" t="inlineStr">
+        <is>
+          <t>300872.SZ; 天阳科技; 22.81; 10.2%; 64767.5; 63</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -29084,6 +29189,11 @@
           <t>300204.SZ; 舒泰神; 44.64; 9.3%; 92038.0; 70</t>
         </is>
       </c>
+      <c r="DR10" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 22.8; -0.3%; 59362.5; 72</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -29689,6 +29799,11 @@
           <t>300750.SZ; 宁德时代; 262.59; 4.8%; 81974.0; 78</t>
         </is>
       </c>
+      <c r="DR11" t="inlineStr">
+        <is>
+          <t>301389.SZ; 隆扬电子; 31.92; 20.0%; 59328.5; 74</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -30294,6 +30409,11 @@
           <t>300527.SZ; 中船应急; 11.1; -10.5%; 75111.5; 83</t>
         </is>
       </c>
+      <c r="DR12" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 21.19; 7.0%; 58806.5; 75</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -30899,6 +31019,11 @@
           <t>300961.SZ; 深水海纳; 23.08; 6.6%; 70201.0; 89</t>
         </is>
       </c>
+      <c r="DR13" t="inlineStr">
+        <is>
+          <t>301176.SZ; 逸豪新材; 34.58; 5.9%; 52618.5; 84</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -31504,6 +31629,11 @@
           <t>300468.SZ; 四方精创; 44.37; 0.6%; 64635.5; 100</t>
         </is>
       </c>
+      <c r="DR14" t="inlineStr">
+        <is>
+          <t>300591.SZ; 万里马; 11.59; 0.2%; 52477.0; 87</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -32109,6 +32239,11 @@
           <t>300199.SZ; 翰宇药业; 18.18; 3.9%; 61709.0; 107</t>
         </is>
       </c>
+      <c r="DR15" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 29.77; 3.1%; 50191.5; 96</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -32714,6 +32849,11 @@
           <t>301217.SZ; 铜冠铜箔; 13.8; 13.7%; 60291.0; 112</t>
         </is>
       </c>
+      <c r="DR16" t="inlineStr">
+        <is>
+          <t>839680.BJ; *ST广道; 5.87; 29.9%; 47880.0; 99</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -33319,6 +33459,11 @@
           <t>301533.SZ; 威马农机; 45.38; 20.0%; 60042.5; 113</t>
         </is>
       </c>
+      <c r="DR17" t="inlineStr">
+        <is>
+          <t>688068.SH; 热景生物; 194.81; 20.0%; 46587.5; 102</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -33924,6 +34069,11 @@
           <t>300059.SZ; 东方财富; 22.88; 0.7%; 59088.0; 116</t>
         </is>
       </c>
+      <c r="DR18" t="inlineStr">
+        <is>
+          <t>300561.SZ; *ST汇科; 13.18; -1.6%; 45446.0; 103</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -34529,6 +34679,11 @@
           <t>300502.SZ; 新易盛; 129.66; 3.7%; 57766.5; 118</t>
         </is>
       </c>
+      <c r="DR19" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 44.88; 0.5%; 43500.0; 106</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -35134,6 +35289,11 @@
           <t>301662.SZ; 宏工科技; 118.6; 16.0%; 52973.0; 125</t>
         </is>
       </c>
+      <c r="DR20" t="inlineStr">
+        <is>
+          <t>300199.SZ; 翰宇药业; 18.49; 1.7%; 39624.5; 118</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -35737,6 +35897,11 @@
       <c r="DQ21" t="inlineStr">
         <is>
           <t>300516.SZ; 久之洋; 42.95; 15.0%; 52326.5; 127</t>
+        </is>
+      </c>
+      <c r="DR21" t="inlineStr">
+        <is>
+          <t>300085.SZ; 银之杰; 43.81; -2.3%; 34472.5; 135</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DR7"/>
+  <dimension ref="A1:DS7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1042,6 +1042,11 @@
       <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>2025年07月04日</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月07日</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DR532"/>
+  <dimension ref="A1:DS532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2433,6 +2438,11 @@
       <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>2025年07月04日</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月07日</t>
         </is>
       </c>
     </row>
@@ -7827,7 +7837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DR12"/>
+  <dimension ref="A1:DS12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8439,6 +8449,11 @@
       <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>2025年07月04日</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月07日</t>
         </is>
       </c>
     </row>
@@ -10488,7 +10503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DR30"/>
+  <dimension ref="A1:DS30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11102,6 +11117,11 @@
           <t>2025年07月04日</t>
         </is>
       </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月07日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11707,6 +11727,11 @@
           <t>300649.SZ; 杭州园林; 1;  10:36:42; 首板涨停; 20.88;  09:32:03; 20.0%; 1; 区块链+文旅转型+应收账款改善</t>
         </is>
       </c>
+      <c r="DS2" t="inlineStr">
+        <is>
+          <t>300915.SZ; 海融科技; 0;  09:30:00; 首板涨停; 29.32;  09:30:00; 20.0%; 1; 供货茶饮行业+IP经济+出海</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -12292,6 +12317,11 @@
           <t>300921.SZ; 南凌科技; 0;  10:49:03; 首板涨停; 26.12;  10:49:03; 20.0%; 1; 云网安一体化服务+骨干网+边缘计算+一季报增长</t>
         </is>
       </c>
+      <c r="DS3" t="inlineStr">
+        <is>
+          <t>300246.SZ; 宝莱特; 0;  09:41:24; 首板涨停; 9.95;  09:41:24; 20.0%; 1; 医疗器械+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -12847,6 +12877,11 @@
           <t>301024.SZ; 霍普股份; 0;  11:00:54; 首板涨停; 58.1;  11:00:54; 20.0%; 1; RWA+蚂蚁合作+建筑绿能</t>
         </is>
       </c>
+      <c r="DS4" t="inlineStr">
+        <is>
+          <t>301234.SZ; 五洲医疗; 0;  09:47:30; 首板涨停; 38.6;  09:47:30; 20.0%; 1; 控制权变更+医疗器械出口+一季报营收增长</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -13352,6 +13387,11 @@
           <t>301389.SZ; 隆扬电子; 0;  11:29:24; 首板涨停; 31.92;  11:29:24; 20.0%; 1; 电磁屏蔽材料+复合铜箔+并购重组+消费电子</t>
         </is>
       </c>
+      <c r="DS5" t="inlineStr">
+        <is>
+          <t>301208.SZ; 中亦科技; 1;  10:52:18; 首板涨停; 51.22;  10:24:39; 20.0%; 1; 数字货币+跨境支付+信创+新增客户</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -13812,6 +13852,11 @@
           <t>688068.SH; 热景生物; 1;  14:27:54; 首板涨停; 194.81;  13:08:57; 20.0%; 1; 创新药+体外诊断</t>
         </is>
       </c>
+      <c r="DS6" t="inlineStr">
+        <is>
+          <t>300982.SZ; 苏文电能; 1;  11:29:24; 首板涨停; 21.59;  11:04:36; 20.0%; 1; 光伏概念+微电网+光储充+虚拟电厂</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -14197,6 +14242,11 @@
           <t>301176.SZ; 逸豪新材; 0;  14:44:27; 首板涨停; 32.64;  14:44:27; 20.0%; 1; PCB产业链+锂电铜箔+订单充足</t>
         </is>
       </c>
+      <c r="DS7" t="inlineStr">
+        <is>
+          <t>301193.SZ; 家联科技; 0;  13:27:27; 首板涨停; 19.22;  13:27:27; 20.0%; 1; 可降解塑料+植物纤维制品+股权收购</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -14537,6 +14587,11 @@
           <t>831689.BJ; 克莱特; 1;  14:34:12; 首板涨停; 56.49;  10:11:36; 30.0%; 1; 海洋工程+核电+产能提升</t>
         </is>
       </c>
+      <c r="DS8" t="inlineStr">
+        <is>
+          <t>301388.SZ; 欣灵电气; 0;  14:13:12; 首板涨停; 31.74;  14:13:12; 20.0%; 1; 光伏概念+电网设备+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -14797,6 +14852,11 @@
           <t>301373.SZ; 凌玮科技; 4;  11:29:09; 首板涨停; 35.12;  09:37:54; 20.0%; 1; 军工+纳米二氧化硅+一季报增长</t>
         </is>
       </c>
+      <c r="DS9" t="inlineStr">
+        <is>
+          <t>301501.SZ; 恒鑫生活; 0;  14:26:33; 首板涨停; 67.18;  14:26:33; 20.0%; 1; 次新股+餐饮具+可降解塑料+泰国工厂投产</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -15002,6 +15062,11 @@
           <t>688221.SH; 前沿生物; 2;  13:28:58; 首板涨停; 12.05;  13:24:07; 20.0%; 1; 小核酸研发+抗HIV病毒产品+创新药+一季报增长</t>
         </is>
       </c>
+      <c r="DS10" t="inlineStr">
+        <is>
+          <t>300847.SZ; 中船汉光; 20;  14:48:51; 首板涨停; 21.1;  09:54:24; 20.0%; 1; 中船系+信息安全+信创概念</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -15165,6 +15230,11 @@
       <c r="DO11" t="inlineStr">
         <is>
           <t>833427.BJ; 华维设计; 9;  14:23:22; 首板涨停; 21.06;  09:59:22; 30.0%; 1; 芯片封装+工程设计+订单充足</t>
+        </is>
+      </c>
+      <c r="DS11" t="inlineStr">
+        <is>
+          <t>300897.SZ; 山科智能; 4;  14:53:36; 首板涨停; 27.4;  14:06:27; 20.0%; 1; AI应用+地下管网+净水概念</t>
         </is>
       </c>
     </row>
@@ -15874,7 +15944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DR178"/>
+  <dimension ref="A1:DS178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16488,6 +16558,11 @@
           <t>2025年07月04日</t>
         </is>
       </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月07日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -17068,6 +17143,11 @@
           <t>301176.SZ; 逸豪新材; 1.3%; 21.6%; 32.64; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DS2" t="inlineStr">
+        <is>
+          <t>300030.SZ; 阳普医疗; 2.6%; 12.9%; 8.78; 9.9%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -17613,6 +17693,11 @@
           <t>301662.SZ; 宏工科技; 1.1%; 17.2%; 118.6; 16.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DS3" t="inlineStr">
+        <is>
+          <t>301317.SZ; 鑫磊股份; 1.4%; 13.0%; 37.17; 11.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -18113,6 +18198,11 @@
           <t>688333.SH; 铂力特; 0.4%; 17.5%; 66.1; 17.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DS4" t="inlineStr">
+        <is>
+          <t>300246.SZ; 宝莱特; 1.2%; 21.5%; 9.95; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -18563,6 +18653,11 @@
           <t>688353.SH; 华盛锂电; 0.3%; 15.8%; 39.8; 15.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DS5" t="inlineStr">
+        <is>
+          <t>301208.SZ; 中亦科技; 0.6%; 20.7%; 51.22; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -18973,6 +19068,11 @@
           <t>301061.SZ; 匠心家居; 0.3%; 15.1%; 87.61; 14.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DS6" t="inlineStr">
+        <is>
+          <t>300897.SZ; 山科智能; 0.6%; 20.7%; 27.4; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -19358,6 +19458,11 @@
           <t>300516.SZ; 久之洋; 0.2%; 15.2%; 42.95; 15.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DS7" t="inlineStr">
+        <is>
+          <t>301234.SZ; 五洲医疗; 0.5%; 20.6%; 38.6; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -19691,6 +19796,11 @@
       <c r="DQ8" t="inlineStr">
         <is>
           <t>301217.SZ; 铜冠铜箔; 0.1%; 13.8%; 13.8; 13.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="DS8" t="inlineStr">
+        <is>
+          <t>688583.SH; 思看科技; 0.1%; 13.9%; 93.38; 13.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -23090,7 +23200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DR21"/>
+  <dimension ref="A1:DS21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23704,6 +23814,11 @@
           <t>2025年07月04日</t>
         </is>
       </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月07日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -24314,6 +24429,11 @@
           <t>300436.SZ; 广生堂; 51.34; 20.0%; 157010.0; 11</t>
         </is>
       </c>
+      <c r="DS2" t="inlineStr">
+        <is>
+          <t>300847.SZ; 中船汉光; 21.1; 20.0%; 113460.5; 38</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -24924,6 +25044,11 @@
           <t>300468.SZ; 四方精创; 47.21; 6.4%; 123395.5; 22</t>
         </is>
       </c>
+      <c r="DS3" t="inlineStr">
+        <is>
+          <t>300335.SZ; 迪森股份; 7.09; 18.6%; 111717.0; 39</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -25534,6 +25659,11 @@
           <t>300348.SZ; 长亮科技; 18.13; 13.3%; 101676.5; 31</t>
         </is>
       </c>
+      <c r="DS4" t="inlineStr">
+        <is>
+          <t>300527.SZ; 中船应急; 11.8; 12.2%; 100225.0; 46</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -26144,6 +26274,11 @@
           <t>300649.SZ; 杭州园林; 20.88; 20.0%; 91391.0; 38</t>
         </is>
       </c>
+      <c r="DS5" t="inlineStr">
+        <is>
+          <t>301388.SZ; 欣灵电气; 31.74; 20.0%; 97978.0; 48</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -26754,6 +26889,11 @@
           <t>301024.SZ; 霍普股份; 58.1; 20.0%; 76109.0; 45</t>
         </is>
       </c>
+      <c r="DS6" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 48.68; 3.1%; 91829.0; 53</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -27364,6 +27504,11 @@
           <t>300476.SZ; 胜宏科技; 146.31; 2.5%; 68147.5; 57</t>
         </is>
       </c>
+      <c r="DS7" t="inlineStr">
+        <is>
+          <t>300246.SZ; 宝莱特; 9.95; 20.0%; 87626.5; 59</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -27974,6 +28119,11 @@
           <t>300921.SZ; 南凌科技; 26.12; 20.0%; 67688.0; 59</t>
         </is>
       </c>
+      <c r="DS8" t="inlineStr">
+        <is>
+          <t>301208.SZ; 中亦科技; 51.22; 20.0%; 85686.5; 63</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -28584,6 +28734,11 @@
           <t>300872.SZ; 天阳科技; 22.81; 10.2%; 64767.5; 63</t>
         </is>
       </c>
+      <c r="DS9" t="inlineStr">
+        <is>
+          <t>300180.SZ; 华峰超纤; 9.86; 10.7%; 81311.0; 69</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -29194,6 +29349,11 @@
           <t>300059.SZ; 东方财富; 22.8; -0.3%; 59362.5; 72</t>
         </is>
       </c>
+      <c r="DS10" t="inlineStr">
+        <is>
+          <t>301501.SZ; 恒鑫生活; 67.18; 20.0%; 70696.5; 80</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -29804,6 +29964,11 @@
           <t>301389.SZ; 隆扬电子; 31.92; 20.0%; 59328.5; 74</t>
         </is>
       </c>
+      <c r="DS11" t="inlineStr">
+        <is>
+          <t>300982.SZ; 苏文电能; 21.59; 20.0%; 69703.0; 83</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -30414,6 +30579,11 @@
           <t>300581.SZ; 晨曦航空; 21.19; 7.0%; 58806.5; 75</t>
         </is>
       </c>
+      <c r="DS12" t="inlineStr">
+        <is>
+          <t>300591.SZ; 万里马; 11.73; 1.2%; 64519.5; 87</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -31024,6 +31194,11 @@
           <t>301176.SZ; 逸豪新材; 34.58; 5.9%; 52618.5; 84</t>
         </is>
       </c>
+      <c r="DS13" t="inlineStr">
+        <is>
+          <t>300773.SZ; 拉卡拉; 31.06; 4.3%; 64076.0; 88</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -31634,6 +31809,11 @@
           <t>300591.SZ; 万里马; 11.59; 0.2%; 52477.0; 87</t>
         </is>
       </c>
+      <c r="DS14" t="inlineStr">
+        <is>
+          <t>300199.SZ; 翰宇药业; 18.88; 2.1%; 53413.5; 106</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -32244,6 +32424,11 @@
           <t>300773.SZ; 拉卡拉; 29.77; 3.1%; 50191.5; 96</t>
         </is>
       </c>
+      <c r="DS15" t="inlineStr">
+        <is>
+          <t>301141.SZ; 中科磁业; 64.73; 10.5%; 53196.0; 108</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -32854,6 +33039,11 @@
           <t>839680.BJ; *ST广道; 5.87; 29.9%; 47880.0; 99</t>
         </is>
       </c>
+      <c r="DS16" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 55.89; 8.9%; 52878.5; 109</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -33464,6 +33654,11 @@
           <t>688068.SH; 热景生物; 194.81; 20.0%; 46587.5; 102</t>
         </is>
       </c>
+      <c r="DS17" t="inlineStr">
+        <is>
+          <t>300348.SZ; 长亮科技; 18.75; 3.4%; 51899.0; 112</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -34074,6 +34269,11 @@
           <t>300561.SZ; *ST汇科; 13.18; -1.6%; 45446.0; 103</t>
         </is>
       </c>
+      <c r="DS18" t="inlineStr">
+        <is>
+          <t>300897.SZ; 山科智能; 27.4; 20.0%; 50965.0; 114</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -34684,6 +34884,11 @@
           <t>300204.SZ; 舒泰神; 44.88; 0.5%; 43500.0; 106</t>
         </is>
       </c>
+      <c r="DS19" t="inlineStr">
+        <is>
+          <t>300040.SZ; 九洲集团; 8.37; 7.3%; 50310.5; 116</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -35294,6 +35499,11 @@
           <t>300199.SZ; 翰宇药业; 18.49; 1.7%; 39624.5; 118</t>
         </is>
       </c>
+      <c r="DS20" t="inlineStr">
+        <is>
+          <t>300433.SZ; 蓝思科技; 22.92; -3.5%; 50230.5; 117</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -35902,6 +36112,11 @@
       <c r="DR21" t="inlineStr">
         <is>
           <t>300085.SZ; 银之杰; 43.81; -2.3%; 34472.5; 135</t>
+        </is>
+      </c>
+      <c r="DS21" t="inlineStr">
+        <is>
+          <t>300915.SZ; 海融科技; 29.32; 20.0%; 49952.5; 119</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DS7"/>
+  <dimension ref="A1:DT7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,6 +1049,11 @@
           <t>2025年07月07日</t>
         </is>
       </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月08日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1402,6 +1407,11 @@
       <c r="DR2" t="inlineStr">
         <is>
           <t>300436.SZ; 广生堂; 3;  14:39:12; 2天2板; 51.34;  13:02:15; 20.0%; 2; 乙肝创新药+III期进展+突破性治疗</t>
+        </is>
+      </c>
+      <c r="DT2" t="inlineStr">
+        <is>
+          <t>301388.SZ; 欣灵电气; 0;  13:24:00; 2天2板; 38.09;  13:24:00; 20.0%; 2; 光伏概念+业务拓展+低压电器</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DS532"/>
+  <dimension ref="A1:DT532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2443,6 +2453,11 @@
       <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>2025年07月07日</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月08日</t>
         </is>
       </c>
     </row>
@@ -7837,7 +7852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DS12"/>
+  <dimension ref="A1:DT12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8456,6 +8471,11 @@
           <t>2025年07月07日</t>
         </is>
       </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月08日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9036,6 +9056,11 @@
           <t>688553.SH; 汇宇制药; 2;  14:33:37; 20.93; 曾涨停; 18.8%; 0.16H;  14:33:37|| 14:42:40</t>
         </is>
       </c>
+      <c r="DT2" t="inlineStr">
+        <is>
+          <t>301258.SZ; 富士莱; 1;  09:33:54; 36.1; 曾涨停; 10.3%; 0.47H;  09:33:54</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9524,6 +9549,11 @@
       <c r="DQ3" t="inlineStr">
         <is>
           <t>301662.SZ; 宏工科技; 1;  13:04:42; 118.6; 曾涨停; 16.0%; 0.23H;  13:04:42</t>
+        </is>
+      </c>
+      <c r="DT3" t="inlineStr">
+        <is>
+          <t>300505.SZ; 川金诺; 1;  09:36:00; 20.62; 曾涨停; 13.4%; 0.01H;  09:36:00</t>
         </is>
       </c>
     </row>
@@ -10503,7 +10533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DS30"/>
+  <dimension ref="A1:DT30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11122,6 +11152,11 @@
           <t>2025年07月07日</t>
         </is>
       </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月08日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11732,6 +11767,11 @@
           <t>300915.SZ; 海融科技; 0;  09:30:00; 首板涨停; 29.32;  09:30:00; 20.0%; 1; 供货茶饮行业+IP经济+出海</t>
         </is>
       </c>
+      <c r="DT2" t="inlineStr">
+        <is>
+          <t>301526.SZ; 国际复材; 0;  09:50:03; 首板涨停; 5.04;  09:50:03; 20.0%; 1; 玻璃纤维+风电+PCB概念+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -12322,6 +12362,11 @@
           <t>300246.SZ; 宝莱特; 0;  09:41:24; 首板涨停; 9.95;  09:41:24; 20.0%; 1; 医疗器械+一季报增长</t>
         </is>
       </c>
+      <c r="DT3" t="inlineStr">
+        <is>
+          <t>301123.SZ; 奕东电子; 0;  09:53:18; 首板涨停; 27.25;  09:53:18; 20.0%; 1; FPC+新能源汽车+营收增长</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -12882,6 +12927,11 @@
           <t>301234.SZ; 五洲医疗; 0;  09:47:30; 首板涨停; 38.6;  09:47:30; 20.0%; 1; 控制权变更+医疗器械出口+一季报营收增长</t>
         </is>
       </c>
+      <c r="DT4" t="inlineStr">
+        <is>
+          <t>301176.SZ; 逸豪新材; 0;  10:06:57; 首板涨停; 37.93;  10:06:57; 20.0%; 1; PCB产业链+锂电铜箔+订单充足</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -13392,6 +13442,11 @@
           <t>301208.SZ; 中亦科技; 1;  10:52:18; 首板涨停; 51.22;  10:24:39; 20.0%; 1; 数字货币+跨境支付+信创+新增客户</t>
         </is>
       </c>
+      <c r="DT5" t="inlineStr">
+        <is>
+          <t>300930.SZ; 屹通新材; 0;  10:28:15; 首板涨停; 33.92;  10:28:15; 20.0%; 1; 金属粉体+3D打印+锂电池+股权受让</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -13857,6 +13912,11 @@
           <t>300982.SZ; 苏文电能; 1;  11:29:24; 首板涨停; 21.59;  11:04:36; 20.0%; 1; 光伏概念+微电网+光储充+虚拟电厂</t>
         </is>
       </c>
+      <c r="DT6" t="inlineStr">
+        <is>
+          <t>688202.SH; 美迪西; 0;  10:59:25; 首板涨停; 45.3;  10:59:25; 20.0%; 1; CRO+创新药+AI技术+海外业务</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -14245,6 +14305,11 @@
       <c r="DS7" t="inlineStr">
         <is>
           <t>301193.SZ; 家联科技; 0;  13:27:27; 首板涨停; 19.22;  13:27:27; 20.0%; 1; 可降解塑料+植物纤维制品+股权收购</t>
+        </is>
+      </c>
+      <c r="DT7" t="inlineStr">
+        <is>
+          <t>301658.SZ; 首航新能; 0;  10:59:33; 首板涨停; 36;  10:59:33; 20.0%; 1; 光伏逆变器+全球布局+一季报增长</t>
         </is>
       </c>
     </row>
@@ -15944,7 +16009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DS178"/>
+  <dimension ref="A1:DT178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16563,6 +16628,11 @@
           <t>2025年07月07日</t>
         </is>
       </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月08日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -17148,6 +17218,11 @@
           <t>300030.SZ; 阳普医疗; 2.6%; 12.9%; 8.78; 9.9%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DT2" t="inlineStr">
+        <is>
+          <t>688291.SH; 金橙子; 4.6%; 13.8%; 40.75; 8.6%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -17698,6 +17773,11 @@
           <t>301317.SZ; 鑫磊股份; 1.4%; 13.0%; 37.17; 11.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DT3" t="inlineStr">
+        <is>
+          <t>301526.SZ; 国际复材; 1.9%; 22.3%; 5.04; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -18203,6 +18283,11 @@
           <t>300246.SZ; 宝莱特; 1.2%; 21.5%; 9.95; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DT4" t="inlineStr">
+        <is>
+          <t>834770.BJ; 艾能聚; 0.9%; 12.1%; 22.31; 11.1%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -18658,6 +18743,11 @@
           <t>301208.SZ; 中亦科技; 0.6%; 20.7%; 51.22; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DT5" t="inlineStr">
+        <is>
+          <t>300394.SZ; 天孚通信; 0.7%; 13.5%; 82.33; 12.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -19073,6 +19163,11 @@
           <t>300897.SZ; 山科智能; 0.6%; 20.7%; 27.4; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DT6" t="inlineStr">
+        <is>
+          <t>301658.SZ; 首航新能; 0.7%; 20.8%; 36; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -19463,6 +19558,11 @@
           <t>301234.SZ; 五洲医疗; 0.5%; 20.6%; 38.6; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DT7" t="inlineStr">
+        <is>
+          <t>300835.SZ; 龙磁科技; 0.6%; 15.9%; 46.46; 15.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -19803,6 +19903,11 @@
           <t>688583.SH; 思看科技; 0.1%; 13.9%; 93.38; 13.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DT8" t="inlineStr">
+        <is>
+          <t>301217.SZ; 铜冠铜箔; 0.6%; 13.6%; 16.88; 12.9%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -20091,6 +20196,11 @@
       <c r="DQ9" t="inlineStr">
         <is>
           <t>301533.SZ; 威马农机; 0.1%; 20.1%; 45.38; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="DT9" t="inlineStr">
+        <is>
+          <t>688303.SH; 大全能源; 0.5%; 12.3%; 26.5; 11.7%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
     </row>
@@ -23200,7 +23310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DS21"/>
+  <dimension ref="A1:DT21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23819,6 +23929,11 @@
           <t>2025年07月07日</t>
         </is>
       </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月08日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -24434,6 +24549,11 @@
           <t>300847.SZ; 中船汉光; 21.1; 20.0%; 113460.5; 38</t>
         </is>
       </c>
+      <c r="DT2" t="inlineStr">
+        <is>
+          <t>301388.SZ; 欣灵电气; 38.09; 20.0%; 166591.5; 24</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -25049,6 +25169,11 @@
           <t>300335.SZ; 迪森股份; 7.09; 18.6%; 111717.0; 39</t>
         </is>
       </c>
+      <c r="DT3" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 157.2; 9.0%; 163380.0; 25</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -25664,6 +25789,11 @@
           <t>300527.SZ; 中船应急; 11.8; 12.2%; 100225.0; 46</t>
         </is>
       </c>
+      <c r="DT4" t="inlineStr">
+        <is>
+          <t>301526.SZ; 国际复材; 5.04; 20.0%; 154328.5; 28</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -26279,6 +26409,11 @@
           <t>301388.SZ; 欣灵电气; 31.74; 20.0%; 97978.0; 48</t>
         </is>
       </c>
+      <c r="DT5" t="inlineStr">
+        <is>
+          <t>688729.SH; 屹唐股份; 23.2; 174.6%; 152202.0; 29</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -26894,6 +27029,11 @@
           <t>300468.SZ; 四方精创; 48.68; 3.1%; 91829.0; 53</t>
         </is>
       </c>
+      <c r="DT6" t="inlineStr">
+        <is>
+          <t>301176.SZ; 逸豪新材; 37.93; 20.0%; 150988.5; 30</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -27509,6 +27649,11 @@
           <t>300246.SZ; 宝莱特; 9.95; 20.0%; 87626.5; 59</t>
         </is>
       </c>
+      <c r="DT7" t="inlineStr">
+        <is>
+          <t>300591.SZ; 万里马; 12.7; 8.3%; 127350.0; 37</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -28124,6 +28269,11 @@
           <t>301208.SZ; 中亦科技; 51.22; 20.0%; 85686.5; 63</t>
         </is>
       </c>
+      <c r="DT8" t="inlineStr">
+        <is>
+          <t>300274.SZ; 阳光电源; 73.77; 9.5%; 106840.0; 53</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -28739,6 +28889,11 @@
           <t>300180.SZ; 华峰超纤; 9.86; 10.7%; 81311.0; 69</t>
         </is>
       </c>
+      <c r="DT9" t="inlineStr">
+        <is>
+          <t>300872.SZ; 天阳科技; 27.05; 14.6%; 97564.0; 61</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -29354,6 +29509,11 @@
           <t>301501.SZ; 恒鑫生活; 67.18; 20.0%; 70696.5; 80</t>
         </is>
       </c>
+      <c r="DT10" t="inlineStr">
+        <is>
+          <t>301658.SZ; 首航新能; 36; 20.0%; 93693.0; 64</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -29969,6 +30129,11 @@
           <t>300982.SZ; 苏文电能; 21.59; 20.0%; 69703.0; 83</t>
         </is>
       </c>
+      <c r="DT11" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 49.2; 1.1%; 93683.0; 65</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -30584,6 +30749,11 @@
           <t>300591.SZ; 万里马; 11.73; 1.2%; 64519.5; 87</t>
         </is>
       </c>
+      <c r="DT12" t="inlineStr">
+        <is>
+          <t>301123.SZ; 奕东电子; 27.25; 20.0%; 83984.5; 74</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -31199,6 +31369,11 @@
           <t>300773.SZ; 拉卡拉; 31.06; 4.3%; 64076.0; 88</t>
         </is>
       </c>
+      <c r="DT13" t="inlineStr">
+        <is>
+          <t>300663.SZ; 科蓝软件; 21.38; 9.9%; 83625.0; 77</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -31814,6 +31989,11 @@
           <t>300199.SZ; 翰宇药业; 18.88; 2.1%; 53413.5; 106</t>
         </is>
       </c>
+      <c r="DT14" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 134.98; 6.7%; 81763.5; 81</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -32429,6 +32609,11 @@
           <t>301141.SZ; 中科磁业; 64.73; 10.5%; 53196.0; 108</t>
         </is>
       </c>
+      <c r="DT15" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 23.15; 1.8%; 81584.5; 82</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -33044,6 +33229,11 @@
           <t>300436.SZ; 广生堂; 55.89; 8.9%; 52878.5; 109</t>
         </is>
       </c>
+      <c r="DT16" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 144.88; 7.2%; 78075.0; 85</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -33659,6 +33849,11 @@
           <t>300348.SZ; 长亮科技; 18.75; 3.4%; 51899.0; 112</t>
         </is>
       </c>
+      <c r="DT17" t="inlineStr">
+        <is>
+          <t>300394.SZ; 天孚通信; 82.33; 12.7%; 74355.5; 91</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -34274,6 +34469,11 @@
           <t>300897.SZ; 山科智能; 27.4; 20.0%; 50965.0; 114</t>
         </is>
       </c>
+      <c r="DT18" t="inlineStr">
+        <is>
+          <t>300821.SZ; 东岳硅材; 10.04; 10.9%; 71895.0; 96</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -34889,6 +35089,11 @@
           <t>300040.SZ; 九洲集团; 8.37; 7.3%; 50310.5; 116</t>
         </is>
       </c>
+      <c r="DT19" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 40.63; -7.9%; 65253.5; 100</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -35504,6 +35709,11 @@
           <t>300433.SZ; 蓝思科技; 22.92; -3.5%; 50230.5; 117</t>
         </is>
       </c>
+      <c r="DT20" t="inlineStr">
+        <is>
+          <t>301217.SZ; 铜冠铜箔; 16.88; 12.9%; 63499.5; 102</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -36117,6 +36327,11 @@
       <c r="DS21" t="inlineStr">
         <is>
           <t>300915.SZ; 海融科技; 29.32; 20.0%; 49952.5; 119</t>
+        </is>
+      </c>
+      <c r="DT21" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 12.76; 8.0%; 62332.0; 106</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DT7"/>
+  <dimension ref="A1:DU7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1052,6 +1052,11 @@
       <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>2025年07月08日</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月09日</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DT532"/>
+  <dimension ref="A1:DU532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2458,6 +2463,11 @@
       <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>2025年07月08日</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月09日</t>
         </is>
       </c>
     </row>
@@ -7852,7 +7862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DT12"/>
+  <dimension ref="A1:DU12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8476,6 +8486,11 @@
           <t>2025年07月08日</t>
         </is>
       </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月09日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9061,6 +9076,11 @@
           <t>301258.SZ; 富士莱; 1;  09:33:54; 36.1; 曾涨停; 10.3%; 0.47H;  09:33:54</t>
         </is>
       </c>
+      <c r="DU2" t="inlineStr">
+        <is>
+          <t>301261.SZ; 恒工精密; 1;  09:25:00; 78.52; 曾涨停; 13.1%; 2.67H;  09:25:00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9556,6 +9576,11 @@
           <t>300505.SZ; 川金诺; 1;  09:36:00; 20.62; 曾涨停; 13.4%; 0.01H;  09:36:00</t>
         </is>
       </c>
+      <c r="DU3" t="inlineStr">
+        <is>
+          <t>301586.SZ; 佳力奇; 1;  09:54:24; 61.42; 曾涨停; 8.5%; 0.01H;  09:54:24</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -9911,6 +9936,11 @@
           <t>300881.SZ; 盛德鑫泰; 6;  13:15:42; 35.85; 曾涨停; 17.0%; 0.19H;  13:15:42|| 13:18:12|| 13:18:51|| 13:23:24|| 14:49:30|| 14:50:15</t>
         </is>
       </c>
+      <c r="DU4" t="inlineStr">
+        <is>
+          <t>301257.SZ; 普蕊斯; 1;  10:24:42; 38.79; 曾涨停; 17.5%; 1.89H;  10:24:42</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -10129,6 +10159,11 @@
       <c r="DO5" t="inlineStr">
         <is>
           <t>300293.SZ; 蓝英装备; 1;  09:58:57; 28.81; 曾涨停; 14.6%; 0.77H;  09:58:57</t>
+        </is>
+      </c>
+      <c r="DU5" t="inlineStr">
+        <is>
+          <t>688202.SH; 美迪西; 1;  10:46:29; 51.35; 曾涨停; 13.4%; 0.00H;  10:46:29</t>
         </is>
       </c>
     </row>
@@ -10533,7 +10568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DT30"/>
+  <dimension ref="A1:DU30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11157,6 +11192,11 @@
           <t>2025年07月08日</t>
         </is>
       </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月09日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11772,6 +11812,11 @@
           <t>301526.SZ; 国际复材; 0;  09:50:03; 首板涨停; 5.04;  09:50:03; 20.0%; 1; 玻璃纤维+风电+PCB概念+国企改革</t>
         </is>
       </c>
+      <c r="DU2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 0;  09:25:01; 首板涨停; 9.34;  09:25:01; 20.1%; 1; 智元机器人核心团队持股平台拟入主上纬新材</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -12367,6 +12412,11 @@
           <t>301123.SZ; 奕东电子; 0;  09:53:18; 首板涨停; 27.25;  09:53:18; 20.0%; 1; FPC+新能源汽车+营收增长</t>
         </is>
       </c>
+      <c r="DU3" t="inlineStr">
+        <is>
+          <t>301378.SZ; 通达海; 4;  09:54:24; 首板涨停; 35.52;  09:38:24; 20.0%; 1; 法律AI+信创+AI应用+埃及项目</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -12932,6 +12982,11 @@
           <t>301176.SZ; 逸豪新材; 0;  10:06:57; 首板涨停; 37.93;  10:06:57; 20.0%; 1; PCB产业链+锂电铜箔+订单充足</t>
         </is>
       </c>
+      <c r="DU4" t="inlineStr">
+        <is>
+          <t>301120.SZ; 新特电气; 1;  10:08:36; 首板涨停; 14.12;  10:03:18; 20.0%; 1; 固态变压器+变频用变压器+机器人+数据中心电源</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -13447,6 +13502,11 @@
           <t>300930.SZ; 屹通新材; 0;  10:28:15; 首板涨停; 33.92;  10:28:15; 20.0%; 1; 金属粉体+3D打印+锂电池+股权受让</t>
         </is>
       </c>
+      <c r="DU5" t="inlineStr">
+        <is>
+          <t>300371.SZ; 汇中股份; 6;  10:45:06; 首板涨停; 14.09;  09:33:24; 20.0%; 1; 中报预增+超声测流+海外拓展</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -13917,6 +13977,11 @@
           <t>688202.SH; 美迪西; 0;  10:59:25; 首板涨停; 45.3;  10:59:25; 20.0%; 1; CRO+创新药+AI技术+海外业务</t>
         </is>
       </c>
+      <c r="DU6" t="inlineStr">
+        <is>
+          <t>688528.SH; 秦川物联; 0;  11:25:50; 首板涨停; 12.55;  11:25:50; 20.0%; 1; 此前重组（已终止）+智能传感器+智慧城市物联网</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -14312,6 +14377,11 @@
           <t>301658.SZ; 首航新能; 0;  10:59:33; 首板涨停; 36;  10:59:33; 20.0%; 1; 光伏逆变器+全球布局+一季报增长</t>
         </is>
       </c>
+      <c r="DU7" t="inlineStr">
+        <is>
+          <t>300860.SZ; 锋尚文化; 0;  13:00:36; 首板涨停; 33.5;  13:00:36; 20.0%; 1; 此前与“周同学”合作+虚拟演艺+IP经济</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -14657,6 +14727,11 @@
           <t>301388.SZ; 欣灵电气; 0;  14:13:12; 首板涨停; 31.74;  14:13:12; 20.0%; 1; 光伏概念+电网设备+一季报增长</t>
         </is>
       </c>
+      <c r="DU8" t="inlineStr">
+        <is>
+          <t>300778.SZ; 新城市; 0;  13:10:36; 首板涨停; 17.86;  13:10:36; 20.0%; 1; 低空经济+新型城镇化+应急防灾+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -14922,6 +14997,11 @@
           <t>301501.SZ; 恒鑫生活; 0;  14:26:33; 首板涨停; 67.18;  14:26:33; 20.0%; 1; 次新股+餐饮具+可降解塑料+泰国工厂投产</t>
         </is>
       </c>
+      <c r="DU9" t="inlineStr">
+        <is>
+          <t>831039.BJ; 国义招标; 1;  13:17:28; 首板涨停; 14.7;  13:14:31; 30.0%; 1; 招标采购+碳中和+数据要素+军工</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -15132,6 +15212,11 @@
           <t>300847.SZ; 中船汉光; 20;  14:48:51; 首板涨停; 21.1;  09:54:24; 20.0%; 1; 中船系+信息安全+信创概念</t>
         </is>
       </c>
+      <c r="DU10" t="inlineStr">
+        <is>
+          <t>688529.SH; 豪森智能; 0;  14:26:41; 首板涨停; 21.1;  14:26:41; 20.0%; 1; 人形机器人+智元合作+汽车行业动力总成+固态电池</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -15300,6 +15385,11 @@
       <c r="DS11" t="inlineStr">
         <is>
           <t>300897.SZ; 山科智能; 4;  14:53:36; 首板涨停; 27.4;  14:06:27; 20.0%; 1; AI应用+地下管网+净水概念</t>
+        </is>
+      </c>
+      <c r="DU11" t="inlineStr">
+        <is>
+          <t>301217.SZ; 铜冠铜箔; 5;  14:50:15; 首板涨停; 20.26;  10:32:06; 20.0%; 1; 高频高速铜箔+固态电池+一季报扭亏+国企改革</t>
         </is>
       </c>
     </row>
@@ -16009,7 +16099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DT178"/>
+  <dimension ref="A1:DU178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16633,6 +16723,11 @@
           <t>2025年07月08日</t>
         </is>
       </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月09日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -17223,6 +17318,11 @@
           <t>688291.SH; 金橙子; 4.6%; 13.8%; 40.75; 8.6%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="DU2" t="inlineStr">
+        <is>
+          <t>300860.SZ; 锋尚文化; 1.3%; 21.6%; 33.5; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -17778,6 +17878,11 @@
           <t>301526.SZ; 国际复材; 1.9%; 22.3%; 5.04; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DU3" t="inlineStr">
+        <is>
+          <t>300778.SZ; 新城市; 0.6%; 20.8%; 17.86; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -18286,6 +18391,11 @@
       <c r="DT4" t="inlineStr">
         <is>
           <t>834770.BJ; 艾能聚; 0.9%; 12.1%; 22.31; 11.1%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="DU4" t="inlineStr">
+        <is>
+          <t>300779.SZ; 惠城环保; 0.1%; 12.2%; 236.43; 12.1%; 阳线||放量||价升量缩</t>
         </is>
       </c>
     </row>
@@ -23310,7 +23420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DT21"/>
+  <dimension ref="A1:DU21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23934,6 +24044,11 @@
           <t>2025年07月08日</t>
         </is>
       </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月09日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -24554,6 +24669,11 @@
           <t>301388.SZ; 欣灵电气; 38.09; 20.0%; 166591.5; 24</t>
         </is>
       </c>
+      <c r="DU2" t="inlineStr">
+        <is>
+          <t>301217.SZ; 铜冠铜箔; 20.26; 20.0%; 190255.0; 20</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -25174,6 +25294,11 @@
           <t>300476.SZ; 胜宏科技; 157.2; 9.0%; 163380.0; 25</t>
         </is>
       </c>
+      <c r="DU3" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 9.34; 20.1%; 167579.0; 27</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -25794,6 +25919,11 @@
           <t>301526.SZ; 国际复材; 5.04; 20.0%; 154328.5; 28</t>
         </is>
       </c>
+      <c r="DU4" t="inlineStr">
+        <is>
+          <t>301120.SZ; 新特电气; 14.12; 20.0%; 102218.0; 58</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -26414,6 +26544,11 @@
           <t>688729.SH; 屹唐股份; 23.2; 174.6%; 152202.0; 29</t>
         </is>
       </c>
+      <c r="DU5" t="inlineStr">
+        <is>
+          <t>300860.SZ; 锋尚文化; 33.5; 20.0%; 98974.5; 60</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -27034,6 +27169,11 @@
           <t>301176.SZ; 逸豪新材; 37.93; 20.0%; 150988.5; 30</t>
         </is>
       </c>
+      <c r="DU6" t="inlineStr">
+        <is>
+          <t>300778.SZ; 新城市; 17.86; 20.0%; 95756.0; 63</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -27654,6 +27794,11 @@
           <t>300591.SZ; 万里马; 12.7; 8.3%; 127350.0; 37</t>
         </is>
       </c>
+      <c r="DU7" t="inlineStr">
+        <is>
+          <t>300364.SZ; 中文在线; 27.97; 10.9%; 87496.0; 69</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -28274,6 +28419,11 @@
           <t>300274.SZ; 阳光电源; 73.77; 9.5%; 106840.0; 53</t>
         </is>
       </c>
+      <c r="DU8" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 48.22; -2.0%; 83390.0; 75</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -28894,6 +29044,11 @@
           <t>300872.SZ; 天阳科技; 27.05; 14.6%; 97564.0; 61</t>
         </is>
       </c>
+      <c r="DU9" t="inlineStr">
+        <is>
+          <t>301526.SZ; 国际复材; 5.34; 6.0%; 82399.0; 76</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -29514,6 +29669,11 @@
           <t>301658.SZ; 首航新能; 36; 20.0%; 93693.0; 64</t>
         </is>
       </c>
+      <c r="DU10" t="inlineStr">
+        <is>
+          <t>301389.SZ; 隆扬电子; 38.01; 12.9%; 74408.0; 87</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -30134,6 +30294,11 @@
           <t>300468.SZ; 四方精创; 49.2; 1.1%; 93683.0; 65</t>
         </is>
       </c>
+      <c r="DU11" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 152.7; -2.9%; 71862.5; 89</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -30754,6 +30919,11 @@
           <t>301123.SZ; 奕东电子; 27.25; 20.0%; 83984.5; 74</t>
         </is>
       </c>
+      <c r="DU12" t="inlineStr">
+        <is>
+          <t>301378.SZ; 通达海; 35.52; 20.0%; 70066.5; 93</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -31374,6 +31544,11 @@
           <t>300663.SZ; 科蓝软件; 21.38; 9.9%; 83625.0; 77</t>
         </is>
       </c>
+      <c r="DU13" t="inlineStr">
+        <is>
+          <t>301176.SZ; 逸豪新材; 39.46; 4.0%; 69370.0; 94</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -31994,6 +32169,11 @@
           <t>300502.SZ; 新易盛; 134.98; 6.7%; 81763.5; 81</t>
         </is>
       </c>
+      <c r="DU14" t="inlineStr">
+        <is>
+          <t>300591.SZ; 万里马; 12.85; 1.2%; 68078.0; 99</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -32614,6 +32794,11 @@
           <t>300059.SZ; 东方财富; 23.15; 1.8%; 81584.5; 82</t>
         </is>
       </c>
+      <c r="DU15" t="inlineStr">
+        <is>
+          <t>300371.SZ; 汇中股份; 14.09; 20.0%; 66128.0; 103</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -33234,6 +33419,11 @@
           <t>300308.SZ; 中际旭创; 144.88; 7.2%; 78075.0; 85</t>
         </is>
       </c>
+      <c r="DU16" t="inlineStr">
+        <is>
+          <t>301388.SZ; 欣灵电气; 39.98; 5.0%; 62057.0; 116</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -33854,6 +34044,11 @@
           <t>300394.SZ; 天孚通信; 82.33; 12.7%; 74355.5; 91</t>
         </is>
       </c>
+      <c r="DU17" t="inlineStr">
+        <is>
+          <t>688729.SH; 屹唐股份; 20.96; -9.7%; 58667.0; 123</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -34474,6 +34669,11 @@
           <t>300821.SZ; 东岳硅材; 10.04; 10.9%; 71895.0; 96</t>
         </is>
       </c>
+      <c r="DU18" t="inlineStr">
+        <is>
+          <t>300779.SZ; 惠城环保; 236.43; 12.1%; 57198.0; 126</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -35094,6 +35294,11 @@
           <t>300204.SZ; 舒泰神; 40.63; -7.9%; 65253.5; 100</t>
         </is>
       </c>
+      <c r="DU19" t="inlineStr">
+        <is>
+          <t>301269.SZ; 华大九天; 114.68; -0.4%; 56981.5; 128</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -35714,6 +35919,11 @@
           <t>301217.SZ; 铜冠铜箔; 16.88; 12.9%; 63499.5; 102</t>
         </is>
       </c>
+      <c r="DU20" t="inlineStr">
+        <is>
+          <t>688529.SH; 豪森智能; 21.1; 20.0%; 56683.0; 129</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -36332,6 +36542,11 @@
       <c r="DT21" t="inlineStr">
         <is>
           <t>300368.SZ; 汇金股份; 12.76; 8.0%; 62332.0; 106</t>
+        </is>
+      </c>
+      <c r="DU21" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 12.37; -3.1%; 55958.0; 130</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU7"/>
+  <dimension ref="A1:DV7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1059,6 +1059,11 @@
           <t>2025年07月09日</t>
         </is>
       </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月10日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1419,6 +1424,11 @@
           <t>301388.SZ; 欣灵电气; 0;  13:24:00; 2天2板; 38.09;  13:24:00; 20.0%; 2; 光伏概念+业务拓展+低压电器</t>
         </is>
       </c>
+      <c r="DV2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 0;  09:25:02; 2天2板; 11.21;  09:25:02; 20.0%; 2; 智元机器人核心团队持股平台拟入主</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1629,6 +1639,11 @@
           <t>301024.SZ; 霍普股份; 0;  10:12:42; 2天2板; 57.46;  10:12:42; 20.0%; 2; RWA+蚂蚁合作+建筑绿能</t>
         </is>
       </c>
+      <c r="DV3" t="inlineStr">
+        <is>
+          <t>831039.BJ; 国义招标; 1;  13:20:29; 2天2板; 19.11;  13:19:20; 30.0%; 2; 新型城镇化+招标采购+数据要素+军工</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1732,6 +1747,11 @@
       <c r="DN4" t="inlineStr">
         <is>
           <t>300414.SZ; 中光防雷; 6;  14:26:57; 3天3板; 15.48;  10:23:00; 20.0%; 3; 军工+防雷通信+低空经济+5G/6G</t>
+        </is>
+      </c>
+      <c r="DV4" t="inlineStr">
+        <is>
+          <t>300778.SZ; 新城市; 4;  14:47:09; 2天2板; 21.43;  13:57:48; 20.0%; 2; 新型城镇化+应急防灾+低空经济+一季报增长</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU532"/>
+  <dimension ref="A1:DV532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2468,6 +2488,11 @@
       <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>2025年07月09日</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月10日</t>
         </is>
       </c>
     </row>
@@ -7862,7 +7887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU12"/>
+  <dimension ref="A1:DV12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8491,6 +8516,11 @@
           <t>2025年07月09日</t>
         </is>
       </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月10日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9081,6 +9111,11 @@
           <t>301261.SZ; 恒工精密; 1;  09:25:00; 78.52; 曾涨停; 13.1%; 2.67H;  09:25:00</t>
         </is>
       </c>
+      <c r="DV2" t="inlineStr">
+        <is>
+          <t>300471.SZ; 厚普股份; 2;  09:41:36; 12.44; 曾涨停; 15.7%; 1.18H;  09:41:36|| 10:55:27</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9581,6 +9616,11 @@
           <t>301586.SZ; 佳力奇; 1;  09:54:24; 61.42; 曾涨停; 8.5%; 0.01H;  09:54:24</t>
         </is>
       </c>
+      <c r="DV3" t="inlineStr">
+        <is>
+          <t>300235.SZ; 方直科技; 1;  09:57:00; 12.3; 曾涨停; 8.8%; 0.00H;  09:57:00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -9941,6 +9981,11 @@
           <t>301257.SZ; 普蕊斯; 1;  10:24:42; 38.79; 曾涨停; 17.5%; 1.89H;  10:24:42</t>
         </is>
       </c>
+      <c r="DV4" t="inlineStr">
+        <is>
+          <t>300548.SZ; 长芯博创; 1;  10:03:42; 75; 曾涨停; 15.1%; 0.44H;  10:03:42</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -10166,6 +10211,11 @@
           <t>688202.SH; 美迪西; 1;  10:46:29; 51.35; 曾涨停; 13.4%; 0.00H;  10:46:29</t>
         </is>
       </c>
+      <c r="DV5" t="inlineStr">
+        <is>
+          <t>300254.SZ; 仟源医药; 7;  10:08:36; 11.6; 曾涨停; 13.1%; 1.32H;  10:08:36|| 10:13:15|| 10:16:30|| 10:17:45|| 10:39:48|| 11:25:21|| 11:26:30</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -10334,6 +10384,11 @@
       <c r="DO6" t="inlineStr">
         <is>
           <t>301348.SZ; 蓝箭电子; 1;  10:12:00; 27.11; 曾涨停; 15.2%; 0.17H;  10:12:00</t>
+        </is>
+      </c>
+      <c r="DV6" t="inlineStr">
+        <is>
+          <t>300019.SZ; 硅宝科技; 4;  10:25:03; 24.32; 曾涨停; 18.3%; 0.05H;  10:25:03|| 10:40:48|| 10:43:24|| 10:44:33</t>
         </is>
       </c>
     </row>
@@ -10568,7 +10623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU30"/>
+  <dimension ref="A1:DV30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11197,6 +11252,11 @@
           <t>2025年07月09日</t>
         </is>
       </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月10日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11817,6 +11877,11 @@
           <t>688585.SH; 上纬新材; 0;  09:25:01; 首板涨停; 9.34;  09:25:01; 20.1%; 1; 智元机器人核心团队持股平台拟入主上纬新材</t>
         </is>
       </c>
+      <c r="DV2" t="inlineStr">
+        <is>
+          <t>300996.SZ; 普联软件; 8;  14:35:21; 首板涨停; 19.08;  10:01:33; 20.0%; 1; 可转债+AI应用+信创+区块链</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -12415,6 +12480,11 @@
       <c r="DU3" t="inlineStr">
         <is>
           <t>301378.SZ; 通达海; 4;  09:54:24; 首板涨停; 35.52;  09:38:24; 20.0%; 1; 法律AI+信创+AI应用+埃及项目</t>
+        </is>
+      </c>
+      <c r="DV3" t="inlineStr">
+        <is>
+          <t>836892.BJ; 广咨国际; 19;  14:55:17; 首板涨停; 22.12;  13:58:23; 30.0%; 1; 工程咨询+保障性住房+国企</t>
         </is>
       </c>
     </row>
@@ -16099,7 +16169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU178"/>
+  <dimension ref="A1:DV178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16728,6 +16798,11 @@
           <t>2025年07月09日</t>
         </is>
       </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月10日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -17323,6 +17398,11 @@
           <t>300860.SZ; 锋尚文化; 1.3%; 21.6%; 33.5; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DV2" t="inlineStr">
+        <is>
+          <t>836892.BJ; 广咨国际; 1.8%; 32.4%; 22.12; 30.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -17883,6 +17963,11 @@
           <t>300778.SZ; 新城市; 0.6%; 20.8%; 17.86; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DV3" t="inlineStr">
+        <is>
+          <t>833873.BJ; 中设咨询; 1.6%; 15.0%; 8.51; 13.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -18398,6 +18483,11 @@
           <t>300779.SZ; 惠城环保; 0.1%; 12.2%; 236.43; 12.1%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="DV4" t="inlineStr">
+        <is>
+          <t>300778.SZ; 新城市; 1.2%; 21.5%; 21.43; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -18858,6 +18948,11 @@
           <t>300394.SZ; 天孚通信; 0.7%; 13.5%; 82.33; 12.7%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DV5" t="inlineStr">
+        <is>
+          <t>300947.SZ; 德必集团; 0.9%; 12.1%; 27.51; 11.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -19276,6 +19371,11 @@
       <c r="DT6" t="inlineStr">
         <is>
           <t>301658.SZ; 首航新能; 0.7%; 20.8%; 36; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="DV6" t="inlineStr">
+        <is>
+          <t>688799.SH; 华纳药厂; 0.0%; 14.9%; 57.99; 14.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -23420,7 +23520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU21"/>
+  <dimension ref="A1:DV21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24049,6 +24149,11 @@
           <t>2025年07月09日</t>
         </is>
       </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月10日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -24674,6 +24779,11 @@
           <t>301217.SZ; 铜冠铜箔; 20.26; 20.0%; 190255.0; 20</t>
         </is>
       </c>
+      <c r="DV2" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 44.14; -8.5%; 248570.5; 10</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -25299,6 +25409,11 @@
           <t>688585.SH; 上纬新材; 9.34; 20.1%; 167579.0; 27</t>
         </is>
       </c>
+      <c r="DV3" t="inlineStr">
+        <is>
+          <t>300778.SZ; 新城市; 21.43; 20.0%; 155536.0; 30</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -25924,6 +26039,11 @@
           <t>301120.SZ; 新特电气; 14.12; 20.0%; 102218.0; 58</t>
         </is>
       </c>
+      <c r="DV4" t="inlineStr">
+        <is>
+          <t>300019.SZ; 硅宝科技; 24.32; 18.3%; 125994.0; 45</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -26549,6 +26669,11 @@
           <t>300860.SZ; 锋尚文化; 33.5; 20.0%; 98974.5; 60</t>
         </is>
       </c>
+      <c r="DV5" t="inlineStr">
+        <is>
+          <t>301630.SZ; 同宇新材; 191.56; 128.0%; 120598.5; 48</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -27174,6 +27299,11 @@
           <t>300778.SZ; 新城市; 17.86; 20.0%; 95756.0; 63</t>
         </is>
       </c>
+      <c r="DV6" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 11.21; 20.0%; 100808.0; 65</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -27799,6 +27929,11 @@
           <t>300364.SZ; 中文在线; 27.97; 10.9%; 87496.0; 69</t>
         </is>
       </c>
+      <c r="DV7" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 10.18; -17.7%; 94522.5; 70</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -28424,6 +28559,11 @@
           <t>300468.SZ; 四方精创; 48.22; -2.0%; 83390.0; 75</t>
         </is>
       </c>
+      <c r="DV8" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 145.12; -5.0%; 91771.5; 74</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -29049,6 +29189,11 @@
           <t>301526.SZ; 国际复材; 5.34; 6.0%; 82399.0; 76</t>
         </is>
       </c>
+      <c r="DV9" t="inlineStr">
+        <is>
+          <t>300280.SZ; *ST紫天; 5.17; 15.7%; 86125.0; 80</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -29674,6 +29819,11 @@
           <t>301389.SZ; 隆扬电子; 38.01; 12.9%; 74408.0; 87</t>
         </is>
       </c>
+      <c r="DV10" t="inlineStr">
+        <is>
+          <t>300996.SZ; 普联软件; 19.08; 20.0%; 85514.5; 81</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -30299,6 +30449,11 @@
           <t>300476.SZ; 胜宏科技; 152.7; -2.9%; 71862.5; 89</t>
         </is>
       </c>
+      <c r="DV11" t="inlineStr">
+        <is>
+          <t>831039.BJ; 国义招标; 19.11; 30.0%; 68976.0; 103</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -30924,6 +31079,11 @@
           <t>301378.SZ; 通达海; 35.52; 20.0%; 70066.5; 93</t>
         </is>
       </c>
+      <c r="DV12" t="inlineStr">
+        <is>
+          <t>300348.SZ; 长亮科技; 19.5; 0.8%; 65932.0; 109</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -31549,6 +31709,11 @@
           <t>301176.SZ; 逸豪新材; 39.46; 4.0%; 69370.0; 94</t>
         </is>
       </c>
+      <c r="DV13" t="inlineStr">
+        <is>
+          <t>300274.SZ; 阳光电源; 76.45; 4.2%; 65258.0; 110</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -32174,6 +32339,11 @@
           <t>300591.SZ; 万里马; 12.85; 1.2%; 68078.0; 99</t>
         </is>
       </c>
+      <c r="DV14" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 23.15; 1.0%; 65207.5; 111</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -32799,6 +32969,11 @@
           <t>300371.SZ; 汇中股份; 14.09; 20.0%; 66128.0; 103</t>
         </is>
       </c>
+      <c r="DV15" t="inlineStr">
+        <is>
+          <t>301526.SZ; 国际复材; 5.5; 3.0%; 63527.5; 117</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -33424,6 +33599,11 @@
           <t>301388.SZ; 欣灵电气; 39.98; 5.0%; 62057.0; 116</t>
         </is>
       </c>
+      <c r="DV16" t="inlineStr">
+        <is>
+          <t>300548.SZ; 长芯博创; 75; 15.1%; 60793.5; 126</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -34049,6 +34229,11 @@
           <t>688729.SH; 屹唐股份; 20.96; -9.7%; 58667.0; 123</t>
         </is>
       </c>
+      <c r="DV17" t="inlineStr">
+        <is>
+          <t>300471.SZ; 厚普股份; 12.44; 15.7%; 55830.5; 136</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -34674,6 +34859,11 @@
           <t>300779.SZ; 惠城环保; 236.43; 12.1%; 57198.0; 126</t>
         </is>
       </c>
+      <c r="DV18" t="inlineStr">
+        <is>
+          <t>300591.SZ; 万里马; 11.9; -7.4%; 55667.5; 138</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -35299,6 +35489,11 @@
           <t>301269.SZ; 华大九天; 114.68; -0.4%; 56981.5; 128</t>
         </is>
       </c>
+      <c r="DV19" t="inlineStr">
+        <is>
+          <t>300917.SZ; 特发服务; 49.36; 10.1%; 55229.5; 140</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -35924,6 +36119,11 @@
           <t>688529.SH; 豪森智能; 21.1; 20.0%; 56683.0; 129</t>
         </is>
       </c>
+      <c r="DV20" t="inlineStr">
+        <is>
+          <t>300821.SZ; 东岳硅材; 10.66; 4.9%; 52669.5; 146</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -36547,6 +36747,11 @@
       <c r="DU21" t="inlineStr">
         <is>
           <t>300368.SZ; 汇金股份; 12.37; -3.1%; 55958.0; 130</t>
+        </is>
+      </c>
+      <c r="DV21" t="inlineStr">
+        <is>
+          <t>301217.SZ; 铜冠铜箔; 19.26; -4.9%; 47904.0; 164</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DV7"/>
+  <dimension ref="A1:DW7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1064,6 +1064,11 @@
           <t>2025年07月10日</t>
         </is>
       </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月11日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1427,6 +1432,11 @@
       <c r="DV2" t="inlineStr">
         <is>
           <t>688585.SH; 上纬新材; 0;  09:25:02; 2天2板; 11.21;  09:25:02; 20.0%; 2; 智元机器人核心团队持股平台拟入主</t>
+        </is>
+      </c>
+      <c r="DW2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 0;  09:25:03; 3天3板; 13.45;  09:25:03; 20.0%; 3; 智元机器人核心团队持股平台拟入主</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DV532"/>
+  <dimension ref="A1:DW532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2493,6 +2503,11 @@
       <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>2025年07月10日</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月11日</t>
         </is>
       </c>
     </row>
@@ -7887,7 +7902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DV12"/>
+  <dimension ref="A1:DW12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8521,6 +8536,11 @@
           <t>2025年07月10日</t>
         </is>
       </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月11日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9116,6 +9136,11 @@
           <t>300471.SZ; 厚普股份; 2;  09:41:36; 12.44; 曾涨停; 15.7%; 1.18H;  09:41:36|| 10:55:27</t>
         </is>
       </c>
+      <c r="DW2" t="inlineStr">
+        <is>
+          <t>300363.SZ; 博腾股份; 1;  09:46:12; 20.2; 曾涨停; 14.8%; 1.34H;  09:46:12</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9621,6 +9646,11 @@
           <t>300235.SZ; 方直科技; 1;  09:57:00; 12.3; 曾涨停; 8.8%; 0.00H;  09:57:00</t>
         </is>
       </c>
+      <c r="DW3" t="inlineStr">
+        <is>
+          <t>300255.SZ; 常山药业; 1;  09:49:33; 48.48; 曾涨停; 16.5%; 0.06H;  09:49:33</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -9986,6 +10016,11 @@
           <t>300548.SZ; 长芯博创; 1;  10:03:42; 75; 曾涨停; 15.1%; 0.44H;  10:03:42</t>
         </is>
       </c>
+      <c r="DW4" t="inlineStr">
+        <is>
+          <t>835184.BJ; 国源科技; 1;  13:00:03; 22.21; 曾涨停; 17.5%; 1.15H;  13:00:03</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -10216,6 +10251,11 @@
           <t>300254.SZ; 仟源医药; 7;  10:08:36; 11.6; 曾涨停; 13.1%; 1.32H;  10:08:36|| 10:13:15|| 10:16:30|| 10:17:45|| 10:39:48|| 11:25:21|| 11:26:30</t>
         </is>
       </c>
+      <c r="DW5" t="inlineStr">
+        <is>
+          <t>300996.SZ; 普联软件; 2;  13:05:51; 20.95; 曾涨停; 9.8%; 1.24H;  13:05:51|| 14:20:27</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -10389,6 +10429,11 @@
       <c r="DV6" t="inlineStr">
         <is>
           <t>300019.SZ; 硅宝科技; 4;  10:25:03; 24.32; 曾涨停; 18.3%; 0.05H;  10:25:03|| 10:40:48|| 10:43:24|| 10:44:33</t>
+        </is>
+      </c>
+      <c r="DW6" t="inlineStr">
+        <is>
+          <t>301159.SZ; 三维天地; 3;  13:10:12; 38.33; 曾涨停; 16.2%; 0.27H;  13:10:12|| 13:27:45|| 13:50:27</t>
         </is>
       </c>
     </row>
@@ -10623,7 +10668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DV30"/>
+  <dimension ref="A1:DW30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11257,6 +11302,11 @@
           <t>2025年07月10日</t>
         </is>
       </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月11日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11882,6 +11932,11 @@
           <t>300996.SZ; 普联软件; 8;  14:35:21; 首板涨停; 19.08;  10:01:33; 20.0%; 1; 可转债+AI应用+信创+区块链</t>
         </is>
       </c>
+      <c r="DW2" t="inlineStr">
+        <is>
+          <t>300551.SZ; 古鳌科技; 1;  09:49:18; 首板涨停; 12.22;  09:30:15; 20.0%; 1; 数字货币+互联网金融+智能自助</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -12487,6 +12542,11 @@
           <t>836892.BJ; 广咨国际; 19;  14:55:17; 首板涨停; 22.12;  13:58:23; 30.0%; 1; 工程咨询+保障性住房+国企</t>
         </is>
       </c>
+      <c r="DW3" t="inlineStr">
+        <is>
+          <t>688229.SH; 博睿数据; 0;  09:59:58; 首板涨停; 60.2;  09:59:58; 20.0%; 1; APM+金融科技+出海战略</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -13057,6 +13117,11 @@
           <t>301120.SZ; 新特电气; 1;  10:08:36; 首板涨停; 14.12;  10:03:18; 20.0%; 1; 固态变压器+变频用变压器+机器人+数据中心电源</t>
         </is>
       </c>
+      <c r="DW4" t="inlineStr">
+        <is>
+          <t>300066.SZ; 三川智慧; 0;  10:05:15; 首板涨停; 5.5;  10:05:15; 20.1%; 1; 智慧水务+稀土永磁</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -13577,6 +13642,11 @@
           <t>300371.SZ; 汇中股份; 6;  10:45:06; 首板涨停; 14.09;  09:33:24; 20.0%; 1; 中报预增+超声测流+海外拓展</t>
         </is>
       </c>
+      <c r="DW5" t="inlineStr">
+        <is>
+          <t>300600.SZ; 国瑞科技; 0;  10:11:30; 首板涨停; 16.73;  10:11:30; 20.0%; 1; 军工+新能源船舶+摘帽+国企</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -14052,6 +14122,11 @@
           <t>688528.SH; 秦川物联; 0;  11:25:50; 首板涨停; 12.55;  11:25:50; 20.0%; 1; 此前重组（已终止）+智能传感器+智慧城市物联网</t>
         </is>
       </c>
+      <c r="DW6" t="inlineStr">
+        <is>
+          <t>300631.SZ; 久吾高科; 0;  11:09:54; 首板涨停; 28.96;  11:09:54; 20.0%; 1; 盐湖提锂+稀土永磁+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -14452,6 +14527,11 @@
           <t>300860.SZ; 锋尚文化; 0;  13:00:36; 首板涨停; 33.5;  13:00:36; 20.0%; 1; 此前与“周同学”合作+虚拟演艺+IP经济</t>
         </is>
       </c>
+      <c r="DW7" t="inlineStr">
+        <is>
+          <t>836807.BJ; 奔朗新材; 1;  11:14:30; 首板涨停; 18.92;  11:11:30; 29.9%; 1; 稀土永磁+金刚石工具龙头</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -14802,6 +14882,11 @@
           <t>300778.SZ; 新城市; 0;  13:10:36; 首板涨停; 17.86;  13:10:36; 20.0%; 1; 低空经济+新型城镇化+应急防灾+一季报增长</t>
         </is>
       </c>
+      <c r="DW8" t="inlineStr">
+        <is>
+          <t>300226.SZ; 上海钢联; 1;  11:28:06; 首板涨停; 28.21;  10:26:18; 20.0%; 1; 大宗商品数据+AI应用+上海本地股</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -15070,6 +15155,11 @@
       <c r="DU9" t="inlineStr">
         <is>
           <t>831039.BJ; 国义招标; 1;  13:17:28; 首板涨停; 14.7;  13:14:31; 30.0%; 1; 招标采购+碳中和+数据要素+军工</t>
+        </is>
+      </c>
+      <c r="DW9" t="inlineStr">
+        <is>
+          <t>688656.SH; 浩欧博; 1;  14:56:52; 首板涨停; 156.47;  14:35:37; 20.0%; 1; 脱敏治疗创新药+体外诊断+控股股东变更</t>
         </is>
       </c>
     </row>
@@ -16169,7 +16259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DV178"/>
+  <dimension ref="A1:DW178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16803,6 +16893,11 @@
           <t>2025年07月10日</t>
         </is>
       </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月11日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -17403,6 +17498,11 @@
           <t>836892.BJ; 广咨国际; 1.8%; 32.4%; 22.12; 30.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DW2" t="inlineStr">
+        <is>
+          <t>300600.SZ; 国瑞科技; 0.8%; 21.0%; 16.73; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -17968,6 +18068,11 @@
           <t>833873.BJ; 中设咨询; 1.6%; 15.0%; 8.51; 13.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DW3" t="inlineStr">
+        <is>
+          <t>300841.SZ; 康华生物; 0.1%; 16.4%; 72.01; 16.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -18486,6 +18591,11 @@
       <c r="DV4" t="inlineStr">
         <is>
           <t>300778.SZ; 新城市; 1.2%; 21.5%; 21.43; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="DW4" t="inlineStr">
+        <is>
+          <t>688031.SH; 星环科技; 0.0%; 12.4%; 49.51; 12.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -23520,7 +23630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DV21"/>
+  <dimension ref="A1:DW21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24154,6 +24264,11 @@
           <t>2025年07月10日</t>
         </is>
       </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月11日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -24784,6 +24899,11 @@
           <t>300468.SZ; 四方精创; 44.14; -8.5%; 248570.5; 10</t>
         </is>
       </c>
+      <c r="DW2" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 23.86; 3.1%; 145440.5; 20</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -25414,6 +25534,11 @@
           <t>300778.SZ; 新城市; 21.43; 20.0%; 155536.0; 30</t>
         </is>
       </c>
+      <c r="DW3" t="inlineStr">
+        <is>
+          <t>300066.SZ; 三川智慧; 5.5; 20.1%; 119761.0; 27</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -26044,6 +26169,11 @@
           <t>300019.SZ; 硅宝科技; 24.32; 18.3%; 125994.0; 45</t>
         </is>
       </c>
+      <c r="DW4" t="inlineStr">
+        <is>
+          <t>300803.SZ; 指南针; 88.9; 13.1%; 108938.5; 31</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -26674,6 +26804,11 @@
           <t>301630.SZ; 同宇新材; 191.56; 128.0%; 120598.5; 48</t>
         </is>
       </c>
+      <c r="DW5" t="inlineStr">
+        <is>
+          <t>300348.SZ; 长亮科技; 20.87; 7.0%; 90611.5; 49</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -27304,6 +27439,11 @@
           <t>688585.SH; 上纬新材; 11.21; 20.0%; 100808.0; 65</t>
         </is>
       </c>
+      <c r="DW6" t="inlineStr">
+        <is>
+          <t>300226.SZ; 上海钢联; 28.21; 20.0%; 85043.0; 60</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -27934,6 +28074,11 @@
           <t>300368.SZ; 汇金股份; 10.18; -17.7%; 94522.5; 70</t>
         </is>
       </c>
+      <c r="DW7" t="inlineStr">
+        <is>
+          <t>300551.SZ; 古鳌科技; 12.22; 20.0%; 84956.5; 61</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -28564,6 +28709,11 @@
           <t>300476.SZ; 胜宏科技; 145.12; -5.0%; 91771.5; 74</t>
         </is>
       </c>
+      <c r="DW8" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 45.09; 2.2%; 78492.5; 69</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -29194,6 +29344,11 @@
           <t>300280.SZ; *ST紫天; 5.17; 15.7%; 86125.0; 80</t>
         </is>
       </c>
+      <c r="DW9" t="inlineStr">
+        <is>
+          <t>300600.SZ; 国瑞科技; 16.73; 20.0%; 73355.5; 76</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -29824,6 +29979,11 @@
           <t>300996.SZ; 普联软件; 19.08; 20.0%; 85514.5; 81</t>
         </is>
       </c>
+      <c r="DW10" t="inlineStr">
+        <is>
+          <t>300280.SZ; *ST紫天; 4.28; -17.2%; 72874.0; 79</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -30454,6 +30614,11 @@
           <t>831039.BJ; 国义招标; 19.11; 30.0%; 68976.0; 103</t>
         </is>
       </c>
+      <c r="DW11" t="inlineStr">
+        <is>
+          <t>301141.SZ; 中科磁业; 74.66; 14.8%; 67360.0; 85</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -31084,6 +31249,11 @@
           <t>300348.SZ; 长亮科技; 19.5; 0.8%; 65932.0; 109</t>
         </is>
       </c>
+      <c r="DW12" t="inlineStr">
+        <is>
+          <t>300996.SZ; 普联软件; 20.95; 9.8%; 65905.5; 89</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -31714,6 +31884,11 @@
           <t>300274.SZ; 阳光电源; 76.45; 4.2%; 65258.0; 110</t>
         </is>
       </c>
+      <c r="DW13" t="inlineStr">
+        <is>
+          <t>300631.SZ; 久吾高科; 28.96; 20.0%; 65893.5; 90</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -32344,6 +32519,11 @@
           <t>300059.SZ; 东方财富; 23.15; 1.0%; 65207.5; 111</t>
         </is>
       </c>
+      <c r="DW14" t="inlineStr">
+        <is>
+          <t>301165.SZ; 锐捷网络; 60.75; 2.0%; 65336.5; 92</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -32974,6 +33154,11 @@
           <t>301526.SZ; 国际复材; 5.5; 3.0%; 63527.5; 117</t>
         </is>
       </c>
+      <c r="DW15" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 13.45; 20.0%; 64678.0; 94</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -33604,6 +33789,11 @@
           <t>300548.SZ; 长芯博创; 75; 15.1%; 60793.5; 126</t>
         </is>
       </c>
+      <c r="DW16" t="inlineStr">
+        <is>
+          <t>300674.SZ; 宇信科技; 30.75; 7.2%; 62833.5; 98</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -34234,6 +34424,11 @@
           <t>300471.SZ; 厚普股份; 12.44; 15.7%; 55830.5; 136</t>
         </is>
       </c>
+      <c r="DW17" t="inlineStr">
+        <is>
+          <t>300033.SZ; 同花顺; 287.25; 4.5%; 60722.0; 101</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -34864,6 +35059,11 @@
           <t>300591.SZ; 万里马; 11.9; -7.4%; 55667.5; 138</t>
         </is>
       </c>
+      <c r="DW18" t="inlineStr">
+        <is>
+          <t>300778.SZ; 新城市; 18.66; -12.9%; 59854.5; 103</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -35494,6 +35694,11 @@
           <t>300917.SZ; 特发服务; 49.36; 10.1%; 55229.5; 140</t>
         </is>
       </c>
+      <c r="DW19" t="inlineStr">
+        <is>
+          <t>301630.SZ; 同宇新材; 203.04; 6.0%; 58441.5; 106</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -36124,6 +36329,11 @@
           <t>300821.SZ; 东岳硅材; 10.66; 4.9%; 52669.5; 146</t>
         </is>
       </c>
+      <c r="DW20" t="inlineStr">
+        <is>
+          <t>300748.SZ; 金力永磁; 25.95; 8.0%; 57101.0; 111</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -36752,6 +36962,11 @@
       <c r="DV21" t="inlineStr">
         <is>
           <t>301217.SZ; 铜冠铜箔; 19.26; -4.9%; 47904.0; 164</t>
+        </is>
+      </c>
+      <c r="DW21" t="inlineStr">
+        <is>
+          <t>300255.SZ; 常山药业; 48.48; 16.5%; 54082.0; 115</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DW7"/>
+  <dimension ref="A1:DY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,6 +1069,16 @@
           <t>2025年07月11日</t>
         </is>
       </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月14日</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月15日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1437,6 +1447,16 @@
       <c r="DW2" t="inlineStr">
         <is>
           <t>688585.SH; 上纬新材; 0;  09:25:03; 3天3板; 13.45;  09:25:03; 20.0%; 3; 智元机器人核心团队持股平台拟入主</t>
+        </is>
+      </c>
+      <c r="DX2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 0;  09:25:04; 4天4板; 16.14;  09:25:04; 20.0%; 4; 智元机器人核心团队持股平台拟入主</t>
+        </is>
+      </c>
+      <c r="DY2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 0;  09:25:02; 5天5板; 19.37;  09:25:02; 20.0%; 5; 智元机器人核心团队持股平台拟入主</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DW532"/>
+  <dimension ref="A1:DY532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2510,6 +2530,16 @@
           <t>2025年07月11日</t>
         </is>
       </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月14日</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月15日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2578,6 +2608,11 @@
       <c r="DN2" t="inlineStr">
         <is>
           <t>300849.SZ; 锦盛新材; 29;  09:35:39; 放量跌停; 13.18; -20.0%; 1; 因涉嫌信披违法违规被证监会立案</t>
+        </is>
+      </c>
+      <c r="DX2" t="inlineStr">
+        <is>
+          <t>301139.SZ; 元道通信; 0;  09:25:00; 一字跌停||缩量跌停; 21.6; -20.0%; 1; 收到证监会《立案告知书》+重大违法强制退市风险</t>
         </is>
       </c>
     </row>
@@ -7902,7 +7937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DW12"/>
+  <dimension ref="A1:DY12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8541,6 +8576,16 @@
           <t>2025年07月11日</t>
         </is>
       </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月14日</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月15日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9141,6 +9186,16 @@
           <t>300363.SZ; 博腾股份; 1;  09:46:12; 20.2; 曾涨停; 14.8%; 1.34H;  09:46:12</t>
         </is>
       </c>
+      <c r="DX2" t="inlineStr">
+        <is>
+          <t>688229.SH; 博睿数据; 1;  09:34:03; 64.55; 曾涨停; 7.2%; 0.01H;  09:34:03</t>
+        </is>
+      </c>
+      <c r="DY2" t="inlineStr">
+        <is>
+          <t>301265.SZ; 华新环保; 6;  09:33:15; 12.97; 曾涨停; 11.4%; 0.28H;  09:33:15|| 09:35:15|| 09:35:54|| 09:37:24|| 09:38:06|| 09:53:57</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9651,6 +9706,16 @@
           <t>300255.SZ; 常山药业; 1;  09:49:33; 48.48; 曾涨停; 16.5%; 0.06H;  09:49:33</t>
         </is>
       </c>
+      <c r="DX3" t="inlineStr">
+        <is>
+          <t>688176.SH; 亚虹医药; 1;  10:17:40; 11.65; 曾涨停; 17.3%; 0.81H;  10:17:40</t>
+        </is>
+      </c>
+      <c r="DY3" t="inlineStr">
+        <is>
+          <t>688137.SH; 近岸蛋白; 1;  09:44:13; 48.6; 曾涨停; 14.6%; 0.01H;  09:44:13</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -10021,6 +10086,16 @@
           <t>835184.BJ; 国源科技; 1;  13:00:03; 22.21; 曾涨停; 17.5%; 1.15H;  13:00:03</t>
         </is>
       </c>
+      <c r="DX4" t="inlineStr">
+        <is>
+          <t>300942.SZ; 易瑞生物; 2;  10:53:57; 10.8; 曾涨停; 12.1%; 0.63H;  10:53:57|| 10:58:57</t>
+        </is>
+      </c>
+      <c r="DY4" t="inlineStr">
+        <is>
+          <t>300522.SZ; 世名科技; 1;  13:08:27; 16.57; 曾涨停; 13.3%; 0.21H;  13:08:27</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -10254,6 +10329,16 @@
       <c r="DW5" t="inlineStr">
         <is>
           <t>300996.SZ; 普联软件; 2;  13:05:51; 20.95; 曾涨停; 9.8%; 1.24H;  13:05:51|| 14:20:27</t>
+        </is>
+      </c>
+      <c r="DX5" t="inlineStr">
+        <is>
+          <t>301261.SZ; 恒工精密; 2;  11:14:54; 93.85; 曾涨停; 14.8%; 0.11H;  11:14:54|| 11:16:21</t>
+        </is>
+      </c>
+      <c r="DY5" t="inlineStr">
+        <is>
+          <t>301183.SZ; 东田微; 1;  13:11:39; 69; 曾涨停; 13.9%; 0.29H;  13:11:39</t>
         </is>
       </c>
     </row>
@@ -10668,7 +10753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DW30"/>
+  <dimension ref="A1:DY30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11307,6 +11392,16 @@
           <t>2025年07月11日</t>
         </is>
       </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月14日</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月15日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -11937,6 +12032,16 @@
           <t>300551.SZ; 古鳌科技; 1;  09:49:18; 首板涨停; 12.22;  09:30:15; 20.0%; 1; 数字货币+互联网金融+智能自助</t>
         </is>
       </c>
+      <c r="DX2" t="inlineStr">
+        <is>
+          <t>300950.SZ; 德固特; 1;  09:31:51; 首板涨停; 26.72;  09:25:00; 20.0%; 1; 并购重组+云计算+节能环保</t>
+        </is>
+      </c>
+      <c r="DY2" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 0;  09:39:45; 首板涨停; 157.08;  09:39:45; 20.0%; 1; 中报预增+高速光模块+AI算力</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -12547,6 +12652,16 @@
           <t>688229.SH; 博睿数据; 0;  09:59:58; 首板涨停; 60.2;  09:59:58; 20.0%; 1; APM+金融科技+出海战略</t>
         </is>
       </c>
+      <c r="DX3" t="inlineStr">
+        <is>
+          <t>300195.SZ; 长荣股份; 1;  09:55:18; 首板涨停; 9.05;  09:39:36; 20.0%; 1; 包装印刷+绿色包装+光伏</t>
+        </is>
+      </c>
+      <c r="DY3" t="inlineStr">
+        <is>
+          <t>300839.SZ; 博汇股份; 0;  09:48:27; 首板涨停; 13.82;  09:48:27; 20.0%; 1; 液冷服务器+绿色化工+国企</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -13122,6 +13237,16 @@
           <t>300066.SZ; 三川智慧; 0;  10:05:15; 首板涨停; 5.5;  10:05:15; 20.1%; 1; 智慧水务+稀土永磁</t>
         </is>
       </c>
+      <c r="DX4" t="inlineStr">
+        <is>
+          <t>300006.SZ; 莱美药业; 0;  10:08:36; 首板涨停; 4.81;  10:08:36; 20.0%; 1; 创新药+淋巴示踪剂+纳米炭铁+国企改革</t>
+        </is>
+      </c>
+      <c r="DY4" t="inlineStr">
+        <is>
+          <t>300378.SZ; 鼎捷数智; 1;  14:09:09; 首板涨停; 46.02;  13:42:51; 20.0%; 1; AI平台+智能制造+年报增长</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -13647,6 +13772,11 @@
           <t>300600.SZ; 国瑞科技; 0;  10:11:30; 首板涨停; 16.73;  10:11:30; 20.0%; 1; 军工+新能源船舶+摘帽+国企</t>
         </is>
       </c>
+      <c r="DX5" t="inlineStr">
+        <is>
+          <t>688317.SH; 之江生物; 4;  11:17:41; 首板涨停; 23.22;  11:11:08; 20.0%; 1; 分子诊断+类器官芯片进展+股份回购</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -14125,6 +14255,11 @@
       <c r="DW6" t="inlineStr">
         <is>
           <t>300631.SZ; 久吾高科; 0;  11:09:54; 首板涨停; 28.96;  11:09:54; 20.0%; 1; 盐湖提锂+稀土永磁+一季报增长</t>
+        </is>
+      </c>
+      <c r="DX6" t="inlineStr">
+        <is>
+          <t>301388.SZ; 欣灵电气; 1;  14:03:27; 首板涨停; 42.13;  10:49:33; 20.0%; 1; 充电桩+光伏概念+低压电器</t>
         </is>
       </c>
     </row>
@@ -16259,7 +16394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DW178"/>
+  <dimension ref="A1:DY178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16898,6 +17033,16 @@
           <t>2025年07月11日</t>
         </is>
       </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月14日</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月15日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -17503,6 +17648,16 @@
           <t>300600.SZ; 国瑞科技; 0.8%; 21.0%; 16.73; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DX2" t="inlineStr">
+        <is>
+          <t>301388.SZ; 欣灵电气; 3.0%; 23.7%; 42.13; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="DY2" t="inlineStr">
+        <is>
+          <t>300996.SZ; 普联软件; 3.0%; 14.3%; 21.61; 10.8%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -18073,6 +18228,16 @@
           <t>300841.SZ; 康华生物; 0.1%; 16.4%; 72.01; 16.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DX3" t="inlineStr">
+        <is>
+          <t>301529.SZ; 福赛科技; 0.7%; 12.3%; 40.2; 11.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="DY3" t="inlineStr">
+        <is>
+          <t>836892.BJ; 广咨国际; 1.8%; 13.9%; 22.39; 11.9%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -18598,6 +18763,16 @@
           <t>688031.SH; 星环科技; 0.0%; 12.4%; 49.51; 12.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DX4" t="inlineStr">
+        <is>
+          <t>688189.SH; 南新制药; 0.5%; 18.8%; 9.5; 18.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="DY4" t="inlineStr">
+        <is>
+          <t>301265.SZ; 华新环保; 1.2%; 12.8%; 12.97; 11.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -19063,6 +19238,11 @@
           <t>300947.SZ; 德必集团; 0.9%; 12.1%; 27.51; 11.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DY5" t="inlineStr">
+        <is>
+          <t>300522.SZ; 世名科技; 0.8%; 14.3%; 16.57; 13.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -19488,6 +19668,11 @@
           <t>688799.SH; 华纳药厂; 0.0%; 14.9%; 57.99; 14.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="DY6" t="inlineStr">
+        <is>
+          <t>300839.SZ; 博汇股份; 0.6%; 20.7%; 13.82; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -19881,6 +20066,11 @@
       <c r="DT7" t="inlineStr">
         <is>
           <t>300835.SZ; 龙磁科技; 0.6%; 15.9%; 46.46; 15.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="DY7" t="inlineStr">
+        <is>
+          <t>300378.SZ; 鼎捷数智; 0.4%; 20.5%; 46.02; 20.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
     </row>
@@ -23630,7 +23820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DW21"/>
+  <dimension ref="A1:DY21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24269,6 +24459,16 @@
           <t>2025年07月11日</t>
         </is>
       </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月14日</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月15日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -24904,6 +25104,16 @@
           <t>300059.SZ; 东方财富; 23.86; 3.1%; 145440.5; 20</t>
         </is>
       </c>
+      <c r="DX2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 16.14; 20.0%; 237880.5; 19</t>
+        </is>
+      </c>
+      <c r="DY2" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 157.08; 20.0%; 174582.0; 2</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -25539,6 +25749,16 @@
           <t>300066.SZ; 三川智慧; 5.5; 20.1%; 119761.0; 27</t>
         </is>
       </c>
+      <c r="DX3" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 130.9; -0.2%; 227574.5; 21</t>
+        </is>
+      </c>
+      <c r="DY3" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 174.81; 16.7%; 106964.5; 7</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -26174,6 +26394,16 @@
           <t>300803.SZ; 指南针; 88.9; 13.1%; 108938.5; 31</t>
         </is>
       </c>
+      <c r="DX4" t="inlineStr">
+        <is>
+          <t>300195.SZ; 长荣股份; 9.05; 20.0%; 216332.0; 23</t>
+        </is>
+      </c>
+      <c r="DY4" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 19.37; 20.0%; 65995.0; 18</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -26809,6 +27039,16 @@
           <t>300348.SZ; 长亮科技; 20.87; 7.0%; 90611.5; 49</t>
         </is>
       </c>
+      <c r="DX5" t="inlineStr">
+        <is>
+          <t>300066.SZ; 三川智慧; 6.34; 15.3%; 128921.0; 53</t>
+        </is>
+      </c>
+      <c r="DY5" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 164.06; 13.7%; 65168.0; 19</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -27444,6 +27684,16 @@
           <t>300226.SZ; 上海钢联; 28.21; 20.0%; 85043.0; 60</t>
         </is>
       </c>
+      <c r="DX6" t="inlineStr">
+        <is>
+          <t>301388.SZ; 欣灵电气; 42.13; 20.0%; 126538.0; 55</t>
+        </is>
+      </c>
+      <c r="DY6" t="inlineStr">
+        <is>
+          <t>300378.SZ; 鼎捷数智; 46.02; 20.0%; 56065.5; 26</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -28079,6 +28329,16 @@
           <t>300551.SZ; 古鳌科技; 12.22; 20.0%; 84956.5; 61</t>
         </is>
       </c>
+      <c r="DX7" t="inlineStr">
+        <is>
+          <t>300718.SZ; 长盛轴承; 75.56; 11.1%; 110290.0; 68</t>
+        </is>
+      </c>
+      <c r="DY7" t="inlineStr">
+        <is>
+          <t>300170.SZ; 汉得信息; 18.33; 9.0%; 32512.5; 67</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -28714,6 +28974,16 @@
           <t>300468.SZ; 四方精创; 45.09; 2.2%; 78492.5; 69</t>
         </is>
       </c>
+      <c r="DX8" t="inlineStr">
+        <is>
+          <t>300226.SZ; 上海钢联; 30.33; 7.5%; 102565.5; 81</t>
+        </is>
+      </c>
+      <c r="DY8" t="inlineStr">
+        <is>
+          <t>300394.SZ; 天孚通信; 95.16; 12.0%; 31547.0; 69</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -29349,6 +29619,16 @@
           <t>300600.SZ; 国瑞科技; 16.73; 20.0%; 73355.5; 76</t>
         </is>
       </c>
+      <c r="DX9" t="inlineStr">
+        <is>
+          <t>300006.SZ; 莱美药业; 4.81; 20.0%; 101184.0; 83</t>
+        </is>
+      </c>
+      <c r="DY9" t="inlineStr">
+        <is>
+          <t>300226.SZ; 上海钢联; 31.5; 3.9%; 28154.0; 85</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -29984,6 +30264,16 @@
           <t>300280.SZ; *ST紫天; 4.28; -17.2%; 72874.0; 79</t>
         </is>
       </c>
+      <c r="DX10" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 23.62; -1.0%; 100947.5; 84</t>
+        </is>
+      </c>
+      <c r="DY10" t="inlineStr">
+        <is>
+          <t>300839.SZ; 博汇股份; 13.82; 20.0%; 28073.5; 86</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -30619,6 +30909,16 @@
           <t>301141.SZ; 中科磁业; 74.66; 14.8%; 67360.0; 85</t>
         </is>
       </c>
+      <c r="DX11" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 149.82; 3.1%; 96400.5; 91</t>
+        </is>
+      </c>
+      <c r="DY11" t="inlineStr">
+        <is>
+          <t>300950.SZ; 德固特; 29.5; 10.4%; 27234.5; 89</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -31254,6 +31554,16 @@
           <t>300996.SZ; 普联软件; 20.95; 9.8%; 65905.5; 89</t>
         </is>
       </c>
+      <c r="DX12" t="inlineStr">
+        <is>
+          <t>300229.SZ; 拓尔思; 20.51; 6.7%; 94290.0; 95</t>
+        </is>
+      </c>
+      <c r="DY12" t="inlineStr">
+        <is>
+          <t>300996.SZ; 普联软件; 21.61; 10.8%; 26283.5; 94</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -31889,6 +32199,16 @@
           <t>300631.SZ; 久吾高科; 28.96; 20.0%; 65893.5; 90</t>
         </is>
       </c>
+      <c r="DX13" t="inlineStr">
+        <is>
+          <t>300950.SZ; 德固特; 26.72; 20.0%; 94079.0; 97</t>
+        </is>
+      </c>
+      <c r="DY13" t="inlineStr">
+        <is>
+          <t>301183.SZ; 东田微; 69; 13.9%; 25932.0; 97</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -32524,6 +32844,16 @@
           <t>301165.SZ; 锐捷网络; 60.75; 2.0%; 65336.5; 92</t>
         </is>
       </c>
+      <c r="DX14" t="inlineStr">
+        <is>
+          <t>301261.SZ; 恒工精密; 93.85; 14.8%; 92163.5; 100</t>
+        </is>
+      </c>
+      <c r="DY14" t="inlineStr">
+        <is>
+          <t>839680.BJ; *ST广道; 7.25; 29.9%; 25851.0; 98</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -33159,6 +33489,16 @@
           <t>688585.SH; 上纬新材; 13.45; 20.0%; 64678.0; 94</t>
         </is>
       </c>
+      <c r="DX15" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 43.54; -3.4%; 80829.5; 118</t>
+        </is>
+      </c>
+      <c r="DY15" t="inlineStr">
+        <is>
+          <t>300066.SZ; 三川智慧; 6.41; 1.1%; 25450.5; 99</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -33794,6 +34134,16 @@
           <t>300674.SZ; 宇信科技; 30.75; 7.2%; 62833.5; 98</t>
         </is>
       </c>
+      <c r="DX16" t="inlineStr">
+        <is>
+          <t>300348.SZ; 长亮科技; 19.06; -8.7%; 77387.0; 128</t>
+        </is>
+      </c>
+      <c r="DY16" t="inlineStr">
+        <is>
+          <t>300442.SZ; 润泽科技; 52.97; 9.5%; 23495.5; 106</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -34429,6 +34779,16 @@
           <t>300033.SZ; 同花顺; 287.25; 4.5%; 60722.0; 101</t>
         </is>
       </c>
+      <c r="DX17" t="inlineStr">
+        <is>
+          <t>301139.SZ; 元道通信; 21.6; -20.0%; 72609.5; 133</t>
+        </is>
+      </c>
+      <c r="DY17" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 42.55; -2.3%; 22902.5; 111</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -35064,6 +35424,16 @@
           <t>300778.SZ; 新城市; 18.66; -12.9%; 59854.5; 103</t>
         </is>
       </c>
+      <c r="DX18" t="inlineStr">
+        <is>
+          <t>300551.SZ; 古鳌科技; 13.17; 7.8%; 70050.5; 138</t>
+        </is>
+      </c>
+      <c r="DY18" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 23.53; -0.4%; 22244.0; 116</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -35699,6 +36069,16 @@
           <t>301630.SZ; 同宇新材; 203.04; 6.0%; 58441.5; 106</t>
         </is>
       </c>
+      <c r="DX19" t="inlineStr">
+        <is>
+          <t>300803.SZ; 指南针; 82.17; -7.6%; 69872.0; 140</t>
+        </is>
+      </c>
+      <c r="DY19" t="inlineStr">
+        <is>
+          <t>301609.SZ; 山大电力; nan; nan%; 21171.0; 121</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -36334,6 +36714,16 @@
           <t>300748.SZ; 金力永磁; 25.95; 8.0%; 57101.0; 111</t>
         </is>
       </c>
+      <c r="DX20" t="inlineStr">
+        <is>
+          <t>300879.SZ; 大叶股份; 40.15; 0.9%; 65137.5; 149</t>
+        </is>
+      </c>
+      <c r="DY20" t="inlineStr">
+        <is>
+          <t>300778.SZ; 新城市; 19.38; 3.7%; 20775.0; 124</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -36967,6 +37357,16 @@
       <c r="DW21" t="inlineStr">
         <is>
           <t>300255.SZ; 常山药业; 48.48; 16.5%; 54082.0; 115</t>
+        </is>
+      </c>
+      <c r="DX21" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 144.35; -0.5%; 64814.0; 152</t>
+        </is>
+      </c>
+      <c r="DY21" t="inlineStr">
+        <is>
+          <t>300738.SZ; 奥飞数据; 22.67; 7.0%; 20409.0; 128</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DY7"/>
+  <dimension ref="A1:DZ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,6 +1079,11 @@
           <t>2025年07月15日</t>
         </is>
       </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月16日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1459,6 +1464,11 @@
           <t>688585.SH; 上纬新材; 0;  09:25:02; 5天5板; 19.37;  09:25:02; 20.0%; 5; 智元机器人核心团队持股平台拟入主</t>
         </is>
       </c>
+      <c r="DZ2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 0;  09:25:04; 6天6板; 23.24;  09:25:04; 20.0%; 6; 智元机器人核心团队持股平台拟入主</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1672,6 +1682,11 @@
       <c r="DV3" t="inlineStr">
         <is>
           <t>831039.BJ; 国义招标; 1;  13:20:29; 2天2板; 19.11;  13:19:20; 30.0%; 2; 新型城镇化+招标采购+数据要素+军工</t>
+        </is>
+      </c>
+      <c r="DZ3" t="inlineStr">
+        <is>
+          <t>300950.SZ; 德固特; 1;  10:54:03; 3天2板; 35.4;  10:02:18; 20.0%; 1; AI智能体+并购重组+节能环保</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DY532"/>
+  <dimension ref="A1:DZ532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2538,6 +2553,11 @@
       <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>2025年07月15日</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月16日</t>
         </is>
       </c>
     </row>
@@ -7937,7 +7957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DY12"/>
+  <dimension ref="A1:DZ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8586,6 +8606,11 @@
           <t>2025年07月15日</t>
         </is>
       </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月16日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9194,6 +9219,11 @@
       <c r="DY2" t="inlineStr">
         <is>
           <t>301265.SZ; 华新环保; 6;  09:33:15; 12.97; 曾涨停; 11.4%; 0.28H;  09:33:15|| 09:35:15|| 09:35:54|| 09:37:24|| 09:38:06|| 09:53:57</t>
+        </is>
+      </c>
+      <c r="DZ2" t="inlineStr">
+        <is>
+          <t>300662.SZ; 科锐国际; 2;  10:04:48; 33.76; 曾涨停; 14.4%; 0.86H;  10:04:48|| 10:58:00</t>
         </is>
       </c>
     </row>
@@ -10753,7 +10783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DY30"/>
+  <dimension ref="A1:DZ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11402,6 +11432,11 @@
           <t>2025年07月15日</t>
         </is>
       </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月16日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -12042,6 +12077,11 @@
           <t>300502.SZ; 新易盛; 0;  09:39:45; 首板涨停; 157.08;  09:39:45; 20.0%; 1; 中报预增+高速光模块+AI算力</t>
         </is>
       </c>
+      <c r="DZ2" t="inlineStr">
+        <is>
+          <t>301012.SZ; 扬电科技; 0;  09:25:00; 首板涨停; 23.14;  09:25:00; 20.0%; 1; 控制权变更+数据中心+节能变压器</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -12662,6 +12702,11 @@
           <t>300839.SZ; 博汇股份; 0;  09:48:27; 首板涨停; 13.82;  09:48:27; 20.0%; 1; 液冷服务器+绿色化工+国企</t>
         </is>
       </c>
+      <c r="DZ3" t="inlineStr">
+        <is>
+          <t>688118.SH; 普元信息; 0;  09:43:42; 首板涨停; 28.43;  09:43:42; 20.0%; 1; AI智能体+军工+软件基础平台</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -13245,6 +13290,11 @@
       <c r="DY4" t="inlineStr">
         <is>
           <t>300378.SZ; 鼎捷数智; 1;  14:09:09; 首板涨停; 46.02;  13:42:51; 20.0%; 1; AI平台+智能制造+年报增长</t>
+        </is>
+      </c>
+      <c r="DZ4" t="inlineStr">
+        <is>
+          <t>300819.SZ; 聚杰微纤; 0;  10:40:36; 首板涨停; 28.18;  10:40:36; 20.0%; 1; 机器人概念+固态电池+超细纤维面料+一季报增长</t>
         </is>
       </c>
     </row>
@@ -16394,7 +16444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DY178"/>
+  <dimension ref="A1:DZ178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17043,6 +17093,11 @@
           <t>2025年07月15日</t>
         </is>
       </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月16日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -17656,6 +17711,11 @@
       <c r="DY2" t="inlineStr">
         <is>
           <t>300996.SZ; 普联软件; 3.0%; 14.3%; 21.61; 10.8%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="DZ2" t="inlineStr">
+        <is>
+          <t>301183.SZ; 东田微; 2.2%; 12.0%; 75.61; 9.6%; 强中选强||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -23820,7 +23880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DY21"/>
+  <dimension ref="A1:DZ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24469,6 +24529,11 @@
           <t>2025年07月15日</t>
         </is>
       </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月16日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -25114,6 +25179,11 @@
           <t>300502.SZ; 新易盛; 157.08; 20.0%; 174582.0; 2</t>
         </is>
       </c>
+      <c r="DZ2" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 169.8; 8.1%; 261990.0; 8</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -25759,6 +25829,11 @@
           <t>300308.SZ; 中际旭创; 174.81; 16.7%; 106964.5; 7</t>
         </is>
       </c>
+      <c r="DZ3" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 23.24; 20.0%; 239994.5; 11</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -26404,6 +26479,11 @@
           <t>688585.SH; 上纬新材; 19.37; 20.0%; 65995.0; 18</t>
         </is>
       </c>
+      <c r="DZ4" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 74.87; 16.5%; 214522.5; 17</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -27049,6 +27129,11 @@
           <t>300476.SZ; 胜宏科技; 164.06; 13.7%; 65168.0; 19</t>
         </is>
       </c>
+      <c r="DZ5" t="inlineStr">
+        <is>
+          <t>839680.BJ; *ST广道; 9.42; 29.9%; 166283.5; 27</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -27694,6 +27779,11 @@
           <t>300378.SZ; 鼎捷数智; 46.02; 20.0%; 56065.5; 26</t>
         </is>
       </c>
+      <c r="DZ6" t="inlineStr">
+        <is>
+          <t>300950.SZ; 德固特; 35.4; 20.0%; 139954.0; 37</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -28339,6 +28429,11 @@
           <t>300170.SZ; 汉得信息; 18.33; 9.0%; 32512.5; 67</t>
         </is>
       </c>
+      <c r="DZ7" t="inlineStr">
+        <is>
+          <t>301012.SZ; 扬电科技; 23.14; 20.0%; 135390.5; 38</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -28984,6 +29079,11 @@
           <t>300394.SZ; 天孚通信; 95.16; 12.0%; 31547.0; 69</t>
         </is>
       </c>
+      <c r="DZ8" t="inlineStr">
+        <is>
+          <t>300344.SZ; ST立方; 4.79; 20.1%; 103618.5; 56</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -29629,6 +29729,11 @@
           <t>300226.SZ; 上海钢联; 31.5; 3.9%; 28154.0; 85</t>
         </is>
       </c>
+      <c r="DZ9" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 170.76; -2.3%; 102010.0; 59</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -30274,6 +30379,11 @@
           <t>300839.SZ; 博汇股份; 13.82; 20.0%; 28073.5; 86</t>
         </is>
       </c>
+      <c r="DZ10" t="inlineStr">
+        <is>
+          <t>300819.SZ; 聚杰微纤; 28.18; 20.0%; 91188.0; 69</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -30919,6 +31029,11 @@
           <t>300950.SZ; 德固特; 29.5; 10.4%; 27234.5; 89</t>
         </is>
       </c>
+      <c r="DZ11" t="inlineStr">
+        <is>
+          <t>300199.SZ; 翰宇药业; 19.43; 6.4%; 88923.0; 73</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -31564,6 +31679,11 @@
           <t>300996.SZ; 普联软件; 21.61; 10.8%; 26283.5; 94</t>
         </is>
       </c>
+      <c r="DZ12" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 155.03; -5.5%; 84252.5; 77</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -32209,6 +32329,11 @@
           <t>301183.SZ; 东田微; 69; 13.9%; 25932.0; 97</t>
         </is>
       </c>
+      <c r="DZ13" t="inlineStr">
+        <is>
+          <t>300357.SZ; 我武生物; 25; 15.9%; 67539.0; 100</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -32854,6 +32979,11 @@
           <t>839680.BJ; *ST广道; 7.25; 29.9%; 25851.0; 98</t>
         </is>
       </c>
+      <c r="DZ14" t="inlineStr">
+        <is>
+          <t>300548.SZ; 长芯博创; 84.42; 8.7%; 63618.0; 111</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -33499,6 +33629,11 @@
           <t>300066.SZ; 三川智慧; 6.41; 1.1%; 25450.5; 99</t>
         </is>
       </c>
+      <c r="DZ15" t="inlineStr">
+        <is>
+          <t>300939.SZ; 秋田微; 33.33; 0.6%; 59530.0; 121</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -34144,6 +34279,11 @@
           <t>300442.SZ; 润泽科技; 52.97; 9.5%; 23495.5; 106</t>
         </is>
       </c>
+      <c r="DZ16" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 23.42; -0.5%; 57882.0; 128</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -34789,6 +34929,11 @@
           <t>300468.SZ; 四方精创; 42.55; -2.3%; 22902.5; 111</t>
         </is>
       </c>
+      <c r="DZ17" t="inlineStr">
+        <is>
+          <t>300007.SZ; 汉威科技; 44.38; 6.4%; 57178.0; 131</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -35434,6 +35579,11 @@
           <t>300059.SZ; 东方财富; 23.53; -0.4%; 22244.0; 116</t>
         </is>
       </c>
+      <c r="DZ18" t="inlineStr">
+        <is>
+          <t>300006.SZ; 莱美药业; 4.99; 8.5%; 54075.5; 138</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -36079,6 +36229,11 @@
           <t>301609.SZ; 山大电力; nan; nan%; 21171.0; 121</t>
         </is>
       </c>
+      <c r="DZ19" t="inlineStr">
+        <is>
+          <t>301183.SZ; 东田微; 75.61; 9.6%; 53262.0; 140</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -36724,6 +36879,11 @@
           <t>300778.SZ; 新城市; 19.38; 3.7%; 20775.0; 124</t>
         </is>
       </c>
+      <c r="DZ20" t="inlineStr">
+        <is>
+          <t>300066.SZ; 三川智慧; 5.95; -7.2%; 53164.0; 141</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -37367,6 +37527,11 @@
       <c r="DY21" t="inlineStr">
         <is>
           <t>300738.SZ; 奥飞数据; 22.67; 7.0%; 20409.0; 128</t>
+        </is>
+      </c>
+      <c r="DZ21" t="inlineStr">
+        <is>
+          <t>300226.SZ; 上海钢联; 29.56; -6.2%; 52925.0; 145</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DZ7"/>
+  <dimension ref="A1:EA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,6 +1084,11 @@
           <t>2025年07月16日</t>
         </is>
       </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月17日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1467,6 +1472,11 @@
       <c r="DZ2" t="inlineStr">
         <is>
           <t>688585.SH; 上纬新材; 0;  09:25:04; 6天6板; 23.24;  09:25:04; 20.0%; 6; 智元机器人核心团队持股平台拟入主</t>
+        </is>
+      </c>
+      <c r="EA2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 0;  09:25:01; 7天7板; 27.89;  09:25:01; 20.0%; 7; 智元机器人核心团队持股平台拟入主</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DZ532"/>
+  <dimension ref="A1:EA532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2558,6 +2568,11 @@
       <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>2025年07月16日</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月17日</t>
         </is>
       </c>
     </row>
@@ -7957,7 +7972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DZ12"/>
+  <dimension ref="A1:EA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8611,6 +8626,11 @@
           <t>2025年07月16日</t>
         </is>
       </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月17日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9226,6 +9246,11 @@
           <t>300662.SZ; 科锐国际; 2;  10:04:48; 33.76; 曾涨停; 14.4%; 0.86H;  10:04:48|| 10:58:00</t>
         </is>
       </c>
+      <c r="EA2" t="inlineStr">
+        <is>
+          <t>300051.SZ; 琏升科技; 6;  09:33:09; 7.7; 曾涨停; 10.6%; 0.27H;  09:33:09|| 09:39:21|| 09:40:03|| 09:41:27|| 09:42:51|| 09:54:21</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9744,6 +9769,11 @@
       <c r="DY3" t="inlineStr">
         <is>
           <t>688137.SH; 近岸蛋白; 1;  09:44:13; 48.6; 曾涨停; 14.6%; 0.01H;  09:44:13</t>
+        </is>
+      </c>
+      <c r="EA3" t="inlineStr">
+        <is>
+          <t>688520.SH; 神州细胞; 6;  14:48:56; 85.63; 曾涨停; 15.4%; 0.06H;  14:48:56|| 14:51:38|| 14:51:47|| 14:52:02|| 14:52:29|| 14:52:38</t>
         </is>
       </c>
     </row>
@@ -10783,7 +10813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DZ30"/>
+  <dimension ref="A1:EA30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11437,6 +11467,11 @@
           <t>2025年07月16日</t>
         </is>
       </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月17日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -12082,6 +12117,11 @@
           <t>301012.SZ; 扬电科技; 0;  09:25:00; 首板涨停; 23.14;  09:25:00; 20.0%; 1; 控制权变更+数据中心+节能变压器</t>
         </is>
       </c>
+      <c r="EA2" t="inlineStr">
+        <is>
+          <t>300878.SZ; 维康药业; 1;  09:45:51; 首板涨停; 20.71;  09:35:27; 20.0%; 1; 中药+创新药+黄甲软肝</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -12707,6 +12747,11 @@
           <t>688118.SH; 普元信息; 0;  09:43:42; 首板涨停; 28.43;  09:43:42; 20.0%; 1; AI智能体+军工+软件基础平台</t>
         </is>
       </c>
+      <c r="EA3" t="inlineStr">
+        <is>
+          <t>301132.SZ; 满坤科技; 0;  10:14:15; 首板涨停; 39.88;  10:14:15; 20.0%; 1; PCB概念+无人驾驶+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -13297,6 +13342,11 @@
           <t>300819.SZ; 聚杰微纤; 0;  10:40:36; 首板涨停; 28.18;  10:40:36; 20.0%; 1; 机器人概念+固态电池+超细纤维面料+一季报增长</t>
         </is>
       </c>
+      <c r="EA4" t="inlineStr">
+        <is>
+          <t>688222.SH; 成都先导; 6;  10:25:19; 首板涨停; 21.46;  09:52:49; 20.0%; 1; 创新药+AI医疗</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -13827,6 +13877,11 @@
           <t>688317.SH; 之江生物; 4;  11:17:41; 首板涨停; 23.22;  11:11:08; 20.0%; 1; 分子诊断+类器官芯片进展+股份回购</t>
         </is>
       </c>
+      <c r="EA5" t="inlineStr">
+        <is>
+          <t>300644.SZ; 南京聚隆; 0;  10:29:09; 首板涨停; 33.59;  10:29:09; 20.0%; 1; 人形机器人+PEEK材料+低空经济+分红</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -14312,6 +14367,11 @@
           <t>301388.SZ; 欣灵电气; 1;  14:03:27; 首板涨停; 42.13;  10:49:33; 20.0%; 1; 充电桩+光伏概念+低压电器</t>
         </is>
       </c>
+      <c r="EA6" t="inlineStr">
+        <is>
+          <t>300830.SZ; 金现代; 0;  11:15:54; 首板涨停; 11.52;  11:15:54; 20.0%; 1; 低代码平台+实验室管理系统+国家电网+AI应用</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -14715,6 +14775,11 @@
       <c r="DW7" t="inlineStr">
         <is>
           <t>836807.BJ; 奔朗新材; 1;  11:14:30; 首板涨停; 18.92;  11:11:30; 29.9%; 1; 稀土永磁+金刚石工具龙头</t>
+        </is>
+      </c>
+      <c r="EA7" t="inlineStr">
+        <is>
+          <t>688062.SH; 迈威生物; 5;  14:17:26; 首板涨停; 37.33;  13:46:11; 20.0%; 1; 创新药+BD落地+Nectin-4 ADC</t>
         </is>
       </c>
     </row>
@@ -16444,7 +16509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DZ178"/>
+  <dimension ref="A1:EA178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17098,6 +17163,11 @@
           <t>2025年07月16日</t>
         </is>
       </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月17日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -17718,6 +17788,11 @@
           <t>301183.SZ; 东田微; 2.2%; 12.0%; 75.61; 9.6%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="EA2" t="inlineStr">
+        <is>
+          <t>872392.BJ; 佳合科技; 1.8%; 12.8%; 25.97; 10.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -18298,6 +18373,11 @@
           <t>836892.BJ; 广咨国际; 1.8%; 13.9%; 22.39; 11.9%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EA3" t="inlineStr">
+        <is>
+          <t>300964.SZ; 本川智能; 1.1%; 12.9%; 48.48; 11.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -18833,6 +18913,11 @@
           <t>301265.SZ; 华新环保; 1.2%; 12.8%; 12.97; 11.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EA4" t="inlineStr">
+        <is>
+          <t>300683.SZ; 海特生物; 0.6%; 12.6%; 32.85; 11.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -19303,6 +19388,11 @@
           <t>300522.SZ; 世名科技; 0.8%; 14.3%; 16.57; 13.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EA5" t="inlineStr">
+        <is>
+          <t>301228.SZ; 实朴检测; 0.5%; 18.4%; 30.13; 17.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -19733,6 +19823,11 @@
           <t>300839.SZ; 博汇股份; 0.6%; 20.7%; 13.82; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EA6" t="inlineStr">
+        <is>
+          <t>688202.SH; 美迪西; 0.4%; 19.5%; 58.74; 19.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -20133,6 +20228,11 @@
           <t>300378.SZ; 鼎捷数智; 0.4%; 20.5%; 46.02; 20.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EA7" t="inlineStr">
+        <is>
+          <t>688658.SH; 悦康药业; 0.3%; 13.5%; 27.67; 13.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -20476,6 +20576,11 @@
       <c r="DT8" t="inlineStr">
         <is>
           <t>301217.SZ; 铜冠铜箔; 0.6%; 13.6%; 16.88; 12.9%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="EA8" t="inlineStr">
+        <is>
+          <t>301489.SZ; 思泉新材; 0.1%; 12.6%; 69.08; 12.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -23880,7 +23985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DZ21"/>
+  <dimension ref="A1:EA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24534,6 +24639,11 @@
           <t>2025年07月16日</t>
         </is>
       </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月17日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -25184,6 +25294,11 @@
           <t>300502.SZ; 新易盛; 169.8; 8.1%; 261990.0; 8</t>
         </is>
       </c>
+      <c r="EA2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 27.89; 20.0%; 423876.0; 3</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -25834,6 +25949,11 @@
           <t>688585.SH; 上纬新材; 23.24; 20.0%; 239994.5; 11</t>
         </is>
       </c>
+      <c r="EA3" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 183.5; 8.1%; 285187.0; 6</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -26484,6 +26604,11 @@
           <t>300436.SZ; 广生堂; 74.87; 16.5%; 214522.5; 17</t>
         </is>
       </c>
+      <c r="EA4" t="inlineStr">
+        <is>
+          <t>300830.SZ; 金现代; 11.52; 20.0%; 168335.5; 24</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -27134,6 +27259,11 @@
           <t>839680.BJ; *ST广道; 9.42; 29.9%; 166283.5; 27</t>
         </is>
       </c>
+      <c r="EA5" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 169.87; 9.6%; 157596.0; 29</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -27784,6 +27914,11 @@
           <t>300950.SZ; 德固特; 35.4; 20.0%; 139954.0; 37</t>
         </is>
       </c>
+      <c r="EA6" t="inlineStr">
+        <is>
+          <t>300339.SZ; 润和软件; 55.29; 9.7%; 122453.5; 45</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -28434,6 +28569,11 @@
           <t>301012.SZ; 扬电科技; 23.14; 20.0%; 135390.5; 38</t>
         </is>
       </c>
+      <c r="EA7" t="inlineStr">
+        <is>
+          <t>300344.SZ; ST立方; 5.75; 20.0%; 120534.5; 48</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -29084,6 +29224,11 @@
           <t>300344.SZ; ST立方; 4.79; 20.1%; 103618.5; 56</t>
         </is>
       </c>
+      <c r="EA8" t="inlineStr">
+        <is>
+          <t>300644.SZ; 南京聚隆; 33.59; 20.0%; 116694.5; 51</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -29734,6 +29879,11 @@
           <t>300308.SZ; 中际旭创; 170.76; -2.3%; 102010.0; 59</t>
         </is>
       </c>
+      <c r="EA9" t="inlineStr">
+        <is>
+          <t>301132.SZ; 满坤科技; 39.88; 20.0%; 102902.0; 58</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -30384,6 +30534,11 @@
           <t>300819.SZ; 聚杰微纤; 28.18; 20.0%; 91188.0; 69</t>
         </is>
       </c>
+      <c r="EA10" t="inlineStr">
+        <is>
+          <t>301217.SZ; 铜冠铜箔; 20.86; 13.4%; 100035.5; 60</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -31034,6 +31189,11 @@
           <t>300199.SZ; 翰宇药业; 19.43; 6.4%; 88923.0; 73</t>
         </is>
       </c>
+      <c r="EA11" t="inlineStr">
+        <is>
+          <t>688222.SH; 成都先导; 21.46; 20.0%; 78345.0; 77</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -31684,6 +31844,11 @@
           <t>300476.SZ; 胜宏科技; 155.03; -5.5%; 84252.5; 77</t>
         </is>
       </c>
+      <c r="EA12" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 176.85; 3.6%; 74433.0; 84</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -32334,6 +32499,11 @@
           <t>300357.SZ; 我武生物; 25; 15.9%; 67539.0; 100</t>
         </is>
       </c>
+      <c r="EA13" t="inlineStr">
+        <is>
+          <t>300878.SZ; 维康药业; 20.71; 20.0%; 72164.0; 88</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -32984,6 +33154,11 @@
           <t>300548.SZ; 长芯博创; 84.42; 8.7%; 63618.0; 111</t>
         </is>
       </c>
+      <c r="EA14" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 20.58; 10.8%; 70138.5; 91</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -33634,6 +33809,11 @@
           <t>300939.SZ; 秋田微; 33.33; 0.6%; 59530.0; 121</t>
         </is>
       </c>
+      <c r="EA15" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 23.6; 0.8%; 66003.0; 95</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -34284,6 +34464,11 @@
           <t>300059.SZ; 东方财富; 23.42; -0.5%; 57882.0; 128</t>
         </is>
       </c>
+      <c r="EA16" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 71.57; -4.4%; 59397.5; 108</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -34934,6 +35119,11 @@
           <t>300007.SZ; 汉威科技; 44.38; 6.4%; 57178.0; 131</t>
         </is>
       </c>
+      <c r="EA17" t="inlineStr">
+        <is>
+          <t>301236.SZ; 软通动力; 57.42; 7.6%; 54922.0; 119</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -35584,6 +35774,11 @@
           <t>300006.SZ; 莱美药业; 4.99; 8.5%; 54075.5; 138</t>
         </is>
       </c>
+      <c r="EA18" t="inlineStr">
+        <is>
+          <t>301012.SZ; 扬电科技; 25.4; 9.8%; 51744.0; 128</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -36234,6 +36429,11 @@
           <t>301183.SZ; 东田微; 75.61; 9.6%; 53262.0; 140</t>
         </is>
       </c>
+      <c r="EA19" t="inlineStr">
+        <is>
+          <t>300066.SZ; 三川智慧; 6.3; 5.9%; 49459.0; 132</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -36884,6 +37084,11 @@
           <t>300066.SZ; 三川智慧; 5.95; -7.2%; 53164.0; 141</t>
         </is>
       </c>
+      <c r="EA20" t="inlineStr">
+        <is>
+          <t>300950.SZ; 德固特; 33.9; -4.2%; 49092.0; 134</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -37532,6 +37737,11 @@
       <c r="DZ21" t="inlineStr">
         <is>
           <t>300226.SZ; 上海钢联; 29.56; -6.2%; 52925.0; 145</t>
+        </is>
+      </c>
+      <c r="EA21" t="inlineStr">
+        <is>
+          <t>300803.SZ; 指南针; 87.47; 3.5%; 48449.5; 136</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EA7"/>
+  <dimension ref="A1:EC7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1089,6 +1089,16 @@
           <t>2025年07月17日</t>
         </is>
       </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月18日</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1477,6 +1487,16 @@
       <c r="EA2" t="inlineStr">
         <is>
           <t>688585.SH; 上纬新材; 0;  09:25:01; 7天7板; 27.89;  09:25:01; 20.0%; 7; 智元机器人核心团队持股平台拟入主</t>
+        </is>
+      </c>
+      <c r="EB2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 0;  09:25:04; 8天8板; 33.47;  09:25:04; 20.0%; 8; 智元机器人核心团队持股平台拟入主</t>
+        </is>
+      </c>
+      <c r="EC2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 0;  09:25:01; 9天9板; 40.16;  09:25:01; 20.0%; 9; 智元机器人核心团队持股平台拟入主</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EA532"/>
+  <dimension ref="A1:EC532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2573,6 +2593,16 @@
       <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>2025年07月17日</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月18日</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月21日</t>
         </is>
       </c>
     </row>
@@ -7972,7 +8002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EA12"/>
+  <dimension ref="A1:EC12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8631,6 +8661,16 @@
           <t>2025年07月17日</t>
         </is>
       </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月18日</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9251,6 +9291,11 @@
           <t>300051.SZ; 琏升科技; 6;  09:33:09; 7.7; 曾涨停; 10.6%; 0.27H;  09:33:09|| 09:39:21|| 09:40:03|| 09:41:27|| 09:42:51|| 09:54:21</t>
         </is>
       </c>
+      <c r="EB2" t="inlineStr">
+        <is>
+          <t>300654.SZ; 世纪天鸿; 2;  09:37:39; 12.41; 曾涨停; 13.7%; 2.44H;  09:37:39|| 10:43:36</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9774,6 +9819,11 @@
       <c r="EA3" t="inlineStr">
         <is>
           <t>688520.SH; 神州细胞; 6;  14:48:56; 85.63; 曾涨停; 15.4%; 0.06H;  14:48:56|| 14:51:38|| 14:51:47|| 14:52:02|| 14:52:29|| 14:52:38</t>
+        </is>
+      </c>
+      <c r="EB3" t="inlineStr">
+        <is>
+          <t>688319.SH; 欧林生物; 1;  14:30:26; 21.61; 曾涨停; 18.9%; 0.02H;  14:30:26</t>
         </is>
       </c>
     </row>
@@ -10813,7 +10863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EA30"/>
+  <dimension ref="A1:EC30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11472,6 +11522,16 @@
           <t>2025年07月17日</t>
         </is>
       </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月18日</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -12122,6 +12182,16 @@
           <t>300878.SZ; 维康药业; 1;  09:45:51; 首板涨停; 20.71;  09:35:27; 20.0%; 1; 中药+创新药+黄甲软肝</t>
         </is>
       </c>
+      <c r="EB2" t="inlineStr">
+        <is>
+          <t>688350.SH; 富淼科技; 0;  09:49:32; 首板涨停; 19.78;  09:49:32; 20.0%; 1; 股份转让+战略合作+水溶性高分子</t>
+        </is>
+      </c>
+      <c r="EC2" t="inlineStr">
+        <is>
+          <t>300564.SZ; 筑博设计; 0;  09:25:00; 首板涨停; 17.38;  09:25:00; 20.0%; 1; 建筑设计+雨水回收+装配式建筑</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -12752,6 +12822,16 @@
           <t>301132.SZ; 满坤科技; 0;  10:14:15; 首板涨停; 39.88;  10:14:15; 20.0%; 1; PCB概念+无人驾驶+一季报增长</t>
         </is>
       </c>
+      <c r="EB3" t="inlineStr">
+        <is>
+          <t>300283.SZ; 温州宏丰; 0;  09:54:30; 首板涨停; 8.63;  09:54:30; 20.0%; 1; 数据中心+铜箔投产+一季报增长</t>
+        </is>
+      </c>
+      <c r="EC3" t="inlineStr">
+        <is>
+          <t>301151.SZ; 冠龙节能; 0;  09:25:00; 首板涨停; 21.3;  09:25:00; 20.0%; 1; 水利阀门+抽水蓄能+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -13347,6 +13427,16 @@
           <t>688222.SH; 成都先导; 6;  10:25:19; 首板涨停; 21.46;  09:52:49; 20.0%; 1; 创新药+AI医疗</t>
         </is>
       </c>
+      <c r="EB4" t="inlineStr">
+        <is>
+          <t>300631.SZ; 久吾高科; 0;  10:22:18; 首板涨停; 33.65;  10:22:18; 20.0%; 1; 盐湖提锂+稀土</t>
+        </is>
+      </c>
+      <c r="EC4" t="inlineStr">
+        <is>
+          <t>835174.BJ; 五新隧装; 0;  09:25:02; 首板涨停; 63.29;  09:25:02; 30.0%; 1; 雅下水电概念+水利水电智能装备+重大资产重组</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -13882,6 +13972,16 @@
           <t>300644.SZ; 南京聚隆; 0;  10:29:09; 首板涨停; 33.59;  10:29:09; 20.0%; 1; 人形机器人+PEEK材料+低空经济+分红</t>
         </is>
       </c>
+      <c r="EB5" t="inlineStr">
+        <is>
+          <t>300588.SZ; 熙菱信息; 0;  13:10:51; 首板涨停; 18.77;  13:10:51; 20.0%; 1; 网络安全+智慧政务+华为+新签增长</t>
+        </is>
+      </c>
+      <c r="EC5" t="inlineStr">
+        <is>
+          <t>688425.SH; 铁建重工; 0;  09:25:03; 首板涨停; 4.94;  09:25:03; 19.9%; 1; 隧道掘进机+水利水电+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -14372,6 +14472,16 @@
           <t>300830.SZ; 金现代; 0;  11:15:54; 首板涨停; 11.52;  11:15:54; 20.0%; 1; 低代码平台+实验室管理系统+国家电网+AI应用</t>
         </is>
       </c>
+      <c r="EB6" t="inlineStr">
+        <is>
+          <t>688660.SH; 电气风电; 0;  14:03:32; 首板涨停; 10.12;  14:03:32; 20.0%; 1; 上海微电子相关+风电+上海国资</t>
+        </is>
+      </c>
+      <c r="EC6" t="inlineStr">
+        <is>
+          <t>301038.SZ; 深水规院; 0;  09:32:12; 首板涨停; 19.32;  09:32:12; 20.0%; 1; 水务建设+AI水科技+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -14782,6 +14892,16 @@
           <t>688062.SH; 迈威生物; 5;  14:17:26; 首板涨停; 37.33;  13:46:11; 20.0%; 1; 创新药+BD落地+Nectin-4 ADC</t>
         </is>
       </c>
+      <c r="EB7" t="inlineStr">
+        <is>
+          <t>872392.BJ; 佳合科技; 1;  14:06:27; 首板涨停; 33.76;  14:05:48; 30.0%; 1; 业绩增长+国际拓展+认证体系</t>
+        </is>
+      </c>
+      <c r="EC7" t="inlineStr">
+        <is>
+          <t>830879.BJ; 基康技术; 4;  09:38:05; 首板涨停; 27.18;  09:25:02; 30.0%; 1; 雅下水电概念+水利+光纤传感器</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -15137,6 +15257,11 @@
           <t>300226.SZ; 上海钢联; 1;  11:28:06; 首板涨停; 28.21;  10:26:18; 20.0%; 1; 大宗商品数据+AI应用+上海本地股</t>
         </is>
       </c>
+      <c r="EC8" t="inlineStr">
+        <is>
+          <t>300865.SZ; 大宏立; 0;  09:41:18; 首板涨停; 36.54;  09:41:18; 20.0%; 1; 水利+西部大开发+一带一路</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -15412,6 +15537,11 @@
           <t>688656.SH; 浩欧博; 1;  14:56:52; 首板涨停; 156.47;  14:35:37; 20.0%; 1; 脱敏治疗创新药+体外诊断+控股股东变更</t>
         </is>
       </c>
+      <c r="EC9" t="inlineStr">
+        <is>
+          <t>836942.BJ; 恒立钻具; 1;  10:00:05; 首板涨停; 25.59;  09:49:02; 30.0%; 1; 盾构机+破岩工具+产能释放+海外拓展</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -15627,6 +15757,11 @@
           <t>688529.SH; 豪森智能; 0;  14:26:41; 首板涨停; 21.1;  14:26:41; 20.0%; 1; 人形机器人+智元合作+汽车行业动力总成+固态电池</t>
         </is>
       </c>
+      <c r="EC10" t="inlineStr">
+        <is>
+          <t>300617.SZ; 安靠智电; 4;  10:16:24; 首板涨停; 36.73;  09:59:06; 20.0%; 1; 特高压+GIL+数据中心</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -15802,6 +15937,11 @@
           <t>301217.SZ; 铜冠铜箔; 5;  14:50:15; 首板涨停; 20.26;  10:32:06; 20.0%; 1; 高频高速铜箔+固态电池+一季报扭亏+国企改革</t>
         </is>
       </c>
+      <c r="EC11" t="inlineStr">
+        <is>
+          <t>300808.SZ; 久量股份; 0;  10:16:30; 首板涨停; 35.94;  10:16:30; 20.0%; 1; LED照明+一带一路+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -15927,6 +16067,11 @@
           <t>300196.SZ; 长海股份; 0;  14:42:36; 首板涨停; 14.64;  14:42:36; 20.0%; 1; 玻璃玻纤+新能源汽车+一季报增长</t>
         </is>
       </c>
+      <c r="EC12" t="inlineStr">
+        <is>
+          <t>300722.SZ; 新余国科; 0;  10:49:33; 首板涨停; 41.05;  10:49:33; 20.0%; 1; 火工品+军工+国企</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -16017,6 +16162,11 @@
           <t>301357.SZ; 北方长龙; 1;  14:43:36; 首板涨停; 64.62;  10:45:48; 20.0%; 1; 军工+无人机+并购重组</t>
         </is>
       </c>
+      <c r="EC13" t="inlineStr">
+        <is>
+          <t>301161.SZ; 唯万密封; 1;  13:08:03; 首板涨停; 29.59;  13:05:27; 20.0%; 1; 工程机械+股权收购+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -16092,6 +16242,11 @@
           <t>301024.SZ; 霍普股份; 0;  13:00:03; 首板涨停; 37.97;  13:00:03; 20.0%; 1; RWA（区块链）+蚂蚁合作+建筑绿能</t>
         </is>
       </c>
+      <c r="EC14" t="inlineStr">
+        <is>
+          <t>300718.SZ; 长盛轴承; 8;  14:09:15; 首板涨停; 95.28;  09:44:00; 20.0%; 1; 机器人+自润滑轴承+业绩增长</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -16162,6 +16317,11 @@
           <t>688382.SH; 益方生物; 2;  13:10:18; 首板涨停; 29.1;  11:04:51; 20.0%; 1; 创新药+肿瘤+自身免疫性疾病</t>
         </is>
       </c>
+      <c r="EC15" t="inlineStr">
+        <is>
+          <t>873706.BJ; 铁拓机械; 1;  14:22:59; 首板涨停; 24.01;  14:17:41; 30.0%; 1; 沥青混合料搅拌设备+海外销售增长+俄罗斯市场</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -16222,6 +16382,11 @@
           <t>301095.SZ; 广立微; 0;  13:42:21; 首板涨停; 56.74;  13:42:21; 20.0%; 1; EDA+晶圆级测试设备+国家大基金持股</t>
         </is>
       </c>
+      <c r="EC16" t="inlineStr">
+        <is>
+          <t>300723.SZ; 一品红; 1;  14:48:42; 首板涨停; 80.53;  10:24:21; 20.0%; 1; 创新药+临床进展+儿童药</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -16267,6 +16432,11 @@
           <t>300169.SZ; 天晟新材; 5;  13:42:54; 首板涨停; 8.26;  13:00:33; 20.1%; 1; 参股券商（拟转让）+高分子发泡材料+军工</t>
         </is>
       </c>
+      <c r="EC17" t="inlineStr">
+        <is>
+          <t>688356.SH; 键凯科技; 0;  14:48:55; 首板涨停; 110.16;  14:48:55; 20.0%; 1; 医美器械+创新药+海外增长</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -16305,6 +16475,11 @@
       <c r="CS18" t="inlineStr">
         <is>
           <t>300796.SZ; 贝斯美; 3;  14:33:00; 首板涨停; 11.51;  14:17:57; 20.0%; 1; 农药+外销</t>
+        </is>
+      </c>
+      <c r="EC18" t="inlineStr">
+        <is>
+          <t>300683.SZ; 海特生物; 1;  14:56:51; 首板涨停; 37.92;  14:09:24; 20.0%; 1; 创新药+CAR-T研究+医保销售</t>
         </is>
       </c>
     </row>
@@ -16509,7 +16684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EA178"/>
+  <dimension ref="A1:EC178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17168,6 +17343,16 @@
           <t>2025年07月17日</t>
         </is>
       </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月18日</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -17793,6 +17978,16 @@
           <t>872392.BJ; 佳合科技; 1.8%; 12.8%; 25.97; 10.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EB2" t="inlineStr">
+        <is>
+          <t>688166.SH; 博瑞医药; 0.9%; 15.8%; 86.29; 14.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EC2" t="inlineStr">
+        <is>
+          <t>301201.SZ; 诚达药业; 1.5%; 12.5%; 29.25; 10.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -18376,6 +18571,16 @@
       <c r="EA3" t="inlineStr">
         <is>
           <t>300964.SZ; 本川智能; 1.1%; 12.9%; 48.48; 11.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EB3" t="inlineStr">
+        <is>
+          <t>301237.SZ; 和顺科技; 0.1%; 13.5%; 36.86; 13.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EC3" t="inlineStr">
+        <is>
+          <t>301538.SZ; 骏鼎达; 0.5%; 14.8%; 64.62; 14.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -23985,7 +24190,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EA21"/>
+  <dimension ref="A1:EC21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24644,6 +24849,16 @@
           <t>2025年07月17日</t>
         </is>
       </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月18日</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -25299,6 +25514,16 @@
           <t>688585.SH; 上纬新材; 27.89; 20.0%; 423876.0; 3</t>
         </is>
       </c>
+      <c r="EB2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 33.47; 20.0%; 355559.0; 2</t>
+        </is>
+      </c>
+      <c r="EC2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 40.16; 20.0%; 410436.5; 7</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -25954,6 +26179,16 @@
           <t>300502.SZ; 新易盛; 183.5; 8.1%; 285187.0; 6</t>
         </is>
       </c>
+      <c r="EB3" t="inlineStr">
+        <is>
+          <t>300631.SZ; 久吾高科; 33.65; 20.0%; 93519.0; 31</t>
+        </is>
+      </c>
+      <c r="EC3" t="inlineStr">
+        <is>
+          <t>300718.SZ; 长盛轴承; 95.28; 20.0%; 292156.5; 19</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -26609,6 +26844,16 @@
           <t>300830.SZ; 金现代; 11.52; 20.0%; 168335.5; 24</t>
         </is>
       </c>
+      <c r="EB4" t="inlineStr">
+        <is>
+          <t>300283.SZ; 温州宏丰; 8.63; 20.0%; 85107.5; 37</t>
+        </is>
+      </c>
+      <c r="EC4" t="inlineStr">
+        <is>
+          <t>688425.SH; 铁建重工; 4.94; 19.9%; 233797.5; 29</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -27264,6 +27509,16 @@
           <t>300476.SZ; 胜宏科技; 169.87; 9.6%; 157596.0; 29</t>
         </is>
       </c>
+      <c r="EB5" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 182.32; -0.6%; 84924.0; 38</t>
+        </is>
+      </c>
+      <c r="EC5" t="inlineStr">
+        <is>
+          <t>300722.SZ; 新余国科; 41.05; 20.0%; 167722.0; 51</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -27919,6 +28174,16 @@
           <t>300339.SZ; 润和软件; 55.29; 9.7%; 122453.5; 45</t>
         </is>
       </c>
+      <c r="EB6" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 162.07; -4.6%; 71245.0; 52</t>
+        </is>
+      </c>
+      <c r="EC6" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 23.35; -0.7%; 163407.0; 55</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -28574,6 +28839,16 @@
           <t>300344.SZ; ST立方; 5.75; 20.0%; 120534.5; 48</t>
         </is>
       </c>
+      <c r="EB7" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 180.62; 2.1%; 62855.0; 69</t>
+        </is>
+      </c>
+      <c r="EC7" t="inlineStr">
+        <is>
+          <t>835174.BJ; 五新隧装; 63.29; 30.0%; 162244.5; 56</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -29229,6 +29504,16 @@
           <t>300644.SZ; 南京聚隆; 33.59; 20.0%; 116694.5; 51</t>
         </is>
       </c>
+      <c r="EB8" t="inlineStr">
+        <is>
+          <t>688660.SH; 电气风电; 10.12; 20.0%; 61207.0; 73</t>
+        </is>
+      </c>
+      <c r="EC8" t="inlineStr">
+        <is>
+          <t>300564.SZ; 筑博设计; 17.38; 20.0%; 151387.0; 59</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -29884,6 +30169,16 @@
           <t>301132.SZ; 满坤科技; 39.88; 20.0%; 102902.0; 58</t>
         </is>
       </c>
+      <c r="EB9" t="inlineStr">
+        <is>
+          <t>300229.SZ; 拓尔思; 22.56; 6.9%; 56683.0; 88</t>
+        </is>
+      </c>
+      <c r="EC9" t="inlineStr">
+        <is>
+          <t>830879.BJ; 基康技术; 27.18; 30.0%; 151321.0; 60</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -30539,6 +30834,16 @@
           <t>301217.SZ; 铜冠铜箔; 20.86; 13.4%; 100035.5; 60</t>
         </is>
       </c>
+      <c r="EB10" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 23.52; -0.3%; 55736.5; 89</t>
+        </is>
+      </c>
+      <c r="EC10" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 187.95; 4.1%; 144510.5; 62</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -31194,6 +31499,16 @@
           <t>688222.SH; 成都先导; 21.46; 20.0%; 78345.0; 77</t>
         </is>
       </c>
+      <c r="EB11" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 44.6; 3.0%; 54172.0; 91</t>
+        </is>
+      </c>
+      <c r="EC11" t="inlineStr">
+        <is>
+          <t>301038.SZ; 深水规院; 19.32; 20.0%; 139933.0; 68</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -31849,6 +32164,16 @@
           <t>300308.SZ; 中际旭创; 176.85; 3.6%; 74433.0; 84</t>
         </is>
       </c>
+      <c r="EB12" t="inlineStr">
+        <is>
+          <t>300588.SZ; 熙菱信息; 18.77; 20.0%; 53313.5; 95</t>
+        </is>
+      </c>
+      <c r="EC12" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 178.26; -2.2%; 132200.0; 73</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -32504,6 +32829,16 @@
           <t>300878.SZ; 维康药业; 20.71; 20.0%; 72164.0; 88</t>
         </is>
       </c>
+      <c r="EB13" t="inlineStr">
+        <is>
+          <t>300654.SZ; 世纪天鸿; 12.41; 13.7%; 43050.0; 119</t>
+        </is>
+      </c>
+      <c r="EC13" t="inlineStr">
+        <is>
+          <t>300723.SZ; 一品红; 80.53; 20.0%; 131329.0; 74</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -33159,6 +33494,16 @@
           <t>300581.SZ; 晨曦航空; 20.58; 10.8%; 70138.5; 91</t>
         </is>
       </c>
+      <c r="EB14" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 46.22; 3.6%; 38354.0; 133</t>
+        </is>
+      </c>
+      <c r="EC14" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 50; 8.2%; 120584.0; 85</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -33814,6 +34159,16 @@
           <t>300059.SZ; 东方财富; 23.6; 0.8%; 66003.0; 95</t>
         </is>
       </c>
+      <c r="EB15" t="inlineStr">
+        <is>
+          <t>300066.SZ; 三川智慧; 6.51; 3.3%; 37322.0; 140</t>
+        </is>
+      </c>
+      <c r="EC15" t="inlineStr">
+        <is>
+          <t>301151.SZ; 冠龙节能; 21.3; 20.0%; 120556.0; 86</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -34469,6 +34824,16 @@
           <t>300436.SZ; 广生堂; 71.57; -4.4%; 59397.5; 108</t>
         </is>
       </c>
+      <c r="EB16" t="inlineStr">
+        <is>
+          <t>872392.BJ; 佳合科技; 33.76; 30.0%; 37139.0; 143</t>
+        </is>
+      </c>
+      <c r="EC16" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 41.05; -8.0%; 110416.5; 95</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -35124,6 +35489,16 @@
           <t>301236.SZ; 软通动力; 57.42; 7.6%; 54922.0; 119</t>
         </is>
       </c>
+      <c r="EB17" t="inlineStr">
+        <is>
+          <t>301265.SZ; 华新环保; 13.53; 15.1%; 36068.0; 144</t>
+        </is>
+      </c>
+      <c r="EC17" t="inlineStr">
+        <is>
+          <t>301161.SZ; 唯万密封; 29.59; 20.0%; 101099.5; 107</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -35779,6 +36154,16 @@
           <t>301012.SZ; 扬电科技; 25.4; 9.8%; 51744.0; 128</t>
         </is>
       </c>
+      <c r="EB18" t="inlineStr">
+        <is>
+          <t>300718.SZ; 长盛轴承; 79.4; -1.0%; 33387.5; 157</t>
+        </is>
+      </c>
+      <c r="EC18" t="inlineStr">
+        <is>
+          <t>300865.SZ; 大宏立; 36.54; 20.0%; 92619.5; 116</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -36434,6 +36819,16 @@
           <t>300066.SZ; 三川智慧; 6.3; 5.9%; 49459.0; 132</t>
         </is>
       </c>
+      <c r="EB19" t="inlineStr">
+        <is>
+          <t>301217.SZ; 铜冠铜箔; 21.52; 3.2%; 32920.5; 160</t>
+        </is>
+      </c>
+      <c r="EC19" t="inlineStr">
+        <is>
+          <t>300617.SZ; 安靠智电; 36.73; 20.0%; 87380.5; 131</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -37089,6 +37484,16 @@
           <t>300950.SZ; 德固特; 33.9; -4.2%; 49092.0; 134</t>
         </is>
       </c>
+      <c r="EB20" t="inlineStr">
+        <is>
+          <t>300748.SZ; 金力永磁; 26.73; 4.0%; 32332.0; 161</t>
+        </is>
+      </c>
+      <c r="EC20" t="inlineStr">
+        <is>
+          <t>836942.BJ; 恒立钻具; 25.59; 30.0%; 85017.5; 138</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -37742,6 +38147,16 @@
       <c r="EA21" t="inlineStr">
         <is>
           <t>300803.SZ; 指南针; 87.47; 3.5%; 48449.5; 136</t>
+        </is>
+      </c>
+      <c r="EB21" t="inlineStr">
+        <is>
+          <t>300339.SZ; 润和软件; 54.03; -2.3%; 32135.5; 163</t>
+        </is>
+      </c>
+      <c r="EC21" t="inlineStr">
+        <is>
+          <t>873706.BJ; 铁拓机械; 24.01; 30.0%; 83490.0; 142</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EC7"/>
+  <dimension ref="A1:ED13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1099,6 +1099,11 @@
           <t>2025年07月21日</t>
         </is>
       </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月22日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1499,6 +1504,11 @@
           <t>688585.SH; 上纬新材; 0;  09:25:01; 9天9板; 40.16;  09:25:01; 20.0%; 9; 智元机器人核心团队持股平台拟入主</t>
         </is>
       </c>
+      <c r="ED2" t="inlineStr">
+        <is>
+          <t>300564.SZ; 筑博设计; 0;  09:25:00; 2天2板; 20.86;  09:25:00; 20.0%; 2; 建筑设计+雨水回收+装配式建筑</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1719,6 +1729,11 @@
           <t>300950.SZ; 德固特; 1;  10:54:03; 3天2板; 35.4;  10:02:18; 20.0%; 1; AI智能体+并购重组+节能环保</t>
         </is>
       </c>
+      <c r="ED3" t="inlineStr">
+        <is>
+          <t>836942.BJ; 恒立钻具; 0;  09:25:00; 2天2板; 33.26;  09:25:00; 30.0%; 2; 盾构机+破岩工具+产能释放+海外拓展</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1829,6 +1844,11 @@
           <t>300778.SZ; 新城市; 4;  14:47:09; 2天2板; 21.43;  13:57:48; 20.0%; 2; 新型城镇化+应急防灾+低空经济+一季报增长</t>
         </is>
       </c>
+      <c r="ED4" t="inlineStr">
+        <is>
+          <t>688425.SH; 铁建重工; 0;  09:25:02; 2天2板; 5.93;  09:25:02; 20.0%; 2; 隧道掘进机+水利水电+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1884,6 +1904,11 @@
           <t>300600.SZ; 国瑞科技; 0;  14:38:57; 4天3板; 15.55;  14:38:57; 20.0%; 1; 摘帽+军工+新能源船舶+核电+国企</t>
         </is>
       </c>
+      <c r="ED5" t="inlineStr">
+        <is>
+          <t>301161.SZ; 唯万密封; 0;  09:30:00; 2天2板; 35.51;  09:30:00; 20.0%; 2; 液压气动密封+工程机械+机器人概念+股权收购</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1914,6 +1939,11 @@
           <t>301459.SZ; 丰茂股份; 2;  14:55:09; 2天2板; 51.2;  14:29:25; -2.2%; 2; 汽车零部件+比亚迪概念+橡胶</t>
         </is>
       </c>
+      <c r="ED6" t="inlineStr">
+        <is>
+          <t>301151.SZ; 冠龙节能; 1;  09:30:15; 2天2板; 25.56;  09:25:00; 20.0%; 2; 水利阀门+抽水蓄能+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1922,6 +1952,71 @@
       <c r="W7" t="inlineStr">
         <is>
           <t>688023.SH; 安恒信息; 10;  14:54:48; 4天3板; 48.13;  13:06:09; -2.6%; 1; DeepSeek概念+网络安全+华为昇腾+参股数据交易中心</t>
+        </is>
+      </c>
+      <c r="ED7" t="inlineStr">
+        <is>
+          <t>300865.SZ; 大宏立; 0;  09:34:39; 2天2板; 43.85;  09:34:39; 20.0%; 2; 基建+水利+西部大开发+一带一路</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="ED8" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 1;  09:36:28; 10天10板; 48.19;  09:33:07; 20.0%; 10; 智元机器人核心团队持股平台拟入主</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="ED9" t="inlineStr">
+        <is>
+          <t>835174.BJ; 五新隧装; 3;  09:52:39; 2天2板; 82.27;  09:25:00; 30.0%; 2; 水利水电装备+重大重组</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="ED10" t="inlineStr">
+        <is>
+          <t>301038.SZ; 深水规院; 2;  09:59:24; 2天2板; 23.18;  09:31:27; 20.0%; 2; 水务建设+AI水科技+深圳国资</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="ED11" t="inlineStr">
+        <is>
+          <t>830879.BJ; 基康技术; 5;  10:06:06; 2天2板; 35.33;  09:31:54; 30.0%; 2; 雅下水电概念+光纤传感器+一季报增长</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="ED12" t="inlineStr">
+        <is>
+          <t>873706.BJ; 铁拓机械; 3;  14:21:24; 2天2板; 31.21;  13:01:27; 30.0%; 2; 沥青混合料搅拌设备+海外销售增长+俄罗斯市场</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="ED13" t="inlineStr">
+        <is>
+          <t>300617.SZ; 安靠智电; 0;  14:31:54; 2天2板; 44.08;  14:31:54; 20.0%; 2; 特高压+GIL+数据中心</t>
         </is>
       </c>
     </row>
@@ -1936,7 +2031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EC532"/>
+  <dimension ref="A1:ED532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2603,6 +2698,11 @@
       <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>2025年07月21日</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月22日</t>
         </is>
       </c>
     </row>
@@ -8002,7 +8102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EC12"/>
+  <dimension ref="A1:ED12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8671,6 +8771,11 @@
           <t>2025年07月21日</t>
         </is>
       </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月22日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9296,6 +9401,11 @@
           <t>300654.SZ; 世纪天鸿; 2;  09:37:39; 12.41; 曾涨停; 13.7%; 2.44H;  09:37:39|| 10:43:36</t>
         </is>
       </c>
+      <c r="ED2" t="inlineStr">
+        <is>
+          <t>688155.SH; 先惠技术; 1;  10:34:32; 57.98; 曾涨停; 15.5%; 0.04H;  10:34:32</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9824,6 +9934,11 @@
       <c r="EB3" t="inlineStr">
         <is>
           <t>688319.SH; 欧林生物; 1;  14:30:26; 21.61; 曾涨停; 18.9%; 0.02H;  14:30:26</t>
+        </is>
+      </c>
+      <c r="ED3" t="inlineStr">
+        <is>
+          <t>300635.SZ; 中达安; 1;  14:40:54; 14.3; 曾涨停; 14.6%; 0.05H;  14:40:54</t>
         </is>
       </c>
     </row>
@@ -10863,7 +10978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EC30"/>
+  <dimension ref="A1:ED30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11532,6 +11647,11 @@
           <t>2025年07月21日</t>
         </is>
       </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月22日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -12192,6 +12312,11 @@
           <t>300564.SZ; 筑博设计; 0;  09:25:00; 首板涨停; 17.38;  09:25:00; 20.0%; 1; 建筑设计+雨水回收+装配式建筑</t>
         </is>
       </c>
+      <c r="ED2" t="inlineStr">
+        <is>
+          <t>300095.SZ; 华伍股份; 2;  09:46:21; 首板涨停; 12.73;  09:36:15; 20.0%; 1; 水利+工业制动器+航空装备+国际化拓展</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -12832,6 +12957,11 @@
           <t>301151.SZ; 冠龙节能; 0;  09:25:00; 首板涨停; 21.3;  09:25:00; 20.0%; 1; 水利阀门+抽水蓄能+一季报增长</t>
         </is>
       </c>
+      <c r="ED3" t="inlineStr">
+        <is>
+          <t>688662.SH; 富信科技; 5;  09:56:42; 首板涨停; 45.89;  09:35:18; 20.0%; 1; Micro TEC批量供货+高速光模块+半导体制冷</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -13437,6 +13567,11 @@
           <t>835174.BJ; 五新隧装; 0;  09:25:02; 首板涨停; 63.29;  09:25:02; 30.0%; 1; 雅下水电概念+水利水电智能装备+重大资产重组</t>
         </is>
       </c>
+      <c r="ED4" t="inlineStr">
+        <is>
+          <t>300215.SZ; 电科院; 0;  10:52:36; 首板涨停; 7.04;  10:52:36; 19.9%; 1; 新能源检测+特高压</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -13982,6 +14117,11 @@
           <t>688425.SH; 铁建重工; 0;  09:25:03; 首板涨停; 4.94;  09:25:03; 19.9%; 1; 隧道掘进机+水利水电+国企改革</t>
         </is>
       </c>
+      <c r="ED5" t="inlineStr">
+        <is>
+          <t>300411.SZ; 金盾股份; 0;  11:13:42; 首板涨停; 16.08;  11:13:42; 20.0%; 1; 通风系统+核电+低空经济</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -14482,6 +14622,11 @@
           <t>301038.SZ; 深水规院; 0;  09:32:12; 首板涨停; 19.32;  09:32:12; 20.0%; 1; 水务建设+AI水科技+国企改革</t>
         </is>
       </c>
+      <c r="ED6" t="inlineStr">
+        <is>
+          <t>834950.BJ; 迅安科技; 0;  13:00:15; 首板涨停; 25.63;  13:00:15; 30.0%; 1; 个人防护装备+外销+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -14902,6 +15047,11 @@
           <t>830879.BJ; 基康技术; 4;  09:38:05; 首板涨停; 27.18;  09:25:02; 30.0%; 1; 雅下水电概念+水利+光纤传感器</t>
         </is>
       </c>
+      <c r="ED7" t="inlineStr">
+        <is>
+          <t>300021.SZ; 大禹节水; 0;  13:01:33; 首板涨停; 5.83;  13:01:33; 20.0%; 1; 水利+西藏项目积累</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -15260,6 +15410,11 @@
       <c r="EC8" t="inlineStr">
         <is>
           <t>300865.SZ; 大宏立; 0;  09:41:18; 首板涨停; 36.54;  09:41:18; 20.0%; 1; 水利+西部大开发+一带一路</t>
+        </is>
+      </c>
+      <c r="ED8" t="inlineStr">
+        <is>
+          <t>920082.BJ; 方正阀门; 0;  13:14:30; 首板涨停; 27.44;  13:14:30; 30.0%; 1; 工业阀门+天然气+海工装备+次新股</t>
         </is>
       </c>
     </row>
@@ -16684,7 +16839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EC178"/>
+  <dimension ref="A1:ED178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17353,6 +17508,11 @@
           <t>2025年07月21日</t>
         </is>
       </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月22日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -17988,6 +18148,11 @@
           <t>301201.SZ; 诚达药业; 1.5%; 12.5%; 29.25; 10.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="ED2" t="inlineStr">
+        <is>
+          <t>833873.BJ; 中设咨询; 4.7%; 25.4%; 11.52; 19.5%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -18583,6 +18748,11 @@
           <t>301538.SZ; 骏鼎达; 0.5%; 14.8%; 64.62; 14.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="ED3" t="inlineStr">
+        <is>
+          <t>920682.BJ; 球冠电缆; 1.9%; 23.3%; 12.9; 21.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -19121,6 +19291,11 @@
       <c r="EA4" t="inlineStr">
         <is>
           <t>300683.SZ; 海特生物; 0.6%; 12.6%; 32.85; 11.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="ED4" t="inlineStr">
+        <is>
+          <t>871245.BJ; 威博液压; 0.1%; 13.2%; 40.54; 13.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -24190,7 +24365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EC21"/>
+  <dimension ref="A1:ED21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24859,6 +25034,11 @@
           <t>2025年07月21日</t>
         </is>
       </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月22日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -25524,6 +25704,11 @@
           <t>688585.SH; 上纬新材; 40.16; 20.0%; 410436.5; 7</t>
         </is>
       </c>
+      <c r="ED2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 48.19; 20.0%; 382258.0; 8</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -26189,6 +26374,11 @@
           <t>300718.SZ; 长盛轴承; 95.28; 20.0%; 292156.5; 19</t>
         </is>
       </c>
+      <c r="ED3" t="inlineStr">
+        <is>
+          <t>301328.SZ; 维峰电子; 42.8; -1.2%; 270192.0; 14</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -26854,6 +27044,11 @@
           <t>688425.SH; 铁建重工; 4.94; 19.9%; 233797.5; 29</t>
         </is>
       </c>
+      <c r="ED4" t="inlineStr">
+        <is>
+          <t>835174.BJ; 五新隧装; 82.27; 30.0%; 222709.5; 19</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -27519,6 +27714,11 @@
           <t>300722.SZ; 新余国科; 41.05; 20.0%; 167722.0; 51</t>
         </is>
       </c>
+      <c r="ED5" t="inlineStr">
+        <is>
+          <t>688425.SH; 铁建重工; 5.93; 20.0%; 215898.5; 22</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -28184,6 +28384,11 @@
           <t>300059.SZ; 东方财富; 23.35; -0.7%; 163407.0; 55</t>
         </is>
       </c>
+      <c r="ED6" t="inlineStr">
+        <is>
+          <t>300411.SZ; 金盾股份; 16.08; 20.0%; 196491.5; 28</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -28849,6 +29054,11 @@
           <t>835174.BJ; 五新隧装; 63.29; 30.0%; 162244.5; 56</t>
         </is>
       </c>
+      <c r="ED7" t="inlineStr">
+        <is>
+          <t>300021.SZ; 大禹节水; 5.83; 20.0%; 169338.5; 36</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -29514,6 +29724,11 @@
           <t>300564.SZ; 筑博设计; 17.38; 20.0%; 151387.0; 59</t>
         </is>
       </c>
+      <c r="ED8" t="inlineStr">
+        <is>
+          <t>301038.SZ; 深水规院; 23.18; 20.0%; 151055.0; 44</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -30179,6 +30394,11 @@
           <t>830879.BJ; 基康技术; 27.18; 30.0%; 151321.0; 60</t>
         </is>
       </c>
+      <c r="ED9" t="inlineStr">
+        <is>
+          <t>300564.SZ; 筑博设计; 20.86; 20.0%; 125081.0; 60</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -30844,6 +31064,11 @@
           <t>300308.SZ; 中际旭创; 187.95; 4.1%; 144510.5; 62</t>
         </is>
       </c>
+      <c r="ED10" t="inlineStr">
+        <is>
+          <t>300617.SZ; 安靠智电; 44.08; 20.0%; 101974.5; 80</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -31509,6 +31734,11 @@
           <t>301038.SZ; 深水规院; 19.32; 20.0%; 139933.0; 68</t>
         </is>
       </c>
+      <c r="ED11" t="inlineStr">
+        <is>
+          <t>300095.SZ; 华伍股份; 12.73; 20.0%; 97431.0; 84</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -32174,6 +32404,11 @@
           <t>300502.SZ; 新易盛; 178.26; -2.2%; 132200.0; 73</t>
         </is>
       </c>
+      <c r="ED12" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 23.54; 0.8%; 94305.5; 88</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -32839,6 +33074,11 @@
           <t>300723.SZ; 一品红; 80.53; 20.0%; 131329.0; 74</t>
         </is>
       </c>
+      <c r="ED13" t="inlineStr">
+        <is>
+          <t>300527.SZ; 中船应急; 12.22; 10.4%; 94019.0; 90</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -33504,6 +33744,11 @@
           <t>300204.SZ; 舒泰神; 50; 8.2%; 120584.0; 85</t>
         </is>
       </c>
+      <c r="ED14" t="inlineStr">
+        <is>
+          <t>301161.SZ; 唯万密封; 35.51; 20.0%; 87538.0; 102</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -34169,6 +34414,11 @@
           <t>301151.SZ; 冠龙节能; 21.3; 20.0%; 120556.0; 86</t>
         </is>
       </c>
+      <c r="ED15" t="inlineStr">
+        <is>
+          <t>300865.SZ; 大宏立; 43.85; 20.0%; 80762.5; 108</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -34834,6 +35084,11 @@
           <t>300468.SZ; 四方精创; 41.05; -8.0%; 110416.5; 95</t>
         </is>
       </c>
+      <c r="ED16" t="inlineStr">
+        <is>
+          <t>301151.SZ; 冠龙节能; 25.56; 20.0%; 73878.5; 118</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -35499,6 +35754,11 @@
           <t>301161.SZ; 唯万密封; 29.59; 20.0%; 101099.5; 107</t>
         </is>
       </c>
+      <c r="ED17" t="inlineStr">
+        <is>
+          <t>300718.SZ; 长盛轴承; 97.82; 2.7%; 73752.5; 119</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -36164,6 +36424,11 @@
           <t>300865.SZ; 大宏立; 36.54; 20.0%; 92619.5; 116</t>
         </is>
       </c>
+      <c r="ED18" t="inlineStr">
+        <is>
+          <t>830879.BJ; 基康技术; 35.33; 30.0%; 71262.0; 127</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -36829,6 +37094,11 @@
           <t>300617.SZ; 安靠智电; 36.73; 20.0%; 87380.5; 131</t>
         </is>
       </c>
+      <c r="ED19" t="inlineStr">
+        <is>
+          <t>836942.BJ; 恒立钻具; 33.26; 30.0%; 65524.5; 142</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -37494,6 +37764,11 @@
           <t>836942.BJ; 恒立钻具; 25.59; 30.0%; 85017.5; 138</t>
         </is>
       </c>
+      <c r="ED20" t="inlineStr">
+        <is>
+          <t>300722.SZ; 新余国科; 42.86; 4.4%; 64515.0; 144</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -38157,6 +38432,11 @@
       <c r="EC21" t="inlineStr">
         <is>
           <t>873706.BJ; 铁拓机械; 24.01; 30.0%; 83490.0; 142</t>
+        </is>
+      </c>
+      <c r="ED21" t="inlineStr">
+        <is>
+          <t>300284.SZ; 苏交科; 10.19; 4.9%; 62561.0; 152</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ED13"/>
+  <dimension ref="A1:EE13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1104,6 +1104,11 @@
           <t>2025年07月22日</t>
         </is>
       </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月23日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1509,6 +1514,11 @@
           <t>300564.SZ; 筑博设计; 0;  09:25:00; 2天2板; 20.86;  09:25:00; 20.0%; 2; 建筑设计+雨水回收+装配式建筑</t>
         </is>
       </c>
+      <c r="EE2" t="inlineStr">
+        <is>
+          <t>836942.BJ; 恒立钻具; 0;  09:25:00; 3天3板; 43.23;  09:25:00; 30.0%; 3; 盾构机+破岩工具+产能释放+海外拓展</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1734,6 +1744,11 @@
           <t>836942.BJ; 恒立钻具; 0;  09:25:00; 2天2板; 33.26;  09:25:00; 30.0%; 2; 盾构机+破岩工具+产能释放+海外拓展</t>
         </is>
       </c>
+      <c r="EE3" t="inlineStr">
+        <is>
+          <t>688425.SH; 铁建重工; 0;  09:25:01; 3天3板; 7.12;  09:25:01; 20.1%; 3; 水利水电+雅下水电概念+隧道掘进机+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1849,6 +1864,11 @@
           <t>688425.SH; 铁建重工; 0;  09:25:02; 2天2板; 5.93;  09:25:02; 20.0%; 2; 隧道掘进机+水利水电+国企改革</t>
         </is>
       </c>
+      <c r="EE4" t="inlineStr">
+        <is>
+          <t>301038.SZ; 深水规院; 1;  09:34:18; 3天3板; 27.82;  09:32:45; 20.0%; 3; 水务建设+AI水科技+深圳国资</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1907,6 +1927,11 @@
       <c r="ED5" t="inlineStr">
         <is>
           <t>301161.SZ; 唯万密封; 0;  09:30:00; 2天2板; 35.51;  09:30:00; 20.0%; 2; 液压气动密封+工程机械+机器人概念+股权收购</t>
+        </is>
+      </c>
+      <c r="EE5" t="inlineStr">
+        <is>
+          <t>300564.SZ; 筑博设计; 2;  14:38:12; 3天3板; 25.03;  09:32:51; 20.0%; 3; 建筑设计+雨水回收+装配式建筑</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2056,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ED532"/>
+  <dimension ref="A1:EE532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2703,6 +2728,11 @@
       <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>2025年07月22日</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月23日</t>
         </is>
       </c>
     </row>
@@ -8102,7 +8132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ED12"/>
+  <dimension ref="A1:EE12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8776,6 +8806,11 @@
           <t>2025年07月22日</t>
         </is>
       </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月23日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9406,6 +9441,11 @@
           <t>688155.SH; 先惠技术; 1;  10:34:32; 57.98; 曾涨停; 15.5%; 0.04H;  10:34:32</t>
         </is>
       </c>
+      <c r="EE2" t="inlineStr">
+        <is>
+          <t>300865.SZ; 大宏立; 1;  09:30:30; 43.33; 曾涨停; -1.2%; 0.38H;  09:30:30</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9941,6 +9981,11 @@
           <t>300635.SZ; 中达安; 1;  14:40:54; 14.3; 曾涨停; 14.6%; 0.05H;  14:40:54</t>
         </is>
       </c>
+      <c r="EE3" t="inlineStr">
+        <is>
+          <t>835857.BJ; 百甲科技; 1;  09:50:12; 9.56; 曾涨停; 17.2%; 0.31H;  09:50:12</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -10321,6 +10366,11 @@
           <t>300522.SZ; 世名科技; 1;  13:08:27; 16.57; 曾涨停; 13.3%; 0.21H;  13:08:27</t>
         </is>
       </c>
+      <c r="EE4" t="inlineStr">
+        <is>
+          <t>300881.SZ; 盛德鑫泰; 4;  09:50:39; 42.01; 曾涨停; 10.0%; 0.05H;  09:50:39|| 09:52:33|| 09:52:57|| 09:54:24</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -10566,6 +10616,11 @@
           <t>301183.SZ; 东田微; 1;  13:11:39; 69; 曾涨停; 13.9%; 0.29H;  13:11:39</t>
         </is>
       </c>
+      <c r="EE5" t="inlineStr">
+        <is>
+          <t>300595.SZ; 欧普康视; 1;  11:04:33; 18.26; 曾涨停; 14.1%; 0.18H;  11:04:33</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -10746,6 +10801,11 @@
           <t>301159.SZ; 三维天地; 3;  13:10:12; 38.33; 曾涨停; 16.2%; 0.27H;  13:10:12|| 13:27:45|| 13:50:27</t>
         </is>
       </c>
+      <c r="EE6" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 7;  11:06:05; 57.7; 曾涨停; 19.7%; 0.06H;  11:06:05|| 11:08:05|| 11:08:56|| 11:09:02|| 11:09:23|| 11:10:17|| 11:11:17</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -10836,6 +10896,11 @@
           <t>300546.SZ; 雄帝科技; 1;  14:18:30; 32.1; 曾涨停; 14.8%; 0.01H;  14:18:30</t>
         </is>
       </c>
+      <c r="EE7" t="inlineStr">
+        <is>
+          <t>688316.SH; 青云科技; 1;  13:00:29; 82.2; 曾涨停; 15.1%; 0.00H;  13:00:29</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -10884,6 +10949,11 @@
       <c r="CY8" t="inlineStr">
         <is>
           <t>300834.SZ; 星辉环材; 1;  11:11:18; 24.38; 曾涨停; 14.0%; 0.02H;  11:11:18</t>
+        </is>
+      </c>
+      <c r="EE8" t="inlineStr">
+        <is>
+          <t>688660.SH; 电气风电; 1;  13:32:25; 13.15; 曾涨停; 19.9%; 0.04H;  13:32:25</t>
         </is>
       </c>
     </row>
@@ -10978,7 +11048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ED30"/>
+  <dimension ref="A1:EE30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11652,6 +11722,11 @@
           <t>2025年07月22日</t>
         </is>
       </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月23日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -12317,6 +12392,11 @@
           <t>300095.SZ; 华伍股份; 2;  09:46:21; 首板涨停; 12.73;  09:36:15; 20.0%; 1; 水利+工业制动器+航空装备+国际化拓展</t>
         </is>
       </c>
+      <c r="EE2" t="inlineStr">
+        <is>
+          <t>300877.SZ; 金春股份; 0;  10:20:12; 首板涨停; 20.93;  10:20:12; 20.0%; 1; 非织造布材料+储能+可降解</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -12962,6 +13042,11 @@
           <t>688662.SH; 富信科技; 5;  09:56:42; 首板涨停; 45.89;  09:35:18; 20.0%; 1; Micro TEC批量供货+高速光模块+半导体制冷</t>
         </is>
       </c>
+      <c r="EE3" t="inlineStr">
+        <is>
+          <t>300955.SZ; 嘉亨家化; 3;  14:48:09; 首板涨停; 22.85;  14:04:57; 20.0%; 1; 驱蚊+日化产品+三胎概念+塑料包装</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -13570,6 +13655,11 @@
       <c r="ED4" t="inlineStr">
         <is>
           <t>300215.SZ; 电科院; 0;  10:52:36; 首板涨停; 7.04;  10:52:36; 19.9%; 1; 新能源检测+特高压</t>
+        </is>
+      </c>
+      <c r="EE4" t="inlineStr">
+        <is>
+          <t>300158.SZ; 振东制药; 0;  14:50:06; 首板涨停; 5.89;  14:50:06; 20.0%; 1; 创新药+仲裁解决+新品推广</t>
         </is>
       </c>
     </row>
@@ -16839,7 +16929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ED178"/>
+  <dimension ref="A1:EE178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17513,6 +17603,11 @@
           <t>2025年07月22日</t>
         </is>
       </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月23日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -18153,6 +18248,11 @@
           <t>833873.BJ; 中设咨询; 4.7%; 25.4%; 11.52; 19.5%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EE2" t="inlineStr">
+        <is>
+          <t>300683.SZ; 海特生物; 5.5%; 13.4%; 43.75; 7.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -18753,6 +18853,11 @@
           <t>920682.BJ; 球冠电缆; 1.9%; 23.3%; 12.9; 21.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EE3" t="inlineStr">
+        <is>
+          <t>688316.SH; 青云科技; 2.5%; 18.0%; 82.2; 15.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -19298,6 +19403,11 @@
           <t>871245.BJ; 威博液压; 0.1%; 13.2%; 40.54; 13.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EE4" t="inlineStr">
+        <is>
+          <t>872392.BJ; 佳合科技; 2.0%; 12.2%; 32.76; 9.9%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -19773,6 +19883,11 @@
           <t>301228.SZ; 实朴检测; 0.5%; 18.4%; 30.13; 17.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EE5" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 1.4%; 21.5%; 57.7; 19.7%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -20208,6 +20323,11 @@
           <t>688202.SH; 美迪西; 0.4%; 19.5%; 58.74; 19.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EE6" t="inlineStr">
+        <is>
+          <t>300885.SZ; 海昌新材; 1.3%; 12.5%; 17.76; 11.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -20613,6 +20733,11 @@
           <t>688658.SH; 悦康药业; 0.3%; 13.5%; 27.67; 13.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EE7" t="inlineStr">
+        <is>
+          <t>300158.SZ; 振东制药; 0.4%; 20.4%; 5.89; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -20961,6 +21086,11 @@
       <c r="EA8" t="inlineStr">
         <is>
           <t>301489.SZ; 思泉新材; 0.1%; 12.6%; 69.08; 12.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EE8" t="inlineStr">
+        <is>
+          <t>300955.SZ; 嘉亨家化; 0.2%; 20.2%; 22.85; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -24365,7 +24495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ED21"/>
+  <dimension ref="A1:EE21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25039,6 +25169,11 @@
           <t>2025年07月22日</t>
         </is>
       </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月23日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -25709,6 +25844,11 @@
           <t>688585.SH; 上纬新材; 48.19; 20.0%; 382258.0; 8</t>
         </is>
       </c>
+      <c r="EE2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 57.7; 19.7%; 309221.0; 8</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -26379,6 +26519,11 @@
           <t>301328.SZ; 维峰电子; 42.8; -1.2%; 270192.0; 14</t>
         </is>
       </c>
+      <c r="EE3" t="inlineStr">
+        <is>
+          <t>301609.SZ; 山大电力; 66.85; 356.0%; 204961.0; 20</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -27049,6 +27194,11 @@
           <t>835174.BJ; 五新隧装; 82.27; 30.0%; 222709.5; 19</t>
         </is>
       </c>
+      <c r="EE4" t="inlineStr">
+        <is>
+          <t>301038.SZ; 深水规院; 27.82; 20.0%; 176324.5; 25</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -27719,6 +27869,11 @@
           <t>688425.SH; 铁建重工; 5.93; 20.0%; 215898.5; 22</t>
         </is>
       </c>
+      <c r="EE5" t="inlineStr">
+        <is>
+          <t>688425.SH; 铁建重工; 7.12; 20.1%; 158566.0; 30</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -28389,6 +28544,11 @@
           <t>300411.SZ; 金盾股份; 16.08; 20.0%; 196491.5; 28</t>
         </is>
       </c>
+      <c r="EE6" t="inlineStr">
+        <is>
+          <t>300021.SZ; 大禹节水; 6.61; 13.4%; 143408.0; 34</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -29059,6 +29219,11 @@
           <t>300021.SZ; 大禹节水; 5.83; 20.0%; 169338.5; 36</t>
         </is>
       </c>
+      <c r="EE7" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 23.71; 0.7%; 122475.0; 47</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -29729,6 +29894,11 @@
           <t>301038.SZ; 深水规院; 23.18; 20.0%; 151055.0; 44</t>
         </is>
       </c>
+      <c r="EE8" t="inlineStr">
+        <is>
+          <t>300158.SZ; 振东制药; 5.89; 20.0%; 102587.0; 62</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -30399,6 +30569,11 @@
           <t>300564.SZ; 筑博设计; 20.86; 20.0%; 125081.0; 60</t>
         </is>
       </c>
+      <c r="EE9" t="inlineStr">
+        <is>
+          <t>300564.SZ; 筑博设计; 25.03; 20.0%; 83464.0; 87</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -31069,6 +31244,11 @@
           <t>300617.SZ; 安靠智电; 44.08; 20.0%; 101974.5; 80</t>
         </is>
       </c>
+      <c r="EE10" t="inlineStr">
+        <is>
+          <t>300344.SZ; ST立方; 5.75; 20.0%; 82754.5; 88</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -31739,6 +31919,11 @@
           <t>300095.SZ; 华伍股份; 12.73; 20.0%; 97431.0; 84</t>
         </is>
       </c>
+      <c r="EE11" t="inlineStr">
+        <is>
+          <t>301161.SZ; 唯万密封; 29.81; -16.1%; 78245.0; 92</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -32409,6 +32594,11 @@
           <t>300059.SZ; 东方财富; 23.54; 0.8%; 94305.5; 88</t>
         </is>
       </c>
+      <c r="EE12" t="inlineStr">
+        <is>
+          <t>835174.BJ; 五新隧装; 78.5; -4.6%; 67125.0; 103</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -33079,6 +33269,11 @@
           <t>300527.SZ; 中船应急; 12.22; 10.4%; 94019.0; 90</t>
         </is>
       </c>
+      <c r="EE13" t="inlineStr">
+        <is>
+          <t>836942.BJ; 恒立钻具; 43.23; 30.0%; 63326.5; 109</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -33749,6 +33944,11 @@
           <t>301161.SZ; 唯万密封; 35.51; 20.0%; 87538.0; 102</t>
         </is>
       </c>
+      <c r="EE14" t="inlineStr">
+        <is>
+          <t>300803.SZ; 指南针; 88.07; 2.3%; 61892.5; 114</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -34419,6 +34619,11 @@
           <t>300865.SZ; 大宏立; 43.85; 20.0%; 80762.5; 108</t>
         </is>
       </c>
+      <c r="EE15" t="inlineStr">
+        <is>
+          <t>300955.SZ; 嘉亨家化; 22.85; 20.0%; 57655.5; 125</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -35089,6 +35294,11 @@
           <t>301151.SZ; 冠龙节能; 25.56; 20.0%; 73878.5; 118</t>
         </is>
       </c>
+      <c r="EE16" t="inlineStr">
+        <is>
+          <t>688660.SH; 电气风电; 13.15; 19.9%; 57647.0; 126</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -35759,6 +35969,11 @@
           <t>300718.SZ; 长盛轴承; 97.82; 2.7%; 73752.5; 119</t>
         </is>
       </c>
+      <c r="EE17" t="inlineStr">
+        <is>
+          <t>300732.SZ; 设研院; 9.17; 12.0%; 54569.0; 138</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -36429,6 +36644,11 @@
           <t>830879.BJ; 基康技术; 35.33; 30.0%; 71262.0; 127</t>
         </is>
       </c>
+      <c r="EE18" t="inlineStr">
+        <is>
+          <t>300865.SZ; 大宏立; 43.33; -1.2%; 54531.5; 139</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -37099,6 +37319,11 @@
           <t>836942.BJ; 恒立钻具; 33.26; 30.0%; 65524.5; 142</t>
         </is>
       </c>
+      <c r="EE19" t="inlineStr">
+        <is>
+          <t>300047.SZ; 天源迪科; 16.88; 4.3%; 51715.0; 146</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -37769,6 +37994,11 @@
           <t>300722.SZ; 新余国科; 42.86; 4.4%; 64515.0; 144</t>
         </is>
       </c>
+      <c r="EE20" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 174.2; -1.4%; 50864.0; 151</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -38437,6 +38667,11 @@
       <c r="ED21" t="inlineStr">
         <is>
           <t>300284.SZ; 苏交科; 10.19; 4.9%; 62561.0; 152</t>
+        </is>
+      </c>
+      <c r="EE21" t="inlineStr">
+        <is>
+          <t>839680.BJ; *ST广道; nan; nan%; 50184.5; 155</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EE13"/>
+  <dimension ref="A1:EG13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,6 +1109,16 @@
           <t>2025年07月23日</t>
         </is>
       </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月24日</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月25日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1519,6 +1529,16 @@
           <t>836942.BJ; 恒立钻具; 0;  09:25:00; 3天3板; 43.23;  09:25:00; 30.0%; 3; 盾构机+破岩工具+产能释放+海外拓展</t>
         </is>
       </c>
+      <c r="EF2" t="inlineStr">
+        <is>
+          <t>300877.SZ; 金春股份; 0;  09:33:54; 2天2板; 25.12;  09:33:54; 20.0%; 2; 非织造布材料+储能+可降解</t>
+        </is>
+      </c>
+      <c r="EG2" t="inlineStr">
+        <is>
+          <t>300539.SZ; 横河精密; 3;  14:32:42; 2天2板; 23.71;  10:00:03; 20.0%; 2; 机器人概念+减速器+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1749,6 +1769,11 @@
           <t>688425.SH; 铁建重工; 0;  09:25:01; 3天3板; 7.12;  09:25:01; 20.1%; 3; 水利水电+雅下水电概念+隧道掘进机+国企改革</t>
         </is>
       </c>
+      <c r="EF3" t="inlineStr">
+        <is>
+          <t>836942.BJ; 恒立钻具; 7;  13:49:50; 4天4板; 56.19;  13:08:17; 30.0%; 4; 盾构机+破岩工具+产能释放+海外拓展</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1867,6 +1892,11 @@
       <c r="EE4" t="inlineStr">
         <is>
           <t>301038.SZ; 深水规院; 1;  09:34:18; 3天3板; 27.82;  09:32:45; 20.0%; 3; 水务建设+AI水科技+深圳国资</t>
+        </is>
+      </c>
+      <c r="EF4" t="inlineStr">
+        <is>
+          <t>301038.SZ; 深水规院; 5;  14:54:03; 4天4板; 33.38;  14:52:36; 20.0%; 4; 水务建设+AI水科技+深圳国资</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EE532"/>
+  <dimension ref="A1:EG532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2733,6 +2763,16 @@
       <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>2025年07月23日</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月24日</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月25日</t>
         </is>
       </c>
     </row>
@@ -8132,7 +8172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EE12"/>
+  <dimension ref="A1:EG12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8811,6 +8851,16 @@
           <t>2025年07月23日</t>
         </is>
       </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月24日</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月25日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9446,6 +9496,11 @@
           <t>300865.SZ; 大宏立; 1;  09:30:30; 43.33; 曾涨停; -1.2%; 0.38H;  09:30:30</t>
         </is>
       </c>
+      <c r="EF2" t="inlineStr">
+        <is>
+          <t>301200.SZ; 大族数控; 11;  09:47:09; 59.65; 曾涨停; 17.8%; 0.16H;  09:47:09|| 09:57:45|| 10:00:18|| 10:02:06|| 14:28:51|| 14:42:45|| 14:43:03|| 14:44:09|| 14:46:18|| 14:46:30|| 14:47:33</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9986,6 +10041,11 @@
           <t>835857.BJ; 百甲科技; 1;  09:50:12; 9.56; 曾涨停; 17.2%; 0.31H;  09:50:12</t>
         </is>
       </c>
+      <c r="EF3" t="inlineStr">
+        <is>
+          <t>300500.SZ; 启迪设计; 1;  09:51:45; 14.53; 曾涨停; 11.3%; 0.05H;  09:51:45</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -10369,6 +10429,11 @@
       <c r="EE4" t="inlineStr">
         <is>
           <t>300881.SZ; 盛德鑫泰; 4;  09:50:39; 42.01; 曾涨停; 10.0%; 0.05H;  09:50:39|| 09:52:33|| 09:52:57|| 09:54:24</t>
+        </is>
+      </c>
+      <c r="EF4" t="inlineStr">
+        <is>
+          <t>300835.SZ; 龙磁科技; 1;  10:33:57; 61; 曾涨停; 15.1%; 0.33H;  10:33:57</t>
         </is>
       </c>
     </row>
@@ -11048,7 +11113,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EE30"/>
+  <dimension ref="A1:EG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11727,6 +11792,16 @@
           <t>2025年07月23日</t>
         </is>
       </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月24日</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月25日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -12397,6 +12472,16 @@
           <t>300877.SZ; 金春股份; 0;  10:20:12; 首板涨停; 20.93;  10:20:12; 20.0%; 1; 非织造布材料+储能+可降解</t>
         </is>
       </c>
+      <c r="EF2" t="inlineStr">
+        <is>
+          <t>301217.SZ; 铜冠铜箔; 0;  09:50:51; 首板涨停; 23.44;  09:50:51; 20.0%; 1; 铜箔+固态电池+安徽国企</t>
+        </is>
+      </c>
+      <c r="EG2" t="inlineStr">
+        <is>
+          <t>300869.SZ; 康泰医学; 0;  09:45:33; 首板涨停; 18.82;  09:45:33; 20.0%; 1; 医疗器械+一季报增长+新产品获批</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -13047,6 +13132,16 @@
           <t>300955.SZ; 嘉亨家化; 3;  14:48:09; 首板涨停; 22.85;  14:04:57; 20.0%; 1; 驱蚊+日化产品+三胎概念+塑料包装</t>
         </is>
       </c>
+      <c r="EF3" t="inlineStr">
+        <is>
+          <t>300086.SZ; 康芝药业; 0;  09:51:42; 首板涨停; 7.56;  09:51:42; 20.0%; 1; 儿童药+海南自贸区</t>
+        </is>
+      </c>
+      <c r="EG3" t="inlineStr">
+        <is>
+          <t>300781.SZ; 因赛集团; 1;  10:41:48; 首板涨停; 44.95;  10:21:12; 20.0%; 1; AI智能体+拟购买智者品牌股权+营销传播</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -13662,6 +13757,16 @@
           <t>300158.SZ; 振东制药; 0;  14:50:06; 首板涨停; 5.89;  14:50:06; 20.0%; 1; 创新药+仲裁解决+新品推广</t>
         </is>
       </c>
+      <c r="EF4" t="inlineStr">
+        <is>
+          <t>300539.SZ; 横河精密; 0;  10:49:24; 首板涨停; 19.76;  10:49:24; 20.0%; 1; 机器人概念+减速器+一季报增长</t>
+        </is>
+      </c>
+      <c r="EG4" t="inlineStr">
+        <is>
+          <t>300706.SZ; 阿石创; 5;  13:05:36; 首板涨停; 33.43;  09:32:00; 20.0%; 1; PVD镀膜材料+复合铜箔+半导体芯片+钙钛矿电池</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -14212,6 +14317,16 @@
           <t>300411.SZ; 金盾股份; 0;  11:13:42; 首板涨停; 16.08;  11:13:42; 20.0%; 1; 通风系统+核电+低空经济</t>
         </is>
       </c>
+      <c r="EF5" t="inlineStr">
+        <is>
+          <t>300528.SZ; 幸福蓝海; 0;  13:19:27; 首板涨停; 14.27;  13:19:27; 20.0%; 1; 电影上映+一季报增长+国有控股</t>
+        </is>
+      </c>
+      <c r="EG5" t="inlineStr">
+        <is>
+          <t>301067.SZ; 显盈科技; 0;  13:32:42; 首板涨停; 35.62;  13:32:42; 20.0%; 1; 智能终端+AI布局+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -14717,6 +14832,16 @@
           <t>834950.BJ; 迅安科技; 0;  13:00:15; 首板涨停; 25.63;  13:00:15; 30.0%; 1; 个人防护装备+外销+一季报增长</t>
         </is>
       </c>
+      <c r="EF6" t="inlineStr">
+        <is>
+          <t>300122.SZ; 智飞生物; 4;  13:59:36; 首板涨停; 24.77;  13:21:09; 20.0%; 1; 疫苗研发+自研管线进展+经营风险改善</t>
+        </is>
+      </c>
+      <c r="EG6" t="inlineStr">
+        <is>
+          <t>430564.BJ; 天润科技; 2;  14:37:17; 首板涨停; 32.76;  10:22:05; 30.0%; 1; DeepSeek概念+华为昇腾+时空信息</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -15142,6 +15267,11 @@
           <t>300021.SZ; 大禹节水; 0;  13:01:33; 首板涨停; 5.83;  13:01:33; 20.0%; 1; 水利+西藏项目积累</t>
         </is>
       </c>
+      <c r="EF7" t="inlineStr">
+        <is>
+          <t>300189.SZ; 神农种业; 1;  14:29:06; 首板涨停; 5.47;  10:58:33; 20.0%; 1; 海南自贸区+水产投苗+油菜种子</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -15505,6 +15635,11 @@
       <c r="ED8" t="inlineStr">
         <is>
           <t>920082.BJ; 方正阀门; 0;  13:14:30; 首板涨停; 27.44;  13:14:30; 30.0%; 1; 工业阀门+天然气+海工装备+次新股</t>
+        </is>
+      </c>
+      <c r="EF8" t="inlineStr">
+        <is>
+          <t>688210.SH; 统联精密; 5;  14:38:21; 首板涨停; 33.49;  14:29:03; 20.0%; 1; 智能眼镜+消费电子+精密零部件</t>
         </is>
       </c>
     </row>
@@ -16929,7 +17064,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EE178"/>
+  <dimension ref="A1:EG178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17608,6 +17743,16 @@
           <t>2025年07月23日</t>
         </is>
       </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月24日</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月25日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -18253,6 +18398,16 @@
           <t>300683.SZ; 海特生物; 5.5%; 13.4%; 43.75; 7.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EF2" t="inlineStr">
+        <is>
+          <t>300732.SZ; 设研院; 7.3%; 12.4%; 9.55; 4.1%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="EG2" t="inlineStr">
+        <is>
+          <t>688325.SH; 赛微微电; 0.2%; 12.4%; 54.74; 12.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -18858,6 +19013,16 @@
           <t>688316.SH; 青云科技; 2.5%; 18.0%; 82.2; 15.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EF3" t="inlineStr">
+        <is>
+          <t>873706.BJ; 铁拓机械; 5.6%; 13.9%; 28.84; 7.5%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EG3" t="inlineStr">
+        <is>
+          <t>688256.SH; 寒武纪; 0.1%; 12.3%; 673.3; 12.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -19408,6 +19573,16 @@
           <t>872392.BJ; 佳合科技; 2.0%; 12.2%; 32.76; 9.9%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EF4" t="inlineStr">
+        <is>
+          <t>301038.SZ; 深水规院; 2.9%; 23.6%; 33.38; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="EG4" t="inlineStr">
+        <is>
+          <t>300648.SZ; 星云股份; 0.1%; 13.8%; 41.6; 13.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -19888,6 +20063,16 @@
           <t>688585.SH; 上纬新材; 1.4%; 21.5%; 57.7; 19.7%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EF5" t="inlineStr">
+        <is>
+          <t>836807.BJ; 奔朗新材; 2.7%; 12.1%; 21.01; 9.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="EG5" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 0.1%; 17.2%; 66.06; 17.1%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -20328,6 +20513,11 @@
           <t>300885.SZ; 海昌新材; 1.3%; 12.5%; 17.76; 11.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EF6" t="inlineStr">
+        <is>
+          <t>300539.SZ; 横河精密; 1.7%; 22.1%; 19.76; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -20738,6 +20928,11 @@
           <t>300158.SZ; 振东制药; 0.4%; 20.4%; 5.89; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EF7" t="inlineStr">
+        <is>
+          <t>688011.SH; 新光光电; 1.0%; 14.2%; 32.09; 13.1%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -21091,6 +21286,11 @@
       <c r="EE8" t="inlineStr">
         <is>
           <t>300955.SZ; 嘉亨家化; 0.2%; 20.2%; 22.85; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EF8" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 0.7%; 16.0%; 11.61; 15.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -24495,7 +24695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EE21"/>
+  <dimension ref="A1:EG21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25174,6 +25374,16 @@
           <t>2025年07月23日</t>
         </is>
       </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月24日</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月25日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -25849,6 +26059,16 @@
           <t>688585.SH; 上纬新材; 57.7; 19.7%; 309221.0; 8</t>
         </is>
       </c>
+      <c r="EF2" t="inlineStr">
+        <is>
+          <t>301038.SZ; 深水规院; 33.38; 20.0%; 264772.5; 7</t>
+        </is>
+      </c>
+      <c r="EG2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 66.06; 17.1%; 260460.0; 6</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -26524,6 +26744,16 @@
           <t>301609.SZ; 山大电力; 66.85; 356.0%; 204961.0; 20</t>
         </is>
       </c>
+      <c r="EF3" t="inlineStr">
+        <is>
+          <t>300122.SZ; 智飞生物; 24.77; 20.0%; 205044.5; 14</t>
+        </is>
+      </c>
+      <c r="EG3" t="inlineStr">
+        <is>
+          <t>688256.SH; 寒武纪; 673.3; 12.2%; 210286.0; 13</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -27199,6 +27429,16 @@
           <t>301038.SZ; 深水规院; 27.82; 20.0%; 176324.5; 25</t>
         </is>
       </c>
+      <c r="EF4" t="inlineStr">
+        <is>
+          <t>300549.SZ; 优德精密; 19.14; 1.8%; 148383.5; 30</t>
+        </is>
+      </c>
+      <c r="EG4" t="inlineStr">
+        <is>
+          <t>301038.SZ; 深水规院; 26.7; -20.0%; 123619.0; 37</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -27874,6 +28114,16 @@
           <t>688425.SH; 铁建重工; 7.12; 20.1%; 158566.0; 30</t>
         </is>
       </c>
+      <c r="EF5" t="inlineStr">
+        <is>
+          <t>300189.SZ; 神农种业; 5.47; 20.0%; 136789.5; 35</t>
+        </is>
+      </c>
+      <c r="EG5" t="inlineStr">
+        <is>
+          <t>300706.SZ; 阿石创; 33.43; 20.0%; 121984.5; 39</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -28549,6 +28799,16 @@
           <t>300021.SZ; 大禹节水; 6.61; 13.4%; 143408.0; 34</t>
         </is>
       </c>
+      <c r="EF6" t="inlineStr">
+        <is>
+          <t>300086.SZ; 康芝药业; 7.56; 20.0%; 136633.5; 36</t>
+        </is>
+      </c>
+      <c r="EG6" t="inlineStr">
+        <is>
+          <t>300539.SZ; 横河精密; 23.71; 20.0%; 114293.5; 45</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -29224,6 +29484,16 @@
           <t>300059.SZ; 东方财富; 23.71; 0.7%; 122475.0; 47</t>
         </is>
       </c>
+      <c r="EF7" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 24.32; 2.6%; 135685.0; 37</t>
+        </is>
+      </c>
+      <c r="EG7" t="inlineStr">
+        <is>
+          <t>300781.SZ; 因赛集团; 44.95; 20.0%; 102403.0; 54</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -29899,6 +30169,16 @@
           <t>300158.SZ; 振东制药; 5.89; 20.0%; 102587.0; 62</t>
         </is>
       </c>
+      <c r="EF8" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 56.4; -2.3%; 125239.0; 41</t>
+        </is>
+      </c>
+      <c r="EG8" t="inlineStr">
+        <is>
+          <t>300869.SZ; 康泰医学; 18.82; 20.0%; 92534.5; 63</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -30574,6 +30854,16 @@
           <t>300564.SZ; 筑博设计; 25.03; 20.0%; 83464.0; 87</t>
         </is>
       </c>
+      <c r="EF9" t="inlineStr">
+        <is>
+          <t>301217.SZ; 铜冠铜箔; 23.44; 20.0%; 119484.5; 42</t>
+        </is>
+      </c>
+      <c r="EG9" t="inlineStr">
+        <is>
+          <t>300229.SZ; 拓尔思; 23.76; 7.6%; 81808.0; 74</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -31249,6 +31539,16 @@
           <t>300344.SZ; ST立方; 5.75; 20.0%; 82754.5; 88</t>
         </is>
       </c>
+      <c r="EF10" t="inlineStr">
+        <is>
+          <t>300803.SZ; 指南针; 94.9; 7.8%; 101040.5; 56</t>
+        </is>
+      </c>
+      <c r="EG10" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 23.99; -1.4%; 75264.5; 78</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -31924,6 +32224,16 @@
           <t>301161.SZ; 唯万密封; 29.81; -16.1%; 78245.0; 92</t>
         </is>
       </c>
+      <c r="EF11" t="inlineStr">
+        <is>
+          <t>836942.BJ; 恒立钻具; 56.19; 30.0%; 96214.0; 62</t>
+        </is>
+      </c>
+      <c r="EG11" t="inlineStr">
+        <is>
+          <t>430564.BJ; 天润科技; 32.76; 30.0%; 71382.5; 83</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -32599,6 +32909,16 @@
           <t>835174.BJ; 五新隧装; 78.5; -4.6%; 67125.0; 103</t>
         </is>
       </c>
+      <c r="EF12" t="inlineStr">
+        <is>
+          <t>688425.SH; 铁建重工; 7.72; 8.4%; 80960.0; 81</t>
+        </is>
+      </c>
+      <c r="EG12" t="inlineStr">
+        <is>
+          <t>300021.SZ; 大禹节水; 6.39; 2.9%; 69968.0; 86</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -33274,6 +33594,16 @@
           <t>836942.BJ; 恒立钻具; 43.23; 30.0%; 63326.5; 109</t>
         </is>
       </c>
+      <c r="EF13" t="inlineStr">
+        <is>
+          <t>300877.SZ; 金春股份; 25.12; 20.0%; 75399.5; 88</t>
+        </is>
+      </c>
+      <c r="EG13" t="inlineStr">
+        <is>
+          <t>300158.SZ; 振东制药; 7.03; 9.0%; 61585.5; 97</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -33949,6 +34279,16 @@
           <t>300803.SZ; 指南针; 88.07; 2.3%; 61892.5; 114</t>
         </is>
       </c>
+      <c r="EF14" t="inlineStr">
+        <is>
+          <t>300528.SZ; 幸福蓝海; 14.27; 20.0%; 73802.0; 89</t>
+        </is>
+      </c>
+      <c r="EG14" t="inlineStr">
+        <is>
+          <t>688425.SH; 铁建重工; 6.57; -14.9%; 57684.0; 103</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -34624,6 +34964,16 @@
           <t>300955.SZ; 嘉亨家化; 22.85; 20.0%; 57655.5; 125</t>
         </is>
       </c>
+      <c r="EF15" t="inlineStr">
+        <is>
+          <t>300748.SZ; 金力永磁; 29.1; 9.9%; 73256.5; 92</t>
+        </is>
+      </c>
+      <c r="EG15" t="inlineStr">
+        <is>
+          <t>301067.SZ; 显盈科技; 35.62; 20.0%; 52505.5; 119</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -35299,6 +35649,16 @@
           <t>688660.SH; 电气风电; 13.15; 19.9%; 57647.0; 126</t>
         </is>
       </c>
+      <c r="EF16" t="inlineStr">
+        <is>
+          <t>300142.SZ; 沃森生物; 13.28; 14.7%; 70728.5; 95</t>
+        </is>
+      </c>
+      <c r="EG16" t="inlineStr">
+        <is>
+          <t>300759.SZ; 康龙化成; 30; 7.3%; 50859.0; 124</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -35974,6 +36334,16 @@
           <t>300732.SZ; 设研院; 9.17; 12.0%; 54569.0; 138</t>
         </is>
       </c>
+      <c r="EF17" t="inlineStr">
+        <is>
+          <t>300021.SZ; 大禹节水; 6.21; -6.1%; 60284.0; 109</t>
+        </is>
+      </c>
+      <c r="EG17" t="inlineStr">
+        <is>
+          <t>300122.SZ; 智飞生物; 23.88; -3.6%; 50382.5; 128</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -36649,6 +37019,16 @@
           <t>300865.SZ; 大宏立; 43.33; -1.2%; 54531.5; 139</t>
         </is>
       </c>
+      <c r="EF18" t="inlineStr">
+        <is>
+          <t>300015.SZ; 爱尔眼科; 13.36; 4.7%; 59977.5; 110</t>
+        </is>
+      </c>
+      <c r="EG18" t="inlineStr">
+        <is>
+          <t>300718.SZ; 长盛轴承; 91.57; -4.2%; 50204.5; 132</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -37324,6 +37704,16 @@
           <t>300047.SZ; 天源迪科; 16.88; 4.3%; 51715.0; 146</t>
         </is>
       </c>
+      <c r="EF19" t="inlineStr">
+        <is>
+          <t>300564.SZ; 筑博设计; 22.5; -10.1%; 57526.0; 121</t>
+        </is>
+      </c>
+      <c r="EG19" t="inlineStr">
+        <is>
+          <t>300293.SZ; 蓝英装备; 27.01; 5.6%; 46588.5; 146</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -37999,6 +38389,16 @@
           <t>300502.SZ; 新易盛; 174.2; -1.4%; 50864.0; 151</t>
         </is>
       </c>
+      <c r="EF20" t="inlineStr">
+        <is>
+          <t>300872.SZ; 天阳科技; 25.46; 9.4%; 57258.0; 122</t>
+        </is>
+      </c>
+      <c r="EG20" t="inlineStr">
+        <is>
+          <t>300339.SZ; 润和软件; 54.84; 2.7%; 45869.0; 151</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -38672,6 +39072,16 @@
       <c r="EE21" t="inlineStr">
         <is>
           <t>839680.BJ; *ST广道; nan; nan%; 50184.5; 155</t>
+        </is>
+      </c>
+      <c r="EF21" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 11.61; 15.2%; 56754.5; 123</t>
+        </is>
+      </c>
+      <c r="EG21" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 172.97; 0.1%; 45839.5; 152</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EG13"/>
+  <dimension ref="A1:EH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1119,6 +1119,11 @@
           <t>2025年07月25日</t>
         </is>
       </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月28日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1539,6 +1544,11 @@
           <t>300539.SZ; 横河精密; 3;  14:32:42; 2天2板; 23.71;  10:00:03; 20.0%; 2; 机器人概念+减速器+一季报增长</t>
         </is>
       </c>
+      <c r="EH2" t="inlineStr">
+        <is>
+          <t>300528.SZ; 幸福蓝海; 0;  09:30:00; 3天2板; 17.58;  09:30:00; 20.0%; 1; 《南京照相馆》上映+电影+国企+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1774,6 +1784,11 @@
           <t>836942.BJ; 恒立钻具; 7;  13:49:50; 4天4板; 56.19;  13:08:17; 30.0%; 4; 盾构机+破岩工具+产能释放+海外拓展</t>
         </is>
       </c>
+      <c r="EH3" t="inlineStr">
+        <is>
+          <t>301217.SZ; 铜冠铜箔; 15;  14:38:36; 3天2板; 25.08;  13:32:57; 20.0%; 1; HVLP铜箔+固态电池+产能扩张+国企</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1897,6 +1912,11 @@
       <c r="EF4" t="inlineStr">
         <is>
           <t>301038.SZ; 深水规院; 5;  14:54:03; 4天4板; 33.38;  14:52:36; 20.0%; 4; 水务建设+AI水科技+深圳国资</t>
+        </is>
+      </c>
+      <c r="EH4" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 1;  14:55:55; 14天11板; 79.27;  14:52:55; 20.0%; 1; 智元机器人核心团队持股平台拟入主</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EG532"/>
+  <dimension ref="A1:EH532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2773,6 +2793,11 @@
       <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>2025年07月25日</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月28日</t>
         </is>
       </c>
     </row>
@@ -8172,7 +8197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EG12"/>
+  <dimension ref="A1:EH12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8861,6 +8886,11 @@
           <t>2025年07月25日</t>
         </is>
       </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月28日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9501,6 +9531,11 @@
           <t>301200.SZ; 大族数控; 11;  09:47:09; 59.65; 曾涨停; 17.8%; 0.16H;  09:47:09|| 09:57:45|| 10:00:18|| 10:02:06|| 14:28:51|| 14:42:45|| 14:43:03|| 14:44:09|| 14:46:18|| 14:46:30|| 14:47:33</t>
         </is>
       </c>
+      <c r="EH2" t="inlineStr">
+        <is>
+          <t>300267.SZ; 尔康制药; 1;  09:37:48; 4.34; 曾涨停; 15.4%; 0.27H;  09:37:48</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10044,6 +10079,11 @@
       <c r="EF3" t="inlineStr">
         <is>
           <t>300500.SZ; 启迪设计; 1;  09:51:45; 14.53; 曾涨停; 11.3%; 0.05H;  09:51:45</t>
+        </is>
+      </c>
+      <c r="EH3" t="inlineStr">
+        <is>
+          <t>301580.SZ; 爱迪特; 1;  11:10:03; 57; 曾涨停; 16.9%; 0.02H;  11:10:03</t>
         </is>
       </c>
     </row>
@@ -11113,7 +11153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EG30"/>
+  <dimension ref="A1:EH30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11802,6 +11842,11 @@
           <t>2025年07月25日</t>
         </is>
       </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月28日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -12482,6 +12527,11 @@
           <t>300869.SZ; 康泰医学; 0;  09:45:33; 首板涨停; 18.82;  09:45:33; 20.0%; 1; 医疗器械+一季报增长+新产品获批</t>
         </is>
       </c>
+      <c r="EH2" t="inlineStr">
+        <is>
+          <t>688020.SH; 方邦股份; 1;  13:00:01; 首板涨停; 47.14;  10:54:10; 20.0%; 1; PCB概念+电磁屏蔽膜+铜箔</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -13142,6 +13192,11 @@
           <t>300781.SZ; 因赛集团; 1;  10:41:48; 首板涨停; 44.95;  10:21:12; 20.0%; 1; AI智能体+拟购买智者品牌股权+营销传播</t>
         </is>
       </c>
+      <c r="EH3" t="inlineStr">
+        <is>
+          <t>301200.SZ; 大族数控; 3;  14:20:45; 首板涨停; 69.14;  13:24:57; 20.0%; 1; AI服务器+PCB+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -13767,6 +13822,11 @@
           <t>300706.SZ; 阿石创; 5;  13:05:36; 首板涨停; 33.43;  09:32:00; 20.0%; 1; PVD镀膜材料+复合铜箔+半导体芯片+钙钛矿电池</t>
         </is>
       </c>
+      <c r="EH4" t="inlineStr">
+        <is>
+          <t>688630.SH; 芯碁微装; 13;  14:32:11; 首板涨停; 114.6;  13:19:38; 20.0%; 1; 光刻设备+一季报增长+泰国投产</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -14325,6 +14385,11 @@
       <c r="EG5" t="inlineStr">
         <is>
           <t>301067.SZ; 显盈科技; 0;  13:32:42; 首板涨停; 35.62;  13:32:42; 20.0%; 1; 智能终端+AI布局+一季报增长</t>
+        </is>
+      </c>
+      <c r="EH5" t="inlineStr">
+        <is>
+          <t>300322.SZ; 硕贝德; 3;  14:56:57; 首板涨停; 18.9;  10:44:21; 20.0%; 1; 中报预增+毫米波雷达+卫星通信</t>
         </is>
       </c>
     </row>
@@ -17064,7 +17129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EG178"/>
+  <dimension ref="A1:EH178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17753,6 +17818,11 @@
           <t>2025年07月25日</t>
         </is>
       </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月28日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -18408,6 +18478,11 @@
           <t>688325.SH; 赛微微电; 0.2%; 12.4%; 54.74; 12.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EH2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 3.1%; 23.9%; 79.27; 20.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -19023,6 +19098,11 @@
           <t>688256.SH; 寒武纪; 0.1%; 12.3%; 673.3; 12.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EH3" t="inlineStr">
+        <is>
+          <t>300267.SZ; 尔康制药; 1.3%; 17.0%; 4.34; 15.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -19583,6 +19663,11 @@
           <t>300648.SZ; 星云股份; 0.1%; 13.8%; 41.6; 13.7%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EH4" t="inlineStr">
+        <is>
+          <t>688011.SH; 新光光电; 1.0%; 12.2%; 37.19; 11.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -20073,6 +20158,11 @@
           <t>688585.SH; 上纬新材; 0.1%; 17.2%; 66.06; 17.1%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EH5" t="inlineStr">
+        <is>
+          <t>688185.SH; 康希诺; 0.5%; 13.7%; 80.15; 13.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -20518,6 +20608,11 @@
           <t>300539.SZ; 横河精密; 1.7%; 22.1%; 19.76; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EH6" t="inlineStr">
+        <is>
+          <t>836942.BJ; 恒立钻具; 0.2%; 25.5%; 70.06; 25.3%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -20931,6 +21026,11 @@
       <c r="EF7" t="inlineStr">
         <is>
           <t>688011.SH; 新光光电; 1.0%; 14.2%; 32.09; 13.1%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="EH7" t="inlineStr">
+        <is>
+          <t>301306.SZ; 西测测试; 0.0%; 13.8%; 64.97; 13.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -24695,7 +24795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EG21"/>
+  <dimension ref="A1:EH21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25384,6 +25484,11 @@
           <t>2025年07月25日</t>
         </is>
       </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月28日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -26069,6 +26174,11 @@
           <t>688585.SH; 上纬新材; 66.06; 17.1%; 260460.0; 6</t>
         </is>
       </c>
+      <c r="EH2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 79.27; 20.0%; 562474.0; 1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -26754,6 +26864,11 @@
           <t>688256.SH; 寒武纪; 673.3; 12.2%; 210286.0; 13</t>
         </is>
       </c>
+      <c r="EH3" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 182.77; 17.5%; 243860.5; 11</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -27439,6 +27554,11 @@
           <t>301038.SZ; 深水规院; 26.7; -20.0%; 123619.0; 37</t>
         </is>
       </c>
+      <c r="EH4" t="inlineStr">
+        <is>
+          <t>301217.SZ; 铜冠铜箔; 25.08; 20.0%; 178433.5; 19</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -28124,6 +28244,11 @@
           <t>300706.SZ; 阿石创; 33.43; 20.0%; 121984.5; 39</t>
         </is>
       </c>
+      <c r="EH5" t="inlineStr">
+        <is>
+          <t>300322.SZ; 硕贝德; 18.9; 20.0%; 176092.5; 21</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -28809,6 +28934,11 @@
           <t>300539.SZ; 横河精密; 23.71; 20.0%; 114293.5; 45</t>
         </is>
       </c>
+      <c r="EH6" t="inlineStr">
+        <is>
+          <t>300528.SZ; 幸福蓝海; 17.58; 20.0%; 166033.5; 26</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -29494,6 +29624,11 @@
           <t>300781.SZ; 因赛集团; 44.95; 20.0%; 102403.0; 54</t>
         </is>
       </c>
+      <c r="EH7" t="inlineStr">
+        <is>
+          <t>301078.SZ; 孩子王; 13.39; 4.0%; 162873.5; 28</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -30179,6 +30314,11 @@
           <t>300869.SZ; 康泰医学; 18.82; 20.0%; 92534.5; 63</t>
         </is>
       </c>
+      <c r="EH8" t="inlineStr">
+        <is>
+          <t>300021.SZ; 大禹节水; 6.96; 8.9%; 124169.5; 42</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -30864,6 +31004,11 @@
           <t>300229.SZ; 拓尔思; 23.76; 7.6%; 81808.0; 74</t>
         </is>
       </c>
+      <c r="EH9" t="inlineStr">
+        <is>
+          <t>836942.BJ; 恒立钻具; 70.06; 25.3%; 103719.5; 52</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -31549,6 +31694,11 @@
           <t>300059.SZ; 东方财富; 23.99; -1.4%; 75264.5; 78</t>
         </is>
       </c>
+      <c r="EH10" t="inlineStr">
+        <is>
+          <t>301200.SZ; 大族数控; 69.14; 20.0%; 99053.0; 57</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -32234,6 +32384,11 @@
           <t>430564.BJ; 天润科技; 32.76; 30.0%; 71382.5; 83</t>
         </is>
       </c>
+      <c r="EH11" t="inlineStr">
+        <is>
+          <t>301567.SZ; 贝隆精密; 42.9; 0.6%; 98482.0; 58</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -32919,6 +33074,11 @@
           <t>300021.SZ; 大禹节水; 6.39; 2.9%; 69968.0; 86</t>
         </is>
       </c>
+      <c r="EH12" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 85.25; 13.7%; 88635.5; 73</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -33604,6 +33764,11 @@
           <t>300158.SZ; 振东制药; 7.03; 9.0%; 61585.5; 97</t>
         </is>
       </c>
+      <c r="EH13" t="inlineStr">
+        <is>
+          <t>300706.SZ; 阿石创; 36.5; 9.2%; 83625.0; 77</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -34289,6 +34454,11 @@
           <t>688425.SH; 铁建重工; 6.57; -14.9%; 57684.0; 103</t>
         </is>
       </c>
+      <c r="EH14" t="inlineStr">
+        <is>
+          <t>300267.SZ; 尔康制药; 4.34; 15.4%; 75797.5; 89</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -34974,6 +35144,11 @@
           <t>301067.SZ; 显盈科技; 35.62; 20.0%; 52505.5; 119</t>
         </is>
       </c>
+      <c r="EH15" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 177.8; 2.8%; 74761.5; 92</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -35659,6 +35834,11 @@
           <t>300759.SZ; 康龙化成; 30; 7.3%; 50859.0; 124</t>
         </is>
       </c>
+      <c r="EH16" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 42.97; 6.2%; 73469.0; 95</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -36344,6 +36524,11 @@
           <t>300122.SZ; 智飞生物; 23.88; -3.6%; 50382.5; 128</t>
         </is>
       </c>
+      <c r="EH17" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 24.12; 0.5%; 68789.0; 99</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -37029,6 +37214,11 @@
           <t>300718.SZ; 长盛轴承; 91.57; -4.2%; 50204.5; 132</t>
         </is>
       </c>
+      <c r="EH18" t="inlineStr">
+        <is>
+          <t>301491.SZ; 汉桑科技; nan; nan%; 68541.0; 100</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -37714,6 +37904,11 @@
           <t>300293.SZ; 蓝英装备; 27.01; 5.6%; 46588.5; 146</t>
         </is>
       </c>
+      <c r="EH19" t="inlineStr">
+        <is>
+          <t>688660.SH; 电气风电; 15.13; 17.5%; 63983.0; 107</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -38399,6 +38594,11 @@
           <t>300339.SZ; 润和软件; 54.84; 2.7%; 45869.0; 151</t>
         </is>
       </c>
+      <c r="EH20" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 191.87; 3.6%; 59795.5; 124</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -39082,6 +39282,11 @@
       <c r="EG21" t="inlineStr">
         <is>
           <t>300502.SZ; 新易盛; 172.97; 0.1%; 45839.5; 152</t>
+        </is>
+      </c>
+      <c r="EH21" t="inlineStr">
+        <is>
+          <t>300229.SZ; 拓尔思; 24.3; 2.3%; 54515.0; 138</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EH13"/>
+  <dimension ref="A1:EI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1124,6 +1124,11 @@
           <t>2025年07月28日</t>
         </is>
       </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月29日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1549,6 +1554,11 @@
           <t>300528.SZ; 幸福蓝海; 0;  09:30:00; 3天2板; 17.58;  09:30:00; 20.0%; 1; 《南京照相馆》上映+电影+国企+一季报增长</t>
         </is>
       </c>
+      <c r="EI2" t="inlineStr">
+        <is>
+          <t>688020.SH; 方邦股份; 1;  09:38:18; 2天2板; 56.57;  09:37:42; 20.0%; 2; PCB概念+电磁屏蔽膜+铜箔</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1789,6 +1799,11 @@
           <t>301217.SZ; 铜冠铜箔; 15;  14:38:36; 3天2板; 25.08;  13:32:57; 20.0%; 1; HVLP铜箔+固态电池+产能扩张+国企</t>
         </is>
       </c>
+      <c r="EI3" t="inlineStr">
+        <is>
+          <t>300528.SZ; 幸福蓝海; 4;  13:59:57; 4天3板; 21.1;  09:30:36; 20.0%; 2; 《南京照相馆》上映+电影+国企+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1917,6 +1932,11 @@
       <c r="EH4" t="inlineStr">
         <is>
           <t>688585.SH; 上纬新材; 1;  14:55:55; 14天11板; 79.27;  14:52:55; 20.0%; 1; 智元机器人核心团队持股平台拟入主</t>
+        </is>
+      </c>
+      <c r="EI4" t="inlineStr">
+        <is>
+          <t>301038.SZ; 深水规院; 6;  14:45:57; 7天5板; 30.67;  14:37:15; 20.0%; 1; 水利+雅下水电概念+AI水科技+深圳国资</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2126,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EH532"/>
+  <dimension ref="A1:EI532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2798,6 +2818,11 @@
       <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>2025年07月28日</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月29日</t>
         </is>
       </c>
     </row>
@@ -8197,7 +8222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EH12"/>
+  <dimension ref="A1:EI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8891,6 +8916,11 @@
           <t>2025年07月28日</t>
         </is>
       </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月29日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9536,6 +9566,11 @@
           <t>300267.SZ; 尔康制药; 1;  09:37:48; 4.34; 曾涨停; 15.4%; 0.27H;  09:37:48</t>
         </is>
       </c>
+      <c r="EI2" t="inlineStr">
+        <is>
+          <t>300539.SZ; 横河精密; 1;  10:46:48; 29.5; 曾涨停; 19.1%; 0.01H;  10:46:48</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10086,6 +10121,11 @@
           <t>301580.SZ; 爱迪特; 1;  11:10:03; 57; 曾涨停; 16.9%; 0.02H;  11:10:03</t>
         </is>
       </c>
+      <c r="EI3" t="inlineStr">
+        <is>
+          <t>688513.SH; 苑东生物; 1;  11:27:31; 65.92; 曾涨停; 15.4%; 0.00H;  11:27:31</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -10474,6 +10514,11 @@
       <c r="EF4" t="inlineStr">
         <is>
           <t>300835.SZ; 龙磁科技; 1;  10:33:57; 61; 曾涨停; 15.1%; 0.33H;  10:33:57</t>
+        </is>
+      </c>
+      <c r="EI4" t="inlineStr">
+        <is>
+          <t>300188.SZ; 国投智能; 1;  14:53:12; 19.65; 曾涨停; 18.5%; 0.02H;  14:53:12</t>
         </is>
       </c>
     </row>
@@ -11153,7 +11198,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EH30"/>
+  <dimension ref="A1:EI30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11847,6 +11892,11 @@
           <t>2025年07月28日</t>
         </is>
       </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月29日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -12532,6 +12582,11 @@
           <t>688020.SH; 方邦股份; 1;  13:00:01; 首板涨停; 47.14;  10:54:10; 20.0%; 1; PCB概念+电磁屏蔽膜+铜箔</t>
         </is>
       </c>
+      <c r="EI2" t="inlineStr">
+        <is>
+          <t>300885.SZ; 海昌新材; 0;  09:58:27; 首板涨停; 20.51;  09:58:27; 20.0%; 1; 人形机器人+粉末冶金+年报增长</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -13197,6 +13252,11 @@
           <t>301200.SZ; 大族数控; 3;  14:20:45; 首板涨停; 69.14;  13:24:57; 20.0%; 1; AI服务器+PCB+一季报增长</t>
         </is>
       </c>
+      <c r="EI3" t="inlineStr">
+        <is>
+          <t>688110.SH; 东芯股份; 0;  10:01:37; 首板涨停; 46;  10:01:37; 20.0%; 1; 砺算科技+AI终端+存储芯片+车规产品</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -13827,6 +13887,11 @@
           <t>688630.SH; 芯碁微装; 13;  14:32:11; 首板涨停; 114.6;  13:19:38; 20.0%; 1; 光刻设备+一季报增长+泰国投产</t>
         </is>
       </c>
+      <c r="EI4" t="inlineStr">
+        <is>
+          <t>301372.SZ; 科净源; 1;  11:04:45; 首板涨停; 29.62;  09:43:06; 20.0%; 1; 水利+水环境治理+一季报扭亏</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -14392,6 +14457,11 @@
           <t>300322.SZ; 硕贝德; 3;  14:56:57; 首板涨停; 18.9;  10:44:21; 20.0%; 1; 中报预增+毫米波雷达+卫星通信</t>
         </is>
       </c>
+      <c r="EI5" t="inlineStr">
+        <is>
+          <t>688622.SH; 禾信仪器; 1;  13:07:22; 首板涨停; 96.02;  11:23:37; 20.0%; 1; 量子科技+质谱仪</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -14905,6 +14975,11 @@
       <c r="EG6" t="inlineStr">
         <is>
           <t>430564.BJ; 天润科技; 2;  14:37:17; 首板涨停; 32.76;  10:22:05; 30.0%; 1; DeepSeek概念+华为昇腾+时空信息</t>
+        </is>
+      </c>
+      <c r="EI6" t="inlineStr">
+        <is>
+          <t>300149.SZ; 睿智医药; 0;  13:31:42; 首板涨停; 13.61;  13:31:42; 20.0%; 1; CRO+ADC整包+小核酸药物</t>
         </is>
       </c>
     </row>
@@ -17129,7 +17204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EH178"/>
+  <dimension ref="A1:EI178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17823,6 +17898,11 @@
           <t>2025年07月28日</t>
         </is>
       </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月29日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -18483,6 +18563,11 @@
           <t>688585.SH; 上纬新材; 3.1%; 23.9%; 79.27; 20.0%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="EI2" t="inlineStr">
+        <is>
+          <t>300683.SZ; 海特生物; 1.0%; 16.4%; 50.61; 15.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -19103,6 +19188,11 @@
           <t>300267.SZ; 尔康制药; 1.3%; 17.0%; 4.34; 15.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EI3" t="inlineStr">
+        <is>
+          <t>833751.BJ; 惠同新材; 0.3%; 14.6%; 23.23; 14.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -19668,6 +19758,11 @@
           <t>688011.SH; 新光光电; 1.0%; 12.2%; 37.19; 11.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EI4" t="inlineStr">
+        <is>
+          <t>300572.SZ; 安车检测; 0.3%; 12.2%; 26.01; 11.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -20163,6 +20258,11 @@
           <t>688185.SH; 康希诺; 0.5%; 13.7%; 80.15; 13.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EI5" t="inlineStr">
+        <is>
+          <t>688513.SH; 苑东生物; 0.2%; 15.7%; 65.92; 15.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -20613,6 +20713,11 @@
           <t>836942.BJ; 恒立钻具; 0.2%; 25.5%; 70.06; 25.3%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EI6" t="inlineStr">
+        <is>
+          <t>300410.SZ; 正业科技; 0.1%; 17.6%; 9; 17.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -21031,6 +21136,11 @@
       <c r="EH7" t="inlineStr">
         <is>
           <t>301306.SZ; 西测测试; 0.0%; 13.8%; 64.97; 13.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EI7" t="inlineStr">
+        <is>
+          <t>837344.BJ; 三元基因; 0.0%; 20.8%; 34.84; 20.8%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
     </row>
@@ -24795,7 +24905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EH21"/>
+  <dimension ref="A1:EI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25489,6 +25599,11 @@
           <t>2025年07月28日</t>
         </is>
       </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月29日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -26179,6 +26294,11 @@
           <t>688585.SH; 上纬新材; 79.27; 20.0%; 562474.0; 1</t>
         </is>
       </c>
+      <c r="EI2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 84.18; 6.2%; 276476.0; 12</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -26869,6 +26989,11 @@
           <t>300476.SZ; 胜宏科技; 182.77; 17.5%; 243860.5; 11</t>
         </is>
       </c>
+      <c r="EI3" t="inlineStr">
+        <is>
+          <t>688313.SH; 仕佳光子; 66.88; 10.0%; 207019.0; 16</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -27559,6 +27684,11 @@
           <t>301217.SZ; 铜冠铜箔; 25.08; 20.0%; 178433.5; 19</t>
         </is>
       </c>
+      <c r="EI4" t="inlineStr">
+        <is>
+          <t>300528.SZ; 幸福蓝海; 21.1; 20.0%; 203780.0; 17</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -28249,6 +28379,11 @@
           <t>300322.SZ; 硕贝德; 18.9; 20.0%; 176092.5; 21</t>
         </is>
       </c>
+      <c r="EI5" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 193.39; 8.8%; 201143.0; 19</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -28939,6 +29074,11 @@
           <t>300528.SZ; 幸福蓝海; 17.58; 20.0%; 166033.5; 26</t>
         </is>
       </c>
+      <c r="EI6" t="inlineStr">
+        <is>
+          <t>301555.SZ; 惠柏新材; 30.35; 2.1%; 196015.5; 21</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -29629,6 +29769,11 @@
           <t>301078.SZ; 孩子王; 13.39; 4.0%; 162873.5; 28</t>
         </is>
       </c>
+      <c r="EI7" t="inlineStr">
+        <is>
+          <t>301038.SZ; 深水规院; 30.67; 20.0%; 186933.0; 24</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -30319,6 +30464,11 @@
           <t>300021.SZ; 大禹节水; 6.96; 8.9%; 124169.5; 42</t>
         </is>
       </c>
+      <c r="EI8" t="inlineStr">
+        <is>
+          <t>300149.SZ; 睿智医药; 13.61; 20.0%; 155173.0; 32</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -31009,6 +31159,11 @@
           <t>836942.BJ; 恒立钻具; 70.06; 25.3%; 103719.5; 52</t>
         </is>
       </c>
+      <c r="EI9" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 209.93; 9.4%; 145465.0; 39</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -31699,6 +31854,11 @@
           <t>301200.SZ; 大族数控; 69.14; 20.0%; 99053.0; 57</t>
         </is>
       </c>
+      <c r="EI10" t="inlineStr">
+        <is>
+          <t>300539.SZ; 横河精密; 29.5; 19.1%; 118123.0; 49</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -32389,6 +32549,11 @@
           <t>301567.SZ; 贝隆精密; 42.9; 0.6%; 98482.0; 58</t>
         </is>
       </c>
+      <c r="EI11" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 189.25; 3.5%; 111344.0; 51</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -33079,6 +33244,11 @@
           <t>300436.SZ; 广生堂; 85.25; 13.7%; 88635.5; 73</t>
         </is>
       </c>
+      <c r="EI12" t="inlineStr">
+        <is>
+          <t>300394.SZ; 天孚通信; 101.08; 13.8%; 104581.5; 55</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -33769,6 +33939,11 @@
           <t>300706.SZ; 阿石创; 36.5; 9.2%; 83625.0; 77</t>
         </is>
       </c>
+      <c r="EI13" t="inlineStr">
+        <is>
+          <t>300725.SZ; 药石科技; 53.1; 18.8%; 102711.5; 58</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -34459,6 +34634,11 @@
           <t>300267.SZ; 尔康制药; 4.34; 15.4%; 75797.5; 89</t>
         </is>
       </c>
+      <c r="EI14" t="inlineStr">
+        <is>
+          <t>300122.SZ; 智飞生物; 25.06; 6.5%; 96233.0; 65</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -35149,6 +35329,11 @@
           <t>300502.SZ; 新易盛; 177.8; 2.8%; 74761.5; 92</t>
         </is>
       </c>
+      <c r="EI15" t="inlineStr">
+        <is>
+          <t>301078.SZ; 孩子王; 13.69; 2.2%; 91375.0; 68</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -35839,6 +36024,11 @@
           <t>300468.SZ; 四方精创; 42.97; 6.2%; 73469.0; 95</t>
         </is>
       </c>
+      <c r="EI16" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 24.18; 0.2%; 89118.0; 71</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -36529,6 +36719,11 @@
           <t>300059.SZ; 东方财富; 24.12; 0.5%; 68789.0; 99</t>
         </is>
       </c>
+      <c r="EI17" t="inlineStr">
+        <is>
+          <t>300188.SZ; 国投智能; 19.65; 18.5%; 85025.5; 76</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -37219,6 +37414,11 @@
           <t>301491.SZ; 汉桑科技; nan; nan%; 68541.0; 100</t>
         </is>
       </c>
+      <c r="EI18" t="inlineStr">
+        <is>
+          <t>300885.SZ; 海昌新材; 20.51; 20.0%; 82292.5; 80</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -37909,6 +38109,11 @@
           <t>688660.SH; 电气风电; 15.13; 17.5%; 63983.0; 107</t>
         </is>
       </c>
+      <c r="EI19" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 44.41; 3.4%; 81007.0; 82</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -38599,6 +38804,11 @@
           <t>300308.SZ; 中际旭创; 191.87; 3.6%; 59795.5; 124</t>
         </is>
       </c>
+      <c r="EI20" t="inlineStr">
+        <is>
+          <t>301217.SZ; 铜冠铜箔; 26.78; 6.8%; 75633.0; 97</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -39287,6 +39497,11 @@
       <c r="EH21" t="inlineStr">
         <is>
           <t>300229.SZ; 拓尔思; 24.3; 2.3%; 54515.0; 138</t>
+        </is>
+      </c>
+      <c r="EI21" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 92.22; 8.2%; 72644.0; 99</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EI13"/>
+  <dimension ref="A1:EL13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1129,6 +1129,21 @@
           <t>2025年07月29日</t>
         </is>
       </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月30日</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月31日</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月01日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1559,6 +1574,21 @@
           <t>688020.SH; 方邦股份; 1;  09:38:18; 2天2板; 56.57;  09:37:42; 20.0%; 2; PCB概念+电磁屏蔽膜+铜箔</t>
         </is>
       </c>
+      <c r="EJ2" t="inlineStr">
+        <is>
+          <t>300528.SZ; 幸福蓝海; 1;  10:14:36; 5天4板; 25.32;  10:09:51; 20.0%; 3; 《南京照相馆》上映+电影+国企+一季报增长</t>
+        </is>
+      </c>
+      <c r="EK2" t="inlineStr">
+        <is>
+          <t>688110.SH; 东芯股份; 2;  09:38:24; 3天2板; 64.76;  09:34:54; 20.0%; 1; 砺算科技+AI终端+存储芯片</t>
+        </is>
+      </c>
+      <c r="EL2" t="inlineStr">
+        <is>
+          <t>300289.SZ; 利德曼; 1;  09:30:36; 2天2板; 8.45;  09:25:00; 20.0%; 2; 重大重组+体外诊断+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1802,6 +1832,11 @@
       <c r="EI3" t="inlineStr">
         <is>
           <t>300528.SZ; 幸福蓝海; 4;  13:59:57; 4天3板; 21.1;  09:30:36; 20.0%; 2; 《南京照相馆》上映+电影+国企+一季报增长</t>
+        </is>
+      </c>
+      <c r="EK3" t="inlineStr">
+        <is>
+          <t>688189.SH; 南新制药; 2;  09:42:36; 2天2板; 17.14;  09:34:57; 20.0%; 2; 创新药+抗流感+国企改革</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EI532"/>
+  <dimension ref="A1:EL532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2823,6 +2858,21 @@
       <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>2025年07月29日</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月30日</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月31日</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月01日</t>
         </is>
       </c>
     </row>
@@ -8222,7 +8272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EI12"/>
+  <dimension ref="A1:EL12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8921,6 +8971,21 @@
           <t>2025年07月29日</t>
         </is>
       </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月30日</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月31日</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月01日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9571,6 +9636,21 @@
           <t>300539.SZ; 横河精密; 1;  10:46:48; 29.5; 曾涨停; 19.1%; 0.01H;  10:46:48</t>
         </is>
       </c>
+      <c r="EJ2" t="inlineStr">
+        <is>
+          <t>688091.SH; 上海谊众; 3;  09:34:41; 75.4; 曾涨停; 14.7%; 0.19H;  09:34:41|| 09:48:35|| 09:49:20</t>
+        </is>
+      </c>
+      <c r="EK2" t="inlineStr">
+        <is>
+          <t>300732.SZ; 设研院; 2;  09:33:21; 11.46; 曾涨停; 7.9%; 0.01H;  09:33:21|| 09:34:15</t>
+        </is>
+      </c>
+      <c r="EL2" t="inlineStr">
+        <is>
+          <t>300350.SZ; 华鹏飞; 1;  09:35:00; 6.71; 曾涨停; 7.9%; 0.00H;  09:35:00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10126,6 +10206,21 @@
           <t>688513.SH; 苑东生物; 1;  11:27:31; 65.92; 曾涨停; 15.4%; 0.00H;  11:27:31</t>
         </is>
       </c>
+      <c r="EJ3" t="inlineStr">
+        <is>
+          <t>300600.SZ; 国瑞科技; 3;  09:44:57; 18.03; 曾涨停; 14.8%; 0.20H;  09:44:57|| 09:45:21|| 09:47:45</t>
+        </is>
+      </c>
+      <c r="EK3" t="inlineStr">
+        <is>
+          <t>300158.SZ; 振东制药; 3;  11:24:21; 8.62; 曾涨停; 16.6%; 0.03H;  11:24:21|| 11:25:33|| 11:26:39</t>
+        </is>
+      </c>
+      <c r="EL3" t="inlineStr">
+        <is>
+          <t>688680.SH; 海优新材; 1;  10:09:49; 51.7; 曾涨停; 12.9%; 0.02H;  10:09:49</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -10521,6 +10616,21 @@
           <t>300188.SZ; 国投智能; 1;  14:53:12; 19.65; 曾涨停; 18.5%; 0.02H;  14:53:12</t>
         </is>
       </c>
+      <c r="EJ4" t="inlineStr">
+        <is>
+          <t>301075.SZ; 多瑞医药; 1;  10:29:45; 38.6; 曾涨停; 8.4%; 0.04H;  10:29:45</t>
+        </is>
+      </c>
+      <c r="EK4" t="inlineStr">
+        <is>
+          <t>301338.SZ; 凯格精机; 1;  13:06:36; 51.8; 曾涨停; 10.4%; 0.08H;  13:06:36</t>
+        </is>
+      </c>
+      <c r="EL4" t="inlineStr">
+        <is>
+          <t>301213.SZ; 观想科技; 1;  10:32:15; 67.99; 曾涨停; 12.8%; 0.03H;  10:32:15</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -10771,6 +10881,21 @@
           <t>300595.SZ; 欧普康视; 1;  11:04:33; 18.26; 曾涨停; 14.1%; 0.18H;  11:04:33</t>
         </is>
       </c>
+      <c r="EJ5" t="inlineStr">
+        <is>
+          <t>688039.SH; 当虹科技; 1;  10:38:00; 44; 曾涨停; 15.8%; 0.02H;  10:38:00</t>
+        </is>
+      </c>
+      <c r="EK5" t="inlineStr">
+        <is>
+          <t>301326.SZ; 捷邦科技; 2;  13:36:21; 81.91; 曾涨停; 13.9%; 0.24H;  13:36:21|| 13:49:12</t>
+        </is>
+      </c>
+      <c r="EL5" t="inlineStr">
+        <is>
+          <t>833266.BJ; 生物谷; 1;  10:59:31; 13.99; 曾涨停; 23.2%; 0.06H;  10:59:31</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -10956,6 +11081,16 @@
           <t>688585.SH; 上纬新材; 7;  11:06:05; 57.7; 曾涨停; 19.7%; 0.06H;  11:06:05|| 11:08:05|| 11:08:56|| 11:09:02|| 11:09:23|| 11:10:17|| 11:11:17</t>
         </is>
       </c>
+      <c r="EK6" t="inlineStr">
+        <is>
+          <t>301316.SZ; 慧博云通; 1;  13:53:03; 47.15; 曾涨停; 13.3%; 0.01H;  13:53:03</t>
+        </is>
+      </c>
+      <c r="EL6" t="inlineStr">
+        <is>
+          <t>688448.SH; 磁谷科技; 6;  11:05:10; 40; 曾涨停; 8.1%; 0.18H;  11:05:10|| 11:06:49|| 11:08:10|| 11:16:19|| 11:24:28|| 11:25:31</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -11051,6 +11186,16 @@
           <t>688316.SH; 青云科技; 1;  13:00:29; 82.2; 曾涨停; 15.1%; 0.00H;  13:00:29</t>
         </is>
       </c>
+      <c r="EK7" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 1;  13:53:30; 114.5; 曾涨停; 18.0%; 0.25H;  13:53:30</t>
+        </is>
+      </c>
+      <c r="EL7" t="inlineStr">
+        <is>
+          <t>301678.SZ; 新恒汇; 3;  14:12:27; 76.65; 曾涨停; 14.4%; 0.08H;  14:12:27|| 14:14:48|| 14:17:54</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -11104,6 +11249,11 @@
       <c r="EE8" t="inlineStr">
         <is>
           <t>688660.SH; 电气风电; 1;  13:32:25; 13.15; 曾涨停; 19.9%; 0.04H;  13:32:25</t>
+        </is>
+      </c>
+      <c r="EL8" t="inlineStr">
+        <is>
+          <t>300378.SZ; 鼎捷数智; 3;  14:22:39; 60.99; 曾涨停; 16.1%; 0.28H;  14:22:39|| 14:30:54|| 14:39:45</t>
         </is>
       </c>
     </row>
@@ -11198,7 +11348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EI30"/>
+  <dimension ref="A1:EL30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11897,6 +12047,21 @@
           <t>2025年07月29日</t>
         </is>
       </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月30日</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月31日</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月01日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -12587,6 +12752,21 @@
           <t>300885.SZ; 海昌新材; 0;  09:58:27; 首板涨停; 20.51;  09:58:27; 20.0%; 1; 人形机器人+粉末冶金+年报增长</t>
         </is>
       </c>
+      <c r="EJ2" t="inlineStr">
+        <is>
+          <t>300965.SZ; 恒宇信通; 0;  09:40:27; 首板涨停; 70.06;  09:40:27; 20.0%; 1; 军工电子+直升机+固定翼拓展</t>
+        </is>
+      </c>
+      <c r="EK2" t="inlineStr">
+        <is>
+          <t>300289.SZ; 利德曼; 0;  09:25:00; 首板涨停; 7.04;  09:25:00; 19.9%; 1; 重大重组+体外诊断+国企改革</t>
+        </is>
+      </c>
+      <c r="EL2" t="inlineStr">
+        <is>
+          <t>300500.SZ; 启迪设计; 0;  09:33:27; 首板涨停; 16.08;  09:33:27; 20.0%; 1; AI应用+智算中心+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -13257,6 +13437,21 @@
           <t>688110.SH; 东芯股份; 0;  10:01:37; 首板涨停; 46;  10:01:37; 20.0%; 1; 砺算科技+AI终端+存储芯片+车规产品</t>
         </is>
       </c>
+      <c r="EJ3" t="inlineStr">
+        <is>
+          <t>300732.SZ; 设研院; 0;  09:59:48; 首板涨停; 10.62;  09:59:48; 20.0%; 1; 雅下水电概念+水利工程</t>
+        </is>
+      </c>
+      <c r="EK3" t="inlineStr">
+        <is>
+          <t>300966.SZ; 共同药业; 0;  09:37:18; 首板涨停; 24.61;  09:37:18; 20.0%; 1; 辅助生殖+甾体药物+产能扩张</t>
+        </is>
+      </c>
+      <c r="EL3" t="inlineStr">
+        <is>
+          <t>688098.SH; 申联生物; 0;  09:48:24; 首板涨停; 8.48;  09:48:24; 19.9%; 1; 动物疫苗+多联多价疫苗+合作开发</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -13892,6 +14087,21 @@
           <t>301372.SZ; 科净源; 1;  11:04:45; 首板涨停; 29.62;  09:43:06; 20.0%; 1; 水利+水环境治理+一季报扭亏</t>
         </is>
       </c>
+      <c r="EJ4" t="inlineStr">
+        <is>
+          <t>300877.SZ; 金春股份; 3;  13:49:15; 首板涨停; 30.6;  13:27:51; 20.0%; 1; 非织造布材料+储能+可降解</t>
+        </is>
+      </c>
+      <c r="EK4" t="inlineStr">
+        <is>
+          <t>300579.SZ; 数字认证; 0;  10:13:27; 首板涨停; 36.6;  10:13:27; 20.0%; 1; 股权划转+网络安全+数字货币+北京国资</t>
+        </is>
+      </c>
+      <c r="EL4" t="inlineStr">
+        <is>
+          <t>300878.SZ; 维康药业; 0;  09:56:24; 首板涨停; 25.62;  09:56:24; 20.0%; 1; 黄甲软肝+创新药+中药</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -14462,6 +14672,21 @@
           <t>688622.SH; 禾信仪器; 1;  13:07:22; 首板涨停; 96.02;  11:23:37; 20.0%; 1; 量子科技+质谱仪</t>
         </is>
       </c>
+      <c r="EJ5" t="inlineStr">
+        <is>
+          <t>301235.SZ; 华康洁净; 7;  14:17:12; 首板涨停; 33.19;  09:38:39; 20.0%; 1; 半导体洁净室+业绩预增+医疗器械</t>
+        </is>
+      </c>
+      <c r="EK5" t="inlineStr">
+        <is>
+          <t>301489.SZ; 思泉新材; 3;  13:37:06; 首板涨停; 103.66;  09:36:45; 20.0%; 1; 散热产品+机器人概念+一季报增长</t>
+        </is>
+      </c>
+      <c r="EL5" t="inlineStr">
+        <is>
+          <t>300724.SZ; 捷佳伟创; 7;  09:56:54; 首板涨停; 66.19;  09:31:15; 20.0%; 1; 业绩预增+光伏设备+半导体清洗</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -14982,6 +15207,21 @@
           <t>300149.SZ; 睿智医药; 0;  13:31:42; 首板涨停; 13.61;  13:31:42; 20.0%; 1; CRO+ADC整包+小核酸药物</t>
         </is>
       </c>
+      <c r="EJ6" t="inlineStr">
+        <is>
+          <t>688189.SH; 南新制药; 5;  14:30:13; 首板涨停; 14.28;  10:07:10; 20.0%; 1; 创新药+抗流感+国企改革</t>
+        </is>
+      </c>
+      <c r="EK6" t="inlineStr">
+        <is>
+          <t>301171.SZ; 易点天下; 8;  14:30:48; 首板涨停; 33.54;  10:35:03; 20.0%; 1; AI营销+AI智能体+业绩增长</t>
+        </is>
+      </c>
+      <c r="EL6" t="inlineStr">
+        <is>
+          <t>300329.SZ; 海伦钢琴; 0;  10:50:51; 首板涨停; 11;  10:50:51; 20.0%; 1; 智能电钢+乐器制造+三胎概念+控制权变更</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -15412,6 +15652,16 @@
           <t>300189.SZ; 神农种业; 1;  14:29:06; 首板涨停; 5.47;  10:58:33; 20.0%; 1; 海南自贸区+水产投苗+油菜种子</t>
         </is>
       </c>
+      <c r="EK7" t="inlineStr">
+        <is>
+          <t>300733.SZ; 西菱动力; 4;  14:40:33; 首板涨停; 20.71;  13:22:36; 20.0%; 1; 军工+无人机+增资收购+中报预增</t>
+        </is>
+      </c>
+      <c r="EL7" t="inlineStr">
+        <is>
+          <t>688800.SH; 瑞可达; 8;  10:55:44; 首板涨停; 64.1;  10:07:35; 20.0%; 1; 人形机器人+连接器+业绩预增</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -15782,6 +16032,16 @@
           <t>688210.SH; 统联精密; 5;  14:38:21; 首板涨停; 33.49;  14:29:03; 20.0%; 1; 智能眼镜+消费电子+精密零部件</t>
         </is>
       </c>
+      <c r="EK8" t="inlineStr">
+        <is>
+          <t>300009.SZ; 安科生物; 10;  14:45:00; 首板涨停; 12.11;  13:00:12; 20.0%; 1; 辅助生殖+独家代理+创新药</t>
+        </is>
+      </c>
+      <c r="EL8" t="inlineStr">
+        <is>
+          <t>300486.SZ; 东杰智能; 0;  13:06:24; 首板涨停; 14.16;  13:06:24; 20.0%; 1; 智能物流+机器人概念+实控人或变更+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -16060,6 +16320,11 @@
       <c r="EC9" t="inlineStr">
         <is>
           <t>836942.BJ; 恒立钻具; 1;  10:00:05; 首板涨停; 25.59;  09:49:02; 30.0%; 1; 盾构机+破岩工具+产能释放+海外拓展</t>
+        </is>
+      </c>
+      <c r="EL9" t="inlineStr">
+        <is>
+          <t>300858.SZ; 科拓生物; 2;  14:51:27; 首板涨停; 20.4;  13:57:15; 20.0%; 1; 益生菌新药+幽门螺杆菌概念+宠物经济</t>
         </is>
       </c>
     </row>
@@ -17204,7 +17469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EI178"/>
+  <dimension ref="A1:EL178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17903,6 +18168,21 @@
           <t>2025年07月29日</t>
         </is>
       </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月30日</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月31日</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月01日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -18568,6 +18848,21 @@
           <t>300683.SZ; 海特生物; 1.0%; 16.4%; 50.61; 15.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EJ2" t="inlineStr">
+        <is>
+          <t>832786.BJ; 骑士乳业; 3.9%; 13.7%; 12.72; 9.3%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
+      <c r="EK2" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 2.5%; 20.2%; 102.95; 17.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EL2" t="inlineStr">
+        <is>
+          <t>300486.SZ; 东杰智能; 2.5%; 23.1%; 14.16; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -19193,6 +19488,21 @@
           <t>833751.BJ; 惠同新材; 0.3%; 14.6%; 23.23; 14.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EJ3" t="inlineStr">
+        <is>
+          <t>300732.SZ; 设研院; 3.1%; 23.8%; 10.62; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="EK3" t="inlineStr">
+        <is>
+          <t>688136.SH; 科兴制药; 2.3%; 15.8%; 53.25; 13.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EL3" t="inlineStr">
+        <is>
+          <t>300519.SZ; 新光药业; 2.0%; 15.0%; 19.8; 12.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -19763,6 +20073,21 @@
           <t>300572.SZ; 安车检测; 0.3%; 12.2%; 26.01; 11.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EJ4" t="inlineStr">
+        <is>
+          <t>301038.SZ; 深水规院; 2.2%; 13.3%; 34; 10.9%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="EK4" t="inlineStr">
+        <is>
+          <t>300261.SZ; 雅本化学; 0.8%; 12.9%; 8.81; 12.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EL4" t="inlineStr">
+        <is>
+          <t>300858.SZ; 科拓生物; 1.0%; 21.2%; 20.4; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -20263,6 +20588,21 @@
           <t>688513.SH; 苑东生物; 0.2%; 15.7%; 65.92; 15.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EJ5" t="inlineStr">
+        <is>
+          <t>688039.SH; 当虹科技; 0.3%; 16.2%; 44; 15.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EK5" t="inlineStr">
+        <is>
+          <t>300733.SZ; 西菱动力; 0.4%; 20.5%; 20.71; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EL5" t="inlineStr">
+        <is>
+          <t>301678.SZ; 新恒汇; 0.6%; 15.1%; 76.65; 14.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -20718,6 +21058,16 @@
           <t>300410.SZ; 正业科技; 0.1%; 17.6%; 9; 17.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EK6" t="inlineStr">
+        <is>
+          <t>301326.SZ; 捷邦科技; 0.0%; 13.9%; 81.91; 13.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EL6" t="inlineStr">
+        <is>
+          <t>301213.SZ; 观想科技; 0.5%; 13.3%; 67.99; 12.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -21141,6 +21491,11 @@
       <c r="EI7" t="inlineStr">
         <is>
           <t>837344.BJ; 三元基因; 0.0%; 20.8%; 34.84; 20.8%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="EK7" t="inlineStr">
+        <is>
+          <t>301316.SZ; 慧博云通; 0.0%; 13.3%; 47.15; 13.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -24905,7 +25260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EI21"/>
+  <dimension ref="A1:EL21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25604,6 +25959,21 @@
           <t>2025年07月29日</t>
         </is>
       </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月30日</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2025年07月31日</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月01日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -26299,6 +26669,21 @@
           <t>688585.SH; 上纬新材; 84.18; 6.2%; 276476.0; 12</t>
         </is>
       </c>
+      <c r="EJ2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 92.07; 9.4%; 885295.0; 1</t>
+        </is>
+      </c>
+      <c r="EK2" t="inlineStr">
+        <is>
+          <t>839680.BJ; *ST广道; 12.24; 29.9%; 274008.0; 5</t>
+        </is>
+      </c>
+      <c r="EL2" t="inlineStr">
+        <is>
+          <t>300527.SZ; ST应急; 10.01; -20.0%; 255716.0; 3</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -26994,6 +27379,21 @@
           <t>688313.SH; 仕佳光子; 66.88; 10.0%; 207019.0; 16</t>
         </is>
       </c>
+      <c r="EJ3" t="inlineStr">
+        <is>
+          <t>300528.SZ; 幸福蓝海; 25.32; 20.0%; 289178.0; 9</t>
+        </is>
+      </c>
+      <c r="EK3" t="inlineStr">
+        <is>
+          <t>301171.SZ; 易点天下; 33.54; 20.0%; 188867.0; 13</t>
+        </is>
+      </c>
+      <c r="EL3" t="inlineStr">
+        <is>
+          <t>300724.SZ; 捷佳伟创; 66.19; 20.0%; 155247.5; 11</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -27689,6 +28089,21 @@
           <t>300528.SZ; 幸福蓝海; 21.1; 20.0%; 203780.0; 17</t>
         </is>
       </c>
+      <c r="EJ4" t="inlineStr">
+        <is>
+          <t>300706.SZ; 阿石创; 38.6; 11.8%; 123876.5; 37</t>
+        </is>
+      </c>
+      <c r="EK4" t="inlineStr">
+        <is>
+          <t>300009.SZ; 安科生物; 12.11; 20.0%; 149440.5; 24</t>
+        </is>
+      </c>
+      <c r="EL4" t="inlineStr">
+        <is>
+          <t>300486.SZ; 东杰智能; 14.16; 20.0%; 121207.5; 16</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -28384,6 +28799,21 @@
           <t>300502.SZ; 新易盛; 193.39; 8.8%; 201143.0; 19</t>
         </is>
       </c>
+      <c r="EJ5" t="inlineStr">
+        <is>
+          <t>300732.SZ; 设研院; 10.62; 20.0%; 120716.0; 38</t>
+        </is>
+      </c>
+      <c r="EK5" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 114.5; 18.0%; 147768.5; 25</t>
+        </is>
+      </c>
+      <c r="EL5" t="inlineStr">
+        <is>
+          <t>300378.SZ; 鼎捷数智; 60.99; 16.1%; 121109.0; 17</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -29079,6 +29509,21 @@
           <t>301555.SZ; 惠柏新材; 30.35; 2.1%; 196015.5; 21</t>
         </is>
       </c>
+      <c r="EJ6" t="inlineStr">
+        <is>
+          <t>300750.SZ; 宁德时代; 277.09; -5.0%; 103063.0; 46</t>
+        </is>
+      </c>
+      <c r="EK6" t="inlineStr">
+        <is>
+          <t>301041.SZ; 金百泽; 26.18; -1.8%; 131377.5; 33</t>
+        </is>
+      </c>
+      <c r="EL6" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 210.63; -3.2%; 112241.5; 21</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -29774,6 +30219,21 @@
           <t>301038.SZ; 深水规院; 30.67; 20.0%; 186933.0; 24</t>
         </is>
       </c>
+      <c r="EJ7" t="inlineStr">
+        <is>
+          <t>301038.SZ; 深水规院; 34; 10.9%; 101022.0; 49</t>
+        </is>
+      </c>
+      <c r="EK7" t="inlineStr">
+        <is>
+          <t>688110.SH; 东芯股份; 64.76; 20.0%; 130300.5; 34</t>
+        </is>
+      </c>
+      <c r="EL7" t="inlineStr">
+        <is>
+          <t>300289.SZ; 利德曼; 8.45; 20.0%; 104241.0; 23</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -30469,6 +30929,21 @@
           <t>300149.SZ; 睿智医药; 13.61; 20.0%; 155173.0; 32</t>
         </is>
       </c>
+      <c r="EJ8" t="inlineStr">
+        <is>
+          <t>688110.SH; 东芯股份; 53.97; 17.3%; 91333.5; 56</t>
+        </is>
+      </c>
+      <c r="EK8" t="inlineStr">
+        <is>
+          <t>300527.SZ; 中船应急; nan; nan%; 117728.5; 47</t>
+        </is>
+      </c>
+      <c r="EL8" t="inlineStr">
+        <is>
+          <t>300624.SZ; 万兴科技; 89.6; 11.0%; 94593.0; 32</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -31164,6 +31639,21 @@
           <t>300308.SZ; 中际旭创; 209.93; 9.4%; 145465.0; 39</t>
         </is>
       </c>
+      <c r="EJ9" t="inlineStr">
+        <is>
+          <t>688189.SH; 南新制药; 14.28; 20.0%; 81989.5; 59</t>
+        </is>
+      </c>
+      <c r="EK9" t="inlineStr">
+        <is>
+          <t>300528.SZ; 幸福蓝海; 23.22; -8.3%; 114647.5; 50</t>
+        </is>
+      </c>
+      <c r="EL9" t="inlineStr">
+        <is>
+          <t>301171.SZ; 易点天下; 35.3; 5.2%; 83763.0; 42</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -31859,6 +32349,21 @@
           <t>300539.SZ; 横河精密; 29.5; 19.1%; 118123.0; 49</t>
         </is>
       </c>
+      <c r="EJ10" t="inlineStr">
+        <is>
+          <t>300965.SZ; 恒宇信通; 70.06; 20.0%; 79888.5; 63</t>
+        </is>
+      </c>
+      <c r="EK10" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 102.95; 17.2%; 113085.0; 51</t>
+        </is>
+      </c>
+      <c r="EL10" t="inlineStr">
+        <is>
+          <t>300500.SZ; 启迪设计; 16.08; 20.0%; 79519.0; 47</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -32554,6 +33059,21 @@
           <t>300476.SZ; 胜宏科技; 189.25; 3.5%; 111344.0; 51</t>
         </is>
       </c>
+      <c r="EJ11" t="inlineStr">
+        <is>
+          <t>300885.SZ; 海昌新材; 23.35; 13.8%; 79756.5; 64</t>
+        </is>
+      </c>
+      <c r="EK11" t="inlineStr">
+        <is>
+          <t>300579.SZ; 数字认证; 36.6; 20.0%; 108062.5; 52</t>
+        </is>
+      </c>
+      <c r="EL11" t="inlineStr">
+        <is>
+          <t>300878.SZ; 维康药业; 25.62; 20.0%; 69560.5; 60</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -33249,6 +33769,21 @@
           <t>300394.SZ; 天孚通信; 101.08; 13.8%; 104581.5; 55</t>
         </is>
       </c>
+      <c r="EJ12" t="inlineStr">
+        <is>
+          <t>300877.SZ; 金春股份; 30.6; 20.0%; 79596.5; 65</t>
+        </is>
+      </c>
+      <c r="EK12" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 92.07; 0.0%; 104963.0; 55</t>
+        </is>
+      </c>
+      <c r="EL12" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 92.07; 0.0%; 62706.5; 69</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -33944,6 +34479,21 @@
           <t>300725.SZ; 药石科技; 53.1; 18.8%; 102711.5; 58</t>
         </is>
       </c>
+      <c r="EJ13" t="inlineStr">
+        <is>
+          <t>300251.SZ; 光线传媒; 20.55; 3.6%; 75555.5; 74</t>
+        </is>
+      </c>
+      <c r="EK13" t="inlineStr">
+        <is>
+          <t>688189.SH; 南新制药; 17.14; 20.0%; 94694.5; 64</t>
+        </is>
+      </c>
+      <c r="EL13" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 102.3; -10.7%; 62622.0; 70</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -34639,6 +35189,21 @@
           <t>300122.SZ; 智飞生物; 25.06; 6.5%; 96233.0; 65</t>
         </is>
       </c>
+      <c r="EJ14" t="inlineStr">
+        <is>
+          <t>301078.SZ; 孩子王; 14.07; 2.8%; 75072.0; 76</t>
+        </is>
+      </c>
+      <c r="EK14" t="inlineStr">
+        <is>
+          <t>301489.SZ; 思泉新材; 103.66; 20.0%; 93236.5; 65</t>
+        </is>
+      </c>
+      <c r="EL14" t="inlineStr">
+        <is>
+          <t>300528.SZ; 幸福蓝海; 21.35; -8.1%; 60761.5; 75</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -35334,6 +35899,21 @@
           <t>301078.SZ; 孩子王; 13.69; 2.2%; 91375.0; 68</t>
         </is>
       </c>
+      <c r="EJ15" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 97; 5.2%; 74178.0; 80</t>
+        </is>
+      </c>
+      <c r="EK15" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 217.61; 3.3%; 88885.5; 70</t>
+        </is>
+      </c>
+      <c r="EL15" t="inlineStr">
+        <is>
+          <t>300657.SZ; 弘信电子; 29.27; -1.1%; 58267.5; 79</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -36029,6 +36609,21 @@
           <t>300059.SZ; 东方财富; 24.18; 0.2%; 89118.0; 71</t>
         </is>
       </c>
+      <c r="EJ16" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 192.07; 1.5%; 73871.5; 81</t>
+        </is>
+      </c>
+      <c r="EK16" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 189.21; -0.6%; 85998.5; 73</t>
+        </is>
+      </c>
+      <c r="EL16" t="inlineStr">
+        <is>
+          <t>300182.SZ; 捷成股份; 6.11; 6.4%; 55458.5; 86</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -36724,6 +37319,21 @@
           <t>300188.SZ; 国投智能; 19.65; 18.5%; 85025.5; 76</t>
         </is>
       </c>
+      <c r="EJ17" t="inlineStr">
+        <is>
+          <t>301235.SZ; 华康洁净; 33.19; 20.0%; 65978.0; 98</t>
+        </is>
+      </c>
+      <c r="EK17" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 51.99; 10.5%; 85855.5; 74</t>
+        </is>
+      </c>
+      <c r="EL17" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 191.35; -0.4%; 55251.5; 87</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -37419,6 +38029,21 @@
           <t>300885.SZ; 海昌新材; 20.51; 20.0%; 82292.5; 80</t>
         </is>
       </c>
+      <c r="EJ18" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 190.35; -1.6%; 62940.0; 103</t>
+        </is>
+      </c>
+      <c r="EK18" t="inlineStr">
+        <is>
+          <t>300158.SZ; 振东制药; 8.62; 16.6%; 82092.5; 80</t>
+        </is>
+      </c>
+      <c r="EL18" t="inlineStr">
+        <is>
+          <t>300858.SZ; 科拓生物; 20.4; 20.0%; 55052.5; 88</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -38114,6 +38739,21 @@
           <t>300468.SZ; 四方精创; 44.41; 3.4%; 81007.0; 82</t>
         </is>
       </c>
+      <c r="EJ19" t="inlineStr">
+        <is>
+          <t>300086.SZ; 康芝药业; 8.48; 6.0%; 60561.0; 105</t>
+        </is>
+      </c>
+      <c r="EK19" t="inlineStr">
+        <is>
+          <t>300750.SZ; 宁德时代; 264.62; -4.5%; 80709.5; 83</t>
+        </is>
+      </c>
+      <c r="EL19" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 183.12; -3.2%; 54504.0; 90</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -38809,6 +39449,21 @@
           <t>301217.SZ; 铜冠铜箔; 26.78; 6.8%; 75633.0; 97</t>
         </is>
       </c>
+      <c r="EJ20" t="inlineStr">
+        <is>
+          <t>300527.SZ; 中船应急; 12.51; 4.9%; 59997.5; 108</t>
+        </is>
+      </c>
+      <c r="EK20" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 192.08; 0.0%; 76546.5; 87</t>
+        </is>
+      </c>
+      <c r="EL20" t="inlineStr">
+        <is>
+          <t>300058.SZ; 蓝色光标; 7.18; 3.3%; 51571.5; 95</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -39502,6 +40157,21 @@
       <c r="EI21" t="inlineStr">
         <is>
           <t>300436.SZ; 广生堂; 92.22; 8.2%; 72644.0; 99</t>
+        </is>
+      </c>
+      <c r="EJ21" t="inlineStr">
+        <is>
+          <t>300322.SZ; 硕贝德; 19.06; 1.8%; 59943.5; 109</t>
+        </is>
+      </c>
+      <c r="EK21" t="inlineStr">
+        <is>
+          <t>300732.SZ; 设研院; 11.46; 7.9%; 74003.5; 88</t>
+        </is>
+      </c>
+      <c r="EL21" t="inlineStr">
+        <is>
+          <t>300170.SZ; 汉得信息; 19.96; 5.7%; 50436.0; 100</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EL13"/>
+  <dimension ref="A1:EO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1144,6 +1144,21 @@
           <t>2025年08月01日</t>
         </is>
       </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月04日</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月05日</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月06日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1589,6 +1604,21 @@
           <t>300289.SZ; 利德曼; 1;  09:30:36; 2天2板; 8.45;  09:25:00; 20.0%; 2; 重大重组+体外诊断+国企改革</t>
         </is>
       </c>
+      <c r="EM2" t="inlineStr">
+        <is>
+          <t>300486.SZ; 东杰智能; 2;  09:35:45; 2天2板; 16.99;  09:32:00; 20.0%; 2; 智能物流+机器人概念+实控人或变更+国企改革</t>
+        </is>
+      </c>
+      <c r="EN2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 0;  14:56:15; 20天12板; 110.48;  14:56:15; 20.0%; 1; 智元机器人核心团队持股平台拟入主+风电材料</t>
+        </is>
+      </c>
+      <c r="EO2" t="inlineStr">
+        <is>
+          <t>301076.SZ; 新瀚新材; 1;  09:49:36; 2天2板; 44.58;  09:38:24; 20.0%; 2; DFBP（PEEK材料核心原料）+芳香族酮类</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1839,6 +1869,21 @@
           <t>688189.SH; 南新制药; 2;  09:42:36; 2天2板; 17.14;  09:34:57; 20.0%; 2; 创新药+抗流感+国企改革</t>
         </is>
       </c>
+      <c r="EM3" t="inlineStr">
+        <is>
+          <t>688110.SH; 东芯股份; 1;  14:38:39; 5天3板; 68.88;  10:42:21; 20.0%; 1; 砺算科技+存储芯片+存算联一体化</t>
+        </is>
+      </c>
+      <c r="EN3" t="inlineStr">
+        <is>
+          <t>300486.SZ; 东杰智能; 7;  15:00:00; 3天3板; 20.39;  09:43:33; 20.0%; 3; 智能物流+机器人概念+实控人或变更+国企改革</t>
+        </is>
+      </c>
+      <c r="EO3" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 19;  14:06:39; 3天2板; 157.9;  13:29:18; 20.0%; 1; 军工装备+非金属复合材料+无人机业务</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1972,6 +2017,11 @@
       <c r="EI4" t="inlineStr">
         <is>
           <t>301038.SZ; 深水规院; 6;  14:45:57; 7天5板; 30.67;  14:37:15; 20.0%; 1; 水利+雅下水电概念+AI水科技+深圳国资</t>
+        </is>
+      </c>
+      <c r="EM4" t="inlineStr">
+        <is>
+          <t>300289.SZ; 利德曼; 11;  14:50:33; 3天3板; 10.14;  14:04:03; 20.0%; 3; 重大重组+体外诊断+国企改革</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EL532"/>
+  <dimension ref="A1:EO532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,6 +2923,21 @@
       <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>2025年08月01日</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月04日</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月05日</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月06日</t>
         </is>
       </c>
     </row>
@@ -8272,7 +8337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EL12"/>
+  <dimension ref="A1:EO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8986,6 +9051,21 @@
           <t>2025年08月01日</t>
         </is>
       </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月04日</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月05日</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月06日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9651,6 +9731,16 @@
           <t>300350.SZ; 华鹏飞; 1;  09:35:00; 6.71; 曾涨停; 7.9%; 0.00H;  09:35:00</t>
         </is>
       </c>
+      <c r="EN2" t="inlineStr">
+        <is>
+          <t>300554.SZ; 三超新材; 1;  09:25:00; 25.8; 曾涨停; 7.1%; 0.02H;  09:25:00</t>
+        </is>
+      </c>
+      <c r="EO2" t="inlineStr">
+        <is>
+          <t>300329.SZ; 海伦钢琴; 1;  09:42:42; 12.44; 曾涨停; 3.2%; 0.04H;  09:42:42</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10221,6 +10311,16 @@
           <t>688680.SH; 海优新材; 1;  10:09:49; 51.7; 曾涨停; 12.9%; 0.02H;  10:09:49</t>
         </is>
       </c>
+      <c r="EN3" t="inlineStr">
+        <is>
+          <t>301179.SZ; 泽宇智能; 2;  09:39:06; 17.05; 曾涨停; 14.0%; 0.62H;  09:39:06|| 10:18:00</t>
+        </is>
+      </c>
+      <c r="EO3" t="inlineStr">
+        <is>
+          <t>301397.SZ; 溯联股份; 1;  09:52:30; 36.21; 曾涨停; 13.8%; 0.03H;  09:52:30</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -10631,6 +10731,16 @@
           <t>301213.SZ; 观想科技; 1;  10:32:15; 67.99; 曾涨停; 12.8%; 0.03H;  10:32:15</t>
         </is>
       </c>
+      <c r="EN4" t="inlineStr">
+        <is>
+          <t>300455.SZ; 航天智装; 3;  09:46:00; 17.03; 曾涨停; 16.5%; 0.26H;  09:46:00|| 09:48:18|| 09:57:12</t>
+        </is>
+      </c>
+      <c r="EO4" t="inlineStr">
+        <is>
+          <t>688167.SH; 炬光科技; 1;  13:53:37; 100.01; 曾涨停; 16.2%; 0.00H;  13:53:37</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -10894,6 +11004,11 @@
       <c r="EL5" t="inlineStr">
         <is>
           <t>833266.BJ; 生物谷; 1;  10:59:31; 13.99; 曾涨停; 23.2%; 0.06H;  10:59:31</t>
+        </is>
+      </c>
+      <c r="EN5" t="inlineStr">
+        <is>
+          <t>300218.SZ; 安利股份; 1;  10:08:39; 19.22; 曾涨停; 12.1%; 0.32H;  10:08:39</t>
         </is>
       </c>
     </row>
@@ -11348,7 +11463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EL30"/>
+  <dimension ref="A1:EO30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12062,6 +12177,21 @@
           <t>2025年08月01日</t>
         </is>
       </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月04日</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月05日</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月06日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -12767,6 +12897,21 @@
           <t>300500.SZ; 启迪设计; 0;  09:33:27; 首板涨停; 16.08;  09:33:27; 20.0%; 1; AI应用+智算中心+一季报增长</t>
         </is>
       </c>
+      <c r="EM2" t="inlineStr">
+        <is>
+          <t>301389.SZ; 隆扬电子; 0;  09:36:54; 首板涨停; 51.72;  09:36:54; 20.0%; 1; 复合铜箔+电磁屏蔽材料+消费电子+并购重组</t>
+        </is>
+      </c>
+      <c r="EN2" t="inlineStr">
+        <is>
+          <t>688659.SH; 元琛科技; 0;  09:38:28; 首板涨停; 11.53;  09:38:28; 20.0%; 1; PET铜箔+环保+AI环保岛+海外布局</t>
+        </is>
+      </c>
+      <c r="EO2" t="inlineStr">
+        <is>
+          <t>301117.SZ; 佳缘科技; 0;  09:36:57; 首板涨停; 35.72;  09:36:57; 20.0%; 1; 军工+医疗AI+SIP芯片+网络安全</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -13452,6 +13597,21 @@
           <t>688098.SH; 申联生物; 0;  09:48:24; 首板涨停; 8.48;  09:48:24; 19.9%; 1; 动物疫苗+多联多价疫苗+合作开发</t>
         </is>
       </c>
+      <c r="EM3" t="inlineStr">
+        <is>
+          <t>300696.SZ; 爱乐达; 3;  09:43:42; 首板涨停; 30.12;  09:32:42; 20.0%; 1; 军工+商业航天+大飞机+无人机</t>
+        </is>
+      </c>
+      <c r="EN3" t="inlineStr">
+        <is>
+          <t>300069.SZ; 金利华电; 0;  10:19:15; 首板涨停; 25.64;  10:19:15; 20.0%; 1; 玻璃绝缘子+航空航天+并购重组</t>
+        </is>
+      </c>
+      <c r="EO3" t="inlineStr">
+        <is>
+          <t>300572.SZ; 安车检测; 2;  10:14:48; 首板涨停; 31.21;  09:56:57; 20.0%; 1; 控制权变更+复牌+新能源汽车检测+机动车检测</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -14102,6 +14262,21 @@
           <t>300878.SZ; 维康药业; 0;  09:56:24; 首板涨停; 25.62;  09:56:24; 20.0%; 1; 黄甲软肝+创新药+中药</t>
         </is>
       </c>
+      <c r="EM4" t="inlineStr">
+        <is>
+          <t>688788.SH; 科思科技; 0;  10:16:25; 首板涨停; 72.73;  10:16:25; 20.0%; 1; 军工电子+无人机+AI应用</t>
+        </is>
+      </c>
+      <c r="EN4" t="inlineStr">
+        <is>
+          <t>300689.SZ; 澄天伟业; 0;  11:04:45; 首板涨停; 56.72;  11:04:45; 20.0%; 1; eSIM+智能卡+液冷+半导体封装材料</t>
+        </is>
+      </c>
+      <c r="EO4" t="inlineStr">
+        <is>
+          <t>688529.SH; 豪森智能; 0;  10:21:48; 首板涨停; 24.58;  10:21:48; 20.0%; 1; 人形机器人+智能制造</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -14687,6 +14862,21 @@
           <t>300724.SZ; 捷佳伟创; 7;  09:56:54; 首板涨停; 66.19;  09:31:15; 20.0%; 1; 业绩预增+光伏设备+半导体清洗</t>
         </is>
       </c>
+      <c r="EM5" t="inlineStr">
+        <is>
+          <t>688081.SH; 兴图新科; 0;  13:16:46; 首板涨停; 26.46;  13:16:46; 20.0%; 1; 军工+低空经济+AI技术</t>
+        </is>
+      </c>
+      <c r="EN5" t="inlineStr">
+        <is>
+          <t>301076.SZ; 新瀚新材; 6;  13:27:45; 首板涨停; 37.15;  11:11:27; 20.0%; 1; DFBP（PEEK材料核心原料）+芳香族酮类</t>
+        </is>
+      </c>
+      <c r="EO5" t="inlineStr">
+        <is>
+          <t>300600.SZ; 国瑞科技; 1;  10:53:18; 首板涨停; 20.7;  10:17:09; 20.0%; 1; 军工装备+商业航天+新能源船舶+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -15222,6 +15412,21 @@
           <t>300329.SZ; 海伦钢琴; 0;  10:50:51; 首板涨停; 11;  10:50:51; 20.0%; 1; 智能电钢+乐器制造+三胎概念+控制权变更</t>
         </is>
       </c>
+      <c r="EM6" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 0;  13:20:48; 首板涨停; 114.78;  13:20:48; 20.0%; 1; 军工装备+非金属复合材料+无人机业务</t>
+        </is>
+      </c>
+      <c r="EN6" t="inlineStr">
+        <is>
+          <t>300943.SZ; 春晖智控; 0;  13:29:36; 首板涨停; 18.62;  13:29:36; 20.0%; 1; 无人机+卫星导航+氢能源+汽车热管理</t>
+        </is>
+      </c>
+      <c r="EO6" t="inlineStr">
+        <is>
+          <t>300166.SZ; 东方国信; 0;  10:56:39; 首板涨停; 12.71;  10:56:39; 20.0%; 1; 华为昇思+智算中心+新型工业化+数字货币</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -15662,6 +15867,21 @@
           <t>688800.SH; 瑞可达; 8;  10:55:44; 首板涨停; 64.1;  10:07:35; 20.0%; 1; 人形机器人+连接器+业绩预增</t>
         </is>
       </c>
+      <c r="EM7" t="inlineStr">
+        <is>
+          <t>300965.SZ; 恒宇信通; 0;  13:23:30; 首板涨停; 76.09;  13:23:30; 20.0%; 1; 军工电子+直升机显控设备</t>
+        </is>
+      </c>
+      <c r="EN7" t="inlineStr">
+        <is>
+          <t>300916.SZ; 朗特智能; 2;  14:34:42; 首板涨停; 42.73;  13:20:03; 20.0%; 1; 机器人概念+智能控制器+消费电子</t>
+        </is>
+      </c>
+      <c r="EO7" t="inlineStr">
+        <is>
+          <t>301616.SZ; 浙江华业; 7;  11:15:12; 首板涨停; 52.39;  10:46:39; 20.0%; 1; 注塑机+机器人概念+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -16042,6 +16262,21 @@
           <t>300486.SZ; 东杰智能; 0;  13:06:24; 首板涨停; 14.16;  13:06:24; 20.0%; 1; 智能物流+机器人概念+实控人或变更+国企改革</t>
         </is>
       </c>
+      <c r="EM8" t="inlineStr">
+        <is>
+          <t>300199.SZ; 翰宇药业; 1;  14:04:45; 首板涨停; 24.32;  13:27:03; 20.0%; 1; RWA+减重药+多肽药物+中报预增</t>
+        </is>
+      </c>
+      <c r="EN8" t="inlineStr">
+        <is>
+          <t>300960.SZ; 通业科技; 0;  14:40:03; 首板涨停; 33.92;  14:40:03; 20.0%; 1; 轨道交通+电机+海外拓展+高铁概念</t>
+        </is>
+      </c>
+      <c r="EO8" t="inlineStr">
+        <is>
+          <t>301069.SZ; 凯盛新材; 0;  11:20:09; 首板涨停; 21.56;  11:20:09; 20.0%; 1; PEEK材料+精细化工+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -16327,6 +16562,16 @@
           <t>300858.SZ; 科拓生物; 2;  14:51:27; 首板涨停; 20.4;  13:57:15; 20.0%; 1; 益生菌新药+幽门螺杆菌概念+宠物经济</t>
         </is>
       </c>
+      <c r="EM9" t="inlineStr">
+        <is>
+          <t>300830.SZ; 金现代; 0;  14:20:36; 首板涨停; 13.58;  14:20:36; 20.0%; 1; 低代码平台+实验室管理系统+国家电网+AI应用</t>
+        </is>
+      </c>
+      <c r="EO9" t="inlineStr">
+        <is>
+          <t>836247.BJ; 华密新材; 0;  11:21:58; 首板涨停; 30.84;  11:21:58; 30.0%; 1; 机器人皮肤+特种橡胶材料+军工+新能源汽车</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -16547,6 +16792,16 @@
           <t>300617.SZ; 安靠智电; 4;  10:16:24; 首板涨停; 36.73;  09:59:06; 20.0%; 1; 特高压+GIL+数据中心</t>
         </is>
       </c>
+      <c r="EM10" t="inlineStr">
+        <is>
+          <t>688265.SH; 南模生物; 3;  14:22:09; 首板涨停; 43.73;  14:08:45; 20.0%; 1; 基因修饰动物模型+医疗服务</t>
+        </is>
+      </c>
+      <c r="EO10" t="inlineStr">
+        <is>
+          <t>300731.SZ; 科创新源; 13;  13:15:57; 首板涨停; 47.12;  09:43:42; 20.0%; 1; 液冷服务器+新能源汽车液冷板+热管理</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -16727,6 +16982,16 @@
           <t>300808.SZ; 久量股份; 0;  10:16:30; 首板涨停; 35.94;  10:16:30; 20.0%; 1; LED照明+一带一路+国企改革</t>
         </is>
       </c>
+      <c r="EM11" t="inlineStr">
+        <is>
+          <t>300584.SZ; 海辰药业; 0;  14:23:21; 首板涨停; 41.27;  14:23:21; 20.0%; 1; 固态电池+创新药+一季报增长</t>
+        </is>
+      </c>
+      <c r="EO11" t="inlineStr">
+        <is>
+          <t>300875.SZ; 捷强装备; 0;  13:53:18; 首板涨停; 58.06;  13:53:18; 20.0%; 1; 军工装备+核生化安全+一季报好转</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -16857,6 +17122,11 @@
           <t>300722.SZ; 新余国科; 0;  10:49:33; 首板涨停; 41.05;  10:49:33; 20.0%; 1; 火工品+军工+国企</t>
         </is>
       </c>
+      <c r="EO12" t="inlineStr">
+        <is>
+          <t>688039.SH; 当虹科技; 0;  13:58:25; 首板涨停; 58.56;  13:58:25; 20.0%; 1; 机器人系统首发+AI视频技术+华为昇腾</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -16952,6 +17222,11 @@
           <t>301161.SZ; 唯万密封; 1;  13:08:03; 首板涨停; 29.59;  13:05:27; 20.0%; 1; 工程机械+股权收购+一季报增长</t>
         </is>
       </c>
+      <c r="EO13" t="inlineStr">
+        <is>
+          <t>300906.SZ; 日月明; 0;  14:19:45; 首板涨停; 35.66;  14:19:45; 20.0%; 1; 高铁+专精特新+年报增长</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -17032,6 +17307,11 @@
           <t>300718.SZ; 长盛轴承; 8;  14:09:15; 首板涨停; 95.28;  09:44:00; 20.0%; 1; 机器人+自润滑轴承+业绩增长</t>
         </is>
       </c>
+      <c r="EO14" t="inlineStr">
+        <is>
+          <t>300885.SZ; 海昌新材; 0;  14:27:42; 首板涨停; 28.86;  14:27:42; 20.0%; 1; 人形机器人+粉末冶金+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -17105,6 +17385,11 @@
       <c r="EC15" t="inlineStr">
         <is>
           <t>873706.BJ; 铁拓机械; 1;  14:22:59; 首板涨停; 24.01;  14:17:41; 30.0%; 1; 沥青混合料搅拌设备+海外销售增长+俄罗斯市场</t>
+        </is>
+      </c>
+      <c r="EO15" t="inlineStr">
+        <is>
+          <t>688711.SH; 宏微科技; 0;  14:35:14; 首板涨停; 31.22;  14:35:14; 20.0%; 1; 机器人探索+SiC增长+可控核聚变</t>
         </is>
       </c>
     </row>
@@ -17469,7 +17754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EL178"/>
+  <dimension ref="A1:EO178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18183,6 +18468,21 @@
           <t>2025年08月01日</t>
         </is>
       </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月04日</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月05日</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月06日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -18863,6 +19163,21 @@
           <t>300486.SZ; 东杰智能; 2.5%; 23.1%; 14.16; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EM2" t="inlineStr">
+        <is>
+          <t>300966.SZ; 共同药业; 6.3%; 13.3%; 28.33; 6.2%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
+      <c r="EN2" t="inlineStr">
+        <is>
+          <t>300731.SZ; 科创新源; 5.5%; 12.6%; 39.27; 6.4%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="EO2" t="inlineStr">
+        <is>
+          <t>836247.BJ; 华密新材; 3.0%; 33.9%; 30.84; 30.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -19503,6 +19818,21 @@
           <t>300519.SZ; 新光药业; 2.0%; 15.0%; 19.8; 12.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EM3" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 3.8%; 24.7%; 114.78; 20.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EN3" t="inlineStr">
+        <is>
+          <t>301678.SZ; 新恒汇; 1.8%; 18.4%; 91.81; 16.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EO3" t="inlineStr">
+        <is>
+          <t>300644.SZ; 南京聚隆; 1.8%; 18.1%; 41.9; 15.9%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -20088,6 +20418,21 @@
           <t>300858.SZ; 科拓生物; 1.0%; 21.2%; 20.4; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EM4" t="inlineStr">
+        <is>
+          <t>300591.SZ; 万里马; 2.3%; 15.1%; 12.6; 12.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EN4" t="inlineStr">
+        <is>
+          <t>300732.SZ; 设研院; 1.4%; 13.0%; 11.58; 11.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EO4" t="inlineStr">
+        <is>
+          <t>300581.SZ; 晨曦航空; 1.7%; 13.5%; 24.38; 11.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -20603,6 +20948,21 @@
           <t>301678.SZ; 新恒汇; 0.6%; 15.1%; 76.65; 14.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EM5" t="inlineStr">
+        <is>
+          <t>832885.BJ; 星辰科技; 2.1%; 18.4%; 27.37; 15.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EN5" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 0.9%; 15.7%; 131.58; 14.6%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="EO5" t="inlineStr">
+        <is>
+          <t>832469.BJ; 富恒新材; 1.5%; 17.8%; 17.44; 16.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -21068,6 +21428,16 @@
           <t>301213.SZ; 观想科技; 0.5%; 13.3%; 67.99; 12.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EM6" t="inlineStr">
+        <is>
+          <t>688258.SH; 卓易信息; 1.8%; 14.1%; 75.43; 12.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EO6" t="inlineStr">
+        <is>
+          <t>300885.SZ; 海昌新材; 1.5%; 21.8%; 28.86; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -21498,6 +21868,16 @@
           <t>301316.SZ; 慧博云通; 0.0%; 13.3%; 47.15; 13.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EM7" t="inlineStr">
+        <is>
+          <t>300965.SZ; 恒宇信通; 1.4%; 21.7%; 76.09; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="EO7" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 1.2%; 21.5%; 157.9; 20.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -21858,6 +22238,16 @@
           <t>300368.SZ; 汇金股份; 0.7%; 16.0%; 11.61; 15.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EM8" t="inlineStr">
+        <is>
+          <t>688011.SH; 新光光电; 1.0%; 14.7%; 49.06; 13.5%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
+      <c r="EO8" t="inlineStr">
+        <is>
+          <t>300875.SZ; 捷强装备; 1.2%; 21.5%; 58.06; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -22153,6 +22543,16 @@
           <t>688303.SH; 大全能源; 0.5%; 12.3%; 26.5; 11.7%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EM9" t="inlineStr">
+        <is>
+          <t>688376.SH; 美埃科技; 0.9%; 12.4%; 48.35; 11.4%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="EO9" t="inlineStr">
+        <is>
+          <t>301117.SZ; 佳缘科技; 1.0%; 21.2%; 35.72; 20.0%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -22408,6 +22808,16 @@
           <t>688073.SH; 毕得医药; 0.0%; 13.0%; 58.02; 13.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EM10" t="inlineStr">
+        <is>
+          <t>301161.SZ; 唯万密封; 0.7%; 13.2%; 31.19; 12.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EO10" t="inlineStr">
+        <is>
+          <t>688711.SH; 宏微科技; 0.8%; 21.0%; 31.22; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -22623,6 +23033,16 @@
           <t>920098.BJ; 科隆新材; 0.4%; 13.2%; 38.5; 12.7%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EM11" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 0.6%; 18.9%; 120.9; 18.2%; 强中选强||阳线||缩量</t>
+        </is>
+      </c>
+      <c r="EO11" t="inlineStr">
+        <is>
+          <t>300906.SZ; 日月明; 0.3%; 20.3%; 35.66; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -22773,6 +23193,16 @@
           <t>688318.SH; 财富趋势; 0.4%; 18.3%; 124.01; 17.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EM12" t="inlineStr">
+        <is>
+          <t>301529.SZ; 福赛科技; 0.5%; 14.9%; 70.31; 14.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EO12" t="inlineStr">
+        <is>
+          <t>688660.SH; 电气风电; 0.1%; 15.2%; 16.35; 15.1%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -22903,6 +23333,16 @@
           <t>300600.SZ; 国瑞科技; 0.2%; 20.3%; 11.27; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EM13" t="inlineStr">
+        <is>
+          <t>688163.SH; 赛伦生物; 0.5%; 12.4%; 27.37; 11.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EO13" t="inlineStr">
+        <is>
+          <t>300572.SZ; 安车检测; 0.0%; 20.0%; 31.21; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -23008,6 +23448,16 @@
           <t>688282.SH; 理工导航; 0.1%; 13.1%; 47.3; 13.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EM14" t="inlineStr">
+        <is>
+          <t>688059.SH; 华锐精密; 0.4%; 14.2%; 62.38; 13.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EO14" t="inlineStr">
+        <is>
+          <t>301397.SZ; 溯联股份; 0.0%; 13.9%; 36.21; 13.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -23093,6 +23543,11 @@
           <t>301292.SZ; 海科新源; 0.4%; 13.9%; 26.68; 13.4%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EM15" t="inlineStr">
+        <is>
+          <t>300696.SZ; 爱乐达; 0.4%; 20.4%; 30.12; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -23168,6 +23623,11 @@
           <t>301003.SZ; 江苏博云; 0.1%; 13.0%; 31.08; 12.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EM16" t="inlineStr">
+        <is>
+          <t>300648.SZ; 星云股份; 0.1%; 15.0%; 49.9; 14.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -23241,6 +23701,11 @@
       <c r="DI17" t="inlineStr">
         <is>
           <t>300773.SZ; 拉卡拉; 0.0%; 13.1%; 31.9; 13.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="EM17" t="inlineStr">
+        <is>
+          <t>300199.SZ; 翰宇药业; 0.0%; 20.0%; 24.32; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -25260,7 +25725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EL21"/>
+  <dimension ref="A1:EO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25974,6 +26439,21 @@
           <t>2025年08月01日</t>
         </is>
       </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月04日</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月05日</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月06日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -26684,6 +27164,21 @@
           <t>300527.SZ; ST应急; 10.01; -20.0%; 255716.0; 3</t>
         </is>
       </c>
+      <c r="EM2" t="inlineStr">
+        <is>
+          <t>300199.SZ; 翰宇药业; 24.32; 20.0%; 364089.5; 4</t>
+        </is>
+      </c>
+      <c r="EN2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 110.48; 20.0%; 981725.5; 1</t>
+        </is>
+      </c>
+      <c r="EO2" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 88.38; -20.0%; 423971.0; 4</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -27394,6 +27889,21 @@
           <t>300724.SZ; 捷佳伟创; 66.19; 20.0%; 155247.5; 11</t>
         </is>
       </c>
+      <c r="EM3" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 92.07; 0.0%; 330394.0; 5</t>
+        </is>
+      </c>
+      <c r="EN3" t="inlineStr">
+        <is>
+          <t>300486.SZ; 东杰智能; 20.39; 20.0%; 290850.5; 6</t>
+        </is>
+      </c>
+      <c r="EO3" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 157.9; 20.0%; 248977.5; 13</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -28104,6 +28614,21 @@
           <t>300486.SZ; 东杰智能; 14.16; 20.0%; 121207.5; 16</t>
         </is>
       </c>
+      <c r="EM4" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 114.78; 20.0%; 185856.0; 13</t>
+        </is>
+      </c>
+      <c r="EN4" t="inlineStr">
+        <is>
+          <t>300199.SZ; 翰宇药业; 25.69; 5.6%; 132108.5; 26</t>
+        </is>
+      </c>
+      <c r="EO4" t="inlineStr">
+        <is>
+          <t>300166.SZ; 东方国信; 12.71; 20.0%; 203824.5; 22</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -28814,6 +29339,21 @@
           <t>300378.SZ; 鼎捷数智; 60.99; 16.1%; 121109.0; 17</t>
         </is>
       </c>
+      <c r="EM5" t="inlineStr">
+        <is>
+          <t>300289.SZ; 利德曼; 10.14; 20.0%; 169268.0; 19</t>
+        </is>
+      </c>
+      <c r="EN5" t="inlineStr">
+        <is>
+          <t>301678.SZ; 新恒汇; 91.81; 16.2%; 129547.0; 28</t>
+        </is>
+      </c>
+      <c r="EO5" t="inlineStr">
+        <is>
+          <t>300024.SZ; 机器人; 20.09; 14.7%; 166145.0; 27</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -29524,6 +30064,21 @@
           <t>300308.SZ; 中际旭创; 210.63; -3.2%; 112241.5; 21</t>
         </is>
       </c>
+      <c r="EM6" t="inlineStr">
+        <is>
+          <t>300830.SZ; 金现代; 13.58; 20.0%; 157758.0; 22</t>
+        </is>
+      </c>
+      <c r="EN6" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 131.58; 14.6%; 121979.5; 34</t>
+        </is>
+      </c>
+      <c r="EO6" t="inlineStr">
+        <is>
+          <t>300885.SZ; 海昌新材; 28.86; 20.0%; 160842.0; 28</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -30234,6 +30789,21 @@
           <t>300289.SZ; 利德曼; 8.45; 20.0%; 104241.0; 23</t>
         </is>
       </c>
+      <c r="EM7" t="inlineStr">
+        <is>
+          <t>300486.SZ; 东杰智能; 16.99; 20.0%; 150839.0; 24</t>
+        </is>
+      </c>
+      <c r="EN7" t="inlineStr">
+        <is>
+          <t>301076.SZ; 新瀚新材; 37.15; 20.0%; 114356.0; 38</t>
+        </is>
+      </c>
+      <c r="EO7" t="inlineStr">
+        <is>
+          <t>301491.SZ; 汉桑科技; 82.89; 186.7%; 153233.5; 31</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -30944,6 +31514,21 @@
           <t>300624.SZ; 万兴科技; 89.6; 11.0%; 94593.0; 32</t>
         </is>
       </c>
+      <c r="EM8" t="inlineStr">
+        <is>
+          <t>300584.SZ; 海辰药业; 41.27; 20.0%; 147603.5; 26</t>
+        </is>
+      </c>
+      <c r="EN8" t="inlineStr">
+        <is>
+          <t>688041.SH; 海光信息; 142.46; -0.1%; 92967.0; 50</t>
+        </is>
+      </c>
+      <c r="EO8" t="inlineStr">
+        <is>
+          <t>301076.SZ; 新瀚新材; 44.58; 20.0%; 150305.0; 33</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -31654,6 +32239,21 @@
           <t>301171.SZ; 易点天下; 35.3; 5.2%; 83763.0; 42</t>
         </is>
       </c>
+      <c r="EM9" t="inlineStr">
+        <is>
+          <t>300696.SZ; 爱乐达; 30.12; 20.0%; 140905.0; 30</t>
+        </is>
+      </c>
+      <c r="EN9" t="inlineStr">
+        <is>
+          <t>300689.SZ; 澄天伟业; 56.72; 20.0%; 76871.5; 66</t>
+        </is>
+      </c>
+      <c r="EO9" t="inlineStr">
+        <is>
+          <t>300875.SZ; 捷强装备; 58.06; 20.0%; 147225.0; 34</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -32364,6 +32964,21 @@
           <t>300500.SZ; 启迪设计; 16.08; 20.0%; 79519.0; 47</t>
         </is>
       </c>
+      <c r="EM10" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 120.9; 18.2%; 135933.5; 32</t>
+        </is>
+      </c>
+      <c r="EN10" t="inlineStr">
+        <is>
+          <t>300916.SZ; 朗特智能; 42.73; 20.0%; 75702.5; 67</t>
+        </is>
+      </c>
+      <c r="EO10" t="inlineStr">
+        <is>
+          <t>300486.SZ; 东杰智能; 17.04; -16.4%; 125693.5; 41</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -33074,6 +33689,21 @@
           <t>300878.SZ; 维康药业; 25.62; 20.0%; 69560.5; 60</t>
         </is>
       </c>
+      <c r="EM11" t="inlineStr">
+        <is>
+          <t>688110.SH; 东芯股份; 68.88; 20.0%; 116203.0; 45</t>
+        </is>
+      </c>
+      <c r="EN11" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 123.55; 2.2%; 75335.5; 70</t>
+        </is>
+      </c>
+      <c r="EO11" t="inlineStr">
+        <is>
+          <t>300591.SZ; 万里马; 14; 11.8%; 119853.0; 46</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -33784,6 +34414,21 @@
           <t>688585.SH; 上纬新材; 92.07; 0.0%; 62706.5; 69</t>
         </is>
       </c>
+      <c r="EM12" t="inlineStr">
+        <is>
+          <t>300527.SZ; ST应急; 9.43; -5.8%; 102406.0; 52</t>
+        </is>
+      </c>
+      <c r="EN12" t="inlineStr">
+        <is>
+          <t>300289.SZ; 利德曼; 9.19; -9.4%; 73815.0; 73</t>
+        </is>
+      </c>
+      <c r="EO12" t="inlineStr">
+        <is>
+          <t>836247.BJ; 华密新材; 30.84; 30.0%; 116882.0; 49</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -34494,6 +35139,21 @@
           <t>300436.SZ; 广生堂; 102.3; -10.7%; 62622.0; 70</t>
         </is>
       </c>
+      <c r="EM13" t="inlineStr">
+        <is>
+          <t>300528.SZ; 幸福蓝海; 18.93; -11.3%; 101465.5; 53</t>
+        </is>
+      </c>
+      <c r="EN13" t="inlineStr">
+        <is>
+          <t>300322.SZ; 硕贝德; 20.64; 6.4%; 72975.0; 75</t>
+        </is>
+      </c>
+      <c r="EO13" t="inlineStr">
+        <is>
+          <t>300229.SZ; 拓尔思; 26.32; 9.0%; 110686.5; 52</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -35204,6 +35864,21 @@
           <t>300528.SZ; 幸福蓝海; 21.35; -8.1%; 60761.5; 75</t>
         </is>
       </c>
+      <c r="EM14" t="inlineStr">
+        <is>
+          <t>300378.SZ; 鼎捷数智; 65.02; 6.6%; 99012.0; 56</t>
+        </is>
+      </c>
+      <c r="EN14" t="inlineStr">
+        <is>
+          <t>300455.SZ; 航天智装; 17.03; 16.5%; 71951.5; 78</t>
+        </is>
+      </c>
+      <c r="EO14" t="inlineStr">
+        <is>
+          <t>300600.SZ; 国瑞科技; 20.7; 20.0%; 99081.0; 59</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -35914,6 +36589,21 @@
           <t>300657.SZ; 弘信电子; 29.27; -1.1%; 58267.5; 79</t>
         </is>
       </c>
+      <c r="EM15" t="inlineStr">
+        <is>
+          <t>301389.SZ; 隆扬电子; 51.72; 20.0%; 89498.5; 66</t>
+        </is>
+      </c>
+      <c r="EN15" t="inlineStr">
+        <is>
+          <t>300732.SZ; 设研院; 11.58; 11.3%; 69818.5; 83</t>
+        </is>
+      </c>
+      <c r="EO15" t="inlineStr">
+        <is>
+          <t>300718.SZ; 长盛轴承; 102; 7.7%; 96497.5; 62</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -36624,6 +37314,21 @@
           <t>300182.SZ; 捷成股份; 6.11; 6.4%; 55458.5; 86</t>
         </is>
       </c>
+      <c r="EM16" t="inlineStr">
+        <is>
+          <t>300718.SZ; 长盛轴承; 93.82; 8.9%; 80384.0; 77</t>
+        </is>
+      </c>
+      <c r="EN16" t="inlineStr">
+        <is>
+          <t>300696.SZ; 爱乐达; 32.17; 6.8%; 69393.5; 85</t>
+        </is>
+      </c>
+      <c r="EO16" t="inlineStr">
+        <is>
+          <t>300199.SZ; 翰宇药业; 23.4; -8.9%; 93553.5; 64</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -37334,6 +38039,21 @@
           <t>300476.SZ; 胜宏科技; 191.35; -0.4%; 55251.5; 87</t>
         </is>
       </c>
+      <c r="EM17" t="inlineStr">
+        <is>
+          <t>300965.SZ; 恒宇信通; 76.09; 20.0%; 75127.5; 83</t>
+        </is>
+      </c>
+      <c r="EN17" t="inlineStr">
+        <is>
+          <t>300943.SZ; 春晖智控; 18.62; 20.0%; 68863.5; 86</t>
+        </is>
+      </c>
+      <c r="EO17" t="inlineStr">
+        <is>
+          <t>688529.SH; 豪森智能; 24.58; 20.0%; 91803.0; 66</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -38044,6 +38764,21 @@
           <t>300858.SZ; 科拓生物; 20.4; 20.0%; 55052.5; 88</t>
         </is>
       </c>
+      <c r="EM18" t="inlineStr">
+        <is>
+          <t>300591.SZ; 万里马; 12.6; 12.4%; 74989.5; 84</t>
+        </is>
+      </c>
+      <c r="EN18" t="inlineStr">
+        <is>
+          <t>300706.SZ; 阿石创; 38.46; 10.2%; 67687.0; 87</t>
+        </is>
+      </c>
+      <c r="EO18" t="inlineStr">
+        <is>
+          <t>301117.SZ; 佳缘科技; 35.72; 20.0%; 90472.5; 67</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -38754,6 +39489,21 @@
           <t>300502.SZ; 新易盛; 183.12; -3.2%; 54504.0; 90</t>
         </is>
       </c>
+      <c r="EM19" t="inlineStr">
+        <is>
+          <t>300251.SZ; 光线传媒; 20.9; 3.8%; 63724.5; 101</t>
+        </is>
+      </c>
+      <c r="EN19" t="inlineStr">
+        <is>
+          <t>300548.SZ; 长芯博创; 95.4; 13.4%; 66859.0; 91</t>
+        </is>
+      </c>
+      <c r="EO19" t="inlineStr">
+        <is>
+          <t>300830.SZ; 金现代; 13.7; 7.4%; 89226.0; 68</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -39464,6 +40214,21 @@
           <t>300058.SZ; 蓝色光标; 7.18; 3.3%; 51571.5; 95</t>
         </is>
       </c>
+      <c r="EM20" t="inlineStr">
+        <is>
+          <t>688788.SH; 科思科技; 72.73; 20.0%; 56127.5; 115</t>
+        </is>
+      </c>
+      <c r="EN20" t="inlineStr">
+        <is>
+          <t>301200.SZ; 大族数控; 83.5; 14.2%; 66659.0; 93</t>
+        </is>
+      </c>
+      <c r="EO20" t="inlineStr">
+        <is>
+          <t>301069.SZ; 凯盛新材; 21.56; 20.0%; 89028.0; 69</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -40172,6 +40937,21 @@
       <c r="EL21" t="inlineStr">
         <is>
           <t>300170.SZ; 汉得信息; 19.96; 5.7%; 50436.0; 100</t>
+        </is>
+      </c>
+      <c r="EM21" t="inlineStr">
+        <is>
+          <t>300007.SZ; 汉威科技; 46.89; 8.2%; 55258.0; 118</t>
+        </is>
+      </c>
+      <c r="EN21" t="inlineStr">
+        <is>
+          <t>300871.SZ; 回盛生物; 24.82; 1.8%; 66463.0; 94</t>
+        </is>
+      </c>
+      <c r="EO21" t="inlineStr">
+        <is>
+          <t>300731.SZ; 科创新源; 47.12; 20.0%; 88189.0; 71</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO13"/>
+  <dimension ref="A1:EP13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,6 +1159,11 @@
           <t>2025年08月06日</t>
         </is>
       </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月07日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1619,6 +1624,11 @@
           <t>301076.SZ; 新瀚新材; 1;  09:49:36; 2天2板; 44.58;  09:38:24; 20.0%; 2; DFBP（PEEK材料核心原料）+芳香族酮类</t>
         </is>
       </c>
+      <c r="EP2" t="inlineStr">
+        <is>
+          <t>300289.SZ; 利德曼; 0;  10:00:21; 6天4板; 9.77;  10:00:21; 20.0%; 1; 重大重组+体外诊断+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1882,6 +1892,11 @@
       <c r="EO3" t="inlineStr">
         <is>
           <t>301357.SZ; 北方长龙; 19;  14:06:39; 3天2板; 157.9;  13:29:18; 20.0%; 1; 军工装备+非金属复合材料+无人机业务</t>
+        </is>
+      </c>
+      <c r="EP3" t="inlineStr">
+        <is>
+          <t>301117.SZ; 佳缘科技; 0;  11:24:24; 2天2板; 42.86;  11:24:24; 20.0%; 2; 军工+医疗AI+SIP芯片+华为昇腾</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO532"/>
+  <dimension ref="A1:EP532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2938,6 +2953,11 @@
       <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>2025年08月06日</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月07日</t>
         </is>
       </c>
     </row>
@@ -8337,7 +8357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO12"/>
+  <dimension ref="A1:EP12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9066,6 +9086,11 @@
           <t>2025年08月06日</t>
         </is>
       </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月07日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9741,6 +9766,11 @@
           <t>300329.SZ; 海伦钢琴; 1;  09:42:42; 12.44; 曾涨停; 3.2%; 0.04H;  09:42:42</t>
         </is>
       </c>
+      <c r="EP2" t="inlineStr">
+        <is>
+          <t>300843.SZ; 胜蓝股份; 2;  09:42:21; 36.9; 曾涨停; 12.5%; 0.32H;  09:42:21|| 10:01:18</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10321,6 +10351,11 @@
           <t>301397.SZ; 溯联股份; 1;  09:52:30; 36.21; 曾涨停; 13.8%; 0.03H;  09:52:30</t>
         </is>
       </c>
+      <c r="EP3" t="inlineStr">
+        <is>
+          <t>300720.SZ; 海川智能; 1;  10:27:30; 25.52; 曾涨停; 8.5%; 0.00H;  10:27:30</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -10741,6 +10776,11 @@
           <t>688167.SH; 炬光科技; 1;  13:53:37; 100.01; 曾涨停; 16.2%; 0.00H;  13:53:37</t>
         </is>
       </c>
+      <c r="EP4" t="inlineStr">
+        <is>
+          <t>688130.SH; 晶华微; 1;  11:20:56; 26.99; 曾涨停; 14.4%; 1.10H;  11:20:56</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11009,6 +11049,11 @@
       <c r="EN5" t="inlineStr">
         <is>
           <t>300218.SZ; 安利股份; 1;  10:08:39; 19.22; 曾涨停; 12.1%; 0.32H;  10:08:39</t>
+        </is>
+      </c>
+      <c r="EP5" t="inlineStr">
+        <is>
+          <t>300703.SZ; 创源股份; 2;  13:34:39; 28.65; 曾涨停; 15.3%; 0.09H;  13:34:39|| 13:39:48</t>
         </is>
       </c>
     </row>
@@ -11463,7 +11508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO30"/>
+  <dimension ref="A1:EP30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12192,6 +12237,11 @@
           <t>2025年08月06日</t>
         </is>
       </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月07日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -12912,6 +12962,11 @@
           <t>301117.SZ; 佳缘科技; 0;  09:36:57; 首板涨停; 35.72;  09:36:57; 20.0%; 1; 军工+医疗AI+SIP芯片+网络安全</t>
         </is>
       </c>
+      <c r="EP2" t="inlineStr">
+        <is>
+          <t>688108.SH; 赛诺医疗; 0;  09:25:02; 首板涨停; 17.03;  09:25:02; 20.0%; 1; FDA突破性医疗器械认证+神经介入创新+中报预增</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -13612,6 +13667,11 @@
           <t>300572.SZ; 安车检测; 2;  10:14:48; 首板涨停; 31.21;  09:56:57; 20.0%; 1; 控制权变更+复牌+新能源汽车检测+机动车检测</t>
         </is>
       </c>
+      <c r="EP3" t="inlineStr">
+        <is>
+          <t>300671.SZ; 富满微; 0;  09:52:54; 首板涨停; 40.2;  09:52:54; 20.0%; 1; ASIC芯片+集成电路概念+5G射频芯片</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -14277,6 +14337,11 @@
           <t>688529.SH; 豪森智能; 0;  10:21:48; 首板涨停; 24.58;  10:21:48; 20.0%; 1; 人形机器人+智能制造</t>
         </is>
       </c>
+      <c r="EP4" t="inlineStr">
+        <is>
+          <t>300981.SZ; 中红医疗; 0;  09:56:21; 首板涨停; 16.21;  09:56:21; 20.0%; 1; 智能医疗+医疗器械+海外并购</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -14877,6 +14942,11 @@
           <t>300600.SZ; 国瑞科技; 1;  10:53:18; 首板涨停; 20.7;  10:17:09; 20.0%; 1; 军工装备+商业航天+新能源船舶+国企改革</t>
         </is>
       </c>
+      <c r="EP5" t="inlineStr">
+        <is>
+          <t>301129.SZ; 瑞纳智能; 0;  11:15:24; 首板涨停; 34.06;  11:15:24; 20.0%; 1; 半导体+AI+智慧供热+磁悬浮离心式压缩机</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -15427,6 +15497,11 @@
           <t>300166.SZ; 东方国信; 0;  10:56:39; 首板涨停; 12.71;  10:56:39; 20.0%; 1; 华为昇思+智算中心+新型工业化+数字货币</t>
         </is>
       </c>
+      <c r="EP6" t="inlineStr">
+        <is>
+          <t>688110.SH; 东芯股份; 0;  11:27:32; 首板涨停; 73.2;  11:27:32; 20.0%; 1; 砺算科技+GPU+存算联一体化</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -15882,6 +15957,11 @@
           <t>301616.SZ; 浙江华业; 7;  11:15:12; 首板涨停; 52.39;  10:46:39; 20.0%; 1; 注塑机+机器人概念+一季报增长</t>
         </is>
       </c>
+      <c r="EP7" t="inlineStr">
+        <is>
+          <t>300706.SZ; 阿石创; 0;  11:29:33; 首板涨停; 47.66;  11:29:33; 20.0%; 1; PVD镀膜材料+半导体材料+复合铜箔+钙钛矿电池</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -16277,6 +16357,11 @@
           <t>301069.SZ; 凯盛新材; 0;  11:20:09; 首板涨停; 21.56;  11:20:09; 20.0%; 1; PEEK材料+精细化工+一季报增长</t>
         </is>
       </c>
+      <c r="EP8" t="inlineStr">
+        <is>
+          <t>300322.SZ; 硕贝德; 2;  13:31:00; 首板涨停; 26.1;  11:23:51; 20.0%; 1; 液冷服务器+卫星通信+毫米波雷达+中报预增</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -16570,6 +16655,11 @@
       <c r="EO9" t="inlineStr">
         <is>
           <t>836247.BJ; 华密新材; 0;  11:21:58; 首板涨停; 30.84;  11:21:58; 30.0%; 1; 机器人皮肤+特种橡胶材料+军工+新能源汽车</t>
+        </is>
+      </c>
+      <c r="EP9" t="inlineStr">
+        <is>
+          <t>300224.SZ; 正海磁材; 1;  14:47:33; 首板涨停; 19.01;  13:48:54; 20.0%; 1; 稀土永磁+人形机器人+汽车增长</t>
         </is>
       </c>
     </row>
@@ -17754,7 +17844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO178"/>
+  <dimension ref="A1:EP178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18483,6 +18573,11 @@
           <t>2025年08月06日</t>
         </is>
       </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月07日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -19178,6 +19273,11 @@
           <t>836247.BJ; 华密新材; 3.0%; 33.9%; 30.84; 30.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EP2" t="inlineStr">
+        <is>
+          <t>300830.SZ; 金现代; 3.6%; 13.9%; 15.04; 9.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -19833,6 +19933,11 @@
           <t>300644.SZ; 南京聚隆; 1.8%; 18.1%; 41.9; 15.9%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EP3" t="inlineStr">
+        <is>
+          <t>300706.SZ; 阿石创; 2.3%; 22.8%; 47.66; 20.0%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -20433,6 +20538,11 @@
           <t>300581.SZ; 晨曦航空; 1.7%; 13.5%; 24.38; 11.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EP4" t="inlineStr">
+        <is>
+          <t>688626.SH; 翔宇医疗; 1.3%; 13.2%; 59; 11.7%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -20963,6 +21073,11 @@
           <t>832469.BJ; 富恒新材; 1.5%; 17.8%; 17.44; 16.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EP5" t="inlineStr">
+        <is>
+          <t>301129.SZ; 瑞纳智能; 1.3%; 21.6%; 34.06; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -21438,6 +21553,11 @@
           <t>300885.SZ; 海昌新材; 1.5%; 21.8%; 28.86; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EP6" t="inlineStr">
+        <is>
+          <t>300322.SZ; 硕贝德; 1.1%; 21.4%; 26.1; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -21878,6 +21998,11 @@
           <t>301357.SZ; 北方长龙; 1.2%; 21.5%; 157.9; 20.0%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="EP7" t="inlineStr">
+        <is>
+          <t>300981.SZ; 中红医疗; 0.4%; 20.5%; 16.21; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -22246,6 +22371,11 @@
       <c r="EO8" t="inlineStr">
         <is>
           <t>300875.SZ; 捷强装备; 1.2%; 21.5%; 58.06; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EP8" t="inlineStr">
+        <is>
+          <t>688130.SH; 晶华微; 0.4%; 14.9%; 26.99; 14.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -25725,7 +25855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO21"/>
+  <dimension ref="A1:EP21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26454,6 +26584,11 @@
           <t>2025年08月06日</t>
         </is>
       </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月07日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -27179,6 +27314,11 @@
           <t>688585.SH; 上纬新材; 88.38; -20.0%; 423971.0; 4</t>
         </is>
       </c>
+      <c r="EP2" t="inlineStr">
+        <is>
+          <t>300322.SZ; 硕贝德; 26.1; 20.0%; 287292.5; 12</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -27904,6 +28044,11 @@
           <t>301357.SZ; 北方长龙; 157.9; 20.0%; 248977.5; 13</t>
         </is>
       </c>
+      <c r="EP3" t="inlineStr">
+        <is>
+          <t>300224.SZ; 正海磁材; 19.01; 20.0%; 192350.0; 22</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -28629,6 +28774,11 @@
           <t>300166.SZ; 东方国信; 12.71; 20.0%; 203824.5; 22</t>
         </is>
       </c>
+      <c r="EP4" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 91.85; 3.9%; 185967.0; 25</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -29354,6 +29504,11 @@
           <t>300024.SZ; 机器人; 20.09; 14.7%; 166145.0; 27</t>
         </is>
       </c>
+      <c r="EP5" t="inlineStr">
+        <is>
+          <t>300289.SZ; 利德曼; 9.77; 20.0%; 182886.0; 26</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -30079,6 +30234,11 @@
           <t>300885.SZ; 海昌新材; 28.86; 20.0%; 160842.0; 28</t>
         </is>
       </c>
+      <c r="EP6" t="inlineStr">
+        <is>
+          <t>300640.SZ; 德艺文创; 6.79; 0.7%; 167278.5; 32</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -30804,6 +30964,11 @@
           <t>301491.SZ; 汉桑科技; 82.89; 186.7%; 153233.5; 31</t>
         </is>
       </c>
+      <c r="EP7" t="inlineStr">
+        <is>
+          <t>300706.SZ; 阿石创; 47.66; 20.0%; 163941.0; 34</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -31529,6 +31694,11 @@
           <t>301076.SZ; 新瀚新材; 44.58; 20.0%; 150305.0; 33</t>
         </is>
       </c>
+      <c r="EP8" t="inlineStr">
+        <is>
+          <t>301117.SZ; 佳缘科技; 42.86; 20.0%; 129046.5; 44</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -32254,6 +32424,11 @@
           <t>300875.SZ; 捷强装备; 58.06; 20.0%; 147225.0; 34</t>
         </is>
       </c>
+      <c r="EP9" t="inlineStr">
+        <is>
+          <t>688110.SH; 东芯股份; 73.2; 20.0%; 127361.5; 45</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -32979,6 +33154,11 @@
           <t>300486.SZ; 东杰智能; 17.04; -16.4%; 125693.5; 41</t>
         </is>
       </c>
+      <c r="EP10" t="inlineStr">
+        <is>
+          <t>300671.SZ; 富满微; 40.2; 20.0%; 116160.5; 50</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -33704,6 +33884,11 @@
           <t>300591.SZ; 万里马; 14; 11.8%; 119853.0; 46</t>
         </is>
       </c>
+      <c r="EP11" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 159.99; 1.3%; 111906.0; 53</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -34429,6 +34614,11 @@
           <t>836247.BJ; 华密新材; 30.84; 30.0%; 116882.0; 49</t>
         </is>
       </c>
+      <c r="EP12" t="inlineStr">
+        <is>
+          <t>301076.SZ; 新瀚新材; 49.21; 10.4%; 111087.5; 56</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -35154,6 +35344,11 @@
           <t>300229.SZ; 拓尔思; 26.32; 9.0%; 110686.5; 52</t>
         </is>
       </c>
+      <c r="EP13" t="inlineStr">
+        <is>
+          <t>300830.SZ; 金现代; 15.04; 9.8%; 96568.0; 63</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -35879,6 +36074,11 @@
           <t>300600.SZ; 国瑞科技; 20.7; 20.0%; 99081.0; 59</t>
         </is>
       </c>
+      <c r="EP14" t="inlineStr">
+        <is>
+          <t>300007.SZ; 汉威科技; 50.25; 5.6%; 90540.0; 70</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -36604,6 +36804,11 @@
           <t>300718.SZ; 长盛轴承; 102; 7.7%; 96497.5; 62</t>
         </is>
       </c>
+      <c r="EP15" t="inlineStr">
+        <is>
+          <t>300753.SZ; 爱朋医疗; 34.28; 8.4%; 90492.0; 71</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -37329,6 +37534,11 @@
           <t>300199.SZ; 翰宇药业; 23.4; -8.9%; 93553.5; 64</t>
         </is>
       </c>
+      <c r="EP16" t="inlineStr">
+        <is>
+          <t>301293.SZ; 三博脑科; 54.59; 5.1%; 88042.0; 73</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -38054,6 +38264,11 @@
           <t>688529.SH; 豪森智能; 24.58; 20.0%; 91803.0; 66</t>
         </is>
       </c>
+      <c r="EP17" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 13.87; 10.1%; 82134.5; 79</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -38779,6 +38994,11 @@
           <t>301117.SZ; 佳缘科技; 35.72; 20.0%; 90472.5; 67</t>
         </is>
       </c>
+      <c r="EP18" t="inlineStr">
+        <is>
+          <t>300591.SZ; 万里马; 14.5; 3.6%; 78773.0; 80</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -39504,6 +39724,11 @@
           <t>300830.SZ; 金现代; 13.7; 7.4%; 89226.0; 68</t>
         </is>
       </c>
+      <c r="EP19" t="inlineStr">
+        <is>
+          <t>300166.SZ; 东方国信; 12.27; -3.5%; 77869.5; 81</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -40229,6 +40454,11 @@
           <t>301069.SZ; 凯盛新材; 21.56; 20.0%; 89028.0; 69</t>
         </is>
       </c>
+      <c r="EP20" t="inlineStr">
+        <is>
+          <t>301678.SZ; 新恒汇; 94.92; 11.3%; 76092.5; 83</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -40952,6 +41182,11 @@
       <c r="EO21" t="inlineStr">
         <is>
           <t>300731.SZ; 科创新源; 47.12; 20.0%; 88189.0; 71</t>
+        </is>
+      </c>
+      <c r="EP21" t="inlineStr">
+        <is>
+          <t>301129.SZ; 瑞纳智能; 34.06; 20.0%; 75060.5; 84</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EP13"/>
+  <dimension ref="A1:EQ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,6 +1164,11 @@
           <t>2025年08月07日</t>
         </is>
       </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月08日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1627,6 +1632,11 @@
       <c r="EP2" t="inlineStr">
         <is>
           <t>300289.SZ; 利德曼; 0;  10:00:21; 6天4板; 9.77;  10:00:21; 20.0%; 1; 重大重组+体外诊断+国企改革</t>
+        </is>
+      </c>
+      <c r="EQ2" t="inlineStr">
+        <is>
+          <t>688108.SH; 赛诺医疗; 0;  09:25:03; 2天2板; 20.44;  09:25:03; 20.0%; 2; FDA突破性医疗器械认证+神经介入创新+中报预增</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EP532"/>
+  <dimension ref="A1:EQ532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2958,6 +2968,11 @@
       <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>2025年08月07日</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月08日</t>
         </is>
       </c>
     </row>
@@ -8357,7 +8372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EP12"/>
+  <dimension ref="A1:EQ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9091,6 +9106,11 @@
           <t>2025年08月07日</t>
         </is>
       </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月08日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9771,6 +9791,11 @@
           <t>300843.SZ; 胜蓝股份; 2;  09:42:21; 36.9; 曾涨停; 12.5%; 0.32H;  09:42:21|| 10:01:18</t>
         </is>
       </c>
+      <c r="EQ2" t="inlineStr">
+        <is>
+          <t>300455.SZ; 航天智装; 2;  09:55:48; 19.75; 曾涨停; 10.6%; 0.18H;  09:55:48|| 09:59:36</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10356,6 +10381,11 @@
           <t>300720.SZ; 海川智能; 1;  10:27:30; 25.52; 曾涨停; 8.5%; 0.00H;  10:27:30</t>
         </is>
       </c>
+      <c r="EQ3" t="inlineStr">
+        <is>
+          <t>300717.SZ; 华信新材; 1;  10:32:12; 24.09; 曾涨停; 11.1%; 2.83H;  10:32:12</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -10781,6 +10811,11 @@
           <t>688130.SH; 晶华微; 1;  11:20:56; 26.99; 曾涨停; 14.4%; 1.10H;  11:20:56</t>
         </is>
       </c>
+      <c r="EQ4" t="inlineStr">
+        <is>
+          <t>688379.SH; 华光新材; 4;  13:16:32; 51.18; 曾涨停; 16.8%; 0.19H;  13:16:32|| 13:19:47|| 13:26:11|| 14:08:26</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11054,6 +11089,11 @@
       <c r="EP5" t="inlineStr">
         <is>
           <t>300703.SZ; 创源股份; 2;  13:34:39; 28.65; 曾涨停; 15.3%; 0.09H;  13:34:39|| 13:39:48</t>
+        </is>
+      </c>
+      <c r="EQ5" t="inlineStr">
+        <is>
+          <t>920027.BJ; 交大铁发; 1;  13:50:48; 35.98; 曾涨停; 23.7%; 0.01H;  13:50:48</t>
         </is>
       </c>
     </row>
@@ -11508,7 +11548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EP30"/>
+  <dimension ref="A1:EQ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12242,6 +12282,11 @@
           <t>2025年08月07日</t>
         </is>
       </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月08日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -12967,6 +13012,11 @@
           <t>688108.SH; 赛诺医疗; 0;  09:25:02; 首板涨停; 17.03;  09:25:02; 20.0%; 1; FDA突破性医疗器械认证+神经介入创新+中报预增</t>
         </is>
       </c>
+      <c r="EQ2" t="inlineStr">
+        <is>
+          <t>688551.SH; 科威尔; 1;  09:35:23; 首板涨停; 43.2;  09:30:44; 20.0%; 1; 测试电源+新能源发电+进口替代</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -13672,6 +13722,11 @@
           <t>300671.SZ; 富满微; 0;  09:52:54; 首板涨停; 40.2;  09:52:54; 20.0%; 1; ASIC芯片+集成电路概念+5G射频芯片</t>
         </is>
       </c>
+      <c r="EQ3" t="inlineStr">
+        <is>
+          <t>301232.SZ; 飞沃科技; 1;  09:35:33; 首板涨停; 42.1;  09:32:39; 20.0%; 1; 商业航天+风电+机器人+半年报增长</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -14342,6 +14397,11 @@
           <t>300981.SZ; 中红医疗; 0;  09:56:21; 首板涨停; 16.21;  09:56:21; 20.0%; 1; 智能医疗+医疗器械+海外并购</t>
         </is>
       </c>
+      <c r="EQ4" t="inlineStr">
+        <is>
+          <t>300780.SZ; 德恩精工; 0;  10:06:00; 首板涨停; 21.26;  10:06:00; 20.0%; 1; 机器人+军工+商业航天+AI应用</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -14947,6 +15007,11 @@
           <t>301129.SZ; 瑞纳智能; 0;  11:15:24; 首板涨停; 34.06;  11:15:24; 20.0%; 1; 半导体+AI+智慧供热+磁悬浮离心式压缩机</t>
         </is>
       </c>
+      <c r="EQ5" t="inlineStr">
+        <is>
+          <t>688265.SH; 南模生物; 0;  11:26:57; 首板涨停; 51.92;  11:26:57; 20.0%; 1; 基因修饰动物模型+辅助生殖+股东增持</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -15502,6 +15567,11 @@
           <t>688110.SH; 东芯股份; 0;  11:27:32; 首板涨停; 73.2;  11:27:32; 20.0%; 1; 砺算科技+GPU+存算联一体化</t>
         </is>
       </c>
+      <c r="EQ6" t="inlineStr">
+        <is>
+          <t>688577.SH; 浙海德曼; 2;  13:34:43; 首板涨停; 69.8;  11:25:40; 20.0%; 1; 人形机器人+高端机床+设备更新</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -15962,6 +16032,11 @@
           <t>300706.SZ; 阿石创; 0;  11:29:33; 首板涨停; 47.66;  11:29:33; 20.0%; 1; PVD镀膜材料+半导体材料+复合铜箔+钙钛矿电池</t>
         </is>
       </c>
+      <c r="EQ7" t="inlineStr">
+        <is>
+          <t>300859.SZ; 西域旅游; 0;  13:37:39; 首板涨停; 45.19;  13:37:39; 20.0%; 1; 新疆旅游+遇见赛湖+新疆国企</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -16362,6 +16437,11 @@
           <t>300322.SZ; 硕贝德; 2;  13:31:00; 首板涨停; 26.1;  11:23:51; 20.0%; 1; 液冷服务器+卫星通信+毫米波雷达+中报预增</t>
         </is>
       </c>
+      <c r="EQ8" t="inlineStr">
+        <is>
+          <t>301048.SZ; 金鹰重工; 0;  13:49:36; 首板涨停; 13.56;  13:49:36; 20.0%; 1; 轨交设备+央企+一带一路</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -16662,6 +16742,11 @@
           <t>300224.SZ; 正海磁材; 1;  14:47:33; 首板涨停; 19.01;  13:48:54; 20.0%; 1; 稀土永磁+人形机器人+汽车增长</t>
         </is>
       </c>
+      <c r="EQ9" t="inlineStr">
+        <is>
+          <t>301038.SZ; 深水规院; 5;  14:38:21; 首板涨停; 34.98;  13:59:48; 20.0%; 1; 水利+雅下水电概念+深海科技+深圳国资</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -16890,6 +16975,11 @@
       <c r="EO10" t="inlineStr">
         <is>
           <t>300731.SZ; 科创新源; 13;  13:15:57; 首板涨停; 47.12;  09:43:42; 20.0%; 1; 液冷服务器+新能源汽车液冷板+热管理</t>
+        </is>
+      </c>
+      <c r="EQ10" t="inlineStr">
+        <is>
+          <t>301112.SZ; 信邦智能; 0;  14:47:06; 首板涨停; 51.24;  14:47:06; 20.0%; 1; 拟收购英迪芯微控股权+航空航天+工业机器人</t>
         </is>
       </c>
     </row>
@@ -17844,7 +17934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EP178"/>
+  <dimension ref="A1:EQ178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18578,6 +18668,11 @@
           <t>2025年08月07日</t>
         </is>
       </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月08日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -19278,6 +19373,11 @@
           <t>300830.SZ; 金现代; 3.6%; 13.9%; 15.04; 9.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EQ2" t="inlineStr">
+        <is>
+          <t>688630.SH; 芯碁微装; 1.9%; 12.7%; 135; 10.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -19938,6 +20038,11 @@
           <t>300706.SZ; 阿石创; 2.3%; 22.8%; 47.66; 20.0%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="EQ3" t="inlineStr">
+        <is>
+          <t>300732.SZ; 设研院; 1.6%; 14.6%; 12.18; 12.8%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -20543,6 +20648,11 @@
           <t>688626.SH; 翔宇医疗; 1.3%; 13.2%; 59; 11.7%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EQ4" t="inlineStr">
+        <is>
+          <t>873706.BJ; 铁拓机械; 1.5%; 13.1%; 28.88; 11.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -21078,6 +21188,11 @@
           <t>301129.SZ; 瑞纳智能; 1.3%; 21.6%; 34.06; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EQ5" t="inlineStr">
+        <is>
+          <t>300717.SZ; 华信新材; 1.3%; 12.6%; 24.09; 11.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -21558,6 +21673,11 @@
           <t>300322.SZ; 硕贝德; 1.1%; 21.4%; 26.1; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EQ6" t="inlineStr">
+        <is>
+          <t>301038.SZ; 深水规院; 0.9%; 21.1%; 34.98; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -22003,6 +22123,11 @@
           <t>300981.SZ; 中红医疗; 0.4%; 20.5%; 16.21; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EQ7" t="inlineStr">
+        <is>
+          <t>688265.SH; 南模生物; 0.6%; 20.7%; 51.92; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -22378,6 +22503,11 @@
           <t>688130.SH; 晶华微; 0.4%; 14.9%; 26.99; 14.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EQ8" t="inlineStr">
+        <is>
+          <t>301399.SZ; 英特科技; 0.4%; 13.6%; 23.9; 13.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -22683,6 +22813,11 @@
           <t>301117.SZ; 佳缘科技; 1.0%; 21.2%; 35.72; 20.0%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="EQ9" t="inlineStr">
+        <is>
+          <t>688379.SH; 华光新材; 0.4%; 17.3%; 51.18; 16.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -22948,6 +23083,11 @@
           <t>688711.SH; 宏微科技; 0.8%; 21.0%; 31.22; 20.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EQ10" t="inlineStr">
+        <is>
+          <t>688577.SH; 浙海德曼; 0.3%; 20.3%; 69.8; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -23173,6 +23313,11 @@
           <t>300906.SZ; 日月明; 0.3%; 20.3%; 35.66; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EQ11" t="inlineStr">
+        <is>
+          <t>920027.BJ; 交大铁发; 0.2%; 24.0%; 35.98; 23.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -23333,6 +23478,11 @@
           <t>688660.SH; 电气风电; 0.1%; 15.2%; 16.35; 15.1%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EQ12" t="inlineStr">
+        <is>
+          <t>301112.SZ; 信邦智能; 0.2%; 20.2%; 51.24; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -23471,6 +23621,11 @@
       <c r="EO13" t="inlineStr">
         <is>
           <t>300572.SZ; 安车检测; 0.0%; 20.0%; 31.21; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="EQ13" t="inlineStr">
+        <is>
+          <t>301048.SZ; 金鹰重工; 0.1%; 20.1%; 13.56; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -25855,7 +26010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EP21"/>
+  <dimension ref="A1:EQ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26589,6 +26744,11 @@
           <t>2025年08月07日</t>
         </is>
       </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月08日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -27319,6 +27479,11 @@
           <t>300322.SZ; 硕贝德; 26.1; 20.0%; 287292.5; 12</t>
         </is>
       </c>
+      <c r="EQ2" t="inlineStr">
+        <is>
+          <t>301038.SZ; 深水规院; 34.98; 20.0%; 130639.0; 25</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -28049,6 +28214,11 @@
           <t>300224.SZ; 正海磁材; 19.01; 20.0%; 192350.0; 22</t>
         </is>
       </c>
+      <c r="EQ3" t="inlineStr">
+        <is>
+          <t>300859.SZ; 西域旅游; 45.19; 20.0%; 114669.5; 32</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -28779,6 +28949,11 @@
           <t>688585.SH; 上纬新材; 91.85; 3.9%; 185967.0; 25</t>
         </is>
       </c>
+      <c r="EQ4" t="inlineStr">
+        <is>
+          <t>300322.SZ; 硕贝德; 27.25; 4.4%; 101339.5; 38</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -29509,6 +29684,11 @@
           <t>300289.SZ; 利德曼; 9.77; 20.0%; 182886.0; 26</t>
         </is>
       </c>
+      <c r="EQ5" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 86.42; -5.9%; 100745.5; 39</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -30239,6 +30419,11 @@
           <t>300640.SZ; 德艺文创; 6.79; 0.7%; 167278.5; 32</t>
         </is>
       </c>
+      <c r="EQ6" t="inlineStr">
+        <is>
+          <t>300274.SZ; 阳光电源; 81.6; 9.1%; 88801.5; 44</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -30969,6 +31154,11 @@
           <t>300706.SZ; 阿石创; 47.66; 20.0%; 163941.0; 34</t>
         </is>
       </c>
+      <c r="EQ7" t="inlineStr">
+        <is>
+          <t>300378.SZ; 鼎捷数智; 55.5; -16.0%; 80546.5; 54</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -31699,6 +31889,11 @@
           <t>301117.SZ; 佳缘科技; 42.86; 20.0%; 129046.5; 44</t>
         </is>
       </c>
+      <c r="EQ8" t="inlineStr">
+        <is>
+          <t>300115.SZ; 长盈精密; 25.13; 5.9%; 80318.0; 55</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -32429,6 +32624,11 @@
           <t>688110.SH; 东芯股份; 73.2; 20.0%; 127361.5; 45</t>
         </is>
       </c>
+      <c r="EQ9" t="inlineStr">
+        <is>
+          <t>300706.SZ; 阿石创; 44.76; -6.1%; 80132.0; 56</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -33159,6 +33359,11 @@
           <t>300671.SZ; 富满微; 40.2; 20.0%; 116160.5; 50</t>
         </is>
       </c>
+      <c r="EQ10" t="inlineStr">
+        <is>
+          <t>301048.SZ; 金鹰重工; 13.56; 20.0%; 79851.5; 57</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -33889,6 +34094,11 @@
           <t>301357.SZ; 北方长龙; 159.99; 1.3%; 111906.0; 53</t>
         </is>
       </c>
+      <c r="EQ11" t="inlineStr">
+        <is>
+          <t>300289.SZ; 利德曼; 10.93; 11.9%; 78559.5; 59</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -34619,6 +34829,11 @@
           <t>301076.SZ; 新瀚新材; 49.21; 10.4%; 111087.5; 56</t>
         </is>
       </c>
+      <c r="EQ12" t="inlineStr">
+        <is>
+          <t>301232.SZ; 飞沃科技; 42.1; 20.0%; 67442.5; 72</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -35349,6 +35564,11 @@
           <t>300830.SZ; 金现代; 15.04; 9.8%; 96568.0; 63</t>
         </is>
       </c>
+      <c r="EQ13" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 142; -11.2%; 65902.0; 78</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -36079,6 +36299,11 @@
           <t>300007.SZ; 汉威科技; 50.25; 5.6%; 90540.0; 70</t>
         </is>
       </c>
+      <c r="EQ14" t="inlineStr">
+        <is>
+          <t>300455.SZ; 航天智装; 19.75; 10.6%; 65356.0; 80</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -36809,6 +37034,11 @@
           <t>300753.SZ; 爱朋医疗; 34.28; 8.4%; 90492.0; 71</t>
         </is>
       </c>
+      <c r="EQ15" t="inlineStr">
+        <is>
+          <t>300732.SZ; 设研院; 12.18; 12.8%; 63976.5; 84</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -37539,6 +37769,11 @@
           <t>301293.SZ; 三博脑科; 54.59; 5.1%; 88042.0; 73</t>
         </is>
       </c>
+      <c r="EQ16" t="inlineStr">
+        <is>
+          <t>300780.SZ; 德恩精工; 21.26; 20.0%; 63909.0; 85</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -38269,6 +38504,11 @@
           <t>300368.SZ; 汇金股份; 13.87; 10.1%; 82134.5; 79</t>
         </is>
       </c>
+      <c r="EQ17" t="inlineStr">
+        <is>
+          <t>688660.SH; 电气风电; 16.93; 2.6%; 62215.0; 89</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -38999,6 +39239,11 @@
           <t>300591.SZ; 万里马; 14.5; 3.6%; 78773.0; 80</t>
         </is>
       </c>
+      <c r="EQ18" t="inlineStr">
+        <is>
+          <t>688981.SH; 中芯国际; 86.66; -4.3%; 60914.5; 94</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -39729,6 +39974,11 @@
           <t>300166.SZ; 东方国信; 12.27; -3.5%; 77869.5; 81</t>
         </is>
       </c>
+      <c r="EQ19" t="inlineStr">
+        <is>
+          <t>688228.SH; 开普云; 65.8; 3.9%; 60497.5; 97</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -40459,6 +40709,11 @@
           <t>301678.SZ; 新恒汇; 94.92; 11.3%; 76092.5; 83</t>
         </is>
       </c>
+      <c r="EQ20" t="inlineStr">
+        <is>
+          <t>300486.SZ; 东杰智能; 15.52; -11.1%; 56520.5; 102</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -41187,6 +41442,11 @@
       <c r="EP21" t="inlineStr">
         <is>
           <t>301129.SZ; 瑞纳智能; 34.06; 20.0%; 75060.5; 84</t>
+        </is>
+      </c>
+      <c r="EQ21" t="inlineStr">
+        <is>
+          <t>301112.SZ; 信邦智能; 51.24; 20.0%; 53701.5; 105</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EQ13"/>
+  <dimension ref="A1:ER13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1169,6 +1169,11 @@
           <t>2025年08月08日</t>
         </is>
       </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月11日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1637,6 +1642,11 @@
       <c r="EQ2" t="inlineStr">
         <is>
           <t>688108.SH; 赛诺医疗; 0;  09:25:03; 2天2板; 20.44;  09:25:03; 20.0%; 2; FDA突破性医疗器械认证+神经介入创新+中报预增</t>
+        </is>
+      </c>
+      <c r="ER2" t="inlineStr">
+        <is>
+          <t>688108.SH; 赛诺医疗; 1;  10:23:44; 3天3板; 24.53;  09:39:08; 20.0%; 3; FDA认证+神经介入+中报预增</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EQ532"/>
+  <dimension ref="A1:ER532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2975,6 +2985,11 @@
           <t>2025年08月08日</t>
         </is>
       </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月11日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -3048,6 +3063,11 @@
       <c r="DX2" t="inlineStr">
         <is>
           <t>301139.SZ; 元道通信; 0;  09:25:00; 一字跌停||缩量跌停; 21.6; -20.0%; 1; 收到证监会《立案告知书》+重大违法强制退市风险</t>
+        </is>
+      </c>
+      <c r="ER2" t="inlineStr">
+        <is>
+          <t>300069.SZ; 金利华电; 0;  09:25:00; 一字跌停||缩量跌停; 23.88; -20.0%; 1; 终止购买海德利森100%股权</t>
         </is>
       </c>
     </row>
@@ -8372,7 +8392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EQ12"/>
+  <dimension ref="A1:ER12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9111,6 +9131,11 @@
           <t>2025年08月08日</t>
         </is>
       </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月11日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9796,6 +9821,11 @@
           <t>300455.SZ; 航天智装; 2;  09:55:48; 19.75; 曾涨停; 10.6%; 0.18H;  09:55:48|| 09:59:36</t>
         </is>
       </c>
+      <c r="ER2" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 2;  13:09:33; 16.44; 曾涨停; 17.5%; 0.04H;  13:09:33|| 13:10:18</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10386,6 +10416,11 @@
           <t>300717.SZ; 华信新材; 1;  10:32:12; 24.09; 曾涨停; 11.1%; 2.83H;  10:32:12</t>
         </is>
       </c>
+      <c r="ER3" t="inlineStr">
+        <is>
+          <t>300702.SZ; 天宇股份; 1;  13:39:06; 29.77; 曾涨停; 14.5%; 0.07H;  13:39:06</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -10814,6 +10849,11 @@
       <c r="EQ4" t="inlineStr">
         <is>
           <t>688379.SH; 华光新材; 4;  13:16:32; 51.18; 曾涨停; 16.8%; 0.19H;  13:16:32|| 13:19:47|| 13:26:11|| 14:08:26</t>
+        </is>
+      </c>
+      <c r="ER4" t="inlineStr">
+        <is>
+          <t>300815.SZ; 玉禾田; 1;  14:04:33; 24.58; 曾涨停; 15.0%; 0.02H;  14:04:33</t>
         </is>
       </c>
     </row>
@@ -11548,7 +11588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EQ30"/>
+  <dimension ref="A1:ER30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12287,6 +12327,11 @@
           <t>2025年08月08日</t>
         </is>
       </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月11日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13017,6 +13062,11 @@
           <t>688551.SH; 科威尔; 1;  09:35:23; 首板涨停; 43.2;  09:30:44; 20.0%; 1; 测试电源+新能源发电+进口替代</t>
         </is>
       </c>
+      <c r="ER2" t="inlineStr">
+        <is>
+          <t>300304.SZ; 云意电气; 0;  09:35:00; 首板涨停; 13.3;  09:35:00; 20.0%; 1; 合资合作+汽车电子+专用芯片</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -13727,6 +13777,11 @@
           <t>301232.SZ; 飞沃科技; 1;  09:35:33; 首板涨停; 42.1;  09:32:39; 20.0%; 1; 商业航天+风电+机器人+半年报增长</t>
         </is>
       </c>
+      <c r="ER3" t="inlineStr">
+        <is>
+          <t>300690.SZ; 双一科技; 0;  09:40:18; 首板涨停; 32.88;  09:40:18; 20.0%; 1; 半年报业绩增长+PEEK材料+低空经济+风电</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -14402,6 +14457,11 @@
           <t>300780.SZ; 德恩精工; 0;  10:06:00; 首板涨停; 21.26;  10:06:00; 20.0%; 1; 机器人+军工+商业航天+AI应用</t>
         </is>
       </c>
+      <c r="ER4" t="inlineStr">
+        <is>
+          <t>300993.SZ; 玉马科技; 0;  09:45:21; 首板涨停; 19.09;  09:45:21; 20.0%; 1; 功能性遮阳材料+智能物流+建筑节能</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -15012,6 +15072,11 @@
           <t>688265.SH; 南模生物; 0;  11:26:57; 首板涨停; 51.92;  11:26:57; 20.0%; 1; 基因修饰动物模型+辅助生殖+股东增持</t>
         </is>
       </c>
+      <c r="ER5" t="inlineStr">
+        <is>
+          <t>300870.SZ; 欧陆通; 0;  10:01:18; 首板涨停; 163.38;  10:01:18; 20.0%; 1; 液冷服务器+数据中心电源</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -15572,6 +15637,11 @@
           <t>688577.SH; 浙海德曼; 2;  13:34:43; 首板涨停; 69.8;  11:25:40; 20.0%; 1; 人形机器人+高端机床+设备更新</t>
         </is>
       </c>
+      <c r="ER6" t="inlineStr">
+        <is>
+          <t>301005.SZ; 超捷股份; 0;  10:12:39; 首板涨停; 55.87;  10:12:39; 20.0%; 1; 商业航天+人形机器人+汽车紧固件</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -16037,6 +16107,11 @@
           <t>300859.SZ; 西域旅游; 0;  13:37:39; 首板涨停; 45.19;  13:37:39; 20.0%; 1; 新疆旅游+遇见赛湖+新疆国企</t>
         </is>
       </c>
+      <c r="ER7" t="inlineStr">
+        <is>
+          <t>688683.SH; 莱尔科技; 4;  10:33:47; 首板涨停; 33.29;  09:44:11; 20.0%; 1; 固态电池+功能性胶膜+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -16442,6 +16517,11 @@
           <t>301048.SZ; 金鹰重工; 0;  13:49:36; 首板涨停; 13.56;  13:49:36; 20.0%; 1; 轨交设备+央企+一带一路</t>
         </is>
       </c>
+      <c r="ER8" t="inlineStr">
+        <is>
+          <t>301022.SZ; 海泰科; 0;  10:34:42; 首板涨停; 47.82;  10:34:42; 20.0%; 1; PEEK材料+汽车模具+小米汽车+产能扩张</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -16747,6 +16827,11 @@
           <t>301038.SZ; 深水规院; 5;  14:38:21; 首板涨停; 34.98;  13:59:48; 20.0%; 1; 水利+雅下水电概念+深海科技+深圳国资</t>
         </is>
       </c>
+      <c r="ER9" t="inlineStr">
+        <is>
+          <t>301251.SZ; 威尔高; 0;  11:19:12; 首板涨停; 55.69;  11:19:12; 20.0%; 1; AI电源+泰国工厂产能扩张+供货台达电子</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -16982,6 +17067,11 @@
           <t>301112.SZ; 信邦智能; 0;  14:47:06; 首板涨停; 51.24;  14:47:06; 20.0%; 1; 拟收购英迪芯微控股权+航空航天+工业机器人</t>
         </is>
       </c>
+      <c r="ER10" t="inlineStr">
+        <is>
+          <t>301502.SZ; 华阳智能; 0;  13:23:00; 首板涨停; 54.12;  13:23:00; 20.0%; 1; 机器人概念+无框电机研发+医疗器械+小米概念</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -17172,6 +17262,11 @@
           <t>300875.SZ; 捷强装备; 0;  13:53:18; 首板涨停; 58.06;  13:53:18; 20.0%; 1; 军工装备+核生化安全+一季报好转</t>
         </is>
       </c>
+      <c r="ER11" t="inlineStr">
+        <is>
+          <t>300158.SZ; 振东制药; 0;  14:02:57; 首板涨停; 8.7;  14:02:57; 20.0%; 1; 创新药+临床进展+中药主业</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -17305,6 +17400,11 @@
       <c r="EO12" t="inlineStr">
         <is>
           <t>688039.SH; 当虹科技; 0;  13:58:25; 首板涨停; 58.56;  13:58:25; 20.0%; 1; 机器人系统首发+AI视频技术+华为昇腾</t>
+        </is>
+      </c>
+      <c r="ER12" t="inlineStr">
+        <is>
+          <t>300752.SZ; 隆利科技; 0;  14:37:27; 首板涨停; 24.12;  14:37:27; 20.0%; 1; LIPO技术+Mini-LED+车载</t>
         </is>
       </c>
     </row>
@@ -17934,7 +18034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EQ178"/>
+  <dimension ref="A1:ER178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18673,6 +18773,11 @@
           <t>2025年08月08日</t>
         </is>
       </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月11日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -19378,6 +19483,11 @@
           <t>688630.SH; 芯碁微装; 1.9%; 12.7%; 135; 10.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="ER2" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 1.4%; 13.1%; 158.4; 11.5%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -20043,6 +20153,11 @@
           <t>300732.SZ; 设研院; 1.6%; 14.6%; 12.18; 12.8%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="ER3" t="inlineStr">
+        <is>
+          <t>836247.BJ; 华密新材; 1.1%; 23.4%; 33.33; 22.1%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -20653,6 +20768,11 @@
           <t>873706.BJ; 铁拓机械; 1.5%; 13.1%; 28.88; 11.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="ER4" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 0.4%; 17.9%; 16.44; 17.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -21193,6 +21313,11 @@
           <t>300717.SZ; 华信新材; 1.3%; 12.6%; 24.09; 11.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="ER5" t="inlineStr">
+        <is>
+          <t>688660.SH; 电气风电; 0.3%; 15.3%; 19.46; 14.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -21676,6 +21801,11 @@
       <c r="EQ6" t="inlineStr">
         <is>
           <t>301038.SZ; 深水规院; 0.9%; 21.1%; 34.98; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="ER6" t="inlineStr">
+        <is>
+          <t>300752.SZ; 隆利科技; 0.2%; 20.2%; 24.12; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -26010,7 +26140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EQ21"/>
+  <dimension ref="A1:ER21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26749,6 +26879,11 @@
           <t>2025年08月08日</t>
         </is>
       </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月11日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -27484,6 +27619,11 @@
           <t>301038.SZ; 深水规院; 34.98; 20.0%; 130639.0; 25</t>
         </is>
       </c>
+      <c r="ER2" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 16.44; 17.5%; 128553.5; 38</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -28219,6 +28359,11 @@
           <t>300859.SZ; 西域旅游; 45.19; 20.0%; 114669.5; 32</t>
         </is>
       </c>
+      <c r="ER3" t="inlineStr">
+        <is>
+          <t>300690.SZ; 双一科技; 32.88; 20.0%; 124250.5; 42</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -28954,6 +29099,11 @@
           <t>300322.SZ; 硕贝德; 27.25; 4.4%; 101339.5; 38</t>
         </is>
       </c>
+      <c r="ER4" t="inlineStr">
+        <is>
+          <t>300304.SZ; 云意电气; 13.3; 20.0%; 118855.5; 44</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -29689,6 +29839,11 @@
           <t>688585.SH; 上纬新材; 86.42; -5.9%; 100745.5; 39</t>
         </is>
       </c>
+      <c r="ER5" t="inlineStr">
+        <is>
+          <t>301005.SZ; 超捷股份; 55.87; 20.0%; 115641.5; 46</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -30424,6 +30579,11 @@
           <t>300274.SZ; 阳光电源; 81.6; 9.1%; 88801.5; 44</t>
         </is>
       </c>
+      <c r="ER6" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 132.81; 11.7%; 109516.0; 51</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -31159,6 +31319,11 @@
           <t>300378.SZ; 鼎捷数智; 55.5; -16.0%; 80546.5; 54</t>
         </is>
       </c>
+      <c r="ER7" t="inlineStr">
+        <is>
+          <t>300069.SZ; 金利华电; 23.88; -20.0%; 104432.0; 57</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -31894,6 +32059,11 @@
           <t>300115.SZ; 长盈精密; 25.13; 5.9%; 80318.0; 55</t>
         </is>
       </c>
+      <c r="ER8" t="inlineStr">
+        <is>
+          <t>300158.SZ; 振东制药; 8.7; 20.0%; 103960.5; 58</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -32629,6 +32799,11 @@
           <t>300706.SZ; 阿石创; 44.76; -6.1%; 80132.0; 56</t>
         </is>
       </c>
+      <c r="ER9" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 88.72; 2.7%; 100907.0; 61</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -33364,6 +33539,11 @@
           <t>301048.SZ; 金鹰重工; 13.56; 20.0%; 79851.5; 57</t>
         </is>
       </c>
+      <c r="ER10" t="inlineStr">
+        <is>
+          <t>300322.SZ; 硕贝德; 27.17; -0.3%; 100777.5; 62</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -34099,6 +34279,11 @@
           <t>300289.SZ; 利德曼; 10.93; 11.9%; 78559.5; 59</t>
         </is>
       </c>
+      <c r="ER11" t="inlineStr">
+        <is>
+          <t>301038.SZ; 深水规院; 37.9; 8.3%; 91088.5; 76</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -34834,6 +35019,11 @@
           <t>301232.SZ; 飞沃科技; 42.1; 20.0%; 67442.5; 72</t>
         </is>
       </c>
+      <c r="ER12" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 158.4; 11.5%; 89883.0; 79</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -35569,6 +35759,11 @@
           <t>301357.SZ; 北方长龙; 142; -11.2%; 65902.0; 78</t>
         </is>
       </c>
+      <c r="ER13" t="inlineStr">
+        <is>
+          <t>300870.SZ; 欧陆通; 163.38; 20.0%; 89476.5; 81</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -36304,6 +36499,11 @@
           <t>300455.SZ; 航天智装; 19.75; 10.6%; 65356.0; 80</t>
         </is>
       </c>
+      <c r="ER14" t="inlineStr">
+        <is>
+          <t>688108.SH; 赛诺医疗; 24.53; 20.0%; 88615.5; 82</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -37039,6 +37239,11 @@
           <t>300732.SZ; 设研院; 12.18; 12.8%; 63976.5; 84</t>
         </is>
       </c>
+      <c r="ER15" t="inlineStr">
+        <is>
+          <t>301076.SZ; 新瀚新材; 49.75; 14.6%; 88197.0; 83</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -37774,6 +37979,11 @@
           <t>300780.SZ; 德恩精工; 21.26; 20.0%; 63909.0; 85</t>
         </is>
       </c>
+      <c r="ER16" t="inlineStr">
+        <is>
+          <t>688110.SH; 东芯股份; 84.63; 14.7%; 87858.5; 85</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -38509,6 +38719,11 @@
           <t>688660.SH; 电气风电; 16.93; 2.6%; 62215.0; 89</t>
         </is>
       </c>
+      <c r="ER17" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 23.8; 2.6%; 87708.5; 86</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -39244,6 +39459,11 @@
           <t>688981.SH; 中芯国际; 86.66; -4.3%; 60914.5; 94</t>
         </is>
       </c>
+      <c r="ER18" t="inlineStr">
+        <is>
+          <t>300033.SZ; 同花顺; 307.62; 7.3%; 86785.0; 88</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -39979,6 +40199,11 @@
           <t>688228.SH; 开普云; 65.8; 3.9%; 60497.5; 97</t>
         </is>
       </c>
+      <c r="ER19" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 202.45; 5.2%; 79559.5; 94</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -40714,6 +40939,11 @@
           <t>300486.SZ; 东杰智能; 15.52; -11.1%; 56520.5; 102</t>
         </is>
       </c>
+      <c r="ER20" t="inlineStr">
+        <is>
+          <t>300432.SZ; 富临精工; 14.32; 11.2%; 72533.0; 102</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -41447,6 +41677,11 @@
       <c r="EQ21" t="inlineStr">
         <is>
           <t>301112.SZ; 信邦智能; 51.24; 20.0%; 53701.5; 105</t>
+        </is>
+      </c>
+      <c r="ER21" t="inlineStr">
+        <is>
+          <t>300815.SZ; 玉禾田; 24.58; 15.0%; 69163.5; 106</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ER13"/>
+  <dimension ref="A1:ES13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1172,6 +1172,11 @@
       <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>2025年08月11日</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月12日</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2251,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ER532"/>
+  <dimension ref="A1:ES532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2988,6 +2993,11 @@
       <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>2025年08月11日</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月12日</t>
         </is>
       </c>
     </row>
@@ -8392,7 +8402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ER12"/>
+  <dimension ref="A1:ES12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9136,6 +9146,11 @@
           <t>2025年08月11日</t>
         </is>
       </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月12日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9826,6 +9841,11 @@
           <t>300368.SZ; 汇金股份; 2;  13:09:33; 16.44; 曾涨停; 17.5%; 0.04H;  13:09:33|| 13:10:18</t>
         </is>
       </c>
+      <c r="ES2" t="inlineStr">
+        <is>
+          <t>301120.SZ; 新特电气; 2;  09:31:06; 14.75; 曾涨停; 4.5%; 0.15H;  09:31:06|| 09:40:18</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10421,6 +10441,11 @@
           <t>300702.SZ; 天宇股份; 1;  13:39:06; 29.77; 曾涨停; 14.5%; 0.07H;  13:39:06</t>
         </is>
       </c>
+      <c r="ES3" t="inlineStr">
+        <is>
+          <t>300453.SZ; 三鑫医疗; 1;  09:50:51; 10.75; 曾涨停; 14.2%; 0.16H;  09:50:51</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -10856,6 +10881,11 @@
           <t>300815.SZ; 玉禾田; 1;  14:04:33; 24.58; 曾涨停; 15.0%; 0.02H;  14:04:33</t>
         </is>
       </c>
+      <c r="ES4" t="inlineStr">
+        <is>
+          <t>688273.SH; 麦澜德; 2;  10:14:24; 52.83; 曾涨停; 18.1%; 0.16H;  10:14:24|| 10:28:45</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11136,6 +11166,11 @@
           <t>920027.BJ; 交大铁发; 1;  13:50:48; 35.98; 曾涨停; 23.7%; 0.01H;  13:50:48</t>
         </is>
       </c>
+      <c r="ES5" t="inlineStr">
+        <is>
+          <t>301018.SZ; 申菱环境; 1;  10:18:15; 56.02; 曾涨停; 13.1%; 0.01H;  10:18:15</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -11329,6 +11364,11 @@
       <c r="EL6" t="inlineStr">
         <is>
           <t>688448.SH; 磁谷科技; 6;  11:05:10; 40; 曾涨停; 8.1%; 0.18H;  11:05:10|| 11:06:49|| 11:08:10|| 11:16:19|| 11:24:28|| 11:25:31</t>
+        </is>
+      </c>
+      <c r="ES6" t="inlineStr">
+        <is>
+          <t>688702.SH; 盛科通信; 1;  14:20:26; 78; 曾涨停; 19.3%; 0.30H;  14:20:26</t>
         </is>
       </c>
     </row>
@@ -11588,7 +11628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ER30"/>
+  <dimension ref="A1:ES30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12332,6 +12372,11 @@
           <t>2025年08月11日</t>
         </is>
       </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月12日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13067,6 +13112,11 @@
           <t>300304.SZ; 云意电气; 0;  09:35:00; 首板涨停; 13.3;  09:35:00; 20.0%; 1; 合资合作+汽车电子+专用芯片</t>
         </is>
       </c>
+      <c r="ES2" t="inlineStr">
+        <is>
+          <t>300620.SZ; 光库科技; 0;  09:25:00; 首板涨停; 66.08;  09:25:00; 20.0%; 1; 重大资产重组+光模块+珠海国资</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -13782,6 +13832,11 @@
           <t>300690.SZ; 双一科技; 0;  09:40:18; 首板涨停; 32.88;  09:40:18; 20.0%; 1; 半年报业绩增长+PEEK材料+低空经济+风电</t>
         </is>
       </c>
+      <c r="ES3" t="inlineStr">
+        <is>
+          <t>300637.SZ; 扬帆新材; 0;  09:39:12; 首板涨停; 14.64;  09:39:12; 20.0%; 1; 光引发剂+3D打印+一季度扭亏</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -14462,6 +14517,11 @@
           <t>300993.SZ; 玉马科技; 0;  09:45:21; 首板涨停; 19.09;  09:45:21; 20.0%; 1; 功能性遮阳材料+智能物流+建筑节能</t>
         </is>
       </c>
+      <c r="ES4" t="inlineStr">
+        <is>
+          <t>688584.SH; 上海合晶; 1;  11:28:08; 首板涨停; 22.86;  10:48:17; 20.0%; 1; 半导体硅外延片+订单饱满+产能扩张</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -15077,6 +15137,11 @@
           <t>300870.SZ; 欧陆通; 0;  10:01:18; 首板涨停; 163.38;  10:01:18; 20.0%; 1; 液冷服务器+数据中心电源</t>
         </is>
       </c>
+      <c r="ES5" t="inlineStr">
+        <is>
+          <t>300815.SZ; 玉禾田; 6;  13:37:21; 首板涨停; 29.5;  09:37:21; 20.0%; 1; 智元入股+智慧环卫+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -15642,6 +15707,11 @@
           <t>301005.SZ; 超捷股份; 0;  10:12:39; 首板涨停; 55.87;  10:12:39; 20.0%; 1; 商业航天+人形机器人+汽车紧固件</t>
         </is>
       </c>
+      <c r="ES6" t="inlineStr">
+        <is>
+          <t>301486.SZ; 致尚科技; 5;  14:42:27; 首板涨停; 91.97;  13:34:00; 20.0%; 1; 收购+AI计算</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -16110,6 +16180,11 @@
       <c r="ER7" t="inlineStr">
         <is>
           <t>688683.SH; 莱尔科技; 4;  10:33:47; 首板涨停; 33.29;  09:44:11; 20.0%; 1; 固态电池+功能性胶膜+一季报增长</t>
+        </is>
+      </c>
+      <c r="ES7" t="inlineStr">
+        <is>
+          <t>688256.SH; 寒武纪; 27;  14:55:48; 首板涨停; 848.88;  13:15:00; 20.0%; 1; 收入传言+国产算力芯片+大模型合作+一季报增长</t>
         </is>
       </c>
     </row>
@@ -18034,7 +18109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ER178"/>
+  <dimension ref="A1:ES178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18778,6 +18853,11 @@
           <t>2025年08月11日</t>
         </is>
       </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月12日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -19488,6 +19568,11 @@
           <t>301357.SZ; 北方长龙; 1.4%; 13.1%; 158.4; 11.5%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="ES2" t="inlineStr">
+        <is>
+          <t>688498.SH; 源杰科技; 1.2%; 12.0%; 270.03; 10.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -20158,6 +20243,11 @@
           <t>836247.BJ; 华密新材; 1.1%; 23.4%; 33.33; 22.1%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="ES3" t="inlineStr">
+        <is>
+          <t>301018.SZ; 申菱环境; 1.1%; 14.3%; 56.02; 13.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -20771,6 +20861,11 @@
       <c r="ER4" t="inlineStr">
         <is>
           <t>300368.SZ; 汇金股份; 0.4%; 17.9%; 16.44; 17.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="ES4" t="inlineStr">
+        <is>
+          <t>688256.SH; 寒武纪; 0.7%; 20.8%; 848.88; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -26140,7 +26235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ER21"/>
+  <dimension ref="A1:ES21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26884,6 +26979,11 @@
           <t>2025年08月11日</t>
         </is>
       </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月12日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -27624,6 +27724,11 @@
           <t>300368.SZ; 汇金股份; 16.44; 17.5%; 128553.5; 38</t>
         </is>
       </c>
+      <c r="ES2" t="inlineStr">
+        <is>
+          <t>688256.SH; 寒武纪; 848.88; 20.0%; 761880.0; 1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -28364,6 +28469,11 @@
           <t>300690.SZ; 双一科技; 32.88; 20.0%; 124250.5; 42</t>
         </is>
       </c>
+      <c r="ES3" t="inlineStr">
+        <is>
+          <t>300815.SZ; 玉禾田; 29.5; 20.0%; 200346.0; 17</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -29104,6 +29214,11 @@
           <t>300304.SZ; 云意电气; 13.3; 20.0%; 118855.5; 44</t>
         </is>
       </c>
+      <c r="ES4" t="inlineStr">
+        <is>
+          <t>301632.SZ; 广东建科; 34.01; 418.4%; 192485.0; 22</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -29844,6 +29959,11 @@
           <t>301005.SZ; 超捷股份; 55.87; 20.0%; 115641.5; 46</t>
         </is>
       </c>
+      <c r="ES5" t="inlineStr">
+        <is>
+          <t>300562.SZ; 乐心医疗; 16.92; -1.6%; 158719.0; 29</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -30584,6 +30704,11 @@
           <t>300436.SZ; 广生堂; 132.81; 11.7%; 109516.0; 51</t>
         </is>
       </c>
+      <c r="ES6" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 216.88; 7.1%; 122940.5; 44</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -31324,6 +31449,11 @@
           <t>300069.SZ; 金利华电; 23.88; -20.0%; 104432.0; 57</t>
         </is>
       </c>
+      <c r="ES7" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 204.9; 6.2%; 117570.0; 48</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -32064,6 +32194,11 @@
           <t>300158.SZ; 振东制药; 8.7; 20.0%; 103960.5; 58</t>
         </is>
       </c>
+      <c r="ES8" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 17.63; 7.2%; 114670.5; 50</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -32804,6 +32939,11 @@
           <t>688585.SH; 上纬新材; 88.72; 2.7%; 100907.0; 61</t>
         </is>
       </c>
+      <c r="ES9" t="inlineStr">
+        <is>
+          <t>300322.SZ; 硕贝德; 28.16; 3.6%; 106582.0; 59</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -33544,6 +33684,11 @@
           <t>300322.SZ; 硕贝德; 27.17; -0.3%; 100777.5; 62</t>
         </is>
       </c>
+      <c r="ES10" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 40.92; 6.7%; 106187.5; 60</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -34284,6 +34429,11 @@
           <t>301038.SZ; 深水规院; 37.9; 8.3%; 91088.5; 76</t>
         </is>
       </c>
+      <c r="ES11" t="inlineStr">
+        <is>
+          <t>300620.SZ; 光库科技; 66.08; 20.0%; 105113.0; 61</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -35024,6 +35174,11 @@
           <t>301357.SZ; 北方长龙; 158.4; 11.5%; 89883.0; 79</t>
         </is>
       </c>
+      <c r="ES12" t="inlineStr">
+        <is>
+          <t>301486.SZ; 致尚科技; 91.97; 20.0%; 103104.0; 63</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -35764,6 +35919,11 @@
           <t>300870.SZ; 欧陆通; 163.38; 20.0%; 89476.5; 81</t>
         </is>
       </c>
+      <c r="ES13" t="inlineStr">
+        <is>
+          <t>300637.SZ; 扬帆新材; 14.64; 20.0%; 97127.5; 69</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -36504,6 +36664,11 @@
           <t>688108.SH; 赛诺医疗; 24.53; 20.0%; 88615.5; 82</t>
         </is>
       </c>
+      <c r="ES14" t="inlineStr">
+        <is>
+          <t>300274.SZ; 阳光电源; 88.1; 4.2%; 94647.5; 71</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -37244,6 +37409,11 @@
           <t>301076.SZ; 新瀚新材; 49.75; 14.6%; 88197.0; 83</t>
         </is>
       </c>
+      <c r="ES15" t="inlineStr">
+        <is>
+          <t>300766.SZ; 每日互动; 40.88; 8.5%; 89659.5; 76</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -37984,6 +38154,11 @@
           <t>688110.SH; 东芯股份; 84.63; 14.7%; 87858.5; 85</t>
         </is>
       </c>
+      <c r="ES16" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 85; -4.2%; 86473.5; 84</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -38724,6 +38899,11 @@
           <t>300059.SZ; 东方财富; 23.8; 2.6%; 87708.5; 86</t>
         </is>
       </c>
+      <c r="ES17" t="inlineStr">
+        <is>
+          <t>300398.SZ; 飞凯材料; 23.19; 11.8%; 85408.0; 86</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -39464,6 +39644,11 @@
           <t>300033.SZ; 同花顺; 307.62; 7.3%; 86785.0; 88</t>
         </is>
       </c>
+      <c r="ES18" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 23.99; 0.8%; 84025.5; 88</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -40204,6 +40389,11 @@
           <t>300476.SZ; 胜宏科技; 202.45; 5.2%; 79559.5; 94</t>
         </is>
       </c>
+      <c r="ES19" t="inlineStr">
+        <is>
+          <t>300706.SZ; 阿石创; 48.76; 6.6%; 80031.5; 93</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -40944,6 +41134,11 @@
           <t>300432.SZ; 富临精工; 14.32; 11.2%; 72533.0; 102</t>
         </is>
       </c>
+      <c r="ES20" t="inlineStr">
+        <is>
+          <t>300690.SZ; 双一科技; 35.38; 7.6%; 75000.5; 98</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -41682,6 +41877,11 @@
       <c r="ER21" t="inlineStr">
         <is>
           <t>300815.SZ; 玉禾田; 24.58; 15.0%; 69163.5; 106</t>
+        </is>
+      </c>
+      <c r="ES21" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 225.68; 5.1%; 73528.5; 99</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ES13"/>
+  <dimension ref="A1:ET13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1179,6 +1179,11 @@
           <t>2025年08月12日</t>
         </is>
       </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月13日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1652,6 +1657,11 @@
       <c r="ER2" t="inlineStr">
         <is>
           <t>688108.SH; 赛诺医疗; 1;  10:23:44; 3天3板; 24.53;  09:39:08; 20.0%; 3; FDA认证+神经介入+中报预增</t>
+        </is>
+      </c>
+      <c r="ET2" t="inlineStr">
+        <is>
+          <t>300620.SZ; 光库科技; 0;  09:35:30; 2天2板; 79.3;  09:35:30; 20.0%; 2; 重大资产重组+光模块+珠海国资</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ES532"/>
+  <dimension ref="A1:ET532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2998,6 +3008,11 @@
       <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>2025年08月12日</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月13日</t>
         </is>
       </c>
     </row>
@@ -8402,7 +8417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ES12"/>
+  <dimension ref="A1:ET12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9151,6 +9166,11 @@
           <t>2025年08月12日</t>
         </is>
       </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月13日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9846,6 +9866,11 @@
           <t>301120.SZ; 新特电气; 2;  09:31:06; 14.75; 曾涨停; 4.5%; 0.15H;  09:31:06|| 09:40:18</t>
         </is>
       </c>
+      <c r="ET2" t="inlineStr">
+        <is>
+          <t>300145.SZ; 南方泵业; 1;  10:23:12; 5.29; 曾涨停; 14.5%; 0.07H;  10:23:12</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10446,6 +10471,11 @@
           <t>300453.SZ; 三鑫医疗; 1;  09:50:51; 10.75; 曾涨停; 14.2%; 0.16H;  09:50:51</t>
         </is>
       </c>
+      <c r="ET3" t="inlineStr">
+        <is>
+          <t>688548.SH; 广钢气体; 2;  11:12:25; 11.46; 曾涨停; 13.1%; 0.01H;  11:12:25|| 11:14:46</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -10886,6 +10916,11 @@
           <t>688273.SH; 麦澜德; 2;  10:14:24; 52.83; 曾涨停; 18.1%; 0.16H;  10:14:24|| 10:28:45</t>
         </is>
       </c>
+      <c r="ET4" t="inlineStr">
+        <is>
+          <t>301181.SZ; 标榜股份; 1;  13:04:18; 35; 曾涨停; 12.4%; 1.68H;  13:04:18</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11169,6 +11204,11 @@
       <c r="ES5" t="inlineStr">
         <is>
           <t>301018.SZ; 申菱环境; 1;  10:18:15; 56.02; 曾涨停; 13.1%; 0.01H;  10:18:15</t>
+        </is>
+      </c>
+      <c r="ET5" t="inlineStr">
+        <is>
+          <t>688108.SH; 赛诺医疗; 9;  14:18:53; 29.5; 曾涨停; 17.5%; 0.04H;  14:18:53|| 14:19:20|| 14:45:14|| 14:46:23|| 14:47:02|| 14:48:17|| 14:48:53|| 14:49:17|| 14:50:05</t>
         </is>
       </c>
     </row>
@@ -11628,7 +11668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ES30"/>
+  <dimension ref="A1:ET30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12377,6 +12417,11 @@
           <t>2025年08月12日</t>
         </is>
       </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月13日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13117,6 +13162,11 @@
           <t>300620.SZ; 光库科技; 0;  09:25:00; 首板涨停; 66.08;  09:25:00; 20.0%; 1; 重大资产重组+光模块+珠海国资</t>
         </is>
       </c>
+      <c r="ET2" t="inlineStr">
+        <is>
+          <t>300237.SZ; 美晨科技; 5;  09:43:39; 首板涨停; 2.59;  09:34:54; 19.9%; 1; 控股股东战略重组+汽车橡胶+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -13837,6 +13887,11 @@
           <t>300637.SZ; 扬帆新材; 0;  09:39:12; 首板涨停; 14.64;  09:39:12; 20.0%; 1; 光引发剂+3D打印+一季度扭亏</t>
         </is>
       </c>
+      <c r="ET3" t="inlineStr">
+        <is>
+          <t>688146.SH; 中船特气; 5;  10:14:13; 首板涨停; 44.86;  09:32:22; 20.0%; 1; 光刻气认证+电子特气+中船系</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -14522,6 +14577,11 @@
           <t>688584.SH; 上海合晶; 1;  11:28:08; 首板涨停; 22.86;  10:48:17; 20.0%; 1; 半导体硅外延片+订单饱满+产能扩张</t>
         </is>
       </c>
+      <c r="ET4" t="inlineStr">
+        <is>
+          <t>688197.SH; 首药控股; 1;  11:16:37; 首板涨停; 55.94;  11:07:40; 20.0%; 1; 创新药+临床进展+商业化推进</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -15142,6 +15202,11 @@
           <t>300815.SZ; 玉禾田; 6;  13:37:21; 首板涨停; 29.5;  09:37:21; 20.0%; 1; 智元入股+智慧环卫+一季报增长</t>
         </is>
       </c>
+      <c r="ET5" t="inlineStr">
+        <is>
+          <t>300290.SZ; 荣科科技; 0;  11:18:45; 首板涨停; 22.92;  11:18:45; 20.0%; 1; 智慧医疗+云计算+华为+AI应用</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -15712,6 +15777,11 @@
           <t>301486.SZ; 致尚科技; 5;  14:42:27; 首板涨停; 91.97;  13:34:00; 20.0%; 1; 收购+AI计算</t>
         </is>
       </c>
+      <c r="ET6" t="inlineStr">
+        <is>
+          <t>300757.SZ; 罗博特科; 5;  14:26:06; 首板涨停; 205.07;  13:20:42; 20.0%; 1; CPO+光伏自动化+订单增长</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -16187,6 +16257,11 @@
           <t>688256.SH; 寒武纪; 27;  14:55:48; 首板涨停; 848.88;  13:15:00; 20.0%; 1; 收入传言+国产算力芯片+大模型合作+一季报增长</t>
         </is>
       </c>
+      <c r="ET7" t="inlineStr">
+        <is>
+          <t>688291.SH; 金橙子; 0;  14:29:58; 首板涨停; 40.07;  14:29:58; 20.0%; 1; 资产重组+激光控制+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -16597,6 +16672,11 @@
           <t>301022.SZ; 海泰科; 0;  10:34:42; 首板涨停; 47.82;  10:34:42; 20.0%; 1; PEEK材料+汽车模具+小米汽车+产能扩张</t>
         </is>
       </c>
+      <c r="ET8" t="inlineStr">
+        <is>
+          <t>688648.SH; 中邮科技; 1;  14:36:45; 首板涨停; 57.8;  14:16:57; 20.0%; 1; 智能物流+设立机器人子公司+央企</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -16907,6 +16987,11 @@
           <t>301251.SZ; 威尔高; 0;  11:19:12; 首板涨停; 55.69;  11:19:12; 20.0%; 1; AI电源+泰国工厂产能扩张+供货台达电子</t>
         </is>
       </c>
+      <c r="ET9" t="inlineStr">
+        <is>
+          <t>301217.SZ; 铜冠铜箔; 0;  14:40:21; 首板涨停; 29.92;  14:40:21; 20.0%; 1; HVLP铜箔+高频高速电路+PCB铜箔+国企</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -17145,6 +17230,11 @@
       <c r="ER10" t="inlineStr">
         <is>
           <t>301502.SZ; 华阳智能; 0;  13:23:00; 首板涨停; 54.12;  13:23:00; 20.0%; 1; 机器人概念+无框电机研发+医疗器械+小米概念</t>
+        </is>
+      </c>
+      <c r="ET10" t="inlineStr">
+        <is>
+          <t>300395.SZ; 菲利华; 4;  14:41:06; 首板涨停; 91.16;  14:22:30; 20.0%; 1; 芯片国产替代+航空航天+石英玻璃</t>
         </is>
       </c>
     </row>
@@ -18109,7 +18199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ES178"/>
+  <dimension ref="A1:ET178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18858,6 +18948,11 @@
           <t>2025年08月12日</t>
         </is>
       </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月13日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -19573,6 +19668,11 @@
           <t>688498.SH; 源杰科技; 1.2%; 12.0%; 270.03; 10.7%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="ET2" t="inlineStr">
+        <is>
+          <t>301632.SZ; 广东建科; 3.4%; 32.8%; 43.6; 28.2%; 阳线||价升量缩||长上影线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -20248,6 +20348,11 @@
           <t>301018.SZ; 申菱环境; 1.1%; 14.3%; 56.02; 13.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="ET3" t="inlineStr">
+        <is>
+          <t>301181.SZ; 标榜股份; 2.1%; 14.8%; 35; 12.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -20868,6 +20973,11 @@
           <t>688256.SH; 寒武纪; 0.7%; 20.8%; 848.88; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="ET4" t="inlineStr">
+        <is>
+          <t>688668.SH; 鼎通科技; 1.9%; 15.3%; 115.36; 13.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -21413,6 +21523,11 @@
           <t>688660.SH; 电气风电; 0.3%; 15.3%; 19.46; 14.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="ET5" t="inlineStr">
+        <is>
+          <t>688390.SH; 固德威; 0.9%; 13.8%; 50.8; 12.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -21903,6 +22018,11 @@
           <t>300752.SZ; 隆利科技; 0.2%; 20.2%; 24.12; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="ET6" t="inlineStr">
+        <is>
+          <t>688733.SH; 壹石通; 0.6%; 18.6%; 26.49; 17.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -22353,6 +22473,11 @@
           <t>688265.SH; 南模生物; 0.6%; 20.7%; 51.92; 20.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="ET7" t="inlineStr">
+        <is>
+          <t>300145.SZ; 南方泵业; 0.2%; 14.8%; 5.29; 14.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -22733,6 +22858,11 @@
           <t>301399.SZ; 英特科技; 0.4%; 13.6%; 23.9; 13.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="ET8" t="inlineStr">
+        <is>
+          <t>688319.SH; 欧林生物; 0.1%; 17.3%; 24.02; 17.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -23043,6 +23173,11 @@
           <t>688379.SH; 华光新材; 0.4%; 17.3%; 51.18; 16.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="ET9" t="inlineStr">
+        <is>
+          <t>688135.SH; 利扬芯片; 0.1%; 14.3%; 24.4; 14.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -23311,6 +23446,11 @@
       <c r="EQ10" t="inlineStr">
         <is>
           <t>688577.SH; 浙海德曼; 0.3%; 20.3%; 69.8; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="ET10" t="inlineStr">
+        <is>
+          <t>688197.SH; 首药控股; 0.0%; 20.0%; 55.94; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -26235,7 +26375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ES21"/>
+  <dimension ref="A1:ET21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26984,6 +27124,11 @@
           <t>2025年08月12日</t>
         </is>
       </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月13日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -27729,6 +27874,11 @@
           <t>688256.SH; 寒武纪; 848.88; 20.0%; 761880.0; 1</t>
         </is>
       </c>
+      <c r="ET2" t="inlineStr">
+        <is>
+          <t>301632.SZ; 广东建科; 43.6; 28.2%; 263093.5; 17</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -28474,6 +28624,11 @@
           <t>300815.SZ; 玉禾田; 29.5; 20.0%; 200346.0; 17</t>
         </is>
       </c>
+      <c r="ET3" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 236.56; 15.5%; 257918.5; 18</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -29219,6 +29374,11 @@
           <t>301632.SZ; 广东建科; 34.01; 418.4%; 192485.0; 22</t>
         </is>
       </c>
+      <c r="ET4" t="inlineStr">
+        <is>
+          <t>301217.SZ; 铜冠铜箔; 29.92; 20.0%; 227102.5; 20</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -29964,6 +30124,11 @@
           <t>300562.SZ; 乐心医疗; 16.92; -1.6%; 158719.0; 29</t>
         </is>
       </c>
+      <c r="ET5" t="inlineStr">
+        <is>
+          <t>688256.SH; 寒武纪; 860; 1.3%; 188232.0; 30</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -30709,6 +30874,11 @@
           <t>300476.SZ; 胜宏科技; 216.88; 7.1%; 122940.5; 44</t>
         </is>
       </c>
+      <c r="ET6" t="inlineStr">
+        <is>
+          <t>300620.SZ; 光库科技; 79.3; 20.0%; 179898.5; 33</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -31454,6 +31624,11 @@
           <t>300502.SZ; 新易盛; 204.9; 6.2%; 117570.0; 48</t>
         </is>
       </c>
+      <c r="ET7" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 238; 9.7%; 164614.0; 36</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -32199,6 +32374,11 @@
           <t>300368.SZ; 汇金股份; 17.63; 7.2%; 114670.5; 50</t>
         </is>
       </c>
+      <c r="ET8" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 24.58; 2.5%; 149222.5; 40</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -32944,6 +33124,11 @@
           <t>300322.SZ; 硕贝德; 28.16; 3.6%; 106582.0; 59</t>
         </is>
       </c>
+      <c r="ET9" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 252; 11.7%; 148502.5; 41</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -33689,6 +33874,11 @@
           <t>300468.SZ; 四方精创; 40.92; 6.7%; 106187.5; 60</t>
         </is>
       </c>
+      <c r="ET10" t="inlineStr">
+        <is>
+          <t>300815.SZ; 玉禾田; 33.68; 14.2%; 139728.0; 46</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -34434,6 +34624,11 @@
           <t>300620.SZ; 光库科技; 66.08; 20.0%; 105113.0; 61</t>
         </is>
       </c>
+      <c r="ET11" t="inlineStr">
+        <is>
+          <t>300766.SZ; 每日互动; 44.01; 7.7%; 122649.0; 53</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -35179,6 +35374,11 @@
           <t>301486.SZ; 致尚科技; 91.97; 20.0%; 103104.0; 63</t>
         </is>
       </c>
+      <c r="ET12" t="inlineStr">
+        <is>
+          <t>300290.SZ; 荣科科技; 22.92; 20.0%; 118074.0; 57</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -35924,6 +36124,11 @@
           <t>300637.SZ; 扬帆新材; 14.64; 20.0%; 97127.5; 69</t>
         </is>
       </c>
+      <c r="ET13" t="inlineStr">
+        <is>
+          <t>300145.SZ; 南方泵业; 5.29; 14.5%; 114303.0; 61</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -36669,6 +36874,11 @@
           <t>300274.SZ; 阳光电源; 88.1; 4.2%; 94647.5; 71</t>
         </is>
       </c>
+      <c r="ET14" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 89.11; 4.8%; 104557.5; 78</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -37414,6 +37624,11 @@
           <t>300766.SZ; 每日互动; 40.88; 8.5%; 89659.5; 76</t>
         </is>
       </c>
+      <c r="ET15" t="inlineStr">
+        <is>
+          <t>300322.SZ; 硕贝德; 29.45; 4.6%; 104011.5; 79</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -38159,6 +38374,11 @@
           <t>688585.SH; 上纬新材; 85; -4.2%; 86473.5; 84</t>
         </is>
       </c>
+      <c r="ET16" t="inlineStr">
+        <is>
+          <t>300757.SZ; 罗博特科; 205.07; 20.0%; 101770.5; 81</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -38904,6 +39124,11 @@
           <t>300398.SZ; 飞凯材料; 23.19; 11.8%; 85408.0; 86</t>
         </is>
       </c>
+      <c r="ET17" t="inlineStr">
+        <is>
+          <t>300395.SZ; 菲利华; 91.16; 20.0%; 99229.0; 82</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -39649,6 +39874,11 @@
           <t>300059.SZ; 东方财富; 23.99; 0.8%; 84025.5; 88</t>
         </is>
       </c>
+      <c r="ET18" t="inlineStr">
+        <is>
+          <t>300750.SZ; 宁德时代; 273.6; 3.9%; 96010.5; 88</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -40394,6 +40624,11 @@
           <t>300706.SZ; 阿石创; 48.76; 6.6%; 80031.5; 93</t>
         </is>
       </c>
+      <c r="ET19" t="inlineStr">
+        <is>
+          <t>301511.SZ; 德福科技; 42.04; 17.3%; 92220.5; 95</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -41139,6 +41374,11 @@
           <t>300690.SZ; 双一科技; 35.38; 7.6%; 75000.5; 98</t>
         </is>
       </c>
+      <c r="ET20" t="inlineStr">
+        <is>
+          <t>300989.SZ; 蕾奥规划; 17.16; -1.0%; 84737.5; 101</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -41882,6 +42122,11 @@
       <c r="ES21" t="inlineStr">
         <is>
           <t>300308.SZ; 中际旭创; 225.68; 5.1%; 73528.5; 99</t>
+        </is>
+      </c>
+      <c r="ET21" t="inlineStr">
+        <is>
+          <t>300237.SZ; 美晨科技; 2.59; 19.9%; 81348.5; 106</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ET13"/>
+  <dimension ref="A1:EU13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1182,6 +1182,11 @@
       <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>2025年08月13日</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月14日</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ET532"/>
+  <dimension ref="A1:EU532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,6 +3018,11 @@
       <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>2025年08月13日</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月14日</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ET12"/>
+  <dimension ref="A1:EU12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9171,6 +9181,11 @@
           <t>2025年08月13日</t>
         </is>
       </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月14日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9871,6 +9886,11 @@
           <t>300145.SZ; 南方泵业; 1;  10:23:12; 5.29; 曾涨停; 14.5%; 0.07H;  10:23:12</t>
         </is>
       </c>
+      <c r="EU2" t="inlineStr">
+        <is>
+          <t>300844.SZ; 山水比德; 1;  09:36:45; 47.85; 曾涨停; 9.8%; 0.01H;  09:36:45</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10476,6 +10496,11 @@
           <t>688548.SH; 广钢气体; 2;  11:12:25; 11.46; 曾涨停; 13.1%; 0.01H;  11:12:25|| 11:14:46</t>
         </is>
       </c>
+      <c r="EU3" t="inlineStr">
+        <is>
+          <t>688721.SH; 龙图光罩; 1;  09:50:36; 53.72; 曾涨停; 13.0%; 0.83H;  09:50:36</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -10919,6 +10944,11 @@
       <c r="ET4" t="inlineStr">
         <is>
           <t>301181.SZ; 标榜股份; 1;  13:04:18; 35; 曾涨停; 12.4%; 1.68H;  13:04:18</t>
+        </is>
+      </c>
+      <c r="EU4" t="inlineStr">
+        <is>
+          <t>300188.SZ; 国投智能; 6;  10:08:45; 19.08; 曾涨停; 14.8%; 0.86H;  10:08:45|| 10:09:24|| 10:13:36|| 10:14:54|| 11:05:48|| 11:07:09</t>
         </is>
       </c>
     </row>
@@ -11668,7 +11698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ET30"/>
+  <dimension ref="A1:EU30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12422,6 +12452,11 @@
           <t>2025年08月13日</t>
         </is>
       </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月14日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13167,6 +13202,11 @@
           <t>300237.SZ; 美晨科技; 5;  09:43:39; 首板涨停; 2.59;  09:34:54; 19.9%; 1; 控股股东战略重组+汽车橡胶+国企改革</t>
         </is>
       </c>
+      <c r="EU2" t="inlineStr">
+        <is>
+          <t>688767.SH; 博拓生物; 0;  11:01:36; 首板涨停; 45.13;  11:01:36; 20.0%; 1; 脑机接口+POCT+微流控荧光</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -13890,6 +13930,11 @@
       <c r="ET3" t="inlineStr">
         <is>
           <t>688146.SH; 中船特气; 5;  10:14:13; 首板涨停; 44.86;  09:32:22; 20.0%; 1; 光刻气认证+电子特气+中船系</t>
+        </is>
+      </c>
+      <c r="EU3" t="inlineStr">
+        <is>
+          <t>688159.SH; 有方科技; 0;  13:16:16; 首板涨停; 71.86;  13:16:16; 20.0%; 1; 算力云+采购合同+RWA</t>
         </is>
       </c>
     </row>
@@ -18199,7 +18244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ET178"/>
+  <dimension ref="A1:EU178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18953,6 +18998,11 @@
           <t>2025年08月13日</t>
         </is>
       </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月14日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -19673,6 +19723,11 @@
           <t>301632.SZ; 广东建科; 3.4%; 32.8%; 43.6; 28.2%; 阳线||价升量缩||长上影线</t>
         </is>
       </c>
+      <c r="EU2" t="inlineStr">
+        <is>
+          <t>300870.SZ; 欧陆通; 1.9%; 15.7%; 208.23; 13.5%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -20351,6 +20406,11 @@
       <c r="ET3" t="inlineStr">
         <is>
           <t>301181.SZ; 标榜股份; 2.1%; 14.8%; 35; 12.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EU3" t="inlineStr">
+        <is>
+          <t>688265.SH; 南模生物; 1.6%; 18.1%; 60.6; 16.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -26375,7 +26435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ET21"/>
+  <dimension ref="A1:EU21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27129,6 +27189,11 @@
           <t>2025年08月13日</t>
         </is>
       </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月14日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -27879,6 +27944,11 @@
           <t>301632.SZ; 广东建科; 43.6; 28.2%; 263093.5; 17</t>
         </is>
       </c>
+      <c r="EU2" t="inlineStr">
+        <is>
+          <t>688256.SH; 寒武纪; 949; 10.3%; 319579.0; 9</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -28629,6 +28699,11 @@
           <t>300502.SZ; 新易盛; 236.56; 15.5%; 257918.5; 18</t>
         </is>
       </c>
+      <c r="EU3" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 45.7; 15.3%; 212969.5; 21</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -29379,6 +29454,11 @@
           <t>301217.SZ; 铜冠铜箔; 29.92; 20.0%; 227102.5; 20</t>
         </is>
       </c>
+      <c r="EU4" t="inlineStr">
+        <is>
+          <t>300024.SZ; 机器人; 20.32; 7.5%; 126552.5; 48</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -30129,6 +30209,11 @@
           <t>688256.SH; 寒武纪; 860; 1.3%; 188232.0; 30</t>
         </is>
       </c>
+      <c r="EU5" t="inlineStr">
+        <is>
+          <t>300188.SZ; 国投智能; 19.08; 14.8%; 113367.5; 58</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -30879,6 +30964,11 @@
           <t>300620.SZ; 光库科技; 79.3; 20.0%; 179898.5; 33</t>
         </is>
       </c>
+      <c r="EU6" t="inlineStr">
+        <is>
+          <t>301632.SZ; 广东建科; 37.53; -13.9%; 106933.5; 59</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -31629,6 +31719,11 @@
           <t>300476.SZ; 胜宏科技; 238; 9.7%; 164614.0; 36</t>
         </is>
       </c>
+      <c r="EU7" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 96.69; 8.5%; 96542.5; 66</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -32379,6 +32474,11 @@
           <t>300059.SZ; 东方财富; 24.58; 2.5%; 149222.5; 40</t>
         </is>
       </c>
+      <c r="EU8" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 145.59; 6.4%; 84698.0; 78</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -33129,6 +33229,11 @@
           <t>300308.SZ; 中际旭创; 252; 11.7%; 148502.5; 41</t>
         </is>
       </c>
+      <c r="EU9" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 24.36; -0.9%; 82869.5; 81</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -33879,6 +33984,11 @@
           <t>300815.SZ; 玉禾田; 33.68; 14.2%; 139728.0; 46</t>
         </is>
       </c>
+      <c r="EU10" t="inlineStr">
+        <is>
+          <t>300620.SZ; 光库科技; 80.05; 0.9%; 78475.0; 88</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -34629,6 +34739,11 @@
           <t>300766.SZ; 每日互动; 44.01; 7.7%; 122649.0; 53</t>
         </is>
       </c>
+      <c r="EU11" t="inlineStr">
+        <is>
+          <t>300870.SZ; 欧陆通; 208.23; 13.5%; 77996.5; 89</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -35379,6 +35494,11 @@
           <t>300290.SZ; 荣科科技; 22.92; 20.0%; 118074.0; 57</t>
         </is>
       </c>
+      <c r="EU12" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 231.06; -2.3%; 75010.5; 93</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -36129,6 +36249,11 @@
           <t>300145.SZ; 南方泵业; 5.29; 14.5%; 114303.0; 61</t>
         </is>
       </c>
+      <c r="EU13" t="inlineStr">
+        <is>
+          <t>300763.SZ; 锦浪科技; 64.2; 0.2%; 74501.0; 95</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -36879,6 +37004,11 @@
           <t>688585.SH; 上纬新材; 89.11; 4.8%; 104557.5; 78</t>
         </is>
       </c>
+      <c r="EU14" t="inlineStr">
+        <is>
+          <t>688041.SH; 海光信息; 152.49; 8.8%; 70517.5; 100</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -37629,6 +37759,11 @@
           <t>300322.SZ; 硕贝德; 29.45; 4.6%; 104011.5; 79</t>
         </is>
       </c>
+      <c r="EU15" t="inlineStr">
+        <is>
+          <t>300322.SZ; 硕贝德; 27.19; -7.7%; 69971.0; 101</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -38379,6 +38514,11 @@
           <t>300757.SZ; 罗博特科; 205.07; 20.0%; 101770.5; 81</t>
         </is>
       </c>
+      <c r="EU16" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 225.69; -5.2%; 69787.5; 103</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -39129,6 +39269,11 @@
           <t>300395.SZ; 菲利华; 91.16; 20.0%; 99229.0; 82</t>
         </is>
       </c>
+      <c r="EU17" t="inlineStr">
+        <is>
+          <t>300815.SZ; 玉禾田; 29.82; -11.5%; 69217.5; 104</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -39879,6 +40024,11 @@
           <t>300750.SZ; 宁德时代; 273.6; 3.9%; 96010.5; 88</t>
         </is>
       </c>
+      <c r="EU18" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 15.23; -11.5%; 66822.5; 108</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -40629,6 +40779,11 @@
           <t>301511.SZ; 德福科技; 42.04; 17.3%; 92220.5; 95</t>
         </is>
       </c>
+      <c r="EU19" t="inlineStr">
+        <is>
+          <t>300065.SZ; 海兰信; 19.77; 3.4%; 66377.0; 110</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -41379,6 +41534,11 @@
           <t>300989.SZ; 蕾奥规划; 17.16; -1.0%; 84737.5; 101</t>
         </is>
       </c>
+      <c r="EU20" t="inlineStr">
+        <is>
+          <t>920101.BJ; 志高机械; 57.66; 231.2%; 60854.5; 118</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -42127,6 +42287,11 @@
       <c r="ET21" t="inlineStr">
         <is>
           <t>300237.SZ; 美晨科技; 2.59; 19.9%; 81348.5; 106</t>
+        </is>
+      </c>
+      <c r="EU21" t="inlineStr">
+        <is>
+          <t>300068.SZ; 南都电源; 17.31; 7.3%; 57948.0; 125</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EU13"/>
+  <dimension ref="A1:EV13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1189,6 +1189,11 @@
           <t>2025年08月14日</t>
         </is>
       </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月15日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1667,6 +1672,11 @@
       <c r="ET2" t="inlineStr">
         <is>
           <t>300620.SZ; 光库科技; 0;  09:35:30; 2天2板; 79.3;  09:35:30; 20.0%; 2; 重大资产重组+光模块+珠海国资</t>
+        </is>
+      </c>
+      <c r="EV2" t="inlineStr">
+        <is>
+          <t>688648.SH; 中邮科技; 0;  14:54:37; 3天2板; 75.71;  14:54:37; 20.0%; 1; 智能物流+设立机器人子公司+央企</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2276,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EU532"/>
+  <dimension ref="A1:EV532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3023,6 +3033,11 @@
       <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>2025年08月14日</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月15日</t>
         </is>
       </c>
     </row>
@@ -8427,7 +8442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EU12"/>
+  <dimension ref="A1:EV12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9186,6 +9201,11 @@
           <t>2025年08月14日</t>
         </is>
       </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月15日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9891,6 +9911,11 @@
           <t>300844.SZ; 山水比德; 1;  09:36:45; 47.85; 曾涨停; 9.8%; 0.01H;  09:36:45</t>
         </is>
       </c>
+      <c r="EV2" t="inlineStr">
+        <is>
+          <t>832225.BJ; 利通科技; 2;  10:58:45; 27.71; 曾涨停; 21.4%; 0.19H;  10:58:45|| 11:09:51</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10501,6 +10526,11 @@
           <t>688721.SH; 龙图光罩; 1;  09:50:36; 53.72; 曾涨停; 13.0%; 0.83H;  09:50:36</t>
         </is>
       </c>
+      <c r="EV3" t="inlineStr">
+        <is>
+          <t>301291.SZ; 明阳电气; 1;  13:13:00; 43.45; 曾涨停; 14.5%; 0.15H;  13:13:00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -10951,6 +10981,11 @@
           <t>300188.SZ; 国投智能; 6;  10:08:45; 19.08; 曾涨停; 14.8%; 0.86H;  10:08:45|| 10:09:24|| 10:13:36|| 10:14:54|| 11:05:48|| 11:07:09</t>
         </is>
       </c>
+      <c r="EV4" t="inlineStr">
+        <is>
+          <t>301397.SZ; 溯联股份; 1;  13:25:00; 46.5; 曾涨停; 15.7%; 0.00H;  13:25:00</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11241,6 +11276,11 @@
           <t>688108.SH; 赛诺医疗; 9;  14:18:53; 29.5; 曾涨停; 17.5%; 0.04H;  14:18:53|| 14:19:20|| 14:45:14|| 14:46:23|| 14:47:02|| 14:48:17|| 14:48:53|| 14:49:17|| 14:50:05</t>
         </is>
       </c>
+      <c r="EV5" t="inlineStr">
+        <is>
+          <t>688265.SH; 南模生物; 8;  13:29:23; 72.54; 曾涨停; 19.7%; 0.28H;  13:29:23|| 13:36:02|| 13:46:48|| 13:49:02|| 13:59:05|| 13:59:39|| 14:02:00|| 14:54:14</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -11441,6 +11481,11 @@
           <t>688702.SH; 盛科通信; 1;  14:20:26; 78; 曾涨停; 19.3%; 0.30H;  14:20:26</t>
         </is>
       </c>
+      <c r="EV6" t="inlineStr">
+        <is>
+          <t>300870.SZ; 欧陆通; 3;  14:44:48; 248.5; 曾涨停; 19.3%; 0.11H;  14:44:48|| 14:51:45|| 14:56:57</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -11546,6 +11591,11 @@
           <t>301678.SZ; 新恒汇; 3;  14:12:27; 76.65; 曾涨停; 14.4%; 0.08H;  14:12:27|| 14:14:48|| 14:17:54</t>
         </is>
       </c>
+      <c r="EV7" t="inlineStr">
+        <is>
+          <t>688669.SH; 聚石化学; 2;  14:46:16; 27.68; 曾涨停; 18.7%; 0.03H;  14:46:16|| 14:47:37</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -11604,6 +11654,11 @@
       <c r="EL8" t="inlineStr">
         <is>
           <t>300378.SZ; 鼎捷数智; 3;  14:22:39; 60.99; 曾涨停; 16.1%; 0.28H;  14:22:39|| 14:30:54|| 14:39:45</t>
+        </is>
+      </c>
+      <c r="EV8" t="inlineStr">
+        <is>
+          <t>301123.SZ; 奕东电子; 2;  14:52:39; 39.41; 曾涨停; 20.0%; 0.06H;  14:52:39|| 14:56:36</t>
         </is>
       </c>
     </row>
@@ -11698,7 +11753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EU30"/>
+  <dimension ref="A1:EV30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12457,6 +12512,11 @@
           <t>2025年08月14日</t>
         </is>
       </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月15日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13207,6 +13267,11 @@
           <t>688767.SH; 博拓生物; 0;  11:01:36; 首板涨停; 45.13;  11:01:36; 20.0%; 1; 脑机接口+POCT+微流控荧光</t>
         </is>
       </c>
+      <c r="EV2" t="inlineStr">
+        <is>
+          <t>300814.SZ; 中富电路; 0;  09:49:42; 首板涨停; 45.89;  09:49:42; 20.0%; 1; PCB+光模块+AI应用</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -13937,6 +14002,11 @@
           <t>688159.SH; 有方科技; 0;  13:16:16; 首板涨停; 71.86;  13:16:16; 20.0%; 1; 算力云+采购合同+RWA</t>
         </is>
       </c>
+      <c r="EV3" t="inlineStr">
+        <is>
+          <t>430476.BJ; 海能技术; 2;  10:06:51; 首板涨停; 27.8;  10:01:06; 30.0%; 1; 细胞膜色谱+海洋经济+人工智能+中报增长</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -14627,6 +14697,11 @@
           <t>688197.SH; 首药控股; 1;  11:16:37; 首板涨停; 55.94;  11:07:40; 20.0%; 1; 创新药+临床进展+商业化推进</t>
         </is>
       </c>
+      <c r="EV4" t="inlineStr">
+        <is>
+          <t>688306.SH; 均普智能; 0;  10:08:22; 首板涨停; 12.48;  10:08:22; 20.0%; 1; 人形机器人+新能源汽车+脑机接口</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -15252,6 +15327,11 @@
           <t>300290.SZ; 荣科科技; 0;  11:18:45; 首板涨停; 22.92;  11:18:45; 20.0%; 1; 智慧医疗+云计算+华为+AI应用</t>
         </is>
       </c>
+      <c r="EV5" t="inlineStr">
+        <is>
+          <t>301526.SZ; 国际复材; 0;  10:11:51; 首板涨停; 6.38;  10:11:51; 19.9%; 1; 电子级玻璃纤维（应用PCB）+风电纱+云南国资</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -15827,6 +15907,11 @@
           <t>300757.SZ; 罗博特科; 5;  14:26:06; 首板涨停; 205.07;  13:20:42; 20.0%; 1; CPO+光伏自动化+订单增长</t>
         </is>
       </c>
+      <c r="EV6" t="inlineStr">
+        <is>
+          <t>300730.SZ; 科创信息; 2;  10:15:12; 首板涨停; 17.71;  09:59:09; 20.0%; 1; 树图+数据要素+数字政府+AI</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -16307,6 +16392,11 @@
           <t>688291.SH; 金橙子; 0;  14:29:58; 首板涨停; 40.07;  14:29:58; 20.0%; 1; 资产重组+激光控制+一季报增长</t>
         </is>
       </c>
+      <c r="EV7" t="inlineStr">
+        <is>
+          <t>300547.SZ; 川环科技; 0;  10:27:33; 首板涨停; 48.48;  10:27:33; 20.0%; 1; 液冷服务器+汽车胶管+新订单</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -16722,6 +16812,11 @@
           <t>688648.SH; 中邮科技; 1;  14:36:45; 首板涨停; 57.8;  14:16:57; 20.0%; 1; 智能物流+设立机器人子公司+央企</t>
         </is>
       </c>
+      <c r="EV8" t="inlineStr">
+        <is>
+          <t>688775.SH; 影石创新; 2;  13:00:16; 首板涨停; 224.42;  09:34:16; 20.0%; 1; 全景无人机发布+全景相机+AI技术</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -17037,6 +17132,11 @@
           <t>301217.SZ; 铜冠铜箔; 0;  14:40:21; 首板涨停; 29.92;  14:40:21; 20.0%; 1; HVLP铜箔+高频高速电路+PCB铜箔+国企</t>
         </is>
       </c>
+      <c r="EV9" t="inlineStr">
+        <is>
+          <t>688519.SH; 南亚新材; 3;  13:59:29; 首板涨停; 54.31;  13:01:20; 20.0%; 1; 电子专用材料+覆铜板+光模块+中报增长</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -17282,6 +17382,11 @@
           <t>300395.SZ; 菲利华; 4;  14:41:06; 首板涨停; 91.16;  14:22:30; 20.0%; 1; 芯片国产替代+航空航天+石英玻璃</t>
         </is>
       </c>
+      <c r="EV10" t="inlineStr">
+        <is>
+          <t>688448.SH; 磁谷科技; 3;  14:08:41; 首板涨停; 56.04;  13:10:44; 20.0%; 1; 数据中心应用+投资扩产+磁悬浮设备</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -17477,6 +17582,11 @@
           <t>300158.SZ; 振东制药; 0;  14:02:57; 首板涨停; 8.7;  14:02:57; 20.0%; 1; 创新药+临床进展+中药主业</t>
         </is>
       </c>
+      <c r="EV11" t="inlineStr">
+        <is>
+          <t>688199.SH; 久日新材; 5;  14:38:27; 首板涨停; 30.62;  13:48:54; 20.0%; 1; 光刻胶+光引发剂+半导体材料+机器人概念</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -17617,6 +17727,11 @@
           <t>300752.SZ; 隆利科技; 0;  14:37:27; 首板涨停; 24.12;  14:37:27; 20.0%; 1; LIPO技术+Mini-LED+车载</t>
         </is>
       </c>
+      <c r="EV12" t="inlineStr">
+        <is>
+          <t>300803.SZ; 指南针; 2;  14:41:30; 首板涨停; 109.87;  13:19:42; 20.0%; 1; 互联网证券+证券增资+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -17717,6 +17832,11 @@
           <t>300906.SZ; 日月明; 0;  14:19:45; 首板涨停; 35.66;  14:19:45; 20.0%; 1; 高铁+专精特新+年报增长</t>
         </is>
       </c>
+      <c r="EV13" t="inlineStr">
+        <is>
+          <t>688098.SH; 申联生物; 25;  14:44:31; 首板涨停; 10.69;  13:10:44; 20.0%; 1; 动物疫苗+多联多价疫苗+创新药+回购</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -17802,6 +17922,11 @@
           <t>300885.SZ; 海昌新材; 0;  14:27:42; 首板涨停; 28.86;  14:27:42; 20.0%; 1; 人形机器人+粉末冶金+一季报增长</t>
         </is>
       </c>
+      <c r="EV14" t="inlineStr">
+        <is>
+          <t>300539.SZ; 横河精密; 1;  14:52:48; 首板涨停; 30.46;  14:32:33; 20.0%; 1; 机器人概念+减速器+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -17880,6 +18005,11 @@
       <c r="EO15" t="inlineStr">
         <is>
           <t>688711.SH; 宏微科技; 0;  14:35:14; 首板涨停; 31.22;  14:35:14; 20.0%; 1; 机器人探索+SiC增长+可控核聚变</t>
+        </is>
+      </c>
+      <c r="EV15" t="inlineStr">
+        <is>
+          <t>688141.SH; 杰华特; 9;  14:54:24; 首板涨停; 35.51;  14:35:57; 20.0%; 1; 入股天易合芯+电源管理芯片+半导体</t>
         </is>
       </c>
     </row>
@@ -18244,7 +18374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EU178"/>
+  <dimension ref="A1:EV178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19003,6 +19133,11 @@
           <t>2025年08月14日</t>
         </is>
       </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月15日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -19728,6 +19863,11 @@
           <t>300870.SZ; 欧陆通; 1.9%; 15.7%; 208.23; 13.5%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EV2" t="inlineStr">
+        <is>
+          <t>688265.SH; 南模生物; 3.5%; 24.0%; 72.54; 19.7%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -20413,6 +20553,11 @@
           <t>688265.SH; 南模生物; 1.6%; 18.1%; 60.6; 16.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EV3" t="inlineStr">
+        <is>
+          <t>301076.SZ; 新瀚新材; 3.1%; 13.7%; 57.04; 10.2%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -21038,6 +21183,11 @@
           <t>688668.SH; 鼎通科技; 1.9%; 15.3%; 115.36; 13.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EV4" t="inlineStr">
+        <is>
+          <t>688584.SH; 上海合晶; 2.9%; 13.0%; 26.79; 9.8%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -21588,6 +21738,11 @@
           <t>688390.SH; 固德威; 0.9%; 13.8%; 50.8; 12.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EV5" t="inlineStr">
+        <is>
+          <t>300844.SZ; 山水比德; 2.2%; 13.8%; 53.3; 11.4%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -22083,6 +22238,11 @@
           <t>688733.SH; 壹石通; 0.6%; 18.6%; 26.49; 17.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EV6" t="inlineStr">
+        <is>
+          <t>835179.BJ; 凯德石英; 1.7%; 13.5%; 38.25; 11.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -22538,6 +22698,11 @@
           <t>300145.SZ; 南方泵业; 0.2%; 14.8%; 5.29; 14.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EV7" t="inlineStr">
+        <is>
+          <t>839790.BJ; 联迪信息; 1.7%; 13.6%; 53.37; 11.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -22923,6 +23088,11 @@
           <t>688319.SH; 欧林生物; 0.1%; 17.3%; 24.02; 17.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EV8" t="inlineStr">
+        <is>
+          <t>301018.SZ; 申菱环境; 1.5%; 12.3%; 64.11; 10.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -23238,6 +23408,11 @@
           <t>688135.SH; 利扬芯片; 0.1%; 14.3%; 24.4; 14.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EV9" t="inlineStr">
+        <is>
+          <t>688318.SH; 财富趋势; 1.3%; 12.8%; 138.7; 11.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -23513,6 +23688,11 @@
           <t>688197.SH; 首药控股; 0.0%; 20.0%; 55.94; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EV10" t="inlineStr">
+        <is>
+          <t>688379.SH; 华光新材; 1.2%; 16.8%; 59.48; 15.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -23743,6 +23923,11 @@
           <t>920027.BJ; 交大铁发; 0.2%; 24.0%; 35.98; 23.7%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EV11" t="inlineStr">
+        <is>
+          <t>301630.SZ; 同宇新材; 1.2%; 13.2%; 198.71; 11.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -23908,6 +24093,11 @@
           <t>301112.SZ; 信邦智能; 0.2%; 20.2%; 51.24; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EV12" t="inlineStr">
+        <is>
+          <t>300300.SZ; 海峡创新; 1.2%; 18.8%; 6.08; 17.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -24053,6 +24243,11 @@
           <t>301048.SZ; 金鹰重工; 0.1%; 20.1%; 13.56; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EV13" t="inlineStr">
+        <is>
+          <t>688519.SH; 南亚新材; 1.0%; 21.2%; 54.31; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -24168,6 +24363,11 @@
           <t>301397.SZ; 溯联股份; 0.0%; 13.9%; 36.21; 13.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EV14" t="inlineStr">
+        <is>
+          <t>688669.SH; 聚石化学; 0.9%; 19.8%; 27.68; 18.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -24258,6 +24458,11 @@
           <t>300696.SZ; 爱乐达; 0.4%; 20.4%; 30.12; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EV15" t="inlineStr">
+        <is>
+          <t>300803.SZ; 指南针; 0.8%; 20.9%; 109.87; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -24338,6 +24543,11 @@
           <t>300648.SZ; 星云股份; 0.1%; 15.0%; 49.9; 14.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EV16" t="inlineStr">
+        <is>
+          <t>688347.SH; 华虹公司; 0.7%; 12.2%; 78.5; 11.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -24418,6 +24628,11 @@
           <t>300199.SZ; 翰宇药业; 0.0%; 20.0%; 24.32; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EV17" t="inlineStr">
+        <is>
+          <t>301123.SZ; 奕东电子; 0.5%; 20.7%; 39.41; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -24473,6 +24688,11 @@
           <t>300900.SZ; 广联航空; 0.7%; 12.2%; 23.57; 11.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EV18" t="inlineStr">
+        <is>
+          <t>688619.SH; 罗普特; 0.5%; 12.5%; 18.12; 12.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -24528,6 +24748,11 @@
           <t>688382.SH; 益方生物; 0.5%; 20.6%; 29.1; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EV19" t="inlineStr">
+        <is>
+          <t>688141.SH; 杰华特; 0.4%; 20.5%; 35.51; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -24573,6 +24798,11 @@
           <t>301248.SZ; 杰创智能; 0.5%; 13.7%; 24.1; 13.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EV20" t="inlineStr">
+        <is>
+          <t>300855.SZ; 图南股份; 0.3%; 13.7%; 30.74; 13.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -24618,6 +24848,11 @@
           <t>688799.SH; 华纳药厂; 0.5%; 12.6%; 41.05; 12.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EV21" t="inlineStr">
+        <is>
+          <t>301397.SZ; 溯联股份; 0.1%; 15.9%; 46.5; 15.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -24658,6 +24893,11 @@
           <t>300872.SZ; 天阳科技; 0.5%; 20.5%; 18.62; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EV22" t="inlineStr">
+        <is>
+          <t>300870.SZ; 欧陆通; 0.1%; 19.5%; 248.5; 19.3%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -24698,6 +24938,11 @@
           <t>300643.SZ; 万通智控; 0.3%; 12.2%; 23.49; 11.9%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EV23" t="inlineStr">
+        <is>
+          <t>301291.SZ; 明阳电气; 0.1%; 14.6%; 43.45; 14.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -24738,6 +24983,11 @@
           <t>300130.SZ; 新国都; 0.2%; 14.3%; 28.07; 14.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EV24" t="inlineStr">
+        <is>
+          <t>835184.BJ; 国源科技; 0.1%; 22.4%; 27.05; 22.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -24776,6 +25026,11 @@
       <c r="CS25" t="inlineStr">
         <is>
           <t>300682.SZ; 朗新集团; 0.2%; 20.2%; 16.94; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EV25" t="inlineStr">
+        <is>
+          <t>300033.SZ; 同花顺; 0.0%; 16.3%; 367.2; 16.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -26435,7 +26690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EU21"/>
+  <dimension ref="A1:EV21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27194,6 +27449,11 @@
           <t>2025年08月14日</t>
         </is>
       </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月15日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -27949,6 +28209,11 @@
           <t>688256.SH; 寒武纪; 949; 10.3%; 319579.0; 9</t>
         </is>
       </c>
+      <c r="EV2" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 26.76; 9.9%; 580424.0; 2</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -28704,6 +28969,11 @@
           <t>300468.SZ; 四方精创; 45.7; 15.3%; 212969.5; 21</t>
         </is>
       </c>
+      <c r="EV3" t="inlineStr">
+        <is>
+          <t>300803.SZ; 指南针; 109.87; 20.0%; 346594.5; 7</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -29459,6 +29729,11 @@
           <t>300024.SZ; 机器人; 20.32; 7.5%; 126552.5; 48</t>
         </is>
       </c>
+      <c r="EV4" t="inlineStr">
+        <is>
+          <t>300033.SZ; 同花顺; 367.2; 16.3%; 313677.5; 9</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -30214,6 +30489,11 @@
           <t>300188.SZ; 国投智能; 19.08; 14.8%; 113367.5; 58</t>
         </is>
       </c>
+      <c r="EV5" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 167.24; 14.9%; 190644.0; 19</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -30969,6 +31249,11 @@
           <t>301632.SZ; 广东建科; 37.53; -13.9%; 106933.5; 59</t>
         </is>
       </c>
+      <c r="EV6" t="inlineStr">
+        <is>
+          <t>688775.SH; 影石创新; 224.42; 20.0%; 174426.5; 24</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -31724,6 +32009,11 @@
           <t>688585.SH; 上纬新材; 96.69; 8.5%; 96542.5; 66</t>
         </is>
       </c>
+      <c r="EV7" t="inlineStr">
+        <is>
+          <t>301217.SZ; 铜冠铜箔; 32.15; 14.5%; 142323.5; 32</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -32479,6 +32769,11 @@
           <t>300436.SZ; 广生堂; 145.59; 6.4%; 84698.0; 78</t>
         </is>
       </c>
+      <c r="EV8" t="inlineStr">
+        <is>
+          <t>688110.SH; 东芯股份; 97.18; 4.2%; 134895.0; 36</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -33234,6 +33529,11 @@
           <t>300059.SZ; 东方财富; 24.36; -0.9%; 82869.5; 81</t>
         </is>
       </c>
+      <c r="EV9" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 96.69; 0.0%; 126338.0; 38</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -33989,6 +34289,11 @@
           <t>300620.SZ; 光库科技; 80.05; 0.9%; 78475.0; 88</t>
         </is>
       </c>
+      <c r="EV10" t="inlineStr">
+        <is>
+          <t>300539.SZ; 横河精密; 30.46; 20.0%; 121102.5; 40</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -34744,6 +35049,11 @@
           <t>300870.SZ; 欧陆通; 208.23; 13.5%; 77996.5; 89</t>
         </is>
       </c>
+      <c r="EV11" t="inlineStr">
+        <is>
+          <t>300870.SZ; 欧陆通; 248.5; 19.3%; 106722.0; 53</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -35499,6 +35809,11 @@
           <t>300502.SZ; 新易盛; 231.06; -2.3%; 75010.5; 93</t>
         </is>
       </c>
+      <c r="EV12" t="inlineStr">
+        <is>
+          <t>300547.SZ; 川环科技; 48.48; 20.0%; 97205.0; 61</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -36254,6 +36569,11 @@
           <t>300763.SZ; 锦浪科技; 64.2; 0.2%; 74501.0; 95</t>
         </is>
       </c>
+      <c r="EV13" t="inlineStr">
+        <is>
+          <t>688256.SH; 寒武纪; 923.7; -2.7%; 89537.5; 67</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -37009,6 +37329,11 @@
           <t>688041.SH; 海光信息; 152.49; 8.8%; 70517.5; 100</t>
         </is>
       </c>
+      <c r="EV14" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 46.62; 2.0%; 77969.0; 79</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -37764,6 +38089,11 @@
           <t>300322.SZ; 硕贝德; 27.19; -7.7%; 69971.0; 101</t>
         </is>
       </c>
+      <c r="EV15" t="inlineStr">
+        <is>
+          <t>300730.SZ; 科创信息; 17.71; 20.0%; 76175.5; 81</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -38519,6 +38849,11 @@
           <t>300476.SZ; 胜宏科技; 225.69; -5.2%; 69787.5; 103</t>
         </is>
       </c>
+      <c r="EV16" t="inlineStr">
+        <is>
+          <t>300274.SZ; 阳光电源; 94.28; 7.2%; 75383.5; 82</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -39274,6 +39609,11 @@
           <t>300815.SZ; 玉禾田; 29.82; -11.5%; 69217.5; 104</t>
         </is>
       </c>
+      <c r="EV17" t="inlineStr">
+        <is>
+          <t>300570.SZ; 太辰光; 119.7; -12.1%; 73549.5; 84</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -40029,6 +40369,11 @@
           <t>300368.SZ; 汇金股份; 15.23; -11.5%; 66822.5; 108</t>
         </is>
       </c>
+      <c r="EV18" t="inlineStr">
+        <is>
+          <t>301526.SZ; 国际复材; 6.38; 19.9%; 72407.0; 87</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -40784,6 +41129,11 @@
           <t>300065.SZ; 海兰信; 19.77; 3.4%; 66377.0; 110</t>
         </is>
       </c>
+      <c r="EV19" t="inlineStr">
+        <is>
+          <t>300814.SZ; 中富电路; 45.89; 20.0%; 72125.5; 88</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -41539,6 +41889,11 @@
           <t>920101.BJ; 志高机械; 57.66; 231.2%; 60854.5; 118</t>
         </is>
       </c>
+      <c r="EV20" t="inlineStr">
+        <is>
+          <t>688648.SH; 中邮科技; 75.71; 20.0%; 66233.5; 96</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -42292,6 +42647,11 @@
       <c r="EU21" t="inlineStr">
         <is>
           <t>300068.SZ; 南都电源; 17.31; 7.3%; 57948.0; 125</t>
+        </is>
+      </c>
+      <c r="EV21" t="inlineStr">
+        <is>
+          <t>301123.SZ; 奕东电子; 39.41; 20.0%; 66101.0; 97</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EV13"/>
+  <dimension ref="A1:EW13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1194,6 +1194,11 @@
           <t>2025年08月15日</t>
         </is>
       </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月18日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1679,6 +1684,11 @@
           <t>688648.SH; 中邮科技; 0;  14:54:37; 3天2板; 75.71;  14:54:37; 20.0%; 1; 智能物流+设立机器人子公司+央企</t>
         </is>
       </c>
+      <c r="EW2" t="inlineStr">
+        <is>
+          <t>688098.SH; 申联生物; 1;  09:32:07; 2天2板; 12.83;  09:30:55; 20.0%; 2; 动物疫苗+多联多价疫苗+创新药+回购</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1949,6 +1959,11 @@
           <t>301117.SZ; 佳缘科技; 0;  11:24:24; 2天2板; 42.86;  11:24:24; 20.0%; 2; 军工+医疗AI+SIP芯片+华为昇腾</t>
         </is>
       </c>
+      <c r="EW3" t="inlineStr">
+        <is>
+          <t>688775.SH; 影石创新; 0;  09:41:55; 2天2板; 269.3;  09:41:55; 20.0%; 2; 全景无人机发布+全景相机+AI技术</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2089,6 +2104,11 @@
           <t>300289.SZ; 利德曼; 11;  14:50:33; 3天3板; 10.14;  14:04:03; 20.0%; 3; 重大重组+体外诊断+国企改革</t>
         </is>
       </c>
+      <c r="EW4" t="inlineStr">
+        <is>
+          <t>430476.BJ; 海能技术; 0;  09:50:41; 2天2板; 36.14;  09:50:41; 30.0%; 2; 细胞膜色谱+海洋经济+人工智能+中报增长</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -2154,6 +2174,11 @@
           <t>300564.SZ; 筑博设计; 2;  14:38:12; 3天3板; 25.03;  09:32:51; 20.0%; 3; 建筑设计+雨水回收+装配式建筑</t>
         </is>
       </c>
+      <c r="EW5" t="inlineStr">
+        <is>
+          <t>688519.SH; 南亚新材; 0;  10:53:10; 2天2板; 65.17;  10:53:10; 20.0%; 2; 电子专用材料+覆铜板+光模块+中报增长</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2187,6 +2212,11 @@
       <c r="ED6" t="inlineStr">
         <is>
           <t>301151.SZ; 冠龙节能; 1;  09:30:15; 2天2板; 25.56;  09:25:00; 20.0%; 2; 水利阀门+抽水蓄能+一季报增长</t>
+        </is>
+      </c>
+      <c r="EW6" t="inlineStr">
+        <is>
+          <t>300730.SZ; 科创信息; 7;  14:40:33; 2天2板; 21.25;  11:08:42; 20.0%; 2; 树图+数据要素+数字政府+AI</t>
         </is>
       </c>
     </row>
@@ -2276,7 +2306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EV532"/>
+  <dimension ref="A1:EW532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3038,6 +3068,11 @@
       <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>2025年08月15日</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月18日</t>
         </is>
       </c>
     </row>
@@ -8442,7 +8477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EV12"/>
+  <dimension ref="A1:EW12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9206,6 +9241,11 @@
           <t>2025年08月15日</t>
         </is>
       </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月18日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9916,6 +9956,11 @@
           <t>832225.BJ; 利通科技; 2;  10:58:45; 27.71; 曾涨停; 21.4%; 0.19H;  10:58:45|| 11:09:51</t>
         </is>
       </c>
+      <c r="EW2" t="inlineStr">
+        <is>
+          <t>300291.SZ; 百纳千成; 4;  09:44:54; 7.01; 曾涨停; 14.4%; 2.14H;  09:44:54|| 09:51:33|| 09:54:06|| 09:56:33</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10531,6 +10576,11 @@
           <t>301291.SZ; 明阳电气; 1;  13:13:00; 43.45; 曾涨停; 14.5%; 0.15H;  13:13:00</t>
         </is>
       </c>
+      <c r="EW3" t="inlineStr">
+        <is>
+          <t>300413.SZ; 芒果超媒; 6;  10:28:30; 26.45; 曾涨停; 17.0%; 0.69H;  10:28:30|| 11:06:51|| 11:29:09|| 11:29:45|| 13:00:09|| 13:00:21</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -10986,6 +11036,11 @@
           <t>301397.SZ; 溯联股份; 1;  13:25:00; 46.5; 曾涨停; 15.7%; 0.00H;  13:25:00</t>
         </is>
       </c>
+      <c r="EW4" t="inlineStr">
+        <is>
+          <t>688729.SH; 屹唐股份; 5;  10:54:32; 27.9; 曾涨停; 18.3%; 0.55H;  10:54:32|| 10:58:05|| 10:59:35|| 11:27:14|| 11:29:20</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11281,6 +11336,11 @@
           <t>688265.SH; 南模生物; 8;  13:29:23; 72.54; 曾涨停; 19.7%; 0.28H;  13:29:23|| 13:36:02|| 13:46:48|| 13:49:02|| 13:59:05|| 13:59:39|| 14:02:00|| 14:54:14</t>
         </is>
       </c>
+      <c r="EW5" t="inlineStr">
+        <is>
+          <t>300803.SZ; 指南针; 6;  11:17:24; 125.96; 曾涨停; 14.6%; 0.21H;  11:17:24|| 11:19:39|| 11:24:51|| 13:04:54|| 13:05:00|| 13:34:00</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -11486,6 +11546,11 @@
           <t>300870.SZ; 欧陆通; 3;  14:44:48; 248.5; 曾涨停; 19.3%; 0.11H;  14:44:48|| 14:51:45|| 14:56:57</t>
         </is>
       </c>
+      <c r="EW6" t="inlineStr">
+        <is>
+          <t>300620.SZ; 光库科技; 4;  13:00:30; 97; 曾涨停; 18.3%; 0.11H;  13:00:30|| 13:06:27|| 13:08:39|| 13:09:18</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -11596,6 +11661,11 @@
           <t>688669.SH; 聚石化学; 2;  14:46:16; 27.68; 曾涨停; 18.7%; 0.03H;  14:46:16|| 14:47:37</t>
         </is>
       </c>
+      <c r="EW7" t="inlineStr">
+        <is>
+          <t>688448.SH; 磁谷科技; 4;  13:05:00; 64.99; 曾涨停; 16.0%; 0.30H;  13:05:00|| 13:17:36|| 13:21:00|| 13:25:51</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -11661,6 +11731,11 @@
           <t>301123.SZ; 奕东电子; 2;  14:52:39; 39.41; 曾涨停; 20.0%; 0.06H;  14:52:39|| 14:56:36</t>
         </is>
       </c>
+      <c r="EW8" t="inlineStr">
+        <is>
+          <t>688590.SH; 新致软件; 3;  13:08:25; 26.53; 曾涨停; 15.8%; 0.12H;  13:08:25|| 13:09:28|| 13:16:34</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -11701,6 +11776,11 @@
           <t>300340.SZ; 科恒股份; 1;  13:11:27; 15.72; 曾涨停; 20.0%; 0.24H;  13:11:27</t>
         </is>
       </c>
+      <c r="EW9" t="inlineStr">
+        <is>
+          <t>300004.SZ; 南风股份; 1;  13:12:18; 10.06; 曾涨停; 20.0%; 0.01H;  13:12:18</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -11714,6 +11794,11 @@
       <c r="CY10" t="inlineStr">
         <is>
           <t>300230.SZ; 永利股份; 1;  13:19:24; 5.24; 曾涨停; 12.7%; 0.09H;  13:19:24</t>
+        </is>
+      </c>
+      <c r="EW10" t="inlineStr">
+        <is>
+          <t>301235.SZ; 华康洁净; 1;  13:19:54; 33.28; 曾涨停; 13.4%; 0.42H;  13:19:54</t>
         </is>
       </c>
     </row>
@@ -11753,7 +11838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EV30"/>
+  <dimension ref="A1:EW30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12517,6 +12602,11 @@
           <t>2025年08月15日</t>
         </is>
       </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月18日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13272,6 +13362,11 @@
           <t>300814.SZ; 中富电路; 0;  09:49:42; 首板涨停; 45.89;  09:49:42; 20.0%; 1; PCB+光模块+AI应用</t>
         </is>
       </c>
+      <c r="EW2" t="inlineStr">
+        <is>
+          <t>300810.SZ; 中科海讯; 0;  09:25:00; 首板涨停; 54.56;  09:25:00; 20.0%; 1; 水下机器人+军工+重大合同</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14007,6 +14102,11 @@
           <t>430476.BJ; 海能技术; 2;  10:06:51; 首板涨停; 27.8;  10:01:06; 30.0%; 1; 细胞膜色谱+海洋经济+人工智能+中报增长</t>
         </is>
       </c>
+      <c r="EW3" t="inlineStr">
+        <is>
+          <t>300049.SZ; 福瑞股份; 6;  09:43:45; 首板涨停; 60.19;  09:33:30; 20.0%; 1; MASH药物合作+无创检测权威认可+自有药品高增长</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -14702,6 +14802,11 @@
           <t>688306.SH; 均普智能; 0;  10:08:22; 首板涨停; 12.48;  10:08:22; 20.0%; 1; 人形机器人+新能源汽车+脑机接口</t>
         </is>
       </c>
+      <c r="EW4" t="inlineStr">
+        <is>
+          <t>871981.BJ; 晶赛科技; 0;  09:48:59; 首板涨停; 46.56;  09:48:59; 30.0%; 1; 华为海思概念+晶振主业</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -15332,6 +15437,11 @@
           <t>301526.SZ; 国际复材; 0;  10:11:51; 首板涨停; 6.38;  10:11:51; 19.9%; 1; 电子级玻璃纤维（应用PCB）+风电纱+云南国资</t>
         </is>
       </c>
+      <c r="EW5" t="inlineStr">
+        <is>
+          <t>688195.SH; 腾景科技; 0;  09:58:49; 首板涨停; 64.7;  09:58:49; 20.0%; 1; 光刻机+光通信+半导体设备</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -15912,6 +16022,11 @@
           <t>300730.SZ; 科创信息; 2;  10:15:12; 首板涨停; 17.71;  09:59:09; 20.0%; 1; 树图+数据要素+数字政府+AI</t>
         </is>
       </c>
+      <c r="EW6" t="inlineStr">
+        <is>
+          <t>300499.SZ; 高澜股份; 0;  10:17:21; 首板涨停; 30.94;  10:17:21; 20.0%; 1; 液冷服务器+在手订单+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -16397,6 +16512,11 @@
           <t>300547.SZ; 川环科技; 0;  10:27:33; 首板涨停; 48.48;  10:27:33; 20.0%; 1; 液冷服务器+汽车胶管+新订单</t>
         </is>
       </c>
+      <c r="EW7" t="inlineStr">
+        <is>
+          <t>301123.SZ; 奕东电子; 0;  10:17:30; 首板涨停; 47.29;  10:17:30; 20.0%; 2; FPC+新能源汽车+营收增长</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -16817,6 +16937,11 @@
           <t>688775.SH; 影石创新; 2;  13:00:16; 首板涨停; 224.42;  09:34:16; 20.0%; 1; 全景无人机发布+全景相机+AI技术</t>
         </is>
       </c>
+      <c r="EW8" t="inlineStr">
+        <is>
+          <t>688205.SH; 德科立; 12;  10:24:15; 首板涨停; 82.92;  10:05:24; 20.0%; 1; DCI增长+光模块+东数西算</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -17137,6 +17262,11 @@
           <t>688519.SH; 南亚新材; 3;  13:59:29; 首板涨停; 54.31;  13:01:20; 20.0%; 1; 电子专用材料+覆铜板+光模块+中报增长</t>
         </is>
       </c>
+      <c r="EW9" t="inlineStr">
+        <is>
+          <t>688603.SH; 天承科技; 2;  10:24:29; 首板涨停; 96.77;  10:03:11; 20.0%; 1; PCB电子化学品+先进封装+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -17387,6 +17517,11 @@
           <t>688448.SH; 磁谷科技; 3;  14:08:41; 首板涨停; 56.04;  13:10:44; 20.0%; 1; 数据中心应用+投资扩产+磁悬浮设备</t>
         </is>
       </c>
+      <c r="EW10" t="inlineStr">
+        <is>
+          <t>300995.SZ; 奇德新材; 0;  10:34:00; 首板涨停; 55.72;  10:34:00; 20.0%; 1; 人形机器人+碳纤维+高分子材料</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -17587,6 +17722,11 @@
           <t>688199.SH; 久日新材; 5;  14:38:27; 首板涨停; 30.62;  13:48:54; 20.0%; 1; 光刻胶+光引发剂+半导体材料+机器人概念</t>
         </is>
       </c>
+      <c r="EW11" t="inlineStr">
+        <is>
+          <t>301128.SZ; 强瑞技术; 0;  10:41:06; 首板涨停; 89.29;  10:41:06; 20.0%; 1; 液冷服务器+人形机器人+半导体</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -17732,6 +17872,11 @@
           <t>300803.SZ; 指南针; 2;  14:41:30; 首板涨停; 109.87;  13:19:42; 20.0%; 1; 互联网证券+证券增资+一季报增长</t>
         </is>
       </c>
+      <c r="EW12" t="inlineStr">
+        <is>
+          <t>301226.SZ; 祥明智能; 0;  10:41:27; 首板涨停; 40.24;  10:41:27; 20.0%; 1; 人形机器人+关节模组+微特电机</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -17837,6 +17982,11 @@
           <t>688098.SH; 申联生物; 25;  14:44:31; 首板涨停; 10.69;  13:10:44; 20.0%; 1; 动物疫苗+多联多价疫苗+创新药+回购</t>
         </is>
       </c>
+      <c r="EW13" t="inlineStr">
+        <is>
+          <t>300153.SZ; 科泰电源; 0;  10:55:39; 首板涨停; 42.83;  10:55:39; 20.0%; 1; 数据中心+发电机组</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -17927,6 +18077,11 @@
           <t>300539.SZ; 横河精密; 1;  14:52:48; 首板涨停; 30.46;  14:32:33; 20.0%; 1; 机器人概念+减速器+一季报增长</t>
         </is>
       </c>
+      <c r="EW14" t="inlineStr">
+        <is>
+          <t>688189.SH; 南新制药; 0;  11:08:03; 首板涨停; 16.18;  11:08:03; 20.0%; 1; 资产收购筹划+创新药+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -18012,6 +18167,11 @@
           <t>688141.SH; 杰华特; 9;  14:54:24; 首板涨停; 35.51;  14:35:57; 20.0%; 1; 入股天易合芯+电源管理芯片+半导体</t>
         </is>
       </c>
+      <c r="EW15" t="inlineStr">
+        <is>
+          <t>301165.SZ; 锐捷网络; 0;  11:29:42; 首板涨停; 81.85;  11:29:42; 20.0%; 1; 中报预增+液冷技术+数据中心交换机+福建国资</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -18077,6 +18237,11 @@
           <t>300723.SZ; 一品红; 1;  14:48:42; 首板涨停; 80.53;  10:24:21; 20.0%; 1; 创新药+临床进展+儿童药</t>
         </is>
       </c>
+      <c r="EW16" t="inlineStr">
+        <is>
+          <t>836699.BJ; 海达尔; 1;  11:29:53; 首板涨停; 59.76;  10:57:05; 30.0%; 1; 服务器滑轨+家电+华为+募投建设</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -18127,6 +18292,11 @@
           <t>688356.SH; 键凯科技; 0;  14:48:55; 首板涨停; 110.16;  14:48:55; 20.0%; 1; 医美器械+创新药+海外增长</t>
         </is>
       </c>
+      <c r="EW17" t="inlineStr">
+        <is>
+          <t>300767.SZ; 震安科技; 0;  13:00:12; 首板涨停; 19.86;  13:00:12; 20.0%; 1; 深圳东创入主+地震安全</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -18172,6 +18342,11 @@
           <t>300683.SZ; 海特生物; 1;  14:56:51; 首板涨停; 37.92;  14:09:24; 20.0%; 1; 创新药+CAR-T研究+医保销售</t>
         </is>
       </c>
+      <c r="EW18" t="inlineStr">
+        <is>
+          <t>301151.SZ; 冠龙节能; 1;  13:42:09; 首板涨停; 26.26;  13:05:12; 20.0%; 1; 液冷服务器+节水阀门</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -18212,6 +18387,11 @@
           <t>300773.SZ; 拉卡拉; 0;  14:50:54; 首板涨停; 23.75;  14:50:54; 20.0%; 1; 金融科技+跨境支付+AI应用</t>
         </is>
       </c>
+      <c r="EW19" t="inlineStr">
+        <is>
+          <t>300727.SZ; 润禾材料; 4;  14:24:12; 首板涨停; 43.64;  14:09:51; 20.0%; 1; 液冷服务器+中报增长+有机硅</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -18242,6 +18422,11 @@
           <t>301082.SZ; 久盛电气; 5;  14:55:21; 首板涨停; 27.19;  10:15:24; 20.0%; 1; 核电概念+防火电缆+矿物绝缘加热</t>
         </is>
       </c>
+      <c r="EW20" t="inlineStr">
+        <is>
+          <t>300426.SZ; 华智数媒; 2;  14:27:33; 首板涨停; 11.57;  09:35:06; 20.0%; 1; 影视制作+AI应用+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -18257,6 +18442,11 @@
           <t>831856.BJ; 浩淼科技; 0;  14:22:01; 首板涨停; 27.2;  14:22:01; -2.8%; 1; 机器人+消防应急救援装备+并购重组预期</t>
         </is>
       </c>
+      <c r="EW21" t="inlineStr">
+        <is>
+          <t>872808.BJ; 曙光数创; 6;  14:40:17; 首板涨停; 99.09;  13:48:17; 30.0%; 1; 液冷基础设施+要约收购+央企</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -18272,6 +18462,11 @@
           <t>837006.BJ; 晟楠科技; 1;  14:23:53; 首板涨停; 33.01;  14:20:15; -7.9%; 1; 军工+减速器+专精特新</t>
         </is>
       </c>
+      <c r="EW22" t="inlineStr">
+        <is>
+          <t>688108.SH; 赛诺医疗; 1;  14:49:59; 首板涨停; 41.48;  13:30:14; 20.0%; 1; FDA认证+神经介入+中报预增</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -18287,6 +18482,11 @@
           <t>873706.BJ; 铁拓机械; 2;  14:29:52; 首板涨停; 19.65;  14:21:22; -4.2%; 1; 沥青混合料搅拌设备+外销</t>
         </is>
       </c>
+      <c r="EW23" t="inlineStr">
+        <is>
+          <t>300133.SZ; 华策影视; 5;  14:56:39; 首板涨停; 9.3;  10:00:24; 20.0%; 1; 一季报增长+短剧+IP经济+AIGC</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -18300,6 +18500,11 @@
       <c r="BL24" t="inlineStr">
         <is>
           <t>872351.BJ; 华光源海; 0;  14:31:47; 首板涨停; 23.1;  14:31:47; 1.1%; 1; 统一大市场+国际物流</t>
+        </is>
+      </c>
+      <c r="EW24" t="inlineStr">
+        <is>
+          <t>835438.BJ; 戈碧迦; 0;  14:56:56; 首板涨停; 48.23;  14:56:56; 30.0%; 1; 纳米微晶玻璃+半导体中试</t>
         </is>
       </c>
     </row>
@@ -18374,7 +18579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EV178"/>
+  <dimension ref="A1:EW178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19138,6 +19343,11 @@
           <t>2025年08月15日</t>
         </is>
       </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月18日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -19868,6 +20078,11 @@
           <t>688265.SH; 南模生物; 3.5%; 24.0%; 72.54; 19.7%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EW2" t="inlineStr">
+        <is>
+          <t>835184.BJ; 国源科技; 4.6%; 15.3%; 29.75; 10.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -20558,6 +20773,11 @@
           <t>301076.SZ; 新瀚新材; 3.1%; 13.7%; 57.04; 10.2%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="EW3" t="inlineStr">
+        <is>
+          <t>300620.SZ; 光库科技; 1.2%; 19.7%; 97; 18.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -21188,6 +21408,11 @@
           <t>688584.SH; 上海合晶; 2.9%; 13.0%; 26.79; 9.8%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EW4" t="inlineStr">
+        <is>
+          <t>873726.BJ; 卓兆点胶; 0.9%; 18.4%; 43.8; 17.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -21743,6 +21968,11 @@
           <t>300844.SZ; 山水比德; 2.2%; 13.8%; 53.3; 11.4%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="EW5" t="inlineStr">
+        <is>
+          <t>300843.SZ; 胜蓝股份; 0.8%; 16.7%; 52; 15.8%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -22243,6 +22473,11 @@
           <t>835179.BJ; 凯德石英; 1.7%; 13.5%; 38.25; 11.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EW6" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 0.8%; 15.9%; 170.88; 15.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -22703,6 +22938,11 @@
           <t>839790.BJ; 联迪信息; 1.7%; 13.6%; 53.37; 11.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EW7" t="inlineStr">
+        <is>
+          <t>835438.BJ; 戈碧迦; 0.5%; 30.7%; 48.23; 30.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -23093,6 +23333,11 @@
           <t>301018.SZ; 申菱环境; 1.5%; 12.3%; 64.11; 10.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EW8" t="inlineStr">
+        <is>
+          <t>430090.BJ; 同辉信息; 0.3%; 12.6%; 10.3; 12.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -23413,6 +23658,11 @@
           <t>688318.SH; 财富趋势; 1.3%; 12.8%; 138.7; 11.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EW9" t="inlineStr">
+        <is>
+          <t>301183.SZ; 东田微; 0.3%; 14.6%; 73.38; 14.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -23693,6 +23943,11 @@
           <t>688379.SH; 华光新材; 1.2%; 16.8%; 59.48; 15.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EW10" t="inlineStr">
+        <is>
+          <t>830839.BJ; 万通液压; 0.2%; 12.1%; 34.19; 11.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -23928,6 +24183,11 @@
           <t>301630.SZ; 同宇新材; 1.2%; 13.2%; 198.71; 11.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EW11" t="inlineStr">
+        <is>
+          <t>688083.SH; 中望软件; 0.1%; 12.6%; 77; 12.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -24098,6 +24358,11 @@
           <t>300300.SZ; 海峡创新; 1.2%; 18.8%; 6.08; 17.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EW12" t="inlineStr">
+        <is>
+          <t>300995.SZ; 奇德新材; 0.0%; 20.1%; 55.72; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -24246,6 +24511,11 @@
       <c r="EV13" t="inlineStr">
         <is>
           <t>688519.SH; 南亚新材; 1.0%; 21.2%; 54.31; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EW13" t="inlineStr">
+        <is>
+          <t>688566.SH; 吉贝尔; 0.0%; 13.2%; 37.02; 13.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -26690,7 +26960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EV21"/>
+  <dimension ref="A1:EW21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27454,6 +27724,11 @@
           <t>2025年08月15日</t>
         </is>
       </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月18日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -28214,6 +28489,11 @@
           <t>300059.SZ; 东方财富; 26.76; 9.9%; 580424.0; 2</t>
         </is>
       </c>
+      <c r="EW2" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 27.85; 4.1%; 326980.0; 17</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -28974,6 +29254,11 @@
           <t>300803.SZ; 指南针; 109.87; 20.0%; 346594.5; 7</t>
         </is>
       </c>
+      <c r="EW3" t="inlineStr">
+        <is>
+          <t>300803.SZ; 指南针; 125.96; 14.6%; 299870.0; 22</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -29734,6 +30019,11 @@
           <t>300033.SZ; 同花顺; 367.2; 16.3%; 313677.5; 9</t>
         </is>
       </c>
+      <c r="EW4" t="inlineStr">
+        <is>
+          <t>300033.SZ; 同花顺; 404.9; 10.3%; 256131.5; 29</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -30494,6 +30784,11 @@
           <t>300436.SZ; 广生堂; 167.24; 14.9%; 190644.0; 19</t>
         </is>
       </c>
+      <c r="EW5" t="inlineStr">
+        <is>
+          <t>300499.SZ; 高澜股份; 30.94; 20.0%; 218926.5; 37</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -31254,6 +31549,11 @@
           <t>688775.SH; 影石创新; 224.42; 20.0%; 174426.5; 24</t>
         </is>
       </c>
+      <c r="EW6" t="inlineStr">
+        <is>
+          <t>300339.SZ; 润和软件; 59.96; 9.4%; 210895.0; 40</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -32014,6 +32314,11 @@
           <t>301217.SZ; 铜冠铜箔; 32.15; 14.5%; 142323.5; 32</t>
         </is>
       </c>
+      <c r="EW7" t="inlineStr">
+        <is>
+          <t>300065.SZ; 海兰信; 23.13; 11.6%; 180811.0; 51</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -32774,6 +33079,11 @@
           <t>688110.SH; 东芯股份; 97.18; 4.2%; 134895.0; 36</t>
         </is>
       </c>
+      <c r="EW8" t="inlineStr">
+        <is>
+          <t>300133.SZ; 华策影视; 9.3; 20.0%; 152921.0; 67</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -33534,6 +33844,11 @@
           <t>688585.SH; 上纬新材; 96.69; 0.0%; 126338.0; 38</t>
         </is>
       </c>
+      <c r="EW9" t="inlineStr">
+        <is>
+          <t>300730.SZ; 科创信息; 21.25; 20.0%; 150937.0; 68</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -34294,6 +34609,11 @@
           <t>300539.SZ; 横河精密; 30.46; 20.0%; 121102.5; 40</t>
         </is>
       </c>
+      <c r="EW10" t="inlineStr">
+        <is>
+          <t>300620.SZ; 光库科技; 97; 18.3%; 149293.5; 69</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -35054,6 +35374,11 @@
           <t>300870.SZ; 欧陆通; 248.5; 19.3%; 106722.0; 53</t>
         </is>
       </c>
+      <c r="EW11" t="inlineStr">
+        <is>
+          <t>300153.SZ; 科泰电源; 42.83; 20.0%; 148334.0; 71</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -35814,6 +36139,11 @@
           <t>300547.SZ; 川环科技; 48.48; 20.0%; 97205.0; 61</t>
         </is>
       </c>
+      <c r="EW12" t="inlineStr">
+        <is>
+          <t>300474.SZ; 景嘉微; 90.02; 2.6%; 144662.5; 74</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -36574,6 +36904,11 @@
           <t>688256.SH; 寒武纪; 923.7; -2.7%; 89537.5; 67</t>
         </is>
       </c>
+      <c r="EW13" t="inlineStr">
+        <is>
+          <t>300602.SZ; 飞荣达; 34.6; 15.1%; 143037.0; 75</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -37334,6 +37669,11 @@
           <t>300468.SZ; 四方精创; 46.62; 2.0%; 77969.0; 79</t>
         </is>
       </c>
+      <c r="EW14" t="inlineStr">
+        <is>
+          <t>301128.SZ; 强瑞技术; 89.29; 20.0%; 136690.0; 80</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -38094,6 +38434,11 @@
           <t>300730.SZ; 科创信息; 17.71; 20.0%; 76175.5; 81</t>
         </is>
       </c>
+      <c r="EW15" t="inlineStr">
+        <is>
+          <t>688775.SH; 影石创新; 269.3; 20.0%; 136060.0; 81</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -38854,6 +39199,11 @@
           <t>300274.SZ; 阳光电源; 94.28; 7.2%; 75383.5; 82</t>
         </is>
       </c>
+      <c r="EW16" t="inlineStr">
+        <is>
+          <t>300199.SZ; 翰宇药业; 29.91; 14.8%; 131679.5; 82</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -39614,6 +39964,11 @@
           <t>300570.SZ; 太辰光; 119.7; -12.1%; 73549.5; 84</t>
         </is>
       </c>
+      <c r="EW17" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 170.88; 15.0%; 127770.5; 84</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -40374,6 +40729,11 @@
           <t>301526.SZ; 国际复材; 6.38; 19.9%; 72407.0; 87</t>
         </is>
       </c>
+      <c r="EW18" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 260; 9.2%; 125136.0; 86</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -41134,6 +41494,11 @@
           <t>300814.SZ; 中富电路; 45.89; 20.0%; 72125.5; 88</t>
         </is>
       </c>
+      <c r="EW19" t="inlineStr">
+        <is>
+          <t>835438.BJ; 戈碧迦; 48.23; 30.0%; 124466.5; 87</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -41894,6 +42259,11 @@
           <t>688648.SH; 中邮科技; 75.71; 20.0%; 66233.5; 96</t>
         </is>
       </c>
+      <c r="EW20" t="inlineStr">
+        <is>
+          <t>300486.SZ; 东杰智能; 22.44; 16.4%; 119583.5; 93</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -42652,6 +43022,11 @@
       <c r="EV21" t="inlineStr">
         <is>
           <t>301123.SZ; 奕东电子; 39.41; 20.0%; 66101.0; 97</t>
+        </is>
+      </c>
+      <c r="EW21" t="inlineStr">
+        <is>
+          <t>301165.SZ; 锐捷网络; 81.85; 20.0%; 116946.0; 97</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EW13"/>
+  <dimension ref="A1:EX13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1199,6 +1199,11 @@
           <t>2025年08月18日</t>
         </is>
       </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月19日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1689,6 +1694,11 @@
           <t>688098.SH; 申联生物; 1;  09:32:07; 2天2板; 12.83;  09:30:55; 20.0%; 2; 动物疫苗+多联多价疫苗+创新药+回购</t>
         </is>
       </c>
+      <c r="EX2" t="inlineStr">
+        <is>
+          <t>688098.SH; 申联生物; 1;  09:33:18; 3天3板; 15.4;  09:25:03; 20.0%; 3; 创新药+动物疫苗+多联多价疫苗+回购</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1964,6 +1974,11 @@
           <t>688775.SH; 影石创新; 0;  09:41:55; 2天2板; 269.3;  09:41:55; 20.0%; 2; 全景无人机发布+全景相机+AI技术</t>
         </is>
       </c>
+      <c r="EX3" t="inlineStr">
+        <is>
+          <t>300049.SZ; 福瑞股份; 0;  09:34:15; 2天2板; 72.23;  09:34:15; 20.0%; 2; MASH药物合作+自有药品高增长</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2107,6 +2122,11 @@
       <c r="EW4" t="inlineStr">
         <is>
           <t>430476.BJ; 海能技术; 0;  09:50:41; 2天2板; 36.14;  09:50:41; 30.0%; 2; 细胞膜色谱+海洋经济+人工智能+中报增长</t>
+        </is>
+      </c>
+      <c r="EX4" t="inlineStr">
+        <is>
+          <t>300810.SZ; 中科海讯; 31;  14:30:45; 2天2板; 65.47;  09:36:18; 20.0%; 2; 水下机器人+军工+重大合同</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EW532"/>
+  <dimension ref="A1:EX532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3073,6 +3093,11 @@
       <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>2025年08月18日</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月19日</t>
         </is>
       </c>
     </row>
@@ -8477,7 +8502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EW12"/>
+  <dimension ref="A1:EX12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9246,6 +9271,11 @@
           <t>2025年08月18日</t>
         </is>
       </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月19日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9961,6 +9991,11 @@
           <t>300291.SZ; 百纳千成; 4;  09:44:54; 7.01; 曾涨停; 14.4%; 2.14H;  09:44:54|| 09:51:33|| 09:54:06|| 09:56:33</t>
         </is>
       </c>
+      <c r="EX2" t="inlineStr">
+        <is>
+          <t>831641.BJ; 格利尔; 1;  09:32:31; 22.16; 曾涨停; 17.7%; 3.49H;  09:32:31</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10581,6 +10616,11 @@
           <t>300413.SZ; 芒果超媒; 6;  10:28:30; 26.45; 曾涨停; 17.0%; 0.69H;  10:28:30|| 11:06:51|| 11:29:09|| 11:29:45|| 13:00:09|| 13:00:21</t>
         </is>
       </c>
+      <c r="EX3" t="inlineStr">
+        <is>
+          <t>430476.BJ; 海能技术; 1;  09:34:07; 36.22; 曾涨停; 0.2%; 0.01H;  09:34:07</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11041,6 +11081,11 @@
           <t>688729.SH; 屹唐股份; 5;  10:54:32; 27.9; 曾涨停; 18.3%; 0.55H;  10:54:32|| 10:58:05|| 10:59:35|| 11:27:14|| 11:29:20</t>
         </is>
       </c>
+      <c r="EX4" t="inlineStr">
+        <is>
+          <t>836504.BJ; 博迅生物; 1;  09:50:31; 34.03; 曾涨停; 18.2%; 2.25H;  09:50:31</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11341,6 +11386,11 @@
           <t>300803.SZ; 指南针; 6;  11:17:24; 125.96; 曾涨停; 14.6%; 0.21H;  11:17:24|| 11:19:39|| 11:24:51|| 13:04:54|| 13:05:00|| 13:34:00</t>
         </is>
       </c>
+      <c r="EX5" t="inlineStr">
+        <is>
+          <t>300004.SZ; 南风股份; 3;  10:26:03; 11.44; 曾涨停; 13.7%; 0.74H;  10:26:03|| 13:00:00|| 13:15:36</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -11551,6 +11601,11 @@
           <t>300620.SZ; 光库科技; 4;  13:00:30; 97; 曾涨停; 18.3%; 0.11H;  13:00:30|| 13:06:27|| 13:08:39|| 13:09:18</t>
         </is>
       </c>
+      <c r="EX6" t="inlineStr">
+        <is>
+          <t>688521.SH; 芯原股份; 2;  10:39:16; 127.28; 曾涨停; 13.4%; 0.25H;  10:39:16|| 10:41:31</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -11666,6 +11721,11 @@
           <t>688448.SH; 磁谷科技; 4;  13:05:00; 64.99; 曾涨停; 16.0%; 0.30H;  13:05:00|| 13:17:36|| 13:21:00|| 13:25:51</t>
         </is>
       </c>
+      <c r="EX7" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 2;  10:43:36; 58.3; 曾涨停; 5.0%; 0.01H;  10:43:36|| 10:45:00</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -11736,6 +11796,11 @@
           <t>688590.SH; 新致软件; 3;  13:08:25; 26.53; 曾涨停; 15.8%; 0.12H;  13:08:25|| 13:09:28|| 13:16:34</t>
         </is>
       </c>
+      <c r="EX8" t="inlineStr">
+        <is>
+          <t>300631.SZ; 久吾高科; 1;  11:22:45; 36.87; 曾涨停; 11.7%; 0.78H;  11:22:45</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -11781,6 +11846,11 @@
           <t>300004.SZ; 南风股份; 1;  13:12:18; 10.06; 曾涨停; 20.0%; 0.01H;  13:12:18</t>
         </is>
       </c>
+      <c r="EX9" t="inlineStr">
+        <is>
+          <t>301525.SZ; 儒竞科技; 2;  13:02:51; 106.54; 曾涨停; 12.2%; 0.01H;  13:02:51|| 13:03:48</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -11801,6 +11871,11 @@
           <t>301235.SZ; 华康洁净; 1;  13:19:54; 33.28; 曾涨停; 13.4%; 0.42H;  13:19:54</t>
         </is>
       </c>
+      <c r="EX10" t="inlineStr">
+        <is>
+          <t>688319.SH; 欧林生物; 2;  13:04:20; 31.21; 曾涨停; 12.7%; 0.10H;  13:04:20|| 13:10:32</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -11814,6 +11889,11 @@
       <c r="CY11" t="inlineStr">
         <is>
           <t>688068.SH; 热景生物; 3;  13:59:42; 161.15; 曾涨停; 18.1%; 0.05H;  13:59:42|| 14:02:00|| 14:04:24</t>
+        </is>
+      </c>
+      <c r="EX11" t="inlineStr">
+        <is>
+          <t>300995.SZ; 奇德新材; 1;  13:11:45; 64.11; 曾涨停; 15.1%; 0.09H;  13:11:45</t>
         </is>
       </c>
     </row>
@@ -11838,7 +11918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EW30"/>
+  <dimension ref="A1:EX30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12607,6 +12687,11 @@
           <t>2025年08月18日</t>
         </is>
       </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月19日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13367,6 +13452,11 @@
           <t>300810.SZ; 中科海讯; 0;  09:25:00; 首板涨停; 54.56;  09:25:00; 20.0%; 1; 水下机器人+军工+重大合同</t>
         </is>
       </c>
+      <c r="EX2" t="inlineStr">
+        <is>
+          <t>301321.SZ; 翰博高新; 0;  09:33:27; 首板涨停; 19.32;  09:33:27; 20.0%; 1; 华为概念+AIPC+背光模组</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14107,6 +14197,11 @@
           <t>300049.SZ; 福瑞股份; 6;  09:43:45; 首板涨停; 60.19;  09:33:30; 20.0%; 1; MASH药物合作+无创检测权威认可+自有药品高增长</t>
         </is>
       </c>
+      <c r="EX3" t="inlineStr">
+        <is>
+          <t>300404.SZ; 博济医药; 0;  09:45:03; 首板涨停; 13.15;  09:45:03; 20.0%; 1; 减肥药服务+创新药CRO+订单增长</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -14807,6 +14902,11 @@
           <t>871981.BJ; 晶赛科技; 0;  09:48:59; 首板涨停; 46.56;  09:48:59; 30.0%; 1; 华为海思概念+晶振主业</t>
         </is>
       </c>
+      <c r="EX4" t="inlineStr">
+        <is>
+          <t>300598.SZ; 诚迈科技; 0;  10:11:33; 首板涨停; 55.39;  10:11:33; 20.0%; 1; 鸿蒙概念+华为海思概念股+信创+AI智能体</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -15442,6 +15542,11 @@
           <t>688195.SH; 腾景科技; 0;  09:58:49; 首板涨停; 64.7;  09:58:49; 20.0%; 1; 光刻机+光通信+半导体设备</t>
         </is>
       </c>
+      <c r="EX5" t="inlineStr">
+        <is>
+          <t>300642.SZ; 透景生命; 0;  10:47:54; 首板涨停; 23.09;  10:47:54; 20.0%; 1; 收购康录生物+IVD诊断+基孔肯雅热检测产品</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -16027,6 +16132,11 @@
           <t>300499.SZ; 高澜股份; 0;  10:17:21; 首板涨停; 30.94;  10:17:21; 20.0%; 1; 液冷服务器+在手订单+一季报增长</t>
         </is>
       </c>
+      <c r="EX6" t="inlineStr">
+        <is>
+          <t>300536.SZ; 农尚环境; 0;  13:05:30; 首板涨停; 11.63;  13:05:30; 20.0%; 1; 算力布局+园林+应收清收</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -16517,6 +16627,11 @@
           <t>301123.SZ; 奕东电子; 0;  10:17:30; 首板涨停; 47.29;  10:17:30; 20.0%; 2; FPC+新能源汽车+营收增长</t>
         </is>
       </c>
+      <c r="EX7" t="inlineStr">
+        <is>
+          <t>688381.SH; 帝奥微; 3;  13:47:08; 首板涨停; 29.76;  13:04:44; 20.0%; 1; 人形机器人+模拟芯片+CPO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -16942,6 +17057,11 @@
           <t>688205.SH; 德科立; 12;  10:24:15; 首板涨停; 82.92;  10:05:24; 20.0%; 1; DCI增长+光模块+东数西算</t>
         </is>
       </c>
+      <c r="EX8" t="inlineStr">
+        <is>
+          <t>301632.SZ; 广东建科; 2;  14:25:21; 首板涨停; 44.36;  09:56:54; 20.0%; 1; 建设工程检验检测+机器人概念+次新股+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -17265,6 +17385,11 @@
       <c r="EW9" t="inlineStr">
         <is>
           <t>688603.SH; 天承科技; 2;  10:24:29; 首板涨停; 96.77;  10:03:11; 20.0%; 1; PCB电子化学品+先进封装+一季报增长</t>
+        </is>
+      </c>
+      <c r="EX9" t="inlineStr">
+        <is>
+          <t>300328.SZ; 宜安科技; 4;  15:00:00; 首板涨停; 16.98;  14:08:00; 20.0%; 1; 人形机器人+液态金属+国企改革</t>
         </is>
       </c>
     </row>
@@ -18579,7 +18704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EW178"/>
+  <dimension ref="A1:EX178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19348,6 +19473,11 @@
           <t>2025年08月18日</t>
         </is>
       </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月19日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -20083,6 +20213,11 @@
           <t>835184.BJ; 国源科技; 4.6%; 15.3%; 29.75; 10.0%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="EX2" t="inlineStr">
+        <is>
+          <t>301632.SZ; 广东建科; 3.9%; 24.9%; 44.36; 20.0%; 价升量涨||阳线||大阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -20778,6 +20913,11 @@
           <t>300620.SZ; 光库科技; 1.2%; 19.7%; 97; 18.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EX3" t="inlineStr">
+        <is>
+          <t>688521.SH; 芯原股份; 1.7%; 15.4%; 127.28; 13.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -21413,6 +21553,11 @@
           <t>873726.BJ; 卓兆点胶; 0.9%; 18.4%; 43.8; 17.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EX4" t="inlineStr">
+        <is>
+          <t>300328.SZ; 宜安科技; 1.1%; 21.3%; 16.98; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -21973,6 +22118,11 @@
           <t>300843.SZ; 胜蓝股份; 0.8%; 16.7%; 52; 15.8%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EX5" t="inlineStr">
+        <is>
+          <t>688118.SH; 普元信息; 0.8%; 12.7%; 35.51; 11.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -22478,6 +22628,11 @@
           <t>301357.SZ; 北方长龙; 0.8%; 15.9%; 170.88; 15.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EX6" t="inlineStr">
+        <is>
+          <t>300913.SZ; 兆龙互连; 0.8%; 12.4%; 59.8; 11.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -22943,6 +23098,11 @@
           <t>835438.BJ; 戈碧迦; 0.5%; 30.7%; 48.23; 30.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EX7" t="inlineStr">
+        <is>
+          <t>300897.SZ; 山科智能; 0.2%; 14.8%; 32.96; 14.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -23338,6 +23498,11 @@
           <t>430090.BJ; 同辉信息; 0.3%; 12.6%; 10.3; 12.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EX8" t="inlineStr">
+        <is>
+          <t>300536.SZ; 农尚环境; 0.1%; 20.1%; 11.63; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -23661,6 +23826,11 @@
       <c r="EW9" t="inlineStr">
         <is>
           <t>301183.SZ; 东田微; 0.3%; 14.6%; 73.38; 14.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EX9" t="inlineStr">
+        <is>
+          <t>300680.SZ; 隆盛科技; 0.0%; 13.1%; 45.89; 13.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -26960,7 +27130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EW21"/>
+  <dimension ref="A1:EX21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27729,6 +27899,11 @@
           <t>2025年08月18日</t>
         </is>
       </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月19日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -28494,6 +28669,11 @@
           <t>300059.SZ; 东方财富; 27.85; 4.1%; 326980.0; 17</t>
         </is>
       </c>
+      <c r="EX2" t="inlineStr">
+        <is>
+          <t>300339.SZ; 润和软件; 64.77; 8.0%; 204096.5; 26</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -29259,6 +29439,11 @@
           <t>300803.SZ; 指南针; 125.96; 14.6%; 299870.0; 22</t>
         </is>
       </c>
+      <c r="EX3" t="inlineStr">
+        <is>
+          <t>300328.SZ; 宜安科技; 16.98; 20.0%; 196622.0; 30</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -30024,6 +30209,11 @@
           <t>300033.SZ; 同花顺; 404.9; 10.3%; 256131.5; 29</t>
         </is>
       </c>
+      <c r="EX4" t="inlineStr">
+        <is>
+          <t>300486.SZ; 东杰智能; 23.03; 2.6%; 168018.0; 38</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -30789,6 +30979,11 @@
           <t>300499.SZ; 高澜股份; 30.94; 20.0%; 218926.5; 37</t>
         </is>
       </c>
+      <c r="EX5" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 26.9; -3.4%; 157685.5; 46</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -31554,6 +31749,11 @@
           <t>300339.SZ; 润和软件; 59.96; 9.4%; 210895.0; 40</t>
         </is>
       </c>
+      <c r="EX6" t="inlineStr">
+        <is>
+          <t>300598.SZ; 诚迈科技; 55.39; 20.0%; 139734.0; 58</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -32319,6 +32519,11 @@
           <t>300065.SZ; 海兰信; 23.13; 11.6%; 180811.0; 51</t>
         </is>
       </c>
+      <c r="EX7" t="inlineStr">
+        <is>
+          <t>300766.SZ; 每日互动; 42.84; -2.9%; 132912.0; 64</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -33084,6 +33289,11 @@
           <t>300133.SZ; 华策影视; 9.3; 20.0%; 152921.0; 67</t>
         </is>
       </c>
+      <c r="EX8" t="inlineStr">
+        <is>
+          <t>301632.SZ; 广东建科; 44.36; 20.0%; 114859.5; 77</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -33849,6 +34059,11 @@
           <t>300730.SZ; 科创信息; 21.25; 20.0%; 150937.0; 68</t>
         </is>
       </c>
+      <c r="EX9" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 160.88; -6.6%; 112749.0; 81</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -34614,6 +34829,11 @@
           <t>300620.SZ; 光库科技; 97; 18.3%; 149293.5; 69</t>
         </is>
       </c>
+      <c r="EX10" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 256.79; 5.1%; 109015.5; 85</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -35379,6 +35599,11 @@
           <t>300153.SZ; 科泰电源; 42.83; 20.0%; 148334.0; 71</t>
         </is>
       </c>
+      <c r="EX11" t="inlineStr">
+        <is>
+          <t>688256.SH; 寒武纪; 933.98; -1.7%; 107711.5; 86</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -36144,6 +36369,11 @@
           <t>300474.SZ; 景嘉微; 90.02; 2.6%; 144662.5; 74</t>
         </is>
       </c>
+      <c r="EX12" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 275.5; 6.0%; 106565.0; 87</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -36909,6 +37139,11 @@
           <t>300602.SZ; 飞荣达; 34.6; 15.1%; 143037.0; 75</t>
         </is>
       </c>
+      <c r="EX13" t="inlineStr">
+        <is>
+          <t>300810.SZ; 中科海讯; 65.47; 20.0%; 104098.5; 90</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -37674,6 +37909,11 @@
           <t>301128.SZ; 强瑞技术; 89.29; 20.0%; 136690.0; 80</t>
         </is>
       </c>
+      <c r="EX14" t="inlineStr">
+        <is>
+          <t>300456.SZ; 赛微电子; 26.09; 11.7%; 101130.5; 93</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -38439,6 +38679,11 @@
           <t>688775.SH; 影石创新; 269.3; 20.0%; 136060.0; 81</t>
         </is>
       </c>
+      <c r="EX15" t="inlineStr">
+        <is>
+          <t>300147.SZ; ST香雪; 10.54; 20.0%; 100589.5; 94</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -39204,6 +39449,11 @@
           <t>300199.SZ; 翰宇药业; 29.91; 14.8%; 131679.5; 82</t>
         </is>
       </c>
+      <c r="EX16" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 85.65; -12.0%; 97164.5; 97</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -39969,6 +40219,11 @@
           <t>301357.SZ; 北方长龙; 170.88; 15.0%; 127770.5; 84</t>
         </is>
       </c>
+      <c r="EX17" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 58.3; 5.0%; 96299.0; 98</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -40734,6 +40989,11 @@
           <t>300308.SZ; 中际旭创; 260; 9.2%; 125136.0; 86</t>
         </is>
       </c>
+      <c r="EX18" t="inlineStr">
+        <is>
+          <t>300803.SZ; 指南针; 126.55; 0.5%; 92765.5; 102</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -41499,6 +41759,11 @@
           <t>835438.BJ; 戈碧迦; 48.23; 30.0%; 124466.5; 87</t>
         </is>
       </c>
+      <c r="EX19" t="inlineStr">
+        <is>
+          <t>300049.SZ; 福瑞股份; 72.23; 20.0%; 87722.5; 106</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -42264,6 +42529,11 @@
           <t>300486.SZ; 东杰智能; 22.44; 16.4%; 119583.5; 93</t>
         </is>
       </c>
+      <c r="EX20" t="inlineStr">
+        <is>
+          <t>300153.SZ; 科泰电源; 47.25; 10.3%; 84996.0; 110</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -43027,6 +43297,11 @@
       <c r="EW21" t="inlineStr">
         <is>
           <t>301165.SZ; 锐捷网络; 81.85; 20.0%; 116946.0; 97</t>
+        </is>
+      </c>
+      <c r="EX21" t="inlineStr">
+        <is>
+          <t>300499.SZ; 高澜股份; 33; 6.7%; 84253.5; 113</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EX13"/>
+  <dimension ref="A1:EY13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1202,6 +1202,11 @@
       <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>2025年08月19日</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月20日</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EX532"/>
+  <dimension ref="A1:EY532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3098,6 +3103,11 @@
       <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>2025年08月19日</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月20日</t>
         </is>
       </c>
     </row>
@@ -8502,7 +8512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EX12"/>
+  <dimension ref="A1:EY12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9276,6 +9286,11 @@
           <t>2025年08月19日</t>
         </is>
       </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月20日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9996,6 +10011,11 @@
           <t>831641.BJ; 格利尔; 1;  09:32:31; 22.16; 曾涨停; 17.7%; 3.49H;  09:32:31</t>
         </is>
       </c>
+      <c r="EY2" t="inlineStr">
+        <is>
+          <t>300345.SZ; 华民股份; 3;  09:25:00; 8.79; 曾涨停; 6.9%; 0.05H;  09:25:00|| 09:31:36|| 09:32:39</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10621,6 +10641,11 @@
           <t>430476.BJ; 海能技术; 1;  09:34:07; 36.22; 曾涨停; 0.2%; 0.01H;  09:34:07</t>
         </is>
       </c>
+      <c r="EY3" t="inlineStr">
+        <is>
+          <t>301026.SZ; 浩通科技; 1;  09:54:48; 31.35; 曾涨停; 11.0%; 0.02H;  09:54:48</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11084,6 +11109,11 @@
       <c r="EX4" t="inlineStr">
         <is>
           <t>836504.BJ; 博迅生物; 1;  09:50:31; 34.03; 曾涨停; 18.2%; 2.25H;  09:50:31</t>
+        </is>
+      </c>
+      <c r="EY4" t="inlineStr">
+        <is>
+          <t>688521.SH; 芯原股份; 2;  13:36:14; 147.04; 曾涨停; 15.5%; 0.92H;  13:36:14|| 13:59:50</t>
         </is>
       </c>
     </row>
@@ -11918,7 +11948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EX30"/>
+  <dimension ref="A1:EY30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12692,6 +12722,11 @@
           <t>2025年08月19日</t>
         </is>
       </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月20日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13457,6 +13492,11 @@
           <t>301321.SZ; 翰博高新; 0;  09:33:27; 首板涨停; 19.32;  09:33:27; 20.0%; 1; 华为概念+AIPC+背光模组</t>
         </is>
       </c>
+      <c r="EY2" t="inlineStr">
+        <is>
+          <t>301041.SZ; 金百泽; 0;  09:40:36; 首板涨停; 34.04;  09:40:36; 20.0%; 1; PCB+光模块+华为概念+机器人概念</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14202,6 +14242,11 @@
           <t>300404.SZ; 博济医药; 0;  09:45:03; 首板涨停; 13.15;  09:45:03; 20.0%; 1; 减肥药服务+创新药CRO+订单增长</t>
         </is>
       </c>
+      <c r="EY3" t="inlineStr">
+        <is>
+          <t>300893.SZ; 松原安全; 0;  09:45:57; 首板涨停; 31.98;  09:45:57; 20.0%; 1; 业绩增长+汽车安全+全产业链</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -14907,6 +14952,11 @@
           <t>300598.SZ; 诚迈科技; 0;  10:11:33; 首板涨停; 55.39;  10:11:33; 20.0%; 1; 鸿蒙概念+华为海思概念股+信创+AI智能体</t>
         </is>
       </c>
+      <c r="EY4" t="inlineStr">
+        <is>
+          <t>688657.SH; 浩辰软件; 0;  09:51:27; 首板涨停; 62.71;  09:51:27; 20.0%; 1; 利润增长+CAD软件+鸿蒙概念</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -15547,6 +15597,11 @@
           <t>300642.SZ; 透景生命; 0;  10:47:54; 首板涨停; 23.09;  10:47:54; 20.0%; 1; 收购康录生物+IVD诊断+基孔肯雅热检测产品</t>
         </is>
       </c>
+      <c r="EY5" t="inlineStr">
+        <is>
+          <t>300701.SZ; 森霸传感; 0;  10:26:45; 首板涨停; 13.54;  10:26:45; 20.0%; 1; 传感器+物联网+营收增长</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -16137,6 +16192,11 @@
           <t>300536.SZ; 农尚环境; 0;  13:05:30; 首板涨停; 11.63;  13:05:30; 20.0%; 1; 算力布局+园林+应收清收</t>
         </is>
       </c>
+      <c r="EY6" t="inlineStr">
+        <is>
+          <t>300686.SZ; 智动力; 0;  11:13:15; 首板涨停; 13.37;  11:13:15; 20.0%; 1; 消费电子+机器人概念+一季报减亏</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -16632,6 +16692,11 @@
           <t>688381.SH; 帝奥微; 3;  13:47:08; 首板涨停; 29.76;  13:04:44; 20.0%; 1; 人形机器人+模拟芯片+CPO</t>
         </is>
       </c>
+      <c r="EY7" t="inlineStr">
+        <is>
+          <t>301008.SZ; 宏昌科技; 0;  13:00:18; 首板涨停; 30.64;  13:00:18; 20.0%; 1; 人形机器人+流体电磁阀+家电零部件+汽车业务</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -17062,6 +17127,11 @@
           <t>301632.SZ; 广东建科; 2;  14:25:21; 首板涨停; 44.36;  09:56:54; 20.0%; 1; 建设工程检验检测+机器人概念+次新股+国企改革</t>
         </is>
       </c>
+      <c r="EY8" t="inlineStr">
+        <is>
+          <t>688702.SH; 盛科通信; 0;  13:57:07; 首板涨停; 111;  13:57:07; 20.0%; 1; 国产芯片+800G芯片</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -17390,6 +17460,11 @@
       <c r="EX9" t="inlineStr">
         <is>
           <t>300328.SZ; 宜安科技; 4;  15:00:00; 首板涨停; 16.98;  14:08:00; 20.0%; 1; 人形机器人+液态金属+国企改革</t>
+        </is>
+      </c>
+      <c r="EY9" t="inlineStr">
+        <is>
+          <t>830839.BJ; 万通液压; 6;  14:08:16; 首板涨停; 51.74;  13:43:16; 30.0%; 1; 液压油缸+机器人+军工</t>
         </is>
       </c>
     </row>
@@ -18704,7 +18779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EX178"/>
+  <dimension ref="A1:EY178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19478,6 +19553,11 @@
           <t>2025年08月19日</t>
         </is>
       </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月20日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -20218,6 +20298,11 @@
           <t>301632.SZ; 广东建科; 3.9%; 24.9%; 44.36; 20.0%; 价升量涨||阳线||大阳线</t>
         </is>
       </c>
+      <c r="EY2" t="inlineStr">
+        <is>
+          <t>301529.SZ; 福赛科技; 17.2%; 20.5%; 83.2; -0.2%; 阳线||缩量||价跌量缩</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -20918,6 +21003,11 @@
           <t>688521.SH; 芯原股份; 1.7%; 15.4%; 127.28; 13.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EY3" t="inlineStr">
+        <is>
+          <t>688521.SH; 芯原股份; 3.4%; 19.5%; 147.04; 15.5%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -21558,6 +21648,11 @@
           <t>300328.SZ; 宜安科技; 1.1%; 21.3%; 16.98; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EY4" t="inlineStr">
+        <is>
+          <t>688702.SH; 盛科通信; 2.7%; 23.3%; 111; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -22123,6 +22218,11 @@
           <t>688118.SH; 普元信息; 0.8%; 12.7%; 35.51; 11.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EY5" t="inlineStr">
+        <is>
+          <t>688584.SH; 上海合晶; 2.0%; 14.8%; 28.35; 12.5%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -22633,6 +22733,11 @@
           <t>300913.SZ; 兆龙互连; 0.8%; 12.4%; 59.8; 11.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EY6" t="inlineStr">
+        <is>
+          <t>839273.BJ; 一致魔芋; 1.5%; 17.7%; 46.9; 15.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -23103,6 +23208,11 @@
           <t>300897.SZ; 山科智能; 0.2%; 14.8%; 32.96; 14.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EY7" t="inlineStr">
+        <is>
+          <t>688370.SH; 丛麟科技; 1.4%; 12.4%; 30; 10.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -23503,6 +23613,11 @@
           <t>300536.SZ; 农尚环境; 0.1%; 20.1%; 11.63; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EY8" t="inlineStr">
+        <is>
+          <t>830839.BJ; 万通液压; 1.3%; 31.7%; 51.74; 30.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -23833,6 +23948,11 @@
           <t>300680.SZ; 隆盛科技; 0.0%; 13.1%; 45.89; 13.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EY9" t="inlineStr">
+        <is>
+          <t>831526.BJ; 凯华材料; 1.2%; 15.2%; 36.96; 13.9%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -24118,6 +24238,11 @@
           <t>830839.BJ; 万通液压; 0.2%; 12.1%; 34.19; 11.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EY10" t="inlineStr">
+        <is>
+          <t>688757.SH; 胜科纳米; 0.9%; 13.4%; 35.8; 12.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -24358,6 +24483,11 @@
           <t>688083.SH; 中望软件; 0.1%; 12.6%; 77; 12.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EY11" t="inlineStr">
+        <is>
+          <t>301002.SZ; 崧盛股份; 0.5%; 13.0%; 26.98; 12.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -24533,6 +24663,11 @@
           <t>300995.SZ; 奇德新材; 0.0%; 20.1%; 55.72; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EY12" t="inlineStr">
+        <is>
+          <t>301008.SZ; 宏昌科技; 0.5%; 20.6%; 30.64; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -24688,6 +24823,11 @@
           <t>688566.SH; 吉贝尔; 0.0%; 13.2%; 37.02; 13.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EY13" t="inlineStr">
+        <is>
+          <t>688798.SH; 艾为电子; 0.5%; 16.4%; 94.3; 15.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -24808,6 +24948,11 @@
           <t>688669.SH; 聚石化学; 0.9%; 19.8%; 27.68; 18.7%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EY14" t="inlineStr">
+        <is>
+          <t>688484.SH; 南芯科技; 0.3%; 13.0%; 51.76; 12.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -24901,6 +25046,11 @@
       <c r="EV15" t="inlineStr">
         <is>
           <t>300803.SZ; 指南针; 0.8%; 20.9%; 109.87; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="EY15" t="inlineStr">
+        <is>
+          <t>873726.BJ; 卓兆点胶; 0.0%; 19.7%; 51.83; 19.7%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
     </row>
@@ -27130,7 +27280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EX21"/>
+  <dimension ref="A1:EY21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27904,6 +28054,11 @@
           <t>2025年08月19日</t>
         </is>
       </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月20日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -28674,6 +28829,11 @@
           <t>300339.SZ; 润和软件; 64.77; 8.0%; 204096.5; 26</t>
         </is>
       </c>
+      <c r="EY2" t="inlineStr">
+        <is>
+          <t>688256.SH; 寒武纪; 1013; 8.5%; 366107.0; 10</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -29444,6 +29604,11 @@
           <t>300328.SZ; 宜安科技; 16.98; 20.0%; 196622.0; 30</t>
         </is>
       </c>
+      <c r="EY3" t="inlineStr">
+        <is>
+          <t>688521.SH; 芯原股份; 147.04; 15.5%; 154182.5; 48</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -30214,6 +30379,11 @@
           <t>300486.SZ; 东杰智能; 23.03; 2.6%; 168018.0; 38</t>
         </is>
       </c>
+      <c r="EY4" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 27.08; 0.7%; 142300.5; 59</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -30984,6 +31154,11 @@
           <t>300059.SZ; 东方财富; 26.9; -3.4%; 157685.5; 46</t>
         </is>
       </c>
+      <c r="EY5" t="inlineStr">
+        <is>
+          <t>300328.SZ; 宜安科技; 18.26; 7.5%; 110870.0; 82</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -31754,6 +31929,11 @@
           <t>300598.SZ; 诚迈科技; 55.39; 20.0%; 139734.0; 58</t>
         </is>
       </c>
+      <c r="EY6" t="inlineStr">
+        <is>
+          <t>300686.SZ; 智动力; 13.37; 20.0%; 106241.0; 86</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -32524,6 +32704,11 @@
           <t>300766.SZ; 每日互动; 42.84; -2.9%; 132912.0; 64</t>
         </is>
       </c>
+      <c r="EY7" t="inlineStr">
+        <is>
+          <t>300701.SZ; 森霸传感; 13.54; 20.0%; 96572.5; 97</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -33294,6 +33479,11 @@
           <t>301632.SZ; 广东建科; 44.36; 20.0%; 114859.5; 77</t>
         </is>
       </c>
+      <c r="EY8" t="inlineStr">
+        <is>
+          <t>300339.SZ; 润和软件; 63.31; -2.3%; 92081.0; 104</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -34064,6 +34254,11 @@
           <t>300436.SZ; 广生堂; 160.88; -6.6%; 112749.0; 81</t>
         </is>
       </c>
+      <c r="EY9" t="inlineStr">
+        <is>
+          <t>301041.SZ; 金百泽; 34.04; 20.0%; 81467.0; 128</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -34834,6 +35029,11 @@
           <t>300502.SZ; 新易盛; 256.79; 5.1%; 109015.5; 85</t>
         </is>
       </c>
+      <c r="EY10" t="inlineStr">
+        <is>
+          <t>920018.BJ; 宏远股份; 42; 358.0%; 81085.5; 130</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -35604,6 +35804,11 @@
           <t>688256.SH; 寒武纪; 933.98; -1.7%; 107711.5; 86</t>
         </is>
       </c>
+      <c r="EY11" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 255.14; -0.6%; 78898.0; 134</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -36374,6 +36579,11 @@
           <t>300308.SZ; 中际旭创; 275.5; 6.0%; 106565.0; 87</t>
         </is>
       </c>
+      <c r="EY12" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 146.9; -8.7%; 75373.0; 138</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -37144,6 +37354,11 @@
           <t>300810.SZ; 中科海讯; 65.47; 20.0%; 104098.5; 90</t>
         </is>
       </c>
+      <c r="EY13" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 224.5; -4.3%; 75236.5; 139</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -37914,6 +38129,11 @@
           <t>300456.SZ; 赛微电子; 26.09; 11.7%; 101130.5; 93</t>
         </is>
       </c>
+      <c r="EY14" t="inlineStr">
+        <is>
+          <t>301008.SZ; 宏昌科技; 30.64; 20.0%; 75231.0; 140</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -38684,6 +38904,11 @@
           <t>300147.SZ; ST香雪; 10.54; 20.0%; 100589.5; 94</t>
         </is>
       </c>
+      <c r="EY15" t="inlineStr">
+        <is>
+          <t>688981.SH; 中芯国际; 92.28; 3.3%; 74763.5; 141</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -39454,6 +39679,11 @@
           <t>688585.SH; 上纬新材; 85.65; -12.0%; 97164.5; 97</t>
         </is>
       </c>
+      <c r="EY16" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 55.16; -5.4%; 74363.0; 143</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -40224,6 +40454,11 @@
           <t>300204.SZ; 舒泰神; 58.3; 5.0%; 96299.0; 98</t>
         </is>
       </c>
+      <c r="EY17" t="inlineStr">
+        <is>
+          <t>688702.SH; 盛科通信; 111; 20.0%; 73812.5; 144</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -40994,6 +41229,11 @@
           <t>300803.SZ; 指南针; 126.55; 0.5%; 92765.5; 102</t>
         </is>
       </c>
+      <c r="EY18" t="inlineStr">
+        <is>
+          <t>300803.SZ; 指南针; 124.3; -1.8%; 73154.5; 147</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -41764,6 +42004,11 @@
           <t>300049.SZ; 福瑞股份; 72.23; 20.0%; 87722.5; 106</t>
         </is>
       </c>
+      <c r="EY19" t="inlineStr">
+        <is>
+          <t>300236.SZ; 上海新阳; 56.82; 10.4%; 71455.5; 151</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -42534,6 +42779,11 @@
           <t>300153.SZ; 科泰电源; 47.25; 10.3%; 84996.0; 110</t>
         </is>
       </c>
+      <c r="EY20" t="inlineStr">
+        <is>
+          <t>300153.SZ; 科泰电源; 49.9; 5.6%; 70768.0; 155</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -43302,6 +43552,11 @@
       <c r="EX21" t="inlineStr">
         <is>
           <t>300499.SZ; 高澜股份; 33; 6.7%; 84253.5; 113</t>
+        </is>
+      </c>
+      <c r="EY21" t="inlineStr">
+        <is>
+          <t>300458.SZ; 全志科技; 44.72; 3.7%; 70207.5; 158</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EY13"/>
+  <dimension ref="A1:EZ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1207,6 +1207,11 @@
       <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>2025年08月20日</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月21日</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EY532"/>
+  <dimension ref="A1:EZ532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3108,6 +3113,11 @@
       <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>2025年08月20日</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月21日</t>
         </is>
       </c>
     </row>
@@ -8512,7 +8522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EY12"/>
+  <dimension ref="A1:EZ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9291,6 +9301,11 @@
           <t>2025年08月20日</t>
         </is>
       </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10016,6 +10031,11 @@
           <t>300345.SZ; 华民股份; 3;  09:25:00; 8.79; 曾涨停; 6.9%; 0.05H;  09:25:00|| 09:31:36|| 09:32:39</t>
         </is>
       </c>
+      <c r="EZ2" t="inlineStr">
+        <is>
+          <t>300542.SZ; 新晨科技; 1;  09:30:12; 24.68; 曾涨停; 12.6%; 3.44H;  09:30:12</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10646,6 +10666,11 @@
           <t>301026.SZ; 浩通科技; 1;  09:54:48; 31.35; 曾涨停; 11.0%; 0.02H;  09:54:48</t>
         </is>
       </c>
+      <c r="EZ3" t="inlineStr">
+        <is>
+          <t>300730.SZ; 科创信息; 2;  10:15:36; 21.65; 曾涨停; 13.2%; 0.17H;  10:15:36|| 10:27:36</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11114,6 +11139,11 @@
       <c r="EY4" t="inlineStr">
         <is>
           <t>688521.SH; 芯原股份; 2;  13:36:14; 147.04; 曾涨停; 15.5%; 0.92H;  13:36:14|| 13:59:50</t>
+        </is>
+      </c>
+      <c r="EZ4" t="inlineStr">
+        <is>
+          <t>300345.SZ; 华民股份; 2;  10:53:54; 9.99; 曾涨停; 13.7%; 0.07H;  10:53:54|| 10:58:36</t>
         </is>
       </c>
     </row>
@@ -11948,7 +11978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EY30"/>
+  <dimension ref="A1:EZ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12727,6 +12757,11 @@
           <t>2025年08月20日</t>
         </is>
       </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13497,6 +13532,11 @@
           <t>301041.SZ; 金百泽; 0;  09:40:36; 首板涨停; 34.04;  09:40:36; 20.0%; 1; PCB+光模块+华为概念+机器人概念</t>
         </is>
       </c>
+      <c r="EZ2" t="inlineStr">
+        <is>
+          <t>688489.SH; 三未信安; 0;  09:37:00; 首板涨停; 51.7;  09:37:00; 20.0%; 1; 密码芯片+数字货币+抗量子+信创</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14247,6 +14287,11 @@
           <t>300893.SZ; 松原安全; 0;  09:45:57; 首板涨停; 31.98;  09:45:57; 20.0%; 1; 业绩增长+汽车安全+全产业链</t>
         </is>
       </c>
+      <c r="EZ3" t="inlineStr">
+        <is>
+          <t>688309.SH; 恒誉环保; 0;  09:46:46; 首板涨停; 27.8;  09:46:46; 20.0%; 1; 海外大单+固废处理+外销</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -14957,6 +15002,11 @@
           <t>688657.SH; 浩辰软件; 0;  09:51:27; 首板涨停; 62.71;  09:51:27; 20.0%; 1; 利润增长+CAD软件+鸿蒙概念</t>
         </is>
       </c>
+      <c r="EZ4" t="inlineStr">
+        <is>
+          <t>300478.SZ; 杭州高新; 0;  10:22:27; 首板涨停; 19.76;  10:22:27; 20.0%; 1; 控制权变更+高分子材料</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -15600,6 +15650,11 @@
       <c r="EY5" t="inlineStr">
         <is>
           <t>300701.SZ; 森霸传感; 0;  10:26:45; 首板涨停; 13.54;  10:26:45; 20.0%; 1; 传感器+物联网+营收增长</t>
+        </is>
+      </c>
+      <c r="EZ5" t="inlineStr">
+        <is>
+          <t>300352.SZ; 北信源; 3;  14:40:18; 首板涨停; 7.57;  13:21:00; 20.0%; 1; 市值管理产品+数字货币+军工安全</t>
         </is>
       </c>
     </row>
@@ -18779,7 +18834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EY178"/>
+  <dimension ref="A1:EZ178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19558,6 +19613,11 @@
           <t>2025年08月20日</t>
         </is>
       </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -20303,6 +20363,11 @@
           <t>301529.SZ; 福赛科技; 17.2%; 20.5%; 83.2; -0.2%; 阳线||缩量||价跌量缩</t>
         </is>
       </c>
+      <c r="EZ2" t="inlineStr">
+        <is>
+          <t>300345.SZ; 华民股份; 4.9%; 19.5%; 9.99; 13.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -21008,6 +21073,11 @@
           <t>688521.SH; 芯原股份; 3.4%; 19.5%; 147.04; 15.5%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="EZ3" t="inlineStr">
+        <is>
+          <t>301002.SZ; 崧盛股份; 2.1%; 14.1%; 30.12; 11.6%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -21653,6 +21723,11 @@
           <t>688702.SH; 盛科通信; 2.7%; 23.3%; 111; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="EZ4" t="inlineStr">
+        <is>
+          <t>300766.SZ; 每日互动; 0.4%; 14.1%; 47.98; 13.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -22221,6 +22296,11 @@
       <c r="EY5" t="inlineStr">
         <is>
           <t>688584.SH; 上海合晶; 2.0%; 14.8%; 28.35; 12.5%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="EZ5" t="inlineStr">
+        <is>
+          <t>300469.SZ; 信息发展; 0.1%; 12.3%; 49.87; 12.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -27280,7 +27360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EY21"/>
+  <dimension ref="A1:EZ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28059,6 +28139,11 @@
           <t>2025年08月20日</t>
         </is>
       </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月21日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -28834,6 +28919,11 @@
           <t>688256.SH; 寒武纪; 1013; 8.5%; 366107.0; 10</t>
         </is>
       </c>
+      <c r="EZ2" t="inlineStr">
+        <is>
+          <t>300766.SZ; 每日互动; 47.98; 13.6%; 427493.5; 4</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -29609,6 +29699,11 @@
           <t>688521.SH; 芯原股份; 147.04; 15.5%; 154182.5; 48</t>
         </is>
       </c>
+      <c r="EZ3" t="inlineStr">
+        <is>
+          <t>300352.SZ; 北信源; 7.57; 20.0%; 340048.5; 11</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -30384,6 +30479,11 @@
           <t>300059.SZ; 东方财富; 27.08; 0.7%; 142300.5; 59</t>
         </is>
       </c>
+      <c r="EZ4" t="inlineStr">
+        <is>
+          <t>688256.SH; 寒武纪; 1036; 2.3%; 189226.0; 42</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -31159,6 +31259,11 @@
           <t>300328.SZ; 宜安科技; 18.26; 7.5%; 110870.0; 82</t>
         </is>
       </c>
+      <c r="EZ5" t="inlineStr">
+        <is>
+          <t>300339.SZ; 润和软件; 62.89; -0.7%; 181796.5; 45</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -31934,6 +32039,11 @@
           <t>300686.SZ; 智动力; 13.37; 20.0%; 106241.0; 86</t>
         </is>
       </c>
+      <c r="EZ6" t="inlineStr">
+        <is>
+          <t>300468.SZ; 四方精创; 47.7; 4.6%; 151106.5; 57</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -32709,6 +32819,11 @@
           <t>300701.SZ; 森霸传感; 13.54; 20.0%; 96572.5; 97</t>
         </is>
       </c>
+      <c r="EZ7" t="inlineStr">
+        <is>
+          <t>688489.SH; 三未信安; 51.7; 20.0%; 131627.5; 72</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -33484,6 +33599,11 @@
           <t>300339.SZ; 润和软件; 63.31; -2.3%; 92081.0; 104</t>
         </is>
       </c>
+      <c r="EZ8" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 135.9; -7.5%; 128657.5; 75</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -34259,6 +34379,11 @@
           <t>301041.SZ; 金百泽; 34.04; 20.0%; 81467.0; 128</t>
         </is>
       </c>
+      <c r="EZ9" t="inlineStr">
+        <is>
+          <t>300730.SZ; 科创信息; 21.65; 13.2%; 128503.0; 76</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -35034,6 +35159,11 @@
           <t>920018.BJ; 宏远股份; 42; 358.0%; 81085.5; 130</t>
         </is>
       </c>
+      <c r="EZ10" t="inlineStr">
+        <is>
+          <t>300478.SZ; 杭州高新; 19.76; 20.0%; 119462.5; 86</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -35809,6 +35939,11 @@
           <t>300502.SZ; 新易盛; 255.14; -0.6%; 78898.0; 134</t>
         </is>
       </c>
+      <c r="EZ11" t="inlineStr">
+        <is>
+          <t>300803.SZ; 指南针; 128.26; 3.2%; 118816.5; 87</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -36584,6 +36719,11 @@
           <t>300436.SZ; 广生堂; 146.9; -8.7%; 75373.0; 138</t>
         </is>
       </c>
+      <c r="EZ12" t="inlineStr">
+        <is>
+          <t>300542.SZ; 新晨科技; 24.68; 12.6%; 116881.0; 90</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -37359,6 +37499,11 @@
           <t>300476.SZ; 胜宏科技; 224.5; -4.3%; 75236.5; 139</t>
         </is>
       </c>
+      <c r="EZ13" t="inlineStr">
+        <is>
+          <t>300199.SZ; 翰宇药业; 29.95; 2.6%; 116443.5; 92</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -38134,6 +38279,11 @@
           <t>301008.SZ; 宏昌科技; 30.64; 20.0%; 75231.0; 140</t>
         </is>
       </c>
+      <c r="EZ14" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 26.8; -1.0%; 112234.0; 98</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -38909,6 +39059,11 @@
           <t>688981.SH; 中芯国际; 92.28; 3.3%; 74763.5; 141</t>
         </is>
       </c>
+      <c r="EZ15" t="inlineStr">
+        <is>
+          <t>300657.SZ; 弘信电子; 34.94; 1.7%; 108442.5; 102</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -39684,6 +39839,11 @@
           <t>300204.SZ; 舒泰神; 55.16; -5.4%; 74363.0; 143</t>
         </is>
       </c>
+      <c r="EZ16" t="inlineStr">
+        <is>
+          <t>300433.SZ; 蓝思科技; 28.34; 4.9%; 106195.5; 104</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -40459,6 +40619,11 @@
           <t>688702.SH; 盛科通信; 111; 20.0%; 73812.5; 144</t>
         </is>
       </c>
+      <c r="EZ17" t="inlineStr">
+        <is>
+          <t>300871.SZ; 回盛生物; 23.55; -0.8%; 105316.5; 105</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -41234,6 +41399,11 @@
           <t>300803.SZ; 指南针; 124.3; -1.8%; 73154.5; 147</t>
         </is>
       </c>
+      <c r="EZ18" t="inlineStr">
+        <is>
+          <t>300782.SZ; 卓胜微; 80.02; -1.4%; 96330.0; 110</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -42009,6 +42179,11 @@
           <t>300236.SZ; 上海新阳; 56.82; 10.4%; 71455.5; 151</t>
         </is>
       </c>
+      <c r="EZ19" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 257.86; 1.1%; 95278.0; 112</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -42784,6 +42959,11 @@
           <t>300153.SZ; 科泰电源; 49.9; 5.6%; 70768.0; 155</t>
         </is>
       </c>
+      <c r="EZ20" t="inlineStr">
+        <is>
+          <t>300345.SZ; 华民股份; 9.99; 13.7%; 91391.0; 116</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -43557,6 +43737,11 @@
       <c r="EY21" t="inlineStr">
         <is>
           <t>300458.SZ; 全志科技; 44.72; 3.7%; 70207.5; 158</t>
+        </is>
+      </c>
+      <c r="EZ21" t="inlineStr">
+        <is>
+          <t>300290.SZ; 荣科科技; 24.76; 4.0%; 86746.5; 122</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EZ13"/>
+  <dimension ref="A1:FA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1212,6 +1212,11 @@
       <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>2025年08月21日</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月22日</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EZ532"/>
+  <dimension ref="A1:FA532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3118,6 +3123,11 @@
       <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>2025年08月21日</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月22日</t>
         </is>
       </c>
     </row>
@@ -8522,7 +8532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EZ12"/>
+  <dimension ref="A1:FA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9306,6 +9316,11 @@
           <t>2025年08月21日</t>
         </is>
       </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月22日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10034,6 +10049,11 @@
       <c r="EZ2" t="inlineStr">
         <is>
           <t>300542.SZ; 新晨科技; 1;  09:30:12; 24.68; 曾涨停; 12.6%; 3.44H;  09:30:12</t>
+        </is>
+      </c>
+      <c r="FA2" t="inlineStr">
+        <is>
+          <t>300537.SZ; 广信材料; 1;  09:58:42; 28.7; 曾涨停; 10.2%; 0.01H;  09:58:42</t>
         </is>
       </c>
     </row>
@@ -11978,7 +11998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EZ30"/>
+  <dimension ref="A1:FA30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12762,6 +12782,11 @@
           <t>2025年08月21日</t>
         </is>
       </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月22日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13537,6 +13562,11 @@
           <t>688489.SH; 三未信安; 0;  09:37:00; 首板涨停; 51.7;  09:37:00; 20.0%; 1; 密码芯片+数字货币+抗量子+信创</t>
         </is>
       </c>
+      <c r="FA2" t="inlineStr">
+        <is>
+          <t>300192.SZ; 科德教育; 0;  09:25:00; 首板涨停; 21.59;  09:25:00; 20.0%; 1; 参股中昊芯英+AI教育</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14292,6 +14322,11 @@
           <t>688309.SH; 恒誉环保; 0;  09:46:46; 首板涨停; 27.8;  09:46:46; 20.0%; 1; 海外大单+固废处理+外销</t>
         </is>
       </c>
+      <c r="FA3" t="inlineStr">
+        <is>
+          <t>688343.SH; 云天励飞; 0;  09:38:01; 首板涨停; 79.09;  09:38:01; 20.0%; 1; AI芯片+人形机器人+营收增长</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -15007,6 +15042,11 @@
           <t>300478.SZ; 杭州高新; 0;  10:22:27; 首板涨停; 19.76;  10:22:27; 20.0%; 1; 控制权变更+高分子材料</t>
         </is>
       </c>
+      <c r="FA4" t="inlineStr">
+        <is>
+          <t>300066.SZ; 三川智慧; 0;  09:42:21; 首板涨停; 8.44;  09:42:21; 20.1%; 1; 稀土回收+智能水表+华为合作</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -15657,6 +15697,11 @@
           <t>300352.SZ; 北信源; 3;  14:40:18; 首板涨停; 7.57;  13:21:00; 20.0%; 1; 市值管理产品+数字货币+军工安全</t>
         </is>
       </c>
+      <c r="FA5" t="inlineStr">
+        <is>
+          <t>688227.SH; 品高股份; 0;  10:12:20; 首板涨停; 39.43;  10:12:20; 20.0%; 1; 算力租赁+AI算力出海+DeepSeek概念+云计算</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -16252,6 +16297,11 @@
           <t>300686.SZ; 智动力; 0;  11:13:15; 首板涨停; 13.37;  11:13:15; 20.0%; 1; 消费电子+机器人概念+一季报减亏</t>
         </is>
       </c>
+      <c r="FA6" t="inlineStr">
+        <is>
+          <t>300113.SZ; 顺网科技; 2;  10:36:57; 首板涨停; 27.24;  10:20:48; 20.0%; 1; 半年报增长+算力服务+边缘算力</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -16752,6 +16802,11 @@
           <t>301008.SZ; 宏昌科技; 0;  13:00:18; 首板涨停; 30.64;  13:00:18; 20.0%; 1; 人形机器人+流体电磁阀+家电零部件+汽车业务</t>
         </is>
       </c>
+      <c r="FA7" t="inlineStr">
+        <is>
+          <t>301377.SZ; 鼎泰高科; 0;  11:22:24; 首板涨停; 68.06;  11:22:24; 20.0%; 1; 半年报增长+PCB钻针+AI需求+产能扩张</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -17187,6 +17242,11 @@
           <t>688702.SH; 盛科通信; 0;  13:57:07; 首板涨停; 111;  13:57:07; 20.0%; 1; 国产芯片+800G芯片</t>
         </is>
       </c>
+      <c r="FA8" t="inlineStr">
+        <is>
+          <t>688082.SH; 盛美上海; 2;  13:06:43; 首板涨停; 142.21;  10:55:46; 20.0%; 1; 半导体设备+AI需求+业绩增长</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -17522,6 +17582,11 @@
           <t>830839.BJ; 万通液压; 6;  14:08:16; 首板涨停; 51.74;  13:43:16; 30.0%; 1; 液压油缸+机器人+军工</t>
         </is>
       </c>
+      <c r="FA9" t="inlineStr">
+        <is>
+          <t>688041.SH; 海光信息; 1;  13:26:34; 首板涨停; 186.06;  13:05:05; 20.0%; 1; 中报增长+吸收合并+AI算力</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -17777,6 +17842,11 @@
           <t>300995.SZ; 奇德新材; 0;  10:34:00; 首板涨停; 55.72;  10:34:00; 20.0%; 1; 人形机器人+碳纤维+高分子材料</t>
         </is>
       </c>
+      <c r="FA10" t="inlineStr">
+        <is>
+          <t>300418.SZ; 昆仑万维; 0;  13:28:03; 首板涨停; 44.38;  13:28:03; 20.0%; 1; AI应用+短剧+芯片突破</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -17982,6 +18052,11 @@
           <t>301128.SZ; 强瑞技术; 0;  10:41:06; 首板涨停; 89.29;  10:41:06; 20.0%; 1; 液冷服务器+人形机器人+半导体</t>
         </is>
       </c>
+      <c r="FA11" t="inlineStr">
+        <is>
+          <t>301259.SZ; 艾布鲁; 0;  14:19:09; 首板涨停; 51.62;  14:19:09; 20.0%; 1; 参股中昊芯英+环保</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -18132,6 +18207,11 @@
           <t>301226.SZ; 祥明智能; 0;  10:41:27; 首板涨停; 40.24;  10:41:27; 20.0%; 1; 人形机器人+关节模组+微特电机</t>
         </is>
       </c>
+      <c r="FA12" t="inlineStr">
+        <is>
+          <t>688256.SH; 寒武纪; 0;  14:35:52; 首板涨停; 1243.2;  14:35:52; 20.0%; 1; AI芯片+定增获批+一季报增长</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -18242,6 +18322,11 @@
           <t>300153.SZ; 科泰电源; 0;  10:55:39; 首板涨停; 42.83;  10:55:39; 20.0%; 1; 数据中心+发电机组</t>
         </is>
       </c>
+      <c r="FA13" t="inlineStr">
+        <is>
+          <t>688709.SH; 成都华微; 0;  14:52:59; 首板涨停; 47.04;  14:52:59; 20.0%; 1; AI芯片+脑机接口+机器人概念+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -18335,6 +18420,11 @@
       <c r="EW14" t="inlineStr">
         <is>
           <t>688189.SH; 南新制药; 0;  11:08:03; 首板涨停; 16.18;  11:08:03; 20.0%; 1; 资产收购筹划+创新药+国企改革</t>
+        </is>
+      </c>
+      <c r="FA14" t="inlineStr">
+        <is>
+          <t>300767.SZ; 震安科技; 5;  14:54:57; 首板涨停; 25.34;  13:50:18; 20.0%; 1; 深圳东创入主+地震安全</t>
         </is>
       </c>
     </row>
@@ -18834,7 +18924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EZ178"/>
+  <dimension ref="A1:FA178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19618,6 +19708,11 @@
           <t>2025年08月21日</t>
         </is>
       </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月22日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -20368,6 +20463,11 @@
           <t>300345.SZ; 华民股份; 4.9%; 19.5%; 9.99; 13.7%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FA2" t="inlineStr">
+        <is>
+          <t>300730.SZ; 科创信息; 6.8%; 17.6%; 23.72; 9.6%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -21078,6 +21178,11 @@
           <t>301002.SZ; 崧盛股份; 2.1%; 14.1%; 30.12; 11.6%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="FA3" t="inlineStr">
+        <is>
+          <t>688652.SH; 京仪装备; 2.6%; 17.5%; 79.99; 14.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -21728,6 +21833,11 @@
           <t>300766.SZ; 每日互动; 0.4%; 14.1%; 47.98; 13.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FA4" t="inlineStr">
+        <is>
+          <t>300843.SZ; 胜蓝股份; 1.7%; 18.0%; 56.62; 16.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -22303,6 +22413,11 @@
           <t>300469.SZ; 信息发展; 0.1%; 12.3%; 49.87; 12.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FA5" t="inlineStr">
+        <is>
+          <t>688183.SH; 生益电子; 1.5%; 12.2%; 65.1; 10.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -22818,6 +22933,11 @@
           <t>839273.BJ; 一致魔芋; 1.5%; 17.7%; 46.9; 15.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FA6" t="inlineStr">
+        <is>
+          <t>688709.SH; 成都华微; 1.0%; 21.2%; 47.04; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -23291,6 +23411,11 @@
       <c r="EY7" t="inlineStr">
         <is>
           <t>688370.SH; 丛麟科技; 1.4%; 12.4%; 30; 10.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="FA7" t="inlineStr">
+        <is>
+          <t>300066.SZ; 三川智慧; 0.1%; 20.2%; 8.44; 20.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -27360,7 +27485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EZ21"/>
+  <dimension ref="A1:FA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28144,6 +28269,11 @@
           <t>2025年08月21日</t>
         </is>
       </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月22日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -28924,6 +29054,11 @@
           <t>300766.SZ; 每日互动; 47.98; 13.6%; 427493.5; 4</t>
         </is>
       </c>
+      <c r="FA2" t="inlineStr">
+        <is>
+          <t>688256.SH; 寒武纪; 1243.2; 20.0%; 1084501.5; 1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -29704,6 +29839,11 @@
           <t>300352.SZ; 北信源; 7.57; 20.0%; 340048.5; 11</t>
         </is>
       </c>
+      <c r="FA3" t="inlineStr">
+        <is>
+          <t>688041.SH; 海光信息; 186.06; 20.0%; 255776.0; 12</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -30484,6 +30624,11 @@
           <t>688256.SH; 寒武纪; 1036; 2.3%; 189226.0; 42</t>
         </is>
       </c>
+      <c r="FA4" t="inlineStr">
+        <is>
+          <t>688981.SH; 中芯国际; 103.97; 14.2%; 242314.5; 14</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -31264,6 +31409,11 @@
           <t>300339.SZ; 润和软件; 62.89; -0.7%; 181796.5; 45</t>
         </is>
       </c>
+      <c r="FA5" t="inlineStr">
+        <is>
+          <t>300418.SZ; 昆仑万维; 44.38; 20.0%; 235546.5; 16</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -32044,6 +32194,11 @@
           <t>300468.SZ; 四方精创; 47.7; 4.6%; 151106.5; 57</t>
         </is>
       </c>
+      <c r="FA6" t="inlineStr">
+        <is>
+          <t>300803.SZ; 指南针; 141.33; 10.2%; 171504.5; 28</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -32824,6 +32979,11 @@
           <t>688489.SH; 三未信安; 51.7; 20.0%; 131627.5; 72</t>
         </is>
       </c>
+      <c r="FA7" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 27.85; 3.9%; 157688.5; 33</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -33604,6 +33764,11 @@
           <t>300436.SZ; 广生堂; 135.9; -7.5%; 128657.5; 75</t>
         </is>
       </c>
+      <c r="FA8" t="inlineStr">
+        <is>
+          <t>300066.SZ; 三川智慧; 8.44; 20.1%; 139818.0; 40</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -34384,6 +34549,11 @@
           <t>300730.SZ; 科创信息; 21.65; 13.2%; 128503.0; 76</t>
         </is>
       </c>
+      <c r="FA9" t="inlineStr">
+        <is>
+          <t>302132.SZ; 中航成飞; 99.36; 10.3%; 130268.0; 48</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -35164,6 +35334,11 @@
           <t>300478.SZ; 杭州高新; 19.76; 20.0%; 119462.5; 86</t>
         </is>
       </c>
+      <c r="FA10" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 273.81; 6.2%; 123138.5; 49</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -35944,6 +36119,11 @@
           <t>300803.SZ; 指南针; 128.26; 3.2%; 118816.5; 87</t>
         </is>
       </c>
+      <c r="FA11" t="inlineStr">
+        <is>
+          <t>300033.SZ; 同花顺; 400.82; 5.3%; 114571.5; 51</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -36724,6 +36904,11 @@
           <t>300542.SZ; 新晨科技; 24.68; 12.6%; 116881.0; 90</t>
         </is>
       </c>
+      <c r="FA12" t="inlineStr">
+        <is>
+          <t>300766.SZ; 每日互动; 49.1; 2.3%; 101210.0; 61</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -37504,6 +37689,11 @@
           <t>300199.SZ; 翰宇药业; 29.95; 2.6%; 116443.5; 92</t>
         </is>
       </c>
+      <c r="FA13" t="inlineStr">
+        <is>
+          <t>300113.SZ; 顺网科技; 27.24; 20.0%; 99158.0; 63</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -38284,6 +38474,11 @@
           <t>300059.SZ; 东方财富; 26.8; -1.0%; 112234.0; 98</t>
         </is>
       </c>
+      <c r="FA14" t="inlineStr">
+        <is>
+          <t>300192.SZ; 科德教育; 21.59; 20.0%; 98876.0; 66</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -39064,6 +39259,11 @@
           <t>300657.SZ; 弘信电子; 34.94; 1.7%; 108442.5; 102</t>
         </is>
       </c>
+      <c r="FA15" t="inlineStr">
+        <is>
+          <t>300459.SZ; 汤姆猫; 6; 3.4%; 92134.5; 80</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -39844,6 +40044,11 @@
           <t>300433.SZ; 蓝思科技; 28.34; 4.9%; 106195.5; 104</t>
         </is>
       </c>
+      <c r="FA16" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 278.9; 5.2%; 89828.0; 82</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -40624,6 +40829,11 @@
           <t>300871.SZ; 回盛生物; 23.55; -0.8%; 105316.5; 105</t>
         </is>
       </c>
+      <c r="FA17" t="inlineStr">
+        <is>
+          <t>688110.SH; 东芯股份; 91.85; 6.7%; 89626.5; 83</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -41404,6 +41614,11 @@
           <t>300782.SZ; 卓胜微; 80.02; -1.4%; 96330.0; 110</t>
         </is>
       </c>
+      <c r="FA18" t="inlineStr">
+        <is>
+          <t>300339.SZ; 润和软件; 64.84; 3.1%; 83621.5; 94</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -42184,6 +42399,11 @@
           <t>300502.SZ; 新易盛; 257.86; 1.1%; 95278.0; 112</t>
         </is>
       </c>
+      <c r="FA19" t="inlineStr">
+        <is>
+          <t>300474.SZ; 景嘉微; 88.4; 10.0%; 78047.0; 99</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -42964,6 +43184,11 @@
           <t>300345.SZ; 华民股份; 9.99; 13.7%; 91391.0; 116</t>
         </is>
       </c>
+      <c r="FA20" t="inlineStr">
+        <is>
+          <t>688709.SH; 成都华微; 47.04; 20.0%; 76944.0; 100</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -43742,6 +43967,11 @@
       <c r="EZ21" t="inlineStr">
         <is>
           <t>300290.SZ; 荣科科技; 24.76; 4.0%; 86746.5; 122</t>
+        </is>
+      </c>
+      <c r="FA21" t="inlineStr">
+        <is>
+          <t>300184.SZ; 力源信息; 12.8; 6.8%; 73169.5; 109</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FA13"/>
+  <dimension ref="A1:FB13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1219,6 +1219,11 @@
           <t>2025年08月22日</t>
         </is>
       </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月25日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1712,6 +1717,11 @@
       <c r="EX2" t="inlineStr">
         <is>
           <t>688098.SH; 申联生物; 1;  09:33:18; 3天3板; 15.4;  09:25:03; 20.0%; 3; 创新药+动物疫苗+多联多价疫苗+回购</t>
+        </is>
+      </c>
+      <c r="FB2" t="inlineStr">
+        <is>
+          <t>300192.SZ; 科德教育; 0;  09:25:00; 2天2板; 25.91;  09:25:00; 20.0%; 2; 参股中昊芯英+AI教育</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FA532"/>
+  <dimension ref="A1:FB532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3128,6 +3138,11 @@
       <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>2025年08月22日</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月25日</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FA12"/>
+  <dimension ref="A1:FB12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9321,6 +9336,11 @@
           <t>2025年08月22日</t>
         </is>
       </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月25日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10056,6 +10076,11 @@
           <t>300537.SZ; 广信材料; 1;  09:58:42; 28.7; 曾涨停; 10.2%; 0.01H;  09:58:42</t>
         </is>
       </c>
+      <c r="FB2" t="inlineStr">
+        <is>
+          <t>688205.SH; 德科立; 2;  09:30:54; 99.57; 曾涨停; 10.1%; 0.49H;  09:30:54|| 10:09:41</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10691,6 +10716,11 @@
           <t>300730.SZ; 科创信息; 2;  10:15:36; 21.65; 曾涨停; 13.2%; 0.17H;  10:15:36|| 10:27:36</t>
         </is>
       </c>
+      <c r="FB3" t="inlineStr">
+        <is>
+          <t>301259.SZ; 艾布鲁; 2;  09:34:18; 57.2; 曾涨停; 10.8%; 0.02H;  09:34:18|| 09:34:57</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11166,6 +11196,11 @@
           <t>300345.SZ; 华民股份; 2;  10:53:54; 9.99; 曾涨停; 13.7%; 0.07H;  10:53:54|| 10:58:36</t>
         </is>
       </c>
+      <c r="FB4" t="inlineStr">
+        <is>
+          <t>688343.SH; 云天励飞; 1;  09:36:01; 87.5; 曾涨停; 10.6%; 0.18H;  09:36:01</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11471,6 +11506,11 @@
           <t>300004.SZ; 南风股份; 3;  10:26:03; 11.44; 曾涨停; 13.7%; 0.74H;  10:26:03|| 13:00:00|| 13:15:36</t>
         </is>
       </c>
+      <c r="FB5" t="inlineStr">
+        <is>
+          <t>300991.SZ; 创益通; 3;  09:41:15; 43.68; 曾涨停; 14.9%; 0.43H;  09:41:15|| 09:44:09|| 10:04:00</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -11684,6 +11724,11 @@
       <c r="EX6" t="inlineStr">
         <is>
           <t>688521.SH; 芯原股份; 2;  10:39:16; 127.28; 曾涨停; 13.4%; 0.25H;  10:39:16|| 10:41:31</t>
+        </is>
+      </c>
+      <c r="FB6" t="inlineStr">
+        <is>
+          <t>301191.SZ; 菲菱科思; 1;  10:34:00; 116.74; 曾涨停; 12.8%; 1.64H;  10:34:00</t>
         </is>
       </c>
     </row>
@@ -11998,7 +12043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FA30"/>
+  <dimension ref="A1:FB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12787,6 +12832,11 @@
           <t>2025年08月22日</t>
         </is>
       </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月25日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13567,6 +13617,11 @@
           <t>300192.SZ; 科德教育; 0;  09:25:00; 首板涨停; 21.59;  09:25:00; 20.0%; 1; 参股中昊芯英+AI教育</t>
         </is>
       </c>
+      <c r="FB2" t="inlineStr">
+        <is>
+          <t>688228.SH; 开普云; 0;  09:25:03; 首板涨停; 78.96;  09:25:03; 20.0%; 1; 拟收购存储资产+AI算力</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14327,6 +14382,11 @@
           <t>688343.SH; 云天励飞; 0;  09:38:01; 首板涨停; 79.09;  09:38:01; 20.0%; 1; AI芯片+人形机器人+营收增长</t>
         </is>
       </c>
+      <c r="FB3" t="inlineStr">
+        <is>
+          <t>300364.SZ; 中文在线; 4;  10:14:15; 首板涨停; 33.95;  09:49:45; 20.0%; 1; 公布半年报+AI多模态+IP优势</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -15047,6 +15107,11 @@
           <t>300066.SZ; 三川智慧; 0;  09:42:21; 首板涨停; 8.44;  09:42:21; 20.1%; 1; 稀土回收+智能水表+华为合作</t>
         </is>
       </c>
+      <c r="FB4" t="inlineStr">
+        <is>
+          <t>688066.SH; 航天宏图; 8;  13:23:54; 首板涨停; 31.98;  10:27:45; 20.0%; 1; 军工+卫星遥感+低空遥感</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -15702,6 +15767,11 @@
           <t>688227.SH; 品高股份; 0;  10:12:20; 首板涨停; 39.43;  10:12:20; 20.0%; 1; 算力租赁+AI算力出海+DeepSeek概念+云计算</t>
         </is>
       </c>
+      <c r="FB5" t="inlineStr">
+        <is>
+          <t>300757.SZ; 罗博特科; 1;  13:42:15; 首板涨停; 270.36;  10:37:45; 20.0%; 1; CPO+ficonTEC订单增长</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -16302,6 +16372,11 @@
           <t>300113.SZ; 顺网科技; 2;  10:36:57; 首板涨停; 27.24;  10:20:48; 20.0%; 1; 半年报增长+算力服务+边缘算力</t>
         </is>
       </c>
+      <c r="FB6" t="inlineStr">
+        <is>
+          <t>300748.SZ; 金力永磁; 6;  13:49:15; 首板涨停; 36.36;  10:11:03; 20.0%; 1; 稀土永磁+半报增长+人形机器人</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -16807,6 +16882,11 @@
           <t>301377.SZ; 鼎泰高科; 0;  11:22:24; 首板涨停; 68.06;  11:22:24; 20.0%; 1; 半年报增长+PCB钻针+AI需求+产能扩张</t>
         </is>
       </c>
+      <c r="FB7" t="inlineStr">
+        <is>
+          <t>300683.SZ; 海特生物; 17;  14:14:39; 首板涨停; 59.41;  13:06:39; 20.0%; 1; 创新药+CAR-T研究+医保销售</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -17247,6 +17327,11 @@
           <t>688082.SH; 盛美上海; 2;  13:06:43; 首板涨停; 142.21;  10:55:46; 20.0%; 1; 半导体设备+AI需求+业绩增长</t>
         </is>
       </c>
+      <c r="FB8" t="inlineStr">
+        <is>
+          <t>301396.SZ; 宏景科技; 0;  14:18:57; 首板涨停; 73.93;  14:18:57; 20.0%; 1; 算力服务+东数西算+半年度增长</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -17587,6 +17672,11 @@
           <t>688041.SH; 海光信息; 1;  13:26:34; 首板涨停; 186.06;  13:05:05; 20.0%; 1; 中报增长+吸收合并+AI算力</t>
         </is>
       </c>
+      <c r="FB9" t="inlineStr">
+        <is>
+          <t>301128.SZ; 强瑞技术; 0;  14:23:54; 首板涨停; 117.98;  14:23:54; 20.0%; 1; 液冷服务器+半导体设备+机器人</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -17847,6 +17937,11 @@
           <t>300418.SZ; 昆仑万维; 0;  13:28:03; 首板涨停; 44.38;  13:28:03; 20.0%; 1; AI应用+短剧+芯片突破</t>
         </is>
       </c>
+      <c r="FB10" t="inlineStr">
+        <is>
+          <t>300503.SZ; 昊志机电; 11;  14:48:21; 首板涨停; 33.54;  09:40:27; 20.0%; 1; 人形机器人+谐波减速器+电主轴</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -18055,6 +18150,11 @@
       <c r="FA11" t="inlineStr">
         <is>
           <t>301259.SZ; 艾布鲁; 0;  14:19:09; 首板涨停; 51.62;  14:19:09; 20.0%; 1; 参股中昊芯英+环保</t>
+        </is>
+      </c>
+      <c r="FB11" t="inlineStr">
+        <is>
+          <t>836263.BJ; 中航泰达; 2;  14:54:49; 首板涨停; 20.37;  10:26:16; 30.0%; 1; 机器人研发+稀土永磁+节能减排</t>
         </is>
       </c>
     </row>
@@ -18924,7 +19024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FA178"/>
+  <dimension ref="A1:FB178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19713,6 +19813,11 @@
           <t>2025年08月22日</t>
         </is>
       </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月25日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -20468,6 +20573,11 @@
           <t>300730.SZ; 科创信息; 6.8%; 17.6%; 23.72; 9.6%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="FB2" t="inlineStr">
+        <is>
+          <t>688552.SH; 航天南湖; 5.6%; 13.6%; 46.59; 7.2%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -21183,6 +21293,11 @@
           <t>688652.SH; 京仪装备; 2.6%; 17.5%; 79.99; 14.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FB3" t="inlineStr">
+        <is>
+          <t>300436.SZ; 广生堂; 2.9%; 12.9%; 151.95; 9.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -21836,6 +21951,11 @@
       <c r="FA4" t="inlineStr">
         <is>
           <t>300843.SZ; 胜蓝股份; 1.7%; 18.0%; 56.62; 16.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
+      <c r="FB4" t="inlineStr">
+        <is>
+          <t>300642.SZ; 透景生命; 1.4%; 12.3%; 28.75; 10.7%; 阳线||放量||价升量缩</t>
         </is>
       </c>
     </row>
@@ -27485,7 +27605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FA21"/>
+  <dimension ref="A1:FB21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28274,6 +28394,11 @@
           <t>2025年08月22日</t>
         </is>
       </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月25日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -29059,6 +29184,11 @@
           <t>688256.SH; 寒武纪; 1243.2; 20.0%; 1084501.5; 1</t>
         </is>
       </c>
+      <c r="FB2" t="inlineStr">
+        <is>
+          <t>688256.SH; 寒武纪; 1384.93; 11.4%; 703500.0; 3</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -29844,6 +29974,11 @@
           <t>688041.SH; 海光信息; 186.06; 20.0%; 255776.0; 12</t>
         </is>
       </c>
+      <c r="FB3" t="inlineStr">
+        <is>
+          <t>300274.SZ; 阳光电源; 102.6; 4.8%; 545390.0; 6</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -30629,6 +30764,11 @@
           <t>688981.SH; 中芯国际; 103.97; 14.2%; 242314.5; 14</t>
         </is>
       </c>
+      <c r="FB4" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 320; 14.7%; 275038.0; 15</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -31414,6 +31554,11 @@
           <t>300418.SZ; 昆仑万维; 44.38; 20.0%; 235546.5; 16</t>
         </is>
       </c>
+      <c r="FB5" t="inlineStr">
+        <is>
+          <t>300748.SZ; 金力永磁; 36.36; 20.0%; 247956.5; 19</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -32199,6 +32344,11 @@
           <t>300803.SZ; 指南针; 141.33; 10.2%; 171504.5; 28</t>
         </is>
       </c>
+      <c r="FB6" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 296.12; 8.1%; 235240.0; 22</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -32984,6 +33134,11 @@
           <t>300059.SZ; 东方财富; 27.85; 3.9%; 157688.5; 33</t>
         </is>
       </c>
+      <c r="FB7" t="inlineStr">
+        <is>
+          <t>300364.SZ; 中文在线; 33.95; 20.0%; 228503.0; 24</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -33769,6 +33924,11 @@
           <t>300066.SZ; 三川智慧; 8.44; 20.1%; 139818.0; 40</t>
         </is>
       </c>
+      <c r="FB8" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 239.9; 9.0%; 209967.0; 29</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -34554,6 +34714,11 @@
           <t>302132.SZ; 中航成飞; 99.36; 10.3%; 130268.0; 48</t>
         </is>
       </c>
+      <c r="FB9" t="inlineStr">
+        <is>
+          <t>301128.SZ; 强瑞技术; 117.98; 20.0%; 206773.5; 31</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -35339,6 +35504,11 @@
           <t>300502.SZ; 新易盛; 273.81; 6.2%; 123138.5; 49</t>
         </is>
       </c>
+      <c r="FB10" t="inlineStr">
+        <is>
+          <t>688041.SH; 海光信息; 210.1; 12.9%; 195828.5; 39</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -36124,6 +36294,11 @@
           <t>300033.SZ; 同花顺; 400.82; 5.3%; 114571.5; 51</t>
         </is>
       </c>
+      <c r="FB11" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 28.23; 1.4%; 181541.0; 42</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -36909,6 +37084,11 @@
           <t>300766.SZ; 每日互动; 49.1; 2.3%; 101210.0; 61</t>
         </is>
       </c>
+      <c r="FB12" t="inlineStr">
+        <is>
+          <t>300757.SZ; 罗博特科; 270.36; 20.0%; 166114.0; 47</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -37694,6 +37874,11 @@
           <t>300113.SZ; 顺网科技; 27.24; 20.0%; 99158.0; 63</t>
         </is>
       </c>
+      <c r="FB13" t="inlineStr">
+        <is>
+          <t>300192.SZ; 科德教育; 25.91; 20.0%; 162921.5; 48</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -38479,6 +38664,11 @@
           <t>300192.SZ; 科德教育; 21.59; 20.0%; 98876.0; 66</t>
         </is>
       </c>
+      <c r="FB14" t="inlineStr">
+        <is>
+          <t>300085.SZ; 银之杰; 55.06; 13.1%; 142558.0; 61</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -39264,6 +39454,11 @@
           <t>300459.SZ; 汤姆猫; 6; 3.4%; 92134.5; 80</t>
         </is>
       </c>
+      <c r="FB15" t="inlineStr">
+        <is>
+          <t>300204.SZ; 舒泰神; 61; 16.2%; 128694.5; 73</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -40049,6 +40244,11 @@
           <t>300308.SZ; 中际旭创; 278.9; 5.2%; 89828.0; 82</t>
         </is>
       </c>
+      <c r="FB16" t="inlineStr">
+        <is>
+          <t>301259.SZ; 艾布鲁; 57.2; 10.8%; 124608.0; 79</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -40834,6 +41034,11 @@
           <t>688110.SH; 东芯股份; 91.85; 6.7%; 89626.5; 83</t>
         </is>
       </c>
+      <c r="FB17" t="inlineStr">
+        <is>
+          <t>300503.SZ; 昊志机电; 33.54; 20.0%; 123672.0; 83</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -41619,6 +41824,11 @@
           <t>300339.SZ; 润和软件; 64.84; 3.1%; 83621.5; 94</t>
         </is>
       </c>
+      <c r="FB18" t="inlineStr">
+        <is>
+          <t>688343.SH; 云天励飞; 87.5; 10.6%; 121921.0; 87</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -42404,6 +42614,11 @@
           <t>300474.SZ; 景嘉微; 88.4; 10.0%; 78047.0; 99</t>
         </is>
       </c>
+      <c r="FB19" t="inlineStr">
+        <is>
+          <t>300065.SZ; 海兰信; 22; 1.4%; 121612.5; 88</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -43189,6 +43404,11 @@
           <t>688709.SH; 成都华微; 47.04; 20.0%; 76944.0; 100</t>
         </is>
       </c>
+      <c r="FB20" t="inlineStr">
+        <is>
+          <t>300803.SZ; 指南针; 146.25; 3.5%; 116501.0; 93</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -43972,6 +44192,11 @@
       <c r="FA21" t="inlineStr">
         <is>
           <t>300184.SZ; 力源信息; 12.8; 6.8%; 73169.5; 109</t>
+        </is>
+      </c>
+      <c r="FB21" t="inlineStr">
+        <is>
+          <t>301396.SZ; 宏景科技; 73.93; 20.0%; 113940.5; 97</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FB13"/>
+  <dimension ref="A1:FC13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1224,6 +1224,11 @@
           <t>2025年08月25日</t>
         </is>
       </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月26日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1722,6 +1727,11 @@
       <c r="FB2" t="inlineStr">
         <is>
           <t>300192.SZ; 科德教育; 0;  09:25:00; 2天2板; 25.91;  09:25:00; 20.0%; 2; 参股中昊芯英+AI教育</t>
+        </is>
+      </c>
+      <c r="FC2" t="inlineStr">
+        <is>
+          <t>688228.SH; 开普云; 0;  09:25:04; 2天2板; 94.75;  09:25:04; 20.0%; 2; 拟收购存储资产+AI算力+卫星导航</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FB532"/>
+  <dimension ref="A1:FC532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3143,6 +3153,11 @@
       <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>2025年08月25日</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月26日</t>
         </is>
       </c>
     </row>
@@ -8547,7 +8562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FB12"/>
+  <dimension ref="A1:FC12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9341,6 +9356,11 @@
           <t>2025年08月25日</t>
         </is>
       </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月26日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10081,6 +10101,11 @@
           <t>688205.SH; 德科立; 2;  09:30:54; 99.57; 曾涨停; 10.1%; 0.49H;  09:30:54|| 10:09:41</t>
         </is>
       </c>
+      <c r="FC2" t="inlineStr">
+        <is>
+          <t>301517.SZ; 陕西华达; 1;  09:25:00; 51.85; 曾涨停; 3.0%; 0.01H;  09:25:00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10721,6 +10746,11 @@
           <t>301259.SZ; 艾布鲁; 2;  09:34:18; 57.2; 曾涨停; 10.8%; 0.02H;  09:34:18|| 09:34:57</t>
         </is>
       </c>
+      <c r="FC3" t="inlineStr">
+        <is>
+          <t>301603.SZ; 乔锋智能; 1;  09:48:54; 72.76; 曾涨停; 12.6%; 1.33H;  09:48:54</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11199,6 +11229,11 @@
       <c r="FB4" t="inlineStr">
         <is>
           <t>688343.SH; 云天励飞; 1;  09:36:01; 87.5; 曾涨停; 10.6%; 0.18H;  09:36:01</t>
+        </is>
+      </c>
+      <c r="FC4" t="inlineStr">
+        <is>
+          <t>688310.SH; 迈得医疗; 4;  10:51:18; 20.51; 曾涨停; 15.5%; 0.91H;  10:51:18|| 11:02:48|| 13:11:06|| 13:30:24</t>
         </is>
       </c>
     </row>
@@ -12043,7 +12078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FB30"/>
+  <dimension ref="A1:FC30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12837,6 +12872,11 @@
           <t>2025年08月25日</t>
         </is>
       </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月26日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13622,6 +13662,11 @@
           <t>688228.SH; 开普云; 0;  09:25:03; 首板涨停; 78.96;  09:25:03; 20.0%; 1; 拟收购存储资产+AI算力</t>
         </is>
       </c>
+      <c r="FC2" t="inlineStr">
+        <is>
+          <t>300971.SZ; 博亚精工; 0;  09:33:30; 首板涨停; 26.44;  09:33:30; 20.0%; 1; 半年报增长+商业航天+军工+进口替代</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14387,6 +14432,11 @@
           <t>300364.SZ; 中文在线; 4;  10:14:15; 首板涨停; 33.95;  09:49:45; 20.0%; 1; 公布半年报+AI多模态+IP优势</t>
         </is>
       </c>
+      <c r="FC3" t="inlineStr">
+        <is>
+          <t>301172.SZ; 君逸数码; 0;  09:41:18; 首板涨停; 27.67;  09:41:18; 20.0%; 1; 半年报增长+智慧城市+华为概念</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -15112,6 +15162,11 @@
           <t>688066.SH; 航天宏图; 8;  13:23:54; 首板涨停; 31.98;  10:27:45; 20.0%; 1; 军工+卫星遥感+低空遥感</t>
         </is>
       </c>
+      <c r="FC4" t="inlineStr">
+        <is>
+          <t>300645.SZ; 正元智慧; 0;  10:28:33; 首板涨停; 23.86;  10:28:33; 20.0%; 1; 华为昇腾+数字货币+智慧校园+AI养老</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -15772,6 +15827,11 @@
           <t>300757.SZ; 罗博特科; 1;  13:42:15; 首板涨停; 270.36;  10:37:45; 20.0%; 1; CPO+ficonTEC订单增长</t>
         </is>
       </c>
+      <c r="FC5" t="inlineStr">
+        <is>
+          <t>300955.SZ; 嘉亨家化; 0;  10:47:36; 首板涨停; 24.52;  10:47:36; 20.0%; 1; 日化产品+驱蚊+三胎概念+塑料包装</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -16377,6 +16437,11 @@
           <t>300748.SZ; 金力永磁; 6;  13:49:15; 首板涨停; 36.36;  10:11:03; 20.0%; 1; 稀土永磁+半报增长+人形机器人</t>
         </is>
       </c>
+      <c r="FC6" t="inlineStr">
+        <is>
+          <t>688660.SH; 电气风电; 13;  13:27:38; 首板涨停; 22.32;  11:03:23; 20.0%; 1; 上海微电子相关+风电+上海国资</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -16885,6 +16950,11 @@
       <c r="FB7" t="inlineStr">
         <is>
           <t>300683.SZ; 海特生物; 17;  14:14:39; 首板涨停; 59.41;  13:06:39; 20.0%; 1; 创新药+CAR-T研究+医保销售</t>
+        </is>
+      </c>
+      <c r="FC7" t="inlineStr">
+        <is>
+          <t>300994.SZ; 久祺股份; 0;  13:45:06; 首板涨停; 21.73;  13:45:06; 20.0%; 1; 自行车出口+E-BIKE+自主品牌</t>
         </is>
       </c>
     </row>
@@ -19024,7 +19094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FB178"/>
+  <dimension ref="A1:FC178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19818,6 +19888,11 @@
           <t>2025年08月25日</t>
         </is>
       </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月26日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -20578,6 +20653,11 @@
           <t>688552.SH; 航天南湖; 5.6%; 13.6%; 46.59; 7.2%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="FC2" t="inlineStr">
+        <is>
+          <t>300642.SZ; 透景生命; 3.5%; 12.8%; 31.3; 8.9%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -21298,6 +21378,11 @@
           <t>300436.SZ; 广生堂; 2.9%; 12.9%; 151.95; 9.7%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FC3" t="inlineStr">
+        <is>
+          <t>688787.SH; 海天瑞声; 2.1%; 16.9%; 152; 14.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -21958,6 +22043,11 @@
           <t>300642.SZ; 透景生命; 1.4%; 12.3%; 28.75; 10.7%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="FC4" t="inlineStr">
+        <is>
+          <t>688359.SH; 三孚新科; 1.9%; 12.6%; 73.2; 10.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -22538,6 +22628,11 @@
           <t>688183.SH; 生益电子; 1.5%; 12.2%; 65.1; 10.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FC5" t="inlineStr">
+        <is>
+          <t>301312.SZ; 智立方; 1.7%; 14.4%; 56.04; 12.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -23058,6 +23153,11 @@
           <t>688709.SH; 成都华微; 1.0%; 21.2%; 47.04; 20.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="FC6" t="inlineStr">
+        <is>
+          <t>300813.SZ; 泰林生物; 1.2%; 13.5%; 33.99; 12.2%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -23538,6 +23638,11 @@
           <t>300066.SZ; 三川智慧; 0.1%; 20.2%; 8.44; 20.1%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FC7" t="inlineStr">
+        <is>
+          <t>300645.SZ; 正元智慧; 1.1%; 21.4%; 23.86; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -23943,6 +24048,11 @@
           <t>830839.BJ; 万通液压; 1.3%; 31.7%; 51.74; 30.0%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="FC8" t="inlineStr">
+        <is>
+          <t>688310.SH; 迈得医疗; 0.8%; 16.5%; 20.51; 15.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -24278,6 +24388,11 @@
           <t>831526.BJ; 凯华材料; 1.2%; 15.2%; 36.96; 13.9%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="FC9" t="inlineStr">
+        <is>
+          <t>873223.BJ; 荣亿精密; 0.7%; 12.5%; 16.06; 11.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -24566,6 +24681,11 @@
       <c r="EY10" t="inlineStr">
         <is>
           <t>688757.SH; 胜科纳米; 0.9%; 13.4%; 35.8; 12.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="FC10" t="inlineStr">
+        <is>
+          <t>300889.SZ; 爱克股份; 0.1%; 13.0%; 18.63; 12.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -27605,7 +27725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FB21"/>
+  <dimension ref="A1:FC21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28399,6 +28519,11 @@
           <t>2025年08月25日</t>
         </is>
       </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月26日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -29189,6 +29314,11 @@
           <t>688256.SH; 寒武纪; 1384.93; 11.4%; 703500.0; 3</t>
         </is>
       </c>
+      <c r="FC2" t="inlineStr">
+        <is>
+          <t>688256.SH; 寒武纪; 1329; -4.0%; 356416.5; 10</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -29979,6 +30109,11 @@
           <t>300274.SZ; 阳光电源; 102.6; 4.8%; 545390.0; 6</t>
         </is>
       </c>
+      <c r="FC3" t="inlineStr">
+        <is>
+          <t>300803.SZ; 指南针; 158.58; 8.4%; 245884.5; 24</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -30769,6 +30904,11 @@
           <t>300308.SZ; 中际旭创; 320; 14.7%; 275038.0; 15</t>
         </is>
       </c>
+      <c r="FC4" t="inlineStr">
+        <is>
+          <t>300871.SZ; 回盛生物; 24; 1.5%; 205197.5; 33</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -31559,6 +31699,11 @@
           <t>300748.SZ; 金力永磁; 36.36; 20.0%; 247956.5; 19</t>
         </is>
       </c>
+      <c r="FC5" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 220.9; -7.9%; 199577.0; 35</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -32349,6 +32494,11 @@
           <t>300502.SZ; 新易盛; 296.12; 8.1%; 235240.0; 22</t>
         </is>
       </c>
+      <c r="FC6" t="inlineStr">
+        <is>
+          <t>300645.SZ; 正元智慧; 23.86; 20.0%; 168915.5; 49</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -33139,6 +33289,11 @@
           <t>300364.SZ; 中文在线; 33.95; 20.0%; 228503.0; 24</t>
         </is>
       </c>
+      <c r="FC7" t="inlineStr">
+        <is>
+          <t>300339.SZ; 润和软件; 66.89; 4.2%; 153980.0; 55</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -33929,6 +34084,11 @@
           <t>300476.SZ; 胜宏科技; 239.9; 9.0%; 209967.0; 29</t>
         </is>
       </c>
+      <c r="FC8" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 282.04; -4.8%; 143396.5; 58</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -34719,6 +34879,11 @@
           <t>301128.SZ; 强瑞技术; 117.98; 20.0%; 206773.5; 31</t>
         </is>
       </c>
+      <c r="FC9" t="inlineStr">
+        <is>
+          <t>300486.SZ; 东杰智能; nan; nan%; 140313.5; 60</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -35509,6 +35674,11 @@
           <t>688041.SH; 海光信息; 210.1; 12.9%; 195828.5; 39</t>
         </is>
       </c>
+      <c r="FC10" t="inlineStr">
+        <is>
+          <t>300115.SZ; 长盈精密; 26.43; 3.2%; 136764.0; 62</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -36299,6 +36469,11 @@
           <t>300059.SZ; 东方财富; 28.23; 1.4%; 181541.0; 42</t>
         </is>
       </c>
+      <c r="FC11" t="inlineStr">
+        <is>
+          <t>688660.SH; 电气风电; 22.32; 20.0%; 120906.5; 83</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -37089,6 +37264,11 @@
           <t>300757.SZ; 罗博特科; 270.36; 20.0%; 166114.0; 47</t>
         </is>
       </c>
+      <c r="FC12" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 314; -1.9%; 109145.0; 93</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -37879,6 +38059,11 @@
           <t>300192.SZ; 科德教育; 25.91; 20.0%; 162921.5; 48</t>
         </is>
       </c>
+      <c r="FC13" t="inlineStr">
+        <is>
+          <t>300394.SZ; 天孚通信; 144.78; 11.9%; 100867.5; 97</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -38669,6 +38854,11 @@
           <t>300085.SZ; 银之杰; 55.06; 13.1%; 142558.0; 61</t>
         </is>
       </c>
+      <c r="FC14" t="inlineStr">
+        <is>
+          <t>300192.SZ; 科德教育; 26.32; 1.6%; 100382.0; 99</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -39459,6 +39649,11 @@
           <t>300204.SZ; 舒泰神; 61; 16.2%; 128694.5; 73</t>
         </is>
       </c>
+      <c r="FC15" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 27.93; -1.1%; 98177.0; 102</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -40249,6 +40444,11 @@
           <t>301259.SZ; 艾布鲁; 57.2; 10.8%; 124608.0; 79</t>
         </is>
       </c>
+      <c r="FC16" t="inlineStr">
+        <is>
+          <t>300274.SZ; 阳光电源; 97.01; -5.4%; 97078.0; 103</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -41039,6 +41239,11 @@
           <t>300503.SZ; 昊志机电; 33.54; 20.0%; 123672.0; 83</t>
         </is>
       </c>
+      <c r="FC17" t="inlineStr">
+        <is>
+          <t>300433.SZ; 蓝思科技; 30.3; 4.1%; 90941.5; 107</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -41829,6 +42034,11 @@
           <t>688343.SH; 云天励飞; 87.5; 10.6%; 121921.0; 87</t>
         </is>
       </c>
+      <c r="FC18" t="inlineStr">
+        <is>
+          <t>301172.SZ; 君逸数码; 27.67; 20.0%; 87899.0; 112</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -42619,6 +42829,11 @@
           <t>300065.SZ; 海兰信; 22; 1.4%; 121612.5; 88</t>
         </is>
       </c>
+      <c r="FC19" t="inlineStr">
+        <is>
+          <t>688521.SH; 芯原股份; 143.17; -9.3%; 87214.0; 113</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -43409,6 +43624,11 @@
           <t>300803.SZ; 指南针; 146.25; 3.5%; 116501.0; 93</t>
         </is>
       </c>
+      <c r="FC20" t="inlineStr">
+        <is>
+          <t>688228.SH; 开普云; 94.75; 20.0%; 85666.0; 114</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -44197,6 +44417,11 @@
       <c r="FB21" t="inlineStr">
         <is>
           <t>301396.SZ; 宏景科技; 73.93; 20.0%; 113940.5; 97</t>
+        </is>
+      </c>
+      <c r="FC21" t="inlineStr">
+        <is>
+          <t>300364.SZ; 中文在线; 35.59; 4.8%; 82025.5; 119</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FC13"/>
+  <dimension ref="A1:FD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1229,6 +1229,11 @@
           <t>2025年08月26日</t>
         </is>
       </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月27日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1732,6 +1737,11 @@
       <c r="FC2" t="inlineStr">
         <is>
           <t>688228.SH; 开普云; 0;  09:25:04; 2天2板; 94.75;  09:25:04; 20.0%; 2; 拟收购存储资产+AI算力+卫星导航</t>
+        </is>
+      </c>
+      <c r="FD2" t="inlineStr">
+        <is>
+          <t>688228.SH; 开普云; 1;  09:31:28; 3天3板; 113.7;  09:25:01; 20.0%; 3; 拟收购存储资产+AI算力+大模型</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FC532"/>
+  <dimension ref="A1:FD532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3158,6 +3168,11 @@
       <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>2025年08月26日</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月27日</t>
         </is>
       </c>
     </row>
@@ -8562,7 +8577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FC12"/>
+  <dimension ref="A1:FD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9361,6 +9376,11 @@
           <t>2025年08月26日</t>
         </is>
       </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月27日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10106,6 +10126,11 @@
           <t>301517.SZ; 陕西华达; 1;  09:25:00; 51.85; 曾涨停; 3.0%; 0.01H;  09:25:00</t>
         </is>
       </c>
+      <c r="FD2" t="inlineStr">
+        <is>
+          <t>688578.SH; 艾力斯; 42;  09:55:02; 111.31; 曾涨停; 17.0%; 0.60H;  09:55:02|| 10:00:05|| 10:10:41|| 10:11:26|| 10:13:41|| 10:13:53|| 10:14:02|| 10:14:23|| 10:15:41|| 10:16:11|| 10:16:47|| 10:16:53|| 10:17:08|| 10:17:14|| 10:18:08|| 10:18:47|| 10:19:11|| 10:23:59|| 10:24:20|| 10:24:38|| 13:01:05|| 13:02:11|| 13:02:26|| 13:02:50|| 13:03:26|| 13:05:17|| 13:05:50|| 13:08:29|| 13:28:08|| 13:31:05|| 13:31:26|| 13:31:38|| 13:31:50|| 13:32:53|| 13:33:08|| 13:33:56|| 13:34:53|| 13:35:20|| 13:36:35|| 13:41:11|| 13:41:23|| 13:41:50</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10751,6 +10776,11 @@
           <t>301603.SZ; 乔锋智能; 1;  09:48:54; 72.76; 曾涨停; 12.6%; 1.33H;  09:48:54</t>
         </is>
       </c>
+      <c r="FD3" t="inlineStr">
+        <is>
+          <t>300222.SZ; 科大智能; 10;  10:04:33; 14.97; 曾涨停; 19.2%; 2.27H;  10:04:33|| 10:29:33|| 10:33:48|| 10:37:03|| 13:11:03|| 13:54:51|| 14:02:24|| 14:04:39|| 14:05:03|| 14:05:21</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11236,6 +11266,11 @@
           <t>688310.SH; 迈得医疗; 4;  10:51:18; 20.51; 曾涨停; 15.5%; 0.91H;  10:51:18|| 11:02:48|| 13:11:06|| 13:30:24</t>
         </is>
       </c>
+      <c r="FD4" t="inlineStr">
+        <is>
+          <t>688018.SH; 乐鑫科技; 2;  11:13:26; 219.99; 曾涨停; 17.3%; 1.28H;  11:13:26|| 14:01:17</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11546,6 +11581,11 @@
           <t>300991.SZ; 创益通; 3;  09:41:15; 43.68; 曾涨停; 14.9%; 0.43H;  09:41:15|| 09:44:09|| 10:04:00</t>
         </is>
       </c>
+      <c r="FD5" t="inlineStr">
+        <is>
+          <t>300604.SZ; 长川科技; 9;  11:15:18; 59.59; 曾涨停; 17.0%; 0.57H;  11:15:18|| 11:19:00|| 11:19:27|| 11:22:00|| 13:16:09|| 13:16:42|| 13:37:00|| 14:43:21|| 14:44:39</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -11766,6 +11806,11 @@
           <t>301191.SZ; 菲菱科思; 1;  10:34:00; 116.74; 曾涨停; 12.8%; 1.64H;  10:34:00</t>
         </is>
       </c>
+      <c r="FD6" t="inlineStr">
+        <is>
+          <t>688220.SH; 翱捷科技; 1;  11:25:29; 110.83; 曾涨停; 8.7%; 0.34H;  11:25:29</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -11886,6 +11931,11 @@
           <t>300204.SZ; 舒泰神; 2;  10:43:36; 58.3; 曾涨停; 5.0%; 0.01H;  10:43:36|| 10:45:00</t>
         </is>
       </c>
+      <c r="FD7" t="inlineStr">
+        <is>
+          <t>688237.SH; 超卓航科; 1;  13:03:21; 41; 曾涨停; 18.1%; 0.04H;  13:03:21</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -11959,6 +12009,11 @@
       <c r="EX8" t="inlineStr">
         <is>
           <t>300631.SZ; 久吾高科; 1;  11:22:45; 36.87; 曾涨停; 11.7%; 0.78H;  11:22:45</t>
+        </is>
+      </c>
+      <c r="FD8" t="inlineStr">
+        <is>
+          <t>688313.SH; 仕佳光子; 14;  13:15:15; 81; 曾涨停; 14.9%; 0.29H;  13:15:15|| 13:15:51|| 13:16:00|| 13:16:18|| 13:16:36|| 13:16:42|| 13:18:18|| 13:18:45|| 13:19:00|| 13:19:18|| 13:19:30|| 13:19:42|| 13:35:18|| 14:11:57</t>
         </is>
       </c>
     </row>
@@ -12078,7 +12133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FC30"/>
+  <dimension ref="A1:FD30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12877,6 +12932,11 @@
           <t>2025年08月26日</t>
         </is>
       </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月27日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13667,6 +13727,11 @@
           <t>300971.SZ; 博亚精工; 0;  09:33:30; 首板涨停; 26.44;  09:33:30; 20.0%; 1; 半年报增长+商业航天+军工+进口替代</t>
         </is>
       </c>
+      <c r="FD2" t="inlineStr">
+        <is>
+          <t>688189.SH; 南新制药; 0;  09:38:25; 首板涨停; 16.98;  09:38:25; 20.0%; 1; 资产收购筹划+创新药+湖南国资</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14437,6 +14502,11 @@
           <t>301172.SZ; 君逸数码; 0;  09:41:18; 首板涨停; 27.67;  09:41:18; 20.0%; 1; 半年报增长+智慧城市+华为概念</t>
         </is>
       </c>
+      <c r="FD3" t="inlineStr">
+        <is>
+          <t>301389.SZ; 隆扬电子; 0;  10:42:03; 首板涨停; 60.48;  10:42:03; 20.0%; 1; 复合铜箔+电磁屏蔽+消费电子+并购重组</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -15167,6 +15237,11 @@
           <t>300645.SZ; 正元智慧; 0;  10:28:33; 首板涨停; 23.86;  10:28:33; 20.0%; 1; 华为昇腾+数字货币+智慧校园+AI养老</t>
         </is>
       </c>
+      <c r="FD4" t="inlineStr">
+        <is>
+          <t>301183.SZ; 东田微; 0;  11:02:54; 首板涨停; 96.23;  11:02:54; 20.0%; 1; 半年报增长+光通信+光学元器件</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -15832,6 +15907,11 @@
           <t>300955.SZ; 嘉亨家化; 0;  10:47:36; 首板涨停; 24.52;  10:47:36; 20.0%; 1; 日化产品+驱蚊+三胎概念+塑料包装</t>
         </is>
       </c>
+      <c r="FD5" t="inlineStr">
+        <is>
+          <t>688280.SH; 精进电动; 7;  14:46:14; 首板涨停; 10.2;  13:08:53; 20.0%; 1; 电驱动系统+一季报扭亏+无人驾驶</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -16440,6 +16520,11 @@
       <c r="FC6" t="inlineStr">
         <is>
           <t>688660.SH; 电气风电; 13;  13:27:38; 首板涨停; 22.32;  11:03:23; 20.0%; 1; 上海微电子相关+风电+上海国资</t>
+        </is>
+      </c>
+      <c r="FD6" t="inlineStr">
+        <is>
+          <t>301488.SZ; 豪恩汽电; 4;  14:55:42; 首板涨停; 96.11;  13:00:00; 20.0%; 1; 人形机器人+感知系统+半年报增长</t>
         </is>
       </c>
     </row>
@@ -19094,7 +19179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FC178"/>
+  <dimension ref="A1:FD178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19893,6 +19978,11 @@
           <t>2025年08月26日</t>
         </is>
       </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月27日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -20658,6 +20748,11 @@
           <t>300642.SZ; 透景生命; 3.5%; 12.8%; 31.3; 8.9%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="FD2" t="inlineStr">
+        <is>
+          <t>301183.SZ; 东田微; 1.5%; 21.8%; 96.23; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -21381,6 +21476,11 @@
       <c r="FC3" t="inlineStr">
         <is>
           <t>688787.SH; 海天瑞声; 2.1%; 16.9%; 152; 14.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="FD3" t="inlineStr">
+        <is>
+          <t>688280.SH; 精进电动; 0.1%; 20.1%; 10.2; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -27725,7 +27825,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FC21"/>
+  <dimension ref="A1:FD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28524,6 +28624,11 @@
           <t>2025年08月26日</t>
         </is>
       </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月27日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -29319,6 +29424,11 @@
           <t>688256.SH; 寒武纪; 1329; -4.0%; 356416.5; 10</t>
         </is>
       </c>
+      <c r="FD2" t="inlineStr">
+        <is>
+          <t>688256.SH; 寒武纪; 1372.1; 3.2%; 692013.0; 2</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -30114,6 +30224,11 @@
           <t>300803.SZ; 指南针; 158.58; 8.4%; 245884.5; 24</t>
         </is>
       </c>
+      <c r="FD3" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 308.33; 9.3%; 247934.5; 17</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -30909,6 +31024,11 @@
           <t>300871.SZ; 回盛生物; 24; 1.5%; 205197.5; 33</t>
         </is>
       </c>
+      <c r="FD4" t="inlineStr">
+        <is>
+          <t>300803.SZ; 指南针; 151.78; -4.3%; 191132.0; 33</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -31704,6 +31824,11 @@
           <t>300476.SZ; 胜宏科技; 220.9; -7.9%; 199577.0; 35</t>
         </is>
       </c>
+      <c r="FD5" t="inlineStr">
+        <is>
+          <t>300222.SZ; 科大智能; 14.97; 19.2%; 166681.0; 43</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -32499,6 +32624,11 @@
           <t>300645.SZ; 正元智慧; 23.86; 20.0%; 168915.5; 49</t>
         </is>
       </c>
+      <c r="FD6" t="inlineStr">
+        <is>
+          <t>301488.SZ; 豪恩汽电; 96.11; 20.0%; 138674.5; 60</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -33294,6 +33424,11 @@
           <t>300339.SZ; 润和软件; 66.89; 4.2%; 153980.0; 55</t>
         </is>
       </c>
+      <c r="FD7" t="inlineStr">
+        <is>
+          <t>300496.SZ; 中科创达; 76.65; 11.7%; 136837.5; 61</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -34089,6 +34224,11 @@
           <t>300502.SZ; 新易盛; 282.04; -4.8%; 143396.5; 58</t>
         </is>
       </c>
+      <c r="FD8" t="inlineStr">
+        <is>
+          <t>300748.SZ; 金力永磁; 39.88; 6.6%; 136584.5; 63</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -34884,6 +35024,11 @@
           <t>300486.SZ; 东杰智能; nan; nan%; 140313.5; 60</t>
         </is>
       </c>
+      <c r="FD9" t="inlineStr">
+        <is>
+          <t>301183.SZ; 东田微; 96.23; 20.0%; 134801.0; 64</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -35679,6 +35824,11 @@
           <t>300115.SZ; 长盈精密; 26.43; 3.2%; 136764.0; 62</t>
         </is>
       </c>
+      <c r="FD10" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 325.1; 3.5%; 133206.5; 68</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -36474,6 +36624,11 @@
           <t>688660.SH; 电气风电; 22.32; 20.0%; 120906.5; 83</t>
         </is>
       </c>
+      <c r="FD11" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 27.21; -2.6%; 127566.5; 71</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -37269,6 +37424,11 @@
           <t>300308.SZ; 中际旭创; 314; -1.9%; 109145.0; 93</t>
         </is>
       </c>
+      <c r="FD12" t="inlineStr">
+        <is>
+          <t>300604.SZ; 长川科技; 59.59; 17.0%; 125559.5; 74</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -38064,6 +38224,11 @@
           <t>300394.SZ; 天孚通信; 144.78; 11.9%; 100867.5; 97</t>
         </is>
       </c>
+      <c r="FD13" t="inlineStr">
+        <is>
+          <t>688228.SH; 开普云; 113.7; 20.0%; 121059.5; 81</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -38859,6 +39024,11 @@
           <t>300192.SZ; 科德教育; 26.32; 1.6%; 100382.0; 99</t>
         </is>
       </c>
+      <c r="FD14" t="inlineStr">
+        <is>
+          <t>301396.SZ; 宏景科技; 83.16; 8.7%; 114708.5; 84</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -39654,6 +39824,11 @@
           <t>300059.SZ; 东方财富; 27.93; -1.1%; 98177.0; 102</t>
         </is>
       </c>
+      <c r="FD15" t="inlineStr">
+        <is>
+          <t>300432.SZ; 富临精工; 16.12; 2.5%; 113843.0; 85</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -40449,6 +40624,11 @@
           <t>300274.SZ; 阳光电源; 97.01; -5.4%; 97078.0; 103</t>
         </is>
       </c>
+      <c r="FD16" t="inlineStr">
+        <is>
+          <t>300548.SZ; 长芯博创; 134.67; 12.5%; 109361.5; 90</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -41244,6 +41424,11 @@
           <t>300433.SZ; 蓝思科技; 30.3; 4.1%; 90941.5; 107</t>
         </is>
       </c>
+      <c r="FD17" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 216.57; -2.0%; 105827.0; 95</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -42039,6 +42224,11 @@
           <t>301172.SZ; 君逸数码; 27.67; 20.0%; 87899.0; 112</t>
         </is>
       </c>
+      <c r="FD18" t="inlineStr">
+        <is>
+          <t>301389.SZ; 隆扬电子; 60.48; 20.0%; 104741.0; 97</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -42834,6 +43024,11 @@
           <t>688521.SH; 芯原股份; 143.17; -9.3%; 87214.0; 113</t>
         </is>
       </c>
+      <c r="FD19" t="inlineStr">
+        <is>
+          <t>300433.SZ; 蓝思科技; 31.4; 3.6%; 96108.5; 110</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -43629,6 +43824,11 @@
           <t>688228.SH; 开普云; 94.75; 20.0%; 85666.0; 114</t>
         </is>
       </c>
+      <c r="FD20" t="inlineStr">
+        <is>
+          <t>688981.SH; 中芯国际; 101.51; 0.6%; 93535.5; 114</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -44422,6 +44622,11 @@
       <c r="FC21" t="inlineStr">
         <is>
           <t>300364.SZ; 中文在线; 35.59; 4.8%; 82025.5; 119</t>
+        </is>
+      </c>
+      <c r="FD21" t="inlineStr">
+        <is>
+          <t>300339.SZ; 润和软件; 66.36; -0.8%; 89605.0; 118</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FD13"/>
+  <dimension ref="A1:FE13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1234,6 +1234,11 @@
           <t>2025年08月27日</t>
         </is>
       </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月28日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1744,6 +1749,11 @@
           <t>688228.SH; 开普云; 1;  09:31:28; 3天3板; 113.7;  09:25:01; 20.0%; 3; 拟收购存储资产+AI算力+大模型</t>
         </is>
       </c>
+      <c r="FE2" t="inlineStr">
+        <is>
+          <t>301488.SZ; 豪恩汽电; 0;  09:34:39; 2天2板; 115.33;  09:34:39; 20.0%; 2; 人形机器人+英伟达合作+感知系统+半年报增长</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2022,6 +2032,11 @@
       <c r="EX3" t="inlineStr">
         <is>
           <t>300049.SZ; 福瑞股份; 0;  09:34:15; 2天2板; 72.23;  09:34:15; 20.0%; 2; MASH药物合作+自有药品高增长</t>
+        </is>
+      </c>
+      <c r="FE3" t="inlineStr">
+        <is>
+          <t>301389.SZ; 隆扬电子; 26;  14:56:30; 2天2板; 72.58;  13:46:36; 20.0%; 2; 复合铜箔+电磁屏蔽+消费电子+并购重组</t>
         </is>
       </c>
     </row>
@@ -2371,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FD532"/>
+  <dimension ref="A1:FE532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3173,6 +3188,11 @@
       <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>2025年08月27日</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月28日</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FD12"/>
+  <dimension ref="A1:FE12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9381,6 +9401,11 @@
           <t>2025年08月27日</t>
         </is>
       </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月28日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10131,6 +10156,11 @@
           <t>688578.SH; 艾力斯; 42;  09:55:02; 111.31; 曾涨停; 17.0%; 0.60H;  09:55:02|| 10:00:05|| 10:10:41|| 10:11:26|| 10:13:41|| 10:13:53|| 10:14:02|| 10:14:23|| 10:15:41|| 10:16:11|| 10:16:47|| 10:16:53|| 10:17:08|| 10:17:14|| 10:18:08|| 10:18:47|| 10:19:11|| 10:23:59|| 10:24:20|| 10:24:38|| 13:01:05|| 13:02:11|| 13:02:26|| 13:02:50|| 13:03:26|| 13:05:17|| 13:05:50|| 13:08:29|| 13:28:08|| 13:31:05|| 13:31:26|| 13:31:38|| 13:31:50|| 13:32:53|| 13:33:08|| 13:33:56|| 13:34:53|| 13:35:20|| 13:36:35|| 13:41:11|| 13:41:23|| 13:41:50</t>
         </is>
       </c>
+      <c r="FE2" t="inlineStr">
+        <is>
+          <t>301568.SZ; 思泰克; 2;  10:36:39; 58; 曾涨停; 15.5%; 1.20H;  10:36:39|| 14:10:18</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10781,6 +10811,11 @@
           <t>300222.SZ; 科大智能; 10;  10:04:33; 14.97; 曾涨停; 19.2%; 2.27H;  10:04:33|| 10:29:33|| 10:33:48|| 10:37:03|| 13:11:03|| 13:54:51|| 14:02:24|| 14:04:39|| 14:05:03|| 14:05:21</t>
         </is>
       </c>
+      <c r="FE3" t="inlineStr">
+        <is>
+          <t>300049.SZ; 福瑞股份; 1;  13:05:51; 65.02; 曾涨停; 15.3%; 0.15H;  13:05:51</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11269,6 +11304,11 @@
       <c r="FD4" t="inlineStr">
         <is>
           <t>688018.SH; 乐鑫科技; 2;  11:13:26; 219.99; 曾涨停; 17.3%; 1.28H;  11:13:26|| 14:01:17</t>
+        </is>
+      </c>
+      <c r="FE4" t="inlineStr">
+        <is>
+          <t>688561.SH; 奇安信; 1;  14:19:49; 43.52; 曾涨停; 18.0%; 0.00H;  14:19:49</t>
         </is>
       </c>
     </row>
@@ -12133,7 +12173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FD30"/>
+  <dimension ref="A1:FE30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12937,6 +12977,11 @@
           <t>2025年08月27日</t>
         </is>
       </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月28日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13732,6 +13777,11 @@
           <t>688189.SH; 南新制药; 0;  09:38:25; 首板涨停; 16.98;  09:38:25; 20.0%; 1; 资产收购筹划+创新药+湖南国资</t>
         </is>
       </c>
+      <c r="FE2" t="inlineStr">
+        <is>
+          <t>300389.SZ; 艾比森; 8;  09:43:57; 首板涨停; 14.7;  09:30:12; 20.0%; 1; 半年报增长+LED显示+海外扩张</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14507,6 +14557,11 @@
           <t>301389.SZ; 隆扬电子; 0;  10:42:03; 首板涨停; 60.48;  10:42:03; 20.0%; 1; 复合铜箔+电磁屏蔽+消费电子+并购重组</t>
         </is>
       </c>
+      <c r="FE3" t="inlineStr">
+        <is>
+          <t>300797.SZ; 钢研纳克; 0;  10:19:15; 首板涨停; 18.6;  10:19:15; 20.0%; 1; 金属材料检测+稀土永磁+央企</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -15242,6 +15297,11 @@
           <t>301183.SZ; 东田微; 0;  11:02:54; 首板涨停; 96.23;  11:02:54; 20.0%; 1; 半年报增长+光通信+光学元器件</t>
         </is>
       </c>
+      <c r="FE4" t="inlineStr">
+        <is>
+          <t>301526.SZ; 国际复材; 0;  10:23:54; 首板涨停; 7.87;  10:23:54; 20.0%; 1; 中报扭亏+电子级玻璃纤维+云南国资</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -15912,6 +15972,11 @@
           <t>688280.SH; 精进电动; 7;  14:46:14; 首板涨停; 10.2;  13:08:53; 20.0%; 1; 电驱动系统+一季报扭亏+无人驾驶</t>
         </is>
       </c>
+      <c r="FE5" t="inlineStr">
+        <is>
+          <t>831906.BJ; 舜宇精工; 0;  11:15:05; 首板涨停; 30.09;  11:15:05; 30.0%; 1; 半年报大增+汽车零部件+智能座舱</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -16527,6 +16592,11 @@
           <t>301488.SZ; 豪恩汽电; 4;  14:55:42; 首板涨停; 96.11;  13:00:00; 20.0%; 1; 人形机器人+感知系统+半年报增长</t>
         </is>
       </c>
+      <c r="FE6" t="inlineStr">
+        <is>
+          <t>300394.SZ; 天孚通信; 3;  13:45:51; 首板涨停; 180.01;  10:47:54; 20.0%; 1; 半年报增长+CPO+光器件+泰国产能</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -17042,6 +17112,11 @@
           <t>300994.SZ; 久祺股份; 0;  13:45:06; 首板涨停; 21.73;  13:45:06; 20.0%; 1; 自行车出口+E-BIKE+自主品牌</t>
         </is>
       </c>
+      <c r="FE7" t="inlineStr">
+        <is>
+          <t>688668.SH; 鼎通科技; 0;  14:03:55; 首板涨停; 127.36;  14:03:55; 20.0%; 1; 铜缆高速连接+液冷服务器+半年报增长</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -17487,6 +17562,11 @@
           <t>301396.SZ; 宏景科技; 0;  14:18:57; 首板涨停; 73.93;  14:18:57; 20.0%; 1; 算力服务+东数西算+半年度增长</t>
         </is>
       </c>
+      <c r="FE8" t="inlineStr">
+        <is>
+          <t>301123.SZ; 奕东电子; 0;  14:12:36; 首板涨停; 47.81;  14:12:36; 20.0%; 1; FPC+铜缆连接器+锂电+新产线投产</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -17830,6 +17910,11 @@
       <c r="FB9" t="inlineStr">
         <is>
           <t>301128.SZ; 强瑞技术; 0;  14:23:54; 首板涨停; 117.98;  14:23:54; 20.0%; 1; 液冷服务器+半导体设备+机器人</t>
+        </is>
+      </c>
+      <c r="FE9" t="inlineStr">
+        <is>
+          <t>300491.SZ; 通合科技; 4;  14:40:48; 首板涨停; 36.5;  14:32:00; 20.0%; 1; 营收增长+新能源重卡+HVDC+航空航天</t>
         </is>
       </c>
     </row>
@@ -19179,7 +19264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FD178"/>
+  <dimension ref="A1:FE178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19983,6 +20068,11 @@
           <t>2025年08月27日</t>
         </is>
       </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月28日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -20753,6 +20843,11 @@
           <t>301183.SZ; 东田微; 1.5%; 21.8%; 96.23; 20.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="FE2" t="inlineStr">
+        <is>
+          <t>301389.SZ; 隆扬电子; 5.8%; 27.3%; 72.58; 20.0%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -21483,6 +21578,11 @@
           <t>688280.SH; 精进电动; 0.1%; 20.1%; 10.2; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FE3" t="inlineStr">
+        <is>
+          <t>835670.BJ; 数字人; 4.2%; 13.3%; 18.7; 8.5%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -22148,6 +22248,11 @@
           <t>688359.SH; 三孚新科; 1.9%; 12.6%; 73.2; 10.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FE4" t="inlineStr">
+        <is>
+          <t>300843.SZ; 胜蓝股份; 4.0%; 22.2%; 64.9; 17.3%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -22733,6 +22838,11 @@
           <t>301312.SZ; 智立方; 1.7%; 14.4%; 56.04; 12.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FE5" t="inlineStr">
+        <is>
+          <t>688011.SH; 新光光电; 2.5%; 12.3%; 47.16; 9.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -23258,6 +23368,11 @@
           <t>300813.SZ; 泰林生物; 1.2%; 13.5%; 33.99; 12.2%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="FE6" t="inlineStr">
+        <is>
+          <t>300570.SZ; 太辰光; 2.3%; 12.4%; 136.24; 9.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -23743,6 +23858,11 @@
           <t>300645.SZ; 正元智慧; 1.1%; 21.4%; 23.86; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FE7" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 2.1%; 17.6%; 354.95; 15.1%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -24153,6 +24273,11 @@
           <t>688310.SH; 迈得医疗; 0.8%; 16.5%; 20.51; 15.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FE8" t="inlineStr">
+        <is>
+          <t>688502.SH; 茂莱光学; 1.9%; 15.9%; 475.34; 13.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -24493,6 +24618,11 @@
           <t>873223.BJ; 荣亿精密; 0.7%; 12.5%; 16.06; 11.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FE9" t="inlineStr">
+        <is>
+          <t>301018.SZ; 申菱环境; 1.9%; 14.4%; 77.88; 12.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -24788,6 +24918,11 @@
           <t>300889.SZ; 爱克股份; 0.1%; 13.0%; 18.63; 12.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FE10" t="inlineStr">
+        <is>
+          <t>688183.SH; 生益电子; 1.8%; 14.1%; 79.6; 12.1%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -25033,6 +25168,11 @@
           <t>301002.SZ; 崧盛股份; 0.5%; 13.0%; 26.98; 12.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FE11" t="inlineStr">
+        <is>
+          <t>688318.SH; 财富趋势; 1.6%; 12.6%; 180.13; 10.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -25213,6 +25353,11 @@
           <t>301008.SZ; 宏昌科技; 0.5%; 20.6%; 30.64; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FE12" t="inlineStr">
+        <is>
+          <t>688686.SH; 奥普特; 1.6%; 14.3%; 149.68; 12.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -25373,6 +25518,11 @@
           <t>688798.SH; 艾为电子; 0.5%; 16.4%; 94.3; 15.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FE13" t="inlineStr">
+        <is>
+          <t>688668.SH; 鼎通科技; 1.5%; 21.9%; 127.36; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -25498,6 +25648,11 @@
           <t>688484.SH; 南芯科技; 0.3%; 13.0%; 51.76; 12.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FE14" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 1.5%; 12.5%; 87.61; 10.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -25598,6 +25753,11 @@
           <t>873726.BJ; 卓兆点胶; 0.0%; 19.7%; 51.83; 19.7%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="FE15" t="inlineStr">
+        <is>
+          <t>688719.SH; 爱科赛博; 1.5%; 12.7%; 47.18; 11.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -25683,6 +25843,11 @@
           <t>688347.SH; 华虹公司; 0.7%; 12.2%; 78.5; 11.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FE16" t="inlineStr">
+        <is>
+          <t>301272.SZ; 英华特; 1.1%; 15.9%; 46.68; 14.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -25768,6 +25933,11 @@
           <t>301123.SZ; 奕东电子; 0.5%; 20.7%; 39.41; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FE17" t="inlineStr">
+        <is>
+          <t>688559.SH; 海目星; 1.0%; 12.7%; 33.68; 11.6%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -25828,6 +25998,11 @@
           <t>688619.SH; 罗普特; 0.5%; 12.5%; 18.12; 12.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FE18" t="inlineStr">
+        <is>
+          <t>300620.SZ; 光库科技; 0.8%; 13.2%; 101.01; 12.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -25888,6 +26063,11 @@
           <t>688141.SH; 杰华特; 0.4%; 20.5%; 35.51; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FE19" t="inlineStr">
+        <is>
+          <t>301526.SZ; 国际复材; 0.8%; 20.9%; 7.87; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -25938,6 +26118,11 @@
           <t>300855.SZ; 图南股份; 0.3%; 13.7%; 30.74; 13.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FE20" t="inlineStr">
+        <is>
+          <t>920445.BJ; 龙竹科技; 0.5%; 12.2%; 14.57; 11.6%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -25988,6 +26173,11 @@
           <t>301397.SZ; 溯联股份; 0.1%; 15.9%; 46.5; 15.7%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FE21" t="inlineStr">
+        <is>
+          <t>688561.SH; 奇安信; 0.5%; 18.6%; 43.52; 18.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -26033,6 +26223,11 @@
           <t>300870.SZ; 欧陆通; 0.1%; 19.5%; 248.5; 19.3%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="FE22" t="inlineStr">
+        <is>
+          <t>688110.SH; 东芯股份; 0.4%; 16.9%; 118; 16.4%; 价升量涨||阳线||缩量</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -26078,6 +26273,11 @@
           <t>301291.SZ; 明阳电气; 0.1%; 14.6%; 43.45; 14.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FE23" t="inlineStr">
+        <is>
+          <t>300324.SZ; 旋极信息; 0.3%; 12.9%; 6.84; 12.5%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -26121,6 +26321,11 @@
       <c r="EV24" t="inlineStr">
         <is>
           <t>835184.BJ; 国源科技; 0.1%; 22.4%; 27.05; 22.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="FE24" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 0.2%; 19.8%; 259; 19.6%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -27825,7 +28030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FD21"/>
+  <dimension ref="A1:FE21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28629,6 +28834,11 @@
           <t>2025年08月27日</t>
         </is>
       </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月28日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -29429,6 +29639,11 @@
           <t>688256.SH; 寒武纪; 1372.1; 3.2%; 692013.0; 2</t>
         </is>
       </c>
+      <c r="FE2" t="inlineStr">
+        <is>
+          <t>688256.SH; 寒武纪; 1587.91; 15.7%; 1199803.0; 1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -30229,6 +30444,11 @@
           <t>300502.SZ; 新易盛; 308.33; 9.3%; 247934.5; 17</t>
         </is>
       </c>
+      <c r="FE3" t="inlineStr">
+        <is>
+          <t>688981.SH; 中芯国际; 119.22; 17.4%; 551569.5; 7</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -31029,6 +31249,11 @@
           <t>300803.SZ; 指南针; 151.78; -4.3%; 191132.0; 33</t>
         </is>
       </c>
+      <c r="FE4" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 354.95; 15.1%; 424723.5; 9</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -31829,6 +32054,11 @@
           <t>300222.SZ; 科大智能; 14.97; 19.2%; 166681.0; 43</t>
         </is>
       </c>
+      <c r="FE5" t="inlineStr">
+        <is>
+          <t>300394.SZ; 天孚通信; 180.01; 20.0%; 403697.5; 11</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -32629,6 +32859,11 @@
           <t>301488.SZ; 豪恩汽电; 96.11; 20.0%; 138674.5; 60</t>
         </is>
       </c>
+      <c r="FE6" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 259; 19.6%; 357478.0; 14</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -33429,6 +33664,11 @@
           <t>300496.SZ; 中科创达; 76.65; 11.7%; 136837.5; 61</t>
         </is>
       </c>
+      <c r="FE7" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 359.03; 10.4%; 252246.0; 22</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -34229,6 +34469,11 @@
           <t>300748.SZ; 金力永磁; 39.88; 6.6%; 136584.5; 63</t>
         </is>
       </c>
+      <c r="FE8" t="inlineStr">
+        <is>
+          <t>300548.SZ; 长芯博创; 160.04; 18.8%; 209606.5; 35</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -35029,6 +35274,11 @@
           <t>301183.SZ; 东田微; 96.23; 20.0%; 134801.0; 64</t>
         </is>
       </c>
+      <c r="FE9" t="inlineStr">
+        <is>
+          <t>688110.SH; 东芯股份; 118; 16.4%; 206296.0; 37</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -35829,6 +36079,11 @@
           <t>300308.SZ; 中际旭创; 325.1; 3.5%; 133206.5; 68</t>
         </is>
       </c>
+      <c r="FE10" t="inlineStr">
+        <is>
+          <t>301389.SZ; 隆扬电子; 72.58; 20.0%; 194121.5; 44</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -36629,6 +36884,11 @@
           <t>300059.SZ; 东方财富; 27.21; -2.6%; 127566.5; 71</t>
         </is>
       </c>
+      <c r="FE11" t="inlineStr">
+        <is>
+          <t>300803.SZ; 指南针; 156.39; 3.0%; 188661.5; 46</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -37429,6 +37689,11 @@
           <t>300604.SZ; 长川科技; 59.59; 17.0%; 125559.5; 74</t>
         </is>
       </c>
+      <c r="FE12" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 27.96; 2.8%; 171777.5; 52</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -38229,6 +38494,11 @@
           <t>688228.SH; 开普云; 113.7; 20.0%; 121059.5; 81</t>
         </is>
       </c>
+      <c r="FE13" t="inlineStr">
+        <is>
+          <t>300324.SZ; 旋极信息; 6.84; 12.5%; 137109.5; 73</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -39029,6 +39299,11 @@
           <t>301396.SZ; 宏景科技; 83.16; 8.7%; 114708.5; 84</t>
         </is>
       </c>
+      <c r="FE14" t="inlineStr">
+        <is>
+          <t>300339.SZ; 润和软件; 68.85; 3.8%; 134122.5; 76</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -39829,6 +40104,11 @@
           <t>300432.SZ; 富临精工; 16.12; 2.5%; 113843.0; 85</t>
         </is>
       </c>
+      <c r="FE15" t="inlineStr">
+        <is>
+          <t>301526.SZ; 国际复材; 7.87; 20.0%; 132251.5; 78</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -40629,6 +40909,11 @@
           <t>300548.SZ; 长芯博创; 134.67; 12.5%; 109361.5; 90</t>
         </is>
       </c>
+      <c r="FE16" t="inlineStr">
+        <is>
+          <t>300085.SZ; 银之杰; 57.3; 9.7%; 131735.0; 80</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -41429,6 +41714,11 @@
           <t>300476.SZ; 胜宏科技; 216.57; -2.0%; 105827.0; 95</t>
         </is>
       </c>
+      <c r="FE17" t="inlineStr">
+        <is>
+          <t>688521.SH; 芯原股份; 153; 7.0%; 130824.5; 82</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -42229,6 +42519,11 @@
           <t>301389.SZ; 隆扬电子; 60.48; 20.0%; 104741.0; 97</t>
         </is>
       </c>
+      <c r="FE18" t="inlineStr">
+        <is>
+          <t>688041.SH; 海光信息; 205; 6.8%; 129847.0; 86</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -43029,6 +43324,11 @@
           <t>300433.SZ; 蓝思科技; 31.4; 3.6%; 96108.5; 110</t>
         </is>
       </c>
+      <c r="FE19" t="inlineStr">
+        <is>
+          <t>300724.SZ; 捷佳伟创; 98.77; 17.2%; 125687.5; 93</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -43829,6 +44129,11 @@
           <t>688981.SH; 中芯国际; 101.51; 0.6%; 93535.5; 114</t>
         </is>
       </c>
+      <c r="FE20" t="inlineStr">
+        <is>
+          <t>301123.SZ; 奕东电子; 47.81; 20.0%; 121000.0; 97</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -44627,6 +44932,11 @@
       <c r="FD21" t="inlineStr">
         <is>
           <t>300339.SZ; 润和软件; 66.36; -0.8%; 89605.0; 118</t>
+        </is>
+      </c>
+      <c r="FE21" t="inlineStr">
+        <is>
+          <t>301488.SZ; 豪恩汽电; 115.33; 20.0%; 112477.0; 103</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FE13"/>
+  <dimension ref="A1:FF13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,6 +1237,11 @@
       <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>2025年08月28日</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月29日</t>
         </is>
       </c>
     </row>
@@ -2386,7 +2391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FE532"/>
+  <dimension ref="A1:FF532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3193,6 +3198,11 @@
       <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>2025年08月28日</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月29日</t>
         </is>
       </c>
     </row>
@@ -8597,7 +8607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FE12"/>
+  <dimension ref="A1:FF12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9406,6 +9416,11 @@
           <t>2025年08月28日</t>
         </is>
       </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月29日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10161,6 +10176,11 @@
           <t>301568.SZ; 思泰克; 2;  10:36:39; 58; 曾涨停; 15.5%; 1.20H;  10:36:39|| 14:10:18</t>
         </is>
       </c>
+      <c r="FF2" t="inlineStr">
+        <is>
+          <t>688066.SH; 航天宏图; 1;  10:11:36; 38.72; 曾涨停; 17.9%; 0.02H;  10:11:36</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10816,6 +10836,11 @@
           <t>300049.SZ; 福瑞股份; 1;  13:05:51; 65.02; 曾涨停; 15.3%; 0.15H;  13:05:51</t>
         </is>
       </c>
+      <c r="FF3" t="inlineStr">
+        <is>
+          <t>300111.SZ; 向日葵; 1;  10:32:42; 4.61; 曾涨停; 15.8%; 0.26H;  10:32:42</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11311,6 +11336,11 @@
           <t>688561.SH; 奇安信; 1;  14:19:49; 43.52; 曾涨停; 18.0%; 0.00H;  14:19:49</t>
         </is>
       </c>
+      <c r="FF4" t="inlineStr">
+        <is>
+          <t>301075.SZ; 多瑞医药; 1;  11:18:33; 45.42; 曾涨停; 2.3%; 0.70H;  11:18:33</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11626,6 +11656,11 @@
           <t>300604.SZ; 长川科技; 9;  11:15:18; 59.59; 曾涨停; 17.0%; 0.57H;  11:15:18|| 11:19:00|| 11:19:27|| 11:22:00|| 13:16:09|| 13:16:42|| 13:37:00|| 14:43:21|| 14:44:39</t>
         </is>
       </c>
+      <c r="FF5" t="inlineStr">
+        <is>
+          <t>688411.SH; 海博思创; 1;  13:00:21; 127.77; 曾涨停; 14.0%; 0.01H;  13:00:21</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -11849,6 +11884,11 @@
       <c r="FD6" t="inlineStr">
         <is>
           <t>688220.SH; 翱捷科技; 1;  11:25:29; 110.83; 曾涨停; 8.7%; 0.34H;  11:25:29</t>
+        </is>
+      </c>
+      <c r="FF6" t="inlineStr">
+        <is>
+          <t>300972.SZ; 万辰集团; 8;  14:50:03; 211.8; 曾涨停; 20.0%; 0.09H;  14:50:03|| 14:52:06|| 14:54:33|| 14:55:27|| 14:55:33|| 14:56:00|| 14:56:12|| 14:56:21</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FE30"/>
+  <dimension ref="A1:FF30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12982,6 +13022,11 @@
           <t>2025年08月28日</t>
         </is>
       </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月29日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13782,6 +13827,11 @@
           <t>300389.SZ; 艾比森; 8;  09:43:57; 首板涨停; 14.7;  09:30:12; 20.0%; 1; 半年报增长+LED显示+海外扩张</t>
         </is>
       </c>
+      <c r="FF2" t="inlineStr">
+        <is>
+          <t>301257.SZ; 普蕊斯; 0;  09:33:30; 首板涨停; 43.54;  09:33:30; 20.0%; 1; SMO复苏+创新药+订单增长</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14562,6 +14612,11 @@
           <t>300797.SZ; 钢研纳克; 0;  10:19:15; 首板涨停; 18.6;  10:19:15; 20.0%; 1; 金属材料检测+稀土永磁+央企</t>
         </is>
       </c>
+      <c r="FF3" t="inlineStr">
+        <is>
+          <t>301177.SZ; 迪阿股份; 0;  09:45:12; 首板涨停; 35.12;  09:45:12; 20.0%; 1; 半年报增长+黄金+IP经济</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -15302,6 +15357,11 @@
           <t>301526.SZ; 国际复材; 0;  10:23:54; 首板涨停; 7.87;  10:23:54; 20.0%; 1; 中报扭亏+电子级玻璃纤维+云南国资</t>
         </is>
       </c>
+      <c r="FF4" t="inlineStr">
+        <is>
+          <t>688006.SH; 杭可科技; 0;  09:56:11; 首板涨停; 25.74;  09:56:11; 20.0%; 1; 半年报增长+固态电池+动力电池回收</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -15977,6 +16037,11 @@
           <t>831906.BJ; 舜宇精工; 0;  11:15:05; 首板涨停; 30.09;  11:15:05; 30.0%; 1; 半年报大增+汽车零部件+智能座舱</t>
         </is>
       </c>
+      <c r="FF5" t="inlineStr">
+        <is>
+          <t>873223.BJ; 荣亿精密; 1;  10:12:55; 首板涨停; 21.78;  10:03:16; 30.0%; 1; 液冷服务器+精密零部件+新能源+半年报增长</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -16597,6 +16662,11 @@
           <t>300394.SZ; 天孚通信; 3;  13:45:51; 首板涨停; 180.01;  10:47:54; 20.0%; 1; 半年报增长+CPO+光器件+泰国产能</t>
         </is>
       </c>
+      <c r="FF6" t="inlineStr">
+        <is>
+          <t>300450.SZ; 先导智能; 1;  10:21:15; 首板涨停; 35.51;  10:11:12; 20.0%; 1; 固态电池+PCB设备+半年报增长</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -17117,6 +17187,11 @@
           <t>688668.SH; 鼎通科技; 0;  14:03:55; 首板涨停; 127.36;  14:03:55; 20.0%; 1; 铜缆高速连接+液冷服务器+半年报增长</t>
         </is>
       </c>
+      <c r="FF7" t="inlineStr">
+        <is>
+          <t>301326.SZ; 捷邦科技; 0;  10:51:48; 首板涨停; 128.22;  10:51:48; 20.0%; 1; 消费电子+碳纳米管+液冷散热+固态电池</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -17567,6 +17642,11 @@
           <t>301123.SZ; 奕东电子; 0;  14:12:36; 首板涨停; 47.81;  14:12:36; 20.0%; 1; FPC+铜缆连接器+锂电+新产线投产</t>
         </is>
       </c>
+      <c r="FF8" t="inlineStr">
+        <is>
+          <t>300955.SZ; 嘉亨家化; 1;  11:15:42; 首板涨停; 31.85;  09:38:54; 20.0%; 1; 日化产品+驱蚊+三胎概念+塑料包装</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -17915,6 +17995,11 @@
       <c r="FE9" t="inlineStr">
         <is>
           <t>300491.SZ; 通合科技; 4;  14:40:48; 首板涨停; 36.5;  14:32:00; 20.0%; 1; 营收增长+新能源重卡+HVDC+航空航天</t>
+        </is>
+      </c>
+      <c r="FF9" t="inlineStr">
+        <is>
+          <t>301378.SZ; 通达海; 10;  14:56:51; 首板涨停; 38.5;  10:01:30; 20.0%; 1; 智慧法院+AI+数字货币+增资子公司</t>
         </is>
       </c>
     </row>
@@ -19264,7 +19349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FE178"/>
+  <dimension ref="A1:FF178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20073,6 +20158,11 @@
           <t>2025年08月28日</t>
         </is>
       </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月29日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -20848,6 +20938,11 @@
           <t>301389.SZ; 隆扬电子; 5.8%; 27.3%; 72.58; 20.0%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="FF2" t="inlineStr">
+        <is>
+          <t>301489.SZ; 思泉新材; 2.5%; 13.4%; 208; 10.6%; 强中选强||阳线||缩量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -21583,6 +21678,11 @@
           <t>835670.BJ; 数字人; 4.2%; 13.3%; 18.7; 8.5%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="FF3" t="inlineStr">
+        <is>
+          <t>688228.SH; 开普云; 2.0%; 18.8%; 153.8; 16.5%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -22253,6 +22353,11 @@
           <t>300843.SZ; 胜蓝股份; 4.0%; 22.2%; 64.9; 17.3%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="FF4" t="inlineStr">
+        <is>
+          <t>301378.SZ; 通达海; 1.0%; 21.3%; 38.5; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -22843,6 +22948,11 @@
           <t>688011.SH; 新光光电; 2.5%; 12.3%; 47.16; 9.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FF5" t="inlineStr">
+        <is>
+          <t>301662.SZ; 宏工科技; 1.0%; 12.3%; 111.66; 11.2%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -23373,6 +23483,11 @@
           <t>300570.SZ; 太辰光; 2.3%; 12.4%; 136.24; 9.8%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FF6" t="inlineStr">
+        <is>
+          <t>688066.SH; 航天宏图; 1.0%; 19.1%; 38.72; 17.9%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -23863,6 +23978,11 @@
           <t>300502.SZ; 新易盛; 2.1%; 17.6%; 354.95; 15.1%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="FF7" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 0.7%; 20.8%; 182.16; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -24276,6 +24396,11 @@
       <c r="FE8" t="inlineStr">
         <is>
           <t>688502.SH; 茂莱光学; 1.9%; 15.9%; 475.34; 13.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="FF8" t="inlineStr">
+        <is>
+          <t>301529.SZ; 福赛科技; 0.5%; 13.5%; 82.86; 12.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -28030,7 +28155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FE21"/>
+  <dimension ref="A1:FF21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28839,6 +28964,11 @@
           <t>2025年08月28日</t>
         </is>
       </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2025年08月29日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -29644,6 +29774,11 @@
           <t>688256.SH; 寒武纪; 1587.91; 15.7%; 1199803.0; 1</t>
         </is>
       </c>
+      <c r="FF2" t="inlineStr">
+        <is>
+          <t>688256.SH; 寒武纪; 1492.49; -6.0%; 405512.5; 7</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -30449,6 +30584,11 @@
           <t>688981.SH; 中芯国际; 119.22; 17.4%; 551569.5; 7</t>
         </is>
       </c>
+      <c r="FF3" t="inlineStr">
+        <is>
+          <t>688981.SH; 中芯国际; 114.76; -3.7%; 319427.0; 11</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -31254,6 +31394,11 @@
           <t>300502.SZ; 新易盛; 354.95; 15.1%; 424723.5; 9</t>
         </is>
       </c>
+      <c r="FF4" t="inlineStr">
+        <is>
+          <t>300750.SZ; 宁德时代; 306.18; 10.4%; 276290.0; 13</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -32059,6 +32204,11 @@
           <t>300394.SZ; 天孚通信; 180.01; 20.0%; 403697.5; 11</t>
         </is>
       </c>
+      <c r="FF5" t="inlineStr">
+        <is>
+          <t>300450.SZ; 先导智能; 35.51; 20.0%; 241288.0; 18</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -32864,6 +33014,11 @@
           <t>300476.SZ; 胜宏科技; 259; 19.6%; 357478.0; 14</t>
         </is>
       </c>
+      <c r="FF6" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 28.91; 3.4%; 187385.0; 27</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -33669,6 +33824,11 @@
           <t>300308.SZ; 中际旭创; 359.03; 10.4%; 252246.0; 22</t>
         </is>
       </c>
+      <c r="FF7" t="inlineStr">
+        <is>
+          <t>300394.SZ; 天孚通信; 198.53; 10.3%; 153725.0; 34</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -34474,6 +34634,11 @@
           <t>300548.SZ; 长芯博创; 160.04; 18.8%; 209606.5; 35</t>
         </is>
       </c>
+      <c r="FF8" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 182.16; 20.0%; 153231.0; 36</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -35279,6 +35444,11 @@
           <t>688110.SH; 东芯股份; 118; 16.4%; 206296.0; 37</t>
         </is>
       </c>
+      <c r="FF9" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 356.2; 0.4%; 151977.5; 38</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -36084,6 +36254,11 @@
           <t>301389.SZ; 隆扬电子; 72.58; 20.0%; 194121.5; 44</t>
         </is>
       </c>
+      <c r="FF10" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 267.29; 3.2%; 145148.0; 43</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -36889,6 +37064,11 @@
           <t>300803.SZ; 指南针; 156.39; 3.0%; 188661.5; 46</t>
         </is>
       </c>
+      <c r="FF11" t="inlineStr">
+        <is>
+          <t>300368.SZ; 汇金股份; 16.55; 6.4%; 114835.5; 58</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -37694,6 +37874,11 @@
           <t>300059.SZ; 东方财富; 27.96; 2.8%; 171777.5; 52</t>
         </is>
       </c>
+      <c r="FF12" t="inlineStr">
+        <is>
+          <t>300972.SZ; 万辰集团; 211.8; 20.0%; 114254.0; 59</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -38499,6 +38684,11 @@
           <t>300324.SZ; 旋极信息; 6.84; 12.5%; 137109.5; 73</t>
         </is>
       </c>
+      <c r="FF13" t="inlineStr">
+        <is>
+          <t>688008.SH; 澜起科技; 122.9; 4.6%; 113528.0; 62</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -39304,6 +39494,11 @@
           <t>300339.SZ; 润和软件; 68.85; 3.8%; 134122.5; 76</t>
         </is>
       </c>
+      <c r="FF14" t="inlineStr">
+        <is>
+          <t>300803.SZ; 指南针; 150.05; -4.1%; 100730.5; 78</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -40109,6 +40304,11 @@
           <t>301526.SZ; 国际复材; 7.87; 20.0%; 132251.5; 78</t>
         </is>
       </c>
+      <c r="FF15" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 354.92; -1.1%; 97351.5; 84</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -40914,6 +41114,11 @@
           <t>300085.SZ; 银之杰; 57.3; 9.7%; 131735.0; 80</t>
         </is>
       </c>
+      <c r="FF16" t="inlineStr">
+        <is>
+          <t>301378.SZ; 通达海; 38.5; 20.0%; 96686.5; 86</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -41719,6 +41924,11 @@
           <t>688521.SH; 芯原股份; 153; 7.0%; 130824.5; 82</t>
         </is>
       </c>
+      <c r="FF17" t="inlineStr">
+        <is>
+          <t>300548.SZ; 长芯博创; 141.53; -11.6%; 89132.5; 99</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -42524,6 +42734,11 @@
           <t>688041.SH; 海光信息; 205; 6.8%; 129847.0; 86</t>
         </is>
       </c>
+      <c r="FF18" t="inlineStr">
+        <is>
+          <t>300378.SZ; 鼎捷数智; 52.62; -9.3%; 78454.5; 117</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -43329,6 +43544,11 @@
           <t>300724.SZ; 捷佳伟创; 98.77; 17.2%; 125687.5; 93</t>
         </is>
       </c>
+      <c r="FF19" t="inlineStr">
+        <is>
+          <t>300035.SZ; 中科电气; 21.2; 14.6%; 76551.0; 121</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -44134,6 +44354,11 @@
           <t>301123.SZ; 奕东电子; 47.81; 20.0%; 121000.0; 97</t>
         </is>
       </c>
+      <c r="FF20" t="inlineStr">
+        <is>
+          <t>300014.SZ; 亿纬锂能; 57.19; 6.8%; 74425.5; 129</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -44937,6 +45162,11 @@
       <c r="FE21" t="inlineStr">
         <is>
           <t>301488.SZ; 豪恩汽电; 115.33; 20.0%; 112477.0; 103</t>
+        </is>
+      </c>
+      <c r="FF21" t="inlineStr">
+        <is>
+          <t>688235.SH; 百济神州; 278; 12.6%; 69514.5; 137</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FF13"/>
+  <dimension ref="A1:FG13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1244,6 +1244,11 @@
           <t>2025年08月29日</t>
         </is>
       </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年09月01日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1757,6 +1762,11 @@
       <c r="FE2" t="inlineStr">
         <is>
           <t>301488.SZ; 豪恩汽电; 0;  09:34:39; 2天2板; 115.33;  09:34:39; 20.0%; 2; 人形机器人+英伟达合作+感知系统+半年报增长</t>
+        </is>
+      </c>
+      <c r="FG2" t="inlineStr">
+        <is>
+          <t>873223.BJ; 荣亿精密; 0;  14:34:08; 2天2板; 28.31;  14:34:08; 30.0%; 2; 液冷服务器+精密零部件+新能源+半年报增长</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FF532"/>
+  <dimension ref="A1:FG532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3203,6 +3213,11 @@
       <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>2025年08月29日</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年09月01日</t>
         </is>
       </c>
     </row>
@@ -8607,7 +8622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FF12"/>
+  <dimension ref="A1:FG12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9421,6 +9436,11 @@
           <t>2025年08月29日</t>
         </is>
       </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年09月01日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10181,6 +10201,11 @@
           <t>688066.SH; 航天宏图; 1;  10:11:36; 38.72; 曾涨停; 17.9%; 0.02H;  10:11:36</t>
         </is>
       </c>
+      <c r="FG2" t="inlineStr">
+        <is>
+          <t>688591.SH; 泰凌微; 1;  09:25:03; 58.47; 曾涨停; 10.6%; 0.01H;  09:25:03</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10839,6 +10864,11 @@
       <c r="FF3" t="inlineStr">
         <is>
           <t>300111.SZ; 向日葵; 1;  10:32:42; 4.61; 曾涨停; 15.8%; 0.26H;  10:32:42</t>
+        </is>
+      </c>
+      <c r="FG3" t="inlineStr">
+        <is>
+          <t>688006.SH; 杭可科技; 1;  10:06:26; 30.15; 曾涨停; 17.1%; 1.39H;  10:06:26</t>
         </is>
       </c>
     </row>
@@ -12213,7 +12243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FF30"/>
+  <dimension ref="A1:FG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13027,6 +13057,11 @@
           <t>2025年08月29日</t>
         </is>
       </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年09月01日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13832,6 +13867,11 @@
           <t>301257.SZ; 普蕊斯; 0;  09:33:30; 首板涨停; 43.54;  09:33:30; 20.0%; 1; SMO复苏+创新药+订单增长</t>
         </is>
       </c>
+      <c r="FG2" t="inlineStr">
+        <is>
+          <t>688135.SH; 利扬芯片; 0;  09:30:01; 首板涨停; 28.56;  09:30:01; 20.0%; 1; 集成电路测试+AI芯片+无人驾驶+阿里巴巴概念</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14617,6 +14657,11 @@
           <t>301177.SZ; 迪阿股份; 0;  09:45:12; 首板涨停; 35.12;  09:45:12; 20.0%; 1; 半年报增长+黄金+IP经济</t>
         </is>
       </c>
+      <c r="FG3" t="inlineStr">
+        <is>
+          <t>301193.SZ; 家联科技; 0;  09:36:27; 首板涨停; 24.48;  09:36:27; 20.0%; 1; 3D打印+可降解塑料+全球智造</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -15362,6 +15407,11 @@
           <t>688006.SH; 杭可科技; 0;  09:56:11; 首板涨停; 25.74;  09:56:11; 20.0%; 1; 半年报增长+固态电池+动力电池回收</t>
         </is>
       </c>
+      <c r="FG4" t="inlineStr">
+        <is>
+          <t>688203.SH; 海正生材; 0;  09:38:38; 首板涨停; 16.66;  09:38:38; 20.0%; 1; 3D打印+可降解塑料+国企</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -16042,6 +16092,11 @@
           <t>873223.BJ; 荣亿精密; 1;  10:12:55; 首板涨停; 21.78;  10:03:16; 30.0%; 1; 液冷服务器+精密零部件+新能源+半年报增长</t>
         </is>
       </c>
+      <c r="FG5" t="inlineStr">
+        <is>
+          <t>301031.SZ; 中熔电气; 0;  09:44:15; 首板涨停; 111.72;  09:44:15; 20.0%; 1; 熔断器龙头+储能+数据中心</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -16667,6 +16722,11 @@
           <t>300450.SZ; 先导智能; 1;  10:21:15; 首板涨停; 35.51;  10:11:12; 20.0%; 1; 固态电池+PCB设备+半年报增长</t>
         </is>
       </c>
+      <c r="FG6" t="inlineStr">
+        <is>
+          <t>837174.BJ; 宏裕包材; 1;  10:11:05; 首板涨停; 28.65;  10:09:50; 30.0%; 1; 半年报增长+绿色包装+宜昌国资</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -17192,6 +17252,11 @@
           <t>301326.SZ; 捷邦科技; 0;  10:51:48; 首板涨停; 128.22;  10:51:48; 20.0%; 1; 消费电子+碳纳米管+液冷散热+固态电池</t>
         </is>
       </c>
+      <c r="FG7" t="inlineStr">
+        <is>
+          <t>300237.SZ; 美晨科技; 0;  10:27:51; 首板涨停; 3.34;  10:27:51; 20.1%; 1; 战略重组+汽车热管理+汽车橡胶+国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -17647,6 +17712,11 @@
           <t>300955.SZ; 嘉亨家化; 1;  11:15:42; 首板涨停; 31.85;  09:38:54; 20.0%; 1; 日化产品+驱蚊+三胎概念+塑料包装</t>
         </is>
       </c>
+      <c r="FG8" t="inlineStr">
+        <is>
+          <t>300324.SZ; 旋极信息; 4;  10:30:27; 首板涨停; 7.72;  09:34:18; 20.1%; 1; AI大模型推理芯片+国防军工</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -18002,6 +18072,11 @@
           <t>301378.SZ; 通达海; 10;  14:56:51; 首板涨停; 38.5;  10:01:30; 20.0%; 1; 智慧法院+AI+数字货币+增资子公司</t>
         </is>
       </c>
+      <c r="FG9" t="inlineStr">
+        <is>
+          <t>688498.SH; 源杰科技; 4;  11:21:37; 首板涨停; 358.8;  11:18:07; 20.0%; 1; 半年报增长+光芯片+数据中心+车载激光雷达</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -18267,6 +18342,11 @@
           <t>300503.SZ; 昊志机电; 11;  14:48:21; 首板涨停; 33.54;  09:40:27; 20.0%; 1; 人形机器人+谐波减速器+电主轴</t>
         </is>
       </c>
+      <c r="FG10" t="inlineStr">
+        <is>
+          <t>300950.SZ; 德固特; 27;  11:27:42; 首板涨停; 35.94;  09:31:30; 20.0%; 1; 并购重组+股权转让+AI智能体+节能环保</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -18482,6 +18562,11 @@
           <t>836263.BJ; 中航泰达; 2;  14:54:49; 首板涨停; 20.37;  10:26:16; 30.0%; 1; 机器人研发+稀土永磁+节能减排</t>
         </is>
       </c>
+      <c r="FG11" t="inlineStr">
+        <is>
+          <t>300486.SZ; 东杰智能; 1;  13:04:18; 首板涨停; 24.14;  11:02:57; 20.0%; 1; 实控人变更+智能物流+扭亏+机器人</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -18637,6 +18722,11 @@
           <t>688256.SH; 寒武纪; 0;  14:35:52; 首板涨停; 1243.2;  14:35:52; 20.0%; 1; AI芯片+定增获批+一季报增长</t>
         </is>
       </c>
+      <c r="FG12" t="inlineStr">
+        <is>
+          <t>688195.SH; 腾景科技; 0;  13:25:44; 首板涨停; 85.5;  13:25:44; 20.0%; 1; CPO+半导体设备+半年报增长</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -18752,6 +18842,11 @@
           <t>688709.SH; 成都华微; 0;  14:52:59; 首板涨停; 47.04;  14:52:59; 20.0%; 1; AI芯片+脑机接口+机器人概念+国企改革</t>
         </is>
       </c>
+      <c r="FG13" t="inlineStr">
+        <is>
+          <t>688062.SH; 迈威生物; 34;  13:49:46; 首板涨停; 57.6;  09:47:25; 20.0%; 1; 创新药+ADC出海+H股申请</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -18850,6 +18945,11 @@
       <c r="FA14" t="inlineStr">
         <is>
           <t>300767.SZ; 震安科技; 5;  14:54:57; 首板涨停; 25.34;  13:50:18; 20.0%; 1; 深圳东创入主+地震安全</t>
+        </is>
+      </c>
+      <c r="FG14" t="inlineStr">
+        <is>
+          <t>300465.SZ; 高伟达; 1;  14:12:15; 首板涨停; 28.1;  10:23:45; 20.0%; 1; 数字货币+AI信贷+半年报增长</t>
         </is>
       </c>
     </row>
@@ -19349,7 +19449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FF178"/>
+  <dimension ref="A1:FG178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20163,6 +20263,11 @@
           <t>2025年08月29日</t>
         </is>
       </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年09月01日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -20943,6 +21048,11 @@
           <t>301489.SZ; 思泉新材; 2.5%; 13.4%; 208; 10.6%; 强中选强||阳线||缩量</t>
         </is>
       </c>
+      <c r="FG2" t="inlineStr">
+        <is>
+          <t>831906.BJ; 舜宇精工; 2.9%; 12.3%; 33.02; 9.0%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -21683,6 +21793,11 @@
           <t>688228.SH; 开普云; 2.0%; 18.8%; 153.8; 16.5%; 强中选强||阳线||放量</t>
         </is>
       </c>
+      <c r="FG3" t="inlineStr">
+        <is>
+          <t>300584.SZ; 海辰药业; 2.7%; 15.4%; 63.88; 12.3%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -22358,6 +22473,11 @@
           <t>301378.SZ; 通达海; 1.0%; 21.3%; 38.5; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FG4" t="inlineStr">
+        <is>
+          <t>300723.SZ; 一品红; 1.5%; 12.6%; 73.63; 10.9%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -22953,6 +23073,11 @@
           <t>301662.SZ; 宏工科技; 1.0%; 12.3%; 111.66; 11.2%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FG5" t="inlineStr">
+        <is>
+          <t>300573.SZ; 兴齐眼药; 1.4%; 16.3%; 77.54; 14.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -23488,6 +23613,11 @@
           <t>688066.SH; 航天宏图; 1.0%; 19.1%; 38.72; 17.9%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="FG6" t="inlineStr">
+        <is>
+          <t>833580.BJ; 科创新材; 0.9%; 18.5%; 17.19; 17.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -23983,6 +24113,11 @@
           <t>301357.SZ; 北方长龙; 0.7%; 20.8%; 182.16; 20.0%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FG7" t="inlineStr">
+        <is>
+          <t>837174.BJ; 宏裕包材; 0.8%; 31.0%; 28.65; 30.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -24403,6 +24538,11 @@
           <t>301529.SZ; 福赛科技; 0.5%; 13.5%; 82.86; 12.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FG8" t="inlineStr">
+        <is>
+          <t>871553.BJ; 凯腾精工; 0.7%; 18.0%; 13.33; 17.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -24748,6 +24888,11 @@
           <t>301018.SZ; 申菱环境; 1.9%; 14.4%; 77.88; 12.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FG9" t="inlineStr">
+        <is>
+          <t>300389.SZ; 艾比森; 0.6%; 15.1%; 18.05; 14.4%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -25048,6 +25193,11 @@
           <t>688183.SH; 生益电子; 1.8%; 14.1%; 79.6; 12.1%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="FG10" t="inlineStr">
+        <is>
+          <t>688195.SH; 腾景科技; 0.6%; 20.7%; 85.5; 20.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -25296,6 +25446,11 @@
       <c r="FE11" t="inlineStr">
         <is>
           <t>688318.SH; 财富趋势; 1.6%; 12.6%; 180.13; 10.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="FG11" t="inlineStr">
+        <is>
+          <t>300394.SZ; 天孚通信; 0.3%; 12.2%; 222.16; 11.9%; 强中选强||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -28155,7 +28310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FF21"/>
+  <dimension ref="A1:FG21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28969,6 +29124,11 @@
           <t>2025年08月29日</t>
         </is>
       </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2025年09月01日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -29779,6 +29939,11 @@
           <t>688256.SH; 寒武纪; 1492.49; -6.0%; 405512.5; 7</t>
         </is>
       </c>
+      <c r="FG2" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 406.1; 14.4%; 397685.5; 9</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -30589,6 +30754,11 @@
           <t>688981.SH; 中芯国际; 114.76; -3.7%; 319427.0; 11</t>
         </is>
       </c>
+      <c r="FG3" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 388.5; 9.1%; 360210.5; 10</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -31399,6 +31569,11 @@
           <t>300750.SZ; 宁德时代; 306.18; 10.4%; 276290.0; 13</t>
         </is>
       </c>
+      <c r="FG4" t="inlineStr">
+        <is>
+          <t>688256.SH; 寒武纪; 1448.39; -3.0%; 318792.5; 12</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -32209,6 +32384,11 @@
           <t>300450.SZ; 先导智能; 35.51; 20.0%; 241288.0; 18</t>
         </is>
       </c>
+      <c r="FG5" t="inlineStr">
+        <is>
+          <t>300324.SZ; 旋极信息; 7.72; 20.1%; 268317.5; 21</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -33019,6 +33199,11 @@
           <t>300059.SZ; 东方财富; 28.91; 3.4%; 187385.0; 27</t>
         </is>
       </c>
+      <c r="FG6" t="inlineStr">
+        <is>
+          <t>300394.SZ; 天孚通信; 222.16; 11.9%; 233076.5; 26</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -33829,6 +34014,11 @@
           <t>300394.SZ; 天孚通信; 198.53; 10.3%; 153725.0; 34</t>
         </is>
       </c>
+      <c r="FG7" t="inlineStr">
+        <is>
+          <t>300465.SZ; 高伟达; 28.1; 20.0%; 210738.0; 31</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -34639,6 +34829,11 @@
           <t>301357.SZ; 北方长龙; 182.16; 20.0%; 153231.0; 36</t>
         </is>
       </c>
+      <c r="FG8" t="inlineStr">
+        <is>
+          <t>300450.SZ; 先导智能; 40.7; 14.6%; 195420.0; 33</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -35449,6 +35644,11 @@
           <t>300502.SZ; 新易盛; 356.2; 0.4%; 151977.5; 38</t>
         </is>
       </c>
+      <c r="FG9" t="inlineStr">
+        <is>
+          <t>300458.SZ; 全志科技; 52.5; 12.1%; 153533.0; 50</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -36259,6 +36459,11 @@
           <t>300476.SZ; 胜宏科技; 267.29; 3.2%; 145148.0; 43</t>
         </is>
       </c>
+      <c r="FG10" t="inlineStr">
+        <is>
+          <t>300237.SZ; 美晨科技; 3.34; 20.1%; 146081.0; 57</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -37069,6 +37274,11 @@
           <t>300368.SZ; 汇金股份; 16.55; 6.4%; 114835.5; 58</t>
         </is>
       </c>
+      <c r="FG11" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 28.69; -0.8%; 125389.5; 69</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -37879,6 +38089,11 @@
           <t>300972.SZ; 万辰集团; 211.8; 20.0%; 114254.0; 59</t>
         </is>
       </c>
+      <c r="FG12" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 270.37; 1.2%; 124728.0; 70</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -38689,6 +38904,11 @@
           <t>688008.SH; 澜起科技; 122.9; 4.6%; 113528.0; 62</t>
         </is>
       </c>
+      <c r="FG13" t="inlineStr">
+        <is>
+          <t>300486.SZ; 东杰智能; 24.14; 20.0%; 114394.0; 80</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -39499,6 +39719,11 @@
           <t>300803.SZ; 指南针; 150.05; -4.1%; 100730.5; 78</t>
         </is>
       </c>
+      <c r="FG14" t="inlineStr">
+        <is>
+          <t>300620.SZ; 光库科技; 110.56; 14.0%; 103045.0; 97</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -40309,6 +40534,11 @@
           <t>300308.SZ; 中际旭创; 354.92; -1.1%; 97351.5; 84</t>
         </is>
       </c>
+      <c r="FG15" t="inlineStr">
+        <is>
+          <t>300331.SZ; 苏大维格; 27.84; 8.4%; 100860.5; 99</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -41119,6 +41349,11 @@
           <t>301378.SZ; 通达海; 38.5; 20.0%; 96686.5; 86</t>
         </is>
       </c>
+      <c r="FG16" t="inlineStr">
+        <is>
+          <t>688041.SH; 海光信息; 208.96; 7.4%; 99157.5; 100</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -41929,6 +42164,11 @@
           <t>300548.SZ; 长芯博创; 141.53; -11.6%; 89132.5; 99</t>
         </is>
       </c>
+      <c r="FG17" t="inlineStr">
+        <is>
+          <t>301165.SZ; 锐捷网络; 103.61; 16.0%; 94575.0; 103</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -42739,6 +42979,11 @@
           <t>300378.SZ; 鼎捷数智; 52.62; -9.3%; 78454.5; 117</t>
         </is>
       </c>
+      <c r="FG18" t="inlineStr">
+        <is>
+          <t>300433.SZ; 蓝思科技; 32.34; 4.0%; 89110.0; 112</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -43549,6 +43794,11 @@
           <t>300035.SZ; 中科电气; 21.2; 14.6%; 76551.0; 121</t>
         </is>
       </c>
+      <c r="FG19" t="inlineStr">
+        <is>
+          <t>300750.SZ; 宁德时代; 304; -0.7%; 87590.0; 115</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -44359,6 +44609,11 @@
           <t>300014.SZ; 亿纬锂能; 57.19; 6.8%; 74425.5; 129</t>
         </is>
       </c>
+      <c r="FG20" t="inlineStr">
+        <is>
+          <t>300724.SZ; 捷佳伟创; 108.12; 9.5%; 85642.0; 117</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -45167,6 +45422,11 @@
       <c r="FF21" t="inlineStr">
         <is>
           <t>688235.SH; 百济神州; 278; 12.6%; 69514.5; 137</t>
+        </is>
+      </c>
+      <c r="FG21" t="inlineStr">
+        <is>
+          <t>300139.SZ; 晓程科技; 22.38; 13.4%; 84837.0; 120</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FG13"/>
+  <dimension ref="A1:FH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1249,6 +1249,11 @@
           <t>2025年09月01日</t>
         </is>
       </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年09月02日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1767,6 +1772,11 @@
       <c r="FG2" t="inlineStr">
         <is>
           <t>873223.BJ; 荣亿精密; 0;  14:34:08; 2天2板; 28.31;  14:34:08; 30.0%; 2; 液冷服务器+精密零部件+新能源+半年报增长</t>
+        </is>
+      </c>
+      <c r="FH2" t="inlineStr">
+        <is>
+          <t>837174.BJ; 宏裕包材; 1;  11:23:13; 2天2板; 37.24;  10:55:34; 30.0%; 2; 半年报增长+绿色包装+宜昌国资</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FG532"/>
+  <dimension ref="A1:FH532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3218,6 +3228,11 @@
       <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>2025年09月01日</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年09月02日</t>
         </is>
       </c>
     </row>
@@ -8622,7 +8637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FG12"/>
+  <dimension ref="A1:FH12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9441,6 +9456,11 @@
           <t>2025年09月01日</t>
         </is>
       </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年09月02日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10206,6 +10226,11 @@
           <t>688591.SH; 泰凌微; 1;  09:25:03; 58.47; 曾涨停; 10.6%; 0.01H;  09:25:03</t>
         </is>
       </c>
+      <c r="FH2" t="inlineStr">
+        <is>
+          <t>831906.BJ; 舜宇精工; 4;  13:32:01; 40; 曾涨停; 21.1%; 1.23H;  13:32:01|| 13:39:31|| 14:44:25|| 14:46:19</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10871,6 +10896,11 @@
           <t>688006.SH; 杭可科技; 1;  10:06:26; 30.15; 曾涨停; 17.1%; 1.39H;  10:06:26</t>
         </is>
       </c>
+      <c r="FH3" t="inlineStr">
+        <is>
+          <t>301529.SZ; 福赛科技; 2;  13:33:03; 92.11; 曾涨停; 14.3%; 0.58H;  13:33:03|| 13:39:42</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11371,6 +11401,11 @@
           <t>301075.SZ; 多瑞医药; 1;  11:18:33; 45.42; 曾涨停; 2.3%; 0.70H;  11:18:33</t>
         </is>
       </c>
+      <c r="FH4" t="inlineStr">
+        <is>
+          <t>301550.SZ; 斯菱股份; 1;  13:35:15; 112.82; 曾涨停; 11.3%; 0.01H;  13:35:15</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11691,6 +11726,11 @@
           <t>688411.SH; 海博思创; 1;  13:00:21; 127.77; 曾涨停; 14.0%; 0.01H;  13:00:21</t>
         </is>
       </c>
+      <c r="FH5" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 4;  13:37:51; 97.6; 曾涨停; 14.7%; 0.61H;  13:37:51|| 13:38:24|| 13:39:09|| 13:41:57</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -11919,6 +11959,11 @@
       <c r="FF6" t="inlineStr">
         <is>
           <t>300972.SZ; 万辰集团; 8;  14:50:03; 211.8; 曾涨停; 20.0%; 0.09H;  14:50:03|| 14:52:06|| 14:54:33|| 14:55:27|| 14:55:33|| 14:56:00|| 14:56:12|| 14:56:21</t>
+        </is>
+      </c>
+      <c r="FH6" t="inlineStr">
+        <is>
+          <t>301413.SZ; 安培龙; 1;  13:42:45; 136; 曾涨停; 13.4%; 0.01H;  13:42:45</t>
         </is>
       </c>
     </row>
@@ -12243,7 +12288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FG30"/>
+  <dimension ref="A1:FH30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13062,6 +13107,11 @@
           <t>2025年09月01日</t>
         </is>
       </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年09月02日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13872,6 +13922,11 @@
           <t>688135.SH; 利扬芯片; 0;  09:30:01; 首板涨停; 28.56;  09:30:01; 20.0%; 1; 集成电路测试+AI芯片+无人驾驶+阿里巴巴概念</t>
         </is>
       </c>
+      <c r="FH2" t="inlineStr">
+        <is>
+          <t>300092.SZ; 科新机电; 0;  10:32:12; 首板涨停; 16.34;  10:32:12; 20.0%; 1; 核电军工+压力容器+半年报披露</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14660,6 +14715,11 @@
       <c r="FG3" t="inlineStr">
         <is>
           <t>301193.SZ; 家联科技; 0;  09:36:27; 首板涨停; 24.48;  09:36:27; 20.0%; 1; 3D打印+可降解塑料+全球智造</t>
+        </is>
+      </c>
+      <c r="FH3" t="inlineStr">
+        <is>
+          <t>838670.BJ; 恒进感应; 1;  10:52:37; 首板涨停; 24.79;  10:24:49; 30.0%; 1; 半年报增长+机床工具+专精特新</t>
         </is>
       </c>
     </row>
@@ -19449,7 +19509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FG178"/>
+  <dimension ref="A1:FH178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20268,6 +20328,11 @@
           <t>2025年09月01日</t>
         </is>
       </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年09月02日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -21053,6 +21118,11 @@
           <t>831906.BJ; 舜宇精工; 2.9%; 12.3%; 33.02; 9.0%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="FH2" t="inlineStr">
+        <is>
+          <t>831906.BJ; 舜宇精工; 5.0%; 27.6%; 40; 21.1%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -21798,6 +21868,11 @@
           <t>300584.SZ; 海辰药业; 2.7%; 15.4%; 63.88; 12.3%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="FH3" t="inlineStr">
+        <is>
+          <t>430556.BJ; 雅达股份; 4.7%; 12.8%; 13.99; 7.5%; 阳线||放量||价升量缩</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -22478,6 +22553,11 @@
           <t>300723.SZ; 一品红; 1.5%; 12.6%; 73.63; 10.9%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FH4" t="inlineStr">
+        <is>
+          <t>301413.SZ; 安培龙; 2.3%; 16.1%; 136; 13.4%; 价升量涨||强中选强||阳线</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -23078,6 +23158,11 @@
           <t>300573.SZ; 兴齐眼药; 1.4%; 16.3%; 77.54; 14.7%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FH5" t="inlineStr">
+        <is>
+          <t>300530.SZ; 领湃科技; 0.5%; 12.9%; 40.53; 12.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -23616,6 +23701,11 @@
       <c r="FG6" t="inlineStr">
         <is>
           <t>833580.BJ; 科创新材; 0.9%; 18.5%; 17.19; 17.4%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="FH6" t="inlineStr">
+        <is>
+          <t>300953.SZ; 震裕科技; 0.0%; 14.5%; 160.12; 14.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -28310,7 +28400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FG21"/>
+  <dimension ref="A1:FH21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29129,6 +29219,11 @@
           <t>2025年09月01日</t>
         </is>
       </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2025年09月02日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -29944,6 +30039,11 @@
           <t>300308.SZ; 中际旭创; 406.1; 14.4%; 397685.5; 9</t>
         </is>
       </c>
+      <c r="FH2" t="inlineStr">
+        <is>
+          <t>688256.SH; 寒武纪; 1480; 2.2%; 281653.5; 22</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -30759,6 +30859,11 @@
           <t>300502.SZ; 新易盛; 388.5; 9.1%; 360210.5; 10</t>
         </is>
       </c>
+      <c r="FH3" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 358.2; -7.8%; 259779.0; 23</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -31574,6 +31679,11 @@
           <t>688256.SH; 寒武纪; 1448.39; -3.0%; 318792.5; 12</t>
         </is>
       </c>
+      <c r="FH4" t="inlineStr">
+        <is>
+          <t>300450.SZ; 先导智能; 43.8; 7.6%; 195675.5; 38</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -32389,6 +32499,11 @@
           <t>300324.SZ; 旋极信息; 7.72; 20.1%; 268317.5; 21</t>
         </is>
       </c>
+      <c r="FH5" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 384; -5.4%; 164752.5; 49</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -33204,6 +33319,11 @@
           <t>300394.SZ; 天孚通信; 222.16; 11.9%; 233076.5; 26</t>
         </is>
       </c>
+      <c r="FH6" t="inlineStr">
+        <is>
+          <t>300007.SZ; 汉威科技; 51.95; 11.5%; 158175.0; 54</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -34019,6 +34139,11 @@
           <t>300465.SZ; 高伟达; 28.1; 20.0%; 210738.0; 31</t>
         </is>
       </c>
+      <c r="FH7" t="inlineStr">
+        <is>
+          <t>688585.SH; 上纬新材; 97.6; 14.7%; 155092.0; 55</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -34834,6 +34959,11 @@
           <t>300450.SZ; 先导智能; 40.7; 14.6%; 195420.0; 33</t>
         </is>
       </c>
+      <c r="FH8" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 270.5; 0.0%; 140707.0; 61</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -35649,6 +35779,11 @@
           <t>300458.SZ; 全志科技; 52.5; 12.1%; 153533.0; 50</t>
         </is>
       </c>
+      <c r="FH9" t="inlineStr">
+        <is>
+          <t>300092.SZ; 科新机电; 16.34; 20.0%; 139722.5; 62</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -36464,6 +36599,11 @@
           <t>300237.SZ; 美晨科技; 3.34; 20.1%; 146081.0; 57</t>
         </is>
       </c>
+      <c r="FH10" t="inlineStr">
+        <is>
+          <t>300394.SZ; 天孚通信; 199.18; -10.3%; 135227.0; 66</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -37279,6 +37419,11 @@
           <t>300059.SZ; 东方财富; 28.69; -0.8%; 125389.5; 69</t>
         </is>
       </c>
+      <c r="FH11" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 27.85; -2.9%; 119607.0; 78</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -38094,6 +38239,11 @@
           <t>300476.SZ; 胜宏科技; 270.37; 1.2%; 124728.0; 70</t>
         </is>
       </c>
+      <c r="FH12" t="inlineStr">
+        <is>
+          <t>300418.SZ; 昆仑万维; 43.47; 4.3%; 111198.5; 88</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -38909,6 +39059,11 @@
           <t>300486.SZ; 东杰智能; 24.14; 20.0%; 114394.0; 80</t>
         </is>
       </c>
+      <c r="FH13" t="inlineStr">
+        <is>
+          <t>300324.SZ; 旋极信息; 7.84; 1.6%; 109256.5; 90</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -39724,6 +39879,11 @@
           <t>300620.SZ; 光库科技; 110.56; 14.0%; 103045.0; 97</t>
         </is>
       </c>
+      <c r="FH14" t="inlineStr">
+        <is>
+          <t>688235.SH; 百济神州; 324.85; 8.3%; 108676.0; 93</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -40539,6 +40699,11 @@
           <t>300331.SZ; 苏大维格; 27.84; 8.4%; 100860.5; 99</t>
         </is>
       </c>
+      <c r="FH15" t="inlineStr">
+        <is>
+          <t>300750.SZ; 宁德时代; 302.87; -0.4%; 105075.0; 97</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -41354,6 +41519,11 @@
           <t>688041.SH; 海光信息; 208.96; 7.4%; 99157.5; 100</t>
         </is>
       </c>
+      <c r="FH16" t="inlineStr">
+        <is>
+          <t>300085.SZ; 银之杰; 59; 2.5%; 101390.5; 99</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -42169,6 +42339,11 @@
           <t>301165.SZ; 锐捷网络; 103.61; 16.0%; 94575.0; 103</t>
         </is>
       </c>
+      <c r="FH17" t="inlineStr">
+        <is>
+          <t>301488.SZ; 豪恩汽电; 129.89; 11.0%; 98111.5; 103</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -42984,6 +43159,11 @@
           <t>300433.SZ; 蓝思科技; 32.34; 4.0%; 89110.0; 112</t>
         </is>
       </c>
+      <c r="FH18" t="inlineStr">
+        <is>
+          <t>688110.SH; 东芯股份; 118; 0.0%; 97165.0; 105</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -43799,6 +43979,11 @@
           <t>300750.SZ; 宁德时代; 304; -0.7%; 87590.0; 115</t>
         </is>
       </c>
+      <c r="FH19" t="inlineStr">
+        <is>
+          <t>300953.SZ; 震裕科技; 160.12; 14.5%; 88120.0; 112</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -44614,6 +44799,11 @@
           <t>300724.SZ; 捷佳伟创; 108.12; 9.5%; 85642.0; 117</t>
         </is>
       </c>
+      <c r="FH20" t="inlineStr">
+        <is>
+          <t>300237.SZ; 美晨科技; 3.58; 7.2%; 84872.5; 117</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -45427,6 +45617,11 @@
       <c r="FG21" t="inlineStr">
         <is>
           <t>300139.SZ; 晓程科技; 22.38; 13.4%; 84837.0; 120</t>
+        </is>
+      </c>
+      <c r="FH21" t="inlineStr">
+        <is>
+          <t>300718.SZ; 长盛轴承; 96.92; 5.3%; 82468.5; 120</t>
         </is>
       </c>
     </row>

--- a/excel/fupan_stocks_non_main.xlsx
+++ b/excel/fupan_stocks_non_main.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FH13"/>
+  <dimension ref="A1:FI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1254,6 +1254,11 @@
           <t>2025年09月02日</t>
         </is>
       </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年09月03日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1779,6 +1784,11 @@
           <t>837174.BJ; 宏裕包材; 1;  11:23:13; 2天2板; 37.24;  10:55:34; 30.0%; 2; 半年报增长+绿色包装+宜昌国资</t>
         </is>
       </c>
+      <c r="FI2" t="inlineStr">
+        <is>
+          <t>300092.SZ; 科新机电; 4;  13:51:00; 2天2板; 19.61;  13:10:36; 20.0%; 2; 核电军工+压力容器+股东减少</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2062,6 +2072,11 @@
       <c r="FE3" t="inlineStr">
         <is>
           <t>301389.SZ; 隆扬电子; 26;  14:56:30; 2天2板; 72.58;  13:46:36; 20.0%; 2; 复合铜箔+电磁屏蔽+消费电子+并购重组</t>
+        </is>
+      </c>
+      <c r="FI3" t="inlineStr">
+        <is>
+          <t>837174.BJ; 宏裕包材; 3;  14:26:44; 3天3板; 48.41;  13:22:17; 30.0%; 3; 半年报增长+锂电池+绿色包装+宜昌国资</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FH532"/>
+  <dimension ref="A1:FI532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3235,6 +3250,11 @@
           <t>2025年09月02日</t>
         </is>
       </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年09月03日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -3313,6 +3333,11 @@
       <c r="ER2" t="inlineStr">
         <is>
           <t>300069.SZ; 金利华电; 0;  09:25:00; 一字跌停||缩量跌停; 23.88; -20.0%; 1; 终止购买海德利森100%股权</t>
+        </is>
+      </c>
+      <c r="FI2" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 3;  14:54:00; 放量跌停; 148.41; -20.0%; 1; 军工板块下跌+资金流出+前期涨幅较大</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FH12"/>
+  <dimension ref="A1:FI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9461,6 +9486,11 @@
           <t>2025年09月02日</t>
         </is>
       </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年09月03日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10231,6 +10261,11 @@
           <t>831906.BJ; 舜宇精工; 4;  13:32:01; 40; 曾涨停; 21.1%; 1.23H;  13:32:01|| 13:39:31|| 14:44:25|| 14:46:19</t>
         </is>
       </c>
+      <c r="FI2" t="inlineStr">
+        <is>
+          <t>688709.SH; 成都华微; 1;  10:41:48; 56.9; 曾涨停; 15.0%; 0.80H;  10:41:48</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10901,6 +10936,11 @@
           <t>301529.SZ; 福赛科技; 2;  13:33:03; 92.11; 曾涨停; 14.3%; 0.58H;  13:33:03|| 13:39:42</t>
         </is>
       </c>
+      <c r="FI3" t="inlineStr">
+        <is>
+          <t>688498.SH; 源杰科技; 1;  10:47:00; 397.8; 曾涨停; 13.0%; 0.01H;  10:47:00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -11404,6 +11444,11 @@
       <c r="FH4" t="inlineStr">
         <is>
           <t>301550.SZ; 斯菱股份; 1;  13:35:15; 112.82; 曾涨停; 11.3%; 0.01H;  13:35:15</t>
+        </is>
+      </c>
+      <c r="FI4" t="inlineStr">
+        <is>
+          <t>300331.SZ; 苏大维格; 2;  11:00:27; 31.98; 曾涨停; 11.0%; 0.09H;  11:00:27|| 11:05:54</t>
         </is>
       </c>
     </row>
@@ -12288,7 +12333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FH30"/>
+  <dimension ref="A1:FI30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13112,6 +13157,11 @@
           <t>2025年09月02日</t>
         </is>
       </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年09月03日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13927,6 +13977,11 @@
           <t>300092.SZ; 科新机电; 0;  10:32:12; 首板涨停; 16.34;  10:32:12; 20.0%; 1; 核电军工+压力容器+半年报披露</t>
         </is>
       </c>
+      <c r="FI2" t="inlineStr">
+        <is>
+          <t>300801.SZ; 泰和科技; 0;  11:00:00; 首板涨停; 30.19;  11:00:00; 20.0%; 1; 固态电池+光刻胶+水处理剂+中报增长</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14722,6 +14777,11 @@
           <t>838670.BJ; 恒进感应; 1;  10:52:37; 首板涨停; 24.79;  10:24:49; 30.0%; 1; 半年报增长+机床工具+专精特新</t>
         </is>
       </c>
+      <c r="FI3" t="inlineStr">
+        <is>
+          <t>300277.SZ; 海联讯; 8;  13:36:24; 首板涨停; 15.46;  09:40:54; 20.0%; 1; 智能电网+国企改革+重组上市+传感器</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -15472,6 +15532,11 @@
           <t>688203.SH; 海正生材; 0;  09:38:38; 首板涨停; 16.66;  09:38:38; 20.0%; 1; 3D打印+可降解塑料+国企</t>
         </is>
       </c>
+      <c r="FI4" t="inlineStr">
+        <is>
+          <t>870726.BJ; 鸿智科技; 1;  14:14:26; 首板涨停; 23.27;  09:45:44; 30.0%; 1; 跨境电商+厨房小家电+半年报增长+自主品牌</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -16157,6 +16222,11 @@
           <t>301031.SZ; 中熔电气; 0;  09:44:15; 首板涨停; 111.72;  09:44:15; 20.0%; 1; 熔断器龙头+储能+数据中心</t>
         </is>
       </c>
+      <c r="FI5" t="inlineStr">
+        <is>
+          <t>688411.SH; 海博思创; 0;  14:24:11; 首板涨停; 148.08;  14:24:11; 20.0%; 1; 固态电池+储能系统+半年报增长</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -16785,6 +16855,11 @@
       <c r="FG6" t="inlineStr">
         <is>
           <t>837174.BJ; 宏裕包材; 1;  10:11:05; 首板涨停; 28.65;  10:09:50; 30.0%; 1; 半年报增长+绿色包装+宜昌国资</t>
+        </is>
+      </c>
+      <c r="FI6" t="inlineStr">
+        <is>
+          <t>300827.SZ; 上能电气; 0;  14:33:09; 首板涨停; 30.11;  14:33:09; 20.0%; 1; 储能变流器+光伏逆变器+全球第四+央企供应商</t>
         </is>
       </c>
     </row>
@@ -19509,7 +19584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FH178"/>
+  <dimension ref="A1:FI178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20333,6 +20408,11 @@
           <t>2025年09月02日</t>
         </is>
       </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年09月03日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -21123,6 +21203,11 @@
           <t>831906.BJ; 舜宇精工; 5.0%; 27.6%; 40; 21.1%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="FI2" t="inlineStr">
+        <is>
+          <t>839719.BJ; 宁新新材; 1.7%; 12.7%; 18.48; 10.8%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -21873,6 +21958,11 @@
           <t>430556.BJ; 雅达股份; 4.7%; 12.8%; 13.99; 7.5%; 阳线||放量||价升量缩</t>
         </is>
       </c>
+      <c r="FI3" t="inlineStr">
+        <is>
+          <t>688261.SH; 东微半导; 1.3%; 13.8%; 92.18; 12.3%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -22558,6 +22648,11 @@
           <t>301413.SZ; 安培龙; 2.3%; 16.1%; 136; 13.4%; 价升量涨||强中选强||阳线</t>
         </is>
       </c>
+      <c r="FI4" t="inlineStr">
+        <is>
+          <t>688108.SH; 赛诺医疗; 1.3%; 14.2%; 36.28; 12.7%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -23163,6 +23258,11 @@
           <t>300530.SZ; 领湃科技; 0.5%; 12.9%; 40.53; 12.3%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FI5" t="inlineStr">
+        <is>
+          <t>688717.SH; 艾罗能源; 0.6%; 19.9%; 78.46; 19.1%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -23708,6 +23808,11 @@
           <t>300953.SZ; 震裕科技; 0.0%; 14.5%; 160.12; 14.5%; 价升量涨||阳线||放量</t>
         </is>
       </c>
+      <c r="FI6" t="inlineStr">
+        <is>
+          <t>688498.SH; 源杰科技; 0.6%; 13.7%; 397.8; 13.0%; 强中选强||阳线||放量</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -24206,6 +24311,11 @@
       <c r="FG7" t="inlineStr">
         <is>
           <t>837174.BJ; 宏裕包材; 0.8%; 31.0%; 28.65; 30.0%; 价升量涨||阳线||放量</t>
+        </is>
+      </c>
+      <c r="FI7" t="inlineStr">
+        <is>
+          <t>688506.SH; 百利天恒; 0.5%; 14.0%; 410; 13.4%; 价升量涨||阳线||放量</t>
         </is>
       </c>
     </row>
@@ -28400,7 +28510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FH21"/>
+  <dimension ref="A1:FI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29224,6 +29334,11 @@
           <t>2025年09月02日</t>
         </is>
       </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2025年09月03日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -30044,6 +30159,11 @@
           <t>688256.SH; 寒武纪; 1480; 2.2%; 281653.5; 22</t>
         </is>
       </c>
+      <c r="FI2" t="inlineStr">
+        <is>
+          <t>300308.SZ; 中际旭创; 426.19; 11.0%; 345174.5; 7</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -30864,6 +30984,11 @@
           <t>300502.SZ; 新易盛; 358.2; -7.8%; 259779.0; 23</t>
         </is>
       </c>
+      <c r="FI3" t="inlineStr">
+        <is>
+          <t>300274.SZ; 阳光电源; 114.9; 15.3%; 317650.5; 9</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -31684,6 +31809,11 @@
           <t>300450.SZ; 先导智能; 43.8; 7.6%; 195675.5; 38</t>
         </is>
       </c>
+      <c r="FI4" t="inlineStr">
+        <is>
+          <t>300827.SZ; 上能电气; 30.11; 20.0%; 207681.0; 16</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -32504,6 +32634,11 @@
           <t>300308.SZ; 中际旭创; 384; -5.4%; 164752.5; 49</t>
         </is>
       </c>
+      <c r="FI5" t="inlineStr">
+        <is>
+          <t>300668.SZ; 杰恩设计; 20.6; 17.7%; 199244.5; 17</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -33324,6 +33459,11 @@
           <t>300007.SZ; 汉威科技; 51.95; 11.5%; 158175.0; 54</t>
         </is>
       </c>
+      <c r="FI6" t="inlineStr">
+        <is>
+          <t>300014.SZ; 亿纬锂能; 64.01; 12.1%; 183344.0; 19</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -34144,6 +34284,11 @@
           <t>688585.SH; 上纬新材; 97.6; 14.7%; 155092.0; 55</t>
         </is>
       </c>
+      <c r="FI7" t="inlineStr">
+        <is>
+          <t>688256.SH; 寒武纪; 1405; -5.1%; 177024.0; 22</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -34964,6 +35109,11 @@
           <t>300476.SZ; 胜宏科技; 270.5; 0.0%; 140707.0; 61</t>
         </is>
       </c>
+      <c r="FI8" t="inlineStr">
+        <is>
+          <t>300502.SZ; 新易盛; 369.71; 3.2%; 161631.5; 28</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -35784,6 +35934,11 @@
           <t>300092.SZ; 科新机电; 16.34; 20.0%; 139722.5; 62</t>
         </is>
       </c>
+      <c r="FI9" t="inlineStr">
+        <is>
+          <t>301357.SZ; 北方长龙; 148.41; -20.0%; 152432.5; 30</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -36604,6 +36759,11 @@
           <t>300394.SZ; 天孚通信; 199.18; -10.3%; 135227.0; 66</t>
         </is>
       </c>
+      <c r="FI10" t="inlineStr">
+        <is>
+          <t>300092.SZ; 科新机电; 19.61; 20.0%; 139070.5; 35</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -37424,6 +37584,11 @@
           <t>300059.SZ; 东方财富; 27.85; -2.9%; 119607.0; 78</t>
         </is>
       </c>
+      <c r="FI11" t="inlineStr">
+        <is>
+          <t>300801.SZ; 泰和科技; 30.19; 20.0%; 129697.5; 42</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -38244,6 +38409,11 @@
           <t>300418.SZ; 昆仑万维; 43.47; 4.3%; 111198.5; 88</t>
         </is>
       </c>
+      <c r="FI12" t="inlineStr">
+        <is>
+          <t>300059.SZ; 东方财富; 26.63; -4.4%; 120141.0; 49</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -39064,6 +39234,11 @@
           <t>300324.SZ; 旋极信息; 7.84; 1.6%; 109256.5; 90</t>
         </is>
       </c>
+      <c r="FI13" t="inlineStr">
+        <is>
+          <t>300750.SZ; 宁德时代; 309; 2.0%; 119167.0; 50</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -39884,6 +40059,11 @@
           <t>688235.SH; 百济神州; 324.85; 8.3%; 108676.0; 93</t>
         </is>
       </c>
+      <c r="FI14" t="inlineStr">
+        <is>
+          <t>300277.SZ; 海联讯; 15.46; 20.0%; 116448.0; 53</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -40704,6 +40884,11 @@
           <t>300750.SZ; 宁德时代; 302.87; -0.4%; 105075.0; 97</t>
         </is>
       </c>
+      <c r="FI15" t="inlineStr">
+        <is>
+          <t>300450.SZ; 先导智能; 43.96; 0.4%; 101398.0; 67</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -41524,6 +41709,11 @@
           <t>300085.SZ; 银之杰; 59; 2.5%; 101390.5; 99</t>
         </is>
       </c>
+      <c r="FI16" t="inlineStr">
+        <is>
+          <t>300486.SZ; 东杰智能; 26.05; 10.0%; 95419.5; 70</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -42344,6 +42534,11 @@
           <t>301488.SZ; 豪恩汽电; 129.89; 11.0%; 98111.5; 103</t>
         </is>
       </c>
+      <c r="FI17" t="inlineStr">
+        <is>
+          <t>300394.SZ; 天孚通信; 205.31; 3.1%; 89516.5; 79</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -43164,6 +43359,11 @@
           <t>688110.SH; 东芯股份; 118; 0.0%; 97165.0; 105</t>
         </is>
       </c>
+      <c r="FI18" t="inlineStr">
+        <is>
+          <t>302132.SZ; 中航成飞; 90.99; -14.3%; 82940.0; 84</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -43984,6 +44184,11 @@
           <t>300953.SZ; 震裕科技; 160.12; 14.5%; 88120.0; 112</t>
         </is>
       </c>
+      <c r="FI19" t="inlineStr">
+        <is>
+          <t>300085.SZ; 银之杰; 52.12; -11.7%; 81941.5; 86</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -44804,6 +45009,11 @@
           <t>300237.SZ; 美晨科技; 3.58; 7.2%; 84872.5; 117</t>
         </is>
       </c>
+      <c r="FI20" t="inlineStr">
+        <is>
+          <t>300476.SZ; 胜宏科技; 270.31; -0.1%; 81160.5; 88</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -45622,6 +45832,11 @@
       <c r="FH21" t="inlineStr">
         <is>
           <t>300718.SZ; 长盛轴承; 96.92; 5.3%; 82468.5; 120</t>
+        </is>
+      </c>
+      <c r="FI21" t="inlineStr">
+        <is>
+          <t>300409.SZ; 道氏技术; 23.22; 9.7%; 70331.5; 102</t>
         </is>
       </c>
     </row>
